--- a/data/condominio.xlsx
+++ b/data/condominio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{3C657B5D-ABCD-4B0F-AFEB-2DF436EF1141}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E62AC2C3-5EFF-4905-901A-6422CF7AA65C}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="113_{11F70DDE-C80C-4855-9B3C-0D2D94021E73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DCFDC0D3-F9C2-489C-86AB-67A9ECD5BFCA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notas" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,15 @@
     <sheet name="artilharia" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">artilharia!$A$1:$Y$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AG$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">artilharia!$A$1:$AI$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AI$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="88">
   <si>
     <t>Jogador</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Agosto - já pago</t>
   </si>
   <si>
-    <t>Outubro - já pago</t>
-  </si>
-  <si>
     <t>Total a receber</t>
   </si>
   <si>
@@ -288,6 +285,12 @@
   </si>
   <si>
     <t>Novembro - já pago</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>Drope</t>
   </si>
 </sst>
 </file>
@@ -1302,11 +1305,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AI51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V22" sqref="V22"/>
+      <selection pane="topRight" activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1326,9 +1329,10 @@
     <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1410,20 +1414,26 @@
       <c r="AA1" s="1">
         <v>45623</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AB1" s="1">
+        <v>45629</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>45637</v>
+      </c>
+      <c r="AF1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1493,23 +1503,29 @@
       <c r="AA2">
         <v>6.5</v>
       </c>
-      <c r="AD2">
-        <f t="shared" ref="AD2:AD48" si="0">COUNT(B2:AC2)</f>
-        <v>22</v>
-      </c>
-      <c r="AE2" s="18">
-        <f t="shared" ref="AE2:AE48" si="1">AVERAGE(B2:AC2)</f>
-        <v>5.75</v>
+      <c r="AB2">
+        <v>6</v>
+      </c>
+      <c r="AC2">
+        <v>6</v>
       </c>
       <c r="AF2">
-        <f t="shared" ref="AF2:AF48" si="2">IF(AD2&gt;1,_xlfn.STDEV.S(B2:AC2),"")</f>
-        <v>0.48181205582971576</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+        <f t="shared" ref="AF2:AF33" si="0">COUNT(B2:AE2)</f>
+        <v>24</v>
+      </c>
+      <c r="AG2" s="18">
+        <f t="shared" ref="AG2:AG33" si="1">AVERAGE(B2:AE2)</f>
+        <v>5.770833333333333</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" ref="AH2:AH33" si="2">IF(AF2&gt;1,_xlfn.STDEV.S(B2:AE2),"")</f>
+        <v>0.46576647131057164</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1525,46 +1541,46 @@
       <c r="N3">
         <v>6.5</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AE3" s="18">
+      <c r="AG3" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <f t="shared" si="2"/>
         <v>0.40824829046386302</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z4">
         <v>6.5</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AE4" s="18">
+      <c r="AG4" s="18">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="AF4" t="str">
+      <c r="AH4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1604,23 +1620,23 @@
       <c r="M5">
         <v>3</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AE5" s="18">
+      <c r="AG5" s="18">
         <f t="shared" si="1"/>
         <v>4.833333333333333</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <f t="shared" si="2"/>
         <v>1.2673044646258482</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1639,23 +1655,23 @@
       <c r="U6">
         <v>6.5</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AE6" s="18">
+      <c r="AG6" s="18">
         <f t="shared" si="1"/>
         <v>6.6</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <f t="shared" si="2"/>
         <v>0.22360679774997896</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1668,23 +1684,23 @@
       <c r="R7">
         <v>6</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AE7" s="18">
+      <c r="AG7" s="18">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <f t="shared" si="2"/>
         <v>0.8660254037844386</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1736,1087 +1752,1087 @@
       <c r="Z8">
         <v>5.5</v>
       </c>
-      <c r="AD8">
+      <c r="AC8">
+        <v>4.5</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AG8" s="18">
+        <f t="shared" si="1"/>
+        <v>5.117647058823529</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="2"/>
+        <v>0.82024028043437247</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>6.5</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>6.5</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5.5</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>5.5</v>
+      </c>
+      <c r="Q9">
+        <v>5.5</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>6.5</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>6.5</v>
+      </c>
+      <c r="Y9">
+        <v>6</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9">
+        <v>5.5</v>
+      </c>
+      <c r="AC9">
+        <v>6</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="AG9" s="18">
+        <f t="shared" si="1"/>
+        <v>5.9523809523809526</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="2"/>
+        <v>0.49761335152811936</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <v>6.5</v>
+      </c>
+      <c r="W10">
+        <v>7</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AG10" s="18">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="V11">
+        <v>6</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="Y11">
+        <v>6</v>
+      </c>
+      <c r="AB11">
+        <v>6.5</v>
+      </c>
+      <c r="AC11">
+        <v>6</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AG11" s="18">
+        <f t="shared" si="1"/>
+        <v>6.1</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="2"/>
+        <v>0.22360679774997896</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB12">
+        <v>5</v>
+      </c>
+      <c r="AC12">
+        <v>6</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG12" s="18">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="2"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="AI12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>6.5</v>
+      </c>
+      <c r="C13">
+        <v>5.5</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <v>5.5</v>
+      </c>
+      <c r="R13">
+        <v>6.5</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>6.5</v>
+      </c>
+      <c r="V13">
+        <v>5.5</v>
+      </c>
+      <c r="W13">
+        <v>6</v>
+      </c>
+      <c r="X13">
+        <v>5.5</v>
+      </c>
+      <c r="Y13">
+        <v>6.5</v>
+      </c>
+      <c r="AA13">
+        <v>6.5</v>
+      </c>
+      <c r="AB13">
+        <v>6</v>
+      </c>
+      <c r="AF13">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="AE8" s="18">
+      <c r="AG13" s="18">
         <f t="shared" si="1"/>
-        <v>5.15625</v>
-      </c>
-      <c r="AF8">
+        <v>5.96875</v>
+      </c>
+      <c r="AH13">
         <f t="shared" si="2"/>
-        <v>0.83103850692973313</v>
-      </c>
-      <c r="AG8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>6.5</v>
-      </c>
-      <c r="D9">
+        <v>0.46435439052516775</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
         <v>7</v>
       </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>6.5</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>5.5</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>6</v>
-      </c>
-      <c r="M9">
-        <v>6</v>
-      </c>
-      <c r="O9">
-        <v>6</v>
-      </c>
-      <c r="P9">
-        <v>5.5</v>
-      </c>
-      <c r="Q9">
-        <v>5.5</v>
-      </c>
-      <c r="R9">
-        <v>6</v>
-      </c>
-      <c r="S9">
-        <v>5</v>
-      </c>
-      <c r="T9">
-        <v>6.5</v>
-      </c>
-      <c r="V9">
-        <v>6</v>
-      </c>
-      <c r="X9">
-        <v>6.5</v>
-      </c>
-      <c r="Y9">
-        <v>6</v>
-      </c>
-      <c r="AA9">
-        <v>6</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AE9" s="18">
-        <f t="shared" si="1"/>
-        <v>5.9736842105263159</v>
-      </c>
-      <c r="AF9">
-        <f t="shared" si="2"/>
-        <v>0.51298917604257721</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-      <c r="V10">
-        <v>6.5</v>
-      </c>
-      <c r="W10">
+      <c r="C14">
+        <v>6.5</v>
+      </c>
+      <c r="D14">
+        <v>6.5</v>
+      </c>
+      <c r="E14">
         <v>7</v>
       </c>
-      <c r="AD10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AE10" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="V11">
-        <v>6</v>
-      </c>
-      <c r="W11">
-        <v>6</v>
-      </c>
-      <c r="Y11">
-        <v>6</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AE11" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>6.5</v>
-      </c>
-      <c r="C12">
-        <v>5.5</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="P12">
-        <v>6</v>
-      </c>
-      <c r="Q12">
-        <v>5.5</v>
-      </c>
-      <c r="R12">
-        <v>6.5</v>
-      </c>
-      <c r="S12">
-        <v>6</v>
-      </c>
-      <c r="T12">
-        <v>6</v>
-      </c>
-      <c r="U12">
-        <v>6.5</v>
-      </c>
-      <c r="V12">
-        <v>5.5</v>
-      </c>
-      <c r="W12">
-        <v>6</v>
-      </c>
-      <c r="X12">
-        <v>5.5</v>
-      </c>
-      <c r="Y12">
-        <v>6.5</v>
-      </c>
-      <c r="AA12">
-        <v>6.5</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="AE12" s="18">
-        <f t="shared" si="1"/>
-        <v>5.9666666666666668</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="2"/>
-        <v>0.48057505236162745</v>
-      </c>
-      <c r="AG12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="I14">
         <v>7</v>
       </c>
-      <c r="C13">
-        <v>6.5</v>
-      </c>
-      <c r="D13">
-        <v>6.5</v>
-      </c>
-      <c r="E13">
+      <c r="K14">
         <v>7</v>
       </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="I13">
-        <v>7</v>
-      </c>
-      <c r="K13">
-        <v>7</v>
-      </c>
-      <c r="N13">
-        <v>6</v>
-      </c>
-      <c r="O13">
-        <v>6.5</v>
-      </c>
-      <c r="P13">
-        <v>6</v>
-      </c>
-      <c r="S13">
-        <v>6</v>
-      </c>
-      <c r="T13">
-        <v>6.5</v>
-      </c>
-      <c r="U13">
-        <v>6.5</v>
-      </c>
-      <c r="W13">
-        <v>6</v>
-      </c>
-      <c r="X13">
-        <v>6</v>
-      </c>
-      <c r="AA13">
-        <v>6</v>
-      </c>
-      <c r="AD13">
+      <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="O14">
+        <v>6.5</v>
+      </c>
+      <c r="P14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>6.5</v>
+      </c>
+      <c r="U14">
+        <v>6.5</v>
+      </c>
+      <c r="W14">
+        <v>6</v>
+      </c>
+      <c r="X14">
+        <v>6</v>
+      </c>
+      <c r="AA14">
+        <v>6</v>
+      </c>
+      <c r="AF14">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AE13" s="18">
+      <c r="AG14" s="18">
         <f t="shared" si="1"/>
         <v>6.382352941176471</v>
       </c>
-      <c r="AF13">
+      <c r="AH14">
         <f t="shared" si="2"/>
         <v>0.41568511838536965</v>
       </c>
-      <c r="AG13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="AI14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>52</v>
       </c>
-      <c r="J14">
-        <v>6</v>
-      </c>
-      <c r="AD14">
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="AF15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AE14" s="18">
+      <c r="AG15" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AF14" t="str">
+      <c r="AH15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG14">
+      <c r="AI15">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z15">
-        <v>5</v>
-      </c>
-      <c r="AD15">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z16">
+        <v>5</v>
+      </c>
+      <c r="AF16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AE15" s="18">
+      <c r="AG16" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AF15" t="str">
+      <c r="AH16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG15">
+      <c r="AI16">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>7.5</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>7</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>7</v>
       </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16">
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
         <v>7</v>
       </c>
-      <c r="K16">
-        <v>6</v>
-      </c>
-      <c r="L16">
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17">
         <v>7</v>
       </c>
-      <c r="M16">
-        <v>6.5</v>
-      </c>
-      <c r="N16">
-        <v>6</v>
-      </c>
-      <c r="R16">
+      <c r="M17">
+        <v>6.5</v>
+      </c>
+      <c r="N17">
+        <v>6</v>
+      </c>
+      <c r="R17">
         <v>8</v>
       </c>
-      <c r="AD16">
+      <c r="AF17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AE16" s="18">
+      <c r="AG17" s="18">
         <f t="shared" si="1"/>
         <v>6.8</v>
       </c>
-      <c r="AF16">
+      <c r="AH17">
         <f t="shared" si="2"/>
         <v>0.67494855771055284</v>
       </c>
-      <c r="AG16">
+      <c r="AI17">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
         <v>5.5</v>
       </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="H17">
-        <v>6.5</v>
-      </c>
-      <c r="I17">
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>6.5</v>
+      </c>
+      <c r="I18">
         <v>5.5</v>
       </c>
-      <c r="J17">
-        <v>6</v>
-      </c>
-      <c r="K17">
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
         <v>5.5</v>
       </c>
-      <c r="L17">
-        <v>6.5</v>
-      </c>
-      <c r="M17">
-        <v>6</v>
-      </c>
-      <c r="N17">
-        <v>6.5</v>
-      </c>
-      <c r="O17">
-        <v>5.5</v>
-      </c>
-      <c r="P17">
-        <v>5.5</v>
-      </c>
-      <c r="Q17">
-        <v>6.5</v>
-      </c>
-      <c r="R17">
-        <v>6</v>
-      </c>
-      <c r="S17">
-        <v>6</v>
-      </c>
-      <c r="T17">
-        <v>6.5</v>
-      </c>
-      <c r="U17">
-        <v>6</v>
-      </c>
-      <c r="V17">
-        <v>5.5</v>
-      </c>
-      <c r="W17">
-        <v>5.5</v>
-      </c>
-      <c r="X17">
-        <v>6</v>
-      </c>
-      <c r="Y17">
-        <v>5.5</v>
-      </c>
-      <c r="AA17">
-        <v>6.5</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="AE17" s="18">
-        <f t="shared" si="1"/>
-        <v>5.9130434782608692</v>
-      </c>
-      <c r="AF17">
-        <f t="shared" si="2"/>
-        <v>0.44344144619727821</v>
-      </c>
-      <c r="AG17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>7.5</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>6</v>
-      </c>
-      <c r="F18">
-        <v>6.5</v>
-      </c>
-      <c r="G18">
-        <v>6.5</v>
-      </c>
-      <c r="H18">
-        <v>5.5</v>
-      </c>
-      <c r="I18">
-        <v>7</v>
-      </c>
-      <c r="J18">
-        <v>5.5</v>
-      </c>
-      <c r="K18">
-        <v>6.5</v>
-      </c>
       <c r="L18">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M18">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N18">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O18">
         <v>5.5</v>
       </c>
       <c r="P18">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q18">
         <v>6.5</v>
       </c>
       <c r="R18">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="S18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T18">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U18">
+        <v>6</v>
+      </c>
+      <c r="V18">
         <v>5.5</v>
       </c>
-      <c r="V18">
-        <v>6</v>
-      </c>
       <c r="W18">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X18">
         <v>6</v>
       </c>
       <c r="Y18">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AA18">
-        <v>6</v>
-      </c>
-      <c r="AD18">
+        <v>6.5</v>
+      </c>
+      <c r="AB18">
+        <v>6</v>
+      </c>
+      <c r="AC18">
+        <v>6</v>
+      </c>
+      <c r="AF18">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AE18" s="18">
+      <c r="AG18" s="18">
         <f t="shared" si="1"/>
-        <v>6.18</v>
-      </c>
-      <c r="AF18">
+        <v>5.92</v>
+      </c>
+      <c r="AH18">
         <f t="shared" si="2"/>
-        <v>0.71995370221517418</v>
-      </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+        <v>0.42524502740576925</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z19">
-        <v>6.5</v>
-      </c>
-      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>7.5</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>6.5</v>
+      </c>
+      <c r="G19">
+        <v>6.5</v>
+      </c>
+      <c r="H19">
+        <v>5.5</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>5.5</v>
+      </c>
+      <c r="K19">
+        <v>6.5</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>5.5</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+      <c r="O19">
+        <v>5.5</v>
+      </c>
+      <c r="P19">
+        <v>6.5</v>
+      </c>
+      <c r="Q19">
+        <v>6.5</v>
+      </c>
+      <c r="R19">
+        <v>6.5</v>
+      </c>
+      <c r="S19">
+        <v>7</v>
+      </c>
+      <c r="T19">
+        <v>6</v>
+      </c>
+      <c r="U19">
+        <v>5.5</v>
+      </c>
+      <c r="V19">
+        <v>6</v>
+      </c>
+      <c r="W19">
+        <v>6</v>
+      </c>
+      <c r="X19">
+        <v>6</v>
+      </c>
+      <c r="Y19">
+        <v>6.5</v>
+      </c>
+      <c r="AA19">
+        <v>6</v>
+      </c>
+      <c r="AB19">
+        <v>6</v>
+      </c>
+      <c r="AC19">
+        <v>7</v>
+      </c>
+      <c r="AF19">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE19" s="18">
+        <v>27</v>
+      </c>
+      <c r="AG19" s="18">
         <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="AF19" t="str">
+        <v>6.2037037037037033</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="2"/>
+        <v>0.71062349734986419</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z20">
+        <v>6.5</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG20" s="18">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="AH20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG19">
+      <c r="AI20">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B20">
-        <v>6.5</v>
-      </c>
-      <c r="D20">
-        <v>6.5</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20">
+      <c r="B21">
+        <v>6.5</v>
+      </c>
+      <c r="D21">
+        <v>6.5</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
         <v>7</v>
       </c>
-      <c r="G20">
-        <v>6.5</v>
-      </c>
-      <c r="H20">
-        <v>6.5</v>
-      </c>
-      <c r="J20">
-        <v>6</v>
-      </c>
-      <c r="L20">
-        <v>6.5</v>
-      </c>
-      <c r="M20">
-        <v>6.5</v>
-      </c>
-      <c r="N20">
+      <c r="G21">
+        <v>6.5</v>
+      </c>
+      <c r="H21">
+        <v>6.5</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="L21">
+        <v>6.5</v>
+      </c>
+      <c r="M21">
+        <v>6.5</v>
+      </c>
+      <c r="N21">
         <v>7</v>
       </c>
-      <c r="O20">
-        <v>6</v>
-      </c>
-      <c r="P20">
-        <v>6</v>
-      </c>
-      <c r="Q20">
-        <v>6.5</v>
-      </c>
-      <c r="S20">
-        <v>6</v>
-      </c>
-      <c r="T20">
+      <c r="O21">
+        <v>6</v>
+      </c>
+      <c r="P21">
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <v>6.5</v>
+      </c>
+      <c r="S21">
+        <v>6</v>
+      </c>
+      <c r="T21">
         <v>7</v>
       </c>
-      <c r="V20">
-        <v>6</v>
-      </c>
-      <c r="W20">
-        <v>6.5</v>
-      </c>
-      <c r="X20">
-        <v>6.5</v>
-      </c>
-      <c r="Z20">
+      <c r="V21">
+        <v>6</v>
+      </c>
+      <c r="W21">
+        <v>6.5</v>
+      </c>
+      <c r="X21">
+        <v>6.5</v>
+      </c>
+      <c r="Z21">
         <v>7</v>
       </c>
-      <c r="AA20">
-        <v>6.5</v>
-      </c>
-      <c r="AD20">
+      <c r="AA21">
+        <v>6.5</v>
+      </c>
+      <c r="AB21">
+        <v>6.5</v>
+      </c>
+      <c r="AC21">
+        <v>6</v>
+      </c>
+      <c r="AF21">
         <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AG21" s="18">
+        <f t="shared" si="1"/>
+        <v>6.4318181818181817</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="2"/>
+        <v>0.35508062617136837</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="AE20" s="18">
+      <c r="D22">
+        <v>6.5</v>
+      </c>
+      <c r="E22">
+        <v>6.5</v>
+      </c>
+      <c r="F22">
+        <v>6.5</v>
+      </c>
+      <c r="G22">
+        <v>6.5</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <v>6.5</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>6.5</v>
+      </c>
+      <c r="L22">
+        <v>6</v>
+      </c>
+      <c r="M22">
+        <v>5.5</v>
+      </c>
+      <c r="N22">
+        <v>5.5</v>
+      </c>
+      <c r="P22">
+        <v>6.5</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>6</v>
+      </c>
+      <c r="S22">
+        <v>6.5</v>
+      </c>
+      <c r="T22">
+        <v>6</v>
+      </c>
+      <c r="U22">
+        <v>6.5</v>
+      </c>
+      <c r="V22">
+        <v>6</v>
+      </c>
+      <c r="W22">
+        <v>6</v>
+      </c>
+      <c r="X22">
+        <v>5.5</v>
+      </c>
+      <c r="Y22">
+        <v>6</v>
+      </c>
+      <c r="Z22">
+        <v>6</v>
+      </c>
+      <c r="AA22">
+        <v>6.5</v>
+      </c>
+      <c r="AB22">
+        <v>5.5</v>
+      </c>
+      <c r="AC22">
+        <v>6</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AG22" s="18">
         <f t="shared" si="1"/>
-        <v>6.45</v>
-      </c>
-      <c r="AF20">
+        <v>6.16</v>
+      </c>
+      <c r="AH22">
         <f t="shared" si="2"/>
-        <v>0.35909242322980389</v>
-      </c>
-      <c r="AG20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>6.5</v>
-      </c>
-      <c r="E21">
-        <v>6.5</v>
-      </c>
-      <c r="F21">
-        <v>6.5</v>
-      </c>
-      <c r="G21">
-        <v>6.5</v>
-      </c>
-      <c r="H21">
-        <v>7</v>
-      </c>
-      <c r="I21">
-        <v>6.5</v>
-      </c>
-      <c r="J21">
-        <v>7</v>
-      </c>
-      <c r="K21">
-        <v>6.5</v>
-      </c>
-      <c r="L21">
-        <v>6</v>
-      </c>
-      <c r="M21">
-        <v>5.5</v>
-      </c>
-      <c r="N21">
-        <v>5.5</v>
-      </c>
-      <c r="P21">
-        <v>6.5</v>
-      </c>
-      <c r="Q21">
-        <v>5</v>
-      </c>
-      <c r="R21">
-        <v>6</v>
-      </c>
-      <c r="S21">
-        <v>6.5</v>
-      </c>
-      <c r="T21">
-        <v>6</v>
-      </c>
-      <c r="U21">
-        <v>6.5</v>
-      </c>
-      <c r="V21">
-        <v>6</v>
-      </c>
-      <c r="W21">
-        <v>6</v>
-      </c>
-      <c r="X21">
-        <v>5.5</v>
-      </c>
-      <c r="Y21">
-        <v>6</v>
-      </c>
-      <c r="Z21">
-        <v>6</v>
-      </c>
-      <c r="AA21">
-        <v>6.5</v>
-      </c>
-      <c r="AD21">
+        <v>0.49413223601245299</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y23">
+        <v>6.5</v>
+      </c>
+      <c r="AF23">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="AE21" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="18">
         <f t="shared" si="1"/>
-        <v>6.1956521739130439</v>
-      </c>
-      <c r="AF21">
-        <f t="shared" si="2"/>
-        <v>0.49403557184180485</v>
-      </c>
-      <c r="AG21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y22">
-        <v>6.5</v>
-      </c>
-      <c r="AD22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE22" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="AF22" t="str">
+        <v>6.5</v>
+      </c>
+      <c r="AH23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG22">
+      <c r="AI23">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>61</v>
       </c>
-      <c r="R23">
-        <v>6.5</v>
-      </c>
-      <c r="S23">
+      <c r="R24">
+        <v>6.5</v>
+      </c>
+      <c r="S24">
         <v>5.5</v>
       </c>
-      <c r="T23">
+      <c r="T24">
         <v>5.5</v>
       </c>
-      <c r="W23">
-        <v>6</v>
-      </c>
-      <c r="AD23">
+      <c r="W24">
+        <v>6</v>
+      </c>
+      <c r="AF24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AE23" s="18">
+      <c r="AG24" s="18">
         <f t="shared" si="1"/>
         <v>5.875</v>
       </c>
-      <c r="AF23">
+      <c r="AH24">
         <f t="shared" si="2"/>
         <v>0.47871355387816905</v>
       </c>
-      <c r="AG23">
+      <c r="AI24">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>8.5</v>
       </c>
-      <c r="D24">
-        <v>6.5</v>
-      </c>
-      <c r="E24">
-        <v>6.5</v>
-      </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
-      <c r="M24">
-        <v>6</v>
-      </c>
-      <c r="N24">
-        <v>6</v>
-      </c>
-      <c r="O24">
-        <v>6</v>
-      </c>
-      <c r="P24">
-        <v>6</v>
-      </c>
-      <c r="Q24">
-        <v>6.5</v>
-      </c>
-      <c r="T24">
-        <v>6</v>
-      </c>
-      <c r="U24">
-        <v>6</v>
-      </c>
-      <c r="V24">
-        <v>6.5</v>
-      </c>
-      <c r="W24">
-        <v>6</v>
-      </c>
-      <c r="Y24">
+      <c r="D25">
+        <v>6.5</v>
+      </c>
+      <c r="E25">
+        <v>6.5</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25">
+        <v>6</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
+      </c>
+      <c r="P25">
+        <v>6</v>
+      </c>
+      <c r="Q25">
+        <v>6.5</v>
+      </c>
+      <c r="T25">
+        <v>6</v>
+      </c>
+      <c r="U25">
+        <v>6</v>
+      </c>
+      <c r="V25">
+        <v>6.5</v>
+      </c>
+      <c r="W25">
+        <v>6</v>
+      </c>
+      <c r="Y25">
         <v>7.5</v>
       </c>
-      <c r="Z24">
-        <v>6</v>
-      </c>
-      <c r="AA24">
-        <v>6</v>
-      </c>
-      <c r="AD24">
+      <c r="Z25">
+        <v>6</v>
+      </c>
+      <c r="AA25">
+        <v>6</v>
+      </c>
+      <c r="AB25">
+        <v>5.5</v>
+      </c>
+      <c r="AF25">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AE24" s="18">
+        <v>17</v>
+      </c>
+      <c r="AG25" s="18">
         <f t="shared" si="1"/>
-        <v>6.375</v>
-      </c>
-      <c r="AF24">
+        <v>6.3235294117647056</v>
+      </c>
+      <c r="AH25">
         <f t="shared" si="2"/>
-        <v>0.695221787153807</v>
-      </c>
-      <c r="AG24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+        <v>0.70580575564802817</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="R25">
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="R26">
         <v>3.5</v>
       </c>
-      <c r="AD25">
+      <c r="AF26">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AE25" s="18">
+      <c r="AG26" s="18">
         <f t="shared" si="1"/>
         <v>3.25</v>
       </c>
-      <c r="AF25">
+      <c r="AH26">
         <f t="shared" si="2"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AG25">
+      <c r="AI26">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>68</v>
       </c>
-      <c r="X26">
-        <v>6</v>
-      </c>
-      <c r="Z26">
+      <c r="X27">
+        <v>6</v>
+      </c>
+      <c r="Z27">
         <v>5.5</v>
       </c>
-      <c r="AA26">
+      <c r="AA27">
         <v>4.5</v>
       </c>
-      <c r="AD26">
+      <c r="AB27">
+        <v>4</v>
+      </c>
+      <c r="AF27">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AE26" s="18">
+        <v>4</v>
+      </c>
+      <c r="AG27" s="18">
         <f t="shared" si="1"/>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="AF26">
+        <v>5</v>
+      </c>
+      <c r="AH27">
         <f t="shared" si="2"/>
-        <v>0.76376261582597493</v>
-      </c>
-      <c r="AG26">
+        <v>0.9128709291752769</v>
+      </c>
+      <c r="AI27">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>53</v>
       </c>
-      <c r="L27">
+      <c r="L28">
         <v>5.5</v>
       </c>
-      <c r="AD27">
+      <c r="AF28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AE27" s="18">
+      <c r="AG28" s="18">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="AF27" t="str">
+      <c r="AH28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG27">
+      <c r="AI28">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>51</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>3.5</v>
       </c>
-      <c r="M28">
-        <v>5</v>
-      </c>
-      <c r="AD28">
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="AF29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AE28" s="18">
+      <c r="AG29" s="18">
         <f t="shared" si="1"/>
         <v>4.25</v>
       </c>
-      <c r="AF28">
+      <c r="AH29">
         <f t="shared" si="2"/>
         <v>1.0606601717798212</v>
       </c>
-      <c r="AG28">
+      <c r="AI29">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>4.5</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>5.5</v>
       </c>
-      <c r="D29">
-        <v>6.5</v>
-      </c>
-      <c r="E29">
+      <c r="D30">
+        <v>6.5</v>
+      </c>
+      <c r="E30">
         <v>5.5</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>5.5</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>5.5</v>
-      </c>
-      <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="I29">
-        <v>5.5</v>
-      </c>
-      <c r="J29">
-        <v>6</v>
-      </c>
-      <c r="K29">
-        <v>6</v>
-      </c>
-      <c r="L29">
-        <v>5.5</v>
-      </c>
-      <c r="M29">
-        <v>6.5</v>
-      </c>
-      <c r="N29">
-        <v>6.5</v>
-      </c>
-      <c r="O29">
-        <v>6.5</v>
-      </c>
-      <c r="P29">
-        <v>5</v>
-      </c>
-      <c r="Q29">
-        <v>5.5</v>
-      </c>
-      <c r="R29">
-        <v>5.5</v>
-      </c>
-      <c r="S29">
-        <v>6.5</v>
-      </c>
-      <c r="T29">
-        <v>5.5</v>
-      </c>
-      <c r="U29">
-        <v>6.5</v>
-      </c>
-      <c r="V29">
-        <v>6.5</v>
-      </c>
-      <c r="X29">
-        <v>6</v>
-      </c>
-      <c r="Y29">
-        <v>6.5</v>
-      </c>
-      <c r="AA29">
-        <v>6</v>
-      </c>
-      <c r="AD29">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AE29" s="18">
-        <f t="shared" si="1"/>
-        <v>5.875</v>
-      </c>
-      <c r="AF29">
-        <f t="shared" si="2"/>
-        <v>0.55658117889096126</v>
-      </c>
-      <c r="AG29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>46</v>
       </c>
       <c r="H30">
         <v>6</v>
@@ -2825,924 +2841,1078 @@
         <v>5.5</v>
       </c>
       <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+      <c r="L30">
         <v>5.5</v>
       </c>
-      <c r="K30">
+      <c r="M30">
+        <v>6.5</v>
+      </c>
+      <c r="N30">
+        <v>6.5</v>
+      </c>
+      <c r="O30">
+        <v>6.5</v>
+      </c>
+      <c r="P30">
+        <v>5</v>
+      </c>
+      <c r="Q30">
+        <v>5.5</v>
+      </c>
+      <c r="R30">
+        <v>5.5</v>
+      </c>
+      <c r="S30">
+        <v>6.5</v>
+      </c>
+      <c r="T30">
+        <v>5.5</v>
+      </c>
+      <c r="U30">
+        <v>6.5</v>
+      </c>
+      <c r="V30">
+        <v>6.5</v>
+      </c>
+      <c r="X30">
+        <v>6</v>
+      </c>
+      <c r="Y30">
+        <v>6.5</v>
+      </c>
+      <c r="AA30">
+        <v>6</v>
+      </c>
+      <c r="AB30">
+        <v>6</v>
+      </c>
+      <c r="AC30">
+        <v>5.5</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AG30" s="18">
+        <f t="shared" si="1"/>
+        <v>5.865384615384615</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="2"/>
+        <v>0.53958673645100474</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>5.5</v>
+      </c>
+      <c r="J31">
+        <v>5.5</v>
+      </c>
+      <c r="K31">
         <v>4.5</v>
       </c>
-      <c r="M30">
+      <c r="M31">
         <v>4.5</v>
       </c>
-      <c r="N30">
-        <v>5</v>
-      </c>
-      <c r="O30">
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31">
         <v>7</v>
       </c>
-      <c r="P30">
-        <v>6.5</v>
-      </c>
-      <c r="Q30">
-        <v>5</v>
-      </c>
-      <c r="U30">
+      <c r="P31">
+        <v>6.5</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+      <c r="U31">
         <v>5.5</v>
       </c>
-      <c r="AD30">
+      <c r="AF31">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AE30" s="18">
+      <c r="AG31" s="18">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="AF30">
+      <c r="AH31">
         <f t="shared" si="2"/>
         <v>0.81649658092772603</v>
       </c>
-      <c r="AG30">
+      <c r="AI31">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
         <v>7</v>
       </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31">
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
         <v>7</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>4.5</v>
       </c>
-      <c r="F31">
-        <v>6</v>
-      </c>
-      <c r="G31">
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
         <v>5.5</v>
       </c>
-      <c r="H31">
-        <v>5</v>
-      </c>
-      <c r="I31">
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
         <v>5.5</v>
       </c>
-      <c r="J31">
+      <c r="J32">
         <v>5.5</v>
       </c>
-      <c r="O31">
-        <v>6.5</v>
-      </c>
-      <c r="P31">
-        <v>6</v>
-      </c>
-      <c r="Q31">
-        <v>6</v>
-      </c>
-      <c r="R31">
-        <v>6.5</v>
-      </c>
-      <c r="Y31">
-        <v>6</v>
-      </c>
-      <c r="AD31">
+      <c r="O32">
+        <v>6.5</v>
+      </c>
+      <c r="P32">
+        <v>6</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <v>6.5</v>
+      </c>
+      <c r="Y32">
+        <v>6</v>
+      </c>
+      <c r="AF32">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AE31" s="18">
+      <c r="AG32" s="18">
         <f t="shared" si="1"/>
         <v>5.9285714285714288</v>
       </c>
-      <c r="AF31">
+      <c r="AH32">
         <f t="shared" si="2"/>
         <v>0.70321084640774401</v>
       </c>
-      <c r="AG31">
+      <c r="AI32">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="Q32">
+      <c r="Q33">
         <v>5.5</v>
       </c>
-      <c r="S32">
-        <v>6.5</v>
-      </c>
-      <c r="V32">
-        <v>6.5</v>
-      </c>
-      <c r="X32">
-        <v>6</v>
-      </c>
-      <c r="Y32">
-        <v>6.5</v>
-      </c>
-      <c r="Z32">
-        <v>6.5</v>
-      </c>
-      <c r="AD32">
+      <c r="S33">
+        <v>6.5</v>
+      </c>
+      <c r="V33">
+        <v>6.5</v>
+      </c>
+      <c r="X33">
+        <v>6</v>
+      </c>
+      <c r="Y33">
+        <v>6.5</v>
+      </c>
+      <c r="Z33">
+        <v>6.5</v>
+      </c>
+      <c r="AB33">
+        <v>6.5</v>
+      </c>
+      <c r="AC33">
+        <v>5</v>
+      </c>
+      <c r="AF33">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AE32" s="18">
+        <v>8</v>
+      </c>
+      <c r="AG33" s="18">
         <f t="shared" si="1"/>
-        <v>6.25</v>
-      </c>
-      <c r="AF32">
+        <v>6.125</v>
+      </c>
+      <c r="AH33">
         <f t="shared" si="2"/>
+        <v>0.58248237251071755</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="R34">
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <v>4.5</v>
+      </c>
+      <c r="U34">
+        <v>4.5</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" ref="AF34:AF51" si="3">COUNT(B34:AE34)</f>
+        <v>3</v>
+      </c>
+      <c r="AG34" s="18">
+        <f t="shared" ref="AG34:AG51" si="4">AVERAGE(B34:AE34)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" ref="AH34:AH51" si="5">IF(AF34&gt;1,_xlfn.STDEV.S(B34:AE34),"")</f>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>5.5</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35">
+        <v>5.5</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>6.5</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="N35">
+        <v>6</v>
+      </c>
+      <c r="O35">
+        <v>5.5</v>
+      </c>
+      <c r="P35">
+        <v>6</v>
+      </c>
+      <c r="S35">
+        <v>5</v>
+      </c>
+      <c r="T35">
+        <v>6.5</v>
+      </c>
+      <c r="X35">
+        <v>6</v>
+      </c>
+      <c r="Y35">
+        <v>6</v>
+      </c>
+      <c r="AA35">
+        <v>5</v>
+      </c>
+      <c r="AC35">
+        <v>6.5</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="AG35" s="18">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="5"/>
+        <v>0.68465319688145765</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <v>5</v>
+      </c>
+      <c r="T36">
+        <v>6.5</v>
+      </c>
+      <c r="U36">
+        <v>6.5</v>
+      </c>
+      <c r="V36">
+        <v>6</v>
+      </c>
+      <c r="W36">
+        <v>6</v>
+      </c>
+      <c r="X36">
+        <v>6</v>
+      </c>
+      <c r="Y36">
+        <v>7</v>
+      </c>
+      <c r="Z36">
+        <v>6</v>
+      </c>
+      <c r="AA36">
+        <v>6</v>
+      </c>
+      <c r="AC36">
+        <v>6</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="AG36" s="18">
+        <f t="shared" si="4"/>
+        <v>6.0909090909090908</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="5"/>
+        <v>0.49082490860702144</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>2.5</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG37" s="18">
+        <f t="shared" si="4"/>
+        <v>3.25</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="5"/>
+        <v>1.0606601717798212</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z38">
+        <v>6.5</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AG38" s="18">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="AH38" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="S39">
+        <v>5</v>
+      </c>
+      <c r="U39">
+        <v>5</v>
+      </c>
+      <c r="W39">
+        <v>5.5</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AG39" s="18">
+        <f t="shared" si="4"/>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="5"/>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB40">
+        <v>4.5</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AG40" s="18">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="AH40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AI40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>6.5</v>
+      </c>
+      <c r="E41">
+        <v>6.5</v>
+      </c>
+      <c r="F41">
+        <v>5.5</v>
+      </c>
+      <c r="K41">
+        <v>6.5</v>
+      </c>
+      <c r="L41">
+        <v>6.5</v>
+      </c>
+      <c r="N41">
+        <v>7</v>
+      </c>
+      <c r="S41">
+        <v>6.5</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AG41" s="18">
+        <f t="shared" si="4"/>
+        <v>6.4285714285714288</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="5"/>
+        <v>0.44986770542121862</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42">
+        <v>5.5</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="Q42">
+        <v>6</v>
+      </c>
+      <c r="S42">
+        <v>6</v>
+      </c>
+      <c r="T42">
+        <v>6</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AG42" s="18">
+        <f t="shared" si="4"/>
+        <v>5.75</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="5"/>
         <v>0.41833001326703778</v>
       </c>
-      <c r="AG32">
+      <c r="AI42">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="R33">
-        <v>5</v>
-      </c>
-      <c r="T33">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="D43">
         <v>4.5</v>
       </c>
-      <c r="U33">
+      <c r="G43">
+        <v>5.5</v>
+      </c>
+      <c r="H43">
         <v>4.5</v>
       </c>
-      <c r="AD33">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AE33" s="18">
-        <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AF33">
-        <f t="shared" si="2"/>
-        <v>0.28867513459481287</v>
-      </c>
-      <c r="AG33">
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>6.5</v>
+      </c>
+      <c r="K43">
+        <v>6.5</v>
+      </c>
+      <c r="O43">
+        <v>5.5</v>
+      </c>
+      <c r="U43">
+        <v>6</v>
+      </c>
+      <c r="AA43">
+        <v>6.5</v>
+      </c>
+      <c r="AC43">
+        <v>6.5</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="AG43" s="18">
+        <f t="shared" si="4"/>
+        <v>5.7272727272727275</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="5"/>
+        <v>0.78624539310689678</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>6.5</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44">
+        <v>6.5</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>6.5</v>
+      </c>
+      <c r="J44">
+        <v>6.5</v>
+      </c>
+      <c r="K44">
+        <v>6.5</v>
+      </c>
+      <c r="L44">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+      <c r="N44">
+        <v>6.5</v>
+      </c>
+      <c r="O44">
+        <v>6.5</v>
+      </c>
+      <c r="P44">
+        <v>6.5</v>
+      </c>
+      <c r="Q44">
+        <v>6.5</v>
+      </c>
+      <c r="R44">
+        <v>7</v>
+      </c>
+      <c r="S44">
+        <v>6.5</v>
+      </c>
+      <c r="T44">
+        <v>7</v>
+      </c>
+      <c r="U44">
+        <v>6.5</v>
+      </c>
+      <c r="V44">
+        <v>6.5</v>
+      </c>
+      <c r="W44">
+        <v>6.5</v>
+      </c>
+      <c r="X44">
+        <v>6</v>
+      </c>
+      <c r="Y44">
+        <v>6</v>
+      </c>
+      <c r="Z44">
+        <v>6</v>
+      </c>
+      <c r="AA44">
+        <v>6.5</v>
+      </c>
+      <c r="AB44">
+        <v>6.5</v>
+      </c>
+      <c r="AC44">
+        <v>6.5</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="AG44" s="18">
+        <f t="shared" si="4"/>
+        <v>6.4814814814814818</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="5"/>
+        <v>0.42700841014689889</v>
+      </c>
+      <c r="AI44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45">
+        <v>5.5</v>
+      </c>
+      <c r="Z45">
+        <v>5.5</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG45" s="18">
+        <f t="shared" si="4"/>
+        <v>5.5</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34">
+      <c r="AI45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>8.5</v>
+      </c>
+      <c r="C46">
+        <v>7.5</v>
+      </c>
+      <c r="D46">
+        <v>7.5</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>6.5</v>
+      </c>
+      <c r="G46">
+        <v>7</v>
+      </c>
+      <c r="H46">
+        <v>6.5</v>
+      </c>
+      <c r="J46">
+        <v>7.5</v>
+      </c>
+      <c r="K46">
+        <v>7</v>
+      </c>
+      <c r="L46">
+        <v>7.5</v>
+      </c>
+      <c r="M46">
+        <v>6.5</v>
+      </c>
+      <c r="N46">
+        <v>7</v>
+      </c>
+      <c r="O46">
+        <v>7</v>
+      </c>
+      <c r="P46">
+        <v>6.5</v>
+      </c>
+      <c r="Q46">
+        <v>6.5</v>
+      </c>
+      <c r="U46">
+        <v>6.5</v>
+      </c>
+      <c r="V46">
+        <v>6</v>
+      </c>
+      <c r="W46">
+        <v>7</v>
+      </c>
+      <c r="X46">
+        <v>6.5</v>
+      </c>
+      <c r="Y46">
+        <v>6.5</v>
+      </c>
+      <c r="Z46">
+        <v>6.5</v>
+      </c>
+      <c r="AA46">
+        <v>6.5</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AG46" s="18">
+        <f t="shared" si="4"/>
+        <v>6.8863636363636367</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="5"/>
+        <v>0.55488776603961332</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47">
+        <v>7</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="J47">
+        <v>7.5</v>
+      </c>
+      <c r="K47">
+        <v>7.5</v>
+      </c>
+      <c r="L47">
+        <v>7</v>
+      </c>
+      <c r="M47">
+        <v>7</v>
+      </c>
+      <c r="N47">
+        <v>7</v>
+      </c>
+      <c r="O47">
+        <v>8</v>
+      </c>
+      <c r="P47">
+        <v>7.5</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AG47" s="18">
+        <f t="shared" si="4"/>
+        <v>7.2777777777777777</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="5"/>
+        <v>0.36324157862838946</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48">
+        <v>7.5</v>
+      </c>
+      <c r="E48">
+        <v>6.5</v>
+      </c>
+      <c r="F48">
+        <v>6.5</v>
+      </c>
+      <c r="H48">
+        <v>8.5</v>
+      </c>
+      <c r="I48">
+        <v>6.5</v>
+      </c>
+      <c r="K48">
+        <v>6</v>
+      </c>
+      <c r="L48">
+        <v>6.5</v>
+      </c>
+      <c r="M48">
+        <v>6</v>
+      </c>
+      <c r="N48">
+        <v>6</v>
+      </c>
+      <c r="O48">
+        <v>6</v>
+      </c>
+      <c r="P48">
+        <v>6.5</v>
+      </c>
+      <c r="Q48">
         <v>5.5</v>
       </c>
-      <c r="D34">
+      <c r="R48">
         <v>7</v>
       </c>
-      <c r="E34">
+      <c r="S48">
+        <v>6.5</v>
+      </c>
+      <c r="T48">
+        <v>6.5</v>
+      </c>
+      <c r="U48">
+        <v>6</v>
+      </c>
+      <c r="V48">
+        <v>6.5</v>
+      </c>
+      <c r="W48">
+        <v>6.5</v>
+      </c>
+      <c r="X48">
+        <v>6.5</v>
+      </c>
+      <c r="Z48">
+        <v>6</v>
+      </c>
+      <c r="AA48">
+        <v>6</v>
+      </c>
+      <c r="AC48">
+        <v>6</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AG48" s="18">
+        <f t="shared" si="4"/>
+        <v>6.4318181818181817</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="5"/>
+        <v>0.62288603531224951</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49">
+        <v>5.5</v>
+      </c>
+      <c r="R49">
+        <v>5</v>
+      </c>
+      <c r="Y49">
+        <v>5.5</v>
+      </c>
+      <c r="Z49">
+        <v>5.5</v>
+      </c>
+      <c r="AB49">
+        <v>5.5</v>
+      </c>
+      <c r="AC49">
+        <v>5.5</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AG49" s="18">
+        <f t="shared" si="4"/>
+        <v>5.416666666666667</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="5"/>
+        <v>0.20412414523193151</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50">
         <v>7</v>
       </c>
-      <c r="F34">
+      <c r="V50">
+        <v>6.5</v>
+      </c>
+      <c r="W50">
+        <v>6.5</v>
+      </c>
+      <c r="X50">
+        <v>6</v>
+      </c>
+      <c r="Y50">
+        <v>6.5</v>
+      </c>
+      <c r="Z50">
         <v>7</v>
       </c>
-      <c r="G34">
-        <v>5.5</v>
-      </c>
-      <c r="I34">
-        <v>5</v>
-      </c>
-      <c r="J34">
-        <v>6.5</v>
-      </c>
-      <c r="K34">
-        <v>6</v>
-      </c>
-      <c r="N34">
-        <v>6</v>
-      </c>
-      <c r="O34">
-        <v>5.5</v>
-      </c>
-      <c r="P34">
-        <v>6</v>
-      </c>
-      <c r="S34">
-        <v>5</v>
-      </c>
-      <c r="T34">
-        <v>6.5</v>
-      </c>
-      <c r="X34">
-        <v>6</v>
-      </c>
-      <c r="Y34">
-        <v>6</v>
-      </c>
-      <c r="AA34">
-        <v>5</v>
-      </c>
-      <c r="AD34">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AE34" s="18">
-        <f t="shared" si="1"/>
-        <v>5.96875</v>
-      </c>
-      <c r="AF34">
-        <f t="shared" si="2"/>
-        <v>0.69447222166668887</v>
-      </c>
-      <c r="AG34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="O35">
-        <v>6</v>
-      </c>
-      <c r="Q35">
-        <v>5</v>
-      </c>
-      <c r="T35">
-        <v>6.5</v>
-      </c>
-      <c r="U35">
-        <v>6.5</v>
-      </c>
-      <c r="V35">
-        <v>6</v>
-      </c>
-      <c r="W35">
-        <v>6</v>
-      </c>
-      <c r="X35">
-        <v>6</v>
-      </c>
-      <c r="Y35">
+      <c r="AA50">
+        <v>6.5</v>
+      </c>
+      <c r="AB50">
+        <v>6.5</v>
+      </c>
+      <c r="AC50">
         <v>7</v>
       </c>
-      <c r="Z35">
-        <v>6</v>
-      </c>
-      <c r="AA35">
-        <v>6</v>
-      </c>
-      <c r="AD35">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AE35" s="18">
-        <f t="shared" si="1"/>
-        <v>6.1</v>
-      </c>
-      <c r="AF35">
-        <f t="shared" si="2"/>
-        <v>0.51639777949432231</v>
-      </c>
-      <c r="AG35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="G36">
-        <v>2.5</v>
-      </c>
-      <c r="AD36">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AE36" s="18">
-        <f t="shared" si="1"/>
-        <v>3.25</v>
-      </c>
-      <c r="AF36">
-        <f t="shared" si="2"/>
-        <v>1.0606601717798212</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z37">
-        <v>6.5</v>
-      </c>
-      <c r="AD37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE37" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="AF37" t="str">
-        <f t="shared" si="2"/>
+      <c r="AF50">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AG50" s="18">
+        <f t="shared" si="4"/>
+        <v>6.6111111111111107</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="AI50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AG51" s="18">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AH51" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-      <c r="S38">
-        <v>5</v>
-      </c>
-      <c r="U38">
-        <v>5</v>
-      </c>
-      <c r="W38">
-        <v>5.5</v>
-      </c>
-      <c r="AD38">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AE38" s="18">
-        <f t="shared" si="1"/>
-        <v>5.166666666666667</v>
-      </c>
-      <c r="AF38">
-        <f t="shared" si="2"/>
-        <v>0.28867513459481287</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39">
-        <v>6.5</v>
-      </c>
-      <c r="E39">
-        <v>6.5</v>
-      </c>
-      <c r="F39">
-        <v>5.5</v>
-      </c>
-      <c r="K39">
-        <v>6.5</v>
-      </c>
-      <c r="L39">
-        <v>6.5</v>
-      </c>
-      <c r="N39">
-        <v>7</v>
-      </c>
-      <c r="S39">
-        <v>6.5</v>
-      </c>
-      <c r="AD39">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AE39" s="18">
-        <f t="shared" si="1"/>
-        <v>6.4285714285714288</v>
-      </c>
-      <c r="AF39">
-        <f t="shared" si="2"/>
-        <v>0.44986770542121862</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40">
-        <v>5.5</v>
-      </c>
-      <c r="G40">
-        <v>5</v>
-      </c>
-      <c r="H40">
-        <v>6</v>
-      </c>
-      <c r="Q40">
-        <v>6</v>
-      </c>
-      <c r="S40">
-        <v>6</v>
-      </c>
-      <c r="T40">
-        <v>6</v>
-      </c>
-      <c r="AD40">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AE40" s="18">
-        <f t="shared" si="1"/>
-        <v>5.75</v>
-      </c>
-      <c r="AF40">
-        <f t="shared" si="2"/>
-        <v>0.41833001326703778</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41">
-        <v>6</v>
-      </c>
-      <c r="D41">
-        <v>4.5</v>
-      </c>
-      <c r="G41">
-        <v>5.5</v>
-      </c>
-      <c r="H41">
-        <v>4.5</v>
-      </c>
-      <c r="I41">
-        <v>5</v>
-      </c>
-      <c r="J41">
-        <v>6.5</v>
-      </c>
-      <c r="K41">
-        <v>6.5</v>
-      </c>
-      <c r="O41">
-        <v>5.5</v>
-      </c>
-      <c r="U41">
-        <v>6</v>
-      </c>
-      <c r="AA41">
-        <v>6.5</v>
-      </c>
-      <c r="AD41">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AE41" s="18">
-        <f t="shared" si="1"/>
-        <v>5.65</v>
-      </c>
-      <c r="AF41">
-        <f t="shared" si="2"/>
-        <v>0.78351061823620893</v>
-      </c>
-      <c r="AG41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42">
-        <v>8</v>
-      </c>
-      <c r="D42">
-        <v>7</v>
-      </c>
-      <c r="E42">
-        <v>6.5</v>
-      </c>
-      <c r="F42">
-        <v>6</v>
-      </c>
-      <c r="G42">
-        <v>6.5</v>
-      </c>
-      <c r="H42">
-        <v>6</v>
-      </c>
-      <c r="I42">
-        <v>6.5</v>
-      </c>
-      <c r="J42">
-        <v>6.5</v>
-      </c>
-      <c r="K42">
-        <v>6.5</v>
-      </c>
-      <c r="L42">
-        <v>6</v>
-      </c>
-      <c r="M42">
-        <v>6</v>
-      </c>
-      <c r="N42">
-        <v>6.5</v>
-      </c>
-      <c r="O42">
-        <v>6.5</v>
-      </c>
-      <c r="P42">
-        <v>6.5</v>
-      </c>
-      <c r="Q42">
-        <v>6.5</v>
-      </c>
-      <c r="R42">
-        <v>7</v>
-      </c>
-      <c r="S42">
-        <v>6.5</v>
-      </c>
-      <c r="T42">
-        <v>7</v>
-      </c>
-      <c r="U42">
-        <v>6.5</v>
-      </c>
-      <c r="V42">
-        <v>6.5</v>
-      </c>
-      <c r="W42">
-        <v>6.5</v>
-      </c>
-      <c r="X42">
-        <v>6</v>
-      </c>
-      <c r="Y42">
-        <v>6</v>
-      </c>
-      <c r="Z42">
-        <v>6</v>
-      </c>
-      <c r="AA42">
-        <v>6.5</v>
-      </c>
-      <c r="AD42">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="AE42" s="18">
-        <f t="shared" si="1"/>
-        <v>6.48</v>
-      </c>
-      <c r="AF42">
-        <f t="shared" si="2"/>
-        <v>0.4444097208657794</v>
-      </c>
-      <c r="AG42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-      <c r="I43">
-        <v>5.5</v>
-      </c>
-      <c r="Z43">
-        <v>5.5</v>
-      </c>
-      <c r="AD43">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AE43" s="18">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="AF43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44">
-        <v>8.5</v>
-      </c>
-      <c r="C44">
-        <v>7.5</v>
-      </c>
-      <c r="D44">
-        <v>7.5</v>
-      </c>
-      <c r="E44">
-        <v>7</v>
-      </c>
-      <c r="F44">
-        <v>6.5</v>
-      </c>
-      <c r="G44">
-        <v>7</v>
-      </c>
-      <c r="H44">
-        <v>6.5</v>
-      </c>
-      <c r="J44">
-        <v>7.5</v>
-      </c>
-      <c r="K44">
-        <v>7</v>
-      </c>
-      <c r="L44">
-        <v>7.5</v>
-      </c>
-      <c r="M44">
-        <v>6.5</v>
-      </c>
-      <c r="N44">
-        <v>7</v>
-      </c>
-      <c r="O44">
-        <v>7</v>
-      </c>
-      <c r="P44">
-        <v>6.5</v>
-      </c>
-      <c r="Q44">
-        <v>6.5</v>
-      </c>
-      <c r="U44">
-        <v>6.5</v>
-      </c>
-      <c r="V44">
-        <v>6</v>
-      </c>
-      <c r="W44">
-        <v>7</v>
-      </c>
-      <c r="X44">
-        <v>6.5</v>
-      </c>
-      <c r="Y44">
-        <v>6.5</v>
-      </c>
-      <c r="Z44">
-        <v>6.5</v>
-      </c>
-      <c r="AA44">
-        <v>6.5</v>
-      </c>
-      <c r="AD44">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="AE44" s="18">
-        <f t="shared" si="1"/>
-        <v>6.8863636363636367</v>
-      </c>
-      <c r="AF44">
-        <f t="shared" si="2"/>
-        <v>0.55488776603961332</v>
-      </c>
-      <c r="AG44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45">
-        <v>7</v>
-      </c>
-      <c r="H45">
-        <v>7</v>
-      </c>
-      <c r="J45">
-        <v>7.5</v>
-      </c>
-      <c r="K45">
-        <v>7.5</v>
-      </c>
-      <c r="L45">
-        <v>7</v>
-      </c>
-      <c r="M45">
-        <v>7</v>
-      </c>
-      <c r="N45">
-        <v>7</v>
-      </c>
-      <c r="O45">
-        <v>8</v>
-      </c>
-      <c r="P45">
-        <v>7.5</v>
-      </c>
-      <c r="AD45">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AE45" s="18">
-        <f t="shared" si="1"/>
-        <v>7.2777777777777777</v>
-      </c>
-      <c r="AF45">
-        <f t="shared" si="2"/>
-        <v>0.36324157862838946</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46">
-        <v>7.5</v>
-      </c>
-      <c r="E46">
-        <v>6.5</v>
-      </c>
-      <c r="F46">
-        <v>6.5</v>
-      </c>
-      <c r="H46">
-        <v>8.5</v>
-      </c>
-      <c r="I46">
-        <v>6.5</v>
-      </c>
-      <c r="K46">
-        <v>6</v>
-      </c>
-      <c r="L46">
-        <v>6.5</v>
-      </c>
-      <c r="M46">
-        <v>6</v>
-      </c>
-      <c r="N46">
-        <v>6</v>
-      </c>
-      <c r="O46">
-        <v>6</v>
-      </c>
-      <c r="P46">
-        <v>6.5</v>
-      </c>
-      <c r="Q46">
-        <v>5.5</v>
-      </c>
-      <c r="R46">
-        <v>7</v>
-      </c>
-      <c r="S46">
-        <v>6.5</v>
-      </c>
-      <c r="T46">
-        <v>6.5</v>
-      </c>
-      <c r="U46">
-        <v>6</v>
-      </c>
-      <c r="V46">
-        <v>6.5</v>
-      </c>
-      <c r="W46">
-        <v>6.5</v>
-      </c>
-      <c r="X46">
-        <v>6.5</v>
-      </c>
-      <c r="Z46">
-        <v>6</v>
-      </c>
-      <c r="AA46">
-        <v>6</v>
-      </c>
-      <c r="AD46">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="AE46" s="18">
-        <f t="shared" si="1"/>
-        <v>6.4523809523809526</v>
-      </c>
-      <c r="AF46">
-        <f t="shared" si="2"/>
-        <v>0.63057041448124407</v>
-      </c>
-      <c r="AG46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47">
-        <v>5.5</v>
-      </c>
-      <c r="R47">
-        <v>5</v>
-      </c>
-      <c r="Y47">
-        <v>5.5</v>
-      </c>
-      <c r="Z47">
-        <v>5.5</v>
-      </c>
-      <c r="AD47">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AE47" s="18">
-        <f t="shared" si="1"/>
-        <v>5.375</v>
-      </c>
-      <c r="AF47">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48">
-        <v>7</v>
-      </c>
-      <c r="V48">
-        <v>6.5</v>
-      </c>
-      <c r="W48">
-        <v>6.5</v>
-      </c>
-      <c r="X48">
-        <v>6</v>
-      </c>
-      <c r="Y48">
-        <v>6.5</v>
-      </c>
-      <c r="Z48">
-        <v>7</v>
-      </c>
-      <c r="AA48">
-        <v>6.5</v>
-      </c>
-      <c r="AD48">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AE48" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5714285714285712</v>
-      </c>
-      <c r="AF48">
-        <f t="shared" si="2"/>
-        <v>0.34503277967117707</v>
-      </c>
-      <c r="AG48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49">
-        <v>5</v>
+      <c r="AI51">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG95" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
-    <sortState ref="A2:AG95">
+  <autoFilter ref="A1:AI95" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
+    <sortState ref="A2:AI51">
       <sortCondition ref="A1:A95"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="AA2:AB38">
+  <conditionalFormatting sqref="AA2:AD38">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -3754,7 +3924,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD39">
+  <conditionalFormatting sqref="AF2:AF39">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -3766,7 +3936,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF39">
+  <conditionalFormatting sqref="AH2:AH39">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -3778,7 +3948,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AD42">
+  <conditionalFormatting sqref="AF40:AF42">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3790,7 +3960,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF40:AF42">
+  <conditionalFormatting sqref="AH40:AH42">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3802,7 +3972,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AB47">
+  <conditionalFormatting sqref="AA2:AD47">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3814,7 +3984,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD42">
+  <conditionalFormatting sqref="AF2:AF42">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3826,7 +3996,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE39">
+  <conditionalFormatting sqref="AG2:AG39">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -3838,7 +4008,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE40:AE42">
+  <conditionalFormatting sqref="AG40:AG42">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -3850,7 +4020,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE42">
+  <conditionalFormatting sqref="AG2:AG42">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -3862,7 +4032,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AB42">
+  <conditionalFormatting sqref="AA2:AD42">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3898,7 +4068,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD43 AD45 AD47">
+  <conditionalFormatting sqref="AF43 AF45 AF47">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -3910,7 +4080,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF43 AF45 AF47">
+  <conditionalFormatting sqref="AH43 AH45 AH47">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -3922,7 +4092,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD43 AD45 AD47">
+  <conditionalFormatting sqref="AF45">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -3934,7 +4104,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE43 AE45 AE47">
+  <conditionalFormatting sqref="AG45 AG43 AG47">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -3946,7 +4116,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE43 AE45 AE47">
+  <conditionalFormatting sqref="AG45">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -3958,7 +4128,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD44 AD46 AD48">
+  <conditionalFormatting sqref="AF44 AF46 AF48:AF51">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3970,7 +4140,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF46 AF44 AF48">
+  <conditionalFormatting sqref="AH44 AH46 AH48:AH51">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -3982,7 +4152,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD46 AD44 AD48">
+  <conditionalFormatting sqref="AF46">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3994,7 +4164,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE44 AE46 AE48">
+  <conditionalFormatting sqref="AG44 AG46 AG48:AG51">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -4006,7 +4176,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE46 AE44 AE48">
+  <conditionalFormatting sqref="AG46 AG44 AG48:AG51">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -4018,7 +4188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA44">
+  <conditionalFormatting sqref="AA2:AC44">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -4030,7 +4200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA55:AA91">
+  <conditionalFormatting sqref="AA55:AC91">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -4042,7 +4212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA55:AA96">
+  <conditionalFormatting sqref="AA55:AC96">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -4054,7 +4224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA55:AA95">
+  <conditionalFormatting sqref="AA55:AC95">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -4066,7 +4236,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA55:AA96">
+  <conditionalFormatting sqref="AA55:AC96">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4114,7 +4284,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AA49">
+  <conditionalFormatting sqref="B2:AC49 AB51:AC51">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4126,7 +4296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD48">
+  <conditionalFormatting sqref="AF2:AF51">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4138,7 +4308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE48">
+  <conditionalFormatting sqref="AG2:AG51">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4156,10 +4326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A044468-5FF9-485E-BCBE-2F73FE35F0BA}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4170,10 +4340,9 @@
     <col min="7" max="7" width="15.88671875" style="22" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>69</v>
       </c>
@@ -4190,7 +4359,7 @@
         <v>73</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
         <v>74</v>
@@ -4199,13 +4368,10 @@
         <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4229,7 +4395,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4254,7 +4420,7 @@
       </c>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4276,7 +4442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4300,7 +4466,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4325,7 +4491,7 @@
       </c>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4349,7 +4515,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4367,7 +4533,7 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4387,11 +4553,11 @@
       <c r="F9" s="19">
         <v>77.78</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <v>77.78</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4411,11 +4577,11 @@
       <c r="F10" s="19">
         <v>77.78</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="19">
         <v>77.78</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4439,7 +4605,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4463,7 +4629,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4483,11 +4649,11 @@
       <c r="F13" s="19">
         <v>77.78</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="19">
         <v>77.78</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4511,7 +4677,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4535,7 +4701,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -4555,7 +4721,7 @@
       <c r="F16" s="19">
         <v>77.78</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="19">
         <v>77.78</v>
       </c>
     </row>
@@ -4622,7 +4788,7 @@
         <f>F18/2</f>
         <v>38.89</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="19">
         <v>77.78</v>
       </c>
     </row>
@@ -4859,7 +5025,7 @@
       </c>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -4874,7 +5040,7 @@
       </c>
       <c r="H33" s="19"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -4888,7 +5054,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -4902,7 +5068,7 @@
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -4916,7 +5082,7 @@
       </c>
       <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -4932,7 +5098,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -4944,7 +5110,7 @@
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -4959,12 +5125,11 @@
       <c r="G39" s="21">
         <v>75</v>
       </c>
-      <c r="J39" s="19"/>
-      <c r="K39">
+      <c r="J39">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -4978,7 +5143,7 @@
       </c>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -4987,12 +5152,12 @@
       <c r="E41" s="19">
         <v>25</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="19">
         <v>75</v>
       </c>
       <c r="G41" s="19"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -5006,7 +5171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -5018,7 +5183,7 @@
       </c>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -5028,28 +5193,25 @@
       <c r="F44" s="19">
         <v>25</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="19">
         <v>75</v>
       </c>
-      <c r="K44">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
-      <c r="G45" s="21">
+      <c r="G45" s="19">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -5059,33 +5221,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
-      <c r="G47" s="21">
+      <c r="G47" s="19">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
-      <c r="G48" s="21">
+      <c r="G48" s="19">
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G49" s="19">
         <v>25</v>
@@ -5093,7 +5255,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" s="20">
         <f>SUM(B3:B28)</f>
@@ -5122,7 +5284,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" s="20">
         <f>25*12+83.34*17</f>
@@ -5141,12 +5303,12 @@
         <v>1672.26</v>
       </c>
       <c r="F52" s="20">
-        <f>12*25+77.78*17</f>
-        <v>1622.26</v>
+        <f>15*25+77.78*17</f>
+        <v>1697.26</v>
       </c>
       <c r="G52" s="23">
-        <f>5*77.78+25*8</f>
-        <v>588.9</v>
+        <f>10*77.78+25*13</f>
+        <v>1102.8</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -5168,11 +5330,11 @@
       </c>
       <c r="F53" s="24">
         <f t="shared" si="1"/>
-        <v>0.91536230575649169</v>
+        <v>0.95768115287824584</v>
       </c>
       <c r="G53" s="24">
         <f t="shared" si="1"/>
-        <v>0.34193443498658743</v>
+        <v>0.64032143811038988</v>
       </c>
     </row>
   </sheetData>
@@ -5182,10 +5344,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75:J77"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5278,7 +5440,7 @@
         <v>12</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>23</v>
@@ -5304,7 +5466,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -5528,7 +5690,7 @@
         <v>20</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>9</v>
@@ -5554,7 +5716,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>9</v>
@@ -5631,7 +5793,7 @@
         <v>7</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>22</v>
@@ -5657,7 +5819,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>22</v>
@@ -5831,7 +5993,7 @@
         <v>10</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>22</v>
@@ -5857,7 +6019,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>22</v>
@@ -5904,7 +6066,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>25</v>
@@ -6028,7 +6190,7 @@
         <v>9</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>25</v>
@@ -6131,7 +6293,7 @@
         <v>15</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>12</v>
@@ -6157,7 +6319,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>12</v>
@@ -6201,7 +6363,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>10</v>
@@ -6325,7 +6487,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>10</v>
@@ -6351,7 +6513,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>10</v>
@@ -6475,7 +6637,7 @@
         <v>3</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>10</v>
@@ -6507,7 +6669,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>22</v>
@@ -6631,7 +6793,7 @@
         <v>4</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N29" s="8" t="s">
         <v>22</v>
@@ -6725,7 +6887,7 @@
         <v>6</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>9</v>
@@ -6751,7 +6913,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>9</v>
@@ -6804,7 +6966,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>9</v>
@@ -6928,7 +7090,7 @@
         <v>14</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>9</v>
@@ -6975,7 +7137,7 @@
         <v>7</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>9</v>
@@ -7001,7 +7163,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>9</v>
@@ -7107,7 +7269,7 @@
         <v>45</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>3</v>
@@ -7231,7 +7393,7 @@
         <v>45</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>3</v>
@@ -7254,7 +7416,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>11</v>
@@ -7378,7 +7540,7 @@
         <v>9</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>11</v>
@@ -7407,7 +7569,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>19</v>
@@ -7531,7 +7693,7 @@
         <v>4</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N47" s="8" t="s">
         <v>19</v>
@@ -7557,7 +7719,7 @@
         <v>12</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>43</v>
@@ -7671,7 +7833,7 @@
         <v>12</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N50" s="8" t="s">
         <v>43</v>
@@ -7692,7 +7854,7 @@
         <v>23</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>14</v>
@@ -7816,7 +7978,7 @@
         <v>23</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>14</v>
@@ -7854,7 +8016,7 @@
         <v>6</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I54" s="9">
         <v>4</v>
@@ -7978,7 +8140,7 @@
         <v>6</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -8016,7 +8178,7 @@
         <v>60</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M57" s="10" t="s">
         <v>15</v>
@@ -8042,7 +8204,7 @@
         <v>60</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>15</v>
@@ -8145,7 +8307,7 @@
         <v>54</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>15</v>
@@ -8269,7 +8431,7 @@
         <v>54</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N62" s="8" t="s">
         <v>15</v>
@@ -8313,7 +8475,7 @@
         <v>5</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L63" s="10" t="s">
         <v>23</v>
@@ -8339,7 +8501,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>23</v>
@@ -8475,7 +8637,7 @@
         <v>16</v>
       </c>
       <c r="O66" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P66" s="10" t="s">
         <v>68</v>
@@ -8501,7 +8663,7 @@
         <v>16</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H67" s="10" t="s">
         <v>68</v>
@@ -8628,7 +8790,7 @@
         <v>11</v>
       </c>
       <c r="P69" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -8654,7 +8816,7 @@
         <v>11</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I70" s="11">
         <v>3</v>
@@ -8666,7 +8828,7 @@
         <v>19</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>55</v>
@@ -8692,7 +8854,7 @@
         <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>55</v>
@@ -8742,7 +8904,7 @@
         <v>55</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>25</v>
@@ -8766,7 +8928,7 @@
         <v>9</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M72" s="10" t="s">
         <v>23</v>
@@ -8792,7 +8954,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>23</v>
@@ -8816,13 +8978,13 @@
         <v>5</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N73" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>16</v>
@@ -8842,13 +9004,13 @@
         <v>5</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>16</v>
@@ -8866,7 +9028,7 @@
         <v>55</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M74" s="8" t="s">
         <v>25</v>
@@ -8895,7 +9057,7 @@
         <v>10</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>19</v>
@@ -9019,7 +9181,7 @@
         <v>10</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N77" s="8" t="s">
         <v>19</v>
@@ -9028,6 +9190,306 @@
         <v>2</v>
       </c>
       <c r="P77" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78" s="14">
+        <v>45629</v>
+      </c>
+      <c r="B78" s="3">
+        <v>5</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="9">
+        <v>2</v>
+      </c>
+      <c r="J78" s="10">
+        <v>7</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M78" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N78" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P78" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" s="14">
+        <v>45629</v>
+      </c>
+      <c r="B79" s="3">
+        <v>4</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I79" s="11">
+        <v>2</v>
+      </c>
+      <c r="J79" s="2">
+        <v>2</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="14">
+        <v>45629</v>
+      </c>
+      <c r="B80" s="5">
+        <v>3</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I80" s="5">
+        <v>3</v>
+      </c>
+      <c r="J80" s="8">
+        <v>3</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P80" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81" s="14">
+        <v>45637</v>
+      </c>
+      <c r="B81" s="3">
+        <v>4</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I81" s="9">
+        <v>3</v>
+      </c>
+      <c r="J81" s="10">
+        <v>5</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M81" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N81" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O81" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A82" s="14">
+        <v>45637</v>
+      </c>
+      <c r="B82" s="3">
+        <v>4</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I82" s="11">
+        <v>3</v>
+      </c>
+      <c r="J82" s="2">
+        <v>7</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83" s="14">
+        <v>45637</v>
+      </c>
+      <c r="B83" s="5">
+        <v>5</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="5">
+        <v>3</v>
+      </c>
+      <c r="J83" s="8">
+        <v>6</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O83" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P83" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9038,11 +9500,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40949BC3-8DAE-4185-A4C0-F8573FA5A3A2}">
-  <dimension ref="A1:AI49"/>
+  <dimension ref="A1:AI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD2" sqref="AD2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9056,6 +9518,8 @@
     <col min="22" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
@@ -9143,6 +9607,12 @@
       <c r="AB1" s="1">
         <v>45623</v>
       </c>
+      <c r="AC1" s="1">
+        <v>45629</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>45637</v>
+      </c>
       <c r="AH1" t="s">
         <v>65</v>
       </c>
@@ -9164,11 +9634,11 @@
         <v>3</v>
       </c>
       <c r="AH2">
-        <f>SUM(B2:AG2)</f>
+        <f t="shared" ref="AH2:AH33" si="0">SUM(B2:AG2)</f>
         <v>8</v>
       </c>
       <c r="AI2">
-        <f>SUM(V2:AG2)</f>
+        <f t="shared" ref="AI2:AI33" si="1">SUM(V2:AG2)</f>
         <v>3</v>
       </c>
     </row>
@@ -9183,17 +9653,17 @@
         <v>1</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH42" si="0">SUM(B3:AG3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI42" si="1">SUM(V3:AG3)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA4">
         <v>3</v>
@@ -9271,13 +9741,16 @@
       <c r="AA8">
         <v>1</v>
       </c>
+      <c r="AD8">
+        <v>3</v>
+      </c>
       <c r="AH8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
@@ -9296,13 +9769,16 @@
       <c r="Z9">
         <v>1</v>
       </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
       <c r="AH9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
@@ -9331,46 +9807,34 @@
       <c r="X11">
         <v>2</v>
       </c>
+      <c r="AC11">
+        <v>3</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
       <c r="AH11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI11">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-      <c r="AB12">
-        <v>2</v>
+        <v>87</v>
+      </c>
+      <c r="AC12">
+        <v>2</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
       </c>
       <c r="AH12">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AI12">
         <f t="shared" si="1"/>
@@ -9379,58 +9843,85 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="P13">
-        <v>3</v>
-      </c>
-      <c r="V13">
-        <v>3</v>
-      </c>
-      <c r="Y13">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
       </c>
       <c r="AB13">
+        <v>2</v>
+      </c>
+      <c r="AC13">
         <v>1</v>
       </c>
       <c r="AH13">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AI13">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+      <c r="AB14">
         <v>1</v>
       </c>
       <c r="AH14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AI14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>52</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
       </c>
       <c r="AH15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15">
         <f t="shared" si="1"/>
@@ -9439,20 +9930,11 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="AH16">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI16">
         <f t="shared" si="1"/>
@@ -9461,69 +9943,54 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>2</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
-      <c r="Z17">
-        <v>3</v>
-      </c>
-      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>1</v>
       </c>
       <c r="AH17">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AI17">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="R18">
         <v>1</v>
       </c>
       <c r="Y18">
         <v>1</v>
       </c>
       <c r="Z18">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
       </c>
       <c r="AH18">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI18">
         <f t="shared" si="1"/>
@@ -9532,121 +9999,160 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <v>2</v>
+      </c>
+      <c r="AD19">
         <v>1</v>
       </c>
       <c r="AH19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AI19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>2</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="AA20">
-        <v>2</v>
-      </c>
-      <c r="AB20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH20">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AI20">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="W21">
         <v>1</v>
       </c>
       <c r="X21">
         <v>1</v>
       </c>
-      <c r="Z21">
-        <v>2</v>
-      </c>
       <c r="AA21">
         <v>2</v>
       </c>
       <c r="AB21">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
       </c>
       <c r="AH21">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI21">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AA22">
+        <v>2</v>
+      </c>
+      <c r="AB22">
+        <v>4</v>
+      </c>
+      <c r="AD22">
+        <v>2</v>
       </c>
       <c r="AH22">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AI22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="X23">
+        <v>82</v>
+      </c>
+      <c r="Z23">
         <v>1</v>
       </c>
       <c r="AH23">
@@ -9660,87 +10166,93 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="V24">
-        <v>2</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Z24">
-        <v>4</v>
-      </c>
-      <c r="AA24">
-        <v>3</v>
-      </c>
-      <c r="AB24">
         <v>1</v>
       </c>
       <c r="AH24">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AI24">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>4</v>
+      </c>
+      <c r="AA25">
+        <v>3</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
       </c>
       <c r="AH25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AI25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="AH26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>1</v>
       </c>
       <c r="AH27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="N28">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="AH28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI28">
         <f t="shared" si="1"/>
@@ -9749,501 +10261,567 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>3</v>
-      </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
-      <c r="W29">
-        <v>3</v>
-      </c>
-      <c r="Z29">
         <v>2</v>
       </c>
       <c r="AH29">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AI29">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
-      <c r="L30">
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
         <v>1</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>3</v>
+      </c>
+      <c r="Z30">
+        <v>2</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+      <c r="AD30">
+        <v>2</v>
       </c>
       <c r="AH30">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AI30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
-      <c r="Z31">
-        <v>3</v>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>4</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
       </c>
       <c r="AH31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI31">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-      <c r="W32">
-        <v>3</v>
-      </c>
-      <c r="Y32">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
       </c>
       <c r="Z32">
-        <v>1</v>
-      </c>
-      <c r="AA32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH32">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AI32">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>3</v>
+      </c>
+      <c r="Y33">
+        <v>2</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>2</v>
+      </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
       </c>
       <c r="AH33">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AI33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>60</v>
+      </c>
+      <c r="V34">
+        <v>2</v>
       </c>
       <c r="AH34">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="AH34:AH51" si="2">SUM(B34:AG34)</f>
+        <v>2</v>
       </c>
       <c r="AI34">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="AI34:AI51" si="3">SUM(V34:AG34)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="V35">
-        <v>2</v>
-      </c>
-      <c r="W35">
-        <v>1</v>
-      </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
-      <c r="Z35">
-        <v>3</v>
-      </c>
-      <c r="AA35">
-        <v>2</v>
-      </c>
-      <c r="AB35">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AH35">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AI35">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>55</v>
+      </c>
+      <c r="V36">
+        <v>2</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>3</v>
+      </c>
+      <c r="AA36">
+        <v>2</v>
+      </c>
+      <c r="AB36">
+        <v>3</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
       </c>
       <c r="AH36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="AI36">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA37">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AH37">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>63</v>
-      </c>
-      <c r="V38">
-        <v>2</v>
-      </c>
-      <c r="X38">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="AA38">
+        <v>3</v>
       </c>
       <c r="AH38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AI38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39">
-        <v>2</v>
-      </c>
-      <c r="M39">
+        <v>63</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="X39">
         <v>1</v>
       </c>
       <c r="AH39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AI39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="AH40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="AB41">
+        <v>2</v>
+      </c>
+      <c r="M41">
         <v>1</v>
       </c>
       <c r="AH41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AI41">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>85</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>3</v>
-      </c>
-      <c r="L42">
-        <v>2</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
-      <c r="V42">
-        <v>2</v>
-      </c>
-      <c r="W42">
-        <v>2</v>
-      </c>
-      <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42">
-        <v>2</v>
-      </c>
-      <c r="Z42">
-        <v>1</v>
-      </c>
-      <c r="AA42">
-        <v>2</v>
-      </c>
-      <c r="AB42">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="AH42">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AI42">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>49</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="AA43">
+        <v>8</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="AB43">
+        <v>1</v>
+      </c>
+      <c r="AD43">
         <v>2</v>
       </c>
       <c r="AH43">
-        <f t="shared" ref="AH43:AH47" si="2">SUM(B43:AG43)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="AI43">
-        <f t="shared" ref="AI43:AI47" si="3">SUM(V43:AG43)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>84</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
       </c>
       <c r="P44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W44">
         <v>2</v>
       </c>
       <c r="X44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB44">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AC44">
+        <v>3</v>
+      </c>
+      <c r="AD44">
+        <v>4</v>
       </c>
       <c r="AH44">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AI44">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="P45">
+        <v>49</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="AA45">
         <v>2</v>
       </c>
       <c r="AH45">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI45">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>3</v>
       </c>
       <c r="V46">
         <v>1</v>
       </c>
+      <c r="W46">
+        <v>2</v>
+      </c>
       <c r="X46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y46">
         <v>3</v>
+      </c>
+      <c r="Z46">
+        <v>2</v>
+      </c>
+      <c r="AA46">
+        <v>3</v>
+      </c>
+      <c r="AB46">
+        <v>1</v>
       </c>
       <c r="AH46">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AI46">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z47">
+        <v>45</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="P47">
         <v>2</v>
       </c>
       <c r="AH47">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI47">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="W48">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
       </c>
       <c r="X48">
-        <v>3</v>
-      </c>
-      <c r="Z48">
-        <v>2</v>
-      </c>
-      <c r="AA48">
-        <v>5</v>
-      </c>
-      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
         <v>3</v>
       </c>
       <c r="AH48">
-        <f t="shared" ref="AH48:AH49" si="4">SUM(B48:AG48)</f>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="AI48">
-        <f t="shared" ref="AI48:AI49" si="5">SUM(V48:AG48)</f>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z49">
+        <v>2</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AI49">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="W50">
+        <v>4</v>
+      </c>
+      <c r="X50">
+        <v>3</v>
+      </c>
+      <c r="Z50">
+        <v>2</v>
+      </c>
+      <c r="AA50">
+        <v>5</v>
+      </c>
+      <c r="AB50">
+        <v>3</v>
+      </c>
+      <c r="AC50">
+        <v>2</v>
+      </c>
+      <c r="AD50">
+        <v>5</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AI50">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>47</v>
       </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="AH49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AI49">
-        <f t="shared" si="5"/>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AI51">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y44" xr:uid="{9C542B55-4D31-4DF5-B92C-EBF25DAC7053}"/>
+  <autoFilter ref="A1:AI51" xr:uid="{5167CA1B-91AA-4363-B433-E3207EDE53DF}">
+    <sortState ref="A2:AI51">
+      <sortCondition ref="A1:A51"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/condominio.xlsx
+++ b/data/condominio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="113_{11F70DDE-C80C-4855-9B3C-0D2D94021E73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DCFDC0D3-F9C2-489C-86AB-67A9ECD5BFCA}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="113_{11F70DDE-C80C-4855-9B3C-0D2D94021E73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0601F0C6-DA0A-4DBA-B4D2-B644D9247E43}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notas" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">artilharia!$A$1:$AI$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AI$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AJ$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="90">
   <si>
     <t>Jogador</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>Drope</t>
+  </si>
+  <si>
+    <t>Toninho</t>
+  </si>
+  <si>
+    <t>Werneck</t>
   </si>
 </sst>
 </file>
@@ -1305,11 +1311,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI51"/>
+  <dimension ref="A1:AJ53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD12" sqref="AD12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,10 +1335,10 @@
     <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="10.5546875" customWidth="1"/>
+    <col min="28" max="30" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1420,20 +1426,23 @@
       <c r="AC1" s="1">
         <v>45637</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AD1" s="1">
+        <v>45645</v>
+      </c>
+      <c r="AG1" t="s">
         <v>57</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>59</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1509,23 +1518,23 @@
       <c r="AC2">
         <v>6</v>
       </c>
-      <c r="AF2">
-        <f t="shared" ref="AF2:AF33" si="0">COUNT(B2:AE2)</f>
+      <c r="AG2">
+        <f>COUNT(B2:AF2)</f>
         <v>24</v>
       </c>
-      <c r="AG2" s="18">
-        <f t="shared" ref="AG2:AG33" si="1">AVERAGE(B2:AE2)</f>
+      <c r="AH2" s="18">
+        <f>AVERAGE(B2:AF2)</f>
         <v>5.770833333333333</v>
       </c>
-      <c r="AH2">
-        <f t="shared" ref="AH2:AH33" si="2">IF(AF2&gt;1,_xlfn.STDEV.S(B2:AE2),"")</f>
+      <c r="AI2">
+        <f>IF(AG2&gt;1,_xlfn.STDEV.S(B2:AF2),"")</f>
         <v>0.46576647131057164</v>
       </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1541,46 +1550,46 @@
       <c r="N3">
         <v>6.5</v>
       </c>
-      <c r="AF3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AG3" s="18">
-        <f t="shared" si="1"/>
+      <c r="AG3">
+        <f>COUNT(B3:AF3)</f>
+        <v>4</v>
+      </c>
+      <c r="AH3" s="18">
+        <f>AVERAGE(B3:AF3)</f>
         <v>7</v>
       </c>
-      <c r="AH3">
-        <f t="shared" si="2"/>
+      <c r="AI3">
+        <f>IF(AG3&gt;1,_xlfn.STDEV.S(B3:AF3),"")</f>
         <v>0.40824829046386302</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
       <c r="Z4">
         <v>6.5</v>
       </c>
-      <c r="AF4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AG4" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="AH4" t="str">
-        <f t="shared" si="2"/>
+      <c r="AG4">
+        <f>COUNT(B4:AF4)</f>
+        <v>1</v>
+      </c>
+      <c r="AH4" s="18">
+        <f>AVERAGE(B4:AF4)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AI4" t="str">
+        <f>IF(AG4&gt;1,_xlfn.STDEV.S(B4:AF4),"")</f>
         <v/>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1620,23 +1629,26 @@
       <c r="M5">
         <v>3</v>
       </c>
-      <c r="AF5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AG5" s="18">
-        <f t="shared" si="1"/>
-        <v>4.833333333333333</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" si="2"/>
-        <v>1.2673044646258482</v>
+      <c r="AD5">
+        <v>6</v>
+      </c>
+      <c r="AG5">
+        <f>COUNT(B5:AF5)</f>
+        <v>13</v>
+      </c>
+      <c r="AH5" s="18">
+        <f>AVERAGE(B5:AF5)</f>
+        <v>4.9230769230769234</v>
       </c>
       <c r="AI5">
+        <f>IF(AG5&gt;1,_xlfn.STDEV.S(B5:AF5),"")</f>
+        <v>1.2557559782549617</v>
+      </c>
+      <c r="AJ5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1655,23 +1667,26 @@
       <c r="U6">
         <v>6.5</v>
       </c>
-      <c r="AF6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AG6" s="18">
-        <f t="shared" si="1"/>
-        <v>6.6</v>
-      </c>
-      <c r="AH6">
-        <f t="shared" si="2"/>
-        <v>0.22360679774997896</v>
+      <c r="AD6">
+        <v>6</v>
+      </c>
+      <c r="AG6">
+        <f>COUNT(B6:AF6)</f>
+        <v>6</v>
+      </c>
+      <c r="AH6" s="18">
+        <f>AVERAGE(B6:AF6)</f>
+        <v>6.5</v>
       </c>
       <c r="AI6">
+        <f>IF(AG6&gt;1,_xlfn.STDEV.S(B6:AF6),"")</f>
+        <v>0.31622776601683794</v>
+      </c>
+      <c r="AJ6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1684,23 +1699,23 @@
       <c r="R7">
         <v>6</v>
       </c>
-      <c r="AF7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AG7" s="18">
-        <f t="shared" si="1"/>
+      <c r="AG7">
+        <f>COUNT(B7:AF7)</f>
+        <v>3</v>
+      </c>
+      <c r="AH7" s="18">
+        <f>AVERAGE(B7:AF7)</f>
         <v>5.5</v>
       </c>
-      <c r="AH7">
-        <f t="shared" si="2"/>
+      <c r="AI7">
+        <f>IF(AG7&gt;1,_xlfn.STDEV.S(B7:AF7),"")</f>
         <v>0.8660254037844386</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1755,23 +1770,26 @@
       <c r="AC8">
         <v>4.5</v>
       </c>
-      <c r="AF8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AG8" s="18">
-        <f t="shared" si="1"/>
-        <v>5.117647058823529</v>
-      </c>
-      <c r="AH8">
-        <f t="shared" si="2"/>
-        <v>0.82024028043437247</v>
+      <c r="AD8">
+        <v>5</v>
+      </c>
+      <c r="AG8">
+        <f>COUNT(B8:AF8)</f>
+        <v>18</v>
+      </c>
+      <c r="AH8" s="18">
+        <f>AVERAGE(B8:AF8)</f>
+        <v>5.1111111111111107</v>
       </c>
       <c r="AI8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+        <f>IF(AG8&gt;1,_xlfn.STDEV.S(B8:AF8),"")</f>
+        <v>0.79623296095086071</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1838,23 +1856,26 @@
       <c r="AC9">
         <v>6</v>
       </c>
-      <c r="AF9">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="AG9" s="18">
-        <f t="shared" si="1"/>
-        <v>5.9523809523809526</v>
-      </c>
-      <c r="AH9">
-        <f t="shared" si="2"/>
-        <v>0.49761335152811936</v>
+      <c r="AD9">
+        <v>5.5</v>
+      </c>
+      <c r="AG9">
+        <f>COUNT(B9:AF9)</f>
+        <v>22</v>
+      </c>
+      <c r="AH9" s="18">
+        <f>AVERAGE(B9:AF9)</f>
+        <v>5.9318181818181817</v>
       </c>
       <c r="AI9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+        <f>IF(AG9&gt;1,_xlfn.STDEV.S(B9:AF9),"")</f>
+        <v>0.49510591809214932</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1867,23 +1888,23 @@
       <c r="W10">
         <v>7</v>
       </c>
-      <c r="AF10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AG10" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" si="2"/>
+      <c r="AG10">
+        <f>COUNT(B10:AF10)</f>
+        <v>3</v>
+      </c>
+      <c r="AH10" s="18">
+        <f>AVERAGE(B10:AF10)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AI10">
+        <f>IF(AG10&gt;1,_xlfn.STDEV.S(B10:AF10),"")</f>
         <v>0.5</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1902,23 +1923,23 @@
       <c r="AC11">
         <v>6</v>
       </c>
-      <c r="AF11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AG11" s="18">
-        <f t="shared" si="1"/>
+      <c r="AG11">
+        <f>COUNT(B11:AF11)</f>
+        <v>5</v>
+      </c>
+      <c r="AH11" s="18">
+        <f>AVERAGE(B11:AF11)</f>
         <v>6.1</v>
       </c>
-      <c r="AH11">
-        <f t="shared" si="2"/>
+      <c r="AI11">
+        <f>IF(AG11&gt;1,_xlfn.STDEV.S(B11:AF11),"")</f>
         <v>0.22360679774997896</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -1928,23 +1949,23 @@
       <c r="AC12">
         <v>6</v>
       </c>
-      <c r="AF12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AG12" s="18">
-        <f t="shared" si="1"/>
+      <c r="AG12">
+        <f>COUNT(B12:AF12)</f>
+        <v>2</v>
+      </c>
+      <c r="AH12" s="18">
+        <f>AVERAGE(B12:AF12)</f>
         <v>5.5</v>
       </c>
-      <c r="AH12">
-        <f t="shared" si="2"/>
+      <c r="AI12">
+        <f>IF(AG12&gt;1,_xlfn.STDEV.S(B12:AF12),"")</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AI12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1996,23 +2017,26 @@
       <c r="AB13">
         <v>6</v>
       </c>
-      <c r="AF13">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AG13" s="18">
-        <f t="shared" si="1"/>
-        <v>5.96875</v>
-      </c>
-      <c r="AH13">
-        <f t="shared" si="2"/>
-        <v>0.46435439052516775</v>
+      <c r="AD13">
+        <v>6</v>
+      </c>
+      <c r="AG13">
+        <f>COUNT(B13:AF13)</f>
+        <v>17</v>
+      </c>
+      <c r="AH13" s="18">
+        <f>AVERAGE(B13:AF13)</f>
+        <v>5.9705882352941178</v>
       </c>
       <c r="AI13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+        <f>IF(AG13&gt;1,_xlfn.STDEV.S(B13:AF13),"")</f>
+        <v>0.44967308386531346</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2067,69 +2091,69 @@
       <c r="AA14">
         <v>6</v>
       </c>
-      <c r="AF14">
-        <f t="shared" si="0"/>
+      <c r="AG14">
+        <f>COUNT(B14:AF14)</f>
         <v>17</v>
       </c>
-      <c r="AG14" s="18">
-        <f t="shared" si="1"/>
+      <c r="AH14" s="18">
+        <f>AVERAGE(B14:AF14)</f>
         <v>6.382352941176471</v>
       </c>
-      <c r="AH14">
-        <f t="shared" si="2"/>
+      <c r="AI14">
+        <f>IF(AG14&gt;1,_xlfn.STDEV.S(B14:AF14),"")</f>
         <v>0.41568511838536965</v>
       </c>
-      <c r="AI14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
       <c r="J15">
         <v>6</v>
       </c>
-      <c r="AF15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AG15" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AH15" t="str">
-        <f t="shared" si="2"/>
+      <c r="AG15">
+        <f>COUNT(B15:AF15)</f>
+        <v>1</v>
+      </c>
+      <c r="AH15" s="18">
+        <f>AVERAGE(B15:AF15)</f>
+        <v>6</v>
+      </c>
+      <c r="AI15" t="str">
+        <f>IF(AG15&gt;1,_xlfn.STDEV.S(B15:AF15),"")</f>
         <v/>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>80</v>
       </c>
       <c r="Z16">
         <v>5</v>
       </c>
-      <c r="AF16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AG16" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AH16" t="str">
-        <f t="shared" si="2"/>
+      <c r="AG16">
+        <f>COUNT(B16:AF16)</f>
+        <v>1</v>
+      </c>
+      <c r="AH16" s="18">
+        <f>AVERAGE(B16:AF16)</f>
+        <v>5</v>
+      </c>
+      <c r="AI16" t="str">
+        <f>IF(AG16&gt;1,_xlfn.STDEV.S(B16:AF16),"")</f>
         <v/>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2163,23 +2187,23 @@
       <c r="R17">
         <v>8</v>
       </c>
-      <c r="AF17">
-        <f t="shared" si="0"/>
+      <c r="AG17">
+        <f>COUNT(B17:AF17)</f>
         <v>10</v>
       </c>
-      <c r="AG17" s="18">
-        <f t="shared" si="1"/>
+      <c r="AH17" s="18">
+        <f>AVERAGE(B17:AF17)</f>
         <v>6.8</v>
       </c>
-      <c r="AH17">
-        <f t="shared" si="2"/>
+      <c r="AI17">
+        <f>IF(AG17&gt;1,_xlfn.STDEV.S(B17:AF17),"")</f>
         <v>0.67494855771055284</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2258,23 +2282,26 @@
       <c r="AC18">
         <v>6</v>
       </c>
-      <c r="AF18">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="AG18" s="18">
-        <f t="shared" si="1"/>
-        <v>5.92</v>
-      </c>
-      <c r="AH18">
-        <f t="shared" si="2"/>
-        <v>0.42524502740576925</v>
+      <c r="AD18">
+        <v>6</v>
+      </c>
+      <c r="AG18">
+        <f>COUNT(B18:AF18)</f>
+        <v>26</v>
+      </c>
+      <c r="AH18" s="18">
+        <f>AVERAGE(B18:AF18)</f>
+        <v>5.9230769230769234</v>
       </c>
       <c r="AI18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+        <f>IF(AG18&gt;1,_xlfn.STDEV.S(B18:AF18),"")</f>
+        <v>0.41694862254977394</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -2359,46 +2386,49 @@
       <c r="AC19">
         <v>7</v>
       </c>
-      <c r="AF19">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="AG19" s="18">
-        <f t="shared" si="1"/>
-        <v>6.2037037037037033</v>
-      </c>
-      <c r="AH19">
-        <f t="shared" si="2"/>
-        <v>0.71062349734986419</v>
+      <c r="AD19">
+        <v>6.5</v>
+      </c>
+      <c r="AG19">
+        <f>COUNT(B19:AF19)</f>
+        <v>28</v>
+      </c>
+      <c r="AH19" s="18">
+        <f>AVERAGE(B19:AF19)</f>
+        <v>6.2142857142857144</v>
       </c>
       <c r="AI19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+        <f>IF(AG19&gt;1,_xlfn.STDEV.S(B19:AF19),"")</f>
+        <v>0.69958415463616086</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>81</v>
       </c>
       <c r="Z20">
         <v>6.5</v>
       </c>
-      <c r="AF20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AG20" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="AH20" t="str">
-        <f t="shared" si="2"/>
+      <c r="AG20">
+        <f>COUNT(B20:AF20)</f>
+        <v>1</v>
+      </c>
+      <c r="AH20" s="18">
+        <f>AVERAGE(B20:AF20)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AI20" t="str">
+        <f>IF(AG20&gt;1,_xlfn.STDEV.S(B20:AF20),"")</f>
         <v/>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2468,23 +2498,26 @@
       <c r="AC21">
         <v>6</v>
       </c>
-      <c r="AF21">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="AG21" s="18">
-        <f t="shared" si="1"/>
-        <v>6.4318181818181817</v>
-      </c>
-      <c r="AH21">
-        <f t="shared" si="2"/>
-        <v>0.35508062617136837</v>
+      <c r="AD21">
+        <v>6.5</v>
+      </c>
+      <c r="AG21">
+        <f>COUNT(B21:AF21)</f>
+        <v>23</v>
+      </c>
+      <c r="AH21" s="18">
+        <f>AVERAGE(B21:AF21)</f>
+        <v>6.4347826086956523</v>
       </c>
       <c r="AI21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+        <f>IF(AG21&gt;1,_xlfn.STDEV.S(B21:AF21),"")</f>
+        <v>0.34720794876240152</v>
+      </c>
+      <c r="AJ21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2563,46 +2596,49 @@
       <c r="AC22">
         <v>6</v>
       </c>
-      <c r="AF22">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="AG22" s="18">
-        <f t="shared" si="1"/>
-        <v>6.16</v>
-      </c>
-      <c r="AH22">
-        <f t="shared" si="2"/>
-        <v>0.49413223601245299</v>
+      <c r="AD22">
+        <v>6.5</v>
+      </c>
+      <c r="AG22">
+        <f>COUNT(B22:AF22)</f>
+        <v>26</v>
+      </c>
+      <c r="AH22" s="18">
+        <f>AVERAGE(B22:AF22)</f>
+        <v>6.1730769230769234</v>
       </c>
       <c r="AI22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+        <f>IF(AG22&gt;1,_xlfn.STDEV.S(B22:AF22),"")</f>
+        <v>0.48871889041263178</v>
+      </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>82</v>
       </c>
       <c r="Y23">
         <v>6.5</v>
       </c>
-      <c r="AF23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AG23" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="AH23" t="str">
-        <f t="shared" si="2"/>
+      <c r="AG23">
+        <f>COUNT(B23:AF23)</f>
+        <v>1</v>
+      </c>
+      <c r="AH23" s="18">
+        <f>AVERAGE(B23:AF23)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AI23" t="str">
+        <f>IF(AG23&gt;1,_xlfn.STDEV.S(B23:AF23),"")</f>
         <v/>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -2618,23 +2654,23 @@
       <c r="W24">
         <v>6</v>
       </c>
-      <c r="AF24">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AG24" s="18">
-        <f t="shared" si="1"/>
+      <c r="AG24">
+        <f>COUNT(B24:AF24)</f>
+        <v>4</v>
+      </c>
+      <c r="AH24" s="18">
+        <f>AVERAGE(B24:AF24)</f>
         <v>5.875</v>
       </c>
-      <c r="AH24">
-        <f t="shared" si="2"/>
+      <c r="AI24">
+        <f>IF(AG24&gt;1,_xlfn.STDEV.S(B24:AF24),"")</f>
         <v>0.47871355387816905</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2689,23 +2725,23 @@
       <c r="AB25">
         <v>5.5</v>
       </c>
-      <c r="AF25">
-        <f t="shared" si="0"/>
+      <c r="AG25">
+        <f>COUNT(B25:AF25)</f>
         <v>17</v>
       </c>
-      <c r="AG25" s="18">
-        <f t="shared" si="1"/>
+      <c r="AH25" s="18">
+        <f>AVERAGE(B25:AF25)</f>
         <v>6.3235294117647056</v>
       </c>
-      <c r="AH25">
-        <f t="shared" si="2"/>
+      <c r="AI25">
+        <f>IF(AG25&gt;1,_xlfn.STDEV.S(B25:AF25),"")</f>
         <v>0.70580575564802817</v>
       </c>
-      <c r="AI25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2715,23 +2751,23 @@
       <c r="R26">
         <v>3.5</v>
       </c>
-      <c r="AF26">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AG26" s="18">
-        <f t="shared" si="1"/>
+      <c r="AG26">
+        <f>COUNT(B26:AF26)</f>
+        <v>2</v>
+      </c>
+      <c r="AH26" s="18">
+        <f>AVERAGE(B26:AF26)</f>
         <v>3.25</v>
       </c>
-      <c r="AH26">
-        <f t="shared" si="2"/>
+      <c r="AI26">
+        <f>IF(AG26&gt;1,_xlfn.STDEV.S(B26:AF26),"")</f>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -2747,46 +2783,46 @@
       <c r="AB27">
         <v>4</v>
       </c>
-      <c r="AF27">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AG27" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AH27">
-        <f t="shared" si="2"/>
+      <c r="AG27">
+        <f>COUNT(B27:AF27)</f>
+        <v>4</v>
+      </c>
+      <c r="AH27" s="18">
+        <f>AVERAGE(B27:AF27)</f>
+        <v>5</v>
+      </c>
+      <c r="AI27">
+        <f>IF(AG27&gt;1,_xlfn.STDEV.S(B27:AF27),"")</f>
         <v>0.9128709291752769</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
       <c r="L28">
         <v>5.5</v>
       </c>
-      <c r="AF28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AG28" s="18">
-        <f t="shared" si="1"/>
+      <c r="AG28">
+        <f>COUNT(B28:AF28)</f>
+        <v>1</v>
+      </c>
+      <c r="AH28" s="18">
+        <f>AVERAGE(B28:AF28)</f>
         <v>5.5</v>
       </c>
-      <c r="AH28" t="str">
-        <f t="shared" si="2"/>
+      <c r="AI28" t="str">
+        <f>IF(AG28&gt;1,_xlfn.STDEV.S(B28:AF28),"")</f>
         <v/>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -2796,23 +2832,23 @@
       <c r="M29">
         <v>5</v>
       </c>
-      <c r="AF29">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AG29" s="18">
-        <f t="shared" si="1"/>
+      <c r="AG29">
+        <f>COUNT(B29:AF29)</f>
+        <v>2</v>
+      </c>
+      <c r="AH29" s="18">
+        <f>AVERAGE(B29:AF29)</f>
         <v>4.25</v>
       </c>
-      <c r="AH29">
-        <f t="shared" si="2"/>
+      <c r="AI29">
+        <f>IF(AG29&gt;1,_xlfn.STDEV.S(B29:AF29),"")</f>
         <v>1.0606601717798212</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2894,23 +2930,26 @@
       <c r="AC30">
         <v>5.5</v>
       </c>
-      <c r="AF30">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="AG30" s="18">
-        <f t="shared" si="1"/>
-        <v>5.865384615384615</v>
-      </c>
-      <c r="AH30">
-        <f t="shared" si="2"/>
-        <v>0.53958673645100474</v>
+      <c r="AD30">
+        <v>6</v>
+      </c>
+      <c r="AG30">
+        <f>COUNT(B30:AF30)</f>
+        <v>27</v>
+      </c>
+      <c r="AH30" s="18">
+        <f>AVERAGE(B30:AF30)</f>
+        <v>5.8703703703703702</v>
       </c>
       <c r="AI30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+        <f>IF(AG30&gt;1,_xlfn.STDEV.S(B30:AF30),"")</f>
+        <v>0.52974218316722788</v>
+      </c>
+      <c r="AJ30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2944,23 +2983,23 @@
       <c r="U31">
         <v>5.5</v>
       </c>
-      <c r="AF31">
-        <f t="shared" si="0"/>
+      <c r="AG31">
+        <f>COUNT(B31:AF31)</f>
         <v>10</v>
       </c>
-      <c r="AG31" s="18">
-        <f t="shared" si="1"/>
+      <c r="AH31" s="18">
+        <f>AVERAGE(B31:AF31)</f>
         <v>5.5</v>
       </c>
-      <c r="AH31">
-        <f t="shared" si="2"/>
+      <c r="AI31">
+        <f>IF(AG31&gt;1,_xlfn.STDEV.S(B31:AF31),"")</f>
         <v>0.81649658092772603</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -3006,23 +3045,23 @@
       <c r="Y32">
         <v>6</v>
       </c>
-      <c r="AF32">
-        <f t="shared" si="0"/>
+      <c r="AG32">
+        <f>COUNT(B32:AF32)</f>
         <v>14</v>
       </c>
-      <c r="AG32" s="18">
-        <f t="shared" si="1"/>
+      <c r="AH32" s="18">
+        <f>AVERAGE(B32:AF32)</f>
         <v>5.9285714285714288</v>
       </c>
-      <c r="AH32">
-        <f t="shared" si="2"/>
+      <c r="AI32">
+        <f>IF(AG32&gt;1,_xlfn.STDEV.S(B32:AF32),"")</f>
         <v>0.70321084640774401</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -3050,23 +3089,26 @@
       <c r="AC33">
         <v>5</v>
       </c>
-      <c r="AF33">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AG33" s="18">
-        <f t="shared" si="1"/>
-        <v>6.125</v>
-      </c>
-      <c r="AH33">
-        <f t="shared" si="2"/>
-        <v>0.58248237251071755</v>
+      <c r="AD33">
+        <v>6.5</v>
+      </c>
+      <c r="AG33">
+        <f>COUNT(B33:AF33)</f>
+        <v>9</v>
+      </c>
+      <c r="AH33" s="18">
+        <f>AVERAGE(B33:AF33)</f>
+        <v>6.166666666666667</v>
       </c>
       <c r="AI33">
+        <f>IF(AG33&gt;1,_xlfn.STDEV.S(B33:AF33),"")</f>
+        <v>0.55901699437494745</v>
+      </c>
+      <c r="AJ33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -3079,23 +3121,23 @@
       <c r="U34">
         <v>4.5</v>
       </c>
-      <c r="AF34">
-        <f t="shared" ref="AF34:AF51" si="3">COUNT(B34:AE34)</f>
-        <v>3</v>
-      </c>
-      <c r="AG34" s="18">
-        <f t="shared" ref="AG34:AG51" si="4">AVERAGE(B34:AE34)</f>
+      <c r="AG34">
+        <f>COUNT(B34:AF34)</f>
+        <v>3</v>
+      </c>
+      <c r="AH34" s="18">
+        <f>AVERAGE(B34:AF34)</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="AH34">
-        <f t="shared" ref="AH34:AH51" si="5">IF(AF34&gt;1,_xlfn.STDEV.S(B34:AE34),"")</f>
+      <c r="AI34">
+        <f>IF(AG34&gt;1,_xlfn.STDEV.S(B34:AF34),"")</f>
         <v>0.28867513459481287</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -3150,23 +3192,23 @@
       <c r="AC35">
         <v>6.5</v>
       </c>
-      <c r="AF35">
-        <f t="shared" si="3"/>
+      <c r="AG35">
+        <f>COUNT(B35:AF35)</f>
         <v>17</v>
       </c>
-      <c r="AG35" s="18">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="AH35">
-        <f t="shared" si="5"/>
+      <c r="AH35" s="18">
+        <f>AVERAGE(B35:AF35)</f>
+        <v>6</v>
+      </c>
+      <c r="AI35">
+        <f>IF(AG35&gt;1,_xlfn.STDEV.S(B35:AF35),"")</f>
         <v>0.68465319688145765</v>
       </c>
-      <c r="AI35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -3203,23 +3245,26 @@
       <c r="AC36">
         <v>6</v>
       </c>
-      <c r="AF36">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="AG36" s="18">
-        <f t="shared" si="4"/>
-        <v>6.0909090909090908</v>
-      </c>
-      <c r="AH36">
-        <f t="shared" si="5"/>
-        <v>0.49082490860702144</v>
+      <c r="AD36">
+        <v>6.5</v>
+      </c>
+      <c r="AG36">
+        <f>COUNT(B36:AF36)</f>
+        <v>12</v>
+      </c>
+      <c r="AH36" s="18">
+        <f>AVERAGE(B36:AF36)</f>
+        <v>6.125</v>
       </c>
       <c r="AI36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+        <f>IF(AG36&gt;1,_xlfn.STDEV.S(B36:AF36),"")</f>
+        <v>0.48265364958171136</v>
+      </c>
+      <c r="AJ36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -3229,46 +3274,49 @@
       <c r="G37">
         <v>2.5</v>
       </c>
-      <c r="AF37">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AG37" s="18">
-        <f t="shared" si="4"/>
+      <c r="AG37">
+        <f>COUNT(B37:AF37)</f>
+        <v>2</v>
+      </c>
+      <c r="AH37" s="18">
+        <f>AVERAGE(B37:AF37)</f>
         <v>3.25</v>
       </c>
-      <c r="AH37">
-        <f t="shared" si="5"/>
+      <c r="AI37">
+        <f>IF(AG37&gt;1,_xlfn.STDEV.S(B37:AF37),"")</f>
         <v>1.0606601717798212</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>83</v>
       </c>
       <c r="Z38">
         <v>6.5</v>
       </c>
-      <c r="AF38">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AG38" s="18">
-        <f t="shared" si="4"/>
-        <v>6.5</v>
-      </c>
-      <c r="AH38" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="AD38">
+        <v>7</v>
+      </c>
+      <c r="AG38">
+        <f>COUNT(B38:AF38)</f>
+        <v>2</v>
+      </c>
+      <c r="AH38" s="18">
+        <f>AVERAGE(B38:AF38)</f>
+        <v>6.75</v>
       </c>
       <c r="AI38">
+        <f>IF(AG38&gt;1,_xlfn.STDEV.S(B38:AF38),"")</f>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="AJ38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3281,46 +3329,46 @@
       <c r="W39">
         <v>5.5</v>
       </c>
-      <c r="AF39">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AG39" s="18">
-        <f t="shared" si="4"/>
+      <c r="AG39">
+        <f>COUNT(B39:AF39)</f>
+        <v>3</v>
+      </c>
+      <c r="AH39" s="18">
+        <f>AVERAGE(B39:AF39)</f>
         <v>5.166666666666667</v>
       </c>
-      <c r="AH39">
-        <f t="shared" si="5"/>
+      <c r="AI39">
+        <f>IF(AG39&gt;1,_xlfn.STDEV.S(B39:AF39),"")</f>
         <v>0.28867513459481287</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>86</v>
       </c>
       <c r="AB40">
         <v>4.5</v>
       </c>
-      <c r="AF40">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AG40" s="18">
-        <f t="shared" si="4"/>
+      <c r="AG40">
+        <f>COUNT(B40:AF40)</f>
+        <v>1</v>
+      </c>
+      <c r="AH40" s="18">
+        <f>AVERAGE(B40:AF40)</f>
         <v>4.5</v>
       </c>
-      <c r="AH40" t="str">
-        <f t="shared" si="5"/>
+      <c r="AI40" t="str">
+        <f>IF(AG40&gt;1,_xlfn.STDEV.S(B40:AF40),"")</f>
         <v/>
       </c>
-      <c r="AI40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -3345,23 +3393,23 @@
       <c r="S41">
         <v>6.5</v>
       </c>
-      <c r="AF41">
-        <f t="shared" si="3"/>
+      <c r="AG41">
+        <f>COUNT(B41:AF41)</f>
         <v>7</v>
       </c>
-      <c r="AG41" s="18">
-        <f t="shared" si="4"/>
+      <c r="AH41" s="18">
+        <f>AVERAGE(B41:AF41)</f>
         <v>6.4285714285714288</v>
       </c>
-      <c r="AH41">
-        <f t="shared" si="5"/>
+      <c r="AI41">
+        <f>IF(AG41&gt;1,_xlfn.STDEV.S(B41:AF41),"")</f>
         <v>0.44986770542121862</v>
       </c>
-      <c r="AI41">
+      <c r="AJ41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -3383,23 +3431,23 @@
       <c r="T42">
         <v>6</v>
       </c>
-      <c r="AF42">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="AG42" s="18">
-        <f t="shared" si="4"/>
+      <c r="AG42">
+        <f>COUNT(B42:AF42)</f>
+        <v>6</v>
+      </c>
+      <c r="AH42" s="18">
+        <f>AVERAGE(B42:AF42)</f>
         <v>5.75</v>
       </c>
-      <c r="AH42">
-        <f t="shared" si="5"/>
+      <c r="AI42">
+        <f>IF(AG42&gt;1,_xlfn.STDEV.S(B42:AF42),"")</f>
         <v>0.41833001326703778</v>
       </c>
-      <c r="AI42">
+      <c r="AJ42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -3436,23 +3484,23 @@
       <c r="AC43">
         <v>6.5</v>
       </c>
-      <c r="AF43">
-        <f t="shared" si="3"/>
+      <c r="AG43">
+        <f>COUNT(B43:AF43)</f>
         <v>11</v>
       </c>
-      <c r="AG43" s="18">
-        <f t="shared" si="4"/>
+      <c r="AH43" s="18">
+        <f>AVERAGE(B43:AF43)</f>
         <v>5.7272727272727275</v>
       </c>
-      <c r="AH43">
-        <f t="shared" si="5"/>
+      <c r="AI43">
+        <f>IF(AG43&gt;1,_xlfn.STDEV.S(B43:AF43),"")</f>
         <v>0.78624539310689678</v>
       </c>
-      <c r="AI43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -3537,23 +3585,23 @@
       <c r="AC44">
         <v>6.5</v>
       </c>
-      <c r="AF44">
-        <f t="shared" si="3"/>
+      <c r="AG44">
+        <f>COUNT(B44:AF44)</f>
         <v>27</v>
       </c>
-      <c r="AG44" s="18">
-        <f t="shared" si="4"/>
+      <c r="AH44" s="18">
+        <f>AVERAGE(B44:AF44)</f>
         <v>6.4814814814814818</v>
       </c>
-      <c r="AH44">
-        <f t="shared" si="5"/>
+      <c r="AI44">
+        <f>IF(AG44&gt;1,_xlfn.STDEV.S(B44:AF44),"")</f>
         <v>0.42700841014689889</v>
       </c>
-      <c r="AI44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -3563,356 +3611,408 @@
       <c r="Z45">
         <v>5.5</v>
       </c>
-      <c r="AF45">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AG45" s="18">
-        <f t="shared" si="4"/>
+      <c r="AG45">
+        <f>COUNT(B45:AF45)</f>
+        <v>2</v>
+      </c>
+      <c r="AH45" s="18">
+        <f>AVERAGE(B45:AF45)</f>
         <v>5.5</v>
       </c>
-      <c r="AH45">
-        <f t="shared" si="5"/>
+      <c r="AI45">
+        <f>IF(AG45&gt;1,_xlfn.STDEV.S(B45:AF45),"")</f>
         <v>0</v>
       </c>
-      <c r="AI45">
+      <c r="AJ45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46">
+        <v>88</v>
+      </c>
+      <c r="AD46">
+        <v>6.5</v>
+      </c>
+      <c r="AG46">
+        <f>COUNT(B46:AF46)</f>
+        <v>1</v>
+      </c>
+      <c r="AH46" s="18">
+        <f>AVERAGE(B46:AF46)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AI46" t="str">
+        <f>IF(AG46&gt;1,_xlfn.STDEV.S(B46:AF46),"")</f>
+        <v/>
+      </c>
+      <c r="AJ46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
         <v>8.5</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>7.5</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>7.5</v>
       </c>
-      <c r="E46">
+      <c r="E47">
         <v>7</v>
       </c>
-      <c r="F46">
-        <v>6.5</v>
-      </c>
-      <c r="G46">
-        <v>7</v>
-      </c>
-      <c r="H46">
-        <v>6.5</v>
-      </c>
-      <c r="J46">
-        <v>7.5</v>
-      </c>
-      <c r="K46">
-        <v>7</v>
-      </c>
-      <c r="L46">
-        <v>7.5</v>
-      </c>
-      <c r="M46">
-        <v>6.5</v>
-      </c>
-      <c r="N46">
-        <v>7</v>
-      </c>
-      <c r="O46">
-        <v>7</v>
-      </c>
-      <c r="P46">
-        <v>6.5</v>
-      </c>
-      <c r="Q46">
-        <v>6.5</v>
-      </c>
-      <c r="U46">
-        <v>6.5</v>
-      </c>
-      <c r="V46">
-        <v>6</v>
-      </c>
-      <c r="W46">
-        <v>7</v>
-      </c>
-      <c r="X46">
-        <v>6.5</v>
-      </c>
-      <c r="Y46">
-        <v>6.5</v>
-      </c>
-      <c r="Z46">
-        <v>6.5</v>
-      </c>
-      <c r="AA46">
-        <v>6.5</v>
-      </c>
-      <c r="AF46">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="AG46" s="18">
-        <f t="shared" si="4"/>
-        <v>6.8863636363636367</v>
-      </c>
-      <c r="AH46">
-        <f t="shared" si="5"/>
-        <v>0.55488776603961332</v>
-      </c>
-      <c r="AI46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>45</v>
+      <c r="F47">
+        <v>6.5</v>
       </c>
       <c r="G47">
         <v>7</v>
       </c>
       <c r="H47">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J47">
         <v>7.5</v>
       </c>
       <c r="K47">
+        <v>7</v>
+      </c>
+      <c r="L47">
         <v>7.5</v>
       </c>
-      <c r="L47">
-        <v>7</v>
-      </c>
       <c r="M47">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N47">
         <v>7</v>
       </c>
       <c r="O47">
+        <v>7</v>
+      </c>
+      <c r="P47">
+        <v>6.5</v>
+      </c>
+      <c r="Q47">
+        <v>6.5</v>
+      </c>
+      <c r="U47">
+        <v>6.5</v>
+      </c>
+      <c r="V47">
+        <v>6</v>
+      </c>
+      <c r="W47">
+        <v>7</v>
+      </c>
+      <c r="X47">
+        <v>6.5</v>
+      </c>
+      <c r="Y47">
+        <v>6.5</v>
+      </c>
+      <c r="Z47">
+        <v>6.5</v>
+      </c>
+      <c r="AA47">
+        <v>6.5</v>
+      </c>
+      <c r="AG47">
+        <f>COUNT(B47:AF47)</f>
+        <v>22</v>
+      </c>
+      <c r="AH47" s="18">
+        <f>AVERAGE(B47:AF47)</f>
+        <v>6.8863636363636367</v>
+      </c>
+      <c r="AI47">
+        <f>IF(AG47&gt;1,_xlfn.STDEV.S(B47:AF47),"")</f>
+        <v>0.55488776603961332</v>
+      </c>
+      <c r="AJ47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48">
+        <v>7</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+      <c r="J48">
+        <v>7.5</v>
+      </c>
+      <c r="K48">
+        <v>7.5</v>
+      </c>
+      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="M48">
+        <v>7</v>
+      </c>
+      <c r="N48">
+        <v>7</v>
+      </c>
+      <c r="O48">
         <v>8</v>
       </c>
-      <c r="P47">
+      <c r="P48">
         <v>7.5</v>
       </c>
-      <c r="AF47">
-        <f t="shared" si="3"/>
+      <c r="AG48">
+        <f>COUNT(B48:AF48)</f>
         <v>9</v>
       </c>
-      <c r="AG47" s="18">
-        <f t="shared" si="4"/>
+      <c r="AH48" s="18">
+        <f>AVERAGE(B48:AF48)</f>
         <v>7.2777777777777777</v>
       </c>
-      <c r="AH47">
-        <f t="shared" si="5"/>
+      <c r="AI48">
+        <f>IF(AG48&gt;1,_xlfn.STDEV.S(B48:AF48),"")</f>
         <v>0.36324157862838946</v>
       </c>
-      <c r="AI47">
+      <c r="AJ48">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>23</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>7.5</v>
       </c>
-      <c r="E48">
-        <v>6.5</v>
-      </c>
-      <c r="F48">
-        <v>6.5</v>
-      </c>
-      <c r="H48">
+      <c r="E49">
+        <v>6.5</v>
+      </c>
+      <c r="F49">
+        <v>6.5</v>
+      </c>
+      <c r="H49">
         <v>8.5</v>
       </c>
-      <c r="I48">
-        <v>6.5</v>
-      </c>
-      <c r="K48">
-        <v>6</v>
-      </c>
-      <c r="L48">
-        <v>6.5</v>
-      </c>
-      <c r="M48">
-        <v>6</v>
-      </c>
-      <c r="N48">
-        <v>6</v>
-      </c>
-      <c r="O48">
-        <v>6</v>
-      </c>
-      <c r="P48">
-        <v>6.5</v>
-      </c>
-      <c r="Q48">
+      <c r="I49">
+        <v>6.5</v>
+      </c>
+      <c r="K49">
+        <v>6</v>
+      </c>
+      <c r="L49">
+        <v>6.5</v>
+      </c>
+      <c r="M49">
+        <v>6</v>
+      </c>
+      <c r="N49">
+        <v>6</v>
+      </c>
+      <c r="O49">
+        <v>6</v>
+      </c>
+      <c r="P49">
+        <v>6.5</v>
+      </c>
+      <c r="Q49">
         <v>5.5</v>
       </c>
-      <c r="R48">
+      <c r="R49">
         <v>7</v>
       </c>
-      <c r="S48">
-        <v>6.5</v>
-      </c>
-      <c r="T48">
-        <v>6.5</v>
-      </c>
-      <c r="U48">
-        <v>6</v>
-      </c>
-      <c r="V48">
-        <v>6.5</v>
-      </c>
-      <c r="W48">
-        <v>6.5</v>
-      </c>
-      <c r="X48">
-        <v>6.5</v>
-      </c>
-      <c r="Z48">
-        <v>6</v>
-      </c>
-      <c r="AA48">
-        <v>6</v>
-      </c>
-      <c r="AC48">
-        <v>6</v>
-      </c>
-      <c r="AF48">
-        <f t="shared" si="3"/>
+      <c r="S49">
+        <v>6.5</v>
+      </c>
+      <c r="T49">
+        <v>6.5</v>
+      </c>
+      <c r="U49">
+        <v>6</v>
+      </c>
+      <c r="V49">
+        <v>6.5</v>
+      </c>
+      <c r="W49">
+        <v>6.5</v>
+      </c>
+      <c r="X49">
+        <v>6.5</v>
+      </c>
+      <c r="Z49">
+        <v>6</v>
+      </c>
+      <c r="AA49">
+        <v>6</v>
+      </c>
+      <c r="AC49">
+        <v>6</v>
+      </c>
+      <c r="AG49">
+        <f>COUNT(B49:AF49)</f>
         <v>22</v>
       </c>
-      <c r="AG48" s="18">
-        <f t="shared" si="4"/>
+      <c r="AH49" s="18">
+        <f>AVERAGE(B49:AF49)</f>
         <v>6.4318181818181817</v>
       </c>
-      <c r="AH48">
-        <f t="shared" si="5"/>
+      <c r="AI49">
+        <f>IF(AG49&gt;1,_xlfn.STDEV.S(B49:AF49),"")</f>
         <v>0.62288603531224951</v>
       </c>
-      <c r="AI48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="AJ49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>17</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>5.5</v>
       </c>
-      <c r="R49">
-        <v>5</v>
-      </c>
-      <c r="Y49">
+      <c r="R50">
+        <v>5</v>
+      </c>
+      <c r="Y50">
         <v>5.5</v>
       </c>
-      <c r="Z49">
+      <c r="Z50">
         <v>5.5</v>
       </c>
-      <c r="AB49">
+      <c r="AB50">
         <v>5.5</v>
       </c>
-      <c r="AC49">
+      <c r="AC50">
         <v>5.5</v>
       </c>
-      <c r="AF49">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="AG49" s="18">
-        <f t="shared" si="4"/>
-        <v>5.416666666666667</v>
-      </c>
-      <c r="AH49">
-        <f t="shared" si="5"/>
-        <v>0.20412414523193151</v>
-      </c>
-      <c r="AI49">
+      <c r="AD50">
+        <v>4.5</v>
+      </c>
+      <c r="AG50">
+        <f>COUNT(B50:AF50)</f>
+        <v>7</v>
+      </c>
+      <c r="AH50" s="18">
+        <f>AVERAGE(B50:AF50)</f>
+        <v>5.2857142857142856</v>
+      </c>
+      <c r="AI50">
+        <f>IF(AG50&gt;1,_xlfn.STDEV.S(B50:AF50),"")</f>
+        <v>0.3933978962347216</v>
+      </c>
+      <c r="AJ50">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD51">
+        <v>8</v>
+      </c>
+      <c r="AG51">
+        <f>COUNT(B51:AF51)</f>
+        <v>1</v>
+      </c>
+      <c r="AH51" s="18">
+        <f>AVERAGE(B51:AF51)</f>
+        <v>8</v>
+      </c>
+      <c r="AI51" t="str">
+        <f>IF(AG51&gt;1,_xlfn.STDEV.S(B51:AF51),"")</f>
+        <v/>
+      </c>
+      <c r="AJ51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>16</v>
       </c>
-      <c r="B50">
+      <c r="B52">
         <v>7</v>
       </c>
-      <c r="V50">
-        <v>6.5</v>
-      </c>
-      <c r="W50">
-        <v>6.5</v>
-      </c>
-      <c r="X50">
-        <v>6</v>
-      </c>
-      <c r="Y50">
-        <v>6.5</v>
-      </c>
-      <c r="Z50">
+      <c r="V52">
+        <v>6.5</v>
+      </c>
+      <c r="W52">
+        <v>6.5</v>
+      </c>
+      <c r="X52">
+        <v>6</v>
+      </c>
+      <c r="Y52">
+        <v>6.5</v>
+      </c>
+      <c r="Z52">
         <v>7</v>
       </c>
-      <c r="AA50">
-        <v>6.5</v>
-      </c>
-      <c r="AB50">
-        <v>6.5</v>
-      </c>
-      <c r="AC50">
+      <c r="AA52">
+        <v>6.5</v>
+      </c>
+      <c r="AB52">
+        <v>6.5</v>
+      </c>
+      <c r="AC52">
         <v>7</v>
       </c>
-      <c r="AF50">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="AG50" s="18">
-        <f t="shared" si="4"/>
-        <v>6.6111111111111107</v>
-      </c>
-      <c r="AH50">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="AI50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="AD52">
+        <v>6.5</v>
+      </c>
+      <c r="AG52">
+        <f>COUNT(B52:AF52)</f>
+        <v>10</v>
+      </c>
+      <c r="AH52" s="18">
+        <f>AVERAGE(B52:AF52)</f>
+        <v>6.6</v>
+      </c>
+      <c r="AI52">
+        <f>IF(AG52&gt;1,_xlfn.STDEV.S(B52:AF52),"")</f>
+        <v>0.31622776601683789</v>
+      </c>
+      <c r="AJ52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>47</v>
       </c>
-      <c r="I51">
-        <v>5</v>
-      </c>
-      <c r="AF51">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AG51" s="18">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AH51" t="str">
-        <f t="shared" si="5"/>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="AG53">
+        <f>COUNT(B53:AF53)</f>
+        <v>1</v>
+      </c>
+      <c r="AH53" s="18">
+        <f>AVERAGE(B53:AF53)</f>
+        <v>5</v>
+      </c>
+      <c r="AI53" t="str">
+        <f>IF(AG53&gt;1,_xlfn.STDEV.S(B53:AF53),"")</f>
         <v/>
       </c>
-      <c r="AI51">
+      <c r="AJ53">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI95" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
-    <sortState ref="A2:AI51">
+  <autoFilter ref="A1:AJ95" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
+    <sortState ref="A2:AJ53">
       <sortCondition ref="A1:A95"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="AA2:AD38">
+  <conditionalFormatting sqref="AA2:AE38">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -3924,7 +4024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF39">
+  <conditionalFormatting sqref="AG2:AG39">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -3936,7 +4036,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH39">
+  <conditionalFormatting sqref="AI2:AI39">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -3948,7 +4048,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF40:AF42">
+  <conditionalFormatting sqref="AG40:AG42">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3960,7 +4060,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH40:AH42">
+  <conditionalFormatting sqref="AI40:AI42">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3972,7 +4072,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AD47">
+  <conditionalFormatting sqref="AA2:AE47">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3984,7 +4084,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF42">
+  <conditionalFormatting sqref="AG2:AG42">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -3996,7 +4096,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG39">
+  <conditionalFormatting sqref="AH2:AH39">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -4008,7 +4108,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG40:AG42">
+  <conditionalFormatting sqref="AH40:AH42">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -4020,7 +4120,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG42">
+  <conditionalFormatting sqref="AH2:AH42">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -4032,7 +4132,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AD42">
+  <conditionalFormatting sqref="AA2:AE42">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -4068,7 +4168,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF43 AF45 AF47">
+  <conditionalFormatting sqref="AG43 AG45 AG47">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -4080,7 +4180,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH43 AH45 AH47">
+  <conditionalFormatting sqref="AI43 AI45 AI47">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -4092,7 +4192,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF45">
+  <conditionalFormatting sqref="AG45">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -4104,7 +4204,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG45 AG43 AG47">
+  <conditionalFormatting sqref="AH43 AH45 AH47">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -4116,7 +4216,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG45">
+  <conditionalFormatting sqref="AH45">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -4128,7 +4228,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF44 AF46 AF48:AF51">
+  <conditionalFormatting sqref="AG46 AG44 AG48:AG53">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -4140,7 +4240,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH44 AH46 AH48:AH51">
+  <conditionalFormatting sqref="AI44 AI46 AI48:AI53">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -4152,7 +4252,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF46">
+  <conditionalFormatting sqref="AG46">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -4164,7 +4264,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG44 AG46 AG48:AG51">
+  <conditionalFormatting sqref="AH44 AH46 AH48:AH53">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -4176,7 +4276,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG46 AG44 AG48:AG51">
+  <conditionalFormatting sqref="AH46 AH44 AH48:AH53">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -4188,7 +4288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AC44">
+  <conditionalFormatting sqref="AA2:AD44">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -4200,7 +4300,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA55:AC91">
+  <conditionalFormatting sqref="AA55:AD91">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -4212,7 +4312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA55:AC96">
+  <conditionalFormatting sqref="AA55:AD96">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -4224,7 +4324,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA55:AC95">
+  <conditionalFormatting sqref="AA55:AD95">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -4236,7 +4336,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA55:AC96">
+  <conditionalFormatting sqref="AA55:AD96">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4284,7 +4384,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AC49 AB51:AC51">
+  <conditionalFormatting sqref="B2:AD49 AB51:AD51 AD53">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4296,7 +4396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF51">
+  <conditionalFormatting sqref="AG2:AG53">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4308,7 +4408,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG51">
+  <conditionalFormatting sqref="AH2:AH53">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5344,10 +5444,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9493,6 +9593,156 @@
         <v>55</v>
       </c>
     </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84" s="14">
+        <v>45645</v>
+      </c>
+      <c r="B84" s="3">
+        <v>5</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="9">
+        <v>6</v>
+      </c>
+      <c r="J84" s="10">
+        <v>5</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L84" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M84" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N84" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O84" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P84" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A85" s="14">
+        <v>45645</v>
+      </c>
+      <c r="B85" s="3">
+        <v>3</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I85" s="11">
+        <v>3</v>
+      </c>
+      <c r="J85" s="2">
+        <v>2</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P85" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A86" s="14">
+        <v>45645</v>
+      </c>
+      <c r="B86" s="5">
+        <v>8</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I86" s="5">
+        <v>10</v>
+      </c>
+      <c r="J86" s="8">
+        <v>7</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M86" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N86" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O86" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P86" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9500,11 +9750,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40949BC3-8DAE-4185-A4C0-F8573FA5A3A2}">
-  <dimension ref="A1:AI51"/>
+  <dimension ref="A1:AI53"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD30" sqref="AD30"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE52" sqref="AE2:AE52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9519,7 +9769,7 @@
     <col min="25" max="25" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
@@ -9613,6 +9863,9 @@
       <c r="AD1" s="1">
         <v>45637</v>
       </c>
+      <c r="AE1" s="1">
+        <v>45645</v>
+      </c>
       <c r="AH1" t="s">
         <v>65</v>
       </c>
@@ -9634,11 +9887,11 @@
         <v>3</v>
       </c>
       <c r="AH2">
-        <f t="shared" ref="AH2:AH33" si="0">SUM(B2:AG2)</f>
+        <f>SUM(B2:AG2)</f>
         <v>8</v>
       </c>
       <c r="AI2">
-        <f t="shared" ref="AI2:AI33" si="1">SUM(V2:AG2)</f>
+        <f>SUM(V2:AG2)</f>
         <v>3</v>
       </c>
     </row>
@@ -9653,11 +9906,11 @@
         <v>1</v>
       </c>
       <c r="AH3">
-        <f t="shared" si="0"/>
+        <f>SUM(B3:AG3)</f>
         <v>2</v>
       </c>
       <c r="AI3">
-        <f t="shared" si="1"/>
+        <f>SUM(V3:AG3)</f>
         <v>0</v>
       </c>
     </row>
@@ -9669,11 +9922,11 @@
         <v>3</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="0"/>
+        <f>SUM(B4:AG4)</f>
         <v>3</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="1"/>
+        <f>SUM(V4:AG4)</f>
         <v>3</v>
       </c>
     </row>
@@ -9687,13 +9940,16 @@
       <c r="L5">
         <v>1</v>
       </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
       <c r="AH5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(B5:AG5)</f>
+        <v>5</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(V5:AG5)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
@@ -9701,11 +9957,11 @@
         <v>48</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:AG6)</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="1"/>
+        <f>SUM(V6:AG6)</f>
         <v>0</v>
       </c>
     </row>
@@ -9714,11 +9970,11 @@
         <v>18</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="0"/>
+        <f>SUM(B7:AG7)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="1"/>
+        <f>SUM(V7:AG7)</f>
         <v>0</v>
       </c>
     </row>
@@ -9744,13 +10000,16 @@
       <c r="AD8">
         <v>3</v>
       </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
       <c r="AH8">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(B8:AG8)</f>
+        <v>11</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>SUM(V8:AG8)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
@@ -9773,11 +10032,11 @@
         <v>1</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:AG9)</f>
         <v>5</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="1"/>
+        <f>SUM(V9:AG9)</f>
         <v>3</v>
       </c>
     </row>
@@ -9792,11 +10051,11 @@
         <v>3</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="0"/>
+        <f>SUM(B10:AG10)</f>
         <v>5</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="1"/>
+        <f>SUM(V10:AG10)</f>
         <v>5</v>
       </c>
     </row>
@@ -9814,11 +10073,11 @@
         <v>1</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:AG11)</f>
         <v>6</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="1"/>
+        <f>SUM(V11:AG11)</f>
         <v>6</v>
       </c>
     </row>
@@ -9833,11 +10092,11 @@
         <v>1</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="0"/>
+        <f>SUM(B12:AG12)</f>
         <v>3</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="1"/>
+        <f>SUM(V12:AG12)</f>
         <v>3</v>
       </c>
     </row>
@@ -9873,11 +10132,11 @@
         <v>1</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="0"/>
+        <f>SUM(B13:AG13)</f>
         <v>12</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="1"/>
+        <f>SUM(V13:AG13)</f>
         <v>4</v>
       </c>
     </row>
@@ -9904,11 +10163,11 @@
         <v>1</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:AG14)</f>
         <v>17</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="1"/>
+        <f>SUM(V14:AG14)</f>
         <v>6</v>
       </c>
     </row>
@@ -9920,11 +10179,11 @@
         <v>1</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="0"/>
+        <f>SUM(B15:AG15)</f>
         <v>1</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="1"/>
+        <f>SUM(V15:AG15)</f>
         <v>0</v>
       </c>
     </row>
@@ -9933,11 +10192,11 @@
         <v>80</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="0"/>
+        <f>SUM(B16:AG16)</f>
         <v>0</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="1"/>
+        <f>SUM(V16:AG16)</f>
         <v>0</v>
       </c>
     </row>
@@ -9955,11 +10214,11 @@
         <v>1</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="0"/>
+        <f>SUM(B17:AG17)</f>
         <v>5</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="1"/>
+        <f>SUM(V17:AG17)</f>
         <v>0</v>
       </c>
     </row>
@@ -9988,13 +10247,16 @@
       <c r="AD18">
         <v>1</v>
       </c>
+      <c r="AE18">
+        <v>3</v>
+      </c>
       <c r="AH18">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(B18:AG18)</f>
+        <v>13</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>SUM(V18:AG18)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
@@ -10034,13 +10296,16 @@
       <c r="AD19">
         <v>1</v>
       </c>
+      <c r="AE19">
+        <v>2</v>
+      </c>
       <c r="AH19">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>SUM(B19:AG19)</f>
+        <v>18</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f>SUM(V19:AG19)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
@@ -10051,11 +10316,11 @@
         <v>1</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="0"/>
+        <f>SUM(B20:AG20)</f>
         <v>1</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="1"/>
+        <f>SUM(V20:AG20)</f>
         <v>1</v>
       </c>
     </row>
@@ -10093,13 +10358,16 @@
       <c r="AD21">
         <v>1</v>
       </c>
+      <c r="AE21">
+        <v>2</v>
+      </c>
       <c r="AH21">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>SUM(B21:AG21)</f>
+        <v>17</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f>SUM(V21:AG21)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
@@ -10139,13 +10407,16 @@
       <c r="AD22">
         <v>2</v>
       </c>
+      <c r="AE22">
+        <v>2</v>
+      </c>
       <c r="AH22">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>SUM(B22:AG22)</f>
+        <v>20</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>SUM(V22:AG22)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
@@ -10156,11 +10427,11 @@
         <v>1</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="0"/>
+        <f>SUM(B23:AG23)</f>
         <v>1</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="1"/>
+        <f>SUM(V23:AG23)</f>
         <v>1</v>
       </c>
     </row>
@@ -10172,11 +10443,11 @@
         <v>1</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="0"/>
+        <f>SUM(B24:AG24)</f>
         <v>1</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="1"/>
+        <f>SUM(V24:AG24)</f>
         <v>1</v>
       </c>
     </row>
@@ -10206,11 +10477,11 @@
         <v>1</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="0"/>
+        <f>SUM(B25:AG25)</f>
         <v>13</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="1"/>
+        <f>SUM(V25:AG25)</f>
         <v>13</v>
       </c>
     </row>
@@ -10219,11 +10490,11 @@
         <v>43</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="0"/>
+        <f>SUM(B26:AG26)</f>
         <v>0</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="1"/>
+        <f>SUM(V26:AG26)</f>
         <v>0</v>
       </c>
     </row>
@@ -10238,11 +10509,11 @@
         <v>1</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="0"/>
+        <f>SUM(B27:AG27)</f>
         <v>2</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="1"/>
+        <f>SUM(V27:AG27)</f>
         <v>2</v>
       </c>
     </row>
@@ -10251,11 +10522,11 @@
         <v>53</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="0"/>
+        <f>SUM(B28:AG28)</f>
         <v>0</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="1"/>
+        <f>SUM(V28:AG28)</f>
         <v>0</v>
       </c>
     </row>
@@ -10267,11 +10538,11 @@
         <v>2</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="0"/>
+        <f>SUM(B29:AG29)</f>
         <v>2</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="1"/>
+        <f>SUM(V29:AG29)</f>
         <v>0</v>
       </c>
     </row>
@@ -10309,13 +10580,16 @@
       <c r="AD30">
         <v>2</v>
       </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
       <c r="AH30">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>SUM(B30:AG30)</f>
+        <v>19</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f>SUM(V30:AG30)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
@@ -10335,11 +10609,11 @@
         <v>1</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="0"/>
+        <f>SUM(B31:AG31)</f>
         <v>7</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="1"/>
+        <f>SUM(V31:AG31)</f>
         <v>1</v>
       </c>
     </row>
@@ -10354,11 +10628,11 @@
         <v>3</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="0"/>
+        <f>SUM(B32:AG32)</f>
         <v>4</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="1"/>
+        <f>SUM(V32:AG32)</f>
         <v>3</v>
       </c>
     </row>
@@ -10387,13 +10661,16 @@
       <c r="AD33">
         <v>1</v>
       </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
       <c r="AH33">
-        <f t="shared" si="0"/>
+        <f>SUM(B33:AG33)</f>
+        <v>12</v>
+      </c>
+      <c r="AI33">
+        <f>SUM(V33:AG33)</f>
         <v>11</v>
-      </c>
-      <c r="AI33">
-        <f t="shared" si="1"/>
-        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.3">
@@ -10404,11 +10681,11 @@
         <v>2</v>
       </c>
       <c r="AH34">
-        <f t="shared" ref="AH34:AH51" si="2">SUM(B34:AG34)</f>
+        <f>SUM(B34:AG34)</f>
         <v>2</v>
       </c>
       <c r="AI34">
-        <f t="shared" ref="AI34:AI51" si="3">SUM(V34:AG34)</f>
+        <f>SUM(V34:AG34)</f>
         <v>2</v>
       </c>
     </row>
@@ -10417,11 +10694,11 @@
         <v>11</v>
       </c>
       <c r="AH35">
-        <f t="shared" si="2"/>
+        <f>SUM(B35:AG35)</f>
         <v>0</v>
       </c>
       <c r="AI35">
-        <f t="shared" si="3"/>
+        <f>SUM(V35:AG35)</f>
         <v>0</v>
       </c>
     </row>
@@ -10453,13 +10730,16 @@
       <c r="AD36">
         <v>1</v>
       </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
       <c r="AH36">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f>SUM(B36:AG36)</f>
+        <v>15</v>
       </c>
       <c r="AI36">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f>SUM(V36:AG36)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
@@ -10467,11 +10747,11 @@
         <v>21</v>
       </c>
       <c r="AH37">
-        <f t="shared" si="2"/>
+        <f>SUM(B37:AG37)</f>
         <v>0</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="3"/>
+        <f>SUM(V37:AG37)</f>
         <v>0</v>
       </c>
     </row>
@@ -10482,13 +10762,16 @@
       <c r="AA38">
         <v>3</v>
       </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
       <c r="AH38">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>SUM(B38:AG38)</f>
+        <v>4</v>
       </c>
       <c r="AI38">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>SUM(V38:AG38)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
@@ -10502,11 +10785,11 @@
         <v>1</v>
       </c>
       <c r="AH39">
-        <f t="shared" si="2"/>
+        <f>SUM(B39:AG39)</f>
         <v>3</v>
       </c>
       <c r="AI39">
-        <f t="shared" si="3"/>
+        <f>SUM(V39:AG39)</f>
         <v>3</v>
       </c>
     </row>
@@ -10515,11 +10798,11 @@
         <v>86</v>
       </c>
       <c r="AH40">
-        <f t="shared" si="2"/>
+        <f>SUM(B40:AG40)</f>
         <v>0</v>
       </c>
       <c r="AI40">
-        <f t="shared" si="3"/>
+        <f>SUM(V40:AG40)</f>
         <v>0</v>
       </c>
     </row>
@@ -10534,11 +10817,11 @@
         <v>1</v>
       </c>
       <c r="AH41">
-        <f t="shared" si="2"/>
+        <f>SUM(B41:AG41)</f>
         <v>3</v>
       </c>
       <c r="AI41">
-        <f t="shared" si="3"/>
+        <f>SUM(V41:AG41)</f>
         <v>0</v>
       </c>
     </row>
@@ -10547,11 +10830,11 @@
         <v>44</v>
       </c>
       <c r="AH42">
-        <f t="shared" si="2"/>
+        <f>SUM(B42:AG42)</f>
         <v>0</v>
       </c>
       <c r="AI42">
-        <f t="shared" si="3"/>
+        <f>SUM(V42:AG42)</f>
         <v>0</v>
       </c>
     </row>
@@ -10572,11 +10855,11 @@
         <v>2</v>
       </c>
       <c r="AH43">
-        <f t="shared" si="2"/>
+        <f>SUM(B43:AG43)</f>
         <v>5</v>
       </c>
       <c r="AI43">
-        <f t="shared" si="3"/>
+        <f>SUM(V43:AG43)</f>
         <v>4</v>
       </c>
     </row>
@@ -10627,11 +10910,11 @@
         <v>4</v>
       </c>
       <c r="AH44">
-        <f t="shared" si="2"/>
+        <f>SUM(B44:AG44)</f>
         <v>27</v>
       </c>
       <c r="AI44">
-        <f t="shared" si="3"/>
+        <f>SUM(V44:AG44)</f>
         <v>19</v>
       </c>
     </row>
@@ -10646,179 +10929,220 @@
         <v>2</v>
       </c>
       <c r="AH45">
-        <f t="shared" si="2"/>
+        <f>SUM(B45:AG45)</f>
         <v>3</v>
       </c>
       <c r="AI45">
-        <f t="shared" si="3"/>
+        <f>SUM(V45:AG45)</f>
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46">
-        <v>2</v>
-      </c>
-      <c r="L46">
-        <v>4</v>
-      </c>
-      <c r="P46">
-        <v>3</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>2</v>
-      </c>
-      <c r="X46">
-        <v>2</v>
-      </c>
-      <c r="Y46">
-        <v>3</v>
-      </c>
-      <c r="Z46">
-        <v>2</v>
-      </c>
-      <c r="AA46">
-        <v>3</v>
-      </c>
-      <c r="AB46">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="AE46">
+        <v>4</v>
       </c>
       <c r="AH46">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <f t="shared" ref="AH46:AH51" si="0">SUM(B46:AG46)</f>
+        <v>4</v>
       </c>
       <c r="AI46">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" ref="AI46:AI51" si="1">SUM(V46:AG46)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>2</v>
+      </c>
+      <c r="X47">
+        <v>2</v>
+      </c>
+      <c r="Y47">
+        <v>3</v>
+      </c>
+      <c r="Z47">
+        <v>2</v>
+      </c>
+      <c r="AA47">
+        <v>3</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
       </c>
       <c r="AH47">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="AI47">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48">
-        <v>2</v>
-      </c>
-      <c r="V48">
-        <v>1</v>
-      </c>
-      <c r="X48">
-        <v>1</v>
-      </c>
-      <c r="Y48">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AH48">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="AI48">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z49">
-        <v>2</v>
-      </c>
-      <c r="AD49">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <v>3</v>
       </c>
       <c r="AH49">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="AI49">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>16</v>
-      </c>
-      <c r="W50">
-        <v>4</v>
-      </c>
-      <c r="X50">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Z50">
         <v>2</v>
       </c>
-      <c r="AA50">
-        <v>5</v>
-      </c>
-      <c r="AB50">
-        <v>3</v>
-      </c>
-      <c r="AC50">
-        <v>2</v>
-      </c>
       <c r="AD50">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AH50">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="AI50">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE51">
+        <v>5</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AI51">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="W52">
+        <v>4</v>
+      </c>
+      <c r="X52">
+        <v>3</v>
+      </c>
+      <c r="Z52">
+        <v>2</v>
+      </c>
+      <c r="AA52">
+        <v>5</v>
+      </c>
+      <c r="AB52">
+        <v>3</v>
+      </c>
+      <c r="AC52">
+        <v>2</v>
+      </c>
+      <c r="AD52">
+        <v>5</v>
+      </c>
+      <c r="AE52">
+        <v>3</v>
+      </c>
+      <c r="AH52">
+        <f>SUM(B52:AG52)</f>
+        <v>27</v>
+      </c>
+      <c r="AI52">
+        <f>SUM(V52:AG52)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>47</v>
       </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="AH51">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AI51">
-        <f t="shared" si="3"/>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="AH53">
+        <f>SUM(B53:AG53)</f>
+        <v>1</v>
+      </c>
+      <c r="AI53">
+        <f>SUM(V53:AG53)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AI51" xr:uid="{5167CA1B-91AA-4363-B433-E3207EDE53DF}">
-    <sortState ref="A2:AI51">
+    <sortState ref="A2:AI53">
       <sortCondition ref="A1:A51"/>
     </sortState>
   </autoFilter>

--- a/data/condominio.xlsx
+++ b/data/condominio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="14_{F8FAE7CF-1AB6-449B-BC05-2BC42FEE3DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{802BB599-596F-4ACB-8D93-2F1EEDA491DD}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="14_{F8FAE7CF-1AB6-449B-BC05-2BC42FEE3DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3E1DDEAB-1CF4-41BF-9BD8-ADBA520E9F07}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notas" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">artilharia!$A$1:$K$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'artilharia total'!$A$1:$AI$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'extrato 2024'!$A$1:$C$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AL$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AN$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="340">
   <si>
     <t>Jogador</t>
   </si>
@@ -1049,6 +1049,9 @@
   </si>
   <si>
     <t>Setembro - já pago</t>
+  </si>
+  <si>
+    <t>Janeiro</t>
   </si>
 </sst>
 </file>
@@ -2104,11 +2107,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL53"/>
+  <dimension ref="A1:AN53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG8" sqref="AG8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH2" sqref="B2:AH53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2128,10 +2131,10 @@
     <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="32" width="10.5546875" customWidth="1"/>
+    <col min="28" max="34" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2228,20 +2231,26 @@
       <c r="AF1" s="1">
         <v>45672</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AG1" s="1">
+        <v>45679</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>45686</v>
+      </c>
+      <c r="AK1" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>58</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>59</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2338,249 +2347,264 @@
       <c r="AF2">
         <v>6</v>
       </c>
-      <c r="AI2">
-        <f t="shared" ref="AI2:AI33" si="0">COUNT(B2:AH2)</f>
+      <c r="AG2">
+        <v>6</v>
+      </c>
+      <c r="AH2">
+        <v>6.5</v>
+      </c>
+      <c r="AK2">
+        <f>COUNT(B2:AJ2)</f>
+        <v>32</v>
+      </c>
+      <c r="AL2" s="18">
+        <f>AVERAGE(B2:AJ2)</f>
+        <v>6.40625</v>
+      </c>
+      <c r="AM2">
+        <f>IF(AK2&gt;1,_xlfn.STDEV.S(B2:AJ2),"")</f>
+        <v>0.99545337377239262</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>7.5</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>7.5</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>7.5</v>
+      </c>
+      <c r="U3">
+        <v>7</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>7</v>
+      </c>
+      <c r="X3">
+        <v>6</v>
+      </c>
+      <c r="Y3">
+        <v>6</v>
+      </c>
+      <c r="Z3">
+        <v>6</v>
+      </c>
+      <c r="AA3">
+        <v>7</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AC3">
+        <v>7</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3">
+        <v>7</v>
+      </c>
+      <c r="AF3">
+        <v>6</v>
+      </c>
+      <c r="AG3">
+        <v>6</v>
+      </c>
+      <c r="AH3">
+        <v>5</v>
+      </c>
+      <c r="AK3">
+        <f>COUNT(B3:AJ3)</f>
+        <v>31</v>
+      </c>
+      <c r="AL3" s="18">
+        <f>AVERAGE(B3:AJ3)</f>
+        <v>6.758064516129032</v>
+      </c>
+      <c r="AM3">
+        <f>IF(AK3&gt;1,_xlfn.STDEV.S(B3:AJ3),"")</f>
+        <v>0.72882288362737813</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5.5</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>5.5</v>
+      </c>
+      <c r="F4">
+        <v>5.5</v>
+      </c>
+      <c r="G4">
+        <v>5.5</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>5.5</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>5.5</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>4.5</v>
+      </c>
+      <c r="Q4">
+        <v>5.5</v>
+      </c>
+      <c r="R4">
+        <v>5.5</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>5.5</v>
+      </c>
+      <c r="U4">
+        <v>7</v>
+      </c>
+      <c r="V4">
+        <v>7</v>
+      </c>
+      <c r="W4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4">
+        <v>6</v>
+      </c>
+      <c r="Y4">
+        <v>7</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4">
+        <v>6</v>
+      </c>
+      <c r="AB4">
+        <v>6</v>
+      </c>
+      <c r="AC4">
+        <v>5.5</v>
+      </c>
+      <c r="AD4">
+        <v>6</v>
+      </c>
+      <c r="AE4">
+        <v>6.5</v>
+      </c>
+      <c r="AF4">
+        <v>5</v>
+      </c>
+      <c r="AH4">
+        <v>6.5</v>
+      </c>
+      <c r="AK4">
+        <f>COUNT(B4:AJ4)</f>
         <v>30</v>
       </c>
-      <c r="AJ2" s="18">
-        <f t="shared" ref="AJ2:AJ33" si="1">AVERAGE(B2:AH2)</f>
-        <v>6.416666666666667</v>
-      </c>
-      <c r="AK2">
-        <f t="shared" ref="AK2:AK33" si="2">IF(AI2&gt;1,_xlfn.STDEV.S(B2:AH2),"")</f>
-        <v>1.0262362883567471</v>
-      </c>
-      <c r="AL2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>5.5</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>5.5</v>
-      </c>
-      <c r="F3">
-        <v>5.5</v>
-      </c>
-      <c r="G3">
-        <v>5.5</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>5.5</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
-      <c r="L3">
-        <v>5.5</v>
-      </c>
-      <c r="M3">
-        <v>7</v>
-      </c>
-      <c r="N3">
-        <v>7</v>
-      </c>
-      <c r="O3">
-        <v>7</v>
-      </c>
-      <c r="P3">
-        <v>4.5</v>
-      </c>
-      <c r="Q3">
-        <v>5.5</v>
-      </c>
-      <c r="R3">
-        <v>5.5</v>
-      </c>
-      <c r="S3">
-        <v>7</v>
-      </c>
-      <c r="T3">
-        <v>5.5</v>
-      </c>
-      <c r="U3">
-        <v>7</v>
-      </c>
-      <c r="V3">
-        <v>7</v>
-      </c>
-      <c r="W3" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3">
-        <v>6</v>
-      </c>
-      <c r="Y3">
-        <v>7</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA3">
-        <v>6</v>
-      </c>
-      <c r="AB3">
-        <v>6</v>
-      </c>
-      <c r="AC3">
-        <v>5.5</v>
-      </c>
-      <c r="AD3">
-        <v>6</v>
-      </c>
-      <c r="AE3">
-        <v>6.5</v>
-      </c>
-      <c r="AF3">
-        <v>5</v>
-      </c>
-      <c r="AI3">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="AJ3" s="18">
-        <f t="shared" si="1"/>
-        <v>5.9655172413793105</v>
-      </c>
-      <c r="AK3">
-        <f t="shared" si="2"/>
-        <v>0.80101536549778274</v>
-      </c>
-      <c r="AL3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
-        <v>7.5</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <v>7</v>
-      </c>
-      <c r="L4">
-        <v>6</v>
-      </c>
-      <c r="M4">
-        <v>6</v>
-      </c>
-      <c r="N4">
-        <v>7</v>
-      </c>
-      <c r="O4">
-        <v>7</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>7</v>
-      </c>
-      <c r="R4">
-        <v>7.5</v>
-      </c>
-      <c r="S4">
-        <v>7</v>
-      </c>
-      <c r="T4">
-        <v>7.5</v>
-      </c>
-      <c r="U4">
-        <v>7</v>
-      </c>
-      <c r="V4">
-        <v>7</v>
-      </c>
-      <c r="W4">
-        <v>7</v>
-      </c>
-      <c r="X4">
-        <v>6</v>
-      </c>
-      <c r="Y4">
-        <v>6</v>
-      </c>
-      <c r="Z4">
-        <v>6</v>
-      </c>
-      <c r="AA4">
-        <v>7</v>
-      </c>
-      <c r="AB4">
-        <v>7</v>
-      </c>
-      <c r="AC4">
-        <v>7</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE4">
-        <v>7</v>
-      </c>
-      <c r="AF4">
-        <v>6</v>
-      </c>
-      <c r="AI4">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="AJ4" s="18">
-        <f t="shared" si="1"/>
-        <v>6.8448275862068968</v>
-      </c>
-      <c r="AK4">
-        <f t="shared" si="2"/>
-        <v>0.65606304515025304</v>
-      </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AL4" s="18">
+        <f>AVERAGE(B4:AJ4)</f>
+        <v>5.9833333333333334</v>
+      </c>
+      <c r="AM4">
+        <f>IF(AK4&gt;1,_xlfn.STDEV.S(B4:AJ4),"")</f>
+        <v>0.79310969512781992</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2677,23 +2701,29 @@
       <c r="AF5">
         <v>6</v>
       </c>
-      <c r="AI5">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="AJ5" s="18">
-        <f t="shared" si="1"/>
-        <v>6.0357142857142856</v>
+      <c r="AG5">
+        <v>6</v>
+      </c>
+      <c r="AH5">
+        <v>5</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="2"/>
-        <v>0.6225481006043917</v>
-      </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+        <f>COUNT(B5:AJ5)</f>
+        <v>30</v>
+      </c>
+      <c r="AL5" s="18">
+        <f>AVERAGE(B5:AJ5)</f>
+        <v>6</v>
+      </c>
+      <c r="AM5">
+        <f>IF(AK5&gt;1,_xlfn.STDEV.S(B5:AJ5),"")</f>
+        <v>0.62972352992240255</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2790,23 +2820,26 @@
       <c r="AF6">
         <v>6</v>
       </c>
-      <c r="AI6">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="AJ6" s="18">
-        <f t="shared" si="1"/>
-        <v>6.375</v>
+      <c r="AG6">
+        <v>6.5</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="2"/>
-        <v>0.74068286810963246</v>
-      </c>
-      <c r="AL6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+        <f>COUNT(B6:AJ6)</f>
+        <v>29</v>
+      </c>
+      <c r="AL6" s="18">
+        <f>AVERAGE(B6:AJ6)</f>
+        <v>6.3793103448275863</v>
+      </c>
+      <c r="AM6">
+        <f>IF(AK6&gt;1,_xlfn.STDEV.S(B6:AJ6),"")</f>
+        <v>0.72770643136247193</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2900,23 +2933,26 @@
       <c r="AE7">
         <v>7</v>
       </c>
-      <c r="AI7">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="AJ7" s="18">
-        <f t="shared" si="1"/>
-        <v>5.84</v>
+      <c r="AH7">
+        <v>6.5</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="2"/>
-        <v>0.74610097618664672</v>
-      </c>
-      <c r="AL7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+        <f>COUNT(B7:AJ7)</f>
+        <v>26</v>
+      </c>
+      <c r="AL7" s="18">
+        <f>AVERAGE(B7:AJ7)</f>
+        <v>5.865384615384615</v>
+      </c>
+      <c r="AM7">
+        <f>IF(AK7&gt;1,_xlfn.STDEV.S(B7:AJ7),"")</f>
+        <v>0.74239736405367684</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3013,659 +3049,683 @@
       <c r="AF8">
         <v>6.5</v>
       </c>
-      <c r="AI8">
-        <f t="shared" si="0"/>
+      <c r="AH8">
+        <v>7.5</v>
+      </c>
+      <c r="AK8">
+        <f>COUNT(B8:AJ8)</f>
+        <v>26</v>
+      </c>
+      <c r="AL8" s="18">
+        <f>AVERAGE(B8:AJ8)</f>
+        <v>6.8461538461538458</v>
+      </c>
+      <c r="AM8">
+        <f>IF(AK8&gt;1,_xlfn.STDEV.S(B8:AJ8),"")</f>
+        <v>0.59614143907684813</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>8.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>5.5</v>
+      </c>
+      <c r="R9">
+        <v>7.5</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>7</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="X9">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z9">
+        <v>6</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC9">
+        <v>6</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF9">
+        <v>7</v>
+      </c>
+      <c r="AG9">
+        <v>5.5</v>
+      </c>
+      <c r="AH9">
+        <v>5.5</v>
+      </c>
+      <c r="AK9">
+        <f>COUNT(B9:AJ9)</f>
         <v>25</v>
       </c>
-      <c r="AJ8" s="18">
-        <f t="shared" si="1"/>
-        <v>6.82</v>
-      </c>
-      <c r="AK8">
-        <f t="shared" si="2"/>
-        <v>0.59301489582190658</v>
-      </c>
-      <c r="AL8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="AL9" s="18">
+        <f>AVERAGE(B9:AJ9)</f>
+        <v>6.7</v>
+      </c>
+      <c r="AM9">
+        <f>IF(AK9&gt;1,_xlfn.STDEV.S(B9:AJ9),"")</f>
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>8.5</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>8.5</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>7.5</v>
       </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
         <v>7.5</v>
       </c>
-      <c r="H9">
-        <v>7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9">
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10">
         <v>8.5</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>7.5</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>8.5</v>
       </c>
-      <c r="M9">
-        <v>7</v>
-      </c>
-      <c r="N9">
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
         <v>7.5</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <v>7.5</v>
       </c>
-      <c r="P9">
-        <v>7</v>
-      </c>
-      <c r="Q9">
-        <v>7</v>
-      </c>
-      <c r="R9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S9" t="s">
-        <v>26</v>
-      </c>
-      <c r="T9" t="s">
-        <v>26</v>
-      </c>
-      <c r="U9">
-        <v>7</v>
-      </c>
-      <c r="V9">
-        <v>6</v>
-      </c>
-      <c r="W9">
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10">
+        <v>7</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10">
         <v>7.5</v>
       </c>
-      <c r="X9">
-        <v>7</v>
-      </c>
-      <c r="Y9">
-        <v>7</v>
-      </c>
-      <c r="Z9">
-        <v>7</v>
-      </c>
-      <c r="AA9">
-        <v>7</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF9">
+      <c r="X10">
+        <v>7</v>
+      </c>
+      <c r="Y10">
+        <v>7</v>
+      </c>
+      <c r="Z10">
+        <v>7</v>
+      </c>
+      <c r="AA10">
+        <v>7</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF10">
         <v>6.5</v>
       </c>
-      <c r="AI9">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="AJ9" s="18">
-        <f t="shared" si="1"/>
-        <v>7.4565217391304346</v>
-      </c>
-      <c r="AK9">
-        <f t="shared" si="2"/>
-        <v>0.85164337764568432</v>
-      </c>
-      <c r="AL9">
+      <c r="AG10">
+        <v>10</v>
+      </c>
+      <c r="AK10">
+        <f>COUNT(B10:AJ10)</f>
+        <v>24</v>
+      </c>
+      <c r="AL10" s="18">
+        <f>AVERAGE(B10:AJ10)</f>
+        <v>7.5625</v>
+      </c>
+      <c r="AM10">
+        <f>IF(AK10&gt;1,_xlfn.STDEV.S(B10:AJ10),"")</f>
+        <v>0.98148622883426351</v>
+      </c>
+      <c r="AN10">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>8.5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-      <c r="I10">
-        <v>7</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-      <c r="L10">
-        <v>7</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-      <c r="N10">
-        <v>6</v>
-      </c>
-      <c r="O10">
-        <v>6</v>
-      </c>
-      <c r="P10">
-        <v>7</v>
-      </c>
-      <c r="Q10">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>4.5</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11">
+        <v>4.5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11">
+        <v>2.5</v>
+      </c>
+      <c r="M11">
+        <v>4.5</v>
+      </c>
+      <c r="N11">
         <v>5.5</v>
       </c>
-      <c r="R10">
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>4.5</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="U11">
+        <v>2.5</v>
+      </c>
+      <c r="V11">
+        <v>5.5</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <v>6</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z11">
+        <v>5.5</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC11">
+        <v>4</v>
+      </c>
+      <c r="AD11">
+        <v>4.5</v>
+      </c>
+      <c r="AE11">
+        <v>4</v>
+      </c>
+      <c r="AF11">
+        <v>2.5</v>
+      </c>
+      <c r="AG11">
+        <v>3</v>
+      </c>
+      <c r="AH11">
+        <v>5</v>
+      </c>
+      <c r="AK11">
+        <f>COUNT(B11:AJ11)</f>
+        <v>22</v>
+      </c>
+      <c r="AL11" s="18">
+        <f>AVERAGE(B11:AJ11)</f>
+        <v>4.5681818181818183</v>
+      </c>
+      <c r="AM11">
+        <f>IF(AK11&gt;1,_xlfn.STDEV.S(B11:AJ11),"")</f>
+        <v>1.1881904463496311</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
         <v>7.5</v>
       </c>
-      <c r="S10">
-        <v>7</v>
-      </c>
-      <c r="T10">
-        <v>7</v>
-      </c>
-      <c r="U10">
-        <v>6</v>
-      </c>
-      <c r="V10">
-        <v>7</v>
-      </c>
-      <c r="W10">
-        <v>7</v>
-      </c>
-      <c r="X10">
-        <v>7</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z10">
-        <v>6</v>
-      </c>
-      <c r="AA10">
-        <v>6</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC10">
-        <v>6</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF10">
-        <v>7</v>
-      </c>
-      <c r="AI10">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="AJ10" s="18">
-        <f t="shared" si="1"/>
-        <v>6.8043478260869561</v>
-      </c>
-      <c r="AK10">
-        <f t="shared" si="2"/>
-        <v>0.9739695071153468</v>
-      </c>
-      <c r="AL10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>4.5</v>
+      </c>
+      <c r="I12">
+        <v>5.5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+      <c r="P12">
+        <v>5.5</v>
+      </c>
+      <c r="Q12">
+        <v>5.5</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>4.5</v>
+      </c>
+      <c r="T12">
+        <v>7</v>
+      </c>
+      <c r="U12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V12">
+        <v>6</v>
+      </c>
+      <c r="W12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12">
+        <v>7</v>
+      </c>
+      <c r="Y12">
+        <v>6</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA12">
+        <v>6</v>
+      </c>
+      <c r="AB12">
+        <v>5.5</v>
+      </c>
+      <c r="AC12">
+        <v>6</v>
+      </c>
+      <c r="AD12">
+        <v>5.5</v>
+      </c>
+      <c r="AK12">
+        <f>COUNT(B12:AJ12)</f>
+        <v>22</v>
+      </c>
+      <c r="AL12" s="18">
+        <f>AVERAGE(B12:AJ12)</f>
+        <v>6</v>
+      </c>
+      <c r="AM12">
+        <f>IF(AK12&gt;1,_xlfn.STDEV.S(B12:AJ12),"")</f>
+        <v>0.7559289460184544</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
         <v>7.5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>4.5</v>
-      </c>
-      <c r="I11">
-        <v>5.5</v>
-      </c>
-      <c r="J11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>6</v>
-      </c>
-      <c r="L11">
-        <v>6</v>
-      </c>
-      <c r="M11">
-        <v>6</v>
-      </c>
-      <c r="N11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11">
-        <v>6</v>
-      </c>
-      <c r="P11">
-        <v>5.5</v>
-      </c>
-      <c r="Q11">
-        <v>5.5</v>
-      </c>
-      <c r="R11">
-        <v>6</v>
-      </c>
-      <c r="S11">
-        <v>4.5</v>
-      </c>
-      <c r="T11">
-        <v>7</v>
-      </c>
-      <c r="U11" t="s">
-        <v>26</v>
-      </c>
-      <c r="V11">
-        <v>6</v>
-      </c>
-      <c r="W11" t="s">
-        <v>26</v>
-      </c>
-      <c r="X11">
-        <v>7</v>
-      </c>
-      <c r="Y11">
-        <v>6</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA11">
-        <v>6</v>
-      </c>
-      <c r="AB11">
-        <v>5.5</v>
-      </c>
-      <c r="AC11">
-        <v>6</v>
-      </c>
-      <c r="AD11">
-        <v>5.5</v>
-      </c>
-      <c r="AI11">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="AJ11" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AK11">
-        <f t="shared" si="2"/>
-        <v>0.7559289460184544</v>
-      </c>
-      <c r="AL11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>4.5</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12">
-        <v>4.5</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12">
-        <v>2.5</v>
-      </c>
-      <c r="M12">
-        <v>4.5</v>
-      </c>
-      <c r="N12">
-        <v>5.5</v>
-      </c>
-      <c r="O12">
-        <v>6</v>
-      </c>
-      <c r="P12">
-        <v>4.5</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>26</v>
-      </c>
-      <c r="R12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S12">
-        <v>4</v>
-      </c>
-      <c r="T12">
-        <v>6</v>
-      </c>
-      <c r="U12">
-        <v>2.5</v>
-      </c>
-      <c r="V12">
-        <v>5.5</v>
-      </c>
-      <c r="W12">
-        <v>6</v>
-      </c>
-      <c r="X12">
-        <v>6</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z12">
-        <v>5.5</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC12">
-        <v>4</v>
-      </c>
-      <c r="AD12">
-        <v>4.5</v>
-      </c>
-      <c r="AE12">
-        <v>4</v>
-      </c>
-      <c r="AF12">
-        <v>2.5</v>
-      </c>
-      <c r="AI12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="AJ12" s="18">
-        <f t="shared" si="1"/>
-        <v>4.625</v>
-      </c>
-      <c r="AK12">
-        <f t="shared" si="2"/>
-        <v>1.1906986007780209</v>
-      </c>
-      <c r="AL12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>7.5</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>7</v>
       </c>
       <c r="E13">
         <v>7.5</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
       </c>
       <c r="I13">
+        <v>4.5</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <v>6</v>
+      </c>
+      <c r="O13">
+        <v>5.5</v>
+      </c>
+      <c r="P13">
+        <v>6</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13">
+        <v>4.5</v>
+      </c>
+      <c r="T13">
+        <v>7</v>
+      </c>
+      <c r="U13" t="s">
+        <v>26</v>
+      </c>
+      <c r="V13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13">
+        <v>6</v>
+      </c>
+      <c r="Y13">
+        <v>6</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA13">
+        <v>4.5</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC13">
+        <v>7</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE13">
+        <v>3</v>
+      </c>
+      <c r="AF13">
+        <v>6</v>
+      </c>
+      <c r="AG13">
+        <v>4.5</v>
+      </c>
+      <c r="AH13">
+        <v>6</v>
+      </c>
+      <c r="AK13">
+        <f>COUNT(B13:AJ13)</f>
+        <v>21</v>
+      </c>
+      <c r="AL13" s="18">
+        <f>AVERAGE(B13:AJ13)</f>
+        <v>5.8571428571428568</v>
+      </c>
+      <c r="AM13">
+        <f>IF(AK13&gt;1,_xlfn.STDEV.S(B13:AJ13),"")</f>
+        <v>1.184724199369384</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
         <v>7.5</v>
       </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13">
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
         <v>7.5</v>
       </c>
-      <c r="L13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13">
-        <v>6</v>
-      </c>
-      <c r="O13">
-        <v>7</v>
-      </c>
-      <c r="P13">
-        <v>6</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>26</v>
-      </c>
-      <c r="R13" t="s">
-        <v>26</v>
-      </c>
-      <c r="S13">
-        <v>6</v>
-      </c>
-      <c r="T13">
-        <v>7</v>
-      </c>
-      <c r="U13">
-        <v>7</v>
-      </c>
-      <c r="V13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W13">
-        <v>6</v>
-      </c>
-      <c r="X13">
-        <v>6</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA13">
-        <v>6</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE13">
-        <v>6</v>
-      </c>
-      <c r="AF13">
-        <v>6.5</v>
-      </c>
-      <c r="AI13">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AJ13" s="18">
-        <f t="shared" si="1"/>
-        <v>6.6052631578947372</v>
-      </c>
-      <c r="AK13">
-        <f t="shared" si="2"/>
-        <v>0.63637312972337068</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
       <c r="F14">
         <v>6</v>
       </c>
-      <c r="G14" t="s">
-        <v>26</v>
+      <c r="G14">
+        <v>6</v>
       </c>
       <c r="H14" t="s">
         <v>26</v>
       </c>
-      <c r="I14" t="s">
-        <v>26</v>
+      <c r="I14">
+        <v>7.5</v>
       </c>
       <c r="J14" t="s">
         <v>26</v>
       </c>
-      <c r="K14" t="s">
-        <v>26</v>
+      <c r="K14">
+        <v>7.5</v>
       </c>
       <c r="L14" t="s">
         <v>26</v>
       </c>
-      <c r="M14">
-        <v>6</v>
+      <c r="M14" t="s">
+        <v>26</v>
       </c>
       <c r="N14">
         <v>6</v>
       </c>
       <c r="O14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P14">
         <v>6</v>
       </c>
-      <c r="Q14">
-        <v>7</v>
+      <c r="Q14" t="s">
+        <v>26</v>
       </c>
       <c r="R14" t="s">
         <v>26</v>
       </c>
-      <c r="S14" t="s">
-        <v>26</v>
+      <c r="S14">
+        <v>6</v>
       </c>
       <c r="T14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U14">
-        <v>6</v>
-      </c>
-      <c r="V14">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="V14" t="s">
+        <v>26</v>
       </c>
       <c r="W14">
         <v>6</v>
       </c>
-      <c r="X14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y14">
-        <v>8.5</v>
-      </c>
-      <c r="Z14">
-        <v>6</v>
+      <c r="X14">
+        <v>6</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>26</v>
       </c>
       <c r="AA14">
         <v>6</v>
       </c>
-      <c r="AB14">
-        <v>5.5</v>
+      <c r="AB14" t="s">
+        <v>26</v>
       </c>
       <c r="AC14" t="s">
         <v>26</v>
@@ -3679,136 +3739,145 @@
       <c r="AF14">
         <v>6.5</v>
       </c>
-      <c r="AI14">
-        <f t="shared" si="0"/>
+      <c r="AG14">
+        <v>7</v>
+      </c>
+      <c r="AH14">
+        <v>5.5</v>
+      </c>
+      <c r="AK14">
+        <f>COUNT(B14:AJ14)</f>
+        <v>21</v>
+      </c>
+      <c r="AL14" s="18">
+        <f>AVERAGE(B14:AJ14)</f>
+        <v>6.5714285714285712</v>
+      </c>
+      <c r="AM14">
+        <f>IF(AK14&gt;1,_xlfn.STDEV.S(B14:AJ14),"")</f>
+        <v>0.65737573513391634</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="AJ14" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5526315789473681</v>
-      </c>
-      <c r="AK14">
-        <f t="shared" si="2"/>
-        <v>1.0787690624311015</v>
-      </c>
-      <c r="AL14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
       <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>6</v>
+      </c>
+      <c r="V15">
+        <v>7</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y15">
+        <v>8.5</v>
+      </c>
+      <c r="Z15">
+        <v>6</v>
+      </c>
+      <c r="AA15">
+        <v>6</v>
+      </c>
+      <c r="AB15">
         <v>5.5</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <v>7.5</v>
-      </c>
-      <c r="E15">
-        <v>7.5</v>
-      </c>
-      <c r="F15">
-        <v>7.5</v>
-      </c>
-      <c r="G15">
-        <v>5.5</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15">
-        <v>4.5</v>
-      </c>
-      <c r="J15">
-        <v>7</v>
-      </c>
-      <c r="K15">
-        <v>6</v>
-      </c>
-      <c r="L15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15">
-        <v>6</v>
-      </c>
-      <c r="O15">
-        <v>5.5</v>
-      </c>
-      <c r="P15">
-        <v>6</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>26</v>
-      </c>
-      <c r="R15" t="s">
-        <v>26</v>
-      </c>
-      <c r="S15">
-        <v>4.5</v>
-      </c>
-      <c r="T15">
-        <v>7</v>
-      </c>
-      <c r="U15" t="s">
-        <v>26</v>
-      </c>
-      <c r="V15" t="s">
-        <v>26</v>
-      </c>
-      <c r="W15" t="s">
-        <v>26</v>
-      </c>
-      <c r="X15">
-        <v>6</v>
-      </c>
-      <c r="Y15">
-        <v>6</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA15">
-        <v>4.5</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC15">
-        <v>7</v>
+      <c r="AC15" t="s">
+        <v>26</v>
       </c>
       <c r="AD15" t="s">
         <v>26</v>
       </c>
       <c r="AE15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF15">
-        <v>6</v>
-      </c>
-      <c r="AI15">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AJ15" s="18">
-        <f t="shared" si="1"/>
-        <v>5.9210526315789478</v>
+        <v>6.5</v>
+      </c>
+      <c r="AG15">
+        <v>6.5</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="2"/>
-        <v>1.2048877067863684</v>
-      </c>
-      <c r="AL15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+        <f>COUNT(B15:AJ15)</f>
+        <v>20</v>
+      </c>
+      <c r="AL15" s="18">
+        <f>AVERAGE(B15:AJ15)</f>
+        <v>6.55</v>
+      </c>
+      <c r="AM15">
+        <f>IF(AK15&gt;1,_xlfn.STDEV.S(B15:AJ15),"")</f>
+        <v>1.050062654772262</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3899,23 +3968,23 @@
       <c r="AD16">
         <v>6</v>
       </c>
-      <c r="AI16">
-        <f t="shared" si="0"/>
+      <c r="AK16">
+        <f>COUNT(B16:AJ16)</f>
         <v>17</v>
       </c>
-      <c r="AJ16" s="18">
-        <f t="shared" si="1"/>
+      <c r="AL16" s="18">
+        <f>AVERAGE(B16:AJ16)</f>
         <v>6.0882352941176467</v>
       </c>
-      <c r="AK16">
-        <f t="shared" si="2"/>
+      <c r="AM16">
+        <f>IF(AK16&gt;1,_xlfn.STDEV.S(B16:AJ16),"")</f>
         <v>0.71228711990072591</v>
       </c>
-      <c r="AL16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AN16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -4009,573 +4078,585 @@
       <c r="AE17">
         <v>6.5</v>
       </c>
-      <c r="AI17">
-        <f t="shared" si="0"/>
+      <c r="AK17">
+        <f>COUNT(B17:AJ17)</f>
         <v>15</v>
       </c>
-      <c r="AJ17" s="18">
-        <f t="shared" si="1"/>
+      <c r="AL17" s="18">
+        <f>AVERAGE(B17:AJ17)</f>
         <v>6.0333333333333332</v>
       </c>
-      <c r="AK17">
-        <f t="shared" si="2"/>
+      <c r="AM17">
+        <f>IF(AK17&gt;1,_xlfn.STDEV.S(B17:AJ17),"")</f>
         <v>0.99043040187202558</v>
       </c>
-      <c r="AL17">
+      <c r="AN17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+      <c r="P18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18">
+        <v>4.5</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18">
+        <v>7</v>
+      </c>
+      <c r="U18">
+        <v>7</v>
+      </c>
+      <c r="V18">
+        <v>6</v>
+      </c>
+      <c r="W18">
+        <v>6</v>
+      </c>
+      <c r="X18">
+        <v>6</v>
+      </c>
+      <c r="Y18">
+        <v>7.5</v>
+      </c>
+      <c r="Z18">
+        <v>6</v>
+      </c>
+      <c r="AA18">
+        <v>6</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC18">
+        <v>6</v>
+      </c>
+      <c r="AD18">
+        <v>7</v>
+      </c>
+      <c r="AF18">
+        <v>7</v>
+      </c>
+      <c r="AG18">
+        <v>7</v>
+      </c>
+      <c r="AK18">
+        <f>COUNT(B18:AJ18)</f>
+        <v>14</v>
+      </c>
+      <c r="AL18" s="18">
+        <f>AVERAGE(B18:AJ18)</f>
+        <v>6.3571428571428568</v>
+      </c>
+      <c r="AM18">
+        <f>IF(AK18&gt;1,_xlfn.STDEV.S(B18:AJ18),"")</f>
+        <v>0.77032888651964082</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>7.5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" t="s">
+        <v>26</v>
+      </c>
+      <c r="V19">
+        <v>7</v>
+      </c>
+      <c r="W19">
+        <v>7</v>
+      </c>
+      <c r="X19">
+        <v>6</v>
+      </c>
+      <c r="Y19">
+        <v>7</v>
+      </c>
+      <c r="Z19">
+        <v>7.5</v>
+      </c>
+      <c r="AA19">
+        <v>7</v>
+      </c>
+      <c r="AB19">
+        <v>7</v>
+      </c>
+      <c r="AC19">
+        <v>7.5</v>
+      </c>
+      <c r="AD19">
+        <v>7</v>
+      </c>
+      <c r="AE19">
+        <v>6</v>
+      </c>
+      <c r="AF19">
+        <v>6.5</v>
+      </c>
+      <c r="AH19">
+        <v>6.5</v>
+      </c>
+      <c r="AK19">
+        <f>COUNT(B19:AJ19)</f>
+        <v>13</v>
+      </c>
+      <c r="AL19" s="18">
+        <f>AVERAGE(B19:AJ19)</f>
+        <v>6.884615384615385</v>
+      </c>
+      <c r="AM19">
+        <f>IF(AK19&gt;1,_xlfn.STDEV.S(B19:AJ19),"")</f>
+        <v>0.50636968354183332</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20">
+        <v>5.5</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20">
+        <v>7</v>
+      </c>
+      <c r="T20" t="s">
+        <v>26</v>
+      </c>
+      <c r="U20" t="s">
+        <v>26</v>
+      </c>
+      <c r="V20">
+        <v>7</v>
+      </c>
+      <c r="W20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X20">
+        <v>6</v>
+      </c>
+      <c r="Y20">
+        <v>7</v>
+      </c>
+      <c r="Z20">
+        <v>7</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB20">
+        <v>7</v>
+      </c>
+      <c r="AC20">
+        <v>4.5</v>
+      </c>
+      <c r="AD20">
+        <v>7</v>
+      </c>
+      <c r="AE20">
+        <v>6</v>
+      </c>
+      <c r="AF20">
+        <v>5</v>
+      </c>
+      <c r="AG20">
+        <v>6.5</v>
+      </c>
+      <c r="AH20">
+        <v>6.5</v>
+      </c>
+      <c r="AK20">
+        <f>COUNT(B20:AJ20)</f>
+        <v>13</v>
+      </c>
+      <c r="AL20" s="18">
+        <f>AVERAGE(B20:AJ20)</f>
+        <v>6.3076923076923075</v>
+      </c>
+      <c r="AM20">
+        <f>IF(AK20&gt;1,_xlfn.STDEV.S(B20:AJ20),"")</f>
+        <v>0.85485041426510777</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
         <v>1.5</v>
       </c>
-      <c r="D18">
+      <c r="D21">
         <v>4.5</v>
       </c>
-      <c r="E18">
+      <c r="E21">
         <v>4</v>
       </c>
-      <c r="F18">
+      <c r="F21">
         <v>7.5</v>
-      </c>
-      <c r="G18">
-        <v>5.5</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18">
-        <v>4.5</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18">
-        <v>5.5</v>
-      </c>
-      <c r="L18">
-        <v>2.5</v>
-      </c>
-      <c r="M18">
-        <v>1.5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" t="s">
-        <v>26</v>
-      </c>
-      <c r="S18" t="s">
-        <v>26</v>
-      </c>
-      <c r="T18" t="s">
-        <v>26</v>
-      </c>
-      <c r="U18" t="s">
-        <v>26</v>
-      </c>
-      <c r="V18" t="s">
-        <v>26</v>
-      </c>
-      <c r="W18" t="s">
-        <v>26</v>
-      </c>
-      <c r="X18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD18">
-        <v>6</v>
-      </c>
-      <c r="AI18">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AJ18" s="18">
-        <f t="shared" si="1"/>
-        <v>4.4615384615384617</v>
-      </c>
-      <c r="AK18">
-        <f t="shared" si="2"/>
-        <v>1.875961292039569</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19">
-        <v>6</v>
-      </c>
-      <c r="P19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q19">
-        <v>4.5</v>
-      </c>
-      <c r="R19" t="s">
-        <v>26</v>
-      </c>
-      <c r="S19" t="s">
-        <v>26</v>
-      </c>
-      <c r="T19">
-        <v>7</v>
-      </c>
-      <c r="U19">
-        <v>7</v>
-      </c>
-      <c r="V19">
-        <v>6</v>
-      </c>
-      <c r="W19">
-        <v>6</v>
-      </c>
-      <c r="X19">
-        <v>6</v>
-      </c>
-      <c r="Y19">
-        <v>7.5</v>
-      </c>
-      <c r="Z19">
-        <v>6</v>
-      </c>
-      <c r="AA19">
-        <v>6</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC19">
-        <v>6</v>
-      </c>
-      <c r="AD19">
-        <v>7</v>
-      </c>
-      <c r="AF19">
-        <v>7</v>
-      </c>
-      <c r="AI19">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AJ19" s="18">
-        <f t="shared" si="1"/>
-        <v>6.3076923076923075</v>
-      </c>
-      <c r="AK19">
-        <f t="shared" si="2"/>
-        <v>0.77831178249415345</v>
-      </c>
-      <c r="AL19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>7.5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>26</v>
-      </c>
-      <c r="R20" t="s">
-        <v>26</v>
-      </c>
-      <c r="S20" t="s">
-        <v>26</v>
-      </c>
-      <c r="T20" t="s">
-        <v>26</v>
-      </c>
-      <c r="U20" t="s">
-        <v>26</v>
-      </c>
-      <c r="V20">
-        <v>7</v>
-      </c>
-      <c r="W20">
-        <v>7</v>
-      </c>
-      <c r="X20">
-        <v>6</v>
-      </c>
-      <c r="Y20">
-        <v>7</v>
-      </c>
-      <c r="Z20">
-        <v>7.5</v>
-      </c>
-      <c r="AA20">
-        <v>7</v>
-      </c>
-      <c r="AB20">
-        <v>7</v>
-      </c>
-      <c r="AC20">
-        <v>7.5</v>
-      </c>
-      <c r="AD20">
-        <v>7</v>
-      </c>
-      <c r="AE20">
-        <v>6</v>
-      </c>
-      <c r="AF20">
-        <v>6.5</v>
-      </c>
-      <c r="AI20">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AJ20" s="18">
-        <f t="shared" si="1"/>
-        <v>6.916666666666667</v>
-      </c>
-      <c r="AK20">
-        <f t="shared" si="2"/>
-        <v>0.51492865054443726</v>
-      </c>
-      <c r="AL20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>26</v>
       </c>
       <c r="G21">
         <v>5.5</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I21">
         <v>4.5</v>
       </c>
       <c r="J21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>7</v>
-      </c>
-      <c r="L21" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" t="s">
-        <v>26</v>
+        <v>5.5</v>
+      </c>
+      <c r="L21">
+        <v>2.5</v>
+      </c>
+      <c r="M21">
+        <v>1.5</v>
       </c>
       <c r="N21" t="s">
         <v>26</v>
       </c>
-      <c r="O21">
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" t="s">
+        <v>26</v>
+      </c>
+      <c r="U21" t="s">
+        <v>26</v>
+      </c>
+      <c r="V21" t="s">
+        <v>26</v>
+      </c>
+      <c r="W21" t="s">
+        <v>26</v>
+      </c>
+      <c r="X21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD21">
+        <v>6</v>
+      </c>
+      <c r="AK21">
+        <f>COUNT(B21:AJ21)</f>
+        <v>13</v>
+      </c>
+      <c r="AL21" s="18">
+        <f>AVERAGE(B21:AJ21)</f>
+        <v>4.4615384615384617</v>
+      </c>
+      <c r="AM21">
+        <f>IF(AK21&gt;1,_xlfn.STDEV.S(B21:AJ21),"")</f>
+        <v>1.875961292039569</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22">
         <v>5.5</v>
       </c>
-      <c r="P21" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>26</v>
-      </c>
-      <c r="R21" t="s">
-        <v>26</v>
-      </c>
-      <c r="S21" t="s">
-        <v>26</v>
-      </c>
-      <c r="T21" t="s">
-        <v>26</v>
-      </c>
-      <c r="U21">
-        <v>6</v>
-      </c>
-      <c r="V21" t="s">
-        <v>26</v>
-      </c>
-      <c r="W21" t="s">
-        <v>26</v>
-      </c>
-      <c r="X21" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA21">
-        <v>7</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC21">
-        <v>7</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI21">
-        <f t="shared" si="0"/>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>4.5</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>7</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22">
+        <v>5.5</v>
+      </c>
+      <c r="P22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22" t="s">
+        <v>26</v>
+      </c>
+      <c r="U22">
+        <v>6</v>
+      </c>
+      <c r="V22" t="s">
+        <v>26</v>
+      </c>
+      <c r="W22" t="s">
+        <v>26</v>
+      </c>
+      <c r="X22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA22">
+        <v>7</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC22">
+        <v>7</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK22">
+        <f>COUNT(B22:AJ22)</f>
         <v>11</v>
       </c>
-      <c r="AJ21" s="18">
-        <f t="shared" si="1"/>
+      <c r="AL22" s="18">
+        <f>AVERAGE(B22:AJ22)</f>
         <v>5.7727272727272725</v>
       </c>
-      <c r="AK21">
-        <f t="shared" si="2"/>
+      <c r="AM22">
+        <f>IF(AK22&gt;1,_xlfn.STDEV.S(B22:AJ22),"")</f>
         <v>1.1908743922772957</v>
       </c>
-      <c r="AL21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22" t="s">
-        <v>26</v>
-      </c>
-      <c r="P22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q22">
-        <v>5.5</v>
-      </c>
-      <c r="R22" t="s">
-        <v>26</v>
-      </c>
-      <c r="S22">
-        <v>7</v>
-      </c>
-      <c r="T22" t="s">
-        <v>26</v>
-      </c>
-      <c r="U22" t="s">
-        <v>26</v>
-      </c>
-      <c r="V22">
-        <v>7</v>
-      </c>
-      <c r="W22" t="s">
-        <v>26</v>
-      </c>
-      <c r="X22">
-        <v>6</v>
-      </c>
-      <c r="Y22">
-        <v>7</v>
-      </c>
-      <c r="Z22">
-        <v>7</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB22">
-        <v>7</v>
-      </c>
-      <c r="AC22">
-        <v>4.5</v>
-      </c>
-      <c r="AD22">
-        <v>7</v>
-      </c>
-      <c r="AE22">
-        <v>6</v>
-      </c>
-      <c r="AF22">
-        <v>5</v>
-      </c>
-      <c r="AI22">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AJ22" s="18">
-        <f t="shared" si="1"/>
-        <v>6.2727272727272725</v>
-      </c>
-      <c r="AK22">
-        <f t="shared" si="2"/>
-        <v>0.93176274779678692</v>
-      </c>
-      <c r="AL22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AN22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -4666,23 +4747,26 @@
       <c r="AD23" t="s">
         <v>26</v>
       </c>
-      <c r="AI23">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AJ23" s="18">
-        <f t="shared" si="1"/>
-        <v>7.25</v>
+      <c r="AG23">
+        <v>6.5</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="2"/>
-        <v>1.0341394704992379</v>
-      </c>
-      <c r="AL23">
+        <f>COUNT(B23:AJ23)</f>
+        <v>11</v>
+      </c>
+      <c r="AL23" s="18">
+        <f>AVERAGE(B23:AJ23)</f>
+        <v>7.1818181818181817</v>
+      </c>
+      <c r="AM23">
+        <f>IF(AK23&gt;1,_xlfn.STDEV.S(B23:AJ23),"")</f>
+        <v>1.006795095159071</v>
+      </c>
+      <c r="AN23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -4773,23 +4857,26 @@
       <c r="AD24" t="s">
         <v>26</v>
       </c>
-      <c r="AI24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AJ24" s="18">
-        <f t="shared" si="1"/>
-        <v>5.4</v>
+      <c r="AH24">
+        <v>5</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="2"/>
-        <v>1.1972189997378637</v>
-      </c>
-      <c r="AL24">
+        <f>COUNT(B24:AJ24)</f>
+        <v>11</v>
+      </c>
+      <c r="AL24" s="18">
+        <f>AVERAGE(B24:AJ24)</f>
+        <v>5.3636363636363633</v>
+      </c>
+      <c r="AM24">
+        <f>IF(AK24&gt;1,_xlfn.STDEV.S(B24:AJ24),"")</f>
+        <v>1.1421669994118444</v>
+      </c>
+      <c r="AN24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -4880,237 +4967,240 @@
       <c r="AD25" t="s">
         <v>26</v>
       </c>
-      <c r="AI25">
-        <f t="shared" si="0"/>
+      <c r="AK25">
+        <f>COUNT(B25:AJ25)</f>
         <v>9</v>
       </c>
-      <c r="AJ25" s="18">
-        <f t="shared" si="1"/>
+      <c r="AL25" s="18">
+        <f>AVERAGE(B25:AJ25)</f>
         <v>8</v>
       </c>
-      <c r="AK25">
-        <f t="shared" si="2"/>
+      <c r="AM25">
+        <f>IF(AK25&gt;1,_xlfn.STDEV.S(B25:AJ25),"")</f>
         <v>0.61237243569579447</v>
       </c>
-      <c r="AL25">
+      <c r="AN25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>5.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26">
+        <v>4.5</v>
+      </c>
+      <c r="S26" t="s">
+        <v>26</v>
+      </c>
+      <c r="T26" t="s">
+        <v>26</v>
+      </c>
+      <c r="U26" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y26">
+        <v>5.5</v>
+      </c>
+      <c r="Z26">
+        <v>5.5</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB26">
+        <v>5.5</v>
+      </c>
+      <c r="AC26">
+        <v>5.5</v>
+      </c>
+      <c r="AD26">
+        <v>4</v>
+      </c>
+      <c r="AH26">
+        <v>4</v>
+      </c>
+      <c r="AK26">
+        <f>COUNT(B26:AJ26)</f>
+        <v>8</v>
+      </c>
+      <c r="AL26" s="18">
+        <f>AVERAGE(B26:AJ26)</f>
+        <v>5</v>
+      </c>
+      <c r="AM26">
+        <f>IF(AK26&gt;1,_xlfn.STDEV.S(B26:AJ26),"")</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26">
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <v>7</v>
-      </c>
-      <c r="F26">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
         <v>5.5</v>
       </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26">
-        <v>7</v>
-      </c>
-      <c r="L26">
-        <v>7</v>
-      </c>
-      <c r="M26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26">
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27">
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27">
         <v>7.5</v>
       </c>
-      <c r="O26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>26</v>
-      </c>
-      <c r="R26" t="s">
-        <v>26</v>
-      </c>
-      <c r="S26">
-        <v>7</v>
-      </c>
-      <c r="T26" t="s">
-        <v>26</v>
-      </c>
-      <c r="U26" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" t="s">
-        <v>26</v>
-      </c>
-      <c r="W26" t="s">
-        <v>26</v>
-      </c>
-      <c r="X26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI26">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AJ26" s="18">
-        <f t="shared" si="1"/>
+      <c r="O27" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" t="s">
+        <v>26</v>
+      </c>
+      <c r="S27">
+        <v>7</v>
+      </c>
+      <c r="T27" t="s">
+        <v>26</v>
+      </c>
+      <c r="U27" t="s">
+        <v>26</v>
+      </c>
+      <c r="V27" t="s">
+        <v>26</v>
+      </c>
+      <c r="W27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK27">
+        <f>COUNT(B27:AJ27)</f>
+        <v>7</v>
+      </c>
+      <c r="AL27" s="18">
+        <f>AVERAGE(B27:AJ27)</f>
         <v>6.8571428571428568</v>
       </c>
-      <c r="AK26">
-        <f t="shared" si="2"/>
+      <c r="AM27">
+        <f>IF(AK27&gt;1,_xlfn.STDEV.S(B27:AJ27),"")</f>
         <v>0.62678317052800869</v>
       </c>
-      <c r="AL26">
+      <c r="AN27">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>5.5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" t="s">
-        <v>26</v>
-      </c>
-      <c r="O27" t="s">
-        <v>26</v>
-      </c>
-      <c r="P27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>26</v>
-      </c>
-      <c r="R27">
-        <v>4.5</v>
-      </c>
-      <c r="S27" t="s">
-        <v>26</v>
-      </c>
-      <c r="T27" t="s">
-        <v>26</v>
-      </c>
-      <c r="U27" t="s">
-        <v>26</v>
-      </c>
-      <c r="V27" t="s">
-        <v>26</v>
-      </c>
-      <c r="W27" t="s">
-        <v>26</v>
-      </c>
-      <c r="X27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y27">
-        <v>5.5</v>
-      </c>
-      <c r="Z27">
-        <v>5.5</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB27">
-        <v>5.5</v>
-      </c>
-      <c r="AC27">
-        <v>5.5</v>
-      </c>
-      <c r="AD27">
-        <v>4</v>
-      </c>
-      <c r="AI27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AJ27" s="18">
-        <f t="shared" si="1"/>
-        <v>5.1428571428571432</v>
-      </c>
-      <c r="AK27">
-        <f t="shared" si="2"/>
-        <v>0.62678317052800925</v>
-      </c>
-      <c r="AL27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -5207,240 +5297,255 @@
       <c r="AF28">
         <v>5</v>
       </c>
-      <c r="AI28">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AJ28" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
       <c r="AK28">
-        <f t="shared" si="2"/>
+        <f>COUNT(B28:AJ28)</f>
+        <v>7</v>
+      </c>
+      <c r="AL28" s="18">
+        <f>AVERAGE(B28:AJ28)</f>
+        <v>6</v>
+      </c>
+      <c r="AM28">
+        <f>IF(AK28&gt;1,_xlfn.STDEV.S(B28:AJ28),"")</f>
         <v>0.57735026918962573</v>
       </c>
-      <c r="AL28">
+      <c r="AN28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29">
+        <v>5.5</v>
+      </c>
+      <c r="G29">
+        <v>4.5</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29" t="s">
+        <v>26</v>
+      </c>
+      <c r="S29">
+        <v>6</v>
+      </c>
+      <c r="T29">
+        <v>6</v>
+      </c>
+      <c r="U29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V29" t="s">
+        <v>26</v>
+      </c>
+      <c r="W29" t="s">
+        <v>26</v>
+      </c>
+      <c r="X29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG29">
+        <v>6.5</v>
+      </c>
+      <c r="AK29">
+        <f>COUNT(B29:AJ29)</f>
+        <v>7</v>
+      </c>
+      <c r="AL29" s="18">
+        <f>AVERAGE(B29:AJ29)</f>
+        <v>5.7857142857142856</v>
+      </c>
+      <c r="AM29">
+        <f>IF(AK29&gt;1,_xlfn.STDEV.S(B29:AJ29),"")</f>
+        <v>0.63620901028035015</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" t="s">
+        <v>26</v>
+      </c>
+      <c r="S30" t="s">
+        <v>26</v>
+      </c>
+      <c r="T30" t="s">
+        <v>26</v>
+      </c>
+      <c r="U30" t="s">
+        <v>26</v>
+      </c>
+      <c r="V30" t="s">
+        <v>26</v>
+      </c>
+      <c r="W30" t="s">
+        <v>26</v>
+      </c>
+      <c r="X30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB30">
+        <v>4.5</v>
+      </c>
+      <c r="AC30">
+        <v>6</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE30">
+        <v>6.5</v>
+      </c>
+      <c r="AF30">
+        <v>6</v>
+      </c>
+      <c r="AG30">
+        <v>6.5</v>
+      </c>
+      <c r="AH30">
+        <v>5</v>
+      </c>
+      <c r="AK30">
+        <f>COUNT(B30:AJ30)</f>
+        <v>6</v>
+      </c>
+      <c r="AL30" s="18">
+        <f>AVERAGE(B30:AJ30)</f>
+        <v>5.75</v>
+      </c>
+      <c r="AM30">
+        <f>IF(AK30&gt;1,_xlfn.STDEV.S(B30:AJ30),"")</f>
+        <v>0.82158383625774922</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>48</v>
       </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29">
-        <v>7</v>
-      </c>
-      <c r="J29" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29">
-        <v>7</v>
-      </c>
-      <c r="L29">
-        <v>7.5</v>
-      </c>
-      <c r="M29" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" t="s">
-        <v>26</v>
-      </c>
-      <c r="O29" t="s">
-        <v>26</v>
-      </c>
-      <c r="P29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>26</v>
-      </c>
-      <c r="R29">
-        <v>7</v>
-      </c>
-      <c r="S29" t="s">
-        <v>26</v>
-      </c>
-      <c r="T29" t="s">
-        <v>26</v>
-      </c>
-      <c r="U29">
-        <v>7</v>
-      </c>
-      <c r="V29" t="s">
-        <v>26</v>
-      </c>
-      <c r="W29" t="s">
-        <v>26</v>
-      </c>
-      <c r="X29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD29">
-        <v>6</v>
-      </c>
-      <c r="AI29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AJ29" s="18">
-        <f t="shared" si="1"/>
-        <v>6.916666666666667</v>
-      </c>
-      <c r="AK29">
-        <f t="shared" si="2"/>
-        <v>0.49159604012508756</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30">
-        <v>5.5</v>
-      </c>
-      <c r="G30">
-        <v>4.5</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
-      </c>
-      <c r="I30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" t="s">
-        <v>26</v>
-      </c>
-      <c r="L30" t="s">
-        <v>26</v>
-      </c>
-      <c r="M30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" t="s">
-        <v>26</v>
-      </c>
-      <c r="O30" t="s">
-        <v>26</v>
-      </c>
-      <c r="P30" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q30">
-        <v>6</v>
-      </c>
-      <c r="R30" t="s">
-        <v>26</v>
-      </c>
-      <c r="S30">
-        <v>6</v>
-      </c>
-      <c r="T30">
-        <v>6</v>
-      </c>
-      <c r="U30" t="s">
-        <v>26</v>
-      </c>
-      <c r="V30" t="s">
-        <v>26</v>
-      </c>
-      <c r="W30" t="s">
-        <v>26</v>
-      </c>
-      <c r="X30" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI30">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AJ30" s="18">
-        <f t="shared" si="1"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="AK30">
-        <f t="shared" si="2"/>
-        <v>0.60553007081949839</v>
-      </c>
-      <c r="AL30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
@@ -5450,8 +5555,8 @@
       <c r="D31" t="s">
         <v>26</v>
       </c>
-      <c r="E31">
-        <v>7.5</v>
+      <c r="E31" t="s">
+        <v>26</v>
       </c>
       <c r="F31" t="s">
         <v>26</v>
@@ -5462,14 +5567,14 @@
       <c r="H31" t="s">
         <v>26</v>
       </c>
-      <c r="I31" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31">
-        <v>8.5</v>
-      </c>
-      <c r="K31" t="s">
-        <v>26</v>
+      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="J31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
       </c>
       <c r="L31">
         <v>7.5</v>
@@ -5477,8 +5582,8 @@
       <c r="M31" t="s">
         <v>26</v>
       </c>
-      <c r="N31">
-        <v>7</v>
+      <c r="N31" t="s">
+        <v>26</v>
       </c>
       <c r="O31" t="s">
         <v>26</v>
@@ -5489,8 +5594,8 @@
       <c r="Q31" t="s">
         <v>26</v>
       </c>
-      <c r="R31" t="s">
-        <v>26</v>
+      <c r="R31">
+        <v>7</v>
       </c>
       <c r="S31" t="s">
         <v>26</v>
@@ -5498,8 +5603,8 @@
       <c r="T31" t="s">
         <v>26</v>
       </c>
-      <c r="U31" t="s">
-        <v>26</v>
+      <c r="U31">
+        <v>7</v>
       </c>
       <c r="V31" t="s">
         <v>26</v>
@@ -5525,353 +5630,353 @@
       <c r="AC31" t="s">
         <v>26</v>
       </c>
-      <c r="AD31" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI31">
-        <f t="shared" si="0"/>
+      <c r="AD31">
+        <v>6</v>
+      </c>
+      <c r="AK31">
+        <f>COUNT(B31:AJ31)</f>
+        <v>6</v>
+      </c>
+      <c r="AL31" s="18">
+        <f>AVERAGE(B31:AJ31)</f>
+        <v>6.916666666666667</v>
+      </c>
+      <c r="AM31">
+        <f>IF(AK31&gt;1,_xlfn.STDEV.S(B31:AJ31),"")</f>
+        <v>0.49159604012508756</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" t="s">
+        <v>26</v>
+      </c>
+      <c r="S32" t="s">
+        <v>26</v>
+      </c>
+      <c r="T32" t="s">
+        <v>26</v>
+      </c>
+      <c r="U32" t="s">
+        <v>26</v>
+      </c>
+      <c r="V32" t="s">
+        <v>26</v>
+      </c>
+      <c r="W32" t="s">
+        <v>26</v>
+      </c>
+      <c r="X32">
+        <v>6</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z32">
+        <v>5.5</v>
+      </c>
+      <c r="AA32">
         <v>4</v>
       </c>
-      <c r="AJ31" s="18">
-        <f t="shared" si="1"/>
+      <c r="AB32">
+        <v>3</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG32">
+        <v>6</v>
+      </c>
+      <c r="AH32">
+        <v>5</v>
+      </c>
+      <c r="AK32">
+        <f>COUNT(B32:AJ32)</f>
+        <v>6</v>
+      </c>
+      <c r="AL32" s="18">
+        <f>AVERAGE(B32:AJ32)</f>
+        <v>4.916666666666667</v>
+      </c>
+      <c r="AM32">
+        <f>IF(AK32&gt;1,_xlfn.STDEV.S(B32:AJ32),"")</f>
+        <v>1.2006942436218593</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33">
+        <v>7.5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33">
+        <v>8.5</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33">
+        <v>7.5</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <v>7</v>
+      </c>
+      <c r="O33" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" t="s">
+        <v>26</v>
+      </c>
+      <c r="S33" t="s">
+        <v>26</v>
+      </c>
+      <c r="T33" t="s">
+        <v>26</v>
+      </c>
+      <c r="U33" t="s">
+        <v>26</v>
+      </c>
+      <c r="V33" t="s">
+        <v>26</v>
+      </c>
+      <c r="W33" t="s">
+        <v>26</v>
+      </c>
+      <c r="X33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK33">
+        <f>COUNT(B33:AJ33)</f>
+        <v>4</v>
+      </c>
+      <c r="AL33" s="18">
+        <f>AVERAGE(B33:AJ33)</f>
         <v>7.625</v>
       </c>
-      <c r="AK31">
-        <f t="shared" si="2"/>
+      <c r="AM33">
+        <f>IF(AK33&gt;1,_xlfn.STDEV.S(B33:AJ33),"")</f>
         <v>0.62915286960589578</v>
       </c>
-      <c r="AL31">
+      <c r="AN33">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K32" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32" t="s">
-        <v>26</v>
-      </c>
-      <c r="M32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N32" t="s">
-        <v>26</v>
-      </c>
-      <c r="O32" t="s">
-        <v>26</v>
-      </c>
-      <c r="P32" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>26</v>
-      </c>
-      <c r="R32">
-        <v>7</v>
-      </c>
-      <c r="S32">
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34">
+        <v>7</v>
+      </c>
+      <c r="S34">
         <v>5.5</v>
       </c>
-      <c r="T32">
+      <c r="T34">
         <v>5.5</v>
       </c>
-      <c r="U32" t="s">
-        <v>26</v>
-      </c>
-      <c r="V32" t="s">
-        <v>26</v>
-      </c>
-      <c r="W32">
-        <v>6</v>
-      </c>
-      <c r="X32" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI32">
-        <f t="shared" si="0"/>
+      <c r="U34" t="s">
+        <v>26</v>
+      </c>
+      <c r="V34" t="s">
+        <v>26</v>
+      </c>
+      <c r="W34">
+        <v>6</v>
+      </c>
+      <c r="X34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK34">
+        <f>COUNT(B34:AJ34)</f>
         <v>4</v>
       </c>
-      <c r="AJ32" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AK32">
-        <f t="shared" si="2"/>
+      <c r="AL34" s="18">
+        <f>AVERAGE(B34:AJ34)</f>
+        <v>6</v>
+      </c>
+      <c r="AM34">
+        <f>IF(AK34&gt;1,_xlfn.STDEV.S(B34:AJ34),"")</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AL32">
+      <c r="AN34">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33" t="s">
-        <v>26</v>
-      </c>
-      <c r="K33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L33" t="s">
-        <v>26</v>
-      </c>
-      <c r="M33" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" t="s">
-        <v>26</v>
-      </c>
-      <c r="O33" t="s">
-        <v>26</v>
-      </c>
-      <c r="P33" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>26</v>
-      </c>
-      <c r="R33" t="s">
-        <v>26</v>
-      </c>
-      <c r="S33" t="s">
-        <v>26</v>
-      </c>
-      <c r="T33" t="s">
-        <v>26</v>
-      </c>
-      <c r="U33" t="s">
-        <v>26</v>
-      </c>
-      <c r="V33" t="s">
-        <v>26</v>
-      </c>
-      <c r="W33" t="s">
-        <v>26</v>
-      </c>
-      <c r="X33">
-        <v>6</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z33">
-        <v>5.5</v>
-      </c>
-      <c r="AA33">
-        <v>4</v>
-      </c>
-      <c r="AB33">
-        <v>3</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI33">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AJ33" s="18">
-        <f t="shared" si="1"/>
-        <v>4.625</v>
-      </c>
-      <c r="AK33">
-        <f t="shared" si="2"/>
-        <v>1.3768926368215255</v>
-      </c>
-      <c r="AL33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" t="s">
-        <v>26</v>
-      </c>
-      <c r="J34" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" t="s">
-        <v>26</v>
-      </c>
-      <c r="M34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" t="s">
-        <v>26</v>
-      </c>
-      <c r="O34" t="s">
-        <v>26</v>
-      </c>
-      <c r="P34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>26</v>
-      </c>
-      <c r="R34" t="s">
-        <v>26</v>
-      </c>
-      <c r="S34" t="s">
-        <v>26</v>
-      </c>
-      <c r="T34" t="s">
-        <v>26</v>
-      </c>
-      <c r="U34" t="s">
-        <v>26</v>
-      </c>
-      <c r="V34" t="s">
-        <v>26</v>
-      </c>
-      <c r="W34" t="s">
-        <v>26</v>
-      </c>
-      <c r="X34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB34">
-        <v>4.5</v>
-      </c>
-      <c r="AC34">
-        <v>6</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE34">
-        <v>6.5</v>
-      </c>
-      <c r="AF34">
-        <v>6</v>
-      </c>
-      <c r="AI34">
-        <f t="shared" ref="AI34:AI65" si="3">COUNT(B34:AH34)</f>
-        <v>4</v>
-      </c>
-      <c r="AJ34" s="18">
-        <f t="shared" ref="AJ34:AJ53" si="4">AVERAGE(B34:AH34)</f>
-        <v>5.75</v>
-      </c>
-      <c r="AK34">
-        <f t="shared" ref="AK34:AK53" si="5">IF(AI34&gt;1,_xlfn.STDEV.S(B34:AH34),"")</f>
-        <v>0.8660254037844386</v>
-      </c>
-      <c r="AL34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -5962,23 +6067,23 @@
       <c r="AD35" t="s">
         <v>26</v>
       </c>
-      <c r="AI35">
-        <f t="shared" si="3"/>
+      <c r="AK35">
+        <f>COUNT(B35:AJ35)</f>
         <v>3</v>
       </c>
-      <c r="AJ35" s="18">
-        <f t="shared" si="4"/>
+      <c r="AL35" s="18">
+        <f>AVERAGE(B35:AJ35)</f>
         <v>6.833333333333333</v>
       </c>
-      <c r="AK35">
-        <f t="shared" si="5"/>
+      <c r="AM35">
+        <f>IF(AK35&gt;1,_xlfn.STDEV.S(B35:AJ35),"")</f>
         <v>0.76376261582597338</v>
       </c>
-      <c r="AL35">
+      <c r="AN35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -6069,23 +6174,23 @@
       <c r="AD36" t="s">
         <v>26</v>
       </c>
-      <c r="AI36">
-        <f t="shared" si="3"/>
+      <c r="AK36">
+        <f>COUNT(B36:AJ36)</f>
         <v>3</v>
       </c>
-      <c r="AJ36" s="18">
-        <f t="shared" si="4"/>
+      <c r="AL36" s="18">
+        <f>AVERAGE(B36:AJ36)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="AK36">
-        <f t="shared" si="5"/>
+      <c r="AM36">
+        <f>IF(AK36&gt;1,_xlfn.STDEV.S(B36:AJ36),"")</f>
         <v>1.1547005383792526</v>
       </c>
-      <c r="AL36">
+      <c r="AN36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -6176,23 +6281,23 @@
       <c r="AD37" t="s">
         <v>26</v>
       </c>
-      <c r="AI37">
-        <f t="shared" si="3"/>
+      <c r="AK37">
+        <f>COUNT(B37:AJ37)</f>
         <v>3</v>
       </c>
-      <c r="AJ37" s="18">
-        <f t="shared" si="4"/>
+      <c r="AL37" s="18">
+        <f>AVERAGE(B37:AJ37)</f>
         <v>4.833333333333333</v>
       </c>
-      <c r="AK37">
-        <f t="shared" si="5"/>
+      <c r="AM37">
+        <f>IF(AK37&gt;1,_xlfn.STDEV.S(B37:AJ37),"")</f>
         <v>0.57735026918962584</v>
       </c>
-      <c r="AL37">
+      <c r="AN37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -6283,23 +6388,23 @@
       <c r="AD38" t="s">
         <v>26</v>
       </c>
-      <c r="AI38">
-        <f t="shared" si="3"/>
+      <c r="AK38">
+        <f>COUNT(B38:AJ38)</f>
         <v>3</v>
       </c>
-      <c r="AJ38" s="18">
-        <f t="shared" si="4"/>
+      <c r="AL38" s="18">
+        <f>AVERAGE(B38:AJ38)</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="AK38">
-        <f t="shared" si="5"/>
+      <c r="AM38">
+        <f>IF(AK38&gt;1,_xlfn.STDEV.S(B38:AJ38),"")</f>
         <v>0.28867513459481287</v>
       </c>
-      <c r="AL38">
+      <c r="AN38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -6393,23 +6498,23 @@
       <c r="AE39">
         <v>1.5</v>
       </c>
-      <c r="AI39">
-        <f t="shared" si="3"/>
+      <c r="AK39">
+        <f>COUNT(B39:AJ39)</f>
         <v>3</v>
       </c>
-      <c r="AJ39" s="18">
-        <f t="shared" si="4"/>
+      <c r="AL39" s="18">
+        <f>AVERAGE(B39:AJ39)</f>
         <v>1.8333333333333333</v>
       </c>
-      <c r="AK39">
-        <f t="shared" si="5"/>
+      <c r="AM39">
+        <f>IF(AK39&gt;1,_xlfn.STDEV.S(B39:AJ39),"")</f>
         <v>1.0408329997330663</v>
       </c>
-      <c r="AL39">
+      <c r="AN39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -6506,237 +6611,240 @@
       <c r="AF40">
         <v>9</v>
       </c>
-      <c r="AI40">
-        <f t="shared" si="3"/>
+      <c r="AK40">
+        <f>COUNT(B40:AJ40)</f>
         <v>3</v>
       </c>
-      <c r="AJ40" s="18">
-        <f t="shared" si="4"/>
+      <c r="AL40" s="18">
+        <f>AVERAGE(B40:AJ40)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="AK40">
-        <f t="shared" si="5"/>
+      <c r="AM40">
+        <f>IF(AK40&gt;1,_xlfn.STDEV.S(B40:AJ40),"")</f>
         <v>1.1547005383792495</v>
       </c>
-      <c r="AL40">
+      <c r="AN40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41">
+        <v>5.5</v>
+      </c>
+      <c r="J41" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41" t="s">
+        <v>26</v>
+      </c>
+      <c r="P41" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>26</v>
+      </c>
+      <c r="R41" t="s">
+        <v>26</v>
+      </c>
+      <c r="S41" t="s">
+        <v>26</v>
+      </c>
+      <c r="T41" t="s">
+        <v>26</v>
+      </c>
+      <c r="U41" t="s">
+        <v>26</v>
+      </c>
+      <c r="V41" t="s">
+        <v>26</v>
+      </c>
+      <c r="W41" t="s">
+        <v>26</v>
+      </c>
+      <c r="X41" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z41">
+        <v>5.5</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG41">
+        <v>2.5</v>
+      </c>
+      <c r="AK41">
+        <f>COUNT(B41:AJ41)</f>
+        <v>3</v>
+      </c>
+      <c r="AL41" s="18">
+        <f>AVERAGE(B41:AJ41)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AM41">
+        <f>IF(AK41&gt;1,_xlfn.STDEV.S(B41:AJ41),"")</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>81</v>
       </c>
-      <c r="B41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" t="s">
-        <v>26</v>
-      </c>
-      <c r="K41" t="s">
-        <v>26</v>
-      </c>
-      <c r="L41" t="s">
-        <v>26</v>
-      </c>
-      <c r="M41" t="s">
-        <v>26</v>
-      </c>
-      <c r="N41" t="s">
-        <v>26</v>
-      </c>
-      <c r="O41" t="s">
-        <v>26</v>
-      </c>
-      <c r="P41" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>26</v>
-      </c>
-      <c r="R41" t="s">
-        <v>26</v>
-      </c>
-      <c r="S41" t="s">
-        <v>26</v>
-      </c>
-      <c r="T41" t="s">
-        <v>26</v>
-      </c>
-      <c r="U41" t="s">
-        <v>26</v>
-      </c>
-      <c r="V41" t="s">
-        <v>26</v>
-      </c>
-      <c r="W41" t="s">
-        <v>26</v>
-      </c>
-      <c r="X41" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z41">
-        <v>7</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD41">
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" t="s">
+        <v>26</v>
+      </c>
+      <c r="O42" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>26</v>
+      </c>
+      <c r="R42" t="s">
+        <v>26</v>
+      </c>
+      <c r="S42" t="s">
+        <v>26</v>
+      </c>
+      <c r="T42" t="s">
+        <v>26</v>
+      </c>
+      <c r="U42" t="s">
+        <v>26</v>
+      </c>
+      <c r="V42" t="s">
+        <v>26</v>
+      </c>
+      <c r="W42" t="s">
+        <v>26</v>
+      </c>
+      <c r="X42" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z42">
+        <v>7</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD42">
         <v>7.5</v>
       </c>
-      <c r="AI41">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AJ41" s="18">
-        <f t="shared" si="4"/>
+      <c r="AK42">
+        <f>COUNT(B42:AJ42)</f>
+        <v>2</v>
+      </c>
+      <c r="AL42" s="18">
+        <f>AVERAGE(B42:AJ42)</f>
         <v>7.25</v>
       </c>
-      <c r="AK41">
-        <f t="shared" si="5"/>
+      <c r="AM42">
+        <f>IF(AK42&gt;1,_xlfn.STDEV.S(B42:AJ42),"")</f>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AL41">
+      <c r="AN42">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42">
-        <v>5.5</v>
-      </c>
-      <c r="J42" t="s">
-        <v>26</v>
-      </c>
-      <c r="K42" t="s">
-        <v>26</v>
-      </c>
-      <c r="L42" t="s">
-        <v>26</v>
-      </c>
-      <c r="M42" t="s">
-        <v>26</v>
-      </c>
-      <c r="N42" t="s">
-        <v>26</v>
-      </c>
-      <c r="O42" t="s">
-        <v>26</v>
-      </c>
-      <c r="P42" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>26</v>
-      </c>
-      <c r="R42" t="s">
-        <v>26</v>
-      </c>
-      <c r="S42" t="s">
-        <v>26</v>
-      </c>
-      <c r="T42" t="s">
-        <v>26</v>
-      </c>
-      <c r="U42" t="s">
-        <v>26</v>
-      </c>
-      <c r="V42" t="s">
-        <v>26</v>
-      </c>
-      <c r="W42" t="s">
-        <v>26</v>
-      </c>
-      <c r="X42" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z42">
-        <v>5.5</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI42">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AJ42" s="18">
-        <f t="shared" si="4"/>
-        <v>5.5</v>
-      </c>
-      <c r="AK42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AL42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -6827,23 +6935,23 @@
       <c r="AD43" t="s">
         <v>26</v>
       </c>
-      <c r="AI43">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AJ43" s="18">
-        <f t="shared" si="4"/>
+      <c r="AK43">
+        <f>COUNT(B43:AJ43)</f>
+        <v>2</v>
+      </c>
+      <c r="AL43" s="18">
+        <f>AVERAGE(B43:AJ43)</f>
         <v>3.5</v>
       </c>
-      <c r="AK43">
-        <f t="shared" si="5"/>
+      <c r="AM43">
+        <f>IF(AK43&gt;1,_xlfn.STDEV.S(B43:AJ43),"")</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="AL43">
+      <c r="AN43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -6934,665 +7042,668 @@
       <c r="AD44" t="s">
         <v>26</v>
       </c>
-      <c r="AI44">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AJ44" s="18">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
       <c r="AK44">
-        <f t="shared" si="5"/>
+        <f>COUNT(B44:AJ44)</f>
+        <v>2</v>
+      </c>
+      <c r="AL44" s="18">
+        <f>AVERAGE(B44:AJ44)</f>
+        <v>2</v>
+      </c>
+      <c r="AM44">
+        <f>IF(AK44&gt;1,_xlfn.STDEV.S(B44:AJ44),"")</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AL44">
+      <c r="AN44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45">
+        <v>5.5</v>
+      </c>
+      <c r="M45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O45" t="s">
+        <v>26</v>
+      </c>
+      <c r="P45" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>26</v>
+      </c>
+      <c r="R45" t="s">
+        <v>26</v>
+      </c>
+      <c r="S45" t="s">
+        <v>26</v>
+      </c>
+      <c r="T45" t="s">
+        <v>26</v>
+      </c>
+      <c r="U45" t="s">
+        <v>26</v>
+      </c>
+      <c r="V45" t="s">
+        <v>26</v>
+      </c>
+      <c r="W45" t="s">
+        <v>26</v>
+      </c>
+      <c r="X45" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG45">
+        <v>5</v>
+      </c>
+      <c r="AK45">
+        <f>COUNT(B45:AJ45)</f>
+        <v>2</v>
+      </c>
+      <c r="AL45" s="18">
+        <f>AVERAGE(B45:AJ45)</f>
+        <v>5.25</v>
+      </c>
+      <c r="AM45">
+        <f>IF(AK45&gt;1,_xlfn.STDEV.S(B45:AJ45),"")</f>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>86</v>
       </c>
-      <c r="B45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" t="s">
-        <v>26</v>
-      </c>
-      <c r="K45" t="s">
-        <v>26</v>
-      </c>
-      <c r="L45" t="s">
-        <v>26</v>
-      </c>
-      <c r="M45" t="s">
-        <v>26</v>
-      </c>
-      <c r="N45" t="s">
-        <v>26</v>
-      </c>
-      <c r="O45" t="s">
-        <v>26</v>
-      </c>
-      <c r="P45" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>26</v>
-      </c>
-      <c r="R45" t="s">
-        <v>26</v>
-      </c>
-      <c r="S45" t="s">
-        <v>26</v>
-      </c>
-      <c r="T45" t="s">
-        <v>26</v>
-      </c>
-      <c r="U45" t="s">
-        <v>26</v>
-      </c>
-      <c r="V45" t="s">
-        <v>26</v>
-      </c>
-      <c r="W45" t="s">
-        <v>26</v>
-      </c>
-      <c r="X45" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD45">
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" t="s">
+        <v>26</v>
+      </c>
+      <c r="O46" t="s">
+        <v>26</v>
+      </c>
+      <c r="P46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>26</v>
+      </c>
+      <c r="R46" t="s">
+        <v>26</v>
+      </c>
+      <c r="S46" t="s">
+        <v>26</v>
+      </c>
+      <c r="T46" t="s">
+        <v>26</v>
+      </c>
+      <c r="U46" t="s">
+        <v>26</v>
+      </c>
+      <c r="V46" t="s">
+        <v>26</v>
+      </c>
+      <c r="W46" t="s">
+        <v>26</v>
+      </c>
+      <c r="X46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD46">
         <v>9</v>
       </c>
-      <c r="AI45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AJ45" s="18">
-        <f t="shared" si="4"/>
+      <c r="AK46">
+        <f>COUNT(B46:AJ46)</f>
+        <v>1</v>
+      </c>
+      <c r="AL46" s="18">
+        <f>AVERAGE(B46:AJ46)</f>
         <v>9</v>
       </c>
-      <c r="AK45" t="str">
-        <f t="shared" si="5"/>
+      <c r="AM46" t="str">
+        <f>IF(AK46&gt;1,_xlfn.STDEV.S(B46:AJ46),"")</f>
         <v/>
       </c>
-      <c r="AL45">
+      <c r="AN46">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>77</v>
       </c>
-      <c r="B46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" t="s">
-        <v>26</v>
-      </c>
-      <c r="K46" t="s">
-        <v>26</v>
-      </c>
-      <c r="L46" t="s">
-        <v>26</v>
-      </c>
-      <c r="M46" t="s">
-        <v>26</v>
-      </c>
-      <c r="N46" t="s">
-        <v>26</v>
-      </c>
-      <c r="O46" t="s">
-        <v>26</v>
-      </c>
-      <c r="P46" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>26</v>
-      </c>
-      <c r="R46" t="s">
-        <v>26</v>
-      </c>
-      <c r="S46" t="s">
-        <v>26</v>
-      </c>
-      <c r="T46" t="s">
-        <v>26</v>
-      </c>
-      <c r="U46" t="s">
-        <v>26</v>
-      </c>
-      <c r="V46" t="s">
-        <v>26</v>
-      </c>
-      <c r="W46" t="s">
-        <v>26</v>
-      </c>
-      <c r="X46" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z46">
-        <v>7</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI46">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AJ46" s="18">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="AK46" t="str">
-        <f t="shared" si="5"/>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" t="s">
+        <v>26</v>
+      </c>
+      <c r="O47" t="s">
+        <v>26</v>
+      </c>
+      <c r="P47" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>26</v>
+      </c>
+      <c r="R47" t="s">
+        <v>26</v>
+      </c>
+      <c r="S47" t="s">
+        <v>26</v>
+      </c>
+      <c r="T47" t="s">
+        <v>26</v>
+      </c>
+      <c r="U47" t="s">
+        <v>26</v>
+      </c>
+      <c r="V47" t="s">
+        <v>26</v>
+      </c>
+      <c r="W47" t="s">
+        <v>26</v>
+      </c>
+      <c r="X47" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z47">
+        <v>7</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK47">
+        <f>COUNT(B47:AJ47)</f>
+        <v>1</v>
+      </c>
+      <c r="AL47" s="18">
+        <f>AVERAGE(B47:AJ47)</f>
+        <v>7</v>
+      </c>
+      <c r="AM47" t="str">
+        <f>IF(AK47&gt;1,_xlfn.STDEV.S(B47:AJ47),"")</f>
         <v/>
       </c>
-      <c r="AL46">
+      <c r="AN47">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>79</v>
       </c>
-      <c r="B47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" t="s">
-        <v>26</v>
-      </c>
-      <c r="J47" t="s">
-        <v>26</v>
-      </c>
-      <c r="K47" t="s">
-        <v>26</v>
-      </c>
-      <c r="L47" t="s">
-        <v>26</v>
-      </c>
-      <c r="M47" t="s">
-        <v>26</v>
-      </c>
-      <c r="N47" t="s">
-        <v>26</v>
-      </c>
-      <c r="O47" t="s">
-        <v>26</v>
-      </c>
-      <c r="P47" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>26</v>
-      </c>
-      <c r="R47" t="s">
-        <v>26</v>
-      </c>
-      <c r="S47" t="s">
-        <v>26</v>
-      </c>
-      <c r="T47" t="s">
-        <v>26</v>
-      </c>
-      <c r="U47" t="s">
-        <v>26</v>
-      </c>
-      <c r="V47" t="s">
-        <v>26</v>
-      </c>
-      <c r="W47" t="s">
-        <v>26</v>
-      </c>
-      <c r="X47" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z47">
-        <v>7</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI47">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AJ47" s="18">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="AK47" t="str">
-        <f t="shared" si="5"/>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" t="s">
+        <v>26</v>
+      </c>
+      <c r="O48" t="s">
+        <v>26</v>
+      </c>
+      <c r="P48" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>26</v>
+      </c>
+      <c r="R48" t="s">
+        <v>26</v>
+      </c>
+      <c r="S48" t="s">
+        <v>26</v>
+      </c>
+      <c r="T48" t="s">
+        <v>26</v>
+      </c>
+      <c r="U48" t="s">
+        <v>26</v>
+      </c>
+      <c r="V48" t="s">
+        <v>26</v>
+      </c>
+      <c r="W48" t="s">
+        <v>26</v>
+      </c>
+      <c r="X48" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z48">
+        <v>7</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK48">
+        <f>COUNT(B48:AJ48)</f>
+        <v>1</v>
+      </c>
+      <c r="AL48" s="18">
+        <f>AVERAGE(B48:AJ48)</f>
+        <v>7</v>
+      </c>
+      <c r="AM48" t="str">
+        <f>IF(AK48&gt;1,_xlfn.STDEV.S(B48:AJ48),"")</f>
         <v/>
       </c>
-      <c r="AL47">
+      <c r="AN48">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>80</v>
       </c>
-      <c r="B48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" t="s">
-        <v>26</v>
-      </c>
-      <c r="J48" t="s">
-        <v>26</v>
-      </c>
-      <c r="K48" t="s">
-        <v>26</v>
-      </c>
-      <c r="L48" t="s">
-        <v>26</v>
-      </c>
-      <c r="M48" t="s">
-        <v>26</v>
-      </c>
-      <c r="N48" t="s">
-        <v>26</v>
-      </c>
-      <c r="O48" t="s">
-        <v>26</v>
-      </c>
-      <c r="P48" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>26</v>
-      </c>
-      <c r="R48" t="s">
-        <v>26</v>
-      </c>
-      <c r="S48" t="s">
-        <v>26</v>
-      </c>
-      <c r="T48" t="s">
-        <v>26</v>
-      </c>
-      <c r="U48" t="s">
-        <v>26</v>
-      </c>
-      <c r="V48" t="s">
-        <v>26</v>
-      </c>
-      <c r="W48" t="s">
-        <v>26</v>
-      </c>
-      <c r="X48" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y48">
-        <v>7</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI48">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AJ48" s="18">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="AK48" t="str">
-        <f t="shared" si="5"/>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" t="s">
+        <v>26</v>
+      </c>
+      <c r="O49" t="s">
+        <v>26</v>
+      </c>
+      <c r="P49" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>26</v>
+      </c>
+      <c r="R49" t="s">
+        <v>26</v>
+      </c>
+      <c r="S49" t="s">
+        <v>26</v>
+      </c>
+      <c r="T49" t="s">
+        <v>26</v>
+      </c>
+      <c r="U49" t="s">
+        <v>26</v>
+      </c>
+      <c r="V49" t="s">
+        <v>26</v>
+      </c>
+      <c r="W49" t="s">
+        <v>26</v>
+      </c>
+      <c r="X49" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y49">
+        <v>7</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK49">
+        <f>COUNT(B49:AJ49)</f>
+        <v>1</v>
+      </c>
+      <c r="AL49" s="18">
+        <f>AVERAGE(B49:AJ49)</f>
+        <v>7</v>
+      </c>
+      <c r="AM49" t="str">
+        <f>IF(AK49&gt;1,_xlfn.STDEV.S(B49:AJ49),"")</f>
         <v/>
       </c>
-      <c r="AL48">
+      <c r="AN49">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="B49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" t="s">
-        <v>26</v>
-      </c>
-      <c r="J49">
-        <v>6</v>
-      </c>
-      <c r="K49" t="s">
-        <v>26</v>
-      </c>
-      <c r="L49" t="s">
-        <v>26</v>
-      </c>
-      <c r="M49" t="s">
-        <v>26</v>
-      </c>
-      <c r="N49" t="s">
-        <v>26</v>
-      </c>
-      <c r="O49" t="s">
-        <v>26</v>
-      </c>
-      <c r="P49" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>26</v>
-      </c>
-      <c r="R49" t="s">
-        <v>26</v>
-      </c>
-      <c r="S49" t="s">
-        <v>26</v>
-      </c>
-      <c r="T49" t="s">
-        <v>26</v>
-      </c>
-      <c r="U49" t="s">
-        <v>26</v>
-      </c>
-      <c r="V49" t="s">
-        <v>26</v>
-      </c>
-      <c r="W49" t="s">
-        <v>26</v>
-      </c>
-      <c r="X49" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI49">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AJ49" s="18">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="AK49" t="str">
-        <f t="shared" si="5"/>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
+      </c>
+      <c r="K50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" t="s">
+        <v>26</v>
+      </c>
+      <c r="O50" t="s">
+        <v>26</v>
+      </c>
+      <c r="P50" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>26</v>
+      </c>
+      <c r="R50" t="s">
+        <v>26</v>
+      </c>
+      <c r="S50" t="s">
+        <v>26</v>
+      </c>
+      <c r="T50" t="s">
+        <v>26</v>
+      </c>
+      <c r="U50" t="s">
+        <v>26</v>
+      </c>
+      <c r="V50" t="s">
+        <v>26</v>
+      </c>
+      <c r="W50" t="s">
+        <v>26</v>
+      </c>
+      <c r="X50" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK50">
+        <f>COUNT(B50:AJ50)</f>
+        <v>1</v>
+      </c>
+      <c r="AL50" s="18">
+        <f>AVERAGE(B50:AJ50)</f>
+        <v>6</v>
+      </c>
+      <c r="AM50" t="str">
+        <f>IF(AK50&gt;1,_xlfn.STDEV.S(B50:AJ50),"")</f>
         <v/>
       </c>
-      <c r="AL49">
+      <c r="AN50">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" t="s">
-        <v>26</v>
-      </c>
-      <c r="K50" t="s">
-        <v>26</v>
-      </c>
-      <c r="L50">
-        <v>5.5</v>
-      </c>
-      <c r="M50" t="s">
-        <v>26</v>
-      </c>
-      <c r="N50" t="s">
-        <v>26</v>
-      </c>
-      <c r="O50" t="s">
-        <v>26</v>
-      </c>
-      <c r="P50" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>26</v>
-      </c>
-      <c r="R50" t="s">
-        <v>26</v>
-      </c>
-      <c r="S50" t="s">
-        <v>26</v>
-      </c>
-      <c r="T50" t="s">
-        <v>26</v>
-      </c>
-      <c r="U50" t="s">
-        <v>26</v>
-      </c>
-      <c r="V50" t="s">
-        <v>26</v>
-      </c>
-      <c r="W50" t="s">
-        <v>26</v>
-      </c>
-      <c r="X50" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI50">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AJ50" s="18">
-        <f t="shared" si="4"/>
-        <v>5.5</v>
-      </c>
-      <c r="AK50" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AL50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -7683,23 +7794,23 @@
       <c r="AD51" t="s">
         <v>26</v>
       </c>
-      <c r="AI51">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AJ51" s="18">
-        <f t="shared" si="4"/>
+      <c r="AK51">
+        <f>COUNT(B51:AJ51)</f>
+        <v>1</v>
+      </c>
+      <c r="AL51" s="18">
+        <f>AVERAGE(B51:AJ51)</f>
         <v>4.5</v>
       </c>
-      <c r="AK51" t="str">
-        <f t="shared" si="5"/>
+      <c r="AM51" t="str">
+        <f>IF(AK51&gt;1,_xlfn.STDEV.S(B51:AJ51),"")</f>
         <v/>
       </c>
-      <c r="AL51">
+      <c r="AN51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -7790,23 +7901,23 @@
       <c r="AD52" t="s">
         <v>26</v>
       </c>
-      <c r="AI52">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AJ52" s="18">
-        <f t="shared" si="4"/>
+      <c r="AK52">
+        <f>COUNT(B52:AJ52)</f>
+        <v>1</v>
+      </c>
+      <c r="AL52" s="18">
+        <f>AVERAGE(B52:AJ52)</f>
         <v>4.5</v>
       </c>
-      <c r="AK52" t="str">
-        <f t="shared" si="5"/>
+      <c r="AM52" t="str">
+        <f>IF(AK52&gt;1,_xlfn.STDEV.S(B52:AJ52),"")</f>
         <v/>
       </c>
-      <c r="AL52">
+      <c r="AN52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -7897,42 +8008,30 @@
       <c r="AD53" t="s">
         <v>26</v>
       </c>
-      <c r="AI53">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AJ53" s="18">
-        <f t="shared" si="4"/>
+      <c r="AK53">
+        <f>COUNT(B53:AJ53)</f>
+        <v>1</v>
+      </c>
+      <c r="AL53" s="18">
+        <f>AVERAGE(B53:AJ53)</f>
         <v>4</v>
       </c>
-      <c r="AK53" t="str">
-        <f t="shared" si="5"/>
+      <c r="AM53" t="str">
+        <f>IF(AK53&gt;1,_xlfn.STDEV.S(B53:AJ53),"")</f>
         <v/>
       </c>
-      <c r="AL53">
+      <c r="AN53">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL54" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
-    <sortState ref="A2:AL53">
-      <sortCondition descending="1" ref="AI1:AI54"/>
+  <autoFilter ref="A1:AN54" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
+    <sortState ref="A2:AN53">
+      <sortCondition descending="1" ref="AK1:AK54"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="AA2:AG38">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI39">
-    <cfRule type="colorScale" priority="45">
+  <conditionalFormatting sqref="AA2:AI38">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7944,7 +8043,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2:AK39">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM2:AM39">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7955,8 +8066,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI40:AI42">
-    <cfRule type="colorScale" priority="42">
+  <conditionalFormatting sqref="AK40:AK42">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7967,8 +8078,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK40:AK42">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="AM40:AM42">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7979,7 +8090,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AG47">
+  <conditionalFormatting sqref="AA2:AI47">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK2:AK42">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -7991,7 +8114,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI42">
+  <conditionalFormatting sqref="AL2:AL39">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -8003,7 +8126,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ39">
+  <conditionalFormatting sqref="AL40:AL42">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -8015,7 +8138,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ40:AJ42">
+  <conditionalFormatting sqref="AL2:AL42">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -8027,8 +8150,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ42">
-    <cfRule type="colorScale" priority="35">
+  <conditionalFormatting sqref="AA2:AI42">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8039,8 +8162,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AG42">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="AK45 AK43 AK47">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8051,8 +8174,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI43 AI45 AI47">
+  <conditionalFormatting sqref="AM45 AM43 AM47">
     <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK45">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8063,19 +8198,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK43 AK45 AK47">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI45">
+  <conditionalFormatting sqref="AL45 AL43 AL47">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -8087,7 +8210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ43 AJ45 AJ47">
+  <conditionalFormatting sqref="AL45">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -8099,7 +8222,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ45">
+  <conditionalFormatting sqref="AK46 AK44 AK48:AK53">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -8111,8 +8234,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI44 AI46 AI48:AI53">
+  <conditionalFormatting sqref="AM46 AM44 AM48:AM53">
     <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK46">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8123,19 +8258,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK44 AK46 AK48:AK53">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI46">
+  <conditionalFormatting sqref="AL46 AL44 AL48:AL53">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -8147,7 +8270,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ44 AJ46 AJ48:AJ53">
+  <conditionalFormatting sqref="AL46">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -8159,20 +8282,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ46">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AF44">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="AA2:AH44">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8184,6 +8295,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Q39">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:Z38 W2 W7 W11:W12 W15:W21 W31 B2:V38">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:Z47 X2:Z43 W2 W7 W11:W12 W15:W21 W31 W40 B2:V43 Z49">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:AH49 AB51:AH51 AD53:AH53">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8195,31 +8342,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Z38 W2 W7 W11:W12 W15:W21 W31 B2:V38">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:Z47 X2:Z43 W2 W7 W11:W12 W15:W21 W31 W40 B2:V43 Z49">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AF49 AB51:AF51 AD53:AF53">
+  <conditionalFormatting sqref="AK2:AK53">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -8231,7 +8354,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI53">
+  <conditionalFormatting sqref="AL2:AL53">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8243,7 +8366,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ53">
+  <conditionalFormatting sqref="B2:AH53">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9323,10 +9446,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A044468-5FF9-485E-BCBE-2F73FE35F0BA}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9334,12 +9457,12 @@
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="8" width="15.88671875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.88671875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>69</v>
       </c>
@@ -9361,11 +9484,14 @@
       <c r="H1" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="J1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9391,8 +9517,11 @@
       <c r="H2" s="19">
         <v>84.73</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I2" s="19">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9418,10 +9547,13 @@
       <c r="H3" s="19">
         <v>84.73</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I3" s="21">
+        <v>77.78</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9443,8 +9575,11 @@
         <v>25</v>
       </c>
       <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I4" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9470,10 +9605,13 @@
       <c r="H5" s="19">
         <v>84.73</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="I5" s="21">
+        <v>77.78</v>
+      </c>
       <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9497,9 +9635,12 @@
         <v>77.78</v>
       </c>
       <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I6" s="21">
+        <v>50</v>
+      </c>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9523,8 +9664,11 @@
         <v>77.78</v>
       </c>
       <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I7" s="21">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9544,8 +9688,9 @@
       <c r="H8" s="19">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9571,8 +9716,11 @@
       <c r="H9" s="19">
         <v>84.73</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I9" s="21">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9598,8 +9746,11 @@
       <c r="H10" s="19">
         <v>84.73</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I10" s="19">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -9625,8 +9776,11 @@
       <c r="H11" s="19">
         <v>84.73</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I11" s="21">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -9652,8 +9806,11 @@
       <c r="H12" s="19">
         <v>84.73</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="19">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -9679,8 +9836,11 @@
       <c r="H13" s="19">
         <v>84.73</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="21">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -9706,8 +9866,11 @@
       <c r="H14" s="19">
         <v>84.73</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="19">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -9733,8 +9896,11 @@
       <c r="H15" s="19">
         <v>84.73</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15" s="21">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -9760,8 +9926,11 @@
       <c r="H16" s="19">
         <v>84.73</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="21">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -9787,8 +9956,9 @@
       <c r="H17" s="19">
         <v>84.73</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -9814,8 +9984,11 @@
       <c r="H18" s="19">
         <v>84.73</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="21">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -9836,8 +10009,11 @@
       <c r="H19" s="19">
         <v>84.73</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="21">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -9855,8 +10031,11 @@
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -9875,8 +10054,11 @@
       <c r="H21" s="19">
         <v>84.73</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -9891,8 +10073,9 @@
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -9907,8 +10090,9 @@
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -9933,9 +10117,12 @@
       <c r="H24" s="19">
         <v>84.73</v>
       </c>
-      <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="21">
+        <v>77.78</v>
+      </c>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -9950,9 +10137,12 @@
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="21">
+        <v>25</v>
+      </c>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -9972,8 +10162,9 @@
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9991,8 +10182,9 @@
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -10011,11 +10203,14 @@
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="19">
+      <c r="I28" s="21">
+        <v>25</v>
+      </c>
+      <c r="J28" s="19">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -10031,8 +10226,9 @@
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -10050,8 +10246,11 @@
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -10063,8 +10262,9 @@
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -10084,8 +10284,9 @@
       <c r="H32" s="19">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -10099,9 +10300,12 @@
         <v>25</v>
       </c>
       <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="21">
+        <v>25</v>
+      </c>
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -10115,8 +10319,9 @@
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -10130,8 +10335,9 @@
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -10145,8 +10351,9 @@
       </c>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -10164,8 +10371,11 @@
       <c r="H37" s="19">
         <v>84.73</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="21">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -10177,8 +10387,11 @@
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I38" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -10196,8 +10409,11 @@
       <c r="H39" s="19">
         <v>84.73</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I39" s="21">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -10211,8 +10427,9 @@
       </c>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I40" s="19"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -10226,8 +10443,9 @@
       </c>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I41" s="19"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -10243,8 +10461,11 @@
       <c r="H42" s="19">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I42" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -10256,8 +10477,9 @@
       </c>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I43" s="19"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -10273,8 +10495,11 @@
       <c r="H44" s="21">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I44" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -10286,8 +10511,9 @@
         <v>25</v>
       </c>
       <c r="H45" s="19"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -10299,8 +10525,9 @@
         <v>25</v>
       </c>
       <c r="H46" s="19"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -10312,8 +10539,9 @@
         <v>25</v>
       </c>
       <c r="H47" s="19"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I47" s="19"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -10325,8 +10553,9 @@
         <v>25</v>
       </c>
       <c r="H48" s="19"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="19"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -10334,8 +10563,9 @@
         <v>25</v>
       </c>
       <c r="H49" s="19"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="19"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -10343,8 +10573,9 @@
       <c r="H50" s="19">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="19"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -10352,8 +10583,9 @@
       <c r="H51" s="21">
         <v>25</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="19"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>85</v>
       </c>
@@ -10361,8 +10593,11 @@
       <c r="H52" s="19">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -10370,8 +10605,9 @@
       <c r="H53" s="21">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -10379,8 +10615,11 @@
       <c r="H54" s="19">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" s="21">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -10412,8 +10651,12 @@
         <f>SUM(H3:H54)</f>
         <v>1715.41</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" s="20">
+        <f>SUM(I3:I54)</f>
+        <v>1722.2599999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -10445,8 +10688,12 @@
         <f>8*25+84.73*17</f>
         <v>1640.41</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" s="23">
+        <f>3*25+77.78*3</f>
+        <v>308.34000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B58" s="24">
         <f t="shared" ref="B58:G58" si="1">B57/B56</f>
         <v>1.0000660194174757</v>
@@ -10472,8 +10719,12 @@
         <v>0.95483840999616798</v>
       </c>
       <c r="H58" s="24">
-        <f t="shared" ref="H58" si="2">H57/H56</f>
+        <f t="shared" ref="H58:I58" si="2">H57/H56</f>
         <v>0.95627867390303189</v>
+      </c>
+      <c r="I58" s="24">
+        <f t="shared" si="2"/>
+        <v>0.17903220187428151</v>
       </c>
     </row>
   </sheetData>
@@ -10483,10 +10734,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P92"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="V93" sqref="V93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15080,6 +15331,306 @@
       </c>
       <c r="P92" s="8" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A93" s="14">
+        <v>45679</v>
+      </c>
+      <c r="B93" s="3">
+        <v>7</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I93" s="9">
+        <v>9</v>
+      </c>
+      <c r="J93" s="10">
+        <v>9</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L93" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M93" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N93" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O93" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P93" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94" s="14">
+        <v>45679</v>
+      </c>
+      <c r="B94" s="3">
+        <v>3</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="11">
+        <v>4</v>
+      </c>
+      <c r="J94" s="2">
+        <v>3</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95" s="14">
+        <v>45679</v>
+      </c>
+      <c r="B95" s="5">
+        <v>4</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" s="5">
+        <v>0</v>
+      </c>
+      <c r="J95" s="8">
+        <v>7</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O95" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P95" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96" s="14">
+        <v>45686</v>
+      </c>
+      <c r="B96" s="3">
+        <v>6</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I96" s="9">
+        <v>9</v>
+      </c>
+      <c r="J96" s="10">
+        <v>4</v>
+      </c>
+      <c r="K96" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L96" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M96" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N96" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O96" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P96" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A97" s="14">
+        <v>45686</v>
+      </c>
+      <c r="B97" s="3">
+        <v>3</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I97" s="11">
+        <v>4</v>
+      </c>
+      <c r="J97" s="2">
+        <v>2</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P97" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A98" s="14">
+        <v>45686</v>
+      </c>
+      <c r="B98" s="5">
+        <v>5</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I98" s="5">
+        <v>2</v>
+      </c>
+      <c r="J98" s="8">
+        <v>3</v>
+      </c>
+      <c r="K98" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M98" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N98" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O98" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P98" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -16491,11 +17042,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DDCCA6-42DC-4211-A42F-70F3625FA6AA}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M15" sqref="M15"/>
+      <selection pane="topRight" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16505,10 +17056,10 @@
     <col min="6" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16548,8 +17099,14 @@
       <c r="M1" s="1">
         <v>45672</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="1">
+        <v>45679</v>
+      </c>
+      <c r="O1" s="1">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -16559,13 +17116,16 @@
       <c r="L2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -16573,7 +17133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -16581,17 +17141,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -16614,7 +17174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -16628,7 +17188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -16639,7 +17199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -16653,7 +17213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -16666,8 +17226,14 @@
       <c r="L12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -16681,7 +17247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -16700,23 +17266,32 @@
       <c r="M14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -16736,7 +17311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -16770,8 +17345,14 @@
       <c r="M19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -16779,7 +17360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -16810,8 +17391,11 @@
       <c r="M21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -16843,7 +17427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -16851,7 +17435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -16859,7 +17443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -16887,13 +17471,16 @@
       <c r="M25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -16903,18 +17490,24 @@
       <c r="I27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -16942,16 +17535,22 @@
       <c r="M30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -16962,7 +17561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -16994,7 +17593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -17002,12 +17601,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -17041,13 +17640,16 @@
       <c r="M36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -17058,7 +17660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -17069,22 +17671,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -17098,7 +17703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -17135,8 +17740,14 @@
       <c r="M44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -17144,7 +17755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -17158,7 +17769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -17186,8 +17797,11 @@
       <c r="M47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -17195,7 +17809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -17208,8 +17822,11 @@
       <c r="E49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -17223,7 +17840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -17231,7 +17848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -17265,8 +17882,11 @@
       <c r="M52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>47</v>
       </c>

--- a/data/condominio.xlsx
+++ b/data/condominio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="14_{F8FAE7CF-1AB6-449B-BC05-2BC42FEE3DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3E1DDEAB-1CF4-41BF-9BD8-ADBA520E9F07}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="14_{F8FAE7CF-1AB6-449B-BC05-2BC42FEE3DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D8FF6422-6493-4E81-A46F-7571781CDA4E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">artilharia!$A$1:$K$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'artilharia total'!$A$1:$AI$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'extrato 2024'!$A$1:$C$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AN$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AO$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="340">
   <si>
     <t>Jogador</t>
   </si>
@@ -2107,11 +2107,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN53"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH2" sqref="B2:AH53"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI33" sqref="AI33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2131,10 +2131,10 @@
     <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="34" width="10.5546875" customWidth="1"/>
+    <col min="28" max="35" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2237,20 +2237,23 @@
       <c r="AH1" s="1">
         <v>45686</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AI1" s="1">
+        <v>45693</v>
+      </c>
+      <c r="AL1" t="s">
         <v>57</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>58</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>59</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2353,23 +2356,26 @@
       <c r="AH2">
         <v>6.5</v>
       </c>
-      <c r="AK2">
-        <f>COUNT(B2:AJ2)</f>
-        <v>32</v>
-      </c>
-      <c r="AL2" s="18">
-        <f>AVERAGE(B2:AJ2)</f>
-        <v>6.40625</v>
-      </c>
-      <c r="AM2">
-        <f>IF(AK2&gt;1,_xlfn.STDEV.S(B2:AJ2),"")</f>
-        <v>0.99545337377239262</v>
+      <c r="AI2">
+        <v>6.5</v>
+      </c>
+      <c r="AL2">
+        <f>COUNT(B2:AK2)</f>
+        <v>33</v>
+      </c>
+      <c r="AM2" s="18">
+        <f>AVERAGE(B2:AK2)</f>
+        <v>6.4090909090909092</v>
       </c>
       <c r="AN2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+        <f>IF(AL2&gt;1,_xlfn.STDEV.S(B2:AK2),"")</f>
+        <v>0.97991186987773216</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -2472,23 +2478,26 @@
       <c r="AH3">
         <v>5</v>
       </c>
-      <c r="AK3">
-        <f>COUNT(B3:AJ3)</f>
-        <v>31</v>
-      </c>
-      <c r="AL3" s="18">
-        <f>AVERAGE(B3:AJ3)</f>
-        <v>6.758064516129032</v>
-      </c>
-      <c r="AM3">
-        <f>IF(AK3&gt;1,_xlfn.STDEV.S(B3:AJ3),"")</f>
-        <v>0.72882288362737813</v>
+      <c r="AI3">
+        <v>6.5</v>
+      </c>
+      <c r="AL3">
+        <f>COUNT(B3:AK3)</f>
+        <v>32</v>
+      </c>
+      <c r="AM3" s="18">
+        <f>AVERAGE(B3:AK3)</f>
+        <v>6.75</v>
       </c>
       <c r="AN3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+        <f>IF(AL3&gt;1,_xlfn.STDEV.S(B3:AK3),"")</f>
+        <v>0.71842120810709964</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2588,23 +2597,26 @@
       <c r="AH4">
         <v>6.5</v>
       </c>
-      <c r="AK4">
-        <f>COUNT(B4:AJ4)</f>
-        <v>30</v>
-      </c>
-      <c r="AL4" s="18">
-        <f>AVERAGE(B4:AJ4)</f>
-        <v>5.9833333333333334</v>
-      </c>
-      <c r="AM4">
-        <f>IF(AK4&gt;1,_xlfn.STDEV.S(B4:AJ4),"")</f>
-        <v>0.79310969512781992</v>
+      <c r="AI4">
+        <v>5</v>
+      </c>
+      <c r="AL4">
+        <f>COUNT(B4:AK4)</f>
+        <v>31</v>
+      </c>
+      <c r="AM4" s="18">
+        <f>AVERAGE(B4:AK4)</f>
+        <v>5.9516129032258061</v>
       </c>
       <c r="AN4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+        <f>IF(AL4&gt;1,_xlfn.STDEV.S(B4:AK4),"")</f>
+        <v>0.79952943149577627</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2707,23 +2719,26 @@
       <c r="AH5">
         <v>5</v>
       </c>
-      <c r="AK5">
-        <f>COUNT(B5:AJ5)</f>
-        <v>30</v>
-      </c>
-      <c r="AL5" s="18">
-        <f>AVERAGE(B5:AJ5)</f>
-        <v>6</v>
-      </c>
-      <c r="AM5">
-        <f>IF(AK5&gt;1,_xlfn.STDEV.S(B5:AJ5),"")</f>
-        <v>0.62972352992240255</v>
+      <c r="AI5">
+        <v>6</v>
+      </c>
+      <c r="AL5">
+        <f>COUNT(B5:AK5)</f>
+        <v>31</v>
+      </c>
+      <c r="AM5" s="18">
+        <f>AVERAGE(B5:AK5)</f>
+        <v>6</v>
       </c>
       <c r="AN5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+        <f>IF(AL5&gt;1,_xlfn.STDEV.S(B5:AK5),"")</f>
+        <v>0.61913918736689033</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2823,23 +2838,26 @@
       <c r="AG6">
         <v>6.5</v>
       </c>
-      <c r="AK6">
-        <f>COUNT(B6:AJ6)</f>
-        <v>29</v>
-      </c>
-      <c r="AL6" s="18">
-        <f>AVERAGE(B6:AJ6)</f>
-        <v>6.3793103448275863</v>
-      </c>
-      <c r="AM6">
-        <f>IF(AK6&gt;1,_xlfn.STDEV.S(B6:AJ6),"")</f>
-        <v>0.72770643136247193</v>
+      <c r="AI6">
+        <v>5.5</v>
+      </c>
+      <c r="AL6">
+        <f>COUNT(B6:AK6)</f>
+        <v>30</v>
+      </c>
+      <c r="AM6" s="18">
+        <f>AVERAGE(B6:AK6)</f>
+        <v>6.35</v>
       </c>
       <c r="AN6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+        <f>IF(AL6&gt;1,_xlfn.STDEV.S(B6:AK6),"")</f>
+        <v>0.73284989289570268</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2936,23 +2954,26 @@
       <c r="AH7">
         <v>6.5</v>
       </c>
-      <c r="AK7">
-        <f>COUNT(B7:AJ7)</f>
-        <v>26</v>
-      </c>
-      <c r="AL7" s="18">
-        <f>AVERAGE(B7:AJ7)</f>
-        <v>5.865384615384615</v>
-      </c>
-      <c r="AM7">
-        <f>IF(AK7&gt;1,_xlfn.STDEV.S(B7:AJ7),"")</f>
-        <v>0.74239736405367684</v>
+      <c r="AI7">
+        <v>4.5</v>
+      </c>
+      <c r="AL7">
+        <f>COUNT(B7:AK7)</f>
+        <v>27</v>
+      </c>
+      <c r="AM7" s="18">
+        <f>AVERAGE(B7:AK7)</f>
+        <v>5.8148148148148149</v>
       </c>
       <c r="AN7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+        <f>IF(AL7&gt;1,_xlfn.STDEV.S(B7:AK7),"")</f>
+        <v>0.7739527433912532</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3052,23 +3073,26 @@
       <c r="AH8">
         <v>7.5</v>
       </c>
-      <c r="AK8">
-        <f>COUNT(B8:AJ8)</f>
-        <v>26</v>
-      </c>
-      <c r="AL8" s="18">
-        <f>AVERAGE(B8:AJ8)</f>
-        <v>6.8461538461538458</v>
-      </c>
-      <c r="AM8">
-        <f>IF(AK8&gt;1,_xlfn.STDEV.S(B8:AJ8),"")</f>
-        <v>0.59614143907684813</v>
+      <c r="AI8">
+        <v>5.5</v>
+      </c>
+      <c r="AL8">
+        <f>COUNT(B8:AK8)</f>
+        <v>27</v>
+      </c>
+      <c r="AM8" s="18">
+        <f>AVERAGE(B8:AK8)</f>
+        <v>6.7962962962962967</v>
       </c>
       <c r="AN8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+        <f>IF(AL8&gt;1,_xlfn.STDEV.S(B8:AK8),"")</f>
+        <v>0.63939964719407594</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3168,23 +3192,26 @@
       <c r="AH9">
         <v>5.5</v>
       </c>
-      <c r="AK9">
-        <f>COUNT(B9:AJ9)</f>
-        <v>25</v>
-      </c>
-      <c r="AL9" s="18">
-        <f>AVERAGE(B9:AJ9)</f>
-        <v>6.7</v>
-      </c>
-      <c r="AM9">
-        <f>IF(AK9&gt;1,_xlfn.STDEV.S(B9:AJ9),"")</f>
-        <v>1</v>
+      <c r="AI9">
+        <v>5.5</v>
+      </c>
+      <c r="AL9">
+        <f>COUNT(B9:AK9)</f>
+        <v>26</v>
+      </c>
+      <c r="AM9" s="18">
+        <f>AVERAGE(B9:AK9)</f>
+        <v>6.6538461538461542</v>
       </c>
       <c r="AN9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+        <f>IF(AL9&gt;1,_xlfn.STDEV.S(B9:AK9),"")</f>
+        <v>1.0076629473115595</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -3281,249 +3308,255 @@
       <c r="AG10">
         <v>10</v>
       </c>
-      <c r="AK10">
-        <f>COUNT(B10:AJ10)</f>
-        <v>24</v>
-      </c>
-      <c r="AL10" s="18">
-        <f>AVERAGE(B10:AJ10)</f>
-        <v>7.5625</v>
-      </c>
-      <c r="AM10">
-        <f>IF(AK10&gt;1,_xlfn.STDEV.S(B10:AJ10),"")</f>
-        <v>0.98148622883426351</v>
+      <c r="AI10">
+        <v>6.5</v>
+      </c>
+      <c r="AL10">
+        <f>COUNT(B10:AK10)</f>
+        <v>25</v>
+      </c>
+      <c r="AM10" s="18">
+        <f>AVERAGE(B10:AK10)</f>
+        <v>7.52</v>
       </c>
       <c r="AN10">
+        <f>IF(AL10&gt;1,_xlfn.STDEV.S(B10:AK10),"")</f>
+        <v>0.98403929460836759</v>
+      </c>
+      <c r="AO10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>7.5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>4.5</v>
+      </c>
+      <c r="I11">
+        <v>5.5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>5.5</v>
+      </c>
+      <c r="Q11">
+        <v>5.5</v>
+      </c>
+      <c r="R11">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>4.5</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11" t="s">
+        <v>26</v>
+      </c>
+      <c r="V11">
+        <v>6</v>
+      </c>
+      <c r="W11" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11">
+        <v>7</v>
+      </c>
+      <c r="Y11">
+        <v>6</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA11">
+        <v>6</v>
+      </c>
+      <c r="AB11">
+        <v>5.5</v>
+      </c>
+      <c r="AC11">
+        <v>6</v>
+      </c>
+      <c r="AD11">
+        <v>5.5</v>
+      </c>
+      <c r="AI11">
+        <v>5</v>
+      </c>
+      <c r="AL11">
+        <f>COUNT(B11:AK11)</f>
+        <v>23</v>
+      </c>
+      <c r="AM11" s="18">
+        <f>AVERAGE(B11:AK11)</f>
+        <v>5.9565217391304346</v>
+      </c>
+      <c r="AN11">
+        <f>IF(AL11&gt;1,_xlfn.STDEV.S(B11:AK11),"")</f>
+        <v>0.76741957645352532</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
         <v>4.5</v>
       </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11">
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12">
         <v>4.5</v>
       </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11">
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12">
         <v>2.5</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>4.5</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>5.5</v>
       </c>
-      <c r="O11">
-        <v>6</v>
-      </c>
-      <c r="P11">
+      <c r="O12">
+        <v>6</v>
+      </c>
+      <c r="P12">
         <v>4.5</v>
       </c>
-      <c r="Q11" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" t="s">
-        <v>26</v>
-      </c>
-      <c r="S11">
+      <c r="Q12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12">
         <v>4</v>
       </c>
-      <c r="T11">
-        <v>6</v>
-      </c>
-      <c r="U11">
+      <c r="T12">
+        <v>6</v>
+      </c>
+      <c r="U12">
         <v>2.5</v>
       </c>
-      <c r="V11">
+      <c r="V12">
         <v>5.5</v>
       </c>
-      <c r="W11">
-        <v>6</v>
-      </c>
-      <c r="X11">
-        <v>6</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z11">
+      <c r="W12">
+        <v>6</v>
+      </c>
+      <c r="X12">
+        <v>6</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z12">
         <v>5.5</v>
       </c>
-      <c r="AA11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC11">
+      <c r="AA12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC12">
         <v>4</v>
       </c>
-      <c r="AD11">
+      <c r="AD12">
         <v>4.5</v>
       </c>
-      <c r="AE11">
+      <c r="AE12">
         <v>4</v>
       </c>
-      <c r="AF11">
+      <c r="AF12">
         <v>2.5</v>
       </c>
-      <c r="AG11">
+      <c r="AG12">
         <v>3</v>
       </c>
-      <c r="AH11">
+      <c r="AH12">
         <v>5</v>
       </c>
-      <c r="AK11">
-        <f>COUNT(B11:AJ11)</f>
+      <c r="AL12">
+        <f>COUNT(B12:AK12)</f>
         <v>22</v>
       </c>
-      <c r="AL11" s="18">
-        <f>AVERAGE(B11:AJ11)</f>
+      <c r="AM12" s="18">
+        <f>AVERAGE(B12:AK12)</f>
         <v>4.5681818181818183</v>
       </c>
-      <c r="AM11">
-        <f>IF(AK11&gt;1,_xlfn.STDEV.S(B11:AJ11),"")</f>
+      <c r="AN12">
+        <f>IF(AL12&gt;1,_xlfn.STDEV.S(B12:AK12),"")</f>
         <v>1.1881904463496311</v>
       </c>
-      <c r="AN11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12">
-        <v>7.5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <v>4.5</v>
-      </c>
-      <c r="I12">
-        <v>5.5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12">
-        <v>6</v>
-      </c>
-      <c r="L12">
-        <v>6</v>
-      </c>
-      <c r="M12">
-        <v>6</v>
-      </c>
-      <c r="N12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12">
-        <v>6</v>
-      </c>
-      <c r="P12">
-        <v>5.5</v>
-      </c>
-      <c r="Q12">
-        <v>5.5</v>
-      </c>
-      <c r="R12">
-        <v>6</v>
-      </c>
-      <c r="S12">
-        <v>4.5</v>
-      </c>
-      <c r="T12">
-        <v>7</v>
-      </c>
-      <c r="U12" t="s">
-        <v>26</v>
-      </c>
-      <c r="V12">
-        <v>6</v>
-      </c>
-      <c r="W12" t="s">
-        <v>26</v>
-      </c>
-      <c r="X12">
-        <v>7</v>
-      </c>
-      <c r="Y12">
-        <v>6</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA12">
-        <v>6</v>
-      </c>
-      <c r="AB12">
-        <v>5.5</v>
-      </c>
-      <c r="AC12">
-        <v>6</v>
-      </c>
-      <c r="AD12">
-        <v>5.5</v>
-      </c>
-      <c r="AK12">
-        <f>COUNT(B12:AJ12)</f>
-        <v>22</v>
-      </c>
-      <c r="AL12" s="18">
-        <f>AVERAGE(B12:AJ12)</f>
-        <v>6</v>
-      </c>
-      <c r="AM12">
-        <f>IF(AK12&gt;1,_xlfn.STDEV.S(B12:AJ12),"")</f>
-        <v>0.7559289460184544</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3626,23 +3659,26 @@
       <c r="AH13">
         <v>6</v>
       </c>
-      <c r="AK13">
-        <f>COUNT(B13:AJ13)</f>
-        <v>21</v>
-      </c>
-      <c r="AL13" s="18">
-        <f>AVERAGE(B13:AJ13)</f>
-        <v>5.8571428571428568</v>
-      </c>
-      <c r="AM13">
-        <f>IF(AK13&gt;1,_xlfn.STDEV.S(B13:AJ13),"")</f>
-        <v>1.184724199369384</v>
+      <c r="AI13">
+        <v>6</v>
+      </c>
+      <c r="AL13">
+        <f>COUNT(B13:AK13)</f>
+        <v>22</v>
+      </c>
+      <c r="AM13" s="18">
+        <f>AVERAGE(B13:AK13)</f>
+        <v>5.8636363636363633</v>
       </c>
       <c r="AN13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+        <f>IF(AL13&gt;1,_xlfn.STDEV.S(B13:AK13),"")</f>
+        <v>1.1565735331842673</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -3745,23 +3781,23 @@
       <c r="AH14">
         <v>5.5</v>
       </c>
-      <c r="AK14">
-        <f>COUNT(B14:AJ14)</f>
+      <c r="AL14">
+        <f>COUNT(B14:AK14)</f>
         <v>21</v>
       </c>
-      <c r="AL14" s="18">
-        <f>AVERAGE(B14:AJ14)</f>
+      <c r="AM14" s="18">
+        <f>AVERAGE(B14:AK14)</f>
         <v>6.5714285714285712</v>
       </c>
-      <c r="AM14">
-        <f>IF(AK14&gt;1,_xlfn.STDEV.S(B14:AJ14),"")</f>
+      <c r="AN14">
+        <f>IF(AL14&gt;1,_xlfn.STDEV.S(B14:AK14),"")</f>
         <v>0.65737573513391634</v>
       </c>
-      <c r="AN14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3861,23 +3897,23 @@
       <c r="AG15">
         <v>6.5</v>
       </c>
-      <c r="AK15">
-        <f>COUNT(B15:AJ15)</f>
+      <c r="AL15">
+        <f>COUNT(B15:AK15)</f>
         <v>20</v>
       </c>
-      <c r="AL15" s="18">
-        <f>AVERAGE(B15:AJ15)</f>
+      <c r="AM15" s="18">
+        <f>AVERAGE(B15:AK15)</f>
         <v>6.55</v>
       </c>
-      <c r="AM15">
-        <f>IF(AK15&gt;1,_xlfn.STDEV.S(B15:AJ15),"")</f>
+      <c r="AN15">
+        <f>IF(AL15&gt;1,_xlfn.STDEV.S(B15:AK15),"")</f>
         <v>1.050062654772262</v>
       </c>
-      <c r="AN15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3968,23 +4004,23 @@
       <c r="AD16">
         <v>6</v>
       </c>
-      <c r="AK16">
-        <f>COUNT(B16:AJ16)</f>
+      <c r="AL16">
+        <f>COUNT(B16:AK16)</f>
         <v>17</v>
       </c>
-      <c r="AL16" s="18">
-        <f>AVERAGE(B16:AJ16)</f>
+      <c r="AM16" s="18">
+        <f>AVERAGE(B16:AK16)</f>
         <v>6.0882352941176467</v>
       </c>
-      <c r="AM16">
-        <f>IF(AK16&gt;1,_xlfn.STDEV.S(B16:AJ16),"")</f>
+      <c r="AN16">
+        <f>IF(AL16&gt;1,_xlfn.STDEV.S(B16:AK16),"")</f>
         <v>0.71228711990072591</v>
       </c>
-      <c r="AN16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -4078,23 +4114,26 @@
       <c r="AE17">
         <v>6.5</v>
       </c>
-      <c r="AK17">
-        <f>COUNT(B17:AJ17)</f>
-        <v>15</v>
-      </c>
-      <c r="AL17" s="18">
-        <f>AVERAGE(B17:AJ17)</f>
-        <v>6.0333333333333332</v>
-      </c>
-      <c r="AM17">
-        <f>IF(AK17&gt;1,_xlfn.STDEV.S(B17:AJ17),"")</f>
-        <v>0.99043040187202558</v>
+      <c r="AI17">
+        <v>5</v>
+      </c>
+      <c r="AL17">
+        <f>COUNT(B17:AK17)</f>
+        <v>16</v>
+      </c>
+      <c r="AM17" s="18">
+        <f>AVERAGE(B17:AK17)</f>
+        <v>5.96875</v>
       </c>
       <c r="AN17">
+        <f>IF(AL17&gt;1,_xlfn.STDEV.S(B17:AK17),"")</f>
+        <v>0.99110628424335334</v>
+      </c>
+      <c r="AO17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -4191,23 +4230,23 @@
       <c r="AG18">
         <v>7</v>
       </c>
-      <c r="AK18">
-        <f>COUNT(B18:AJ18)</f>
+      <c r="AL18">
+        <f>COUNT(B18:AK18)</f>
         <v>14</v>
       </c>
-      <c r="AL18" s="18">
-        <f>AVERAGE(B18:AJ18)</f>
+      <c r="AM18" s="18">
+        <f>AVERAGE(B18:AK18)</f>
         <v>6.3571428571428568</v>
       </c>
-      <c r="AM18">
-        <f>IF(AK18&gt;1,_xlfn.STDEV.S(B18:AJ18),"")</f>
+      <c r="AN18">
+        <f>IF(AL18&gt;1,_xlfn.STDEV.S(B18:AK18),"")</f>
         <v>0.77032888651964082</v>
       </c>
-      <c r="AN18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4307,23 +4346,26 @@
       <c r="AH19">
         <v>6.5</v>
       </c>
-      <c r="AK19">
-        <f>COUNT(B19:AJ19)</f>
-        <v>13</v>
-      </c>
-      <c r="AL19" s="18">
-        <f>AVERAGE(B19:AJ19)</f>
-        <v>6.884615384615385</v>
-      </c>
-      <c r="AM19">
-        <f>IF(AK19&gt;1,_xlfn.STDEV.S(B19:AJ19),"")</f>
-        <v>0.50636968354183332</v>
+      <c r="AI19">
+        <v>6.5</v>
+      </c>
+      <c r="AL19">
+        <f>COUNT(B19:AK19)</f>
+        <v>14</v>
+      </c>
+      <c r="AM19" s="18">
+        <f>AVERAGE(B19:AK19)</f>
+        <v>6.8571428571428568</v>
       </c>
       <c r="AN19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+        <f>IF(AL19&gt;1,_xlfn.STDEV.S(B19:AK19),"")</f>
+        <v>0.49724515809884695</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -4426,23 +4468,26 @@
       <c r="AH20">
         <v>6.5</v>
       </c>
-      <c r="AK20">
-        <f>COUNT(B20:AJ20)</f>
-        <v>13</v>
-      </c>
-      <c r="AL20" s="18">
-        <f>AVERAGE(B20:AJ20)</f>
-        <v>6.3076923076923075</v>
-      </c>
-      <c r="AM20">
-        <f>IF(AK20&gt;1,_xlfn.STDEV.S(B20:AJ20),"")</f>
-        <v>0.85485041426510777</v>
+      <c r="AI20">
+        <v>6.5</v>
+      </c>
+      <c r="AL20">
+        <f>COUNT(B20:AK20)</f>
+        <v>14</v>
+      </c>
+      <c r="AM20" s="18">
+        <f>AVERAGE(B20:AK20)</f>
+        <v>6.3214285714285712</v>
       </c>
       <c r="AN20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+        <f>IF(AL20&gt;1,_xlfn.STDEV.S(B20:AK20),"")</f>
+        <v>0.82292028909111448</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -4533,23 +4578,23 @@
       <c r="AD21">
         <v>6</v>
       </c>
-      <c r="AK21">
-        <f>COUNT(B21:AJ21)</f>
+      <c r="AL21">
+        <f>COUNT(B21:AK21)</f>
         <v>13</v>
       </c>
-      <c r="AL21" s="18">
-        <f>AVERAGE(B21:AJ21)</f>
+      <c r="AM21" s="18">
+        <f>AVERAGE(B21:AK21)</f>
         <v>4.4615384615384617</v>
       </c>
-      <c r="AM21">
-        <f>IF(AK21&gt;1,_xlfn.STDEV.S(B21:AJ21),"")</f>
+      <c r="AN21">
+        <f>IF(AL21&gt;1,_xlfn.STDEV.S(B21:AK21),"")</f>
         <v>1.875961292039569</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -4640,243 +4685,249 @@
       <c r="AD22" t="s">
         <v>26</v>
       </c>
-      <c r="AK22">
-        <f>COUNT(B22:AJ22)</f>
+      <c r="AI22">
+        <v>5</v>
+      </c>
+      <c r="AL22">
+        <f>COUNT(B22:AK22)</f>
+        <v>12</v>
+      </c>
+      <c r="AM22" s="18">
+        <f>AVERAGE(B22:AK22)</f>
+        <v>5.708333333333333</v>
+      </c>
+      <c r="AN22">
+        <f>IF(AL22&gt;1,_xlfn.STDEV.S(B22:AK22),"")</f>
+        <v>1.1571582223339871</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>5.5</v>
+      </c>
+      <c r="J23">
+        <v>5.5</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>4.5</v>
+      </c>
+      <c r="O23">
+        <v>7.5</v>
+      </c>
+      <c r="P23">
+        <v>7</v>
+      </c>
+      <c r="Q23">
+        <v>4.5</v>
+      </c>
+      <c r="R23" t="s">
+        <v>26</v>
+      </c>
+      <c r="S23" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" t="s">
+        <v>26</v>
+      </c>
+      <c r="U23">
+        <v>5.5</v>
+      </c>
+      <c r="V23" t="s">
+        <v>26</v>
+      </c>
+      <c r="W23" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH23">
+        <v>5</v>
+      </c>
+      <c r="AI23">
+        <v>5.5</v>
+      </c>
+      <c r="AL23">
+        <f>COUNT(B23:AK23)</f>
+        <v>12</v>
+      </c>
+      <c r="AM23" s="18">
+        <f>AVERAGE(B23:AK23)</f>
+        <v>5.375</v>
+      </c>
+      <c r="AN23">
+        <f>IF(AL23&gt;1,_xlfn.STDEV.S(B23:AK23),"")</f>
+        <v>1.0897247358851685</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>8.5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>7.5</v>
+      </c>
+      <c r="E24">
+        <v>7.5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>7.5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <v>7.5</v>
+      </c>
+      <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="N24">
+        <v>6</v>
+      </c>
+      <c r="O24" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24">
+        <v>9</v>
+      </c>
+      <c r="S24" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" t="s">
+        <v>26</v>
+      </c>
+      <c r="U24" t="s">
+        <v>26</v>
+      </c>
+      <c r="V24" t="s">
+        <v>26</v>
+      </c>
+      <c r="W24" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG24">
+        <v>6.5</v>
+      </c>
+      <c r="AL24">
+        <f>COUNT(B24:AK24)</f>
         <v>11</v>
       </c>
-      <c r="AL22" s="18">
-        <f>AVERAGE(B22:AJ22)</f>
-        <v>5.7727272727272725</v>
-      </c>
-      <c r="AM22">
-        <f>IF(AK22&gt;1,_xlfn.STDEV.S(B22:AJ22),"")</f>
-        <v>1.1908743922772957</v>
-      </c>
-      <c r="AN22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23">
-        <v>8.5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23">
-        <v>7.5</v>
-      </c>
-      <c r="E23">
-        <v>7.5</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23">
-        <v>6</v>
-      </c>
-      <c r="I23">
-        <v>7.5</v>
-      </c>
-      <c r="J23" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23">
-        <v>6</v>
-      </c>
-      <c r="L23">
-        <v>7.5</v>
-      </c>
-      <c r="M23">
-        <v>7</v>
-      </c>
-      <c r="N23">
-        <v>6</v>
-      </c>
-      <c r="O23" t="s">
-        <v>26</v>
-      </c>
-      <c r="P23" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>26</v>
-      </c>
-      <c r="R23">
-        <v>9</v>
-      </c>
-      <c r="S23" t="s">
-        <v>26</v>
-      </c>
-      <c r="T23" t="s">
-        <v>26</v>
-      </c>
-      <c r="U23" t="s">
-        <v>26</v>
-      </c>
-      <c r="V23" t="s">
-        <v>26</v>
-      </c>
-      <c r="W23" t="s">
-        <v>26</v>
-      </c>
-      <c r="X23" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG23">
-        <v>6.5</v>
-      </c>
-      <c r="AK23">
-        <f>COUNT(B23:AJ23)</f>
-        <v>11</v>
-      </c>
-      <c r="AL23" s="18">
-        <f>AVERAGE(B23:AJ23)</f>
+      <c r="AM24" s="18">
+        <f>AVERAGE(B24:AK24)</f>
         <v>7.1818181818181817</v>
       </c>
-      <c r="AM23">
-        <f>IF(AK23&gt;1,_xlfn.STDEV.S(B23:AJ23),"")</f>
+      <c r="AN24">
+        <f>IF(AL24&gt;1,_xlfn.STDEV.S(B24:AK24),"")</f>
         <v>1.006795095159071</v>
       </c>
-      <c r="AN23">
+      <c r="AO24">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24">
-        <v>6</v>
-      </c>
-      <c r="I24">
-        <v>5.5</v>
-      </c>
-      <c r="J24">
-        <v>5.5</v>
-      </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
-      <c r="L24" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24">
-        <v>4</v>
-      </c>
-      <c r="N24">
-        <v>4.5</v>
-      </c>
-      <c r="O24">
-        <v>7.5</v>
-      </c>
-      <c r="P24">
-        <v>7</v>
-      </c>
-      <c r="Q24">
-        <v>4.5</v>
-      </c>
-      <c r="R24" t="s">
-        <v>26</v>
-      </c>
-      <c r="S24" t="s">
-        <v>26</v>
-      </c>
-      <c r="T24" t="s">
-        <v>26</v>
-      </c>
-      <c r="U24">
-        <v>5.5</v>
-      </c>
-      <c r="V24" t="s">
-        <v>26</v>
-      </c>
-      <c r="W24" t="s">
-        <v>26</v>
-      </c>
-      <c r="X24" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH24">
-        <v>5</v>
-      </c>
-      <c r="AK24">
-        <f>COUNT(B24:AJ24)</f>
-        <v>11</v>
-      </c>
-      <c r="AL24" s="18">
-        <f>AVERAGE(B24:AJ24)</f>
-        <v>5.3636363636363633</v>
-      </c>
-      <c r="AM24">
-        <f>IF(AK24&gt;1,_xlfn.STDEV.S(B24:AJ24),"")</f>
-        <v>1.1421669994118444</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -4967,23 +5018,23 @@
       <c r="AD25" t="s">
         <v>26</v>
       </c>
-      <c r="AK25">
-        <f>COUNT(B25:AJ25)</f>
+      <c r="AL25">
+        <f>COUNT(B25:AK25)</f>
         <v>9</v>
       </c>
-      <c r="AL25" s="18">
-        <f>AVERAGE(B25:AJ25)</f>
+      <c r="AM25" s="18">
+        <f>AVERAGE(B25:AK25)</f>
         <v>8</v>
       </c>
-      <c r="AM25">
-        <f>IF(AK25&gt;1,_xlfn.STDEV.S(B25:AJ25),"")</f>
+      <c r="AN25">
+        <f>IF(AL25&gt;1,_xlfn.STDEV.S(B25:AK25),"")</f>
         <v>0.61237243569579447</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -5077,25 +5128,25 @@
       <c r="AH26">
         <v>4</v>
       </c>
-      <c r="AK26">
-        <f>COUNT(B26:AJ26)</f>
+      <c r="AL26">
+        <f>COUNT(B26:AK26)</f>
         <v>8</v>
       </c>
-      <c r="AL26" s="18">
-        <f>AVERAGE(B26:AJ26)</f>
+      <c r="AM26" s="18">
+        <f>AVERAGE(B26:AK26)</f>
         <v>5</v>
       </c>
-      <c r="AM26">
-        <f>IF(AK26&gt;1,_xlfn.STDEV.S(B26:AJ26),"")</f>
+      <c r="AN26">
+        <f>IF(AL26&gt;1,_xlfn.STDEV.S(B26:AK26),"")</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -5103,20 +5154,20 @@
       <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="D27">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <v>7</v>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
       </c>
       <c r="F27">
         <v>5.5</v>
       </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" t="s">
-        <v>26</v>
+      <c r="G27">
+        <v>4.5</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
       </c>
       <c r="I27" t="s">
         <v>26</v>
@@ -5124,306 +5175,309 @@
       <c r="J27" t="s">
         <v>26</v>
       </c>
-      <c r="K27">
-        <v>7</v>
-      </c>
-      <c r="L27">
-        <v>7</v>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
       </c>
       <c r="M27" t="s">
         <v>26</v>
       </c>
-      <c r="N27">
+      <c r="N27" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27" t="s">
+        <v>26</v>
+      </c>
+      <c r="S27">
+        <v>6</v>
+      </c>
+      <c r="T27">
+        <v>6</v>
+      </c>
+      <c r="U27" t="s">
+        <v>26</v>
+      </c>
+      <c r="V27" t="s">
+        <v>26</v>
+      </c>
+      <c r="W27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG27">
+        <v>6.5</v>
+      </c>
+      <c r="AI27">
+        <v>4</v>
+      </c>
+      <c r="AL27">
+        <f>COUNT(B27:AK27)</f>
+        <v>8</v>
+      </c>
+      <c r="AM27" s="18">
+        <f>AVERAGE(B27:AK27)</f>
+        <v>5.5625</v>
+      </c>
+      <c r="AN27">
+        <f>IF(AL27&gt;1,_xlfn.STDEV.S(B27:AK27),"")</f>
+        <v>0.86344410026689877</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>5.5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28">
+        <v>7</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28">
         <v>7.5</v>
       </c>
-      <c r="O27" t="s">
-        <v>26</v>
-      </c>
-      <c r="P27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>26</v>
-      </c>
-      <c r="R27" t="s">
-        <v>26</v>
-      </c>
-      <c r="S27">
-        <v>7</v>
-      </c>
-      <c r="T27" t="s">
-        <v>26</v>
-      </c>
-      <c r="U27" t="s">
-        <v>26</v>
-      </c>
-      <c r="V27" t="s">
-        <v>26</v>
-      </c>
-      <c r="W27" t="s">
-        <v>26</v>
-      </c>
-      <c r="X27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK27">
-        <f>COUNT(B27:AJ27)</f>
-        <v>7</v>
-      </c>
-      <c r="AL27" s="18">
-        <f>AVERAGE(B27:AJ27)</f>
+      <c r="O28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" t="s">
+        <v>26</v>
+      </c>
+      <c r="S28">
+        <v>7</v>
+      </c>
+      <c r="T28" t="s">
+        <v>26</v>
+      </c>
+      <c r="U28" t="s">
+        <v>26</v>
+      </c>
+      <c r="V28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W28" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL28">
+        <f>COUNT(B28:AK28)</f>
+        <v>7</v>
+      </c>
+      <c r="AM28" s="18">
+        <f>AVERAGE(B28:AK28)</f>
         <v>6.8571428571428568</v>
       </c>
-      <c r="AM27">
-        <f>IF(AK27&gt;1,_xlfn.STDEV.S(B27:AJ27),"")</f>
+      <c r="AN28">
+        <f>IF(AL28&gt;1,_xlfn.STDEV.S(B28:AK28),"")</f>
         <v>0.62678317052800869</v>
       </c>
-      <c r="AN27">
+      <c r="AO28">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>66</v>
       </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" t="s">
-        <v>26</v>
-      </c>
-      <c r="M28" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" t="s">
-        <v>26</v>
-      </c>
-      <c r="O28" t="s">
-        <v>26</v>
-      </c>
-      <c r="P28" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>26</v>
-      </c>
-      <c r="R28" t="s">
-        <v>26</v>
-      </c>
-      <c r="S28" t="s">
-        <v>26</v>
-      </c>
-      <c r="T28" t="s">
-        <v>26</v>
-      </c>
-      <c r="U28" t="s">
-        <v>26</v>
-      </c>
-      <c r="V28">
-        <v>6</v>
-      </c>
-      <c r="W28">
-        <v>6</v>
-      </c>
-      <c r="X28" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y28">
-        <v>6</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB28">
-        <v>7</v>
-      </c>
-      <c r="AC28">
-        <v>6</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE28">
-        <v>6</v>
-      </c>
-      <c r="AF28">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" t="s">
+        <v>26</v>
+      </c>
+      <c r="S29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T29" t="s">
+        <v>26</v>
+      </c>
+      <c r="U29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V29">
+        <v>6</v>
+      </c>
+      <c r="W29">
+        <v>6</v>
+      </c>
+      <c r="X29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y29">
+        <v>6</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB29">
+        <v>7</v>
+      </c>
+      <c r="AC29">
+        <v>6</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE29">
+        <v>6</v>
+      </c>
+      <c r="AF29">
         <v>5</v>
       </c>
-      <c r="AK28">
-        <f>COUNT(B28:AJ28)</f>
-        <v>7</v>
-      </c>
-      <c r="AL28" s="18">
-        <f>AVERAGE(B28:AJ28)</f>
-        <v>6</v>
-      </c>
-      <c r="AM28">
-        <f>IF(AK28&gt;1,_xlfn.STDEV.S(B28:AJ28),"")</f>
+      <c r="AL29">
+        <f>COUNT(B29:AK29)</f>
+        <v>7</v>
+      </c>
+      <c r="AM29" s="18">
+        <f>AVERAGE(B29:AK29)</f>
+        <v>6</v>
+      </c>
+      <c r="AN29">
+        <f>IF(AL29&gt;1,_xlfn.STDEV.S(B29:AK29),"")</f>
         <v>0.57735026918962573</v>
       </c>
-      <c r="AN28">
+      <c r="AO29">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29">
-        <v>5.5</v>
-      </c>
-      <c r="G29">
-        <v>4.5</v>
-      </c>
-      <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="I29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" t="s">
-        <v>26</v>
-      </c>
-      <c r="O29" t="s">
-        <v>26</v>
-      </c>
-      <c r="P29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q29">
-        <v>6</v>
-      </c>
-      <c r="R29" t="s">
-        <v>26</v>
-      </c>
-      <c r="S29">
-        <v>6</v>
-      </c>
-      <c r="T29">
-        <v>6</v>
-      </c>
-      <c r="U29" t="s">
-        <v>26</v>
-      </c>
-      <c r="V29" t="s">
-        <v>26</v>
-      </c>
-      <c r="W29" t="s">
-        <v>26</v>
-      </c>
-      <c r="X29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG29">
-        <v>6.5</v>
-      </c>
-      <c r="AK29">
-        <f>COUNT(B29:AJ29)</f>
-        <v>7</v>
-      </c>
-      <c r="AL29" s="18">
-        <f>AVERAGE(B29:AJ29)</f>
-        <v>5.7857142857142856</v>
-      </c>
-      <c r="AM29">
-        <f>IF(AK29&gt;1,_xlfn.STDEV.S(B29:AJ29),"")</f>
-        <v>0.63620901028035015</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -5526,23 +5580,26 @@
       <c r="AH30">
         <v>5</v>
       </c>
-      <c r="AK30">
-        <f>COUNT(B30:AJ30)</f>
-        <v>6</v>
-      </c>
-      <c r="AL30" s="18">
-        <f>AVERAGE(B30:AJ30)</f>
-        <v>5.75</v>
-      </c>
-      <c r="AM30">
-        <f>IF(AK30&gt;1,_xlfn.STDEV.S(B30:AJ30),"")</f>
-        <v>0.82158383625774922</v>
+      <c r="AI30">
+        <v>5.5</v>
+      </c>
+      <c r="AL30">
+        <f>COUNT(B30:AK30)</f>
+        <v>7</v>
+      </c>
+      <c r="AM30" s="18">
+        <f>AVERAGE(B30:AK30)</f>
+        <v>5.7142857142857144</v>
       </c>
       <c r="AN30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+        <f>IF(AL30&gt;1,_xlfn.STDEV.S(B30:AK30),"")</f>
+        <v>0.75592894601845306</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -5633,23 +5690,23 @@
       <c r="AD31">
         <v>6</v>
       </c>
-      <c r="AK31">
-        <f>COUNT(B31:AJ31)</f>
-        <v>6</v>
-      </c>
-      <c r="AL31" s="18">
-        <f>AVERAGE(B31:AJ31)</f>
+      <c r="AL31">
+        <f>COUNT(B31:AK31)</f>
+        <v>6</v>
+      </c>
+      <c r="AM31" s="18">
+        <f>AVERAGE(B31:AK31)</f>
         <v>6.916666666666667</v>
       </c>
-      <c r="AM31">
-        <f>IF(AK31&gt;1,_xlfn.STDEV.S(B31:AJ31),"")</f>
+      <c r="AN31">
+        <f>IF(AL31&gt;1,_xlfn.STDEV.S(B31:AK31),"")</f>
         <v>0.49159604012508756</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -5746,23 +5803,23 @@
       <c r="AH32">
         <v>5</v>
       </c>
-      <c r="AK32">
-        <f>COUNT(B32:AJ32)</f>
-        <v>6</v>
-      </c>
-      <c r="AL32" s="18">
-        <f>AVERAGE(B32:AJ32)</f>
+      <c r="AL32">
+        <f>COUNT(B32:AK32)</f>
+        <v>6</v>
+      </c>
+      <c r="AM32" s="18">
+        <f>AVERAGE(B32:AK32)</f>
         <v>4.916666666666667</v>
       </c>
-      <c r="AM32">
-        <f>IF(AK32&gt;1,_xlfn.STDEV.S(B32:AJ32),"")</f>
+      <c r="AN32">
+        <f>IF(AL32&gt;1,_xlfn.STDEV.S(B32:AK32),"")</f>
         <v>1.2006942436218593</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -5853,23 +5910,23 @@
       <c r="AD33" t="s">
         <v>26</v>
       </c>
-      <c r="AK33">
-        <f>COUNT(B33:AJ33)</f>
+      <c r="AL33">
+        <f>COUNT(B33:AK33)</f>
         <v>4</v>
       </c>
-      <c r="AL33" s="18">
-        <f>AVERAGE(B33:AJ33)</f>
+      <c r="AM33" s="18">
+        <f>AVERAGE(B33:AK33)</f>
         <v>7.625</v>
       </c>
-      <c r="AM33">
-        <f>IF(AK33&gt;1,_xlfn.STDEV.S(B33:AJ33),"")</f>
+      <c r="AN33">
+        <f>IF(AL33&gt;1,_xlfn.STDEV.S(B33:AK33),"")</f>
         <v>0.62915286960589578</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -5960,23 +6017,23 @@
       <c r="AD34" t="s">
         <v>26</v>
       </c>
-      <c r="AK34">
-        <f>COUNT(B34:AJ34)</f>
+      <c r="AL34">
+        <f>COUNT(B34:AK34)</f>
         <v>4</v>
       </c>
-      <c r="AL34" s="18">
-        <f>AVERAGE(B34:AJ34)</f>
-        <v>6</v>
-      </c>
-      <c r="AM34">
-        <f>IF(AK34&gt;1,_xlfn.STDEV.S(B34:AJ34),"")</f>
+      <c r="AM34" s="18">
+        <f>AVERAGE(B34:AK34)</f>
+        <v>6</v>
+      </c>
+      <c r="AN34">
+        <f>IF(AL34&gt;1,_xlfn.STDEV.S(B34:AK34),"")</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -6067,23 +6124,23 @@
       <c r="AD35" t="s">
         <v>26</v>
       </c>
-      <c r="AK35">
-        <f>COUNT(B35:AJ35)</f>
+      <c r="AL35">
+        <f>COUNT(B35:AK35)</f>
         <v>3</v>
       </c>
-      <c r="AL35" s="18">
-        <f>AVERAGE(B35:AJ35)</f>
+      <c r="AM35" s="18">
+        <f>AVERAGE(B35:AK35)</f>
         <v>6.833333333333333</v>
       </c>
-      <c r="AM35">
-        <f>IF(AK35&gt;1,_xlfn.STDEV.S(B35:AJ35),"")</f>
+      <c r="AN35">
+        <f>IF(AL35&gt;1,_xlfn.STDEV.S(B35:AK35),"")</f>
         <v>0.76376261582597338</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -6174,23 +6231,23 @@
       <c r="AD36" t="s">
         <v>26</v>
       </c>
-      <c r="AK36">
-        <f>COUNT(B36:AJ36)</f>
+      <c r="AL36">
+        <f>COUNT(B36:AK36)</f>
         <v>3</v>
       </c>
-      <c r="AL36" s="18">
-        <f>AVERAGE(B36:AJ36)</f>
+      <c r="AM36" s="18">
+        <f>AVERAGE(B36:AK36)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="AM36">
-        <f>IF(AK36&gt;1,_xlfn.STDEV.S(B36:AJ36),"")</f>
+      <c r="AN36">
+        <f>IF(AL36&gt;1,_xlfn.STDEV.S(B36:AK36),"")</f>
         <v>1.1547005383792526</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -6281,23 +6338,23 @@
       <c r="AD37" t="s">
         <v>26</v>
       </c>
-      <c r="AK37">
-        <f>COUNT(B37:AJ37)</f>
+      <c r="AL37">
+        <f>COUNT(B37:AK37)</f>
         <v>3</v>
       </c>
-      <c r="AL37" s="18">
-        <f>AVERAGE(B37:AJ37)</f>
+      <c r="AM37" s="18">
+        <f>AVERAGE(B37:AK37)</f>
         <v>4.833333333333333</v>
       </c>
-      <c r="AM37">
-        <f>IF(AK37&gt;1,_xlfn.STDEV.S(B37:AJ37),"")</f>
+      <c r="AN37">
+        <f>IF(AL37&gt;1,_xlfn.STDEV.S(B37:AK37),"")</f>
         <v>0.57735026918962584</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -6388,23 +6445,23 @@
       <c r="AD38" t="s">
         <v>26</v>
       </c>
-      <c r="AK38">
-        <f>COUNT(B38:AJ38)</f>
+      <c r="AL38">
+        <f>COUNT(B38:AK38)</f>
         <v>3</v>
       </c>
-      <c r="AL38" s="18">
-        <f>AVERAGE(B38:AJ38)</f>
+      <c r="AM38" s="18">
+        <f>AVERAGE(B38:AK38)</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="AM38">
-        <f>IF(AK38&gt;1,_xlfn.STDEV.S(B38:AJ38),"")</f>
+      <c r="AN38">
+        <f>IF(AL38&gt;1,_xlfn.STDEV.S(B38:AK38),"")</f>
         <v>0.28867513459481287</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -6498,23 +6555,23 @@
       <c r="AE39">
         <v>1.5</v>
       </c>
-      <c r="AK39">
-        <f>COUNT(B39:AJ39)</f>
+      <c r="AL39">
+        <f>COUNT(B39:AK39)</f>
         <v>3</v>
       </c>
-      <c r="AL39" s="18">
-        <f>AVERAGE(B39:AJ39)</f>
+      <c r="AM39" s="18">
+        <f>AVERAGE(B39:AK39)</f>
         <v>1.8333333333333333</v>
       </c>
-      <c r="AM39">
-        <f>IF(AK39&gt;1,_xlfn.STDEV.S(B39:AJ39),"")</f>
+      <c r="AN39">
+        <f>IF(AL39&gt;1,_xlfn.STDEV.S(B39:AK39),"")</f>
         <v>1.0408329997330663</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -6611,23 +6668,23 @@
       <c r="AF40">
         <v>9</v>
       </c>
-      <c r="AK40">
-        <f>COUNT(B40:AJ40)</f>
+      <c r="AL40">
+        <f>COUNT(B40:AK40)</f>
         <v>3</v>
       </c>
-      <c r="AL40" s="18">
-        <f>AVERAGE(B40:AJ40)</f>
+      <c r="AM40" s="18">
+        <f>AVERAGE(B40:AK40)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="AM40">
-        <f>IF(AK40&gt;1,_xlfn.STDEV.S(B40:AJ40),"")</f>
+      <c r="AN40">
+        <f>IF(AL40&gt;1,_xlfn.STDEV.S(B40:AK40),"")</f>
         <v>1.1547005383792495</v>
       </c>
-      <c r="AN40">
+      <c r="AO40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -6721,23 +6778,23 @@
       <c r="AG41">
         <v>2.5</v>
       </c>
-      <c r="AK41">
-        <f>COUNT(B41:AJ41)</f>
+      <c r="AL41">
+        <f>COUNT(B41:AK41)</f>
         <v>3</v>
       </c>
-      <c r="AL41" s="18">
-        <f>AVERAGE(B41:AJ41)</f>
+      <c r="AM41" s="18">
+        <f>AVERAGE(B41:AK41)</f>
         <v>4.5</v>
       </c>
-      <c r="AM41">
-        <f>IF(AK41&gt;1,_xlfn.STDEV.S(B41:AJ41),"")</f>
+      <c r="AN41">
+        <f>IF(AL41&gt;1,_xlfn.STDEV.S(B41:AK41),"")</f>
         <v>1.7320508075688772</v>
       </c>
-      <c r="AN41">
+      <c r="AO41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -6828,23 +6885,23 @@
       <c r="AD42">
         <v>7.5</v>
       </c>
-      <c r="AK42">
-        <f>COUNT(B42:AJ42)</f>
-        <v>2</v>
-      </c>
-      <c r="AL42" s="18">
-        <f>AVERAGE(B42:AJ42)</f>
+      <c r="AL42">
+        <f>COUNT(B42:AK42)</f>
+        <v>2</v>
+      </c>
+      <c r="AM42" s="18">
+        <f>AVERAGE(B42:AK42)</f>
         <v>7.25</v>
       </c>
-      <c r="AM42">
-        <f>IF(AK42&gt;1,_xlfn.STDEV.S(B42:AJ42),"")</f>
+      <c r="AN42">
+        <f>IF(AL42&gt;1,_xlfn.STDEV.S(B42:AK42),"")</f>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AN42">
+      <c r="AO42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -6935,23 +6992,23 @@
       <c r="AD43" t="s">
         <v>26</v>
       </c>
-      <c r="AK43">
-        <f>COUNT(B43:AJ43)</f>
-        <v>2</v>
-      </c>
-      <c r="AL43" s="18">
-        <f>AVERAGE(B43:AJ43)</f>
+      <c r="AL43">
+        <f>COUNT(B43:AK43)</f>
+        <v>2</v>
+      </c>
+      <c r="AM43" s="18">
+        <f>AVERAGE(B43:AK43)</f>
         <v>3.5</v>
       </c>
-      <c r="AM43">
-        <f>IF(AK43&gt;1,_xlfn.STDEV.S(B43:AJ43),"")</f>
+      <c r="AN43">
+        <f>IF(AL43&gt;1,_xlfn.STDEV.S(B43:AK43),"")</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="AN43">
+      <c r="AO43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -7042,23 +7099,23 @@
       <c r="AD44" t="s">
         <v>26</v>
       </c>
-      <c r="AK44">
-        <f>COUNT(B44:AJ44)</f>
-        <v>2</v>
-      </c>
-      <c r="AL44" s="18">
-        <f>AVERAGE(B44:AJ44)</f>
-        <v>2</v>
-      </c>
-      <c r="AM44">
-        <f>IF(AK44&gt;1,_xlfn.STDEV.S(B44:AJ44),"")</f>
+      <c r="AL44">
+        <f>COUNT(B44:AK44)</f>
+        <v>2</v>
+      </c>
+      <c r="AM44" s="18">
+        <f>AVERAGE(B44:AK44)</f>
+        <v>2</v>
+      </c>
+      <c r="AN44">
+        <f>IF(AL44&gt;1,_xlfn.STDEV.S(B44:AK44),"")</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AN44">
+      <c r="AO44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -7152,23 +7209,23 @@
       <c r="AG45">
         <v>5</v>
       </c>
-      <c r="AK45">
-        <f>COUNT(B45:AJ45)</f>
-        <v>2</v>
-      </c>
-      <c r="AL45" s="18">
-        <f>AVERAGE(B45:AJ45)</f>
+      <c r="AL45">
+        <f>COUNT(B45:AK45)</f>
+        <v>2</v>
+      </c>
+      <c r="AM45" s="18">
+        <f>AVERAGE(B45:AK45)</f>
         <v>5.25</v>
       </c>
-      <c r="AM45">
-        <f>IF(AK45&gt;1,_xlfn.STDEV.S(B45:AJ45),"")</f>
+      <c r="AN45">
+        <f>IF(AL45&gt;1,_xlfn.STDEV.S(B45:AK45),"")</f>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AN45">
+      <c r="AO45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -7259,23 +7316,23 @@
       <c r="AD46">
         <v>9</v>
       </c>
-      <c r="AK46">
-        <f>COUNT(B46:AJ46)</f>
-        <v>1</v>
-      </c>
-      <c r="AL46" s="18">
-        <f>AVERAGE(B46:AJ46)</f>
+      <c r="AL46">
+        <f>COUNT(B46:AK46)</f>
+        <v>1</v>
+      </c>
+      <c r="AM46" s="18">
+        <f>AVERAGE(B46:AK46)</f>
         <v>9</v>
       </c>
-      <c r="AM46" t="str">
-        <f>IF(AK46&gt;1,_xlfn.STDEV.S(B46:AJ46),"")</f>
+      <c r="AN46" t="str">
+        <f>IF(AL46&gt;1,_xlfn.STDEV.S(B46:AK46),"")</f>
         <v/>
       </c>
-      <c r="AN46">
+      <c r="AO46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -7366,23 +7423,23 @@
       <c r="AD47" t="s">
         <v>26</v>
       </c>
-      <c r="AK47">
-        <f>COUNT(B47:AJ47)</f>
-        <v>1</v>
-      </c>
-      <c r="AL47" s="18">
-        <f>AVERAGE(B47:AJ47)</f>
-        <v>7</v>
-      </c>
-      <c r="AM47" t="str">
-        <f>IF(AK47&gt;1,_xlfn.STDEV.S(B47:AJ47),"")</f>
+      <c r="AL47">
+        <f>COUNT(B47:AK47)</f>
+        <v>1</v>
+      </c>
+      <c r="AM47" s="18">
+        <f>AVERAGE(B47:AK47)</f>
+        <v>7</v>
+      </c>
+      <c r="AN47" t="str">
+        <f>IF(AL47&gt;1,_xlfn.STDEV.S(B47:AK47),"")</f>
         <v/>
       </c>
-      <c r="AN47">
+      <c r="AO47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -7422,9 +7479,6 @@
       <c r="M48" t="s">
         <v>26</v>
       </c>
-      <c r="N48" t="s">
-        <v>26</v>
-      </c>
       <c r="O48" t="s">
         <v>26</v>
       </c>
@@ -7473,23 +7527,23 @@
       <c r="AD48" t="s">
         <v>26</v>
       </c>
-      <c r="AK48">
-        <f>COUNT(B48:AJ48)</f>
-        <v>1</v>
-      </c>
-      <c r="AL48" s="18">
-        <f>AVERAGE(B48:AJ48)</f>
-        <v>7</v>
-      </c>
-      <c r="AM48" t="str">
-        <f>IF(AK48&gt;1,_xlfn.STDEV.S(B48:AJ48),"")</f>
+      <c r="AL48">
+        <f>COUNT(B48:AK48)</f>
+        <v>1</v>
+      </c>
+      <c r="AM48" s="18">
+        <f>AVERAGE(B48:AK48)</f>
+        <v>7</v>
+      </c>
+      <c r="AN48" t="str">
+        <f>IF(AL48&gt;1,_xlfn.STDEV.S(B48:AK48),"")</f>
         <v/>
       </c>
-      <c r="AN48">
+      <c r="AO48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -7580,23 +7634,23 @@
       <c r="AD49" t="s">
         <v>26</v>
       </c>
-      <c r="AK49">
-        <f>COUNT(B49:AJ49)</f>
-        <v>1</v>
-      </c>
-      <c r="AL49" s="18">
-        <f>AVERAGE(B49:AJ49)</f>
-        <v>7</v>
-      </c>
-      <c r="AM49" t="str">
-        <f>IF(AK49&gt;1,_xlfn.STDEV.S(B49:AJ49),"")</f>
+      <c r="AL49">
+        <f>COUNT(B49:AK49)</f>
+        <v>1</v>
+      </c>
+      <c r="AM49" s="18">
+        <f>AVERAGE(B49:AK49)</f>
+        <v>7</v>
+      </c>
+      <c r="AN49" t="str">
+        <f>IF(AL49&gt;1,_xlfn.STDEV.S(B49:AK49),"")</f>
         <v/>
       </c>
-      <c r="AN49">
+      <c r="AO49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -7687,23 +7741,23 @@
       <c r="AD50" t="s">
         <v>26</v>
       </c>
-      <c r="AK50">
-        <f>COUNT(B50:AJ50)</f>
-        <v>1</v>
-      </c>
-      <c r="AL50" s="18">
-        <f>AVERAGE(B50:AJ50)</f>
-        <v>6</v>
-      </c>
-      <c r="AM50" t="str">
-        <f>IF(AK50&gt;1,_xlfn.STDEV.S(B50:AJ50),"")</f>
+      <c r="AL50">
+        <f>COUNT(B50:AK50)</f>
+        <v>1</v>
+      </c>
+      <c r="AM50" s="18">
+        <f>AVERAGE(B50:AK50)</f>
+        <v>6</v>
+      </c>
+      <c r="AN50" t="str">
+        <f>IF(AL50&gt;1,_xlfn.STDEV.S(B50:AK50),"")</f>
         <v/>
       </c>
-      <c r="AN50">
+      <c r="AO50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -7794,23 +7848,23 @@
       <c r="AD51" t="s">
         <v>26</v>
       </c>
-      <c r="AK51">
-        <f>COUNT(B51:AJ51)</f>
-        <v>1</v>
-      </c>
-      <c r="AL51" s="18">
-        <f>AVERAGE(B51:AJ51)</f>
+      <c r="AL51">
+        <f>COUNT(B51:AK51)</f>
+        <v>1</v>
+      </c>
+      <c r="AM51" s="18">
+        <f>AVERAGE(B51:AK51)</f>
         <v>4.5</v>
       </c>
-      <c r="AM51" t="str">
-        <f>IF(AK51&gt;1,_xlfn.STDEV.S(B51:AJ51),"")</f>
+      <c r="AN51" t="str">
+        <f>IF(AL51&gt;1,_xlfn.STDEV.S(B51:AK51),"")</f>
         <v/>
       </c>
-      <c r="AN51">
+      <c r="AO51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -7901,23 +7955,23 @@
       <c r="AD52" t="s">
         <v>26</v>
       </c>
-      <c r="AK52">
-        <f>COUNT(B52:AJ52)</f>
-        <v>1</v>
-      </c>
-      <c r="AL52" s="18">
-        <f>AVERAGE(B52:AJ52)</f>
+      <c r="AL52">
+        <f>COUNT(B52:AK52)</f>
+        <v>1</v>
+      </c>
+      <c r="AM52" s="18">
+        <f>AVERAGE(B52:AK52)</f>
         <v>4.5</v>
       </c>
-      <c r="AM52" t="str">
-        <f>IF(AK52&gt;1,_xlfn.STDEV.S(B52:AJ52),"")</f>
+      <c r="AN52" t="str">
+        <f>IF(AL52&gt;1,_xlfn.STDEV.S(B52:AK52),"")</f>
         <v/>
       </c>
-      <c r="AN52">
+      <c r="AO52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -8008,29 +8062,29 @@
       <c r="AD53" t="s">
         <v>26</v>
       </c>
-      <c r="AK53">
-        <f>COUNT(B53:AJ53)</f>
-        <v>1</v>
-      </c>
-      <c r="AL53" s="18">
-        <f>AVERAGE(B53:AJ53)</f>
+      <c r="AL53">
+        <f>COUNT(B53:AK53)</f>
+        <v>1</v>
+      </c>
+      <c r="AM53" s="18">
+        <f>AVERAGE(B53:AK53)</f>
         <v>4</v>
       </c>
-      <c r="AM53" t="str">
-        <f>IF(AK53&gt;1,_xlfn.STDEV.S(B53:AJ53),"")</f>
+      <c r="AN53" t="str">
+        <f>IF(AL53&gt;1,_xlfn.STDEV.S(B53:AK53),"")</f>
         <v/>
       </c>
-      <c r="AN53">
+      <c r="AO53">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN54" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
-    <sortState ref="A2:AN53">
-      <sortCondition descending="1" ref="AK1:AK54"/>
+  <autoFilter ref="A1:AO54" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
+    <sortState ref="A2:AO53">
+      <sortCondition descending="1" ref="AL1:AL54"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="AA2:AI38">
+  <conditionalFormatting sqref="AA2:AJ38">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -8042,7 +8096,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AK39">
+  <conditionalFormatting sqref="AL2:AL39">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -8054,7 +8108,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AM39">
+  <conditionalFormatting sqref="AN2:AN39">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -8066,7 +8120,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK40:AK42">
+  <conditionalFormatting sqref="AL40:AL42">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -8078,7 +8132,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM40:AM42">
+  <conditionalFormatting sqref="AN40:AN42">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -8090,7 +8144,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AI47">
+  <conditionalFormatting sqref="AA2:AJ47">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -8102,7 +8156,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AK42">
+  <conditionalFormatting sqref="AL2:AL42">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -8114,7 +8168,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AL39">
+  <conditionalFormatting sqref="AM2:AM39">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -8126,7 +8180,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL40:AL42">
+  <conditionalFormatting sqref="AM40:AM42">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -8138,7 +8192,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AL42">
+  <conditionalFormatting sqref="AM2:AM42">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -8150,7 +8204,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AI42">
+  <conditionalFormatting sqref="AA2:AJ42">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -8162,7 +8216,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK45 AK43 AK47">
+  <conditionalFormatting sqref="AL45 AL43 AL47">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -8174,7 +8228,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM45 AM43 AM47">
+  <conditionalFormatting sqref="AN45 AN43 AN47">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -8186,7 +8240,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK45">
+  <conditionalFormatting sqref="AL45">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -8198,7 +8252,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL45 AL43 AL47">
+  <conditionalFormatting sqref="AM45 AM43 AM47">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -8210,7 +8264,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL45">
+  <conditionalFormatting sqref="AM45">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -8222,7 +8276,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK46 AK44 AK48:AK53">
+  <conditionalFormatting sqref="AL46 AL44 AL48:AL53">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -8234,7 +8288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM46 AM44 AM48:AM53">
+  <conditionalFormatting sqref="AN46 AN44 AN48:AN53">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -8246,7 +8300,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK46">
+  <conditionalFormatting sqref="AL46">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -8258,7 +8312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL46 AL44 AL48:AL53">
+  <conditionalFormatting sqref="AM46 AM44 AM48:AM53">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -8270,7 +8324,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL46">
+  <conditionalFormatting sqref="AM46">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -8282,7 +8336,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AH44">
+  <conditionalFormatting sqref="AA2:AI44">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -8330,7 +8384,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AH49 AB51:AH51 AD53:AH53">
+  <conditionalFormatting sqref="B2:AI49 AB51:AI51 AD53:AI53">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8342,7 +8396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AK53">
+  <conditionalFormatting sqref="AL2:AL53">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -8354,7 +8408,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AL53">
+  <conditionalFormatting sqref="AM2:AM53">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8366,7 +8420,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AH53">
+  <conditionalFormatting sqref="B2:AI53">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9448,8 +9502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A044468-5FF9-485E-BCBE-2F73FE35F0BA}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9575,7 +9629,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="19"/>
-      <c r="I4" s="21">
+      <c r="I4" s="19">
         <v>25</v>
       </c>
     </row>
@@ -9635,7 +9689,7 @@
         <v>77.78</v>
       </c>
       <c r="H6" s="19"/>
-      <c r="I6" s="21">
+      <c r="I6" s="19">
         <v>50</v>
       </c>
       <c r="J6" s="20"/>
@@ -9660,11 +9714,11 @@
       <c r="F7" s="19">
         <v>77.78</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <v>77.78</v>
       </c>
       <c r="H7" s="19"/>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <v>77.78</v>
       </c>
     </row>
@@ -9776,7 +9830,7 @@
       <c r="H11" s="19">
         <v>84.73</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="19">
         <v>77.78</v>
       </c>
     </row>
@@ -9836,7 +9890,7 @@
       <c r="H13" s="19">
         <v>84.73</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="19">
         <v>77.78</v>
       </c>
     </row>
@@ -9926,7 +9980,7 @@
       <c r="H16" s="19">
         <v>84.73</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="19">
         <v>77.78</v>
       </c>
     </row>
@@ -9984,7 +10038,7 @@
       <c r="H18" s="19">
         <v>84.73</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="19">
         <v>77.78</v>
       </c>
     </row>
@@ -10009,7 +10063,7 @@
       <c r="H19" s="19">
         <v>84.73</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="19">
         <v>77.78</v>
       </c>
     </row>
@@ -10117,7 +10171,7 @@
       <c r="H24" s="19">
         <v>84.73</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="19">
         <v>77.78</v>
       </c>
       <c r="J24" s="19"/>
@@ -10137,7 +10191,7 @@
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="21">
+      <c r="I25" s="19">
         <v>25</v>
       </c>
       <c r="J25" s="19"/>
@@ -10300,7 +10354,7 @@
         <v>25</v>
       </c>
       <c r="H33" s="19"/>
-      <c r="I33" s="21">
+      <c r="I33" s="19">
         <v>25</v>
       </c>
       <c r="J33" s="19"/>
@@ -10371,7 +10425,7 @@
       <c r="H37" s="19">
         <v>84.73</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="19">
         <v>77.78</v>
       </c>
     </row>
@@ -10387,7 +10441,7 @@
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
-      <c r="I38" s="21">
+      <c r="I38" s="19">
         <v>25</v>
       </c>
     </row>
@@ -10492,7 +10546,7 @@
       <c r="G44" s="19">
         <v>75</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="19">
         <v>25</v>
       </c>
       <c r="I44" s="21">
@@ -10580,7 +10634,7 @@
         <v>86</v>
       </c>
       <c r="G51" s="19"/>
-      <c r="H51" s="21">
+      <c r="H51" s="19">
         <v>25</v>
       </c>
       <c r="I51" s="19"/>
@@ -10602,7 +10656,7 @@
         <v>81</v>
       </c>
       <c r="G53" s="19"/>
-      <c r="H53" s="21">
+      <c r="H53" s="19">
         <v>25</v>
       </c>
       <c r="I53" s="19"/>
@@ -10615,7 +10669,7 @@
       <c r="H54" s="19">
         <v>50</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="19">
         <v>77.78</v>
       </c>
     </row>
@@ -10681,16 +10735,16 @@
         <v>1772.26</v>
       </c>
       <c r="G57" s="23">
-        <f>16*77.78+25*16</f>
-        <v>1644.48</v>
+        <f>17*77.78+25*16</f>
+        <v>1722.26</v>
       </c>
       <c r="H57" s="23">
-        <f>8*25+84.73*17</f>
-        <v>1640.41</v>
+        <f>11*25+84.73*17</f>
+        <v>1715.41</v>
       </c>
       <c r="I57" s="23">
-        <f>3*25+77.78*3</f>
-        <v>308.34000000000003</v>
+        <f>9*25+77.78*12</f>
+        <v>1158.3600000000001</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -10716,15 +10770,15 @@
       </c>
       <c r="G58" s="24">
         <f t="shared" si="1"/>
-        <v>0.95483840999616798</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="H58" s="24">
         <f t="shared" ref="H58:I58" si="2">H57/H56</f>
-        <v>0.95627867390303189</v>
+        <v>1</v>
       </c>
       <c r="I58" s="24">
         <f t="shared" si="2"/>
-        <v>0.17903220187428151</v>
+        <v>0.67258137563434106</v>
       </c>
     </row>
   </sheetData>
@@ -10734,10 +10788,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P98"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="V93" sqref="V93"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15631,6 +15685,156 @@
       </c>
       <c r="P98" s="8" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A99" s="14">
+        <v>45693</v>
+      </c>
+      <c r="B99" s="3">
+        <v>4</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I99" s="9">
+        <v>4</v>
+      </c>
+      <c r="J99" s="10">
+        <v>5</v>
+      </c>
+      <c r="K99" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L99" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M99" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N99" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O99" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P99" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A100" s="14">
+        <v>45693</v>
+      </c>
+      <c r="B100" s="3">
+        <v>4</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I100" s="11">
+        <v>2</v>
+      </c>
+      <c r="J100" s="2">
+        <v>4</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A101" s="14">
+        <v>45693</v>
+      </c>
+      <c r="B101" s="5">
+        <v>5</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="5">
+        <v>2</v>
+      </c>
+      <c r="J101" s="8">
+        <v>5</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N101" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O101" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -17042,11 +17246,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DDCCA6-42DC-4211-A42F-70F3625FA6AA}">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
+      <selection pane="topRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17059,7 +17263,7 @@
     <col min="13" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17105,8 +17309,11 @@
       <c r="O1" s="1">
         <v>45686</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -17119,13 +17326,16 @@
       <c r="O2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -17133,7 +17343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -17141,17 +17351,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -17174,7 +17384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -17187,8 +17397,11 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -17199,7 +17412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -17213,7 +17426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -17232,8 +17445,11 @@
       <c r="O12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -17247,7 +17463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -17273,17 +17489,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -17291,7 +17507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -17310,8 +17526,11 @@
       <c r="K18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -17351,8 +17570,11 @@
       <c r="O19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -17360,7 +17582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -17394,8 +17616,11 @@
       <c r="O21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -17426,8 +17651,11 @@
       <c r="M22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -17435,7 +17663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -17443,7 +17671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -17475,12 +17703,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -17494,7 +17722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -17502,12 +17730,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -17539,7 +17767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -17549,8 +17777,11 @@
       <c r="O31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -17561,7 +17792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -17592,8 +17823,11 @@
       <c r="M33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -17601,12 +17835,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -17644,12 +17878,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -17660,7 +17894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -17671,17 +17905,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -17689,7 +17923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -17703,7 +17937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -17746,8 +17980,11 @@
       <c r="O44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -17755,7 +17992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -17769,7 +18006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -17800,8 +18037,11 @@
       <c r="N47">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -17809,7 +18049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -17825,8 +18065,11 @@
       <c r="O49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -17840,7 +18083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -17848,7 +18091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -17885,8 +18128,11 @@
       <c r="O52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>47</v>
       </c>

--- a/data/condominio.xlsx
+++ b/data/condominio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="14_{F8FAE7CF-1AB6-449B-BC05-2BC42FEE3DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D8FF6422-6493-4E81-A46F-7571781CDA4E}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="14_{F8FAE7CF-1AB6-449B-BC05-2BC42FEE3DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9858E538-BBE7-4CEF-817D-75BA6B86B370}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,17 +22,17 @@
     <sheet name="extrato 2024" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">artilharia!$A$1:$K$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">artilharia!$A$1:$Q$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'artilharia total'!$A$1:$AI$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'extrato 2024'!$A$1:$C$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AO$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AP$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="342">
   <si>
     <t>Jogador</t>
   </si>
@@ -1048,10 +1048,16 @@
     <t>nova</t>
   </si>
   <si>
-    <t>Setembro - já pago</t>
-  </si>
-  <si>
     <t>Janeiro</t>
+  </si>
+  <si>
+    <t>Matheus</t>
+  </si>
+  <si>
+    <t>Pedro Goleiro</t>
+  </si>
+  <si>
+    <t>Pedro Augusto</t>
   </si>
 </sst>
 </file>
@@ -2107,11 +2113,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AP56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI33" sqref="AI33"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK51" sqref="AK51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2131,10 +2137,10 @@
     <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="35" width="10.5546875" customWidth="1"/>
+    <col min="28" max="36" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2240,20 +2246,23 @@
       <c r="AI1" s="1">
         <v>45693</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AJ1" s="1">
+        <v>45700</v>
+      </c>
+      <c r="AM1" t="s">
         <v>57</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>58</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>59</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2359,23 +2368,26 @@
       <c r="AI2">
         <v>6.5</v>
       </c>
-      <c r="AL2">
-        <f>COUNT(B2:AK2)</f>
-        <v>33</v>
-      </c>
-      <c r="AM2" s="18">
-        <f>AVERAGE(B2:AK2)</f>
-        <v>6.4090909090909092</v>
-      </c>
-      <c r="AN2">
-        <f>IF(AL2&gt;1,_xlfn.STDEV.S(B2:AK2),"")</f>
-        <v>0.97991186987773216</v>
+      <c r="AJ2">
+        <v>4.5</v>
+      </c>
+      <c r="AM2">
+        <f t="shared" ref="AM2:AM33" si="0">COUNT(B2:AL2)</f>
+        <v>34</v>
+      </c>
+      <c r="AN2" s="18">
+        <f t="shared" ref="AN2:AN33" si="1">AVERAGE(B2:AL2)</f>
+        <v>6.3529411764705879</v>
       </c>
       <c r="AO2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+        <f t="shared" ref="AO2:AO33" si="2">IF(AM2&gt;1,_xlfn.STDEV.S(B2:AL2),"")</f>
+        <v>1.0189820512047116</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -2481,23 +2493,26 @@
       <c r="AI3">
         <v>6.5</v>
       </c>
-      <c r="AL3">
-        <f>COUNT(B3:AK3)</f>
-        <v>32</v>
-      </c>
-      <c r="AM3" s="18">
-        <f>AVERAGE(B3:AK3)</f>
-        <v>6.75</v>
-      </c>
-      <c r="AN3">
-        <f>IF(AL3&gt;1,_xlfn.STDEV.S(B3:AK3),"")</f>
-        <v>0.71842120810709964</v>
+      <c r="AJ3">
+        <v>5.5</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AN3" s="18">
+        <f t="shared" si="1"/>
+        <v>6.7121212121212119</v>
       </c>
       <c r="AO3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0.73983003781171552</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2600,23 +2615,26 @@
       <c r="AI4">
         <v>5</v>
       </c>
-      <c r="AL4">
-        <f>COUNT(B4:AK4)</f>
-        <v>31</v>
-      </c>
-      <c r="AM4" s="18">
-        <f>AVERAGE(B4:AK4)</f>
-        <v>5.9516129032258061</v>
-      </c>
-      <c r="AN4">
-        <f>IF(AL4&gt;1,_xlfn.STDEV.S(B4:AK4),"")</f>
-        <v>0.79952943149577627</v>
+      <c r="AJ4">
+        <v>5</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AN4" s="18">
+        <f t="shared" si="1"/>
+        <v>5.921875</v>
       </c>
       <c r="AO4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0.80431673066386389</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2722,23 +2740,23 @@
       <c r="AI5">
         <v>6</v>
       </c>
-      <c r="AL5">
-        <f>COUNT(B5:AK5)</f>
+      <c r="AM5">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AM5" s="18">
-        <f>AVERAGE(B5:AK5)</f>
-        <v>6</v>
-      </c>
-      <c r="AN5">
-        <f>IF(AL5&gt;1,_xlfn.STDEV.S(B5:AK5),"")</f>
+      <c r="AN5" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="2"/>
         <v>0.61913918736689033</v>
       </c>
-      <c r="AO5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2841,23 +2859,26 @@
       <c r="AI6">
         <v>5.5</v>
       </c>
-      <c r="AL6">
-        <f>COUNT(B6:AK6)</f>
-        <v>30</v>
-      </c>
-      <c r="AM6" s="18">
-        <f>AVERAGE(B6:AK6)</f>
-        <v>6.35</v>
-      </c>
-      <c r="AN6">
-        <f>IF(AL6&gt;1,_xlfn.STDEV.S(B6:AK6),"")</f>
-        <v>0.73284989289570268</v>
+      <c r="AJ6">
+        <v>5</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AN6" s="18">
+        <f t="shared" si="1"/>
+        <v>6.306451612903226</v>
       </c>
       <c r="AO6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0.76023482506874751</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2957,23 +2978,23 @@
       <c r="AI7">
         <v>4.5</v>
       </c>
-      <c r="AL7">
-        <f>COUNT(B7:AK7)</f>
+      <c r="AM7">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AM7" s="18">
-        <f>AVERAGE(B7:AK7)</f>
+      <c r="AN7" s="18">
+        <f t="shared" si="1"/>
         <v>5.8148148148148149</v>
       </c>
-      <c r="AN7">
-        <f>IF(AL7&gt;1,_xlfn.STDEV.S(B7:AK7),"")</f>
+      <c r="AO7">
+        <f t="shared" si="2"/>
         <v>0.7739527433912532</v>
       </c>
-      <c r="AO7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3076,23 +3097,26 @@
       <c r="AI8">
         <v>5.5</v>
       </c>
-      <c r="AL8">
-        <f>COUNT(B8:AK8)</f>
-        <v>27</v>
-      </c>
-      <c r="AM8" s="18">
-        <f>AVERAGE(B8:AK8)</f>
-        <v>6.7962962962962967</v>
-      </c>
-      <c r="AN8">
-        <f>IF(AL8&gt;1,_xlfn.STDEV.S(B8:AK8),"")</f>
-        <v>0.63939964719407594</v>
+      <c r="AJ8">
+        <v>5.5</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AN8" s="18">
+        <f t="shared" si="1"/>
+        <v>6.75</v>
       </c>
       <c r="AO8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0.67357531405456339</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3195,23 +3219,26 @@
       <c r="AI9">
         <v>5.5</v>
       </c>
-      <c r="AL9">
-        <f>COUNT(B9:AK9)</f>
-        <v>26</v>
-      </c>
-      <c r="AM9" s="18">
-        <f>AVERAGE(B9:AK9)</f>
-        <v>6.6538461538461542</v>
-      </c>
-      <c r="AN9">
-        <f>IF(AL9&gt;1,_xlfn.STDEV.S(B9:AK9),"")</f>
-        <v>1.0076629473115595</v>
+      <c r="AJ9">
+        <v>5.5</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AN9" s="18">
+        <f t="shared" si="1"/>
+        <v>6.6111111111111107</v>
       </c>
       <c r="AO9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.0127393670836682</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -3311,23 +3338,26 @@
       <c r="AI10">
         <v>6.5</v>
       </c>
-      <c r="AL10">
-        <f>COUNT(B10:AK10)</f>
-        <v>25</v>
-      </c>
-      <c r="AM10" s="18">
-        <f>AVERAGE(B10:AK10)</f>
-        <v>7.52</v>
-      </c>
-      <c r="AN10">
-        <f>IF(AL10&gt;1,_xlfn.STDEV.S(B10:AK10),"")</f>
-        <v>0.98403929460836759</v>
+      <c r="AJ10">
+        <v>5.5</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AN10" s="18">
+        <f t="shared" si="1"/>
+        <v>7.4423076923076925</v>
       </c>
       <c r="AO10">
+        <f t="shared" si="2"/>
+        <v>1.0423715563744327</v>
+      </c>
+      <c r="AP10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3421,23 +3451,23 @@
       <c r="AI11">
         <v>5</v>
       </c>
-      <c r="AL11">
-        <f>COUNT(B11:AK11)</f>
+      <c r="AM11">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AM11" s="18">
-        <f>AVERAGE(B11:AK11)</f>
+      <c r="AN11" s="18">
+        <f t="shared" si="1"/>
         <v>5.9565217391304346</v>
       </c>
-      <c r="AN11">
-        <f>IF(AL11&gt;1,_xlfn.STDEV.S(B11:AK11),"")</f>
+      <c r="AO11">
+        <f t="shared" si="2"/>
         <v>0.76741957645352532</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -3540,23 +3570,23 @@
       <c r="AH12">
         <v>5</v>
       </c>
-      <c r="AL12">
-        <f>COUNT(B12:AK12)</f>
+      <c r="AM12">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AM12" s="18">
-        <f>AVERAGE(B12:AK12)</f>
+      <c r="AN12" s="18">
+        <f t="shared" si="1"/>
         <v>4.5681818181818183</v>
       </c>
-      <c r="AN12">
-        <f>IF(AL12&gt;1,_xlfn.STDEV.S(B12:AK12),"")</f>
+      <c r="AO12">
+        <f t="shared" si="2"/>
         <v>1.1881904463496311</v>
       </c>
-      <c r="AO12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3662,23 +3692,26 @@
       <c r="AI13">
         <v>6</v>
       </c>
-      <c r="AL13">
-        <f>COUNT(B13:AK13)</f>
-        <v>22</v>
-      </c>
-      <c r="AM13" s="18">
-        <f>AVERAGE(B13:AK13)</f>
-        <v>5.8636363636363633</v>
-      </c>
-      <c r="AN13">
-        <f>IF(AL13&gt;1,_xlfn.STDEV.S(B13:AK13),"")</f>
-        <v>1.1565735331842673</v>
+      <c r="AJ13">
+        <v>5.5</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AN13" s="18">
+        <f t="shared" si="1"/>
+        <v>5.8478260869565215</v>
       </c>
       <c r="AO13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.1325231545766188</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -3781,23 +3814,26 @@
       <c r="AH14">
         <v>5.5</v>
       </c>
-      <c r="AL14">
-        <f>COUNT(B14:AK14)</f>
-        <v>21</v>
-      </c>
-      <c r="AM14" s="18">
-        <f>AVERAGE(B14:AK14)</f>
-        <v>6.5714285714285712</v>
-      </c>
-      <c r="AN14">
-        <f>IF(AL14&gt;1,_xlfn.STDEV.S(B14:AK14),"")</f>
-        <v>0.65737573513391634</v>
+      <c r="AJ14">
+        <v>5.5</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AN14" s="18">
+        <f t="shared" si="1"/>
+        <v>6.5227272727272725</v>
       </c>
       <c r="AO14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0.68098795051350891</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3897,23 +3933,23 @@
       <c r="AG15">
         <v>6.5</v>
       </c>
-      <c r="AL15">
-        <f>COUNT(B15:AK15)</f>
+      <c r="AM15">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="AM15" s="18">
-        <f>AVERAGE(B15:AK15)</f>
+      <c r="AN15" s="18">
+        <f t="shared" si="1"/>
         <v>6.55</v>
       </c>
-      <c r="AN15">
-        <f>IF(AL15&gt;1,_xlfn.STDEV.S(B15:AK15),"")</f>
+      <c r="AO15">
+        <f t="shared" si="2"/>
         <v>1.050062654772262</v>
       </c>
-      <c r="AO15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4004,23 +4040,23 @@
       <c r="AD16">
         <v>6</v>
       </c>
-      <c r="AL16">
-        <f>COUNT(B16:AK16)</f>
+      <c r="AM16">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AM16" s="18">
-        <f>AVERAGE(B16:AK16)</f>
+      <c r="AN16" s="18">
+        <f t="shared" si="1"/>
         <v>6.0882352941176467</v>
       </c>
-      <c r="AN16">
-        <f>IF(AL16&gt;1,_xlfn.STDEV.S(B16:AK16),"")</f>
+      <c r="AO16">
+        <f t="shared" si="2"/>
         <v>0.71228711990072591</v>
       </c>
-      <c r="AO16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -4117,23 +4153,23 @@
       <c r="AI17">
         <v>5</v>
       </c>
-      <c r="AL17">
-        <f>COUNT(B17:AK17)</f>
+      <c r="AM17">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="AM17" s="18">
-        <f>AVERAGE(B17:AK17)</f>
+      <c r="AN17" s="18">
+        <f t="shared" si="1"/>
         <v>5.96875</v>
       </c>
-      <c r="AN17">
-        <f>IF(AL17&gt;1,_xlfn.STDEV.S(B17:AK17),"")</f>
+      <c r="AO17">
+        <f t="shared" si="2"/>
         <v>0.99110628424335334</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -4230,23 +4266,23 @@
       <c r="AG18">
         <v>7</v>
       </c>
-      <c r="AL18">
-        <f>COUNT(B18:AK18)</f>
+      <c r="AM18">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AM18" s="18">
-        <f>AVERAGE(B18:AK18)</f>
+      <c r="AN18" s="18">
+        <f t="shared" si="1"/>
         <v>6.3571428571428568</v>
       </c>
-      <c r="AN18">
-        <f>IF(AL18&gt;1,_xlfn.STDEV.S(B18:AK18),"")</f>
+      <c r="AO18">
+        <f t="shared" si="2"/>
         <v>0.77032888651964082</v>
       </c>
-      <c r="AO18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4349,23 +4385,26 @@
       <c r="AI19">
         <v>6.5</v>
       </c>
-      <c r="AL19">
-        <f>COUNT(B19:AK19)</f>
-        <v>14</v>
-      </c>
-      <c r="AM19" s="18">
-        <f>AVERAGE(B19:AK19)</f>
-        <v>6.8571428571428568</v>
-      </c>
-      <c r="AN19">
-        <f>IF(AL19&gt;1,_xlfn.STDEV.S(B19:AK19),"")</f>
-        <v>0.49724515809884695</v>
+      <c r="AJ19">
+        <v>5.5</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AN19" s="18">
+        <f t="shared" si="1"/>
+        <v>6.7666666666666666</v>
       </c>
       <c r="AO19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0.59361683970466372</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -4471,23 +4510,26 @@
       <c r="AI20">
         <v>6.5</v>
       </c>
-      <c r="AL20">
-        <f>COUNT(B20:AK20)</f>
-        <v>14</v>
-      </c>
-      <c r="AM20" s="18">
-        <f>AVERAGE(B20:AK20)</f>
-        <v>6.3214285714285712</v>
-      </c>
-      <c r="AN20">
-        <f>IF(AL20&gt;1,_xlfn.STDEV.S(B20:AK20),"")</f>
-        <v>0.82292028909111448</v>
+      <c r="AJ20">
+        <v>5</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AN20" s="18">
+        <f t="shared" si="1"/>
+        <v>6.2333333333333334</v>
       </c>
       <c r="AO20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0.86327173893165965</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -4578,23 +4620,23 @@
       <c r="AD21">
         <v>6</v>
       </c>
-      <c r="AL21">
-        <f>COUNT(B21:AK21)</f>
+      <c r="AM21">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AM21" s="18">
-        <f>AVERAGE(B21:AK21)</f>
+      <c r="AN21" s="18">
+        <f t="shared" si="1"/>
         <v>4.4615384615384617</v>
       </c>
-      <c r="AN21">
-        <f>IF(AL21&gt;1,_xlfn.STDEV.S(B21:AK21),"")</f>
+      <c r="AO21">
+        <f t="shared" si="2"/>
         <v>1.875961292039569</v>
       </c>
-      <c r="AO21">
+      <c r="AP21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -4688,23 +4730,26 @@
       <c r="AI22">
         <v>5</v>
       </c>
-      <c r="AL22">
-        <f>COUNT(B22:AK22)</f>
-        <v>12</v>
-      </c>
-      <c r="AM22" s="18">
-        <f>AVERAGE(B22:AK22)</f>
-        <v>5.708333333333333</v>
-      </c>
-      <c r="AN22">
-        <f>IF(AL22&gt;1,_xlfn.STDEV.S(B22:AK22),"")</f>
-        <v>1.1571582223339871</v>
+      <c r="AJ22">
+        <v>5</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AN22" s="18">
+        <f t="shared" si="1"/>
+        <v>5.6538461538461542</v>
       </c>
       <c r="AO22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.1251780485885956</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -4801,23 +4846,26 @@
       <c r="AI23">
         <v>5.5</v>
       </c>
-      <c r="AL23">
-        <f>COUNT(B23:AK23)</f>
-        <v>12</v>
-      </c>
-      <c r="AM23" s="18">
-        <f>AVERAGE(B23:AK23)</f>
-        <v>5.375</v>
-      </c>
-      <c r="AN23">
-        <f>IF(AL23&gt;1,_xlfn.STDEV.S(B23:AK23),"")</f>
-        <v>1.0897247358851685</v>
+      <c r="AJ23">
+        <v>3.5</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AN23" s="18">
+        <f t="shared" si="1"/>
+        <v>5.2307692307692308</v>
       </c>
       <c r="AO23">
+        <f t="shared" si="2"/>
+        <v>1.1657505560686472</v>
+      </c>
+      <c r="AP23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -4911,23 +4959,23 @@
       <c r="AG24">
         <v>6.5</v>
       </c>
-      <c r="AL24">
-        <f>COUNT(B24:AK24)</f>
+      <c r="AM24">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AM24" s="18">
-        <f>AVERAGE(B24:AK24)</f>
+      <c r="AN24" s="18">
+        <f t="shared" si="1"/>
         <v>7.1818181818181817</v>
       </c>
-      <c r="AN24">
-        <f>IF(AL24&gt;1,_xlfn.STDEV.S(B24:AK24),"")</f>
+      <c r="AO24">
+        <f t="shared" si="2"/>
         <v>1.006795095159071</v>
       </c>
-      <c r="AO24">
+      <c r="AP24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -5018,23 +5066,23 @@
       <c r="AD25" t="s">
         <v>26</v>
       </c>
-      <c r="AL25">
-        <f>COUNT(B25:AK25)</f>
+      <c r="AM25">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AM25" s="18">
-        <f>AVERAGE(B25:AK25)</f>
+      <c r="AN25" s="18">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AN25">
-        <f>IF(AL25&gt;1,_xlfn.STDEV.S(B25:AK25),"")</f>
+      <c r="AO25">
+        <f t="shared" si="2"/>
         <v>0.61237243569579447</v>
       </c>
-      <c r="AO25">
+      <c r="AP25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -5128,23 +5176,23 @@
       <c r="AH26">
         <v>4</v>
       </c>
-      <c r="AL26">
-        <f>COUNT(B26:AK26)</f>
+      <c r="AM26">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AM26" s="18">
-        <f>AVERAGE(B26:AK26)</f>
+      <c r="AN26" s="18">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AN26">
-        <f>IF(AL26&gt;1,_xlfn.STDEV.S(B26:AK26),"")</f>
+      <c r="AO26">
+        <f t="shared" si="2"/>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AO26">
+      <c r="AP26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -5241,23 +5289,26 @@
       <c r="AI27">
         <v>4</v>
       </c>
-      <c r="AL27">
-        <f>COUNT(B27:AK27)</f>
-        <v>8</v>
-      </c>
-      <c r="AM27" s="18">
-        <f>AVERAGE(B27:AK27)</f>
-        <v>5.5625</v>
-      </c>
-      <c r="AN27">
-        <f>IF(AL27&gt;1,_xlfn.STDEV.S(B27:AK27),"")</f>
-        <v>0.86344410026689877</v>
+      <c r="AJ27">
+        <v>3.5</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AN27" s="18">
+        <f t="shared" si="1"/>
+        <v>5.333333333333333</v>
       </c>
       <c r="AO27">
+        <f t="shared" si="2"/>
+        <v>1.0606601717798212</v>
+      </c>
+      <c r="AP27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -5348,23 +5399,23 @@
       <c r="AD28" t="s">
         <v>26</v>
       </c>
-      <c r="AL28">
-        <f>COUNT(B28:AK28)</f>
-        <v>7</v>
-      </c>
-      <c r="AM28" s="18">
-        <f>AVERAGE(B28:AK28)</f>
+      <c r="AM28">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AN28" s="18">
+        <f t="shared" si="1"/>
         <v>6.8571428571428568</v>
       </c>
-      <c r="AN28">
-        <f>IF(AL28&gt;1,_xlfn.STDEV.S(B28:AK28),"")</f>
+      <c r="AO28">
+        <f t="shared" si="2"/>
         <v>0.62678317052800869</v>
       </c>
-      <c r="AO28">
+      <c r="AP28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -5461,23 +5512,23 @@
       <c r="AF29">
         <v>5</v>
       </c>
-      <c r="AL29">
-        <f>COUNT(B29:AK29)</f>
-        <v>7</v>
-      </c>
-      <c r="AM29" s="18">
-        <f>AVERAGE(B29:AK29)</f>
-        <v>6</v>
-      </c>
-      <c r="AN29">
-        <f>IF(AL29&gt;1,_xlfn.STDEV.S(B29:AK29),"")</f>
+      <c r="AM29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AN29" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="2"/>
         <v>0.57735026918962573</v>
       </c>
-      <c r="AO29">
+      <c r="AP29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -5583,23 +5634,23 @@
       <c r="AI30">
         <v>5.5</v>
       </c>
-      <c r="AL30">
-        <f>COUNT(B30:AK30)</f>
-        <v>7</v>
-      </c>
-      <c r="AM30" s="18">
-        <f>AVERAGE(B30:AK30)</f>
+      <c r="AM30">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AN30" s="18">
+        <f t="shared" si="1"/>
         <v>5.7142857142857144</v>
       </c>
-      <c r="AN30">
-        <f>IF(AL30&gt;1,_xlfn.STDEV.S(B30:AK30),"")</f>
+      <c r="AO30">
+        <f t="shared" si="2"/>
         <v>0.75592894601845306</v>
       </c>
-      <c r="AO30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -5690,23 +5741,23 @@
       <c r="AD31">
         <v>6</v>
       </c>
-      <c r="AL31">
-        <f>COUNT(B31:AK31)</f>
-        <v>6</v>
-      </c>
-      <c r="AM31" s="18">
-        <f>AVERAGE(B31:AK31)</f>
+      <c r="AM31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AN31" s="18">
+        <f t="shared" si="1"/>
         <v>6.916666666666667</v>
       </c>
-      <c r="AN31">
-        <f>IF(AL31&gt;1,_xlfn.STDEV.S(B31:AK31),"")</f>
+      <c r="AO31">
+        <f t="shared" si="2"/>
         <v>0.49159604012508756</v>
       </c>
-      <c r="AO31">
+      <c r="AP31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -5803,23 +5854,26 @@
       <c r="AH32">
         <v>5</v>
       </c>
-      <c r="AL32">
-        <f>COUNT(B32:AK32)</f>
-        <v>6</v>
-      </c>
-      <c r="AM32" s="18">
-        <f>AVERAGE(B32:AK32)</f>
-        <v>4.916666666666667</v>
-      </c>
-      <c r="AN32">
-        <f>IF(AL32&gt;1,_xlfn.STDEV.S(B32:AK32),"")</f>
-        <v>1.2006942436218593</v>
+      <c r="AJ32">
+        <v>4.5</v>
+      </c>
+      <c r="AM32">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AN32" s="18">
+        <f t="shared" si="1"/>
+        <v>4.8571428571428568</v>
       </c>
       <c r="AO32">
+        <f t="shared" si="2"/>
+        <v>1.1073348527841418</v>
+      </c>
+      <c r="AP32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -5910,23 +5964,23 @@
       <c r="AD33" t="s">
         <v>26</v>
       </c>
-      <c r="AL33">
-        <f>COUNT(B33:AK33)</f>
+      <c r="AM33">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AM33" s="18">
-        <f>AVERAGE(B33:AK33)</f>
+      <c r="AN33" s="18">
+        <f t="shared" si="1"/>
         <v>7.625</v>
       </c>
-      <c r="AN33">
-        <f>IF(AL33&gt;1,_xlfn.STDEV.S(B33:AK33),"")</f>
+      <c r="AO33">
+        <f t="shared" si="2"/>
         <v>0.62915286960589578</v>
       </c>
-      <c r="AO33">
+      <c r="AP33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -6017,23 +6071,23 @@
       <c r="AD34" t="s">
         <v>26</v>
       </c>
-      <c r="AL34">
-        <f>COUNT(B34:AK34)</f>
+      <c r="AM34">
+        <f t="shared" ref="AM34:AM53" si="3">COUNT(B34:AL34)</f>
         <v>4</v>
       </c>
-      <c r="AM34" s="18">
-        <f>AVERAGE(B34:AK34)</f>
-        <v>6</v>
-      </c>
-      <c r="AN34">
-        <f>IF(AL34&gt;1,_xlfn.STDEV.S(B34:AK34),"")</f>
+      <c r="AN34" s="18">
+        <f t="shared" ref="AN34:AN53" si="4">AVERAGE(B34:AL34)</f>
+        <v>6</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" ref="AO34:AO53" si="5">IF(AM34&gt;1,_xlfn.STDEV.S(B34:AL34),"")</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AO34">
+      <c r="AP34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -6124,23 +6178,23 @@
       <c r="AD35" t="s">
         <v>26</v>
       </c>
-      <c r="AL35">
-        <f>COUNT(B35:AK35)</f>
+      <c r="AM35">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AM35" s="18">
-        <f>AVERAGE(B35:AK35)</f>
+      <c r="AN35" s="18">
+        <f t="shared" si="4"/>
         <v>6.833333333333333</v>
       </c>
-      <c r="AN35">
-        <f>IF(AL35&gt;1,_xlfn.STDEV.S(B35:AK35),"")</f>
+      <c r="AO35">
+        <f t="shared" si="5"/>
         <v>0.76376261582597338</v>
       </c>
-      <c r="AO35">
+      <c r="AP35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -6231,23 +6285,23 @@
       <c r="AD36" t="s">
         <v>26</v>
       </c>
-      <c r="AL36">
-        <f>COUNT(B36:AK36)</f>
+      <c r="AM36">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AM36" s="18">
-        <f>AVERAGE(B36:AK36)</f>
+      <c r="AN36" s="18">
+        <f t="shared" si="4"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="AN36">
-        <f>IF(AL36&gt;1,_xlfn.STDEV.S(B36:AK36),"")</f>
+      <c r="AO36">
+        <f t="shared" si="5"/>
         <v>1.1547005383792526</v>
       </c>
-      <c r="AO36">
+      <c r="AP36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -6338,23 +6392,23 @@
       <c r="AD37" t="s">
         <v>26</v>
       </c>
-      <c r="AL37">
-        <f>COUNT(B37:AK37)</f>
+      <c r="AM37">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AM37" s="18">
-        <f>AVERAGE(B37:AK37)</f>
+      <c r="AN37" s="18">
+        <f t="shared" si="4"/>
         <v>4.833333333333333</v>
       </c>
-      <c r="AN37">
-        <f>IF(AL37&gt;1,_xlfn.STDEV.S(B37:AK37),"")</f>
+      <c r="AO37">
+        <f t="shared" si="5"/>
         <v>0.57735026918962584</v>
       </c>
-      <c r="AO37">
+      <c r="AP37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -6445,23 +6499,23 @@
       <c r="AD38" t="s">
         <v>26</v>
       </c>
-      <c r="AL38">
-        <f>COUNT(B38:AK38)</f>
+      <c r="AM38">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AM38" s="18">
-        <f>AVERAGE(B38:AK38)</f>
+      <c r="AN38" s="18">
+        <f t="shared" si="4"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="AN38">
-        <f>IF(AL38&gt;1,_xlfn.STDEV.S(B38:AK38),"")</f>
+      <c r="AO38">
+        <f t="shared" si="5"/>
         <v>0.28867513459481287</v>
       </c>
-      <c r="AO38">
+      <c r="AP38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -6555,23 +6609,23 @@
       <c r="AE39">
         <v>1.5</v>
       </c>
-      <c r="AL39">
-        <f>COUNT(B39:AK39)</f>
+      <c r="AM39">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AM39" s="18">
-        <f>AVERAGE(B39:AK39)</f>
+      <c r="AN39" s="18">
+        <f t="shared" si="4"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="AN39">
-        <f>IF(AL39&gt;1,_xlfn.STDEV.S(B39:AK39),"")</f>
+      <c r="AO39">
+        <f t="shared" si="5"/>
         <v>1.0408329997330663</v>
       </c>
-      <c r="AO39">
+      <c r="AP39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -6668,23 +6722,23 @@
       <c r="AF40">
         <v>9</v>
       </c>
-      <c r="AL40">
-        <f>COUNT(B40:AK40)</f>
+      <c r="AM40">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AM40" s="18">
-        <f>AVERAGE(B40:AK40)</f>
+      <c r="AN40" s="18">
+        <f t="shared" si="4"/>
         <v>7.666666666666667</v>
       </c>
-      <c r="AN40">
-        <f>IF(AL40&gt;1,_xlfn.STDEV.S(B40:AK40),"")</f>
+      <c r="AO40">
+        <f t="shared" si="5"/>
         <v>1.1547005383792495</v>
       </c>
-      <c r="AO40">
+      <c r="AP40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -6778,23 +6832,23 @@
       <c r="AG41">
         <v>2.5</v>
       </c>
-      <c r="AL41">
-        <f>COUNT(B41:AK41)</f>
+      <c r="AM41">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AM41" s="18">
-        <f>AVERAGE(B41:AK41)</f>
+      <c r="AN41" s="18">
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="AN41">
-        <f>IF(AL41&gt;1,_xlfn.STDEV.S(B41:AK41),"")</f>
+      <c r="AO41">
+        <f t="shared" si="5"/>
         <v>1.7320508075688772</v>
       </c>
-      <c r="AO41">
+      <c r="AP41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -6885,23 +6939,23 @@
       <c r="AD42">
         <v>7.5</v>
       </c>
-      <c r="AL42">
-        <f>COUNT(B42:AK42)</f>
-        <v>2</v>
-      </c>
-      <c r="AM42" s="18">
-        <f>AVERAGE(B42:AK42)</f>
+      <c r="AM42">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AN42" s="18">
+        <f t="shared" si="4"/>
         <v>7.25</v>
       </c>
-      <c r="AN42">
-        <f>IF(AL42&gt;1,_xlfn.STDEV.S(B42:AK42),"")</f>
+      <c r="AO42">
+        <f t="shared" si="5"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AO42">
+      <c r="AP42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -6992,23 +7046,23 @@
       <c r="AD43" t="s">
         <v>26</v>
       </c>
-      <c r="AL43">
-        <f>COUNT(B43:AK43)</f>
-        <v>2</v>
-      </c>
-      <c r="AM43" s="18">
-        <f>AVERAGE(B43:AK43)</f>
+      <c r="AM43">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AN43" s="18">
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="AN43">
-        <f>IF(AL43&gt;1,_xlfn.STDEV.S(B43:AK43),"")</f>
+      <c r="AO43">
+        <f t="shared" si="5"/>
         <v>1.4142135623730951</v>
       </c>
-      <c r="AO43">
+      <c r="AP43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -7099,23 +7153,23 @@
       <c r="AD44" t="s">
         <v>26</v>
       </c>
-      <c r="AL44">
-        <f>COUNT(B44:AK44)</f>
-        <v>2</v>
-      </c>
-      <c r="AM44" s="18">
-        <f>AVERAGE(B44:AK44)</f>
-        <v>2</v>
-      </c>
-      <c r="AN44">
-        <f>IF(AL44&gt;1,_xlfn.STDEV.S(B44:AK44),"")</f>
+      <c r="AM44">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AN44" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AO44">
+        <f t="shared" si="5"/>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AO44">
+      <c r="AP44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -7209,23 +7263,23 @@
       <c r="AG45">
         <v>5</v>
       </c>
-      <c r="AL45">
-        <f>COUNT(B45:AK45)</f>
-        <v>2</v>
-      </c>
-      <c r="AM45" s="18">
-        <f>AVERAGE(B45:AK45)</f>
+      <c r="AM45">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AN45" s="18">
+        <f t="shared" si="4"/>
         <v>5.25</v>
       </c>
-      <c r="AN45">
-        <f>IF(AL45&gt;1,_xlfn.STDEV.S(B45:AK45),"")</f>
+      <c r="AO45">
+        <f t="shared" si="5"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AO45">
+      <c r="AP45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -7316,23 +7370,23 @@
       <c r="AD46">
         <v>9</v>
       </c>
-      <c r="AL46">
-        <f>COUNT(B46:AK46)</f>
-        <v>1</v>
-      </c>
-      <c r="AM46" s="18">
-        <f>AVERAGE(B46:AK46)</f>
+      <c r="AM46">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AN46" s="18">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AN46" t="str">
-        <f>IF(AL46&gt;1,_xlfn.STDEV.S(B46:AK46),"")</f>
+      <c r="AO46" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AO46">
+      <c r="AP46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -7423,23 +7477,23 @@
       <c r="AD47" t="s">
         <v>26</v>
       </c>
-      <c r="AL47">
-        <f>COUNT(B47:AK47)</f>
-        <v>1</v>
-      </c>
-      <c r="AM47" s="18">
-        <f>AVERAGE(B47:AK47)</f>
-        <v>7</v>
-      </c>
-      <c r="AN47" t="str">
-        <f>IF(AL47&gt;1,_xlfn.STDEV.S(B47:AK47),"")</f>
+      <c r="AM47">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AN47" s="18">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AO47" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AO47">
+      <c r="AP47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -7527,23 +7581,23 @@
       <c r="AD48" t="s">
         <v>26</v>
       </c>
-      <c r="AL48">
-        <f>COUNT(B48:AK48)</f>
-        <v>1</v>
-      </c>
-      <c r="AM48" s="18">
-        <f>AVERAGE(B48:AK48)</f>
-        <v>7</v>
-      </c>
-      <c r="AN48" t="str">
-        <f>IF(AL48&gt;1,_xlfn.STDEV.S(B48:AK48),"")</f>
+      <c r="AM48">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AN48" s="18">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AO48" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AO48">
+      <c r="AP48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -7634,23 +7688,23 @@
       <c r="AD49" t="s">
         <v>26</v>
       </c>
-      <c r="AL49">
-        <f>COUNT(B49:AK49)</f>
-        <v>1</v>
-      </c>
-      <c r="AM49" s="18">
-        <f>AVERAGE(B49:AK49)</f>
-        <v>7</v>
-      </c>
-      <c r="AN49" t="str">
-        <f>IF(AL49&gt;1,_xlfn.STDEV.S(B49:AK49),"")</f>
+      <c r="AM49">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AN49" s="18">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AO49" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AO49">
+      <c r="AP49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -7741,23 +7795,23 @@
       <c r="AD50" t="s">
         <v>26</v>
       </c>
-      <c r="AL50">
-        <f>COUNT(B50:AK50)</f>
-        <v>1</v>
-      </c>
-      <c r="AM50" s="18">
-        <f>AVERAGE(B50:AK50)</f>
-        <v>6</v>
-      </c>
-      <c r="AN50" t="str">
-        <f>IF(AL50&gt;1,_xlfn.STDEV.S(B50:AK50),"")</f>
+      <c r="AM50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AN50" s="18">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AO50" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AO50">
+      <c r="AP50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -7848,23 +7902,23 @@
       <c r="AD51" t="s">
         <v>26</v>
       </c>
-      <c r="AL51">
-        <f>COUNT(B51:AK51)</f>
-        <v>1</v>
-      </c>
-      <c r="AM51" s="18">
-        <f>AVERAGE(B51:AK51)</f>
+      <c r="AM51">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AN51" s="18">
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="AN51" t="str">
-        <f>IF(AL51&gt;1,_xlfn.STDEV.S(B51:AK51),"")</f>
+      <c r="AO51" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AO51">
+      <c r="AP51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -7955,23 +8009,23 @@
       <c r="AD52" t="s">
         <v>26</v>
       </c>
-      <c r="AL52">
-        <f>COUNT(B52:AK52)</f>
-        <v>1</v>
-      </c>
-      <c r="AM52" s="18">
-        <f>AVERAGE(B52:AK52)</f>
+      <c r="AM52">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AN52" s="18">
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="AN52" t="str">
-        <f>IF(AL52&gt;1,_xlfn.STDEV.S(B52:AK52),"")</f>
+      <c r="AO52" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AO52">
+      <c r="AP52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -8062,29 +8116,98 @@
       <c r="AD53" t="s">
         <v>26</v>
       </c>
-      <c r="AL53">
-        <f>COUNT(B53:AK53)</f>
-        <v>1</v>
-      </c>
-      <c r="AM53" s="18">
-        <f>AVERAGE(B53:AK53)</f>
+      <c r="AM53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AN53" s="18">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="AN53" t="str">
-        <f>IF(AL53&gt;1,_xlfn.STDEV.S(B53:AK53),"")</f>
+      <c r="AO53" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AO53">
+      <c r="AP53">
         <v>0</v>
       </c>
     </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ54">
+        <v>5</v>
+      </c>
+      <c r="AM54">
+        <f t="shared" ref="AM54:AM56" si="6">COUNT(B54:AL54)</f>
+        <v>1</v>
+      </c>
+      <c r="AN54" s="18">
+        <f t="shared" ref="AN54:AN56" si="7">AVERAGE(B54:AL54)</f>
+        <v>5</v>
+      </c>
+      <c r="AO54" t="str">
+        <f t="shared" ref="AO54:AO56" si="8">IF(AM54&gt;1,_xlfn.STDEV.S(B54:AL54),"")</f>
+        <v/>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>340</v>
+      </c>
+      <c r="AJ55">
+        <v>7</v>
+      </c>
+      <c r="AM55">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AN55" s="18">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AO55" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>339</v>
+      </c>
+      <c r="AJ56">
+        <v>4.5</v>
+      </c>
+      <c r="AM56">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AN56" s="18">
+        <f t="shared" si="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="AO56" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AO54" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
-    <sortState ref="A2:AO53">
-      <sortCondition descending="1" ref="AL1:AL54"/>
+  <autoFilter ref="A1:AP54" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
+    <sortState ref="A2:AP53">
+      <sortCondition descending="1" ref="AM1:AM54"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="AA2:AJ38">
+  <conditionalFormatting sqref="AA2:AK38">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -8096,7 +8219,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AL39">
+  <conditionalFormatting sqref="AM2:AM39">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -8108,7 +8231,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN2:AN39">
+  <conditionalFormatting sqref="AO2:AO39">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -8120,7 +8243,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL40:AL42">
+  <conditionalFormatting sqref="AM40:AM42">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -8132,7 +8255,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN40:AN42">
+  <conditionalFormatting sqref="AO40:AO42">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -8144,7 +8267,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AJ47">
+  <conditionalFormatting sqref="AA2:AK47">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -8156,7 +8279,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AL42">
+  <conditionalFormatting sqref="AM2:AM42">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -8168,7 +8291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AM39">
+  <conditionalFormatting sqref="AN2:AN39">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -8180,7 +8303,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM40:AM42">
+  <conditionalFormatting sqref="AN40:AN42">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -8192,7 +8315,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AM42">
+  <conditionalFormatting sqref="AN2:AN42">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -8204,7 +8327,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AJ42">
+  <conditionalFormatting sqref="AA2:AK42">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -8216,7 +8339,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL45 AL43 AL47">
+  <conditionalFormatting sqref="AM45 AM43 AM47">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -8228,7 +8351,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN45 AN43 AN47">
+  <conditionalFormatting sqref="AO45 AO43 AO47">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -8240,7 +8363,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL45">
+  <conditionalFormatting sqref="AM45">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -8252,7 +8375,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM45 AM43 AM47">
+  <conditionalFormatting sqref="AN45 AN43 AN47">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -8264,7 +8387,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM45">
+  <conditionalFormatting sqref="AN45">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -8276,7 +8399,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL46 AL44 AL48:AL53">
+  <conditionalFormatting sqref="AM44 AM46 AM48:AM56">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -8288,7 +8411,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN46 AN44 AN48:AN53">
+  <conditionalFormatting sqref="AO46 AO44 AO48:AO56">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -8300,7 +8423,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL46">
+  <conditionalFormatting sqref="AM46">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -8312,7 +8435,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM46 AM44 AM48:AM53">
+  <conditionalFormatting sqref="AN44 AN46 AN48:AN56">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -8324,7 +8447,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM46">
+  <conditionalFormatting sqref="AN46">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -8336,7 +8459,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AI44">
+  <conditionalFormatting sqref="AA2:AJ44">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -8384,7 +8507,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AI49 AB51:AI51 AD53:AI53">
+  <conditionalFormatting sqref="B2:AJ49 AB51:AJ51 AD53:AJ53">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8396,7 +8519,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AL53">
+  <conditionalFormatting sqref="AM2:AM56">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -8408,7 +8531,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AM53">
+  <conditionalFormatting sqref="AN2:AN56">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8420,7 +8543,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AI53">
+  <conditionalFormatting sqref="B2:AJ53">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9500,10 +9623,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A044468-5FF9-485E-BCBE-2F73FE35F0BA}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9512,11 +9635,10 @@
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="9" width="15.88671875" style="22" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>69</v>
       </c>
@@ -9539,13 +9661,10 @@
         <v>331</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="J1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9575,7 +9694,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9604,10 +9723,9 @@
       <c r="I3" s="21">
         <v>77.78</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="L3" s="20"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9633,7 +9751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9662,10 +9780,10 @@
       <c r="I5" s="21">
         <v>77.78</v>
       </c>
+      <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9692,9 +9810,8 @@
       <c r="I6" s="19">
         <v>50</v>
       </c>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9722,7 +9839,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9744,7 +9861,7 @@
       </c>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9770,11 +9887,11 @@
       <c r="H9" s="19">
         <v>84.73</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="19">
         <v>77.78</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9804,7 +9921,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -9834,7 +9951,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -9864,7 +9981,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -9894,7 +10011,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -9924,7 +10041,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -9954,7 +10071,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -9984,7 +10101,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -10012,7 +10129,7 @@
       </c>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -10042,7 +10159,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -10067,7 +10184,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -10089,7 +10206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -10112,7 +10229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -10129,7 +10246,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -10146,7 +10263,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -10174,9 +10291,8 @@
       <c r="I24" s="19">
         <v>77.78</v>
       </c>
-      <c r="J24" s="19"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -10194,9 +10310,8 @@
       <c r="I25" s="19">
         <v>25</v>
       </c>
-      <c r="J25" s="19"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -10216,9 +10331,8 @@
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -10236,9 +10350,8 @@
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -10251,20 +10364,17 @@
       <c r="D28" s="19">
         <v>100</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="19">
         <v>25</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="21">
+      <c r="I28" s="19">
         <v>25</v>
       </c>
-      <c r="J28" s="19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -10282,7 +10392,7 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -10304,7 +10414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -10318,7 +10428,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -10340,7 +10450,7 @@
       </c>
       <c r="I32" s="19"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -10357,9 +10467,8 @@
       <c r="I33" s="19">
         <v>25</v>
       </c>
-      <c r="J33" s="19"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -10375,7 +10484,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -10391,7 +10500,7 @@
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -10407,7 +10516,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -10429,7 +10538,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -10445,7 +10554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -10463,11 +10572,11 @@
       <c r="H39" s="19">
         <v>84.73</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="19">
         <v>77.78</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -10483,7 +10592,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -10499,7 +10608,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -10519,7 +10628,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -10533,7 +10642,7 @@
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -10553,7 +10662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -10567,7 +10676,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -10581,7 +10690,7 @@
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -10595,7 +10704,7 @@
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -10647,7 +10756,7 @@
       <c r="H52" s="19">
         <v>25</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="19">
         <v>50</v>
       </c>
     </row>
@@ -10727,8 +10836,8 @@
         <v>1704.28</v>
       </c>
       <c r="E57" s="20">
-        <f>14*25+77.78*17</f>
-        <v>1672.26</v>
+        <f>15*25+77.78*17</f>
+        <v>1697.26</v>
       </c>
       <c r="F57" s="20">
         <f>18*25+77.78*17</f>
@@ -10743,8 +10852,8 @@
         <v>1715.41</v>
       </c>
       <c r="I57" s="23">
-        <f>9*25+77.78*12</f>
-        <v>1158.3600000000001</v>
+        <f>12*25+77.78*14</f>
+        <v>1388.92</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -10762,7 +10871,7 @@
       </c>
       <c r="E58" s="24">
         <f t="shared" si="1"/>
-        <v>0.98527037696051278</v>
+        <v>1</v>
       </c>
       <c r="F58" s="24">
         <f t="shared" si="1"/>
@@ -10778,7 +10887,7 @@
       </c>
       <c r="I58" s="24">
         <f t="shared" si="2"/>
-        <v>0.67258137563434106</v>
+        <v>0.80645198750479041</v>
       </c>
     </row>
   </sheetData>
@@ -10788,10 +10897,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15835,6 +15944,156 @@
       </c>
       <c r="P101" s="8" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A102" s="14">
+        <v>45700</v>
+      </c>
+      <c r="B102" s="3">
+        <v>4</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" s="9">
+        <v>3</v>
+      </c>
+      <c r="J102" s="10">
+        <v>3</v>
+      </c>
+      <c r="K102" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L102" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M102" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="N102" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O102" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A103" s="14">
+        <v>45700</v>
+      </c>
+      <c r="B103" s="3">
+        <v>5</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" s="11">
+        <v>4</v>
+      </c>
+      <c r="J103" s="2">
+        <v>4</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P103" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A104" s="14">
+        <v>45700</v>
+      </c>
+      <c r="B104" s="5">
+        <v>4</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I104" s="5">
+        <v>2</v>
+      </c>
+      <c r="J104" s="8">
+        <v>3</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L104" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M104" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N104" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O104" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P104" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -17246,11 +17505,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DDCCA6-42DC-4211-A42F-70F3625FA6AA}">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P1" sqref="P1"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17261,9 +17520,10 @@
     <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17312,8 +17572,11 @@
       <c r="P1" s="1">
         <v>45693</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="1">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -17330,12 +17593,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -17343,7 +17606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -17351,17 +17614,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -17384,7 +17647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -17401,7 +17664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -17412,7 +17675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -17426,7 +17689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -17449,7 +17712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -17463,7 +17726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -17488,18 +17751,21 @@
       <c r="O14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -17507,7 +17773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -17530,7 +17796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -17574,7 +17840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -17582,7 +17848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -17619,8 +17885,11 @@
       <c r="P21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -17654,8 +17923,11 @@
       <c r="P22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -17663,7 +17935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -17671,7 +17943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -17703,12 +17975,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -17722,7 +17994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -17730,417 +18002,453 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>10</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
         <v>3</v>
       </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>46</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="O31">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="O32">
         <v>3</v>
       </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>3</v>
       </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>56</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>3</v>
       </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>60</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>55</v>
       </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
         <v>3</v>
       </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
         <v>3</v>
       </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="M36">
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="M39">
         <v>3</v>
       </c>
-      <c r="N36">
+      <c r="N39">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>81</v>
       </c>
-      <c r="G38">
+      <c r="G41">
         <v>3</v>
       </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>63</v>
       </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="N42">
+      <c r="N45">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>8</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>82</v>
       </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-      <c r="I44">
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
         <v>3</v>
       </c>
-      <c r="J44">
+      <c r="J47">
         <v>4</v>
       </c>
-      <c r="L44">
+      <c r="L47">
         <v>4</v>
       </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>2</v>
-      </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>85</v>
       </c>
-      <c r="K46">
+      <c r="K49">
         <v>4</v>
       </c>
-      <c r="L46">
-        <v>2</v>
-      </c>
-      <c r="M46">
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>5</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
         <v>3</v>
       </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-      <c r="G47">
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
         <v>3</v>
       </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="M47">
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="M50">
         <v>4</v>
       </c>
-      <c r="N47">
-        <v>6</v>
-      </c>
-      <c r="P47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="N50">
+        <v>6</v>
+      </c>
+      <c r="P50">
+        <v>2</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>45</v>
       </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>23</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
         <v>3</v>
       </c>
-      <c r="O49">
-        <v>2</v>
-      </c>
-      <c r="P49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>2</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>17</v>
       </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>86</v>
       </c>
-      <c r="K51">
+      <c r="K54">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>16</v>
       </c>
-      <c r="C52">
+      <c r="C55">
         <v>4</v>
       </c>
-      <c r="D52">
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-      <c r="G52">
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
         <v>5</v>
       </c>
-      <c r="H52">
+      <c r="H55">
         <v>3</v>
       </c>
-      <c r="I52">
-        <v>2</v>
-      </c>
-      <c r="J52">
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
         <v>5</v>
       </c>
-      <c r="K52">
+      <c r="K55">
         <v>3</v>
       </c>
-      <c r="L52">
-        <v>2</v>
-      </c>
-      <c r="M52">
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
         <v>3</v>
       </c>
-      <c r="O52">
+      <c r="O55">
         <v>5</v>
       </c>
-      <c r="P52">
+      <c r="P55">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="Q55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K51" xr:uid="{5167CA1B-91AA-4363-B433-E3207EDE53DF}">
-    <sortState ref="A2:K53">
-      <sortCondition ref="A1:A51"/>
+  <autoFilter ref="A1:Q55" xr:uid="{9919274B-1AF9-4264-8D2F-634AEA90C214}">
+    <sortState ref="A2:Q56">
+      <sortCondition ref="A1:A55"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/condominio.xlsx
+++ b/data/condominio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="14_{F8FAE7CF-1AB6-449B-BC05-2BC42FEE3DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9858E538-BBE7-4CEF-817D-75BA6B86B370}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="14_{F8FAE7CF-1AB6-449B-BC05-2BC42FEE3DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DF9CCED0-A8C2-41F5-8887-2406E1FE7F82}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notas" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">artilharia!$A$1:$Q$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'artilharia total'!$A$1:$AI$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'extrato 2024'!$A$1:$C$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AP$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AQ$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2901" uniqueCount="342">
   <si>
     <t>Jogador</t>
   </si>
@@ -2113,11 +2113,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP56"/>
+  <dimension ref="A1:AS56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK51" sqref="AK51"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK5" sqref="AK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2137,10 +2137,10 @@
     <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="36" width="10.5546875" customWidth="1"/>
+    <col min="28" max="37" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2249,20 +2249,23 @@
       <c r="AJ1" s="1">
         <v>45700</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AK1" s="1">
+        <v>45707</v>
+      </c>
+      <c r="AN1" t="s">
         <v>57</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>58</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>59</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2371,23 +2374,30 @@
       <c r="AJ2">
         <v>4.5</v>
       </c>
-      <c r="AM2">
-        <f t="shared" ref="AM2:AM33" si="0">COUNT(B2:AL2)</f>
-        <v>34</v>
-      </c>
-      <c r="AN2" s="18">
-        <f t="shared" ref="AN2:AN33" si="1">AVERAGE(B2:AL2)</f>
-        <v>6.3529411764705879</v>
-      </c>
-      <c r="AO2">
-        <f t="shared" ref="AO2:AO33" si="2">IF(AM2&gt;1,_xlfn.STDEV.S(B2:AL2),"")</f>
-        <v>1.0189820512047116</v>
+      <c r="AK2">
+        <v>5</v>
+      </c>
+      <c r="AN2">
+        <f t="shared" ref="AN2:AN33" si="0">COUNT(B2:AM2)</f>
+        <v>35</v>
+      </c>
+      <c r="AO2" s="18">
+        <f t="shared" ref="AO2:AO33" si="1">AVERAGE(B2:AM2)</f>
+        <v>6.3142857142857141</v>
       </c>
       <c r="AP2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+        <f t="shared" ref="AP2:AP33" si="2">IF(AN2&gt;1,_xlfn.STDEV.S(B2:AM2),"")</f>
+        <v>1.029603823620254</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <f>AVERAGE(AI2:AK2)</f>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -2496,389 +2506,414 @@
       <c r="AJ3">
         <v>5.5</v>
       </c>
-      <c r="AM3">
+      <c r="AK3">
+        <v>6.5</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AO3" s="18">
+        <f t="shared" si="1"/>
+        <v>6.7058823529411766</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" si="2"/>
+        <v>0.72944195210950447</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" ref="AS3:AS39" si="3">AVERAGE(AI3:AK3)</f>
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5.5</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>5.5</v>
+      </c>
+      <c r="F4">
+        <v>5.5</v>
+      </c>
+      <c r="G4">
+        <v>5.5</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>5.5</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>5.5</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>4.5</v>
+      </c>
+      <c r="Q4">
+        <v>5.5</v>
+      </c>
+      <c r="R4">
+        <v>5.5</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>5.5</v>
+      </c>
+      <c r="U4">
+        <v>7</v>
+      </c>
+      <c r="V4">
+        <v>7</v>
+      </c>
+      <c r="W4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4">
+        <v>6</v>
+      </c>
+      <c r="Y4">
+        <v>7</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4">
+        <v>6</v>
+      </c>
+      <c r="AB4">
+        <v>6</v>
+      </c>
+      <c r="AC4">
+        <v>5.5</v>
+      </c>
+      <c r="AD4">
+        <v>6</v>
+      </c>
+      <c r="AE4">
+        <v>6.5</v>
+      </c>
+      <c r="AF4">
+        <v>5</v>
+      </c>
+      <c r="AH4">
+        <v>6.5</v>
+      </c>
+      <c r="AI4">
+        <v>5</v>
+      </c>
+      <c r="AJ4">
+        <v>5</v>
+      </c>
+      <c r="AK4">
+        <v>5</v>
+      </c>
+      <c r="AN4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AN3" s="18">
+      <c r="AO4" s="18">
         <f t="shared" si="1"/>
-        <v>6.7121212121212119</v>
-      </c>
-      <c r="AO3">
+        <v>5.8939393939393936</v>
+      </c>
+      <c r="AP4">
         <f t="shared" si="2"/>
-        <v>0.73983003781171552</v>
-      </c>
-      <c r="AP3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
+        <v>0.80775127434880889</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="B5">
+        <v>4.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
         <v>5.5</v>
       </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
         <v>5.5</v>
       </c>
-      <c r="F4">
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
         <v>5.5</v>
       </c>
-      <c r="G4">
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5">
         <v>5.5</v>
       </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4">
+      <c r="P5">
         <v>5.5</v>
       </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="L4">
+      <c r="Q5">
+        <v>7</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>7</v>
+      </c>
+      <c r="U5">
+        <v>6</v>
+      </c>
+      <c r="V5">
         <v>5.5</v>
       </c>
-      <c r="M4">
-        <v>7</v>
-      </c>
-      <c r="N4">
-        <v>7</v>
-      </c>
-      <c r="O4">
-        <v>7</v>
-      </c>
-      <c r="P4">
+      <c r="W5">
+        <v>5.5</v>
+      </c>
+      <c r="X5">
+        <v>6</v>
+      </c>
+      <c r="Y5">
+        <v>5.5</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA5">
+        <v>7</v>
+      </c>
+      <c r="AB5">
+        <v>6</v>
+      </c>
+      <c r="AC5">
+        <v>6</v>
+      </c>
+      <c r="AD5">
+        <v>6</v>
+      </c>
+      <c r="AE5">
+        <v>6.5</v>
+      </c>
+      <c r="AF5">
+        <v>6</v>
+      </c>
+      <c r="AG5">
+        <v>6</v>
+      </c>
+      <c r="AH5">
+        <v>5</v>
+      </c>
+      <c r="AI5">
+        <v>6</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AO5" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="2"/>
+        <v>0.61913918736689033</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>7.5</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>7.5</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>5.5</v>
+      </c>
+      <c r="N6">
+        <v>5.5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="Q6">
         <v>4.5</v>
       </c>
-      <c r="Q4">
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <v>7</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <v>7</v>
+      </c>
+      <c r="V6">
+        <v>6</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
         <v>5.5</v>
       </c>
-      <c r="R4">
+      <c r="Y6">
+        <v>6</v>
+      </c>
+      <c r="Z6">
+        <v>6</v>
+      </c>
+      <c r="AA6">
+        <v>7</v>
+      </c>
+      <c r="AB6">
         <v>5.5</v>
       </c>
-      <c r="S4">
-        <v>7</v>
-      </c>
-      <c r="T4">
+      <c r="AC6">
+        <v>6</v>
+      </c>
+      <c r="AD6">
+        <v>7</v>
+      </c>
+      <c r="AE6">
+        <v>6</v>
+      </c>
+      <c r="AF6">
+        <v>6</v>
+      </c>
+      <c r="AG6">
+        <v>6.5</v>
+      </c>
+      <c r="AI6">
         <v>5.5</v>
       </c>
-      <c r="U4">
-        <v>7</v>
-      </c>
-      <c r="V4">
-        <v>7</v>
-      </c>
-      <c r="W4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X4">
-        <v>6</v>
-      </c>
-      <c r="Y4">
-        <v>7</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA4">
-        <v>6</v>
-      </c>
-      <c r="AB4">
-        <v>6</v>
-      </c>
-      <c r="AC4">
+      <c r="AJ6">
+        <v>5</v>
+      </c>
+      <c r="AK6">
         <v>5.5</v>
       </c>
-      <c r="AD4">
-        <v>6</v>
-      </c>
-      <c r="AE4">
-        <v>6.5</v>
-      </c>
-      <c r="AF4">
-        <v>5</v>
-      </c>
-      <c r="AH4">
-        <v>6.5</v>
-      </c>
-      <c r="AI4">
-        <v>5</v>
-      </c>
-      <c r="AJ4">
-        <v>5</v>
-      </c>
-      <c r="AM4">
+      <c r="AN6">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AN4" s="18">
+      <c r="AO6" s="18">
         <f t="shared" si="1"/>
-        <v>5.921875</v>
-      </c>
-      <c r="AO4">
+        <v>6.28125</v>
+      </c>
+      <c r="AP6">
         <f t="shared" si="2"/>
-        <v>0.80431673066386389</v>
-      </c>
-      <c r="AP4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4.5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>5.5</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>5.5</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>5.5</v>
-      </c>
-      <c r="L5">
-        <v>7</v>
-      </c>
-      <c r="M5">
-        <v>6</v>
-      </c>
-      <c r="N5">
-        <v>7</v>
-      </c>
-      <c r="O5">
-        <v>5.5</v>
-      </c>
-      <c r="P5">
-        <v>5.5</v>
-      </c>
-      <c r="Q5">
-        <v>7</v>
-      </c>
-      <c r="R5">
-        <v>6</v>
-      </c>
-      <c r="S5">
-        <v>6</v>
-      </c>
-      <c r="T5">
-        <v>7</v>
-      </c>
-      <c r="U5">
-        <v>6</v>
-      </c>
-      <c r="V5">
-        <v>5.5</v>
-      </c>
-      <c r="W5">
-        <v>5.5</v>
-      </c>
-      <c r="X5">
-        <v>6</v>
-      </c>
-      <c r="Y5">
-        <v>5.5</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA5">
-        <v>7</v>
-      </c>
-      <c r="AB5">
-        <v>6</v>
-      </c>
-      <c r="AC5">
-        <v>6</v>
-      </c>
-      <c r="AD5">
-        <v>6</v>
-      </c>
-      <c r="AE5">
-        <v>6.5</v>
-      </c>
-      <c r="AF5">
-        <v>6</v>
-      </c>
-      <c r="AG5">
-        <v>6</v>
-      </c>
-      <c r="AH5">
-        <v>5</v>
-      </c>
-      <c r="AI5">
-        <v>6</v>
-      </c>
-      <c r="AM5">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="AN5" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AO5">
-        <f t="shared" si="2"/>
-        <v>0.61913918736689033</v>
-      </c>
-      <c r="AP5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>7.5</v>
-      </c>
-      <c r="I6">
-        <v>7</v>
-      </c>
-      <c r="J6">
-        <v>7.5</v>
-      </c>
-      <c r="K6">
-        <v>7</v>
-      </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="M6">
-        <v>5.5</v>
-      </c>
-      <c r="N6">
-        <v>5.5</v>
-      </c>
-      <c r="O6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6">
-        <v>7</v>
-      </c>
-      <c r="Q6">
-        <v>4.5</v>
-      </c>
-      <c r="R6">
-        <v>6</v>
-      </c>
-      <c r="S6">
-        <v>7</v>
-      </c>
-      <c r="T6">
-        <v>6</v>
-      </c>
-      <c r="U6">
-        <v>7</v>
-      </c>
-      <c r="V6">
-        <v>6</v>
-      </c>
-      <c r="W6">
-        <v>6</v>
-      </c>
-      <c r="X6">
-        <v>5.5</v>
-      </c>
-      <c r="Y6">
-        <v>6</v>
-      </c>
-      <c r="Z6">
-        <v>6</v>
-      </c>
-      <c r="AA6">
-        <v>7</v>
-      </c>
-      <c r="AB6">
-        <v>5.5</v>
-      </c>
-      <c r="AC6">
-        <v>6</v>
-      </c>
-      <c r="AD6">
-        <v>7</v>
-      </c>
-      <c r="AE6">
-        <v>6</v>
-      </c>
-      <c r="AF6">
-        <v>6</v>
-      </c>
-      <c r="AG6">
-        <v>6.5</v>
-      </c>
-      <c r="AI6">
-        <v>5.5</v>
-      </c>
-      <c r="AJ6">
-        <v>5</v>
-      </c>
-      <c r="AM6">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="AN6" s="18">
-        <f t="shared" si="1"/>
-        <v>6.306451612903226</v>
-      </c>
-      <c r="AO6">
-        <f t="shared" si="2"/>
-        <v>0.76023482506874751</v>
-      </c>
-      <c r="AP6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+        <v>0.7613390156652905</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="3"/>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2978,386 +3013,414 @@
       <c r="AI7">
         <v>4.5</v>
       </c>
-      <c r="AM7">
+      <c r="AK7">
+        <v>5</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AO7" s="18">
+        <f t="shared" si="1"/>
+        <v>5.7857142857142856</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="2"/>
+        <v>0.77493812690375397</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="3"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>7.5</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>7.5</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>7.5</v>
+      </c>
+      <c r="U8" t="s">
+        <v>26</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>7</v>
+      </c>
+      <c r="X8">
+        <v>7</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z8">
+        <v>7.5</v>
+      </c>
+      <c r="AA8">
+        <v>7</v>
+      </c>
+      <c r="AB8">
+        <v>7</v>
+      </c>
+      <c r="AC8">
+        <v>6</v>
+      </c>
+      <c r="AD8">
+        <v>7</v>
+      </c>
+      <c r="AE8">
+        <v>8</v>
+      </c>
+      <c r="AF8">
+        <v>6.5</v>
+      </c>
+      <c r="AH8">
+        <v>7.5</v>
+      </c>
+      <c r="AI8">
+        <v>5.5</v>
+      </c>
+      <c r="AJ8">
+        <v>5.5</v>
+      </c>
+      <c r="AK8">
+        <v>5.5</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AO8" s="18">
+        <f t="shared" si="1"/>
+        <v>6.7068965517241379</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="2"/>
+        <v>0.70098452931917521</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>8.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>5.5</v>
+      </c>
+      <c r="R9">
+        <v>7.5</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>7</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="X9">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z9">
+        <v>6</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC9">
+        <v>6</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF9">
+        <v>7</v>
+      </c>
+      <c r="AG9">
+        <v>5.5</v>
+      </c>
+      <c r="AH9">
+        <v>5.5</v>
+      </c>
+      <c r="AI9">
+        <v>5.5</v>
+      </c>
+      <c r="AJ9">
+        <v>5.5</v>
+      </c>
+      <c r="AK9">
+        <v>6.5</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AO9" s="18">
+        <f t="shared" si="1"/>
+        <v>6.6071428571428568</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="2"/>
+        <v>0.99402979738800312</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="3"/>
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>8.5</v>
+      </c>
+      <c r="D10">
+        <v>8.5</v>
+      </c>
+      <c r="E10">
+        <v>7.5</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>7.5</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10">
+        <v>8.5</v>
+      </c>
+      <c r="K10">
+        <v>7.5</v>
+      </c>
+      <c r="L10">
+        <v>8.5</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>7.5</v>
+      </c>
+      <c r="O10">
+        <v>7.5</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10">
+        <v>7</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10">
+        <v>7.5</v>
+      </c>
+      <c r="X10">
+        <v>7</v>
+      </c>
+      <c r="Y10">
+        <v>7</v>
+      </c>
+      <c r="Z10">
+        <v>7</v>
+      </c>
+      <c r="AA10">
+        <v>7</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF10">
+        <v>6.5</v>
+      </c>
+      <c r="AG10">
+        <v>10</v>
+      </c>
+      <c r="AI10">
+        <v>6.5</v>
+      </c>
+      <c r="AJ10">
+        <v>5.5</v>
+      </c>
+      <c r="AK10">
+        <v>6.5</v>
+      </c>
+      <c r="AN10">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AN7" s="18">
+      <c r="AO10" s="18">
         <f t="shared" si="1"/>
-        <v>5.8148148148148149</v>
-      </c>
-      <c r="AO7">
+        <v>7.4074074074074074</v>
+      </c>
+      <c r="AP10">
         <f t="shared" si="2"/>
-        <v>0.7739527433912532</v>
-      </c>
-      <c r="AP7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>7.5</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8">
-        <v>7</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>7.5</v>
-      </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
-      <c r="P8">
-        <v>6</v>
-      </c>
-      <c r="Q8">
-        <v>7</v>
-      </c>
-      <c r="R8" t="s">
-        <v>26</v>
-      </c>
-      <c r="S8">
-        <v>6</v>
-      </c>
-      <c r="T8">
-        <v>7.5</v>
-      </c>
-      <c r="U8" t="s">
-        <v>26</v>
-      </c>
-      <c r="V8">
-        <v>6</v>
-      </c>
-      <c r="W8">
-        <v>7</v>
-      </c>
-      <c r="X8">
-        <v>7</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z8">
-        <v>7.5</v>
-      </c>
-      <c r="AA8">
-        <v>7</v>
-      </c>
-      <c r="AB8">
-        <v>7</v>
-      </c>
-      <c r="AC8">
-        <v>6</v>
-      </c>
-      <c r="AD8">
-        <v>7</v>
-      </c>
-      <c r="AE8">
-        <v>8</v>
-      </c>
-      <c r="AF8">
-        <v>6.5</v>
-      </c>
-      <c r="AH8">
-        <v>7.5</v>
-      </c>
-      <c r="AI8">
-        <v>5.5</v>
-      </c>
-      <c r="AJ8">
-        <v>5.5</v>
-      </c>
-      <c r="AM8">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="AN8" s="18">
-        <f t="shared" si="1"/>
-        <v>6.75</v>
-      </c>
-      <c r="AO8">
-        <f t="shared" si="2"/>
-        <v>0.67357531405456339</v>
-      </c>
-      <c r="AP8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>8.5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>7</v>
-      </c>
-      <c r="M9">
-        <v>6</v>
-      </c>
-      <c r="N9">
-        <v>6</v>
-      </c>
-      <c r="O9">
-        <v>6</v>
-      </c>
-      <c r="P9">
-        <v>7</v>
-      </c>
-      <c r="Q9">
-        <v>5.5</v>
-      </c>
-      <c r="R9">
-        <v>7.5</v>
-      </c>
-      <c r="S9">
-        <v>7</v>
-      </c>
-      <c r="T9">
-        <v>7</v>
-      </c>
-      <c r="U9">
-        <v>6</v>
-      </c>
-      <c r="V9">
-        <v>7</v>
-      </c>
-      <c r="W9">
-        <v>7</v>
-      </c>
-      <c r="X9">
-        <v>7</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z9">
-        <v>6</v>
-      </c>
-      <c r="AA9">
-        <v>6</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC9">
-        <v>6</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF9">
-        <v>7</v>
-      </c>
-      <c r="AG9">
-        <v>5.5</v>
-      </c>
-      <c r="AH9">
-        <v>5.5</v>
-      </c>
-      <c r="AI9">
-        <v>5.5</v>
-      </c>
-      <c r="AJ9">
-        <v>5.5</v>
-      </c>
-      <c r="AM9">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="AN9" s="18">
-        <f t="shared" si="1"/>
-        <v>6.6111111111111107</v>
-      </c>
-      <c r="AO9">
-        <f t="shared" si="2"/>
-        <v>1.0127393670836682</v>
-      </c>
-      <c r="AP9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>8.5</v>
-      </c>
-      <c r="D10">
-        <v>8.5</v>
-      </c>
-      <c r="E10">
-        <v>7.5</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>7.5</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10">
-        <v>8.5</v>
-      </c>
-      <c r="K10">
-        <v>7.5</v>
-      </c>
-      <c r="L10">
-        <v>8.5</v>
-      </c>
-      <c r="M10">
-        <v>7</v>
-      </c>
-      <c r="N10">
-        <v>7.5</v>
-      </c>
-      <c r="O10">
-        <v>7.5</v>
-      </c>
-      <c r="P10">
-        <v>7</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
-      </c>
-      <c r="R10" t="s">
-        <v>26</v>
-      </c>
-      <c r="S10" t="s">
-        <v>26</v>
-      </c>
-      <c r="T10" t="s">
-        <v>26</v>
-      </c>
-      <c r="U10">
-        <v>7</v>
-      </c>
-      <c r="V10">
-        <v>6</v>
-      </c>
-      <c r="W10">
-        <v>7.5</v>
-      </c>
-      <c r="X10">
-        <v>7</v>
-      </c>
-      <c r="Y10">
-        <v>7</v>
-      </c>
-      <c r="Z10">
-        <v>7</v>
-      </c>
-      <c r="AA10">
-        <v>7</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF10">
-        <v>6.5</v>
-      </c>
-      <c r="AG10">
-        <v>10</v>
-      </c>
-      <c r="AI10">
-        <v>6.5</v>
-      </c>
-      <c r="AJ10">
-        <v>5.5</v>
-      </c>
-      <c r="AM10">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="AN10" s="18">
-        <f t="shared" si="1"/>
-        <v>7.4423076923076925</v>
-      </c>
-      <c r="AO10">
-        <f t="shared" si="2"/>
-        <v>1.0423715563744327</v>
-      </c>
-      <c r="AP10">
+        <v>1.0380921575829991</v>
+      </c>
+      <c r="AQ10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AS10">
+        <f t="shared" si="3"/>
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3451,23 +3514,27 @@
       <c r="AI11">
         <v>5</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AN11" s="18">
+      <c r="AO11" s="18">
         <f t="shared" si="1"/>
         <v>5.9565217391304346</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <f t="shared" si="2"/>
         <v>0.76741957645352532</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AS11">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -3570,23 +3637,30 @@
       <c r="AH12">
         <v>5</v>
       </c>
-      <c r="AM12">
+      <c r="AK12">
+        <v>5</v>
+      </c>
+      <c r="AN12">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="AN12" s="18">
+        <v>23</v>
+      </c>
+      <c r="AO12" s="18">
         <f t="shared" si="1"/>
-        <v>4.5681818181818183</v>
-      </c>
-      <c r="AO12">
+        <v>4.5869565217391308</v>
+      </c>
+      <c r="AP12">
         <f t="shared" si="2"/>
-        <v>1.1881904463496311</v>
-      </c>
-      <c r="AP12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+        <v>1.164358718478306</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3695,145 +3769,159 @@
       <c r="AJ13">
         <v>5.5</v>
       </c>
-      <c r="AM13">
+      <c r="AK13">
+        <v>7</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AO13" s="18">
+        <f t="shared" si="1"/>
+        <v>5.895833333333333</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="2"/>
+        <v>1.1323231858005254</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="3"/>
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>7.5</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>7.5</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14">
+        <v>7.5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14">
+        <v>7.5</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>6</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14">
+        <v>7</v>
+      </c>
+      <c r="V14" t="s">
+        <v>26</v>
+      </c>
+      <c r="W14">
+        <v>6</v>
+      </c>
+      <c r="X14">
+        <v>6</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA14">
+        <v>6</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE14">
+        <v>6</v>
+      </c>
+      <c r="AF14">
+        <v>6.5</v>
+      </c>
+      <c r="AG14">
+        <v>7</v>
+      </c>
+      <c r="AH14">
+        <v>5.5</v>
+      </c>
+      <c r="AJ14">
+        <v>5.5</v>
+      </c>
+      <c r="AK14">
+        <v>5</v>
+      </c>
+      <c r="AN14">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AN13" s="18">
+      <c r="AO14" s="18">
         <f t="shared" si="1"/>
-        <v>5.8478260869565215</v>
-      </c>
-      <c r="AO13">
+        <v>6.4565217391304346</v>
+      </c>
+      <c r="AP14">
         <f t="shared" si="2"/>
-        <v>1.1325231545766188</v>
-      </c>
-      <c r="AP13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>7.5</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>7.5</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14">
-        <v>7.5</v>
-      </c>
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14">
-        <v>7.5</v>
-      </c>
-      <c r="L14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14">
-        <v>6</v>
-      </c>
-      <c r="O14">
-        <v>7</v>
-      </c>
-      <c r="P14">
-        <v>6</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>26</v>
-      </c>
-      <c r="R14" t="s">
-        <v>26</v>
-      </c>
-      <c r="S14">
-        <v>6</v>
-      </c>
-      <c r="T14">
-        <v>7</v>
-      </c>
-      <c r="U14">
-        <v>7</v>
-      </c>
-      <c r="V14" t="s">
-        <v>26</v>
-      </c>
-      <c r="W14">
-        <v>6</v>
-      </c>
-      <c r="X14">
-        <v>6</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA14">
-        <v>6</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE14">
-        <v>6</v>
-      </c>
-      <c r="AF14">
-        <v>6.5</v>
-      </c>
-      <c r="AG14">
-        <v>7</v>
-      </c>
-      <c r="AH14">
-        <v>5.5</v>
-      </c>
-      <c r="AJ14">
-        <v>5.5</v>
-      </c>
-      <c r="AM14">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="AN14" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5227272727272725</v>
-      </c>
-      <c r="AO14">
-        <f t="shared" si="2"/>
-        <v>0.68098795051350891</v>
-      </c>
-      <c r="AP14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+        <v>0.73720978077448396</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="3"/>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3933,23 +4021,27 @@
       <c r="AG15">
         <v>6.5</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="AN15" s="18">
+      <c r="AO15" s="18">
         <f t="shared" si="1"/>
         <v>6.55</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <f t="shared" si="2"/>
         <v>1.050062654772262</v>
       </c>
-      <c r="AP15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AS15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4040,23 +4132,27 @@
       <c r="AD16">
         <v>6</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AN16" s="18">
+      <c r="AO16" s="18">
         <f t="shared" si="1"/>
         <v>6.0882352941176467</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <f t="shared" si="2"/>
         <v>0.71228711990072591</v>
       </c>
-      <c r="AP16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AS16" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -4153,23 +4249,27 @@
       <c r="AI17">
         <v>5</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="AN17" s="18">
+      <c r="AO17" s="18">
         <f t="shared" si="1"/>
         <v>5.96875</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <f t="shared" si="2"/>
         <v>0.99110628424335334</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AS17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -4266,23 +4366,27 @@
       <c r="AG18">
         <v>7</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AN18" s="18">
+      <c r="AO18" s="18">
         <f t="shared" si="1"/>
         <v>6.3571428571428568</v>
       </c>
-      <c r="AO18">
+      <c r="AP18">
         <f t="shared" si="2"/>
         <v>0.77032888651964082</v>
       </c>
-      <c r="AP18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4388,23 +4492,30 @@
       <c r="AJ19">
         <v>5.5</v>
       </c>
-      <c r="AM19">
+      <c r="AK19">
+        <v>5.5</v>
+      </c>
+      <c r="AN19">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="AN19" s="18">
+        <v>16</v>
+      </c>
+      <c r="AO19" s="18">
         <f t="shared" si="1"/>
-        <v>6.7666666666666666</v>
-      </c>
-      <c r="AO19">
+        <v>6.6875</v>
+      </c>
+      <c r="AP19">
         <f t="shared" si="2"/>
-        <v>0.59361683970466372</v>
-      </c>
-      <c r="AP19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+        <v>0.65510813356778486</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AS19">
+        <f t="shared" si="3"/>
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -4513,23 +4624,30 @@
       <c r="AJ20">
         <v>5</v>
       </c>
-      <c r="AM20">
+      <c r="AK20">
+        <v>5</v>
+      </c>
+      <c r="AN20">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="AN20" s="18">
+        <v>16</v>
+      </c>
+      <c r="AO20" s="18">
         <f t="shared" si="1"/>
-        <v>6.2333333333333334</v>
-      </c>
-      <c r="AO20">
+        <v>6.15625</v>
+      </c>
+      <c r="AP20">
         <f t="shared" si="2"/>
-        <v>0.86327173893165965</v>
-      </c>
-      <c r="AP20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+        <v>0.88917096218893699</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AS20">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -4620,23 +4738,27 @@
       <c r="AD21">
         <v>6</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AN21" s="18">
+      <c r="AO21" s="18">
         <f t="shared" si="1"/>
         <v>4.4615384615384617</v>
       </c>
-      <c r="AO21">
+      <c r="AP21">
         <f t="shared" si="2"/>
         <v>1.875961292039569</v>
       </c>
-      <c r="AP21">
+      <c r="AQ21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AS21" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -4733,23 +4855,27 @@
       <c r="AJ22">
         <v>5</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AN22" s="18">
+      <c r="AO22" s="18">
         <f t="shared" si="1"/>
         <v>5.6538461538461542</v>
       </c>
-      <c r="AO22">
+      <c r="AP22">
         <f t="shared" si="2"/>
         <v>1.1251780485885956</v>
       </c>
-      <c r="AP22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AS22">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -4849,23 +4975,27 @@
       <c r="AJ23">
         <v>3.5</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AN23" s="18">
+      <c r="AO23" s="18">
         <f t="shared" si="1"/>
         <v>5.2307692307692308</v>
       </c>
-      <c r="AO23">
+      <c r="AP23">
         <f t="shared" si="2"/>
         <v>1.1657505560686472</v>
       </c>
-      <c r="AP23">
+      <c r="AQ23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AS23">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -4959,23 +5089,27 @@
       <c r="AG24">
         <v>6.5</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AN24" s="18">
+      <c r="AO24" s="18">
         <f t="shared" si="1"/>
         <v>7.1818181818181817</v>
       </c>
-      <c r="AO24">
+      <c r="AP24">
         <f t="shared" si="2"/>
         <v>1.006795095159071</v>
       </c>
-      <c r="AP24">
+      <c r="AQ24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AS24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -5066,23 +5200,27 @@
       <c r="AD25" t="s">
         <v>26</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AN25" s="18">
+      <c r="AO25" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AO25">
+      <c r="AP25">
         <f t="shared" si="2"/>
         <v>0.61237243569579447</v>
       </c>
-      <c r="AP25">
+      <c r="AQ25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AS25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -5176,23 +5314,27 @@
       <c r="AH26">
         <v>4</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AN26" s="18">
+      <c r="AO26" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AO26">
+      <c r="AP26">
         <f t="shared" si="2"/>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AP26">
+      <c r="AQ26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AS26" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -5292,23 +5434,30 @@
       <c r="AJ27">
         <v>3.5</v>
       </c>
-      <c r="AM27">
+      <c r="AK27">
+        <v>3</v>
+      </c>
+      <c r="AN27">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AN27" s="18">
+        <v>10</v>
+      </c>
+      <c r="AO27" s="18">
         <f t="shared" si="1"/>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="AO27">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AP27">
         <f t="shared" si="2"/>
-        <v>1.0606601717798212</v>
-      </c>
-      <c r="AP27">
+        <v>1.2427567921538156</v>
+      </c>
+      <c r="AQ27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AS27">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -5399,23 +5548,27 @@
       <c r="AD28" t="s">
         <v>26</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AN28" s="18">
+      <c r="AO28" s="18">
         <f t="shared" si="1"/>
         <v>6.8571428571428568</v>
       </c>
-      <c r="AO28">
+      <c r="AP28">
         <f t="shared" si="2"/>
         <v>0.62678317052800869</v>
       </c>
-      <c r="AP28">
+      <c r="AQ28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AS28" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -5512,23 +5665,27 @@
       <c r="AF29">
         <v>5</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AN29" s="18">
+      <c r="AO29" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AO29">
+      <c r="AP29">
         <f t="shared" si="2"/>
         <v>0.57735026918962573</v>
       </c>
-      <c r="AP29">
+      <c r="AQ29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AS29" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -5634,23 +5791,27 @@
       <c r="AI30">
         <v>5.5</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AN30" s="18">
+      <c r="AO30" s="18">
         <f t="shared" si="1"/>
         <v>5.7142857142857144</v>
       </c>
-      <c r="AO30">
+      <c r="AP30">
         <f t="shared" si="2"/>
         <v>0.75592894601845306</v>
       </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AS30">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -5741,23 +5902,27 @@
       <c r="AD31">
         <v>6</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AN31" s="18">
+      <c r="AO31" s="18">
         <f t="shared" si="1"/>
         <v>6.916666666666667</v>
       </c>
-      <c r="AO31">
+      <c r="AP31">
         <f t="shared" si="2"/>
         <v>0.49159604012508756</v>
       </c>
-      <c r="AP31">
+      <c r="AQ31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AS31" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -5857,23 +6022,30 @@
       <c r="AJ32">
         <v>4.5</v>
       </c>
-      <c r="AM32">
+      <c r="AK32">
+        <v>5</v>
+      </c>
+      <c r="AN32">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AN32" s="18">
+        <v>8</v>
+      </c>
+      <c r="AO32" s="18">
         <f t="shared" si="1"/>
-        <v>4.8571428571428568</v>
-      </c>
-      <c r="AO32">
+        <v>4.875</v>
+      </c>
+      <c r="AP32">
         <f t="shared" si="2"/>
-        <v>1.1073348527841418</v>
-      </c>
-      <c r="AP32">
+        <v>1.0264362759428509</v>
+      </c>
+      <c r="AQ32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AS32">
+        <f t="shared" si="3"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -5964,23 +6136,27 @@
       <c r="AD33" t="s">
         <v>26</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AN33" s="18">
+      <c r="AO33" s="18">
         <f t="shared" si="1"/>
         <v>7.625</v>
       </c>
-      <c r="AO33">
+      <c r="AP33">
         <f t="shared" si="2"/>
         <v>0.62915286960589578</v>
       </c>
-      <c r="AP33">
+      <c r="AQ33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AS33" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -6071,23 +6247,27 @@
       <c r="AD34" t="s">
         <v>26</v>
       </c>
-      <c r="AM34">
-        <f t="shared" ref="AM34:AM53" si="3">COUNT(B34:AL34)</f>
+      <c r="AN34">
+        <f t="shared" ref="AN34:AN53" si="4">COUNT(B34:AM34)</f>
         <v>4</v>
       </c>
-      <c r="AN34" s="18">
-        <f t="shared" ref="AN34:AN53" si="4">AVERAGE(B34:AL34)</f>
-        <v>6</v>
-      </c>
-      <c r="AO34">
-        <f t="shared" ref="AO34:AO53" si="5">IF(AM34&gt;1,_xlfn.STDEV.S(B34:AL34),"")</f>
+      <c r="AO34" s="18">
+        <f t="shared" ref="AO34:AO53" si="5">AVERAGE(B34:AM34)</f>
+        <v>6</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" ref="AP34:AP53" si="6">IF(AN34&gt;1,_xlfn.STDEV.S(B34:AM34),"")</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AP34">
+      <c r="AQ34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AS34" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -6178,23 +6358,27 @@
       <c r="AD35" t="s">
         <v>26</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AO35" s="18">
+        <f t="shared" si="5"/>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="6"/>
+        <v>0.76376261582597338</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="e">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AN35" s="18">
-        <f t="shared" si="4"/>
-        <v>6.833333333333333</v>
-      </c>
-      <c r="AO35">
-        <f t="shared" si="5"/>
-        <v>0.76376261582597338</v>
-      </c>
-      <c r="AP35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -6285,23 +6469,27 @@
       <c r="AD36" t="s">
         <v>26</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AO36" s="18">
+        <f t="shared" si="5"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="AP36">
+        <f t="shared" si="6"/>
+        <v>1.1547005383792526</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="e">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AN36" s="18">
-        <f t="shared" si="4"/>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="AO36">
-        <f t="shared" si="5"/>
-        <v>1.1547005383792526</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -6392,23 +6580,30 @@
       <c r="AD37" t="s">
         <v>26</v>
       </c>
-      <c r="AM37">
+      <c r="AK37">
+        <v>3.5</v>
+      </c>
+      <c r="AN37">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AO37" s="18">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+      <c r="AP37">
+        <f t="shared" si="6"/>
+        <v>0.81649658092772603</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AN37" s="18">
-        <f t="shared" si="4"/>
-        <v>4.833333333333333</v>
-      </c>
-      <c r="AO37">
-        <f t="shared" si="5"/>
-        <v>0.57735026918962584</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -6499,23 +6694,27 @@
       <c r="AD38" t="s">
         <v>26</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AO38" s="18">
+        <f t="shared" si="5"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="AP38">
+        <f t="shared" si="6"/>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="e">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AN38" s="18">
-        <f t="shared" si="4"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="AO38">
-        <f t="shared" si="5"/>
-        <v>0.28867513459481287</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -6609,23 +6808,27 @@
       <c r="AE39">
         <v>1.5</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AO39" s="18">
+        <f t="shared" si="5"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="AP39">
+        <f t="shared" si="6"/>
+        <v>1.0408329997330663</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="e">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AN39" s="18">
-        <f t="shared" si="4"/>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="AO39">
-        <f t="shared" si="5"/>
-        <v>1.0408329997330663</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -6722,23 +6925,23 @@
       <c r="AF40">
         <v>9</v>
       </c>
-      <c r="AM40">
-        <f t="shared" si="3"/>
+      <c r="AN40">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AN40" s="18">
-        <f t="shared" si="4"/>
+      <c r="AO40" s="18">
+        <f t="shared" si="5"/>
         <v>7.666666666666667</v>
       </c>
-      <c r="AO40">
-        <f t="shared" si="5"/>
+      <c r="AP40">
+        <f t="shared" si="6"/>
         <v>1.1547005383792495</v>
       </c>
-      <c r="AP40">
+      <c r="AQ40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -6832,23 +7035,23 @@
       <c r="AG41">
         <v>2.5</v>
       </c>
-      <c r="AM41">
-        <f t="shared" si="3"/>
+      <c r="AN41">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AN41" s="18">
-        <f t="shared" si="4"/>
+      <c r="AO41" s="18">
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="AO41">
-        <f t="shared" si="5"/>
+      <c r="AP41">
+        <f t="shared" si="6"/>
         <v>1.7320508075688772</v>
       </c>
-      <c r="AP41">
+      <c r="AQ41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -6939,23 +7142,23 @@
       <c r="AD42">
         <v>7.5</v>
       </c>
-      <c r="AM42">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AN42" s="18">
+      <c r="AN42">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AO42" s="18">
+        <f t="shared" si="5"/>
         <v>7.25</v>
       </c>
-      <c r="AO42">
-        <f t="shared" si="5"/>
+      <c r="AP42">
+        <f t="shared" si="6"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AP42">
+      <c r="AQ42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -7046,23 +7249,23 @@
       <c r="AD43" t="s">
         <v>26</v>
       </c>
-      <c r="AM43">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AN43" s="18">
+      <c r="AN43">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AO43" s="18">
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
-      <c r="AO43">
-        <f t="shared" si="5"/>
+      <c r="AP43">
+        <f t="shared" si="6"/>
         <v>1.4142135623730951</v>
       </c>
-      <c r="AP43">
+      <c r="AQ43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -7153,23 +7356,23 @@
       <c r="AD44" t="s">
         <v>26</v>
       </c>
-      <c r="AM44">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AN44" s="18">
+      <c r="AN44">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AO44">
+      <c r="AO44" s="18">
         <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AP44">
+        <f t="shared" si="6"/>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AP44">
+      <c r="AQ44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -7263,23 +7466,23 @@
       <c r="AG45">
         <v>5</v>
       </c>
-      <c r="AM45">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AN45" s="18">
+      <c r="AN45">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AO45" s="18">
+        <f t="shared" si="5"/>
         <v>5.25</v>
       </c>
-      <c r="AO45">
-        <f t="shared" si="5"/>
+      <c r="AP45">
+        <f t="shared" si="6"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AP45">
+      <c r="AQ45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -7370,23 +7573,23 @@
       <c r="AD46">
         <v>9</v>
       </c>
-      <c r="AM46">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AN46" s="18">
+      <c r="AN46">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AO46" s="18">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="AO46" t="str">
-        <f t="shared" si="5"/>
+      <c r="AP46" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AP46">
+      <c r="AQ46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -7477,23 +7680,23 @@
       <c r="AD47" t="s">
         <v>26</v>
       </c>
-      <c r="AM47">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AN47" s="18">
+      <c r="AN47">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="AO47" t="str">
+        <v>1</v>
+      </c>
+      <c r="AO47" s="18">
         <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AP47" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AP47">
+      <c r="AQ47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -7581,23 +7784,23 @@
       <c r="AD48" t="s">
         <v>26</v>
       </c>
-      <c r="AM48">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AN48" s="18">
+      <c r="AN48">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="AO48" t="str">
+        <v>1</v>
+      </c>
+      <c r="AO48" s="18">
         <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AP48" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AP48">
+      <c r="AQ48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -7688,23 +7891,23 @@
       <c r="AD49" t="s">
         <v>26</v>
       </c>
-      <c r="AM49">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AN49" s="18">
+      <c r="AN49">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="AO49" t="str">
+        <v>1</v>
+      </c>
+      <c r="AO49" s="18">
         <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AP49" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AP49">
+      <c r="AQ49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -7795,23 +7998,23 @@
       <c r="AD50" t="s">
         <v>26</v>
       </c>
-      <c r="AM50">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AN50" s="18">
+      <c r="AN50">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="AO50" t="str">
+        <v>1</v>
+      </c>
+      <c r="AO50" s="18">
         <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AP50" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AP50">
+      <c r="AQ50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -7902,23 +8105,23 @@
       <c r="AD51" t="s">
         <v>26</v>
       </c>
-      <c r="AM51">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AN51" s="18">
+      <c r="AN51">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AO51" s="18">
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="AO51" t="str">
-        <f t="shared" si="5"/>
+      <c r="AP51" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AP51">
+      <c r="AQ51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -8009,23 +8212,23 @@
       <c r="AD52" t="s">
         <v>26</v>
       </c>
-      <c r="AM52">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AN52" s="18">
+      <c r="AN52">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AO52" s="18">
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="AO52" t="str">
-        <f t="shared" si="5"/>
+      <c r="AP52" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AP52">
+      <c r="AQ52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -8116,99 +8319,99 @@
       <c r="AD53" t="s">
         <v>26</v>
       </c>
-      <c r="AM53">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AN53" s="18">
+      <c r="AN53">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AO53" s="18">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="AO53" t="str">
-        <f t="shared" si="5"/>
+      <c r="AP53" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AP53">
+      <c r="AQ53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>341</v>
       </c>
       <c r="AJ54">
         <v>5</v>
       </c>
-      <c r="AM54">
-        <f t="shared" ref="AM54:AM56" si="6">COUNT(B54:AL54)</f>
-        <v>1</v>
-      </c>
-      <c r="AN54" s="18">
-        <f t="shared" ref="AN54:AN56" si="7">AVERAGE(B54:AL54)</f>
+      <c r="AN54">
+        <f t="shared" ref="AN54:AN56" si="7">COUNT(B54:AM54)</f>
+        <v>1</v>
+      </c>
+      <c r="AO54" s="18">
+        <f t="shared" ref="AO54:AO56" si="8">AVERAGE(B54:AM54)</f>
         <v>5</v>
       </c>
-      <c r="AO54" t="str">
-        <f t="shared" ref="AO54:AO56" si="8">IF(AM54&gt;1,_xlfn.STDEV.S(B54:AL54),"")</f>
+      <c r="AP54" t="str">
+        <f t="shared" ref="AP54:AP56" si="9">IF(AN54&gt;1,_xlfn.STDEV.S(B54:AM54),"")</f>
         <v/>
       </c>
-      <c r="AP54">
+      <c r="AQ54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>340</v>
       </c>
       <c r="AJ55">
         <v>7</v>
       </c>
-      <c r="AM55">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AN55" s="18">
+      <c r="AN55">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="AO55" t="str">
+        <v>1</v>
+      </c>
+      <c r="AO55" s="18">
         <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AP55" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AP55">
+      <c r="AQ55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>339</v>
       </c>
       <c r="AJ56">
         <v>4.5</v>
       </c>
-      <c r="AM56">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AN56" s="18">
+      <c r="AN56">
         <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AO56" s="18">
+        <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
-      <c r="AO56" t="str">
-        <f t="shared" si="8"/>
+      <c r="AP56" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AP56">
+      <c r="AQ56">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP54" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
-    <sortState ref="A2:AP53">
-      <sortCondition descending="1" ref="AM1:AM54"/>
+  <autoFilter ref="A1:AQ54" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
+    <sortState ref="A2:AQ53">
+      <sortCondition descending="1" ref="AN1:AN54"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="AA2:AK38">
-    <cfRule type="colorScale" priority="50">
+  <conditionalFormatting sqref="AA2:AL38">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8219,8 +8422,68 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AM39">
-    <cfRule type="colorScale" priority="46">
+  <conditionalFormatting sqref="AN2:AN39">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP2:AP39">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN40:AN42">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP40:AP42">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AL47">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN2:AN42">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8232,19 +8495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2:AO39">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM40:AM42">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8256,42 +8507,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO40:AO42">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AK47">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AM42">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN2:AN39">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -8303,7 +8518,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN40:AN42">
+  <conditionalFormatting sqref="AO2:AO42">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -8315,8 +8530,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN2:AN42">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="AA2:AL42">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8327,8 +8542,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AK42">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="AN45 AN43 AN47">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8339,8 +8554,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM45 AM43 AM47">
+  <conditionalFormatting sqref="AP45 AP43 AP47">
     <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN45">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8352,18 +8579,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO45 AO43 AO47">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM45">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -8375,7 +8590,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN45 AN43 AN47">
+  <conditionalFormatting sqref="AO45">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -8387,7 +8602,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN45">
+  <conditionalFormatting sqref="AN46 AN44 AN48:AN56">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -8399,8 +8614,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM44 AM46 AM48:AM56">
+  <conditionalFormatting sqref="AP46 AP44 AP48:AP56">
     <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN46">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8412,18 +8639,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO46 AO44 AO48:AO56">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM46">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -8435,7 +8650,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN44 AN46 AN48:AN56">
+  <conditionalFormatting sqref="AO46">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -8447,20 +8662,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN46">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AJ44">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="AA2:AK44">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8472,6 +8675,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Q39">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:Z38 W2 W7 W11:W12 W15:W21 W31 B2:V38">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:Z47 X2:Z43 W2 W7 W11:W12 W15:W21 W31 W40 B2:V43 Z49">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:AK49 AB51:AK51 AD53:AK53">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -8483,31 +8722,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Z38 W2 W7 W11:W12 W15:W21 W31 B2:V38">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:Z47 X2:Z43 W2 W7 W11:W12 W15:W21 W31 W40 B2:V43 Z49">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AJ49 AB51:AJ51 AD53:AJ53">
+  <conditionalFormatting sqref="AN2:AN56">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8519,7 +8734,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AM56">
+  <conditionalFormatting sqref="AO2:AO56">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -8531,7 +8746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN2:AN56">
+  <conditionalFormatting sqref="B2:AK53">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8543,7 +8758,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AJ53">
+  <conditionalFormatting sqref="AS2:AS39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8563,7 +8778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99312F67-43DE-48B9-BCC3-7D7A05DB9885}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -9625,7 +9840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A044468-5FF9-485E-BCBE-2F73FE35F0BA}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -10897,10 +11112,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P104"/>
+  <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16096,6 +16311,156 @@
         <v>46</v>
       </c>
     </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A105" s="14">
+        <v>45707</v>
+      </c>
+      <c r="B105" s="3">
+        <v>3</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I105" s="9">
+        <v>2</v>
+      </c>
+      <c r="J105" s="10">
+        <v>1</v>
+      </c>
+      <c r="K105" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L105" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M105" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N105" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O105" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P105" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A106" s="14">
+        <v>45707</v>
+      </c>
+      <c r="B106" s="3">
+        <v>3</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I106" s="11">
+        <v>4</v>
+      </c>
+      <c r="J106" s="2">
+        <v>3</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P106" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A107" s="14">
+        <v>45707</v>
+      </c>
+      <c r="B107" s="5">
+        <v>4</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" s="5">
+        <v>6</v>
+      </c>
+      <c r="J107" s="8">
+        <v>3</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M107" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N107" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O107" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P107" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16105,7 +16470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40949BC3-8DAE-4185-A4C0-F8573FA5A3A2}">
   <dimension ref="A1:AI53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O29" sqref="O29"/>
     </sheetView>
@@ -17505,11 +17870,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DDCCA6-42DC-4211-A42F-70F3625FA6AA}">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17520,10 +17885,10 @@
     <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17575,8 +17940,11 @@
       <c r="Q1" s="1">
         <v>45700</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="1">
+        <v>45707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -17592,13 +17960,16 @@
       <c r="P2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -17606,7 +17977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -17614,17 +17985,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -17646,8 +18017,11 @@
       <c r="M8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -17664,7 +18038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -17675,7 +18049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -17689,7 +18063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -17712,7 +18086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -17726,7 +18100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -17754,18 +18128,21 @@
       <c r="Q14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -17773,7 +18150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -17796,7 +18173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -17839,8 +18216,11 @@
       <c r="P19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -17848,7 +18228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -17889,7 +18269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -17926,8 +18306,11 @@
       <c r="Q22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -17935,7 +18318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -17943,7 +18326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -17975,12 +18358,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -17994,7 +18377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -18002,17 +18385,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -18043,8 +18426,11 @@
       <c r="O31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -18061,7 +18447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -18072,7 +18458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -18106,8 +18492,11 @@
       <c r="P34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -18115,7 +18504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>341</v>
       </c>
@@ -18123,17 +18512,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -18171,12 +18560,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -18187,7 +18576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -18198,17 +18587,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -18216,7 +18605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -18233,7 +18622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -18282,8 +18671,11 @@
       <c r="Q47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -18291,7 +18683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -18305,7 +18697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -18342,8 +18734,11 @@
       <c r="Q50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -18351,7 +18746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -18373,8 +18768,11 @@
       <c r="Q52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -18388,7 +18786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -18396,7 +18794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -18439,8 +18837,11 @@
       <c r="Q55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>47</v>
       </c>

--- a/data/condominio.xlsx
+++ b/data/condominio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="14_{F8FAE7CF-1AB6-449B-BC05-2BC42FEE3DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DF9CCED0-A8C2-41F5-8887-2406E1FE7F82}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="14_{F8FAE7CF-1AB6-449B-BC05-2BC42FEE3DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{57992D79-E98A-4E00-B00A-2F78579CB8AC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notas" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">artilharia!$A$1:$Q$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'artilharia total'!$A$1:$AI$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'extrato 2024'!$A$1:$C$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AQ$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AR$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2901" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="343">
   <si>
     <t>Jogador</t>
   </si>
@@ -1058,6 +1058,9 @@
   </si>
   <si>
     <t>Pedro Augusto</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
   </si>
 </sst>
 </file>
@@ -2113,11 +2116,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS56"/>
+  <dimension ref="A1:AT56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK5" sqref="AK5"/>
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR18" sqref="AR18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2137,10 +2140,10 @@
     <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="37" width="10.5546875" customWidth="1"/>
+    <col min="28" max="38" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2252,20 +2255,23 @@
       <c r="AK1" s="1">
         <v>45707</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AL1" s="1">
+        <v>45714</v>
+      </c>
+      <c r="AO1" t="s">
         <v>57</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>58</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2377,27 +2383,30 @@
       <c r="AK2">
         <v>5</v>
       </c>
-      <c r="AN2">
-        <f t="shared" ref="AN2:AN33" si="0">COUNT(B2:AM2)</f>
-        <v>35</v>
-      </c>
-      <c r="AO2" s="18">
-        <f t="shared" ref="AO2:AO33" si="1">AVERAGE(B2:AM2)</f>
-        <v>6.3142857142857141</v>
-      </c>
-      <c r="AP2">
-        <f t="shared" ref="AP2:AP33" si="2">IF(AN2&gt;1,_xlfn.STDEV.S(B2:AM2),"")</f>
-        <v>1.029603823620254</v>
+      <c r="AL2">
+        <v>4</v>
+      </c>
+      <c r="AO2">
+        <f>COUNT(B2:AN2)</f>
+        <v>36</v>
+      </c>
+      <c r="AP2" s="18">
+        <f>AVERAGE(B2:AN2)</f>
+        <v>6.25</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
-      </c>
-      <c r="AS2">
+        <f>IF(AO2&gt;1,_xlfn.STDEV.S(B2:AN2),"")</f>
+        <v>1.0856202966836188</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
         <f>AVERAGE(AI2:AK2)</f>
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -2509,27 +2518,30 @@
       <c r="AK3">
         <v>6.5</v>
       </c>
-      <c r="AN3">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="AO3" s="18">
-        <f t="shared" si="1"/>
-        <v>6.7058823529411766</v>
-      </c>
-      <c r="AP3">
-        <f t="shared" si="2"/>
-        <v>0.72944195210950447</v>
+      <c r="AL3">
+        <v>5.5</v>
+      </c>
+      <c r="AO3">
+        <f>COUNT(B3:AN3)</f>
+        <v>35</v>
+      </c>
+      <c r="AP3" s="18">
+        <f>AVERAGE(B3:AN3)</f>
+        <v>6.6714285714285717</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
-      </c>
-      <c r="AS3">
-        <f t="shared" ref="AS3:AS39" si="3">AVERAGE(AI3:AK3)</f>
+        <f>IF(AO3&gt;1,_xlfn.STDEV.S(B3:AN3),"")</f>
+        <v>0.74698272622418105</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" ref="AT3:AT39" si="0">AVERAGE(AI3:AK3)</f>
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2638,27 +2650,30 @@
       <c r="AK4">
         <v>5</v>
       </c>
-      <c r="AN4">
+      <c r="AL4">
+        <v>5.5</v>
+      </c>
+      <c r="AO4">
+        <f>COUNT(B4:AN4)</f>
+        <v>34</v>
+      </c>
+      <c r="AP4" s="18">
+        <f>AVERAGE(B4:AN4)</f>
+        <v>5.882352941176471</v>
+      </c>
+      <c r="AQ4">
+        <f>IF(AO4&gt;1,_xlfn.STDEV.S(B4:AN4),"")</f>
+        <v>0.79828247003224584</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="AO4" s="18">
-        <f t="shared" si="1"/>
-        <v>5.8939393939393936</v>
-      </c>
-      <c r="AP4">
-        <f t="shared" si="2"/>
-        <v>0.80775127434880889</v>
-      </c>
-      <c r="AQ4">
-        <v>1</v>
-      </c>
-      <c r="AS4">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2764,27 +2779,30 @@
       <c r="AI5">
         <v>6</v>
       </c>
-      <c r="AN5">
+      <c r="AL5">
+        <v>3</v>
+      </c>
+      <c r="AO5">
+        <f>COUNT(B5:AN5)</f>
+        <v>32</v>
+      </c>
+      <c r="AP5" s="18">
+        <f>AVERAGE(B5:AN5)</f>
+        <v>5.90625</v>
+      </c>
+      <c r="AQ5">
+        <f>IF(AO5&gt;1,_xlfn.STDEV.S(B5:AN5),"")</f>
+        <v>0.8075999888159261</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="AO5" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AP5">
-        <f t="shared" si="2"/>
-        <v>0.61913918736689033</v>
-      </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AS5">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2893,27 +2911,30 @@
       <c r="AK6">
         <v>5.5</v>
       </c>
-      <c r="AN6">
+      <c r="AL6">
+        <v>5</v>
+      </c>
+      <c r="AO6">
+        <f>COUNT(B6:AN6)</f>
+        <v>33</v>
+      </c>
+      <c r="AP6" s="18">
+        <f>AVERAGE(B6:AN6)</f>
+        <v>6.2424242424242422</v>
+      </c>
+      <c r="AQ6">
+        <f>IF(AO6&gt;1,_xlfn.STDEV.S(B6:AN6),"")</f>
+        <v>0.78183690076251688</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="AO6" s="18">
-        <f t="shared" si="1"/>
-        <v>6.28125</v>
-      </c>
-      <c r="AP6">
-        <f t="shared" si="2"/>
-        <v>0.7613390156652905</v>
-      </c>
-      <c r="AQ6">
-        <v>1</v>
-      </c>
-      <c r="AS6">
-        <f t="shared" si="3"/>
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -3016,27 +3037,30 @@
       <c r="AK7">
         <v>5</v>
       </c>
-      <c r="AN7">
+      <c r="AL7">
+        <v>5</v>
+      </c>
+      <c r="AO7">
+        <f>COUNT(B7:AN7)</f>
+        <v>29</v>
+      </c>
+      <c r="AP7" s="18">
+        <f>AVERAGE(B7:AN7)</f>
+        <v>5.7586206896551726</v>
+      </c>
+      <c r="AQ7">
+        <f>IF(AO7&gt;1,_xlfn.STDEV.S(B7:AN7),"")</f>
+        <v>0.77483511673650751</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="AO7" s="18">
-        <f t="shared" si="1"/>
-        <v>5.7857142857142856</v>
-      </c>
-      <c r="AP7">
-        <f t="shared" si="2"/>
-        <v>0.77493812690375397</v>
-      </c>
-      <c r="AQ7">
-        <v>1</v>
-      </c>
-      <c r="AS7">
-        <f t="shared" si="3"/>
         <v>4.75</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3145,27 +3169,27 @@
       <c r="AK8">
         <v>5.5</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
+        <f>COUNT(B8:AN8)</f>
+        <v>29</v>
+      </c>
+      <c r="AP8" s="18">
+        <f>AVERAGE(B8:AN8)</f>
+        <v>6.7068965517241379</v>
+      </c>
+      <c r="AQ8">
+        <f>IF(AO8&gt;1,_xlfn.STDEV.S(B8:AN8),"")</f>
+        <v>0.70098452931917521</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="AO8" s="18">
-        <f t="shared" si="1"/>
-        <v>6.7068965517241379</v>
-      </c>
-      <c r="AP8">
-        <f t="shared" si="2"/>
-        <v>0.70098452931917521</v>
-      </c>
-      <c r="AQ8">
-        <v>1</v>
-      </c>
-      <c r="AS8">
-        <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3274,158 +3298,164 @@
       <c r="AK9">
         <v>6.5</v>
       </c>
-      <c r="AN9">
+      <c r="AL9">
+        <v>4.5</v>
+      </c>
+      <c r="AO9">
+        <f>COUNT(B9:AN9)</f>
+        <v>29</v>
+      </c>
+      <c r="AP9" s="18">
+        <f>AVERAGE(B9:AN9)</f>
+        <v>6.5344827586206895</v>
+      </c>
+      <c r="AQ9">
+        <f>IF(AO9&gt;1,_xlfn.STDEV.S(B9:AN9),"")</f>
+        <v>1.0516231882424716</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="AO9" s="18">
-        <f t="shared" si="1"/>
-        <v>6.6071428571428568</v>
-      </c>
-      <c r="AP9">
-        <f t="shared" si="2"/>
-        <v>0.99402979738800312</v>
-      </c>
-      <c r="AQ9">
-        <v>1</v>
-      </c>
-      <c r="AS9">
-        <f t="shared" si="3"/>
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>4.5</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10">
+        <v>4.5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10">
+        <v>2.5</v>
+      </c>
+      <c r="M10">
+        <v>4.5</v>
+      </c>
+      <c r="N10">
+        <v>5.5</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>4.5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>2.5</v>
+      </c>
+      <c r="V10">
+        <v>5.5</v>
+      </c>
+      <c r="W10">
+        <v>6</v>
+      </c>
+      <c r="X10">
+        <v>6</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z10">
+        <v>5.5</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC10">
+        <v>4</v>
+      </c>
+      <c r="AD10">
+        <v>4.5</v>
+      </c>
+      <c r="AE10">
+        <v>4</v>
+      </c>
+      <c r="AF10">
+        <v>2.5</v>
+      </c>
+      <c r="AG10">
+        <v>3</v>
+      </c>
+      <c r="AH10">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>8.5</v>
-      </c>
-      <c r="D10">
-        <v>8.5</v>
-      </c>
-      <c r="E10">
-        <v>7.5</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>7.5</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10">
-        <v>8.5</v>
-      </c>
-      <c r="K10">
-        <v>7.5</v>
-      </c>
-      <c r="L10">
-        <v>8.5</v>
-      </c>
-      <c r="M10">
-        <v>7</v>
-      </c>
-      <c r="N10">
-        <v>7.5</v>
-      </c>
-      <c r="O10">
-        <v>7.5</v>
-      </c>
-      <c r="P10">
-        <v>7</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
-      </c>
-      <c r="R10" t="s">
-        <v>26</v>
-      </c>
-      <c r="S10" t="s">
-        <v>26</v>
-      </c>
-      <c r="T10" t="s">
-        <v>26</v>
-      </c>
-      <c r="U10">
-        <v>7</v>
-      </c>
-      <c r="V10">
-        <v>6</v>
-      </c>
-      <c r="W10">
-        <v>7.5</v>
-      </c>
-      <c r="X10">
-        <v>7</v>
-      </c>
-      <c r="Y10">
-        <v>7</v>
-      </c>
-      <c r="Z10">
-        <v>7</v>
-      </c>
-      <c r="AA10">
-        <v>7</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF10">
-        <v>6.5</v>
-      </c>
-      <c r="AG10">
-        <v>10</v>
-      </c>
-      <c r="AI10">
-        <v>6.5</v>
-      </c>
-      <c r="AJ10">
+      <c r="AK10">
+        <v>5</v>
+      </c>
+      <c r="AL10">
+        <v>2.5</v>
+      </c>
+      <c r="AO10">
+        <f>COUNT(B10:AN10)</f>
+        <v>24</v>
+      </c>
+      <c r="AP10" s="18">
+        <f>AVERAGE(B10:AN10)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AQ10">
+        <f>IF(AO10&gt;1,_xlfn.STDEV.S(B10:AN10),"")</f>
+        <v>1.2158375177486576</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>5.5</v>
-      </c>
-      <c r="AK10">
-        <v>6.5</v>
-      </c>
-      <c r="AN10">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="AO10" s="18">
-        <f t="shared" si="1"/>
-        <v>7.4074074074074074</v>
-      </c>
-      <c r="AP10">
-        <f t="shared" si="2"/>
-        <v>1.0380921575829991</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <f t="shared" si="3"/>
-        <v>6.166666666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -3433,47 +3463,47 @@
       <c r="D11">
         <v>7.5</v>
       </c>
-      <c r="E11" t="s">
-        <v>26</v>
+      <c r="E11">
+        <v>7.5</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="H11">
+        <v>5.5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11">
         <v>4.5</v>
       </c>
-      <c r="I11">
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="O11">
         <v>5.5</v>
       </c>
-      <c r="J11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>6</v>
-      </c>
-      <c r="L11">
-        <v>6</v>
-      </c>
-      <c r="M11">
-        <v>6</v>
-      </c>
-      <c r="N11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11">
-        <v>6</v>
-      </c>
       <c r="P11">
-        <v>5.5</v>
-      </c>
-      <c r="Q11">
-        <v>5.5</v>
-      </c>
-      <c r="R11">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
       <c r="S11">
         <v>4.5</v>
@@ -3484,14 +3514,14 @@
       <c r="U11" t="s">
         <v>26</v>
       </c>
-      <c r="V11">
-        <v>6</v>
+      <c r="V11" t="s">
+        <v>26</v>
       </c>
       <c r="W11" t="s">
         <v>26</v>
       </c>
       <c r="X11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y11">
         <v>6</v>
@@ -3500,331 +3530,358 @@
         <v>26</v>
       </c>
       <c r="AA11">
-        <v>6</v>
-      </c>
-      <c r="AB11">
+        <v>4.5</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC11">
+        <v>7</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE11">
+        <v>3</v>
+      </c>
+      <c r="AF11">
+        <v>6</v>
+      </c>
+      <c r="AG11">
+        <v>4.5</v>
+      </c>
+      <c r="AH11">
+        <v>6</v>
+      </c>
+      <c r="AI11">
+        <v>6</v>
+      </c>
+      <c r="AJ11">
         <v>5.5</v>
       </c>
-      <c r="AC11">
-        <v>6</v>
-      </c>
-      <c r="AD11">
+      <c r="AK11">
+        <v>7</v>
+      </c>
+      <c r="AL11">
+        <v>5</v>
+      </c>
+      <c r="AO11">
+        <f>COUNT(B11:AN11)</f>
+        <v>25</v>
+      </c>
+      <c r="AP11" s="18">
+        <f>AVERAGE(B11:AN11)</f>
+        <v>5.86</v>
+      </c>
+      <c r="AQ11">
+        <f>IF(AO11&gt;1,_xlfn.STDEV.S(B11:AN11),"")</f>
+        <v>1.1228683508467647</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" si="0"/>
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>7.5</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>7.5</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12">
+        <v>7.5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>7.5</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>7</v>
+      </c>
+      <c r="U12">
+        <v>7</v>
+      </c>
+      <c r="V12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W12">
+        <v>6</v>
+      </c>
+      <c r="X12">
+        <v>6</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA12">
+        <v>6</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE12">
+        <v>6</v>
+      </c>
+      <c r="AF12">
+        <v>6.5</v>
+      </c>
+      <c r="AG12">
+        <v>7</v>
+      </c>
+      <c r="AH12">
         <v>5.5</v>
       </c>
-      <c r="AI11">
-        <v>5</v>
-      </c>
-      <c r="AN11">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="AO11" s="18">
-        <f t="shared" si="1"/>
-        <v>5.9565217391304346</v>
-      </c>
-      <c r="AP11">
-        <f t="shared" si="2"/>
-        <v>0.76741957645352532</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>4.5</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12">
-        <v>4.5</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12">
-        <v>2.5</v>
-      </c>
-      <c r="M12">
-        <v>4.5</v>
-      </c>
-      <c r="N12">
+      <c r="AJ12">
         <v>5.5</v>
-      </c>
-      <c r="O12">
-        <v>6</v>
-      </c>
-      <c r="P12">
-        <v>4.5</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>26</v>
-      </c>
-      <c r="R12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S12">
-        <v>4</v>
-      </c>
-      <c r="T12">
-        <v>6</v>
-      </c>
-      <c r="U12">
-        <v>2.5</v>
-      </c>
-      <c r="V12">
-        <v>5.5</v>
-      </c>
-      <c r="W12">
-        <v>6</v>
-      </c>
-      <c r="X12">
-        <v>6</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z12">
-        <v>5.5</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC12">
-        <v>4</v>
-      </c>
-      <c r="AD12">
-        <v>4.5</v>
-      </c>
-      <c r="AE12">
-        <v>4</v>
-      </c>
-      <c r="AF12">
-        <v>2.5</v>
-      </c>
-      <c r="AG12">
-        <v>3</v>
-      </c>
-      <c r="AH12">
-        <v>5</v>
       </c>
       <c r="AK12">
         <v>5</v>
       </c>
-      <c r="AN12">
+      <c r="AL12">
+        <v>4.5</v>
+      </c>
+      <c r="AO12">
+        <f>COUNT(B12:AN12)</f>
+        <v>24</v>
+      </c>
+      <c r="AP12" s="18">
+        <f>AVERAGE(B12:AN12)</f>
+        <v>6.375</v>
+      </c>
+      <c r="AQ12">
+        <f>IF(AO12&gt;1,_xlfn.STDEV.S(B12:AN12),"")</f>
+        <v>0.82422559174473375</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="AO12" s="18">
-        <f t="shared" si="1"/>
-        <v>4.5869565217391308</v>
-      </c>
-      <c r="AP12">
-        <f t="shared" si="2"/>
-        <v>1.164358718478306</v>
-      </c>
-      <c r="AQ12">
-        <v>1</v>
-      </c>
-      <c r="AS12">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" t="s">
+        <v>26</v>
+      </c>
+      <c r="V13">
+        <v>7</v>
+      </c>
+      <c r="W13">
+        <v>7</v>
+      </c>
+      <c r="X13">
+        <v>6</v>
+      </c>
+      <c r="Y13">
+        <v>7</v>
+      </c>
+      <c r="Z13">
         <v>7.5</v>
       </c>
-      <c r="E13">
+      <c r="AA13">
+        <v>7</v>
+      </c>
+      <c r="AB13">
+        <v>7</v>
+      </c>
+      <c r="AC13">
         <v>7.5</v>
       </c>
-      <c r="F13">
-        <v>7.5</v>
-      </c>
-      <c r="G13">
-        <v>5.5</v>
-      </c>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13">
-        <v>4.5</v>
-      </c>
-      <c r="J13">
-        <v>7</v>
-      </c>
-      <c r="K13">
-        <v>6</v>
-      </c>
-      <c r="L13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13">
-        <v>6</v>
-      </c>
-      <c r="O13">
-        <v>5.5</v>
-      </c>
-      <c r="P13">
-        <v>6</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>26</v>
-      </c>
-      <c r="R13" t="s">
-        <v>26</v>
-      </c>
-      <c r="S13">
-        <v>4.5</v>
-      </c>
-      <c r="T13">
-        <v>7</v>
-      </c>
-      <c r="U13" t="s">
-        <v>26</v>
-      </c>
-      <c r="V13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X13">
-        <v>6</v>
-      </c>
-      <c r="Y13">
-        <v>6</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA13">
-        <v>4.5</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC13">
-        <v>7</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>26</v>
+      <c r="AD13">
+        <v>7</v>
       </c>
       <c r="AE13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF13">
-        <v>6</v>
-      </c>
-      <c r="AG13">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH13">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI13">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AJ13">
         <v>5.5</v>
       </c>
       <c r="AK13">
-        <v>7</v>
-      </c>
-      <c r="AN13">
+        <v>5.5</v>
+      </c>
+      <c r="AL13">
+        <v>6</v>
+      </c>
+      <c r="AO13">
+        <f>COUNT(B13:AN13)</f>
+        <v>17</v>
+      </c>
+      <c r="AP13" s="18">
+        <f>AVERAGE(B13:AN13)</f>
+        <v>6.6470588235294121</v>
+      </c>
+      <c r="AQ13">
+        <f>IF(AO13&gt;1,_xlfn.STDEV.S(B13:AN13),"")</f>
+        <v>0.65585597414640462</v>
+      </c>
+      <c r="AR13">
+        <v>1</v>
+      </c>
+      <c r="AT13">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AO13" s="18">
-        <f t="shared" si="1"/>
-        <v>5.895833333333333</v>
-      </c>
-      <c r="AP13">
-        <f t="shared" si="2"/>
-        <v>1.1323231858005254</v>
-      </c>
-      <c r="AQ13">
-        <v>1</v>
-      </c>
-      <c r="AS13">
-        <f t="shared" si="3"/>
-        <v>6.166666666666667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>7.5</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>7.5</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
       </c>
       <c r="H14" t="s">
         <v>26</v>
       </c>
-      <c r="I14">
-        <v>7.5</v>
+      <c r="I14" t="s">
+        <v>26</v>
       </c>
       <c r="J14" t="s">
         <v>26</v>
       </c>
-      <c r="K14">
-        <v>7.5</v>
+      <c r="K14" t="s">
+        <v>26</v>
       </c>
       <c r="L14" t="s">
         <v>26</v>
@@ -3832,650 +3889,692 @@
       <c r="M14" t="s">
         <v>26</v>
       </c>
-      <c r="N14">
-        <v>6</v>
-      </c>
-      <c r="O14">
-        <v>7</v>
-      </c>
-      <c r="P14">
-        <v>6</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>26</v>
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14">
+        <v>5.5</v>
       </c>
       <c r="R14" t="s">
         <v>26</v>
       </c>
       <c r="S14">
-        <v>6</v>
-      </c>
-      <c r="T14">
-        <v>7</v>
-      </c>
-      <c r="U14">
-        <v>7</v>
-      </c>
-      <c r="V14" t="s">
-        <v>26</v>
-      </c>
-      <c r="W14">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="T14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V14">
+        <v>7</v>
+      </c>
+      <c r="W14" t="s">
+        <v>26</v>
       </c>
       <c r="X14">
         <v>6</v>
       </c>
-      <c r="Y14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA14">
-        <v>6</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>26</v>
+      <c r="Y14">
+        <v>7</v>
+      </c>
+      <c r="Z14">
+        <v>7</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB14">
+        <v>7</v>
+      </c>
+      <c r="AC14">
+        <v>4.5</v>
+      </c>
+      <c r="AD14">
+        <v>7</v>
       </c>
       <c r="AE14">
         <v>6</v>
       </c>
       <c r="AF14">
+        <v>5</v>
+      </c>
+      <c r="AG14">
         <v>6.5</v>
       </c>
-      <c r="AG14">
-        <v>7</v>
-      </c>
       <c r="AH14">
-        <v>5.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="AI14">
+        <v>6.5</v>
       </c>
       <c r="AJ14">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AK14">
         <v>5</v>
       </c>
-      <c r="AN14">
+      <c r="AL14">
+        <v>6</v>
+      </c>
+      <c r="AO14">
+        <f>COUNT(B14:AN14)</f>
+        <v>17</v>
+      </c>
+      <c r="AP14" s="18">
+        <f>AVERAGE(B14:AN14)</f>
+        <v>6.1470588235294121</v>
+      </c>
+      <c r="AQ14">
+        <f>IF(AO14&gt;1,_xlfn.STDEV.S(B14:AN14),"")</f>
+        <v>0.8617697249402122</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AT14">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="AO14" s="18">
-        <f t="shared" si="1"/>
-        <v>6.4565217391304346</v>
-      </c>
-      <c r="AP14">
-        <f t="shared" si="2"/>
-        <v>0.73720978077448396</v>
-      </c>
-      <c r="AQ14">
-        <v>1</v>
-      </c>
-      <c r="AS14">
-        <f t="shared" si="3"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <v>5.5</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>4.5</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15">
+        <v>5.5</v>
+      </c>
+      <c r="P15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15">
+        <v>6</v>
+      </c>
+      <c r="V15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA15">
+        <v>7</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC15">
+        <v>7</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI15">
+        <v>5</v>
+      </c>
+      <c r="AJ15">
+        <v>5</v>
+      </c>
+      <c r="AO15">
+        <f>COUNT(B15:AN15)</f>
+        <v>13</v>
+      </c>
+      <c r="AP15" s="18">
+        <f>AVERAGE(B15:AN15)</f>
+        <v>5.6538461538461542</v>
+      </c>
+      <c r="AQ15">
+        <f>IF(AO15&gt;1,_xlfn.STDEV.S(B15:AN15),"")</f>
+        <v>1.1251780485885956</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" t="s">
+        <v>26</v>
+      </c>
+      <c r="T16" t="s">
+        <v>26</v>
+      </c>
+      <c r="U16" t="s">
+        <v>26</v>
+      </c>
+      <c r="V16" t="s">
+        <v>26</v>
+      </c>
+      <c r="W16" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB16">
+        <v>4.5</v>
+      </c>
+      <c r="AC16">
+        <v>6</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE16">
+        <v>6.5</v>
+      </c>
+      <c r="AF16">
+        <v>6</v>
+      </c>
+      <c r="AG16">
+        <v>6.5</v>
+      </c>
+      <c r="AH16">
+        <v>5</v>
+      </c>
+      <c r="AI16">
+        <v>5.5</v>
+      </c>
+      <c r="AL16">
+        <v>5</v>
+      </c>
+      <c r="AO16">
+        <f>COUNT(B16:AN16)</f>
+        <v>8</v>
+      </c>
+      <c r="AP16" s="18">
+        <f>AVERAGE(B16:AN16)</f>
+        <v>5.625</v>
+      </c>
+      <c r="AQ16">
+        <f>IF(AO16&gt;1,_xlfn.STDEV.S(B16:AN16),"")</f>
+        <v>0.74402380914284494</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>8.5</v>
+      </c>
+      <c r="D17">
+        <v>8.5</v>
+      </c>
+      <c r="E17">
+        <v>7.5</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>7.5</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17">
+        <v>8.5</v>
+      </c>
+      <c r="K17">
+        <v>7.5</v>
+      </c>
+      <c r="L17">
+        <v>8.5</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>7.5</v>
+      </c>
+      <c r="O17">
+        <v>7.5</v>
+      </c>
+      <c r="P17">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" t="s">
+        <v>26</v>
+      </c>
+      <c r="U17">
+        <v>7</v>
+      </c>
+      <c r="V17">
+        <v>6</v>
+      </c>
+      <c r="W17">
+        <v>7.5</v>
+      </c>
+      <c r="X17">
+        <v>7</v>
+      </c>
+      <c r="Y17">
+        <v>7</v>
+      </c>
+      <c r="Z17">
+        <v>7</v>
+      </c>
+      <c r="AA17">
+        <v>7</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF17">
+        <v>6.5</v>
+      </c>
+      <c r="AG17">
+        <v>10</v>
+      </c>
+      <c r="AI17">
+        <v>6.5</v>
+      </c>
+      <c r="AJ17">
+        <v>5.5</v>
+      </c>
+      <c r="AK17">
+        <v>6.5</v>
+      </c>
+      <c r="AL17">
+        <v>6</v>
+      </c>
+      <c r="AO17">
+        <f>COUNT(B17:AN17)</f>
+        <v>28</v>
+      </c>
+      <c r="AP17" s="18">
+        <f>AVERAGE(B17:AN17)</f>
+        <v>7.3571428571428568</v>
+      </c>
+      <c r="AQ17">
+        <f>IF(AO17&gt;1,_xlfn.STDEV.S(B17:AN17),"")</f>
+        <v>1.0528369334638696</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="0"/>
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18">
+        <v>5.5</v>
+      </c>
+      <c r="G18">
+        <v>4.5</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18">
+        <v>6</v>
+      </c>
+      <c r="T18">
+        <v>6</v>
+      </c>
+      <c r="U18" t="s">
+        <v>26</v>
+      </c>
+      <c r="V18" t="s">
+        <v>26</v>
+      </c>
+      <c r="W18" t="s">
+        <v>26</v>
+      </c>
+      <c r="X18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG18">
+        <v>6.5</v>
+      </c>
+      <c r="AI18">
+        <v>4</v>
+      </c>
+      <c r="AJ18">
+        <v>3.5</v>
+      </c>
+      <c r="AK18">
+        <v>3</v>
+      </c>
+      <c r="AL18">
+        <v>5</v>
+      </c>
+      <c r="AO18">
+        <f>COUNT(B18:AN18)</f>
+        <v>11</v>
+      </c>
+      <c r="AP18" s="18">
+        <f>AVERAGE(B18:AN18)</f>
+        <v>5.0909090909090908</v>
+      </c>
+      <c r="AQ18">
+        <f>IF(AO18&gt;1,_xlfn.STDEV.S(B18:AN18),"")</f>
+        <v>1.1793680896603458</v>
+      </c>
+      <c r="AR18">
+        <v>1</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
+      <c r="B19">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>7</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15">
-        <v>6</v>
-      </c>
-      <c r="N15">
-        <v>6</v>
-      </c>
-      <c r="O15">
-        <v>6</v>
-      </c>
-      <c r="P15">
-        <v>6</v>
-      </c>
-      <c r="Q15">
-        <v>7</v>
-      </c>
-      <c r="R15" t="s">
-        <v>26</v>
-      </c>
-      <c r="S15" t="s">
-        <v>26</v>
-      </c>
-      <c r="T15">
-        <v>6</v>
-      </c>
-      <c r="U15">
-        <v>6</v>
-      </c>
-      <c r="V15">
-        <v>7</v>
-      </c>
-      <c r="W15">
-        <v>6</v>
-      </c>
-      <c r="X15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y15">
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <v>6</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19">
+        <v>6</v>
+      </c>
+      <c r="U19">
+        <v>6</v>
+      </c>
+      <c r="V19">
+        <v>7</v>
+      </c>
+      <c r="W19">
+        <v>6</v>
+      </c>
+      <c r="X19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y19">
         <v>8.5</v>
       </c>
-      <c r="Z15">
-        <v>6</v>
-      </c>
-      <c r="AA15">
-        <v>6</v>
-      </c>
-      <c r="AB15">
+      <c r="Z19">
+        <v>6</v>
+      </c>
+      <c r="AA19">
+        <v>6</v>
+      </c>
+      <c r="AB19">
         <v>5.5</v>
       </c>
-      <c r="AC15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE15">
-        <v>6</v>
-      </c>
-      <c r="AF15">
-        <v>6.5</v>
-      </c>
-      <c r="AG15">
-        <v>6.5</v>
-      </c>
-      <c r="AN15">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="AO15" s="18">
-        <f t="shared" si="1"/>
-        <v>6.55</v>
-      </c>
-      <c r="AP15">
-        <f t="shared" si="2"/>
-        <v>1.050062654772262</v>
-      </c>
-      <c r="AQ15">
-        <v>1</v>
-      </c>
-      <c r="AS15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>5.5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-      <c r="H16">
-        <v>4.5</v>
-      </c>
-      <c r="I16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16">
-        <v>6</v>
-      </c>
-      <c r="Q16">
-        <v>5.5</v>
-      </c>
-      <c r="R16">
-        <v>7</v>
-      </c>
-      <c r="S16">
-        <v>6</v>
-      </c>
-      <c r="T16">
-        <v>6</v>
-      </c>
-      <c r="U16">
-        <v>7</v>
-      </c>
-      <c r="V16">
-        <v>5.5</v>
-      </c>
-      <c r="W16">
-        <v>6</v>
-      </c>
-      <c r="X16">
-        <v>5.5</v>
-      </c>
-      <c r="Y16">
-        <v>7</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA16">
-        <v>7</v>
-      </c>
-      <c r="AB16">
-        <v>6</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD16">
-        <v>6</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AO16" s="18">
-        <f t="shared" si="1"/>
-        <v>6.0882352941176467</v>
-      </c>
-      <c r="AP16">
-        <f t="shared" si="2"/>
-        <v>0.71228711990072591</v>
-      </c>
-      <c r="AQ16">
-        <v>1</v>
-      </c>
-      <c r="AS16" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>7.5</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>7.5</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <v>5.5</v>
-      </c>
-      <c r="H17">
-        <v>4.5</v>
-      </c>
-      <c r="I17">
-        <v>5.5</v>
-      </c>
-      <c r="J17">
-        <v>5.5</v>
-      </c>
-      <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" t="s">
-        <v>26</v>
-      </c>
-      <c r="O17">
-        <v>7</v>
-      </c>
-      <c r="P17">
-        <v>6</v>
-      </c>
-      <c r="Q17">
-        <v>6</v>
-      </c>
-      <c r="R17">
-        <v>7</v>
-      </c>
-      <c r="S17" t="s">
-        <v>26</v>
-      </c>
-      <c r="T17" t="s">
-        <v>26</v>
-      </c>
-      <c r="U17" t="s">
-        <v>26</v>
-      </c>
-      <c r="V17" t="s">
-        <v>26</v>
-      </c>
-      <c r="W17" t="s">
-        <v>26</v>
-      </c>
-      <c r="X17" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y17">
-        <v>6</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE17">
-        <v>6.5</v>
-      </c>
-      <c r="AI17">
-        <v>5</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AO17" s="18">
-        <f t="shared" si="1"/>
-        <v>5.96875</v>
-      </c>
-      <c r="AP17">
-        <f t="shared" si="2"/>
-        <v>0.99110628424335334</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18">
-        <v>6</v>
-      </c>
-      <c r="P18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18">
-        <v>4.5</v>
-      </c>
-      <c r="R18" t="s">
-        <v>26</v>
-      </c>
-      <c r="S18" t="s">
-        <v>26</v>
-      </c>
-      <c r="T18">
-        <v>7</v>
-      </c>
-      <c r="U18">
-        <v>7</v>
-      </c>
-      <c r="V18">
-        <v>6</v>
-      </c>
-      <c r="W18">
-        <v>6</v>
-      </c>
-      <c r="X18">
-        <v>6</v>
-      </c>
-      <c r="Y18">
-        <v>7.5</v>
-      </c>
-      <c r="Z18">
-        <v>6</v>
-      </c>
-      <c r="AA18">
-        <v>6</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC18">
-        <v>6</v>
-      </c>
-      <c r="AD18">
-        <v>7</v>
-      </c>
-      <c r="AF18">
-        <v>7</v>
-      </c>
-      <c r="AG18">
-        <v>7</v>
-      </c>
-      <c r="AN18">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AO18" s="18">
-        <f t="shared" si="1"/>
-        <v>6.3571428571428568</v>
-      </c>
-      <c r="AP18">
-        <f t="shared" si="2"/>
-        <v>0.77032888651964082</v>
-      </c>
-      <c r="AQ18">
-        <v>1</v>
-      </c>
-      <c r="AS18" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>7.5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>26</v>
-      </c>
-      <c r="R19" t="s">
-        <v>26</v>
-      </c>
-      <c r="S19" t="s">
-        <v>26</v>
-      </c>
-      <c r="T19" t="s">
-        <v>26</v>
-      </c>
-      <c r="U19" t="s">
-        <v>26</v>
-      </c>
-      <c r="V19">
-        <v>7</v>
-      </c>
-      <c r="W19">
-        <v>7</v>
-      </c>
-      <c r="X19">
-        <v>6</v>
-      </c>
-      <c r="Y19">
-        <v>7</v>
-      </c>
-      <c r="Z19">
-        <v>7.5</v>
-      </c>
-      <c r="AA19">
-        <v>7</v>
-      </c>
-      <c r="AB19">
-        <v>7</v>
-      </c>
-      <c r="AC19">
-        <v>7.5</v>
-      </c>
-      <c r="AD19">
-        <v>7</v>
+      <c r="AC19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>26</v>
       </c>
       <c r="AE19">
         <v>6</v>
@@ -4483,1335 +4582,1296 @@
       <c r="AF19">
         <v>6.5</v>
       </c>
-      <c r="AH19">
+      <c r="AG19">
         <v>6.5</v>
       </c>
-      <c r="AI19">
-        <v>6.5</v>
-      </c>
-      <c r="AJ19">
+      <c r="AL19">
+        <v>4.5</v>
+      </c>
+      <c r="AO19">
+        <f>COUNT(B19:AN19)</f>
+        <v>21</v>
+      </c>
+      <c r="AP19" s="18">
+        <f>AVERAGE(B19:AN19)</f>
+        <v>6.4523809523809526</v>
+      </c>
+      <c r="AQ19">
+        <f>IF(AO19&gt;1,_xlfn.STDEV.S(B19:AN19),"")</f>
+        <v>1.1169686869465267</v>
+      </c>
+      <c r="AR19">
+        <v>0.5</v>
+      </c>
+      <c r="AT19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
         <v>5.5</v>
       </c>
-      <c r="AK19">
+      <c r="J20">
         <v>5.5</v>
       </c>
-      <c r="AN19">
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>4.5</v>
+      </c>
+      <c r="O20">
+        <v>7.5</v>
+      </c>
+      <c r="P20">
+        <v>7</v>
+      </c>
+      <c r="Q20">
+        <v>4.5</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20" t="s">
+        <v>26</v>
+      </c>
+      <c r="U20">
+        <v>5.5</v>
+      </c>
+      <c r="V20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH20">
+        <v>5</v>
+      </c>
+      <c r="AI20">
+        <v>5.5</v>
+      </c>
+      <c r="AJ20">
+        <v>3.5</v>
+      </c>
+      <c r="AO20">
+        <f>COUNT(B20:AN20)</f>
+        <v>13</v>
+      </c>
+      <c r="AP20" s="18">
+        <f>AVERAGE(B20:AN20)</f>
+        <v>5.2307692307692308</v>
+      </c>
+      <c r="AQ20">
+        <f>IF(AO20&gt;1,_xlfn.STDEV.S(B20:AN20),"")</f>
+        <v>1.1657505560686472</v>
+      </c>
+      <c r="AR20">
+        <v>0.5</v>
+      </c>
+      <c r="AT20">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AO19" s="18">
-        <f t="shared" si="1"/>
-        <v>6.6875</v>
-      </c>
-      <c r="AP19">
-        <f t="shared" si="2"/>
-        <v>0.65510813356778486</v>
-      </c>
-      <c r="AQ19">
-        <v>1</v>
-      </c>
-      <c r="AS19">
-        <f t="shared" si="3"/>
-        <v>5.833333333333333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q20">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
         <v>5.5</v>
       </c>
-      <c r="R20" t="s">
-        <v>26</v>
-      </c>
-      <c r="S20">
-        <v>7</v>
-      </c>
-      <c r="T20" t="s">
-        <v>26</v>
-      </c>
-      <c r="U20" t="s">
-        <v>26</v>
-      </c>
-      <c r="V20">
-        <v>7</v>
-      </c>
-      <c r="W20" t="s">
-        <v>26</v>
-      </c>
-      <c r="X20">
-        <v>6</v>
-      </c>
-      <c r="Y20">
-        <v>7</v>
-      </c>
-      <c r="Z20">
-        <v>7</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB20">
-        <v>7</v>
-      </c>
-      <c r="AC20">
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
         <v>4.5</v>
       </c>
-      <c r="AD20">
-        <v>7</v>
-      </c>
-      <c r="AE20">
-        <v>6</v>
-      </c>
-      <c r="AF20">
-        <v>5</v>
-      </c>
-      <c r="AG20">
-        <v>6.5</v>
-      </c>
-      <c r="AH20">
-        <v>6.5</v>
-      </c>
-      <c r="AI20">
-        <v>6.5</v>
-      </c>
-      <c r="AJ20">
-        <v>5</v>
-      </c>
-      <c r="AK20">
-        <v>5</v>
-      </c>
-      <c r="AN20">
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21">
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <v>5.5</v>
+      </c>
+      <c r="R21">
+        <v>7</v>
+      </c>
+      <c r="S21">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <v>7</v>
+      </c>
+      <c r="V21">
+        <v>5.5</v>
+      </c>
+      <c r="W21">
+        <v>6</v>
+      </c>
+      <c r="X21">
+        <v>5.5</v>
+      </c>
+      <c r="Y21">
+        <v>7</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA21">
+        <v>7</v>
+      </c>
+      <c r="AB21">
+        <v>6</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD21">
+        <v>6</v>
+      </c>
+      <c r="AO21">
+        <f>COUNT(B21:AN21)</f>
+        <v>17</v>
+      </c>
+      <c r="AP21" s="18">
+        <f>AVERAGE(B21:AN21)</f>
+        <v>6.0882352941176467</v>
+      </c>
+      <c r="AQ21">
+        <f>IF(AO21&gt;1,_xlfn.STDEV.S(B21:AN21),"")</f>
+        <v>0.71228711990072591</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="e">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AO20" s="18">
-        <f t="shared" si="1"/>
-        <v>6.15625</v>
-      </c>
-      <c r="AP20">
-        <f t="shared" si="2"/>
-        <v>0.88917096218893699</v>
-      </c>
-      <c r="AQ20">
-        <v>1</v>
-      </c>
-      <c r="AS20">
-        <f t="shared" si="3"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>1.5</v>
-      </c>
-      <c r="D21">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+      <c r="P22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22">
         <v>4.5</v>
       </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21">
+      <c r="R22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22">
+        <v>7</v>
+      </c>
+      <c r="U22">
+        <v>7</v>
+      </c>
+      <c r="V22">
+        <v>6</v>
+      </c>
+      <c r="W22">
+        <v>6</v>
+      </c>
+      <c r="X22">
+        <v>6</v>
+      </c>
+      <c r="Y22">
         <v>7.5</v>
       </c>
-      <c r="G21">
-        <v>5.5</v>
-      </c>
-      <c r="H21">
-        <v>6</v>
-      </c>
-      <c r="I21">
+      <c r="Z22">
+        <v>6</v>
+      </c>
+      <c r="AA22">
+        <v>6</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC22">
+        <v>6</v>
+      </c>
+      <c r="AD22">
+        <v>7</v>
+      </c>
+      <c r="AF22">
+        <v>7</v>
+      </c>
+      <c r="AG22">
+        <v>7</v>
+      </c>
+      <c r="AO22">
+        <f>COUNT(B22:AN22)</f>
+        <v>14</v>
+      </c>
+      <c r="AP22" s="18">
+        <f>AVERAGE(B22:AN22)</f>
+        <v>6.3571428571428568</v>
+      </c>
+      <c r="AQ22">
+        <f>IF(AO22&gt;1,_xlfn.STDEV.S(B22:AN22),"")</f>
+        <v>0.77032888651964082</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>7.5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
         <v>4.5</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21">
-        <v>5.5</v>
-      </c>
-      <c r="L21">
-        <v>2.5</v>
-      </c>
-      <c r="M21">
-        <v>1.5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>26</v>
-      </c>
-      <c r="R21" t="s">
-        <v>26</v>
-      </c>
-      <c r="S21" t="s">
-        <v>26</v>
-      </c>
-      <c r="T21" t="s">
-        <v>26</v>
-      </c>
-      <c r="U21" t="s">
-        <v>26</v>
-      </c>
-      <c r="V21" t="s">
-        <v>26</v>
-      </c>
-      <c r="W21" t="s">
-        <v>26</v>
-      </c>
-      <c r="X21" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD21">
-        <v>6</v>
-      </c>
-      <c r="AN21">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AO21" s="18">
-        <f t="shared" si="1"/>
-        <v>4.4615384615384617</v>
-      </c>
-      <c r="AP21">
-        <f t="shared" si="2"/>
-        <v>1.875961292039569</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22">
-        <v>5.5</v>
-      </c>
-      <c r="H22">
-        <v>4</v>
-      </c>
-      <c r="I22">
-        <v>4.5</v>
-      </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
-      <c r="K22">
-        <v>7</v>
-      </c>
-      <c r="L22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22">
-        <v>5.5</v>
-      </c>
-      <c r="P22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R22" t="s">
-        <v>26</v>
-      </c>
-      <c r="S22" t="s">
-        <v>26</v>
-      </c>
-      <c r="T22" t="s">
-        <v>26</v>
-      </c>
-      <c r="U22">
-        <v>6</v>
-      </c>
-      <c r="V22" t="s">
-        <v>26</v>
-      </c>
-      <c r="W22" t="s">
-        <v>26</v>
-      </c>
-      <c r="X22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA22">
-        <v>7</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC22">
-        <v>7</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI22">
-        <v>5</v>
-      </c>
-      <c r="AJ22">
-        <v>5</v>
-      </c>
-      <c r="AN22">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AO22" s="18">
-        <f t="shared" si="1"/>
-        <v>5.6538461538461542</v>
-      </c>
-      <c r="AP22">
-        <f t="shared" si="2"/>
-        <v>1.1251780485885956</v>
-      </c>
-      <c r="AQ22">
-        <v>1</v>
-      </c>
-      <c r="AS22">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23">
-        <v>6</v>
       </c>
       <c r="I23">
         <v>5.5</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>6</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23">
+        <v>6</v>
+      </c>
+      <c r="P23">
         <v>5.5</v>
       </c>
-      <c r="K23">
-        <v>4</v>
-      </c>
-      <c r="L23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23">
-        <v>4</v>
-      </c>
-      <c r="N23">
+      <c r="Q23">
+        <v>5.5</v>
+      </c>
+      <c r="R23">
+        <v>6</v>
+      </c>
+      <c r="S23">
         <v>4.5</v>
       </c>
-      <c r="O23">
+      <c r="T23">
+        <v>7</v>
+      </c>
+      <c r="U23" t="s">
+        <v>26</v>
+      </c>
+      <c r="V23">
+        <v>6</v>
+      </c>
+      <c r="W23" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23">
+        <v>7</v>
+      </c>
+      <c r="Y23">
+        <v>6</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA23">
+        <v>6</v>
+      </c>
+      <c r="AB23">
+        <v>5.5</v>
+      </c>
+      <c r="AC23">
+        <v>6</v>
+      </c>
+      <c r="AD23">
+        <v>5.5</v>
+      </c>
+      <c r="AI23">
+        <v>5</v>
+      </c>
+      <c r="AL23">
+        <v>5.5</v>
+      </c>
+      <c r="AO23">
+        <f>COUNT(B23:AN23)</f>
+        <v>24</v>
+      </c>
+      <c r="AP23" s="18">
+        <f>AVERAGE(B23:AN23)</f>
+        <v>5.9375</v>
+      </c>
+      <c r="AQ23">
+        <f>IF(AO23&gt;1,_xlfn.STDEV.S(B23:AN23),"")</f>
+        <v>0.75631400196295284</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>7.5</v>
       </c>
-      <c r="P23">
-        <v>7</v>
-      </c>
-      <c r="Q23">
-        <v>4.5</v>
-      </c>
-      <c r="R23" t="s">
-        <v>26</v>
-      </c>
-      <c r="S23" t="s">
-        <v>26</v>
-      </c>
-      <c r="T23" t="s">
-        <v>26</v>
-      </c>
-      <c r="U23">
-        <v>5.5</v>
-      </c>
-      <c r="V23" t="s">
-        <v>26</v>
-      </c>
-      <c r="W23" t="s">
-        <v>26</v>
-      </c>
-      <c r="X23" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH23">
-        <v>5</v>
-      </c>
-      <c r="AI23">
-        <v>5.5</v>
-      </c>
-      <c r="AJ23">
-        <v>3.5</v>
-      </c>
-      <c r="AN23">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AO23" s="18">
-        <f t="shared" si="1"/>
-        <v>5.2307692307692308</v>
-      </c>
-      <c r="AP23">
-        <f t="shared" si="2"/>
-        <v>1.1657505560686472</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AS23">
-        <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>8.5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
+      <c r="C24">
+        <v>6</v>
       </c>
       <c r="D24">
         <v>7.5</v>
       </c>
       <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>5.5</v>
+      </c>
+      <c r="H24">
+        <v>4.5</v>
+      </c>
+      <c r="I24">
+        <v>5.5</v>
+      </c>
+      <c r="J24">
+        <v>5.5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <v>6</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>7</v>
+      </c>
+      <c r="S24" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" t="s">
+        <v>26</v>
+      </c>
+      <c r="U24" t="s">
+        <v>26</v>
+      </c>
+      <c r="V24" t="s">
+        <v>26</v>
+      </c>
+      <c r="W24" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y24">
+        <v>6</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE24">
+        <v>6.5</v>
+      </c>
+      <c r="AI24">
+        <v>5</v>
+      </c>
+      <c r="AL24">
+        <v>5.5</v>
+      </c>
+      <c r="AO24">
+        <f>COUNT(B24:AN24)</f>
+        <v>17</v>
+      </c>
+      <c r="AP24" s="18">
+        <f>AVERAGE(B24:AN24)</f>
+        <v>5.9411764705882355</v>
+      </c>
+      <c r="AQ24">
+        <f>IF(AO24&gt;1,_xlfn.STDEV.S(B24:AN24),"")</f>
+        <v>0.96634545034980535</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>1.5</v>
+      </c>
+      <c r="D25">
+        <v>4.5</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
         <v>7.5</v>
       </c>
-      <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24">
-        <v>6</v>
-      </c>
-      <c r="I24">
+      <c r="G25">
+        <v>5.5</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>4.5</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>5.5</v>
+      </c>
+      <c r="L25">
+        <v>2.5</v>
+      </c>
+      <c r="M25">
+        <v>1.5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25" t="s">
+        <v>26</v>
+      </c>
+      <c r="T25" t="s">
+        <v>26</v>
+      </c>
+      <c r="U25" t="s">
+        <v>26</v>
+      </c>
+      <c r="V25" t="s">
+        <v>26</v>
+      </c>
+      <c r="W25" t="s">
+        <v>26</v>
+      </c>
+      <c r="X25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD25">
+        <v>6</v>
+      </c>
+      <c r="AO25">
+        <f>COUNT(B25:AN25)</f>
+        <v>13</v>
+      </c>
+      <c r="AP25" s="18">
+        <f>AVERAGE(B25:AN25)</f>
+        <v>4.4615384615384617</v>
+      </c>
+      <c r="AQ25">
+        <f>IF(AO25&gt;1,_xlfn.STDEV.S(B25:AN25),"")</f>
+        <v>1.875961292039569</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>8.5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26">
         <v>7.5</v>
       </c>
-      <c r="J24" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24">
-        <v>6</v>
-      </c>
-      <c r="L24">
+      <c r="E26">
         <v>7.5</v>
       </c>
-      <c r="M24">
-        <v>7</v>
-      </c>
-      <c r="N24">
-        <v>6</v>
-      </c>
-      <c r="O24" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>26</v>
-      </c>
-      <c r="R24">
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>7.5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26">
+        <v>6</v>
+      </c>
+      <c r="L26">
+        <v>7.5</v>
+      </c>
+      <c r="M26">
+        <v>7</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26">
         <v>9</v>
       </c>
-      <c r="S24" t="s">
-        <v>26</v>
-      </c>
-      <c r="T24" t="s">
-        <v>26</v>
-      </c>
-      <c r="U24" t="s">
-        <v>26</v>
-      </c>
-      <c r="V24" t="s">
-        <v>26</v>
-      </c>
-      <c r="W24" t="s">
-        <v>26</v>
-      </c>
-      <c r="X24" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG24">
+      <c r="S26" t="s">
+        <v>26</v>
+      </c>
+      <c r="T26" t="s">
+        <v>26</v>
+      </c>
+      <c r="U26" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG26">
         <v>6.5</v>
       </c>
-      <c r="AN24">
+      <c r="AO26">
+        <f>COUNT(B26:AN26)</f>
+        <v>11</v>
+      </c>
+      <c r="AP26" s="18">
+        <f>AVERAGE(B26:AN26)</f>
+        <v>7.1818181818181817</v>
+      </c>
+      <c r="AQ26">
+        <f>IF(AO26&gt;1,_xlfn.STDEV.S(B26:AN26),"")</f>
+        <v>1.006795095159071</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="e">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AO24" s="18">
-        <f t="shared" si="1"/>
-        <v>7.1818181818181817</v>
-      </c>
-      <c r="AP24">
-        <f t="shared" si="2"/>
-        <v>1.006795095159071</v>
-      </c>
-      <c r="AQ24">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <v>7.5</v>
+      </c>
+      <c r="H27">
+        <v>7.5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27">
+        <v>8.5</v>
+      </c>
+      <c r="K27">
+        <v>8.5</v>
+      </c>
+      <c r="L27">
+        <v>7.5</v>
+      </c>
+      <c r="M27">
+        <v>7.5</v>
+      </c>
+      <c r="N27">
+        <v>7.5</v>
+      </c>
+      <c r="O27">
+        <v>9</v>
+      </c>
+      <c r="P27">
+        <v>8.5</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" t="s">
+        <v>26</v>
+      </c>
+      <c r="S27" t="s">
+        <v>26</v>
+      </c>
+      <c r="T27" t="s">
+        <v>26</v>
+      </c>
+      <c r="U27" t="s">
+        <v>26</v>
+      </c>
+      <c r="V27" t="s">
+        <v>26</v>
+      </c>
+      <c r="W27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO27">
+        <f>COUNT(B27:AN27)</f>
+        <v>9</v>
+      </c>
+      <c r="AP27" s="18">
+        <f>AVERAGE(B27:AN27)</f>
+        <v>8</v>
+      </c>
+      <c r="AQ27">
+        <f>IF(AO27&gt;1,_xlfn.STDEV.S(B27:AN27),"")</f>
+        <v>0.61237243569579447</v>
+      </c>
+      <c r="AR27">
         <v>0</v>
       </c>
-      <c r="AS24" t="e">
-        <f t="shared" si="3"/>
+      <c r="AT27" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>5.5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28">
+        <v>4.5</v>
+      </c>
+      <c r="S28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T28" t="s">
+        <v>26</v>
+      </c>
+      <c r="U28" t="s">
+        <v>26</v>
+      </c>
+      <c r="V28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W28" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y28">
+        <v>5.5</v>
+      </c>
+      <c r="Z28">
+        <v>5.5</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB28">
+        <v>5.5</v>
+      </c>
+      <c r="AC28">
+        <v>5.5</v>
+      </c>
+      <c r="AD28">
+        <v>4</v>
+      </c>
+      <c r="AH28">
+        <v>4</v>
+      </c>
+      <c r="AO28">
+        <f>COUNT(B28:AN28)</f>
+        <v>8</v>
+      </c>
+      <c r="AP28" s="18">
+        <f>AVERAGE(B28:AN28)</f>
+        <v>5</v>
+      </c>
+      <c r="AQ28">
+        <f>IF(AO28&gt;1,_xlfn.STDEV.S(B28:AN28),"")</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>5.5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29">
+        <v>7</v>
+      </c>
+      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29">
         <v>7.5</v>
       </c>
-      <c r="H25">
-        <v>7.5</v>
-      </c>
-      <c r="I25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25">
-        <v>8.5</v>
-      </c>
-      <c r="K25">
-        <v>8.5</v>
-      </c>
-      <c r="L25">
-        <v>7.5</v>
-      </c>
-      <c r="M25">
-        <v>7.5</v>
-      </c>
-      <c r="N25">
-        <v>7.5</v>
-      </c>
-      <c r="O25">
-        <v>9</v>
-      </c>
-      <c r="P25">
-        <v>8.5</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>26</v>
-      </c>
-      <c r="R25" t="s">
-        <v>26</v>
-      </c>
-      <c r="S25" t="s">
-        <v>26</v>
-      </c>
-      <c r="T25" t="s">
-        <v>26</v>
-      </c>
-      <c r="U25" t="s">
-        <v>26</v>
-      </c>
-      <c r="V25" t="s">
-        <v>26</v>
-      </c>
-      <c r="W25" t="s">
-        <v>26</v>
-      </c>
-      <c r="X25" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN25">
+      <c r="O29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" t="s">
+        <v>26</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29" t="s">
+        <v>26</v>
+      </c>
+      <c r="U29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V29" t="s">
+        <v>26</v>
+      </c>
+      <c r="W29" t="s">
+        <v>26</v>
+      </c>
+      <c r="X29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO29">
+        <f>COUNT(B29:AN29)</f>
+        <v>7</v>
+      </c>
+      <c r="AP29" s="18">
+        <f>AVERAGE(B29:AN29)</f>
+        <v>6.8571428571428568</v>
+      </c>
+      <c r="AQ29">
+        <f>IF(AO29&gt;1,_xlfn.STDEV.S(B29:AN29),"")</f>
+        <v>0.62678317052800869</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="e">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AO25" s="18">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AP25">
-        <f t="shared" si="2"/>
-        <v>0.61237243569579447</v>
-      </c>
-      <c r="AQ25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" t="s">
+        <v>26</v>
+      </c>
+      <c r="S30" t="s">
+        <v>26</v>
+      </c>
+      <c r="T30" t="s">
+        <v>26</v>
+      </c>
+      <c r="U30" t="s">
+        <v>26</v>
+      </c>
+      <c r="V30">
+        <v>6</v>
+      </c>
+      <c r="W30">
+        <v>6</v>
+      </c>
+      <c r="X30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y30">
+        <v>6</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB30">
+        <v>7</v>
+      </c>
+      <c r="AC30">
+        <v>6</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE30">
+        <v>6</v>
+      </c>
+      <c r="AF30">
+        <v>5</v>
+      </c>
+      <c r="AO30">
+        <f>COUNT(B30:AN30)</f>
+        <v>7</v>
+      </c>
+      <c r="AP30" s="18">
+        <f>AVERAGE(B30:AN30)</f>
+        <v>6</v>
+      </c>
+      <c r="AQ30">
+        <f>IF(AO30&gt;1,_xlfn.STDEV.S(B30:AN30),"")</f>
+        <v>0.57735026918962573</v>
+      </c>
+      <c r="AR30">
         <v>0</v>
       </c>
-      <c r="AS25" t="e">
-        <f t="shared" si="3"/>
+      <c r="AT30" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>5.5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" t="s">
-        <v>26</v>
-      </c>
-      <c r="O26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>26</v>
-      </c>
-      <c r="R26">
-        <v>4.5</v>
-      </c>
-      <c r="S26" t="s">
-        <v>26</v>
-      </c>
-      <c r="T26" t="s">
-        <v>26</v>
-      </c>
-      <c r="U26" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" t="s">
-        <v>26</v>
-      </c>
-      <c r="W26" t="s">
-        <v>26</v>
-      </c>
-      <c r="X26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y26">
-        <v>5.5</v>
-      </c>
-      <c r="Z26">
-        <v>5.5</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB26">
-        <v>5.5</v>
-      </c>
-      <c r="AC26">
-        <v>5.5</v>
-      </c>
-      <c r="AD26">
-        <v>4</v>
-      </c>
-      <c r="AH26">
-        <v>4</v>
-      </c>
-      <c r="AN26">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AO26" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AP26">
-        <f t="shared" si="2"/>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AS26" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27">
-        <v>5.5</v>
-      </c>
-      <c r="G27">
-        <v>4.5</v>
-      </c>
-      <c r="H27">
-        <v>6</v>
-      </c>
-      <c r="I27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" t="s">
-        <v>26</v>
-      </c>
-      <c r="O27" t="s">
-        <v>26</v>
-      </c>
-      <c r="P27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q27">
-        <v>6</v>
-      </c>
-      <c r="R27" t="s">
-        <v>26</v>
-      </c>
-      <c r="S27">
-        <v>6</v>
-      </c>
-      <c r="T27">
-        <v>6</v>
-      </c>
-      <c r="U27" t="s">
-        <v>26</v>
-      </c>
-      <c r="V27" t="s">
-        <v>26</v>
-      </c>
-      <c r="W27" t="s">
-        <v>26</v>
-      </c>
-      <c r="X27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG27">
-        <v>6.5</v>
-      </c>
-      <c r="AI27">
-        <v>4</v>
-      </c>
-      <c r="AJ27">
-        <v>3.5</v>
-      </c>
-      <c r="AK27">
-        <v>3</v>
-      </c>
-      <c r="AN27">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AO27" s="18">
-        <f t="shared" si="1"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AP27">
-        <f t="shared" si="2"/>
-        <v>1.2427567921538156</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28">
-        <v>7</v>
-      </c>
-      <c r="E28">
-        <v>7</v>
-      </c>
-      <c r="F28">
-        <v>5.5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28">
-        <v>7</v>
-      </c>
-      <c r="L28">
-        <v>7</v>
-      </c>
-      <c r="M28" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28">
-        <v>7.5</v>
-      </c>
-      <c r="O28" t="s">
-        <v>26</v>
-      </c>
-      <c r="P28" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>26</v>
-      </c>
-      <c r="R28" t="s">
-        <v>26</v>
-      </c>
-      <c r="S28">
-        <v>7</v>
-      </c>
-      <c r="T28" t="s">
-        <v>26</v>
-      </c>
-      <c r="U28" t="s">
-        <v>26</v>
-      </c>
-      <c r="V28" t="s">
-        <v>26</v>
-      </c>
-      <c r="W28" t="s">
-        <v>26</v>
-      </c>
-      <c r="X28" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN28">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AO28" s="18">
-        <f t="shared" si="1"/>
-        <v>6.8571428571428568</v>
-      </c>
-      <c r="AP28">
-        <f t="shared" si="2"/>
-        <v>0.62678317052800869</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AS28" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" t="s">
-        <v>26</v>
-      </c>
-      <c r="O29" t="s">
-        <v>26</v>
-      </c>
-      <c r="P29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>26</v>
-      </c>
-      <c r="R29" t="s">
-        <v>26</v>
-      </c>
-      <c r="S29" t="s">
-        <v>26</v>
-      </c>
-      <c r="T29" t="s">
-        <v>26</v>
-      </c>
-      <c r="U29" t="s">
-        <v>26</v>
-      </c>
-      <c r="V29">
-        <v>6</v>
-      </c>
-      <c r="W29">
-        <v>6</v>
-      </c>
-      <c r="X29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y29">
-        <v>6</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB29">
-        <v>7</v>
-      </c>
-      <c r="AC29">
-        <v>6</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE29">
-        <v>6</v>
-      </c>
-      <c r="AF29">
-        <v>5</v>
-      </c>
-      <c r="AN29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AO29" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AP29">
-        <f t="shared" si="2"/>
-        <v>0.57735026918962573</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AS29" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" t="s">
-        <v>26</v>
-      </c>
-      <c r="L30" t="s">
-        <v>26</v>
-      </c>
-      <c r="M30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" t="s">
-        <v>26</v>
-      </c>
-      <c r="O30" t="s">
-        <v>26</v>
-      </c>
-      <c r="P30" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>26</v>
-      </c>
-      <c r="R30" t="s">
-        <v>26</v>
-      </c>
-      <c r="S30" t="s">
-        <v>26</v>
-      </c>
-      <c r="T30" t="s">
-        <v>26</v>
-      </c>
-      <c r="U30" t="s">
-        <v>26</v>
-      </c>
-      <c r="V30" t="s">
-        <v>26</v>
-      </c>
-      <c r="W30" t="s">
-        <v>26</v>
-      </c>
-      <c r="X30" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB30">
-        <v>4.5</v>
-      </c>
-      <c r="AC30">
-        <v>6</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE30">
-        <v>6.5</v>
-      </c>
-      <c r="AF30">
-        <v>6</v>
-      </c>
-      <c r="AG30">
-        <v>6.5</v>
-      </c>
-      <c r="AH30">
-        <v>5</v>
-      </c>
-      <c r="AI30">
-        <v>5.5</v>
-      </c>
-      <c r="AN30">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AO30" s="18">
-        <f t="shared" si="1"/>
-        <v>5.7142857142857144</v>
-      </c>
-      <c r="AP30">
-        <f t="shared" si="2"/>
-        <v>0.75592894601845306</v>
-      </c>
-      <c r="AQ30">
-        <v>1</v>
-      </c>
-      <c r="AS30">
-        <f t="shared" si="3"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -5902,27 +5962,27 @@
       <c r="AD31">
         <v>6</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
+        <f>COUNT(B31:AN31)</f>
+        <v>6</v>
+      </c>
+      <c r="AP31" s="18">
+        <f>AVERAGE(B31:AN31)</f>
+        <v>6.916666666666667</v>
+      </c>
+      <c r="AQ31">
+        <f>IF(AO31&gt;1,_xlfn.STDEV.S(B31:AN31),"")</f>
+        <v>0.49159604012508756</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="e">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AO31" s="18">
-        <f t="shared" si="1"/>
-        <v>6.916666666666667</v>
-      </c>
-      <c r="AP31">
-        <f t="shared" si="2"/>
-        <v>0.49159604012508756</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AS31" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -6025,27 +6085,27 @@
       <c r="AK32">
         <v>5</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
+        <f>COUNT(B32:AN32)</f>
+        <v>8</v>
+      </c>
+      <c r="AP32" s="18">
+        <f>AVERAGE(B32:AN32)</f>
+        <v>4.875</v>
+      </c>
+      <c r="AQ32">
+        <f>IF(AO32&gt;1,_xlfn.STDEV.S(B32:AN32),"")</f>
+        <v>1.0264362759428509</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AO32" s="18">
-        <f t="shared" si="1"/>
-        <v>4.875</v>
-      </c>
-      <c r="AP32">
-        <f t="shared" si="2"/>
-        <v>1.0264362759428509</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AS32">
-        <f t="shared" si="3"/>
         <v>4.75</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -6136,27 +6196,27 @@
       <c r="AD33" t="s">
         <v>26</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
+        <f>COUNT(B33:AN33)</f>
+        <v>4</v>
+      </c>
+      <c r="AP33" s="18">
+        <f>AVERAGE(B33:AN33)</f>
+        <v>7.625</v>
+      </c>
+      <c r="AQ33">
+        <f>IF(AO33&gt;1,_xlfn.STDEV.S(B33:AN33),"")</f>
+        <v>0.62915286960589578</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="e">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AO33" s="18">
-        <f t="shared" si="1"/>
-        <v>7.625</v>
-      </c>
-      <c r="AP33">
-        <f t="shared" si="2"/>
-        <v>0.62915286960589578</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AS33" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -6247,27 +6307,27 @@
       <c r="AD34" t="s">
         <v>26</v>
       </c>
-      <c r="AN34">
-        <f t="shared" ref="AN34:AN53" si="4">COUNT(B34:AM34)</f>
+      <c r="AO34">
+        <f>COUNT(B34:AN34)</f>
         <v>4</v>
       </c>
-      <c r="AO34" s="18">
-        <f t="shared" ref="AO34:AO53" si="5">AVERAGE(B34:AM34)</f>
-        <v>6</v>
-      </c>
-      <c r="AP34">
-        <f t="shared" ref="AP34:AP53" si="6">IF(AN34&gt;1,_xlfn.STDEV.S(B34:AM34),"")</f>
+      <c r="AP34" s="18">
+        <f>AVERAGE(B34:AN34)</f>
+        <v>6</v>
+      </c>
+      <c r="AQ34">
+        <f>IF(AO34&gt;1,_xlfn.STDEV.S(B34:AN34),"")</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AQ34">
+      <c r="AR34">
         <v>0</v>
       </c>
-      <c r="AS34" t="e">
-        <f t="shared" si="3"/>
+      <c r="AT34" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -6358,27 +6418,27 @@
       <c r="AD35" t="s">
         <v>26</v>
       </c>
-      <c r="AN35">
-        <f t="shared" si="4"/>
+      <c r="AO35">
+        <f>COUNT(B35:AN35)</f>
         <v>3</v>
       </c>
-      <c r="AO35" s="18">
-        <f t="shared" si="5"/>
+      <c r="AP35" s="18">
+        <f>AVERAGE(B35:AN35)</f>
         <v>6.833333333333333</v>
       </c>
-      <c r="AP35">
-        <f t="shared" si="6"/>
+      <c r="AQ35">
+        <f>IF(AO35&gt;1,_xlfn.STDEV.S(B35:AN35),"")</f>
         <v>0.76376261582597338</v>
       </c>
-      <c r="AQ35">
+      <c r="AR35">
         <v>0</v>
       </c>
-      <c r="AS35" t="e">
-        <f t="shared" si="3"/>
+      <c r="AT35" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -6469,27 +6529,27 @@
       <c r="AD36" t="s">
         <v>26</v>
       </c>
-      <c r="AN36">
-        <f t="shared" si="4"/>
+      <c r="AO36">
+        <f>COUNT(B36:AN36)</f>
         <v>3</v>
       </c>
-      <c r="AO36" s="18">
-        <f t="shared" si="5"/>
+      <c r="AP36" s="18">
+        <f>AVERAGE(B36:AN36)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="AP36">
-        <f t="shared" si="6"/>
+      <c r="AQ36">
+        <f>IF(AO36&gt;1,_xlfn.STDEV.S(B36:AN36),"")</f>
         <v>1.1547005383792526</v>
       </c>
-      <c r="AQ36">
+      <c r="AR36">
         <v>0</v>
       </c>
-      <c r="AS36" t="e">
-        <f t="shared" si="3"/>
+      <c r="AT36" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -6583,27 +6643,27 @@
       <c r="AK37">
         <v>3.5</v>
       </c>
-      <c r="AN37">
-        <f t="shared" si="4"/>
+      <c r="AO37">
+        <f>COUNT(B37:AN37)</f>
         <v>4</v>
       </c>
-      <c r="AO37" s="18">
-        <f t="shared" si="5"/>
+      <c r="AP37" s="18">
+        <f>AVERAGE(B37:AN37)</f>
         <v>4.5</v>
       </c>
-      <c r="AP37">
-        <f t="shared" si="6"/>
+      <c r="AQ37">
+        <f>IF(AO37&gt;1,_xlfn.STDEV.S(B37:AN37),"")</f>
         <v>0.81649658092772603</v>
       </c>
-      <c r="AQ37">
+      <c r="AR37">
         <v>0</v>
       </c>
-      <c r="AS37">
-        <f t="shared" si="3"/>
+      <c r="AT37">
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -6694,27 +6754,27 @@
       <c r="AD38" t="s">
         <v>26</v>
       </c>
-      <c r="AN38">
-        <f t="shared" si="4"/>
+      <c r="AO38">
+        <f>COUNT(B38:AN38)</f>
         <v>3</v>
       </c>
-      <c r="AO38" s="18">
-        <f t="shared" si="5"/>
+      <c r="AP38" s="18">
+        <f>AVERAGE(B38:AN38)</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="AP38">
-        <f t="shared" si="6"/>
+      <c r="AQ38">
+        <f>IF(AO38&gt;1,_xlfn.STDEV.S(B38:AN38),"")</f>
         <v>0.28867513459481287</v>
       </c>
-      <c r="AQ38">
+      <c r="AR38">
         <v>0</v>
       </c>
-      <c r="AS38" t="e">
-        <f t="shared" si="3"/>
+      <c r="AT38" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -6808,27 +6868,27 @@
       <c r="AE39">
         <v>1.5</v>
       </c>
-      <c r="AN39">
-        <f t="shared" si="4"/>
+      <c r="AO39">
+        <f>COUNT(B39:AN39)</f>
         <v>3</v>
       </c>
-      <c r="AO39" s="18">
-        <f t="shared" si="5"/>
+      <c r="AP39" s="18">
+        <f>AVERAGE(B39:AN39)</f>
         <v>1.8333333333333333</v>
       </c>
-      <c r="AP39">
-        <f t="shared" si="6"/>
+      <c r="AQ39">
+        <f>IF(AO39&gt;1,_xlfn.STDEV.S(B39:AN39),"")</f>
         <v>1.0408329997330663</v>
       </c>
-      <c r="AQ39">
+      <c r="AR39">
         <v>0</v>
       </c>
-      <c r="AS39" t="e">
-        <f t="shared" si="3"/>
+      <c r="AT39" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -6925,23 +6985,23 @@
       <c r="AF40">
         <v>9</v>
       </c>
-      <c r="AN40">
-        <f t="shared" si="4"/>
+      <c r="AO40">
+        <f>COUNT(B40:AN40)</f>
         <v>3</v>
       </c>
-      <c r="AO40" s="18">
-        <f t="shared" si="5"/>
+      <c r="AP40" s="18">
+        <f>AVERAGE(B40:AN40)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="AP40">
-        <f t="shared" si="6"/>
+      <c r="AQ40">
+        <f>IF(AO40&gt;1,_xlfn.STDEV.S(B40:AN40),"")</f>
         <v>1.1547005383792495</v>
       </c>
-      <c r="AQ40">
+      <c r="AR40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -7035,23 +7095,23 @@
       <c r="AG41">
         <v>2.5</v>
       </c>
-      <c r="AN41">
-        <f t="shared" si="4"/>
+      <c r="AO41">
+        <f>COUNT(B41:AN41)</f>
         <v>3</v>
       </c>
-      <c r="AO41" s="18">
-        <f t="shared" si="5"/>
+      <c r="AP41" s="18">
+        <f>AVERAGE(B41:AN41)</f>
         <v>4.5</v>
       </c>
-      <c r="AP41">
-        <f t="shared" si="6"/>
+      <c r="AQ41">
+        <f>IF(AO41&gt;1,_xlfn.STDEV.S(B41:AN41),"")</f>
         <v>1.7320508075688772</v>
       </c>
-      <c r="AQ41">
+      <c r="AR41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -7142,23 +7202,23 @@
       <c r="AD42">
         <v>7.5</v>
       </c>
-      <c r="AN42">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AO42" s="18">
-        <f t="shared" si="5"/>
+      <c r="AO42">
+        <f>COUNT(B42:AN42)</f>
+        <v>2</v>
+      </c>
+      <c r="AP42" s="18">
+        <f>AVERAGE(B42:AN42)</f>
         <v>7.25</v>
       </c>
-      <c r="AP42">
-        <f t="shared" si="6"/>
+      <c r="AQ42">
+        <f>IF(AO42&gt;1,_xlfn.STDEV.S(B42:AN42),"")</f>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AQ42">
+      <c r="AR42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -7249,23 +7309,23 @@
       <c r="AD43" t="s">
         <v>26</v>
       </c>
-      <c r="AN43">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AO43" s="18">
-        <f t="shared" si="5"/>
+      <c r="AO43">
+        <f>COUNT(B43:AN43)</f>
+        <v>2</v>
+      </c>
+      <c r="AP43" s="18">
+        <f>AVERAGE(B43:AN43)</f>
         <v>3.5</v>
       </c>
-      <c r="AP43">
-        <f t="shared" si="6"/>
+      <c r="AQ43">
+        <f>IF(AO43&gt;1,_xlfn.STDEV.S(B43:AN43),"")</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="AQ43">
+      <c r="AR43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -7356,23 +7416,23 @@
       <c r="AD44" t="s">
         <v>26</v>
       </c>
-      <c r="AN44">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AO44" s="18">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AP44">
-        <f t="shared" si="6"/>
+      <c r="AO44">
+        <f>COUNT(B44:AN44)</f>
+        <v>2</v>
+      </c>
+      <c r="AP44" s="18">
+        <f>AVERAGE(B44:AN44)</f>
+        <v>2</v>
+      </c>
+      <c r="AQ44">
+        <f>IF(AO44&gt;1,_xlfn.STDEV.S(B44:AN44),"")</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AQ44">
+      <c r="AR44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -7466,23 +7526,23 @@
       <c r="AG45">
         <v>5</v>
       </c>
-      <c r="AN45">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AO45" s="18">
-        <f t="shared" si="5"/>
+      <c r="AO45">
+        <f>COUNT(B45:AN45)</f>
+        <v>2</v>
+      </c>
+      <c r="AP45" s="18">
+        <f>AVERAGE(B45:AN45)</f>
         <v>5.25</v>
       </c>
-      <c r="AP45">
-        <f t="shared" si="6"/>
+      <c r="AQ45">
+        <f>IF(AO45&gt;1,_xlfn.STDEV.S(B45:AN45),"")</f>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AQ45">
+      <c r="AR45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -7573,23 +7633,23 @@
       <c r="AD46">
         <v>9</v>
       </c>
-      <c r="AN46">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AO46" s="18">
-        <f t="shared" si="5"/>
+      <c r="AO46">
+        <f>COUNT(B46:AN46)</f>
+        <v>1</v>
+      </c>
+      <c r="AP46" s="18">
+        <f>AVERAGE(B46:AN46)</f>
         <v>9</v>
       </c>
-      <c r="AP46" t="str">
-        <f t="shared" si="6"/>
+      <c r="AQ46" t="str">
+        <f>IF(AO46&gt;1,_xlfn.STDEV.S(B46:AN46),"")</f>
         <v/>
       </c>
-      <c r="AQ46">
+      <c r="AR46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -7680,23 +7740,23 @@
       <c r="AD47" t="s">
         <v>26</v>
       </c>
-      <c r="AN47">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AO47" s="18">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="AP47" t="str">
-        <f t="shared" si="6"/>
+      <c r="AO47">
+        <f>COUNT(B47:AN47)</f>
+        <v>1</v>
+      </c>
+      <c r="AP47" s="18">
+        <f>AVERAGE(B47:AN47)</f>
+        <v>7</v>
+      </c>
+      <c r="AQ47" t="str">
+        <f>IF(AO47&gt;1,_xlfn.STDEV.S(B47:AN47),"")</f>
         <v/>
       </c>
-      <c r="AQ47">
+      <c r="AR47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -7784,23 +7844,23 @@
       <c r="AD48" t="s">
         <v>26</v>
       </c>
-      <c r="AN48">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AO48" s="18">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="AP48" t="str">
-        <f t="shared" si="6"/>
+      <c r="AO48">
+        <f>COUNT(B48:AN48)</f>
+        <v>1</v>
+      </c>
+      <c r="AP48" s="18">
+        <f>AVERAGE(B48:AN48)</f>
+        <v>7</v>
+      </c>
+      <c r="AQ48" t="str">
+        <f>IF(AO48&gt;1,_xlfn.STDEV.S(B48:AN48),"")</f>
         <v/>
       </c>
-      <c r="AQ48">
+      <c r="AR48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -7891,23 +7951,23 @@
       <c r="AD49" t="s">
         <v>26</v>
       </c>
-      <c r="AN49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AO49" s="18">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="AP49" t="str">
-        <f t="shared" si="6"/>
+      <c r="AO49">
+        <f>COUNT(B49:AN49)</f>
+        <v>1</v>
+      </c>
+      <c r="AP49" s="18">
+        <f>AVERAGE(B49:AN49)</f>
+        <v>7</v>
+      </c>
+      <c r="AQ49" t="str">
+        <f>IF(AO49&gt;1,_xlfn.STDEV.S(B49:AN49),"")</f>
         <v/>
       </c>
-      <c r="AQ49">
+      <c r="AR49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -7998,23 +8058,23 @@
       <c r="AD50" t="s">
         <v>26</v>
       </c>
-      <c r="AN50">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AO50" s="18">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="AP50" t="str">
-        <f t="shared" si="6"/>
+      <c r="AO50">
+        <f>COUNT(B50:AN50)</f>
+        <v>1</v>
+      </c>
+      <c r="AP50" s="18">
+        <f>AVERAGE(B50:AN50)</f>
+        <v>6</v>
+      </c>
+      <c r="AQ50" t="str">
+        <f>IF(AO50&gt;1,_xlfn.STDEV.S(B50:AN50),"")</f>
         <v/>
       </c>
-      <c r="AQ50">
+      <c r="AR50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -8105,23 +8165,23 @@
       <c r="AD51" t="s">
         <v>26</v>
       </c>
-      <c r="AN51">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AO51" s="18">
-        <f t="shared" si="5"/>
+      <c r="AO51">
+        <f>COUNT(B51:AN51)</f>
+        <v>1</v>
+      </c>
+      <c r="AP51" s="18">
+        <f>AVERAGE(B51:AN51)</f>
         <v>4.5</v>
       </c>
-      <c r="AP51" t="str">
-        <f t="shared" si="6"/>
+      <c r="AQ51" t="str">
+        <f>IF(AO51&gt;1,_xlfn.STDEV.S(B51:AN51),"")</f>
         <v/>
       </c>
-      <c r="AQ51">
+      <c r="AR51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -8212,23 +8272,23 @@
       <c r="AD52" t="s">
         <v>26</v>
       </c>
-      <c r="AN52">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AO52" s="18">
-        <f t="shared" si="5"/>
+      <c r="AO52">
+        <f>COUNT(B52:AN52)</f>
+        <v>1</v>
+      </c>
+      <c r="AP52" s="18">
+        <f>AVERAGE(B52:AN52)</f>
         <v>4.5</v>
       </c>
-      <c r="AP52" t="str">
-        <f t="shared" si="6"/>
+      <c r="AQ52" t="str">
+        <f>IF(AO52&gt;1,_xlfn.STDEV.S(B52:AN52),"")</f>
         <v/>
       </c>
-      <c r="AQ52">
+      <c r="AR52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -8319,98 +8379,98 @@
       <c r="AD53" t="s">
         <v>26</v>
       </c>
-      <c r="AN53">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AO53" s="18">
-        <f t="shared" si="5"/>
+      <c r="AO53">
+        <f>COUNT(B53:AN53)</f>
+        <v>1</v>
+      </c>
+      <c r="AP53" s="18">
+        <f>AVERAGE(B53:AN53)</f>
         <v>4</v>
       </c>
-      <c r="AP53" t="str">
-        <f t="shared" si="6"/>
+      <c r="AQ53" t="str">
+        <f>IF(AO53&gt;1,_xlfn.STDEV.S(B53:AN53),"")</f>
         <v/>
       </c>
-      <c r="AQ53">
+      <c r="AR53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>341</v>
       </c>
       <c r="AJ54">
         <v>5</v>
       </c>
-      <c r="AN54">
-        <f t="shared" ref="AN54:AN56" si="7">COUNT(B54:AM54)</f>
-        <v>1</v>
-      </c>
-      <c r="AO54" s="18">
-        <f t="shared" ref="AO54:AO56" si="8">AVERAGE(B54:AM54)</f>
+      <c r="AO54">
+        <f>COUNT(B54:AN54)</f>
+        <v>1</v>
+      </c>
+      <c r="AP54" s="18">
+        <f>AVERAGE(B54:AN54)</f>
         <v>5</v>
       </c>
-      <c r="AP54" t="str">
-        <f t="shared" ref="AP54:AP56" si="9">IF(AN54&gt;1,_xlfn.STDEV.S(B54:AM54),"")</f>
+      <c r="AQ54" t="str">
+        <f>IF(AO54&gt;1,_xlfn.STDEV.S(B54:AN54),"")</f>
         <v/>
       </c>
-      <c r="AQ54">
+      <c r="AR54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>340</v>
       </c>
       <c r="AJ55">
         <v>7</v>
       </c>
-      <c r="AN55">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AO55" s="18">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="AP55" t="str">
-        <f t="shared" si="9"/>
+      <c r="AO55">
+        <f>COUNT(B55:AN55)</f>
+        <v>1</v>
+      </c>
+      <c r="AP55" s="18">
+        <f>AVERAGE(B55:AN55)</f>
+        <v>7</v>
+      </c>
+      <c r="AQ55" t="str">
+        <f>IF(AO55&gt;1,_xlfn.STDEV.S(B55:AN55),"")</f>
         <v/>
       </c>
-      <c r="AQ55">
+      <c r="AR55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>339</v>
       </c>
       <c r="AJ56">
         <v>4.5</v>
       </c>
-      <c r="AN56">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AO56" s="18">
-        <f t="shared" si="8"/>
+      <c r="AO56">
+        <f>COUNT(B56:AN56)</f>
+        <v>1</v>
+      </c>
+      <c r="AP56" s="18">
+        <f>AVERAGE(B56:AN56)</f>
         <v>4.5</v>
       </c>
-      <c r="AP56" t="str">
-        <f t="shared" si="9"/>
+      <c r="AQ56" t="str">
+        <f>IF(AO56&gt;1,_xlfn.STDEV.S(B56:AN56),"")</f>
         <v/>
       </c>
-      <c r="AQ56">
+      <c r="AR56">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ54" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
-    <sortState ref="A2:AQ53">
-      <sortCondition descending="1" ref="AN1:AN54"/>
+  <autoFilter ref="A1:AR54" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
+    <sortState ref="A2:AR56">
+      <sortCondition descending="1" ref="AR1:AR54"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="AA2:AL38">
+  <conditionalFormatting sqref="AA2:AM38">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -8422,7 +8482,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN2:AN39">
+  <conditionalFormatting sqref="AO2:AO39">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -8434,7 +8494,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP2:AP39">
+  <conditionalFormatting sqref="AQ2:AQ39">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -8446,7 +8506,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN40:AN42">
+  <conditionalFormatting sqref="AO40:AO42">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -8458,7 +8518,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP40:AP42">
+  <conditionalFormatting sqref="AQ40:AQ42">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -8470,7 +8530,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AL47">
+  <conditionalFormatting sqref="AA2:AM47">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -8482,7 +8542,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN2:AN42">
+  <conditionalFormatting sqref="AO2:AO42">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -8494,7 +8554,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AO39">
+  <conditionalFormatting sqref="AP2:AP39">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -8506,7 +8566,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO40:AO42">
+  <conditionalFormatting sqref="AP40:AP42">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -8518,7 +8578,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AO42">
+  <conditionalFormatting sqref="AP2:AP42">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -8530,7 +8590,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AL42">
+  <conditionalFormatting sqref="AA2:AM42">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -8542,7 +8602,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN45 AN43 AN47">
+  <conditionalFormatting sqref="AO45 AO43 AO47">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -8554,7 +8614,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP45 AP43 AP47">
+  <conditionalFormatting sqref="AQ45 AQ43 AQ47">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -8566,7 +8626,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN45">
+  <conditionalFormatting sqref="AO45">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -8578,7 +8638,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO45 AO43 AO47">
+  <conditionalFormatting sqref="AP45 AP43 AP47">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -8590,7 +8650,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO45">
+  <conditionalFormatting sqref="AP45">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -8602,7 +8662,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN46 AN44 AN48:AN56">
+  <conditionalFormatting sqref="AO46 AO44 AO48:AO56">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -8614,7 +8674,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP46 AP44 AP48:AP56">
+  <conditionalFormatting sqref="AQ46 AQ44 AQ48:AQ56">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -8626,7 +8686,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN46">
+  <conditionalFormatting sqref="AO46">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -8638,7 +8698,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO46 AO44 AO48:AO56">
+  <conditionalFormatting sqref="AP46 AP44 AP48:AP56">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -8650,7 +8710,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO46">
+  <conditionalFormatting sqref="AP46">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -8662,7 +8722,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AK44">
+  <conditionalFormatting sqref="AA2:AL44">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -8710,7 +8770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AK49 AB51:AK51 AD53:AK53">
+  <conditionalFormatting sqref="B2:AL49 AB51:AL51 AD53:AL53">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -8722,7 +8782,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN2:AN56">
+  <conditionalFormatting sqref="AO2:AO56">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8734,7 +8794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AO56">
+  <conditionalFormatting sqref="AP2:AP56">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -8746,7 +8806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AK53">
+  <conditionalFormatting sqref="B2:AL53">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8758,7 +8818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS2:AS39">
+  <conditionalFormatting sqref="AT2:AT39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8778,7 +8838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99312F67-43DE-48B9-BCC3-7D7A05DB9885}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -9838,10 +9898,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A044468-5FF9-485E-BCBE-2F73FE35F0BA}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9850,7 +9910,8 @@
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="9" width="15.88671875" style="22" customWidth="1"/>
-    <col min="10" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -9878,6 +9939,9 @@
       <c r="I1" s="22" t="s">
         <v>338</v>
       </c>
+      <c r="J1" s="22" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -9908,6 +9972,9 @@
       <c r="I2" s="19">
         <v>77.78</v>
       </c>
+      <c r="J2" s="19">
+        <v>86.12</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -9938,6 +10005,9 @@
       <c r="I3" s="21">
         <v>77.78</v>
       </c>
+      <c r="J3" s="21">
+        <v>86.12</v>
+      </c>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -9965,6 +10035,9 @@
       <c r="I4" s="19">
         <v>25</v>
       </c>
+      <c r="J4" s="21">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -9995,7 +10068,9 @@
       <c r="I5" s="21">
         <v>77.78</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="21">
+        <v>86.12</v>
+      </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -10025,6 +10100,9 @@
       <c r="I6" s="19">
         <v>50</v>
       </c>
+      <c r="J6" s="21">
+        <v>86.12</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -10052,6 +10130,9 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19">
         <v>77.78</v>
+      </c>
+      <c r="J7" s="21">
+        <v>86.12</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -10105,6 +10186,9 @@
       <c r="I9" s="19">
         <v>77.78</v>
       </c>
+      <c r="J9" s="21">
+        <v>86.12</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -10135,6 +10219,9 @@
       <c r="I10" s="19">
         <v>77.78</v>
       </c>
+      <c r="J10" s="21">
+        <v>86.12</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -10165,6 +10252,9 @@
       <c r="I11" s="19">
         <v>77.78</v>
       </c>
+      <c r="J11" s="21">
+        <v>43.06</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -10195,6 +10285,9 @@
       <c r="I12" s="19">
         <v>77.78</v>
       </c>
+      <c r="J12" s="21">
+        <v>86.12</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -10225,6 +10318,9 @@
       <c r="I13" s="19">
         <v>77.78</v>
       </c>
+      <c r="J13" s="21">
+        <v>86.12</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -10255,6 +10351,9 @@
       <c r="I14" s="19">
         <v>77.78</v>
       </c>
+      <c r="J14" s="21">
+        <v>86.12</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -10285,6 +10384,9 @@
       <c r="I15" s="21">
         <v>77.78</v>
       </c>
+      <c r="J15" s="21">
+        <v>86.12</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -10315,8 +10417,11 @@
       <c r="I16" s="19">
         <v>77.78</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="21">
+        <v>86.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -10343,8 +10448,11 @@
         <v>84.73</v>
       </c>
       <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -10374,7 +10482,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -10398,8 +10506,11 @@
       <c r="I19" s="19">
         <v>77.78</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="21">
+        <v>86.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -10420,8 +10531,11 @@
       <c r="I20" s="21">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="21">
+        <v>86.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -10444,7 +10558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -10461,7 +10575,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -10478,7 +10592,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -10506,8 +10620,11 @@
       <c r="I24" s="19">
         <v>77.78</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="21">
+        <v>86.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -10526,7 +10643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -10547,7 +10664,7 @@
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -10566,7 +10683,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -10589,7 +10706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -10607,7 +10724,7 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -10628,8 +10745,11 @@
       <c r="I30" s="21">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="21">
+        <v>43.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -10643,7 +10763,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -10665,7 +10785,7 @@
       </c>
       <c r="I32" s="19"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -10683,7 +10803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -10699,7 +10819,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -10715,7 +10835,7 @@
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -10731,7 +10851,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -10753,7 +10873,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -10769,7 +10889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -10790,8 +10910,11 @@
       <c r="I39" s="19">
         <v>77.78</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="21">
+        <v>86.12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -10807,7 +10930,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -10823,7 +10946,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -10843,7 +10966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -10856,8 +10979,11 @@
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -10873,11 +10999,14 @@
       <c r="H44" s="19">
         <v>25</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="19">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -10891,7 +11020,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -10905,7 +11034,7 @@
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -10919,7 +11048,7 @@
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -10933,7 +11062,7 @@
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -10943,7 +11072,7 @@
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -10953,7 +11082,7 @@
       </c>
       <c r="I50" s="19"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -10963,7 +11092,7 @@
       </c>
       <c r="I51" s="19"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>85</v>
       </c>
@@ -10975,7 +11104,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -10985,7 +11114,7 @@
       </c>
       <c r="I53" s="19"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -10996,113 +11125,161 @@
       <c r="I54" s="19">
         <v>77.78</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="19">
+        <v>86.12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>341</v>
+      </c>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>340</v>
+      </c>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>339</v>
+      </c>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B59" s="20">
         <f>SUM(B3:B28)</f>
         <v>1716.6666666666665</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C59" s="20">
         <f>SUM(C3:C35)</f>
         <v>1729.2800000000002</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D59" s="20">
         <f>SUM(D3:D38)</f>
         <v>1754.2800000000002</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E59" s="20">
         <f>SUM(E3:E41)</f>
         <v>1697.26</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F59" s="20">
         <f>SUM(F3:F44)</f>
         <v>1772.26</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G59" s="20">
         <f>SUM(G3:G49)</f>
         <v>1722.2599999999998</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H59" s="20">
         <f>SUM(H3:H54)</f>
         <v>1715.41</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I59" s="20">
         <f>SUM(I3:I54)</f>
         <v>1722.2599999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="J59" s="20">
+        <f>SUM(J3:J57)</f>
+        <v>1714.0399999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B60" s="20">
         <f>25*12+83.34*17</f>
         <v>1716.78</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C60" s="20">
         <f>22*25+70.84*17</f>
         <v>1754.28</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D60" s="20">
         <f>20*25+70.84*17</f>
         <v>1704.28</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E60" s="20">
         <f>15*25+77.78*17</f>
         <v>1697.26</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F60" s="20">
         <f>18*25+77.78*17</f>
         <v>1772.26</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G60" s="23">
         <f>17*77.78+25*16</f>
         <v>1722.26</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H60" s="23">
         <f>11*25+84.73*17</f>
         <v>1715.41</v>
       </c>
-      <c r="I57" s="23">
-        <f>12*25+77.78*14</f>
-        <v>1388.92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="24">
-        <f t="shared" ref="B58:G58" si="1">B57/B56</f>
+      <c r="I60" s="23">
+        <f>14*25+77.78*14</f>
+        <v>1438.92</v>
+      </c>
+      <c r="J60" s="23">
+        <f>1*25+86.12*1</f>
+        <v>111.12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B61" s="24">
+        <f t="shared" ref="B61:G61" si="1">B60/B59</f>
         <v>1.0000660194174757</v>
       </c>
-      <c r="C58" s="24">
+      <c r="C61" s="24">
         <f t="shared" si="1"/>
         <v>1.0144568837897852</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D61" s="24">
         <f t="shared" si="1"/>
         <v>0.97149827849602099</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E61" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F61" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G61" s="24">
         <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="H58" s="24">
-        <f t="shared" ref="H58:I58" si="2">H57/H56</f>
-        <v>1</v>
-      </c>
-      <c r="I58" s="24">
+      <c r="H61" s="24">
+        <f t="shared" ref="H61:I61" si="2">H60/H59</f>
+        <v>1</v>
+      </c>
+      <c r="I61" s="24">
         <f t="shared" si="2"/>
-        <v>0.80645198750479041</v>
+        <v>0.83548360874664696</v>
+      </c>
+      <c r="J61" s="24">
+        <f t="shared" ref="J61" si="3">J60/J59</f>
+        <v>6.482929219854848E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11112,10 +11289,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16459,6 +16636,156 @@
       </c>
       <c r="P107" s="8" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A108" s="14">
+        <v>45714</v>
+      </c>
+      <c r="B108" s="3">
+        <v>6</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" s="9">
+        <v>9</v>
+      </c>
+      <c r="J108" s="10">
+        <v>9</v>
+      </c>
+      <c r="K108" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L108" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M108" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N108" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O108" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P108" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A109" s="14">
+        <v>45714</v>
+      </c>
+      <c r="B109" s="3">
+        <v>4</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="11">
+        <v>4</v>
+      </c>
+      <c r="J109" s="2">
+        <v>0</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P109" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A110" s="14">
+        <v>45714</v>
+      </c>
+      <c r="B110" s="5">
+        <v>3</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I110" s="5">
+        <v>3</v>
+      </c>
+      <c r="J110" s="8">
+        <v>3</v>
+      </c>
+      <c r="K110" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L110" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M110" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N110" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O110" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P110" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -17870,11 +18197,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DDCCA6-42DC-4211-A42F-70F3625FA6AA}">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R51" sqref="R51"/>
+      <selection pane="topRight" activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17885,10 +18212,10 @@
     <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17943,8 +18270,11 @@
       <c r="R1" s="1">
         <v>45707</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1" s="1">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -17963,13 +18293,16 @@
       <c r="R2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -17977,7 +18310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -17985,17 +18318,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -18021,7 +18354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -18037,8 +18370,11 @@
       <c r="P9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -18049,7 +18385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -18063,7 +18399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -18085,8 +18421,11 @@
       <c r="P12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -18100,7 +18439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -18131,18 +18470,21 @@
       <c r="R14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -18150,7 +18492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -18173,7 +18515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -18220,7 +18562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -18228,7 +18570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -18269,7 +18611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -18309,8 +18651,11 @@
       <c r="R22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -18318,7 +18663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -18326,7 +18671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -18358,12 +18703,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -18377,7 +18722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -18385,17 +18730,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -18429,8 +18774,11 @@
       <c r="R31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -18447,7 +18795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -18457,8 +18805,11 @@
       <c r="L33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -18495,8 +18846,11 @@
       <c r="R34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -18504,7 +18858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>341</v>
       </c>
@@ -18512,17 +18866,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -18560,12 +18914,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -18576,7 +18930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -18587,25 +18941,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="N45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -18622,7 +18979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -18674,8 +19031,11 @@
       <c r="R47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -18683,7 +19043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -18697,7 +19057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -18737,8 +19097,11 @@
       <c r="R50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -18746,7 +19109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -18772,7 +19135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -18786,7 +19149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -18794,7 +19157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -18840,8 +19203,11 @@
       <c r="R55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>47</v>
       </c>

--- a/data/condominio.xlsx
+++ b/data/condominio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95416d5ad4be8d97/Documentos antigo/Projetos_jl/Streamlit/Dashboard Pelada/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="14_{F8FAE7CF-1AB6-449B-BC05-2BC42FEE3DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{57992D79-E98A-4E00-B00A-2F78579CB8AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{9EC74B8F-F48D-489B-8705-FD89BC11002B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notas" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,17 @@
     <sheet name="extrato 2024" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">artilharia!$A$1:$Q$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">artilharia!$A$1:$Q$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'artilharia total'!$A$1:$AI$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'extrato 2024'!$A$1:$C$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AR$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AS$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="344">
   <si>
     <t>Jogador</t>
   </si>
@@ -1061,6 +1061,9 @@
   </si>
   <si>
     <t>Fevereiro</t>
+  </si>
+  <si>
+    <t>Fernando</t>
   </si>
 </sst>
 </file>
@@ -2116,11 +2119,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT56"/>
+  <dimension ref="A1:AU57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR18" sqref="AR18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM49" sqref="AM49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2140,10 +2143,10 @@
     <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="38" width="10.5546875" customWidth="1"/>
+    <col min="28" max="39" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2258,20 +2261,23 @@
       <c r="AL1" s="1">
         <v>45714</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AM1" s="1">
+        <v>45721</v>
+      </c>
+      <c r="AP1" t="s">
         <v>57</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>58</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>59</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2386,27 +2392,30 @@
       <c r="AL2">
         <v>4</v>
       </c>
-      <c r="AO2">
-        <f>COUNT(B2:AN2)</f>
-        <v>36</v>
-      </c>
-      <c r="AP2" s="18">
-        <f>AVERAGE(B2:AN2)</f>
-        <v>6.25</v>
-      </c>
-      <c r="AQ2">
-        <f>IF(AO2&gt;1,_xlfn.STDEV.S(B2:AN2),"")</f>
-        <v>1.0856202966836188</v>
+      <c r="AM2">
+        <v>4</v>
+      </c>
+      <c r="AP2">
+        <f t="shared" ref="AP2:AP33" si="0">COUNT(B2:AO2)</f>
+        <v>37</v>
+      </c>
+      <c r="AQ2" s="18">
+        <f t="shared" ref="AQ2:AQ33" si="1">AVERAGE(B2:AO2)</f>
+        <v>6.1891891891891895</v>
       </c>
       <c r="AR2">
-        <v>1</v>
-      </c>
-      <c r="AT2">
+        <f t="shared" ref="AR2:AR33" si="2">IF(AP2&gt;1,_xlfn.STDEV.S(B2:AO2),"")</f>
+        <v>1.1325447707078322</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
         <f>AVERAGE(AI2:AK2)</f>
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -2521,27 +2530,27 @@
       <c r="AL3">
         <v>5.5</v>
       </c>
-      <c r="AO3">
-        <f>COUNT(B3:AN3)</f>
+      <c r="AP3">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AP3" s="18">
-        <f>AVERAGE(B3:AN3)</f>
+      <c r="AQ3" s="18">
+        <f t="shared" si="1"/>
         <v>6.6714285714285717</v>
       </c>
-      <c r="AQ3">
-        <f>IF(AO3&gt;1,_xlfn.STDEV.S(B3:AN3),"")</f>
+      <c r="AR3">
+        <f t="shared" si="2"/>
         <v>0.74698272622418105</v>
       </c>
-      <c r="AR3">
-        <v>1</v>
-      </c>
-      <c r="AT3">
-        <f t="shared" ref="AT3:AT39" si="0">AVERAGE(AI3:AK3)</f>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" ref="AU3:AU39" si="3">AVERAGE(AI3:AK3)</f>
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2653,27 +2662,30 @@
       <c r="AL4">
         <v>5.5</v>
       </c>
-      <c r="AO4">
-        <f>COUNT(B4:AN4)</f>
-        <v>34</v>
-      </c>
-      <c r="AP4" s="18">
-        <f>AVERAGE(B4:AN4)</f>
-        <v>5.882352941176471</v>
-      </c>
-      <c r="AQ4">
-        <f>IF(AO4&gt;1,_xlfn.STDEV.S(B4:AN4),"")</f>
-        <v>0.79828247003224584</v>
+      <c r="AM4">
+        <v>4.5</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AQ4" s="18">
+        <f t="shared" si="1"/>
+        <v>5.8428571428571425</v>
       </c>
       <c r="AR4">
-        <v>1</v>
-      </c>
-      <c r="AT4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>0.82043235168871853</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2782,27 +2794,30 @@
       <c r="AL5">
         <v>3</v>
       </c>
-      <c r="AO5">
-        <f>COUNT(B5:AN5)</f>
-        <v>32</v>
-      </c>
-      <c r="AP5" s="18">
-        <f>AVERAGE(B5:AN5)</f>
-        <v>5.90625</v>
-      </c>
-      <c r="AQ5">
-        <f>IF(AO5&gt;1,_xlfn.STDEV.S(B5:AN5),"")</f>
-        <v>0.8075999888159261</v>
+      <c r="AM5">
+        <v>4</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AQ5" s="18">
+        <f t="shared" si="1"/>
+        <v>5.8484848484848486</v>
       </c>
       <c r="AR5">
-        <v>1</v>
-      </c>
-      <c r="AT5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0.86136563524194409</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2914,27 +2929,30 @@
       <c r="AL6">
         <v>5</v>
       </c>
-      <c r="AO6">
-        <f>COUNT(B6:AN6)</f>
-        <v>33</v>
-      </c>
-      <c r="AP6" s="18">
-        <f>AVERAGE(B6:AN6)</f>
-        <v>6.2424242424242422</v>
-      </c>
-      <c r="AQ6">
-        <f>IF(AO6&gt;1,_xlfn.STDEV.S(B6:AN6),"")</f>
-        <v>0.78183690076251688</v>
+      <c r="AM6">
+        <v>5</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AQ6" s="18">
+        <f t="shared" si="1"/>
+        <v>6.2058823529411766</v>
       </c>
       <c r="AR6">
-        <v>1</v>
-      </c>
-      <c r="AT6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>0.79884051446952198</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" si="3"/>
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -3040,27 +3058,30 @@
       <c r="AL7">
         <v>5</v>
       </c>
-      <c r="AO7">
-        <f>COUNT(B7:AN7)</f>
-        <v>29</v>
-      </c>
-      <c r="AP7" s="18">
-        <f>AVERAGE(B7:AN7)</f>
-        <v>5.7586206896551726</v>
-      </c>
-      <c r="AQ7">
-        <f>IF(AO7&gt;1,_xlfn.STDEV.S(B7:AN7),"")</f>
-        <v>0.77483511673650751</v>
+      <c r="AM7">
+        <v>5.5</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AQ7" s="18">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
       </c>
       <c r="AR7">
-        <v>1</v>
-      </c>
-      <c r="AT7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>0.7628214415734117</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="3"/>
         <v>4.75</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3169,27 +3190,30 @@
       <c r="AK8">
         <v>5.5</v>
       </c>
-      <c r="AO8">
-        <f>COUNT(B8:AN8)</f>
-        <v>29</v>
-      </c>
-      <c r="AP8" s="18">
-        <f>AVERAGE(B8:AN8)</f>
-        <v>6.7068965517241379</v>
-      </c>
-      <c r="AQ8">
-        <f>IF(AO8&gt;1,_xlfn.STDEV.S(B8:AN8),"")</f>
-        <v>0.70098452931917521</v>
+      <c r="AM8">
+        <v>7</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AQ8" s="18">
+        <f t="shared" si="1"/>
+        <v>6.7166666666666668</v>
       </c>
       <c r="AR8">
-        <v>1</v>
-      </c>
-      <c r="AT8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>0.69086818610695455</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3301,27 +3325,27 @@
       <c r="AL9">
         <v>4.5</v>
       </c>
-      <c r="AO9">
-        <f>COUNT(B9:AN9)</f>
+      <c r="AP9">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AP9" s="18">
-        <f>AVERAGE(B9:AN9)</f>
+      <c r="AQ9" s="18">
+        <f t="shared" si="1"/>
         <v>6.5344827586206895</v>
       </c>
-      <c r="AQ9">
-        <f>IF(AO9&gt;1,_xlfn.STDEV.S(B9:AN9),"")</f>
+      <c r="AR9">
+        <f t="shared" si="2"/>
         <v>1.0516231882424716</v>
       </c>
-      <c r="AR9">
-        <v>1</v>
-      </c>
-      <c r="AT9">
-        <f t="shared" si="0"/>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="3"/>
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -3430,27 +3454,30 @@
       <c r="AL10">
         <v>2.5</v>
       </c>
-      <c r="AO10">
-        <f>COUNT(B10:AN10)</f>
-        <v>24</v>
-      </c>
-      <c r="AP10" s="18">
-        <f>AVERAGE(B10:AN10)</f>
-        <v>4.5</v>
-      </c>
-      <c r="AQ10">
-        <f>IF(AO10&gt;1,_xlfn.STDEV.S(B10:AN10),"")</f>
-        <v>1.2158375177486576</v>
+      <c r="AM10">
+        <v>4</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AQ10" s="18">
+        <f t="shared" si="1"/>
+        <v>4.4800000000000004</v>
       </c>
       <c r="AR10">
-        <v>1</v>
-      </c>
-      <c r="AT10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>1.194431524477928</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3565,27 +3592,30 @@
       <c r="AL11">
         <v>5</v>
       </c>
-      <c r="AO11">
-        <f>COUNT(B11:AN11)</f>
-        <v>25</v>
-      </c>
-      <c r="AP11" s="18">
-        <f>AVERAGE(B11:AN11)</f>
-        <v>5.86</v>
-      </c>
-      <c r="AQ11">
-        <f>IF(AO11&gt;1,_xlfn.STDEV.S(B11:AN11),"")</f>
-        <v>1.1228683508467647</v>
+      <c r="AM11">
+        <v>4.5</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AQ11" s="18">
+        <f t="shared" si="1"/>
+        <v>5.8076923076923075</v>
       </c>
       <c r="AR11">
-        <v>1</v>
-      </c>
-      <c r="AT11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>1.1320505560876961</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" si="3"/>
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3697,27 +3727,30 @@
       <c r="AL12">
         <v>4.5</v>
       </c>
-      <c r="AO12">
-        <f>COUNT(B12:AN12)</f>
-        <v>24</v>
-      </c>
-      <c r="AP12" s="18">
-        <f>AVERAGE(B12:AN12)</f>
-        <v>6.375</v>
-      </c>
-      <c r="AQ12">
-        <f>IF(AO12&gt;1,_xlfn.STDEV.S(B12:AN12),"")</f>
-        <v>0.82422559174473375</v>
+      <c r="AM12">
+        <v>5.5</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AQ12" s="18">
+        <f t="shared" si="1"/>
+        <v>6.34</v>
       </c>
       <c r="AR12">
-        <v>1</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>0.82563107176672268</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="3"/>
         <v>5.25</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3829,27 +3862,30 @@
       <c r="AL13">
         <v>6</v>
       </c>
-      <c r="AO13">
-        <f>COUNT(B13:AN13)</f>
-        <v>17</v>
-      </c>
-      <c r="AP13" s="18">
-        <f>AVERAGE(B13:AN13)</f>
-        <v>6.6470588235294121</v>
-      </c>
-      <c r="AQ13">
-        <f>IF(AO13&gt;1,_xlfn.STDEV.S(B13:AN13),"")</f>
-        <v>0.65585597414640462</v>
+      <c r="AM13">
+        <v>5</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AQ13" s="18">
+        <f t="shared" si="1"/>
+        <v>6.5555555555555554</v>
       </c>
       <c r="AR13">
-        <v>1</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>0.74535599249993034</v>
+      </c>
+      <c r="AS13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="3"/>
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3964,27 +4000,30 @@
       <c r="AL14">
         <v>6</v>
       </c>
-      <c r="AO14">
-        <f>COUNT(B14:AN14)</f>
-        <v>17</v>
-      </c>
-      <c r="AP14" s="18">
-        <f>AVERAGE(B14:AN14)</f>
-        <v>6.1470588235294121</v>
-      </c>
-      <c r="AQ14">
-        <f>IF(AO14&gt;1,_xlfn.STDEV.S(B14:AN14),"")</f>
-        <v>0.8617697249402122</v>
+      <c r="AM14">
+        <v>5</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AQ14" s="18">
+        <f t="shared" si="1"/>
+        <v>6.083333333333333</v>
       </c>
       <c r="AR14">
-        <v>1</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>0.87866877919350916</v>
+      </c>
+      <c r="AS14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -4081,27 +4120,27 @@
       <c r="AJ15">
         <v>5</v>
       </c>
-      <c r="AO15">
-        <f>COUNT(B15:AN15)</f>
+      <c r="AP15">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AP15" s="18">
-        <f>AVERAGE(B15:AN15)</f>
+      <c r="AQ15" s="18">
+        <f t="shared" si="1"/>
         <v>5.6538461538461542</v>
       </c>
-      <c r="AQ15">
-        <f>IF(AO15&gt;1,_xlfn.STDEV.S(B15:AN15),"")</f>
+      <c r="AR15">
+        <f t="shared" si="2"/>
         <v>1.1251780485885956</v>
       </c>
-      <c r="AR15">
-        <v>1</v>
-      </c>
-      <c r="AT15">
-        <f t="shared" si="0"/>
+      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -4210,27 +4249,27 @@
       <c r="AL16">
         <v>5</v>
       </c>
-      <c r="AO16">
-        <f>COUNT(B16:AN16)</f>
+      <c r="AP16">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AP16" s="18">
-        <f>AVERAGE(B16:AN16)</f>
+      <c r="AQ16" s="18">
+        <f t="shared" si="1"/>
         <v>5.625</v>
       </c>
-      <c r="AQ16">
-        <f>IF(AO16&gt;1,_xlfn.STDEV.S(B16:AN16),"")</f>
+      <c r="AR16">
+        <f t="shared" si="2"/>
         <v>0.74402380914284494</v>
       </c>
-      <c r="AR16">
-        <v>1</v>
-      </c>
-      <c r="AT16">
-        <f t="shared" si="0"/>
+      <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -4339,27 +4378,27 @@
       <c r="AL17">
         <v>6</v>
       </c>
-      <c r="AO17">
-        <f>COUNT(B17:AN17)</f>
+      <c r="AP17">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AP17" s="18">
-        <f>AVERAGE(B17:AN17)</f>
+      <c r="AQ17" s="18">
+        <f t="shared" si="1"/>
         <v>7.3571428571428568</v>
       </c>
-      <c r="AQ17">
-        <f>IF(AO17&gt;1,_xlfn.STDEV.S(B17:AN17),"")</f>
+      <c r="AR17">
+        <f t="shared" si="2"/>
         <v>1.0528369334638696</v>
       </c>
-      <c r="AR17">
-        <v>1</v>
-      </c>
-      <c r="AT17">
-        <f t="shared" si="0"/>
+      <c r="AS17">
+        <v>1</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="3"/>
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4465,27 +4504,27 @@
       <c r="AL18">
         <v>5</v>
       </c>
-      <c r="AO18">
-        <f>COUNT(B18:AN18)</f>
+      <c r="AP18">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AP18" s="18">
-        <f>AVERAGE(B18:AN18)</f>
+      <c r="AQ18" s="18">
+        <f t="shared" si="1"/>
         <v>5.0909090909090908</v>
       </c>
-      <c r="AQ18">
-        <f>IF(AO18&gt;1,_xlfn.STDEV.S(B18:AN18),"")</f>
+      <c r="AR18">
+        <f t="shared" si="2"/>
         <v>1.1793680896603458</v>
       </c>
-      <c r="AR18">
-        <v>1</v>
-      </c>
-      <c r="AT18">
-        <f t="shared" si="0"/>
+      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -4588,27 +4627,30 @@
       <c r="AL19">
         <v>4.5</v>
       </c>
-      <c r="AO19">
-        <f>COUNT(B19:AN19)</f>
-        <v>21</v>
-      </c>
-      <c r="AP19" s="18">
-        <f>AVERAGE(B19:AN19)</f>
-        <v>6.4523809523809526</v>
-      </c>
-      <c r="AQ19">
-        <f>IF(AO19&gt;1,_xlfn.STDEV.S(B19:AN19),"")</f>
-        <v>1.1169686869465267</v>
+      <c r="AM19">
+        <v>5.5</v>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AQ19" s="18">
+        <f t="shared" si="1"/>
+        <v>6.4090909090909092</v>
       </c>
       <c r="AR19">
+        <f t="shared" si="2"/>
+        <v>1.1087999050492527</v>
+      </c>
+      <c r="AS19">
         <v>0.5</v>
       </c>
-      <c r="AT19" t="e">
-        <f t="shared" si="0"/>
+      <c r="AU19" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -4708,27 +4750,27 @@
       <c r="AJ20">
         <v>3.5</v>
       </c>
-      <c r="AO20">
-        <f>COUNT(B20:AN20)</f>
+      <c r="AP20">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AP20" s="18">
-        <f>AVERAGE(B20:AN20)</f>
+      <c r="AQ20" s="18">
+        <f t="shared" si="1"/>
         <v>5.2307692307692308</v>
       </c>
-      <c r="AQ20">
-        <f>IF(AO20&gt;1,_xlfn.STDEV.S(B20:AN20),"")</f>
+      <c r="AR20">
+        <f t="shared" si="2"/>
         <v>1.1657505560686472</v>
       </c>
-      <c r="AR20">
+      <c r="AS20">
         <v>0.5</v>
       </c>
-      <c r="AT20">
-        <f t="shared" si="0"/>
+      <c r="AU20">
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -4819,27 +4861,27 @@
       <c r="AD21">
         <v>6</v>
       </c>
-      <c r="AO21">
-        <f>COUNT(B21:AN21)</f>
+      <c r="AP21">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AP21" s="18">
-        <f>AVERAGE(B21:AN21)</f>
+      <c r="AQ21" s="18">
+        <f t="shared" si="1"/>
         <v>6.0882352941176467</v>
       </c>
-      <c r="AQ21">
-        <f>IF(AO21&gt;1,_xlfn.STDEV.S(B21:AN21),"")</f>
+      <c r="AR21">
+        <f t="shared" si="2"/>
         <v>0.71228711990072591</v>
       </c>
-      <c r="AR21">
+      <c r="AS21">
         <v>0</v>
       </c>
-      <c r="AT21" t="e">
-        <f t="shared" si="0"/>
+      <c r="AU21" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -4936,27 +4978,27 @@
       <c r="AG22">
         <v>7</v>
       </c>
-      <c r="AO22">
-        <f>COUNT(B22:AN22)</f>
+      <c r="AP22">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AP22" s="18">
-        <f>AVERAGE(B22:AN22)</f>
+      <c r="AQ22" s="18">
+        <f t="shared" si="1"/>
         <v>6.3571428571428568</v>
       </c>
-      <c r="AQ22">
-        <f>IF(AO22&gt;1,_xlfn.STDEV.S(B22:AN22),"")</f>
+      <c r="AR22">
+        <f t="shared" si="2"/>
         <v>0.77032888651964082</v>
       </c>
-      <c r="AR22">
+      <c r="AS22">
         <v>0</v>
       </c>
-      <c r="AT22" t="e">
-        <f t="shared" si="0"/>
+      <c r="AU22" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -5053,27 +5095,30 @@
       <c r="AL23">
         <v>5.5</v>
       </c>
-      <c r="AO23">
-        <f>COUNT(B23:AN23)</f>
-        <v>24</v>
-      </c>
-      <c r="AP23" s="18">
-        <f>AVERAGE(B23:AN23)</f>
-        <v>5.9375</v>
-      </c>
-      <c r="AQ23">
-        <f>IF(AO23&gt;1,_xlfn.STDEV.S(B23:AN23),"")</f>
-        <v>0.75631400196295284</v>
+      <c r="AM23">
+        <v>5</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AQ23" s="18">
+        <f t="shared" si="1"/>
+        <v>5.9</v>
       </c>
       <c r="AR23">
+        <f t="shared" si="2"/>
+        <v>0.76376261582597338</v>
+      </c>
+      <c r="AS23">
         <v>0</v>
       </c>
-      <c r="AT23">
-        <f t="shared" si="0"/>
+      <c r="AU23">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -5173,27 +5218,27 @@
       <c r="AL24">
         <v>5.5</v>
       </c>
-      <c r="AO24">
-        <f>COUNT(B24:AN24)</f>
+      <c r="AP24">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AP24" s="18">
-        <f>AVERAGE(B24:AN24)</f>
+      <c r="AQ24" s="18">
+        <f t="shared" si="1"/>
         <v>5.9411764705882355</v>
       </c>
-      <c r="AQ24">
-        <f>IF(AO24&gt;1,_xlfn.STDEV.S(B24:AN24),"")</f>
+      <c r="AR24">
+        <f t="shared" si="2"/>
         <v>0.96634545034980535</v>
       </c>
-      <c r="AR24">
+      <c r="AS24">
         <v>0</v>
       </c>
-      <c r="AT24">
-        <f t="shared" si="0"/>
+      <c r="AU24">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -5284,27 +5329,27 @@
       <c r="AD25">
         <v>6</v>
       </c>
-      <c r="AO25">
-        <f>COUNT(B25:AN25)</f>
+      <c r="AP25">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AP25" s="18">
-        <f>AVERAGE(B25:AN25)</f>
+      <c r="AQ25" s="18">
+        <f t="shared" si="1"/>
         <v>4.4615384615384617</v>
       </c>
-      <c r="AQ25">
-        <f>IF(AO25&gt;1,_xlfn.STDEV.S(B25:AN25),"")</f>
+      <c r="AR25">
+        <f t="shared" si="2"/>
         <v>1.875961292039569</v>
       </c>
-      <c r="AR25">
+      <c r="AS25">
         <v>0</v>
       </c>
-      <c r="AT25" t="e">
-        <f t="shared" si="0"/>
+      <c r="AU25" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -5398,27 +5443,27 @@
       <c r="AG26">
         <v>6.5</v>
       </c>
-      <c r="AO26">
-        <f>COUNT(B26:AN26)</f>
+      <c r="AP26">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AP26" s="18">
-        <f>AVERAGE(B26:AN26)</f>
+      <c r="AQ26" s="18">
+        <f t="shared" si="1"/>
         <v>7.1818181818181817</v>
       </c>
-      <c r="AQ26">
-        <f>IF(AO26&gt;1,_xlfn.STDEV.S(B26:AN26),"")</f>
+      <c r="AR26">
+        <f t="shared" si="2"/>
         <v>1.006795095159071</v>
       </c>
-      <c r="AR26">
+      <c r="AS26">
         <v>0</v>
       </c>
-      <c r="AT26" t="e">
-        <f t="shared" si="0"/>
+      <c r="AU26" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -5509,27 +5554,27 @@
       <c r="AD27" t="s">
         <v>26</v>
       </c>
-      <c r="AO27">
-        <f>COUNT(B27:AN27)</f>
+      <c r="AP27">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AP27" s="18">
-        <f>AVERAGE(B27:AN27)</f>
+      <c r="AQ27" s="18">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AQ27">
-        <f>IF(AO27&gt;1,_xlfn.STDEV.S(B27:AN27),"")</f>
+      <c r="AR27">
+        <f t="shared" si="2"/>
         <v>0.61237243569579447</v>
       </c>
-      <c r="AR27">
+      <c r="AS27">
         <v>0</v>
       </c>
-      <c r="AT27" t="e">
-        <f t="shared" si="0"/>
+      <c r="AU27" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -5623,27 +5668,27 @@
       <c r="AH28">
         <v>4</v>
       </c>
-      <c r="AO28">
-        <f>COUNT(B28:AN28)</f>
+      <c r="AP28">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AP28" s="18">
-        <f>AVERAGE(B28:AN28)</f>
+      <c r="AQ28" s="18">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AQ28">
-        <f>IF(AO28&gt;1,_xlfn.STDEV.S(B28:AN28),"")</f>
+      <c r="AR28">
+        <f t="shared" si="2"/>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AR28">
+      <c r="AS28">
         <v>0</v>
       </c>
-      <c r="AT28" t="e">
-        <f t="shared" si="0"/>
+      <c r="AU28" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -5734,27 +5779,27 @@
       <c r="AD29" t="s">
         <v>26</v>
       </c>
-      <c r="AO29">
-        <f>COUNT(B29:AN29)</f>
-        <v>7</v>
-      </c>
-      <c r="AP29" s="18">
-        <f>AVERAGE(B29:AN29)</f>
+      <c r="AP29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AQ29" s="18">
+        <f t="shared" si="1"/>
         <v>6.8571428571428568</v>
       </c>
-      <c r="AQ29">
-        <f>IF(AO29&gt;1,_xlfn.STDEV.S(B29:AN29),"")</f>
+      <c r="AR29">
+        <f t="shared" si="2"/>
         <v>0.62678317052800869</v>
       </c>
-      <c r="AR29">
+      <c r="AS29">
         <v>0</v>
       </c>
-      <c r="AT29" t="e">
-        <f t="shared" si="0"/>
+      <c r="AU29" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -5851,27 +5896,30 @@
       <c r="AF30">
         <v>5</v>
       </c>
-      <c r="AO30">
-        <f>COUNT(B30:AN30)</f>
-        <v>7</v>
-      </c>
-      <c r="AP30" s="18">
-        <f>AVERAGE(B30:AN30)</f>
-        <v>6</v>
-      </c>
-      <c r="AQ30">
-        <f>IF(AO30&gt;1,_xlfn.STDEV.S(B30:AN30),"")</f>
-        <v>0.57735026918962573</v>
+      <c r="AM30">
+        <v>4.5</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AQ30" s="18">
+        <f t="shared" si="1"/>
+        <v>5.8125</v>
       </c>
       <c r="AR30">
+        <f t="shared" si="2"/>
+        <v>0.75297030865385772</v>
+      </c>
+      <c r="AS30">
         <v>0</v>
       </c>
-      <c r="AT30" t="e">
-        <f t="shared" si="0"/>
+      <c r="AU30" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -5962,27 +6010,27 @@
       <c r="AD31">
         <v>6</v>
       </c>
-      <c r="AO31">
-        <f>COUNT(B31:AN31)</f>
-        <v>6</v>
-      </c>
-      <c r="AP31" s="18">
-        <f>AVERAGE(B31:AN31)</f>
+      <c r="AP31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AQ31" s="18">
+        <f t="shared" si="1"/>
         <v>6.916666666666667</v>
       </c>
-      <c r="AQ31">
-        <f>IF(AO31&gt;1,_xlfn.STDEV.S(B31:AN31),"")</f>
+      <c r="AR31">
+        <f t="shared" si="2"/>
         <v>0.49159604012508756</v>
       </c>
-      <c r="AR31">
+      <c r="AS31">
         <v>0</v>
       </c>
-      <c r="AT31" t="e">
-        <f t="shared" si="0"/>
+      <c r="AU31" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -6085,27 +6133,27 @@
       <c r="AK32">
         <v>5</v>
       </c>
-      <c r="AO32">
-        <f>COUNT(B32:AN32)</f>
+      <c r="AP32">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AP32" s="18">
-        <f>AVERAGE(B32:AN32)</f>
+      <c r="AQ32" s="18">
+        <f t="shared" si="1"/>
         <v>4.875</v>
       </c>
-      <c r="AQ32">
-        <f>IF(AO32&gt;1,_xlfn.STDEV.S(B32:AN32),"")</f>
+      <c r="AR32">
+        <f t="shared" si="2"/>
         <v>1.0264362759428509</v>
       </c>
-      <c r="AR32">
+      <c r="AS32">
         <v>0</v>
       </c>
-      <c r="AT32">
-        <f t="shared" si="0"/>
+      <c r="AU32">
+        <f t="shared" si="3"/>
         <v>4.75</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -6196,27 +6244,27 @@
       <c r="AD33" t="s">
         <v>26</v>
       </c>
-      <c r="AO33">
-        <f>COUNT(B33:AN33)</f>
+      <c r="AP33">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AP33" s="18">
-        <f>AVERAGE(B33:AN33)</f>
+      <c r="AQ33" s="18">
+        <f t="shared" si="1"/>
         <v>7.625</v>
       </c>
-      <c r="AQ33">
-        <f>IF(AO33&gt;1,_xlfn.STDEV.S(B33:AN33),"")</f>
+      <c r="AR33">
+        <f t="shared" si="2"/>
         <v>0.62915286960589578</v>
       </c>
-      <c r="AR33">
+      <c r="AS33">
         <v>0</v>
       </c>
-      <c r="AT33" t="e">
-        <f t="shared" si="0"/>
+      <c r="AU33" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -6307,27 +6355,27 @@
       <c r="AD34" t="s">
         <v>26</v>
       </c>
-      <c r="AO34">
-        <f>COUNT(B34:AN34)</f>
+      <c r="AP34">
+        <f t="shared" ref="AP34:AP56" si="4">COUNT(B34:AO34)</f>
         <v>4</v>
       </c>
-      <c r="AP34" s="18">
-        <f>AVERAGE(B34:AN34)</f>
-        <v>6</v>
-      </c>
-      <c r="AQ34">
-        <f>IF(AO34&gt;1,_xlfn.STDEV.S(B34:AN34),"")</f>
+      <c r="AQ34" s="18">
+        <f t="shared" ref="AQ34:AQ56" si="5">AVERAGE(B34:AO34)</f>
+        <v>6</v>
+      </c>
+      <c r="AR34">
+        <f t="shared" ref="AR34:AR56" si="6">IF(AP34&gt;1,_xlfn.STDEV.S(B34:AO34),"")</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AR34">
+      <c r="AS34">
         <v>0</v>
       </c>
-      <c r="AT34" t="e">
-        <f t="shared" si="0"/>
+      <c r="AU34" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -6418,27 +6466,27 @@
       <c r="AD35" t="s">
         <v>26</v>
       </c>
-      <c r="AO35">
-        <f>COUNT(B35:AN35)</f>
+      <c r="AP35">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AP35" s="18">
-        <f>AVERAGE(B35:AN35)</f>
+      <c r="AQ35" s="18">
+        <f t="shared" si="5"/>
         <v>6.833333333333333</v>
       </c>
-      <c r="AQ35">
-        <f>IF(AO35&gt;1,_xlfn.STDEV.S(B35:AN35),"")</f>
+      <c r="AR35">
+        <f t="shared" si="6"/>
         <v>0.76376261582597338</v>
       </c>
-      <c r="AR35">
+      <c r="AS35">
         <v>0</v>
       </c>
-      <c r="AT35" t="e">
-        <f t="shared" si="0"/>
+      <c r="AU35" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -6529,27 +6577,27 @@
       <c r="AD36" t="s">
         <v>26</v>
       </c>
-      <c r="AO36">
-        <f>COUNT(B36:AN36)</f>
+      <c r="AP36">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AP36" s="18">
-        <f>AVERAGE(B36:AN36)</f>
+      <c r="AQ36" s="18">
+        <f t="shared" si="5"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="AQ36">
-        <f>IF(AO36&gt;1,_xlfn.STDEV.S(B36:AN36),"")</f>
+      <c r="AR36">
+        <f t="shared" si="6"/>
         <v>1.1547005383792526</v>
       </c>
-      <c r="AR36">
+      <c r="AS36">
         <v>0</v>
       </c>
-      <c r="AT36" t="e">
-        <f t="shared" si="0"/>
+      <c r="AU36" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -6643,27 +6691,27 @@
       <c r="AK37">
         <v>3.5</v>
       </c>
-      <c r="AO37">
-        <f>COUNT(B37:AN37)</f>
+      <c r="AP37">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="AP37" s="18">
-        <f>AVERAGE(B37:AN37)</f>
+      <c r="AQ37" s="18">
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="AQ37">
-        <f>IF(AO37&gt;1,_xlfn.STDEV.S(B37:AN37),"")</f>
+      <c r="AR37">
+        <f t="shared" si="6"/>
         <v>0.81649658092772603</v>
       </c>
-      <c r="AR37">
+      <c r="AS37">
         <v>0</v>
       </c>
-      <c r="AT37">
-        <f t="shared" si="0"/>
+      <c r="AU37">
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -6754,27 +6802,27 @@
       <c r="AD38" t="s">
         <v>26</v>
       </c>
-      <c r="AO38">
-        <f>COUNT(B38:AN38)</f>
+      <c r="AP38">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AP38" s="18">
-        <f>AVERAGE(B38:AN38)</f>
+      <c r="AQ38" s="18">
+        <f t="shared" si="5"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="AQ38">
-        <f>IF(AO38&gt;1,_xlfn.STDEV.S(B38:AN38),"")</f>
+      <c r="AR38">
+        <f t="shared" si="6"/>
         <v>0.28867513459481287</v>
       </c>
-      <c r="AR38">
+      <c r="AS38">
         <v>0</v>
       </c>
-      <c r="AT38" t="e">
-        <f t="shared" si="0"/>
+      <c r="AU38" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -6868,27 +6916,27 @@
       <c r="AE39">
         <v>1.5</v>
       </c>
-      <c r="AO39">
-        <f>COUNT(B39:AN39)</f>
+      <c r="AP39">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AP39" s="18">
-        <f>AVERAGE(B39:AN39)</f>
+      <c r="AQ39" s="18">
+        <f t="shared" si="5"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="AQ39">
-        <f>IF(AO39&gt;1,_xlfn.STDEV.S(B39:AN39),"")</f>
+      <c r="AR39">
+        <f t="shared" si="6"/>
         <v>1.0408329997330663</v>
       </c>
-      <c r="AR39">
+      <c r="AS39">
         <v>0</v>
       </c>
-      <c r="AT39" t="e">
-        <f t="shared" si="0"/>
+      <c r="AU39" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -6985,23 +7033,27 @@
       <c r="AF40">
         <v>9</v>
       </c>
-      <c r="AO40">
-        <f>COUNT(B40:AN40)</f>
+      <c r="AP40">
+        <f t="shared" ref="AP40:AP57" si="7">COUNT(B40:AO40)</f>
         <v>3</v>
       </c>
-      <c r="AP40" s="18">
-        <f>AVERAGE(B40:AN40)</f>
+      <c r="AQ40" s="18">
+        <f t="shared" ref="AQ40:AQ57" si="8">AVERAGE(B40:AO40)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="AQ40">
-        <f>IF(AO40&gt;1,_xlfn.STDEV.S(B40:AN40),"")</f>
+      <c r="AR40">
+        <f t="shared" ref="AR40:AR57" si="9">IF(AP40&gt;1,_xlfn.STDEV.S(B40:AO40),"")</f>
         <v>1.1547005383792495</v>
       </c>
-      <c r="AR40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AS40">
+        <v>1</v>
+      </c>
+      <c r="AU40" t="e">
+        <f t="shared" ref="AU40:AU57" si="10">AVERAGE(AI40:AK40)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -7095,23 +7147,27 @@
       <c r="AG41">
         <v>2.5</v>
       </c>
-      <c r="AO41">
-        <f>COUNT(B41:AN41)</f>
+      <c r="AP41">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="AP41" s="18">
-        <f>AVERAGE(B41:AN41)</f>
+      <c r="AQ41" s="18">
+        <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
-      <c r="AQ41">
-        <f>IF(AO41&gt;1,_xlfn.STDEV.S(B41:AN41),"")</f>
+      <c r="AR41">
+        <f t="shared" si="9"/>
         <v>1.7320508075688772</v>
       </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AS41">
+        <v>2</v>
+      </c>
+      <c r="AU41" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -7202,23 +7258,27 @@
       <c r="AD42">
         <v>7.5</v>
       </c>
-      <c r="AO42">
-        <f>COUNT(B42:AN42)</f>
-        <v>2</v>
-      </c>
-      <c r="AP42" s="18">
-        <f>AVERAGE(B42:AN42)</f>
+      <c r="AP42">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AQ42" s="18">
+        <f t="shared" si="8"/>
         <v>7.25</v>
       </c>
-      <c r="AQ42">
-        <f>IF(AO42&gt;1,_xlfn.STDEV.S(B42:AN42),"")</f>
+      <c r="AR42">
+        <f t="shared" si="9"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AR42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AS42">
+        <v>3</v>
+      </c>
+      <c r="AU42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -7309,23 +7369,27 @@
       <c r="AD43" t="s">
         <v>26</v>
       </c>
-      <c r="AO43">
-        <f>COUNT(B43:AN43)</f>
-        <v>2</v>
-      </c>
-      <c r="AP43" s="18">
-        <f>AVERAGE(B43:AN43)</f>
+      <c r="AP43">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AQ43" s="18">
+        <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
-      <c r="AQ43">
-        <f>IF(AO43&gt;1,_xlfn.STDEV.S(B43:AN43),"")</f>
+      <c r="AR43">
+        <f t="shared" si="9"/>
         <v>1.4142135623730951</v>
       </c>
-      <c r="AR43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AS43">
+        <v>4</v>
+      </c>
+      <c r="AU43" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -7416,23 +7480,27 @@
       <c r="AD44" t="s">
         <v>26</v>
       </c>
-      <c r="AO44">
-        <f>COUNT(B44:AN44)</f>
-        <v>2</v>
-      </c>
-      <c r="AP44" s="18">
-        <f>AVERAGE(B44:AN44)</f>
-        <v>2</v>
-      </c>
-      <c r="AQ44">
-        <f>IF(AO44&gt;1,_xlfn.STDEV.S(B44:AN44),"")</f>
+      <c r="AP44">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AQ44" s="18">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AR44">
+        <f t="shared" si="9"/>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AR44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AS44">
+        <v>5</v>
+      </c>
+      <c r="AU44" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -7526,23 +7594,27 @@
       <c r="AG45">
         <v>5</v>
       </c>
-      <c r="AO45">
-        <f>COUNT(B45:AN45)</f>
-        <v>2</v>
-      </c>
-      <c r="AP45" s="18">
-        <f>AVERAGE(B45:AN45)</f>
+      <c r="AP45">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AQ45" s="18">
+        <f t="shared" si="8"/>
         <v>5.25</v>
       </c>
-      <c r="AQ45">
-        <f>IF(AO45&gt;1,_xlfn.STDEV.S(B45:AN45),"")</f>
+      <c r="AR45">
+        <f t="shared" si="9"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AR45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AS45">
+        <v>6</v>
+      </c>
+      <c r="AU45" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -7633,23 +7705,27 @@
       <c r="AD46">
         <v>9</v>
       </c>
-      <c r="AO46">
-        <f>COUNT(B46:AN46)</f>
-        <v>1</v>
-      </c>
-      <c r="AP46" s="18">
-        <f>AVERAGE(B46:AN46)</f>
+      <c r="AP46">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AQ46" s="18">
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="AQ46" t="str">
-        <f>IF(AO46&gt;1,_xlfn.STDEV.S(B46:AN46),"")</f>
+      <c r="AR46" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AR46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AS46">
+        <v>7</v>
+      </c>
+      <c r="AU46" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -7740,23 +7816,27 @@
       <c r="AD47" t="s">
         <v>26</v>
       </c>
-      <c r="AO47">
-        <f>COUNT(B47:AN47)</f>
-        <v>1</v>
-      </c>
-      <c r="AP47" s="18">
-        <f>AVERAGE(B47:AN47)</f>
-        <v>7</v>
-      </c>
-      <c r="AQ47" t="str">
-        <f>IF(AO47&gt;1,_xlfn.STDEV.S(B47:AN47),"")</f>
+      <c r="AP47">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AQ47" s="18">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AR47" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AR47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AS47">
+        <v>8</v>
+      </c>
+      <c r="AU47" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -7844,23 +7924,27 @@
       <c r="AD48" t="s">
         <v>26</v>
       </c>
-      <c r="AO48">
-        <f>COUNT(B48:AN48)</f>
-        <v>1</v>
-      </c>
-      <c r="AP48" s="18">
-        <f>AVERAGE(B48:AN48)</f>
-        <v>7</v>
-      </c>
-      <c r="AQ48" t="str">
-        <f>IF(AO48&gt;1,_xlfn.STDEV.S(B48:AN48),"")</f>
+      <c r="AP48">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AQ48" s="18">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AR48" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AR48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS48">
+        <v>9</v>
+      </c>
+      <c r="AU48" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -7951,23 +8035,27 @@
       <c r="AD49" t="s">
         <v>26</v>
       </c>
-      <c r="AO49">
-        <f>COUNT(B49:AN49)</f>
-        <v>1</v>
-      </c>
-      <c r="AP49" s="18">
-        <f>AVERAGE(B49:AN49)</f>
-        <v>7</v>
-      </c>
-      <c r="AQ49" t="str">
-        <f>IF(AO49&gt;1,_xlfn.STDEV.S(B49:AN49),"")</f>
+      <c r="AP49">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AQ49" s="18">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AR49" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AR49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS49">
+        <v>10</v>
+      </c>
+      <c r="AU49" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -8058,23 +8146,27 @@
       <c r="AD50" t="s">
         <v>26</v>
       </c>
-      <c r="AO50">
-        <f>COUNT(B50:AN50)</f>
-        <v>1</v>
-      </c>
-      <c r="AP50" s="18">
-        <f>AVERAGE(B50:AN50)</f>
-        <v>6</v>
-      </c>
-      <c r="AQ50" t="str">
-        <f>IF(AO50&gt;1,_xlfn.STDEV.S(B50:AN50),"")</f>
+      <c r="AP50">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AQ50" s="18">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AR50" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AR50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS50">
+        <v>11</v>
+      </c>
+      <c r="AU50" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -8165,23 +8257,27 @@
       <c r="AD51" t="s">
         <v>26</v>
       </c>
-      <c r="AO51">
-        <f>COUNT(B51:AN51)</f>
-        <v>1</v>
-      </c>
-      <c r="AP51" s="18">
-        <f>AVERAGE(B51:AN51)</f>
+      <c r="AP51">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AQ51" s="18">
+        <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
-      <c r="AQ51" t="str">
-        <f>IF(AO51&gt;1,_xlfn.STDEV.S(B51:AN51),"")</f>
+      <c r="AR51" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AR51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS51">
+        <v>12</v>
+      </c>
+      <c r="AU51" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -8272,23 +8368,27 @@
       <c r="AD52" t="s">
         <v>26</v>
       </c>
-      <c r="AO52">
-        <f>COUNT(B52:AN52)</f>
-        <v>1</v>
-      </c>
-      <c r="AP52" s="18">
-        <f>AVERAGE(B52:AN52)</f>
+      <c r="AP52">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AQ52" s="18">
+        <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
-      <c r="AQ52" t="str">
-        <f>IF(AO52&gt;1,_xlfn.STDEV.S(B52:AN52),"")</f>
+      <c r="AR52" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AR52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS52">
+        <v>13</v>
+      </c>
+      <c r="AU52" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -8379,98 +8479,141 @@
       <c r="AD53" t="s">
         <v>26</v>
       </c>
-      <c r="AO53">
-        <f>COUNT(B53:AN53)</f>
-        <v>1</v>
-      </c>
-      <c r="AP53" s="18">
-        <f>AVERAGE(B53:AN53)</f>
+      <c r="AP53">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AQ53" s="18">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="AQ53" t="str">
-        <f>IF(AO53&gt;1,_xlfn.STDEV.S(B53:AN53),"")</f>
+      <c r="AR53" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AR53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS53">
+        <v>14</v>
+      </c>
+      <c r="AU53" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>341</v>
       </c>
       <c r="AJ54">
         <v>5</v>
       </c>
-      <c r="AO54">
-        <f>COUNT(B54:AN54)</f>
-        <v>1</v>
-      </c>
-      <c r="AP54" s="18">
-        <f>AVERAGE(B54:AN54)</f>
+      <c r="AP54">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AQ54" s="18">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="AQ54" t="str">
-        <f>IF(AO54&gt;1,_xlfn.STDEV.S(B54:AN54),"")</f>
+      <c r="AR54" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AR54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS54">
+        <v>15</v>
+      </c>
+      <c r="AU54">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>340</v>
       </c>
       <c r="AJ55">
         <v>7</v>
       </c>
-      <c r="AO55">
-        <f>COUNT(B55:AN55)</f>
-        <v>1</v>
-      </c>
-      <c r="AP55" s="18">
-        <f>AVERAGE(B55:AN55)</f>
-        <v>7</v>
-      </c>
-      <c r="AQ55" t="str">
-        <f>IF(AO55&gt;1,_xlfn.STDEV.S(B55:AN55),"")</f>
+      <c r="AP55">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AQ55" s="18">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AR55" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AR55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS55">
+        <v>16</v>
+      </c>
+      <c r="AU55">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>339</v>
       </c>
       <c r="AJ56">
         <v>4.5</v>
       </c>
-      <c r="AO56">
-        <f>COUNT(B56:AN56)</f>
-        <v>1</v>
-      </c>
-      <c r="AP56" s="18">
-        <f>AVERAGE(B56:AN56)</f>
+      <c r="AP56">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AQ56" s="18">
+        <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
-      <c r="AQ56" t="str">
-        <f>IF(AO56&gt;1,_xlfn.STDEV.S(B56:AN56),"")</f>
+      <c r="AR56" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AR56">
-        <v>0</v>
+      <c r="AS56">
+        <v>17</v>
+      </c>
+      <c r="AU56">
+        <f t="shared" si="10"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>343</v>
+      </c>
+      <c r="AM57">
+        <v>6</v>
+      </c>
+      <c r="AP57">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AQ57" s="18">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AR57" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AS57">
+        <v>18</v>
+      </c>
+      <c r="AU57" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR54" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
-    <sortState ref="A2:AR56">
-      <sortCondition descending="1" ref="AR1:AR54"/>
+  <autoFilter ref="A1:AS54" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
+    <sortState ref="A2:AS56">
+      <sortCondition descending="1" ref="AS1:AS54"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="AA2:AM38">
+  <conditionalFormatting sqref="AA2:AN38">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -8482,7 +8625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AO39">
+  <conditionalFormatting sqref="AP2:AP57">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -8494,7 +8637,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AQ39">
+  <conditionalFormatting sqref="AR2:AR57">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -8506,31 +8649,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO40:AO42">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ40:AQ42">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AM47">
+  <conditionalFormatting sqref="AA2:AN47">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -8542,7 +8661,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AO42">
+  <conditionalFormatting sqref="AP2:AP57">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -8554,7 +8673,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP2:AP39">
+  <conditionalFormatting sqref="AQ2:AQ57">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -8566,19 +8685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP40:AP42">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP2:AP42">
+  <conditionalFormatting sqref="AQ2:AQ57">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -8590,7 +8697,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AM42">
+  <conditionalFormatting sqref="AA2:AN42">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -8602,127 +8709,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO45 AO43 AO47">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ45 AQ43 AQ47">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO45">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP45 AP43 AP47">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP45">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO46 AO44 AO48:AO56">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ46 AQ44 AQ48:AQ56">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO46">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP46 AP44 AP48:AP56">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP46">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AL44">
+  <conditionalFormatting sqref="AA2:AM44">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -8770,7 +8757,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AL49 AB51:AL51 AD53:AL53">
+  <conditionalFormatting sqref="B2:AM49 AB51:AM51 AD53:AM53">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -8782,7 +8769,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AO56">
+  <conditionalFormatting sqref="AP2:AP57">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8794,7 +8781,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP2:AP56">
+  <conditionalFormatting sqref="AQ2:AQ57">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -8806,7 +8793,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AL53">
+  <conditionalFormatting sqref="B2:AM53">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8818,7 +8805,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT2:AT39">
+  <conditionalFormatting sqref="AU2:AU57">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8838,7 +8825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99312F67-43DE-48B9-BCC3-7D7A05DB9885}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -9900,8 +9887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A044468-5FF9-485E-BCBE-2F73FE35F0BA}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10065,10 +10052,10 @@
       <c r="H5" s="19">
         <v>84.73</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="19">
         <v>77.78</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="19">
         <v>86.12</v>
       </c>
       <c r="K5" s="20"/>
@@ -10100,7 +10087,7 @@
       <c r="I6" s="19">
         <v>50</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="19">
         <v>86.12</v>
       </c>
     </row>
@@ -10219,7 +10206,7 @@
       <c r="I10" s="19">
         <v>77.78</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="19">
         <v>86.12</v>
       </c>
     </row>
@@ -10285,7 +10272,7 @@
       <c r="I12" s="19">
         <v>77.78</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="19">
         <v>86.12</v>
       </c>
     </row>
@@ -10318,7 +10305,7 @@
       <c r="I13" s="19">
         <v>77.78</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="19">
         <v>86.12</v>
       </c>
     </row>
@@ -10417,7 +10404,7 @@
       <c r="I16" s="19">
         <v>77.78</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="19">
         <v>86.12</v>
       </c>
     </row>
@@ -10448,7 +10435,7 @@
         <v>84.73</v>
       </c>
       <c r="I17" s="19"/>
-      <c r="J17" s="21">
+      <c r="J17" s="19">
         <v>50</v>
       </c>
     </row>
@@ -10506,7 +10493,7 @@
       <c r="I19" s="19">
         <v>77.78</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="19">
         <v>86.12</v>
       </c>
     </row>
@@ -10620,7 +10607,7 @@
       <c r="I24" s="19">
         <v>77.78</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="19">
         <v>86.12</v>
       </c>
     </row>
@@ -11147,7 +11134,7 @@
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
-      <c r="J56" s="21">
+      <c r="J56" s="19">
         <v>25</v>
       </c>
     </row>
@@ -11236,12 +11223,12 @@
         <v>1715.41</v>
       </c>
       <c r="I60" s="23">
-        <f>14*25+77.78*14</f>
-        <v>1438.92</v>
+        <f>14*25+77.78*15</f>
+        <v>1516.7</v>
       </c>
       <c r="J60" s="23">
-        <f>1*25+86.12*1</f>
-        <v>111.12</v>
+        <f>4*25+86.12*9</f>
+        <v>875.08</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -11275,11 +11262,11 @@
       </c>
       <c r="I61" s="24">
         <f t="shared" si="2"/>
-        <v>0.83548360874664696</v>
+        <v>0.8806451987504792</v>
       </c>
       <c r="J61" s="24">
         <f t="shared" ref="J61" si="3">J60/J59</f>
-        <v>6.482929219854848E-2</v>
+        <v>0.51053651023313362</v>
       </c>
     </row>
   </sheetData>
@@ -11289,10 +11276,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:P113"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+      <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16788,6 +16775,156 @@
         <v>19</v>
       </c>
     </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A111" s="14">
+        <v>45721</v>
+      </c>
+      <c r="B111" s="3">
+        <v>5</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111" s="9">
+        <v>4</v>
+      </c>
+      <c r="J111" s="10">
+        <v>8</v>
+      </c>
+      <c r="K111" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L111" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M111" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="N111" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O111" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P111" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A112" s="14">
+        <v>45721</v>
+      </c>
+      <c r="B112" s="3">
+        <v>5</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I112" s="11">
+        <v>6</v>
+      </c>
+      <c r="J112" s="2">
+        <v>1</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P112" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A113" s="14">
+        <v>45721</v>
+      </c>
+      <c r="B113" s="5">
+        <v>3</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I113" s="5">
+        <v>3</v>
+      </c>
+      <c r="J113" s="8">
+        <v>4</v>
+      </c>
+      <c r="K113" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N113" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O113" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P113" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16797,7 +16934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40949BC3-8DAE-4185-A4C0-F8573FA5A3A2}">
   <dimension ref="A1:AI53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O29" sqref="O29"/>
     </sheetView>
@@ -18197,11 +18334,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DDCCA6-42DC-4211-A42F-70F3625FA6AA}">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S38" sqref="S38"/>
+      <selection pane="topRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18215,7 +18352,7 @@
     <col min="17" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18273,8 +18410,11 @@
       <c r="S1" s="1">
         <v>45714</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" s="1">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18296,13 +18436,16 @@
       <c r="S2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -18310,7 +18453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -18318,17 +18461,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -18354,7 +18497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -18374,7 +18517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -18385,7 +18528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -18398,8 +18541,11 @@
       <c r="J11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -18425,7 +18571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -18439,7 +18585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -18473,749 +18619,781 @@
       <c r="S14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>343</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="N17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="N18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>3</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
         <v>3</v>
       </c>
-      <c r="P18">
+      <c r="P19">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>2</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>79</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
         <v>5</v>
       </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="O21">
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="O22">
         <v>4</v>
       </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
         <v>4</v>
       </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22">
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
         <v>3</v>
       </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>80</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>61</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="F25">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>4</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>3</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2</v>
-      </c>
-      <c r="N25">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="T26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>68</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>53</v>
       </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
         <v>3</v>
       </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>2</v>
-      </c>
-      <c r="R31">
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="R32">
         <v>3</v>
       </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>46</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="O32">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="O33">
         <v>3</v>
       </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>3</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>3</v>
       </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="S33">
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="S34">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>56</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>3</v>
       </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="P34">
-        <v>1</v>
-      </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
-      <c r="S34">
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="T35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>60</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>341</v>
       </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>55</v>
       </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
         <v>3</v>
       </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
         <v>3</v>
       </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="M39">
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="M40">
         <v>3</v>
       </c>
-      <c r="N39">
+      <c r="N40">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>81</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <v>3</v>
       </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>63</v>
       </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="N45">
+      <c r="N46">
         <v>3</v>
       </c>
-      <c r="S45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="S46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>8</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>2</v>
-      </c>
-      <c r="Q46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>82</v>
       </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47">
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
         <v>3</v>
       </c>
-      <c r="J47">
+      <c r="J48">
         <v>4</v>
       </c>
-      <c r="L47">
+      <c r="L48">
         <v>4</v>
       </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>2</v>
-      </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-      <c r="R47">
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
         <v>3</v>
       </c>
-      <c r="S47">
+      <c r="S48">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>85</v>
       </c>
-      <c r="K49">
+      <c r="K50">
         <v>4</v>
       </c>
-      <c r="L49">
-        <v>2</v>
-      </c>
-      <c r="M49">
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>5</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
         <v>3</v>
       </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50">
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
         <v>3</v>
       </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="M50">
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="M51">
         <v>4</v>
       </c>
-      <c r="N50">
-        <v>6</v>
-      </c>
-      <c r="P50">
-        <v>2</v>
-      </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-      <c r="R50">
-        <v>2</v>
-      </c>
-      <c r="S50">
+      <c r="N51">
+        <v>6</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>45</v>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>23</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
         <v>3</v>
       </c>
-      <c r="O52">
-        <v>2</v>
-      </c>
-      <c r="P52">
-        <v>2</v>
-      </c>
-      <c r="Q52">
-        <v>1</v>
-      </c>
-      <c r="R52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="O53">
+        <v>2</v>
+      </c>
+      <c r="P53">
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>17</v>
       </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>86</v>
       </c>
-      <c r="K54">
+      <c r="K55">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>16</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>4</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>3</v>
       </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-      <c r="G55">
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
         <v>5</v>
       </c>
-      <c r="H55">
+      <c r="H56">
         <v>3</v>
       </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
-      <c r="J55">
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
         <v>5</v>
       </c>
-      <c r="K55">
+      <c r="K56">
         <v>3</v>
       </c>
-      <c r="L55">
-        <v>2</v>
-      </c>
-      <c r="M55">
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
         <v>3</v>
       </c>
-      <c r="O55">
+      <c r="O56">
         <v>5</v>
       </c>
-      <c r="P55">
+      <c r="P56">
         <v>5</v>
       </c>
-      <c r="Q55">
+      <c r="Q56">
         <v>3</v>
       </c>
-      <c r="R55">
-        <v>2</v>
-      </c>
-      <c r="S55">
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="T56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q55" xr:uid="{9919274B-1AF9-4264-8D2F-634AEA90C214}">
-    <sortState ref="A2:Q56">
-      <sortCondition ref="A1:A55"/>
+  <autoFilter ref="A1:Q56" xr:uid="{9919274B-1AF9-4264-8D2F-634AEA90C214}">
+    <sortState ref="A2:Q57">
+      <sortCondition ref="A1:A56"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/condominio.xlsx
+++ b/data/condominio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="14_{4875EC6F-1B3C-4B44-AFB1-EFEC8BDA871D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D7B9F0D9-7903-4A22-BEC1-C20828F481EC}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="14_{4875EC6F-1B3C-4B44-AFB1-EFEC8BDA871D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{02C99EC9-F323-4791-9969-A1E563A9CB35}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">artilharia!$A$1:$Q$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'artilharia total'!$A$1:$AI$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'extrato 2024'!$A$1:$C$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AT$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AU$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="349">
   <si>
     <t>Jogador</t>
   </si>
@@ -2134,11 +2134,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV59"/>
+  <dimension ref="A1:AW59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS8" sqref="AS8"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2158,10 +2158,10 @@
     <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="40" width="10.5546875" customWidth="1"/>
+    <col min="28" max="41" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2282,20 +2282,23 @@
       <c r="AN1" s="1">
         <v>45728</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AO1" s="1">
+        <v>45735</v>
+      </c>
+      <c r="AR1" t="s">
         <v>57</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>58</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>59</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2416,27 +2419,30 @@
       <c r="AN2">
         <v>5.5</v>
       </c>
-      <c r="AQ2">
-        <f t="shared" ref="AQ2:AQ33" si="0">COUNT(B2:AP2)</f>
-        <v>38</v>
-      </c>
-      <c r="AR2" s="18">
-        <f t="shared" ref="AR2:AR33" si="1">AVERAGE(B2:AP2)</f>
-        <v>6.1710526315789478</v>
-      </c>
-      <c r="AS2">
-        <f t="shared" ref="AS2:AS33" si="2">IF(AQ2&gt;1,_xlfn.STDEV.S(B2:AP2),"")</f>
-        <v>1.1227157939175023</v>
+      <c r="AO2">
+        <v>5</v>
+      </c>
+      <c r="AR2">
+        <f t="shared" ref="AR2:AR33" si="0">COUNT(B2:AQ2)</f>
+        <v>39</v>
+      </c>
+      <c r="AS2" s="18">
+        <f t="shared" ref="AS2:AS33" si="1">AVERAGE(B2:AQ2)</f>
+        <v>6.1410256410256414</v>
       </c>
       <c r="AT2">
-        <v>1</v>
-      </c>
-      <c r="AV2">
+        <f t="shared" ref="AT2:AT33" si="2">IF(AR2&gt;1,_xlfn.STDEV.S(B2:AQ2),"")</f>
+        <v>1.1236027460380209</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
         <f>AVERAGE(AI2:AK2)</f>
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -2554,27 +2560,30 @@
       <c r="AN3">
         <v>6.5</v>
       </c>
-      <c r="AQ3">
+      <c r="AO3">
+        <v>5.5</v>
+      </c>
+      <c r="AR3">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="AR3" s="18">
+        <v>37</v>
+      </c>
+      <c r="AS3" s="18">
         <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="AS3">
+        <v>6.6351351351351351</v>
+      </c>
+      <c r="AT3">
         <f t="shared" si="2"/>
-        <v>0.73678839761300718</v>
-      </c>
-      <c r="AT3">
-        <v>1</v>
-      </c>
-      <c r="AV3">
-        <f t="shared" ref="AV3:AV39" si="3">AVERAGE(AI3:AK3)</f>
+        <v>0.75137511574749805</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <f t="shared" ref="AW3:AW39" si="3">AVERAGE(AI3:AK3)</f>
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2692,27 +2701,30 @@
       <c r="AN4">
         <v>5</v>
       </c>
-      <c r="AQ4">
+      <c r="AO4">
+        <v>5.5</v>
+      </c>
+      <c r="AR4">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="AR4" s="18">
+        <v>37</v>
+      </c>
+      <c r="AS4" s="18">
         <f t="shared" si="1"/>
-        <v>5.8194444444444446</v>
-      </c>
-      <c r="AS4">
+        <v>5.8108108108108105</v>
+      </c>
+      <c r="AT4">
         <f t="shared" si="2"/>
-        <v>0.82073815014967588</v>
-      </c>
-      <c r="AT4">
-        <v>1</v>
-      </c>
-      <c r="AV4">
+        <v>0.8109609470607424</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2827,27 +2839,30 @@
       <c r="AN5">
         <v>5.5</v>
       </c>
-      <c r="AQ5">
+      <c r="AO5">
+        <v>5</v>
+      </c>
+      <c r="AR5">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="AR5" s="18">
+        <v>35</v>
+      </c>
+      <c r="AS5" s="18">
         <f t="shared" si="1"/>
-        <v>5.8382352941176467</v>
-      </c>
-      <c r="AS5">
+        <v>5.8142857142857141</v>
+      </c>
+      <c r="AT5">
         <f t="shared" si="2"/>
-        <v>0.85031712653943115</v>
-      </c>
-      <c r="AT5">
-        <v>1</v>
-      </c>
-      <c r="AV5">
+        <v>0.84961681921663956</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2965,27 +2980,27 @@
       <c r="AN6">
         <v>5.5</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AR6" s="18">
+      <c r="AS6" s="18">
         <f t="shared" si="1"/>
         <v>6.1857142857142859</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <f t="shared" si="2"/>
         <v>0.79599839533641836</v>
       </c>
-      <c r="AT6">
-        <v>1</v>
-      </c>
-      <c r="AV6">
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
         <f t="shared" si="3"/>
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -3097,27 +3112,27 @@
       <c r="AN7">
         <v>4</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AR7" s="18">
+      <c r="AS7" s="18">
         <f t="shared" si="1"/>
         <v>5.693548387096774</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <f t="shared" si="2"/>
         <v>0.81319759135197045</v>
       </c>
-      <c r="AT7">
-        <v>1</v>
-      </c>
-      <c r="AV7">
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
         <f t="shared" si="3"/>
         <v>4.75</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3229,27 +3244,27 @@
       <c r="AM8">
         <v>7</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AR8" s="18">
+      <c r="AS8" s="18">
         <f t="shared" si="1"/>
         <v>6.7166666666666668</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <f t="shared" si="2"/>
         <v>0.69086818610695455</v>
       </c>
-      <c r="AT8">
-        <v>1</v>
-      </c>
-      <c r="AV8">
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
         <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3361,27 +3376,27 @@
       <c r="AL9">
         <v>4.5</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AR9" s="18">
+      <c r="AS9" s="18">
         <f t="shared" si="1"/>
         <v>6.5344827586206895</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <f t="shared" si="2"/>
         <v>1.0516231882424716</v>
       </c>
-      <c r="AT9">
-        <v>1</v>
-      </c>
-      <c r="AV9">
+      <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
         <f t="shared" si="3"/>
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -3493,27 +3508,30 @@
       <c r="AM10">
         <v>4</v>
       </c>
-      <c r="AQ10">
+      <c r="AO10">
+        <v>5</v>
+      </c>
+      <c r="AR10">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="AR10" s="18">
+        <v>26</v>
+      </c>
+      <c r="AS10" s="18">
         <f t="shared" si="1"/>
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="AS10">
+        <v>4.5</v>
+      </c>
+      <c r="AT10">
         <f t="shared" si="2"/>
-        <v>1.194431524477928</v>
-      </c>
-      <c r="AT10">
-        <v>1</v>
-      </c>
-      <c r="AV10">
+        <v>1.1747340124470731</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3634,3366 +3652,3396 @@
       <c r="AN11">
         <v>4.5</v>
       </c>
-      <c r="AQ11">
+      <c r="AO11">
+        <v>5</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AS11" s="18">
+        <f t="shared" si="1"/>
+        <v>5.7321428571428568</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" si="2"/>
+        <v>1.126138459820919</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" si="3"/>
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>7.5</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>7.5</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12">
+        <v>7.5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>7.5</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>7</v>
+      </c>
+      <c r="U12">
+        <v>7</v>
+      </c>
+      <c r="V12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W12">
+        <v>6</v>
+      </c>
+      <c r="X12">
+        <v>6</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA12">
+        <v>6</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE12">
+        <v>6</v>
+      </c>
+      <c r="AF12">
+        <v>6.5</v>
+      </c>
+      <c r="AG12">
+        <v>7</v>
+      </c>
+      <c r="AH12">
+        <v>5.5</v>
+      </c>
+      <c r="AJ12">
+        <v>5.5</v>
+      </c>
+      <c r="AK12">
+        <v>5</v>
+      </c>
+      <c r="AL12">
+        <v>4.5</v>
+      </c>
+      <c r="AM12">
+        <v>5.5</v>
+      </c>
+      <c r="AN12">
+        <v>6.5</v>
+      </c>
+      <c r="AO12">
+        <v>6</v>
+      </c>
+      <c r="AR12">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AR11" s="18">
+      <c r="AS12" s="18">
         <f t="shared" si="1"/>
-        <v>5.7592592592592595</v>
-      </c>
-      <c r="AS11">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="AT12">
         <f t="shared" si="2"/>
-        <v>1.1382372536444443</v>
-      </c>
-      <c r="AT11">
-        <v>1</v>
-      </c>
-      <c r="AV11">
+        <v>0.7966275068156915</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="3"/>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>7.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" t="s">
+        <v>26</v>
+      </c>
+      <c r="V13">
+        <v>7</v>
+      </c>
+      <c r="W13">
+        <v>7</v>
+      </c>
+      <c r="X13">
+        <v>6</v>
+      </c>
+      <c r="Y13">
+        <v>7</v>
+      </c>
+      <c r="Z13">
+        <v>7.5</v>
+      </c>
+      <c r="AA13">
+        <v>7</v>
+      </c>
+      <c r="AB13">
+        <v>7</v>
+      </c>
+      <c r="AC13">
+        <v>7.5</v>
+      </c>
+      <c r="AD13">
+        <v>7</v>
+      </c>
+      <c r="AE13">
+        <v>6</v>
+      </c>
+      <c r="AF13">
+        <v>6.5</v>
+      </c>
+      <c r="AH13">
+        <v>6.5</v>
+      </c>
+      <c r="AI13">
+        <v>6.5</v>
+      </c>
+      <c r="AJ13">
+        <v>5.5</v>
+      </c>
+      <c r="AK13">
+        <v>5.5</v>
+      </c>
+      <c r="AL13">
+        <v>6</v>
+      </c>
+      <c r="AM13">
+        <v>5</v>
+      </c>
+      <c r="AN13">
+        <v>5</v>
+      </c>
+      <c r="AO13">
+        <v>5</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AS13" s="18">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="2"/>
+        <v>0.8522416262267889</v>
+      </c>
+      <c r="AU13">
+        <v>1</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="3"/>
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14">
+        <v>5.5</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V14">
+        <v>7</v>
+      </c>
+      <c r="W14" t="s">
+        <v>26</v>
+      </c>
+      <c r="X14">
+        <v>6</v>
+      </c>
+      <c r="Y14">
+        <v>7</v>
+      </c>
+      <c r="Z14">
+        <v>7</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB14">
+        <v>7</v>
+      </c>
+      <c r="AC14">
+        <v>4.5</v>
+      </c>
+      <c r="AD14">
+        <v>7</v>
+      </c>
+      <c r="AE14">
+        <v>6</v>
+      </c>
+      <c r="AF14">
+        <v>5</v>
+      </c>
+      <c r="AG14">
+        <v>6.5</v>
+      </c>
+      <c r="AH14">
+        <v>6.5</v>
+      </c>
+      <c r="AI14">
+        <v>6.5</v>
+      </c>
+      <c r="AJ14">
+        <v>5</v>
+      </c>
+      <c r="AK14">
+        <v>5</v>
+      </c>
+      <c r="AL14">
+        <v>6</v>
+      </c>
+      <c r="AM14">
+        <v>5</v>
+      </c>
+      <c r="AO14">
+        <v>5</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AS14" s="18">
+        <f t="shared" si="1"/>
+        <v>6.0263157894736841</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="2"/>
+        <v>0.88934564288279838</v>
+      </c>
+      <c r="AU14">
+        <v>1</v>
+      </c>
+      <c r="AW14">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <v>5.5</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>4.5</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15">
+        <v>5.5</v>
+      </c>
+      <c r="P15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15">
+        <v>6</v>
+      </c>
+      <c r="V15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA15">
+        <v>7</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC15">
+        <v>7</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI15">
+        <v>5</v>
+      </c>
+      <c r="AJ15">
+        <v>5</v>
+      </c>
+      <c r="AN15">
+        <v>5</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AS15" s="18">
+        <f t="shared" si="1"/>
+        <v>5.6071428571428568</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="2"/>
+        <v>1.095068867321058</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" t="s">
+        <v>26</v>
+      </c>
+      <c r="T16" t="s">
+        <v>26</v>
+      </c>
+      <c r="U16" t="s">
+        <v>26</v>
+      </c>
+      <c r="V16" t="s">
+        <v>26</v>
+      </c>
+      <c r="W16" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB16">
+        <v>4.5</v>
+      </c>
+      <c r="AC16">
+        <v>6</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE16">
+        <v>6.5</v>
+      </c>
+      <c r="AF16">
+        <v>6</v>
+      </c>
+      <c r="AG16">
+        <v>6.5</v>
+      </c>
+      <c r="AH16">
+        <v>5</v>
+      </c>
+      <c r="AI16">
+        <v>5.5</v>
+      </c>
+      <c r="AL16">
+        <v>5</v>
+      </c>
+      <c r="AO16">
+        <v>5.5</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AS16" s="18">
+        <f t="shared" si="1"/>
+        <v>5.6111111111111107</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="2"/>
+        <v>0.6972166887783986</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>8.5</v>
+      </c>
+      <c r="D17">
+        <v>8.5</v>
+      </c>
+      <c r="E17">
+        <v>7.5</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>7.5</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17">
+        <v>8.5</v>
+      </c>
+      <c r="K17">
+        <v>7.5</v>
+      </c>
+      <c r="L17">
+        <v>8.5</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>7.5</v>
+      </c>
+      <c r="O17">
+        <v>7.5</v>
+      </c>
+      <c r="P17">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" t="s">
+        <v>26</v>
+      </c>
+      <c r="U17">
+        <v>7</v>
+      </c>
+      <c r="V17">
+        <v>6</v>
+      </c>
+      <c r="W17">
+        <v>7.5</v>
+      </c>
+      <c r="X17">
+        <v>7</v>
+      </c>
+      <c r="Y17">
+        <v>7</v>
+      </c>
+      <c r="Z17">
+        <v>7</v>
+      </c>
+      <c r="AA17">
+        <v>7</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF17">
+        <v>6.5</v>
+      </c>
+      <c r="AG17">
+        <v>10</v>
+      </c>
+      <c r="AI17">
+        <v>6.5</v>
+      </c>
+      <c r="AJ17">
+        <v>5.5</v>
+      </c>
+      <c r="AK17">
+        <v>6.5</v>
+      </c>
+      <c r="AL17">
+        <v>6</v>
+      </c>
+      <c r="AO17">
+        <v>6</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AS17" s="18">
+        <f t="shared" si="1"/>
+        <v>7.3103448275862073</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="2"/>
+        <v>1.0641377554440863</v>
+      </c>
+      <c r="AU17">
+        <v>1</v>
+      </c>
+      <c r="AW17">
         <f t="shared" si="3"/>
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18">
+        <v>5.5</v>
+      </c>
+      <c r="G18">
+        <v>4.5</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18">
+        <v>6</v>
+      </c>
+      <c r="T18">
+        <v>6</v>
+      </c>
+      <c r="U18" t="s">
+        <v>26</v>
+      </c>
+      <c r="V18" t="s">
+        <v>26</v>
+      </c>
+      <c r="W18" t="s">
+        <v>26</v>
+      </c>
+      <c r="X18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG18">
+        <v>6.5</v>
+      </c>
+      <c r="AI18">
+        <v>4</v>
+      </c>
+      <c r="AJ18">
+        <v>3.5</v>
+      </c>
+      <c r="AK18">
+        <v>3</v>
+      </c>
+      <c r="AL18">
+        <v>5</v>
+      </c>
+      <c r="AN18">
+        <v>5</v>
+      </c>
+      <c r="AO18">
+        <v>5</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AS18" s="18">
+        <f t="shared" si="1"/>
+        <v>5.0769230769230766</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="2"/>
+        <v>1.0771519903228184</v>
+      </c>
+      <c r="AU18">
+        <v>1</v>
+      </c>
+      <c r="AW18">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <v>6</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19">
+        <v>6</v>
+      </c>
+      <c r="U19">
+        <v>6</v>
+      </c>
+      <c r="V19">
+        <v>7</v>
+      </c>
+      <c r="W19">
+        <v>6</v>
+      </c>
+      <c r="X19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y19">
+        <v>8.5</v>
+      </c>
+      <c r="Z19">
+        <v>6</v>
+      </c>
+      <c r="AA19">
+        <v>6</v>
+      </c>
+      <c r="AB19">
+        <v>5.5</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE19">
+        <v>6</v>
+      </c>
+      <c r="AF19">
+        <v>6.5</v>
+      </c>
+      <c r="AG19">
+        <v>6.5</v>
+      </c>
+      <c r="AL19">
+        <v>4.5</v>
+      </c>
+      <c r="AM19">
+        <v>5.5</v>
+      </c>
+      <c r="AR19">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AS19" s="18">
+        <f t="shared" si="1"/>
+        <v>6.4090909090909092</v>
+      </c>
+      <c r="AT19">
+        <f t="shared" si="2"/>
+        <v>1.1087999050492527</v>
+      </c>
+      <c r="AU19">
+        <v>0.5</v>
+      </c>
+      <c r="AW19" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>5.5</v>
+      </c>
+      <c r="J20">
+        <v>5.5</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>4.5</v>
+      </c>
+      <c r="O20">
         <v>7.5</v>
       </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>7</v>
-      </c>
-      <c r="E12">
+      <c r="P20">
+        <v>7</v>
+      </c>
+      <c r="Q20">
+        <v>4.5</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20" t="s">
+        <v>26</v>
+      </c>
+      <c r="U20">
+        <v>5.5</v>
+      </c>
+      <c r="V20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH20">
+        <v>5</v>
+      </c>
+      <c r="AI20">
+        <v>5.5</v>
+      </c>
+      <c r="AJ20">
+        <v>3.5</v>
+      </c>
+      <c r="AR20">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AS20" s="18">
+        <f t="shared" si="1"/>
+        <v>5.2307692307692308</v>
+      </c>
+      <c r="AT20">
+        <f t="shared" si="2"/>
+        <v>1.1657505560686472</v>
+      </c>
+      <c r="AU20">
+        <v>0.5</v>
+      </c>
+      <c r="AW20">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>5.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>4.5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21">
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <v>5.5</v>
+      </c>
+      <c r="R21">
+        <v>7</v>
+      </c>
+      <c r="S21">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <v>7</v>
+      </c>
+      <c r="V21">
+        <v>5.5</v>
+      </c>
+      <c r="W21">
+        <v>6</v>
+      </c>
+      <c r="X21">
+        <v>5.5</v>
+      </c>
+      <c r="Y21">
+        <v>7</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA21">
+        <v>7</v>
+      </c>
+      <c r="AB21">
+        <v>6</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD21">
+        <v>6</v>
+      </c>
+      <c r="AR21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AS21" s="18">
+        <f t="shared" si="1"/>
+        <v>6.0882352941176467</v>
+      </c>
+      <c r="AT21">
+        <f t="shared" si="2"/>
+        <v>0.71228711990072591</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+      <c r="P22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22">
+        <v>4.5</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22">
+        <v>7</v>
+      </c>
+      <c r="U22">
+        <v>7</v>
+      </c>
+      <c r="V22">
+        <v>6</v>
+      </c>
+      <c r="W22">
+        <v>6</v>
+      </c>
+      <c r="X22">
+        <v>6</v>
+      </c>
+      <c r="Y22">
         <v>7.5</v>
       </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12">
-        <v>7.5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12">
-        <v>7.5</v>
-      </c>
-      <c r="L12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12">
-        <v>6</v>
-      </c>
-      <c r="O12">
-        <v>7</v>
-      </c>
-      <c r="P12">
-        <v>6</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>26</v>
-      </c>
-      <c r="R12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S12">
-        <v>6</v>
-      </c>
-      <c r="T12">
-        <v>7</v>
-      </c>
-      <c r="U12">
-        <v>7</v>
-      </c>
-      <c r="V12" t="s">
-        <v>26</v>
-      </c>
-      <c r="W12">
-        <v>6</v>
-      </c>
-      <c r="X12">
-        <v>6</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA12">
-        <v>6</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE12">
-        <v>6</v>
-      </c>
-      <c r="AF12">
-        <v>6.5</v>
-      </c>
-      <c r="AG12">
-        <v>7</v>
-      </c>
-      <c r="AH12">
-        <v>5.5</v>
-      </c>
-      <c r="AJ12">
-        <v>5.5</v>
-      </c>
-      <c r="AK12">
-        <v>5</v>
-      </c>
-      <c r="AL12">
-        <v>4.5</v>
-      </c>
-      <c r="AM12">
-        <v>5.5</v>
-      </c>
-      <c r="AN12">
-        <v>6.5</v>
-      </c>
-      <c r="AQ12">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="AR12" s="18">
-        <f t="shared" si="1"/>
-        <v>6.3461538461538458</v>
-      </c>
-      <c r="AS12">
-        <f t="shared" si="2"/>
-        <v>0.80955828411833253</v>
-      </c>
-      <c r="AT12">
-        <v>1</v>
-      </c>
-      <c r="AV12">
-        <f t="shared" si="3"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>7.5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>26</v>
-      </c>
-      <c r="R13" t="s">
-        <v>26</v>
-      </c>
-      <c r="S13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T13" t="s">
-        <v>26</v>
-      </c>
-      <c r="U13" t="s">
-        <v>26</v>
-      </c>
-      <c r="V13">
-        <v>7</v>
-      </c>
-      <c r="W13">
-        <v>7</v>
-      </c>
-      <c r="X13">
-        <v>6</v>
-      </c>
-      <c r="Y13">
-        <v>7</v>
-      </c>
-      <c r="Z13">
-        <v>7.5</v>
-      </c>
-      <c r="AA13">
-        <v>7</v>
-      </c>
-      <c r="AB13">
-        <v>7</v>
-      </c>
-      <c r="AC13">
-        <v>7.5</v>
-      </c>
-      <c r="AD13">
-        <v>7</v>
-      </c>
-      <c r="AE13">
-        <v>6</v>
-      </c>
-      <c r="AF13">
-        <v>6.5</v>
-      </c>
-      <c r="AH13">
-        <v>6.5</v>
-      </c>
-      <c r="AI13">
-        <v>6.5</v>
-      </c>
-      <c r="AJ13">
-        <v>5.5</v>
-      </c>
-      <c r="AK13">
-        <v>5.5</v>
-      </c>
-      <c r="AL13">
-        <v>6</v>
-      </c>
-      <c r="AM13">
-        <v>5</v>
-      </c>
-      <c r="AN13">
-        <v>5</v>
-      </c>
-      <c r="AQ13">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AR13" s="18">
-        <f t="shared" si="1"/>
-        <v>6.4736842105263159</v>
-      </c>
-      <c r="AS13">
-        <f t="shared" si="2"/>
-        <v>0.80749413844666951</v>
-      </c>
-      <c r="AT13">
-        <v>1</v>
-      </c>
-      <c r="AV13">
-        <f t="shared" si="3"/>
-        <v>5.833333333333333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14">
-        <v>5.5</v>
-      </c>
-      <c r="R14" t="s">
-        <v>26</v>
-      </c>
-      <c r="S14">
-        <v>7</v>
-      </c>
-      <c r="T14" t="s">
-        <v>26</v>
-      </c>
-      <c r="U14" t="s">
-        <v>26</v>
-      </c>
-      <c r="V14">
-        <v>7</v>
-      </c>
-      <c r="W14" t="s">
-        <v>26</v>
-      </c>
-      <c r="X14">
-        <v>6</v>
-      </c>
-      <c r="Y14">
-        <v>7</v>
-      </c>
-      <c r="Z14">
-        <v>7</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB14">
-        <v>7</v>
-      </c>
-      <c r="AC14">
-        <v>4.5</v>
-      </c>
-      <c r="AD14">
-        <v>7</v>
-      </c>
-      <c r="AE14">
-        <v>6</v>
-      </c>
-      <c r="AF14">
-        <v>5</v>
-      </c>
-      <c r="AG14">
-        <v>6.5</v>
-      </c>
-      <c r="AH14">
-        <v>6.5</v>
-      </c>
-      <c r="AI14">
-        <v>6.5</v>
-      </c>
-      <c r="AJ14">
-        <v>5</v>
-      </c>
-      <c r="AK14">
-        <v>5</v>
-      </c>
-      <c r="AL14">
-        <v>6</v>
-      </c>
-      <c r="AM14">
-        <v>5</v>
-      </c>
-      <c r="AQ14">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AR14" s="18">
-        <f t="shared" si="1"/>
-        <v>6.083333333333333</v>
-      </c>
-      <c r="AS14">
-        <f t="shared" si="2"/>
-        <v>0.87866877919350916</v>
-      </c>
-      <c r="AT14">
-        <v>1</v>
-      </c>
-      <c r="AV14">
-        <f t="shared" si="3"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15">
-        <v>5.5</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <v>4.5</v>
-      </c>
-      <c r="J15">
-        <v>7</v>
-      </c>
-      <c r="K15">
-        <v>7</v>
-      </c>
-      <c r="L15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15">
-        <v>5.5</v>
-      </c>
-      <c r="P15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>26</v>
-      </c>
-      <c r="R15" t="s">
-        <v>26</v>
-      </c>
-      <c r="S15" t="s">
-        <v>26</v>
-      </c>
-      <c r="T15" t="s">
-        <v>26</v>
-      </c>
-      <c r="U15">
-        <v>6</v>
-      </c>
-      <c r="V15" t="s">
-        <v>26</v>
-      </c>
-      <c r="W15" t="s">
-        <v>26</v>
-      </c>
-      <c r="X15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA15">
-        <v>7</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC15">
-        <v>7</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI15">
-        <v>5</v>
-      </c>
-      <c r="AJ15">
-        <v>5</v>
-      </c>
-      <c r="AN15">
-        <v>5</v>
-      </c>
-      <c r="AQ15">
+      <c r="Z22">
+        <v>6</v>
+      </c>
+      <c r="AA22">
+        <v>6</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC22">
+        <v>6</v>
+      </c>
+      <c r="AD22">
+        <v>7</v>
+      </c>
+      <c r="AF22">
+        <v>7</v>
+      </c>
+      <c r="AG22">
+        <v>7</v>
+      </c>
+      <c r="AR22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AR15" s="18">
+      <c r="AS22" s="18">
         <f t="shared" si="1"/>
-        <v>5.6071428571428568</v>
-      </c>
-      <c r="AS15">
+        <v>6.3571428571428568</v>
+      </c>
+      <c r="AT22">
         <f t="shared" si="2"/>
-        <v>1.095068867321058</v>
-      </c>
-      <c r="AT15">
-        <v>1</v>
-      </c>
-      <c r="AV15">
+        <v>0.77032888651964082</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>7.5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>4.5</v>
+      </c>
+      <c r="I23">
+        <v>5.5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>6</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23">
+        <v>6</v>
+      </c>
+      <c r="P23">
+        <v>5.5</v>
+      </c>
+      <c r="Q23">
+        <v>5.5</v>
+      </c>
+      <c r="R23">
+        <v>6</v>
+      </c>
+      <c r="S23">
+        <v>4.5</v>
+      </c>
+      <c r="T23">
+        <v>7</v>
+      </c>
+      <c r="U23" t="s">
+        <v>26</v>
+      </c>
+      <c r="V23">
+        <v>6</v>
+      </c>
+      <c r="W23" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23">
+        <v>7</v>
+      </c>
+      <c r="Y23">
+        <v>6</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA23">
+        <v>6</v>
+      </c>
+      <c r="AB23">
+        <v>5.5</v>
+      </c>
+      <c r="AC23">
+        <v>6</v>
+      </c>
+      <c r="AD23">
+        <v>5.5</v>
+      </c>
+      <c r="AI23">
+        <v>5</v>
+      </c>
+      <c r="AL23">
+        <v>5.5</v>
+      </c>
+      <c r="AM23">
+        <v>5</v>
+      </c>
+      <c r="AN23">
+        <v>5</v>
+      </c>
+      <c r="AO23">
+        <v>5</v>
+      </c>
+      <c r="AR23">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AS23" s="18">
+        <f t="shared" si="1"/>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" si="2"/>
+        <v>0.77210999614941278</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>26</v>
-      </c>
-      <c r="R16" t="s">
-        <v>26</v>
-      </c>
-      <c r="S16" t="s">
-        <v>26</v>
-      </c>
-      <c r="T16" t="s">
-        <v>26</v>
-      </c>
-      <c r="U16" t="s">
-        <v>26</v>
-      </c>
-      <c r="V16" t="s">
-        <v>26</v>
-      </c>
-      <c r="W16" t="s">
-        <v>26</v>
-      </c>
-      <c r="X16" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB16">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>7.5</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>7.5</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>5.5</v>
+      </c>
+      <c r="H24">
         <v>4.5</v>
       </c>
-      <c r="AC16">
-        <v>6</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE16">
+      <c r="I24">
+        <v>5.5</v>
+      </c>
+      <c r="J24">
+        <v>5.5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <v>6</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>7</v>
+      </c>
+      <c r="S24" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" t="s">
+        <v>26</v>
+      </c>
+      <c r="U24" t="s">
+        <v>26</v>
+      </c>
+      <c r="V24" t="s">
+        <v>26</v>
+      </c>
+      <c r="W24" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y24">
+        <v>6</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE24">
         <v>6.5</v>
       </c>
-      <c r="AF16">
-        <v>6</v>
-      </c>
-      <c r="AG16">
+      <c r="AI24">
+        <v>5</v>
+      </c>
+      <c r="AL24">
+        <v>5.5</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AS24" s="18">
+        <f t="shared" si="1"/>
+        <v>5.9411764705882355</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="2"/>
+        <v>0.96634545034980535</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>1.5</v>
+      </c>
+      <c r="D25">
+        <v>4.5</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>7.5</v>
+      </c>
+      <c r="G25">
+        <v>5.5</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>4.5</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>5.5</v>
+      </c>
+      <c r="L25">
+        <v>2.5</v>
+      </c>
+      <c r="M25">
+        <v>1.5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25" t="s">
+        <v>26</v>
+      </c>
+      <c r="T25" t="s">
+        <v>26</v>
+      </c>
+      <c r="U25" t="s">
+        <v>26</v>
+      </c>
+      <c r="V25" t="s">
+        <v>26</v>
+      </c>
+      <c r="W25" t="s">
+        <v>26</v>
+      </c>
+      <c r="X25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD25">
+        <v>6</v>
+      </c>
+      <c r="AR25">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AS25" s="18">
+        <f t="shared" si="1"/>
+        <v>4.4615384615384617</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="2"/>
+        <v>1.875961292039569</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>8.5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>7.5</v>
+      </c>
+      <c r="E26">
+        <v>7.5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>7.5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26">
+        <v>6</v>
+      </c>
+      <c r="L26">
+        <v>7.5</v>
+      </c>
+      <c r="M26">
+        <v>7</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26">
+        <v>9</v>
+      </c>
+      <c r="S26" t="s">
+        <v>26</v>
+      </c>
+      <c r="T26" t="s">
+        <v>26</v>
+      </c>
+      <c r="U26" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG26">
         <v>6.5</v>
       </c>
-      <c r="AH16">
-        <v>5</v>
-      </c>
-      <c r="AI16">
+      <c r="AN26">
+        <v>6</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AS26" s="18">
+        <f t="shared" si="1"/>
+        <v>7.083333333333333</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="2"/>
+        <v>1.0187633620614673</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <v>7.5</v>
+      </c>
+      <c r="H27">
+        <v>7.5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27">
+        <v>8.5</v>
+      </c>
+      <c r="K27">
+        <v>8.5</v>
+      </c>
+      <c r="L27">
+        <v>7.5</v>
+      </c>
+      <c r="M27">
+        <v>7.5</v>
+      </c>
+      <c r="N27">
+        <v>7.5</v>
+      </c>
+      <c r="O27">
+        <v>9</v>
+      </c>
+      <c r="P27">
+        <v>8.5</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" t="s">
+        <v>26</v>
+      </c>
+      <c r="S27" t="s">
+        <v>26</v>
+      </c>
+      <c r="T27" t="s">
+        <v>26</v>
+      </c>
+      <c r="U27" t="s">
+        <v>26</v>
+      </c>
+      <c r="V27" t="s">
+        <v>26</v>
+      </c>
+      <c r="W27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AS27" s="18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AT27">
+        <f t="shared" si="2"/>
+        <v>0.61237243569579447</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
         <v>5.5</v>
       </c>
-      <c r="AL16">
-        <v>5</v>
-      </c>
-      <c r="AQ16">
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28">
+        <v>4.5</v>
+      </c>
+      <c r="S28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T28" t="s">
+        <v>26</v>
+      </c>
+      <c r="U28" t="s">
+        <v>26</v>
+      </c>
+      <c r="V28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W28" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y28">
+        <v>5.5</v>
+      </c>
+      <c r="Z28">
+        <v>5.5</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB28">
+        <v>5.5</v>
+      </c>
+      <c r="AC28">
+        <v>5.5</v>
+      </c>
+      <c r="AD28">
+        <v>4</v>
+      </c>
+      <c r="AH28">
+        <v>4</v>
+      </c>
+      <c r="AR28">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AR16" s="18">
+      <c r="AS28" s="18">
         <f t="shared" si="1"/>
-        <v>5.625</v>
-      </c>
-      <c r="AS16">
+        <v>5</v>
+      </c>
+      <c r="AT28">
         <f t="shared" si="2"/>
-        <v>0.74402380914284494</v>
-      </c>
-      <c r="AT16">
-        <v>1</v>
-      </c>
-      <c r="AV16">
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="e">
         <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29">
+        <v>7</v>
+      </c>
+      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29">
+        <v>7.5</v>
+      </c>
+      <c r="O29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" t="s">
+        <v>26</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29" t="s">
+        <v>26</v>
+      </c>
+      <c r="U29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V29" t="s">
+        <v>26</v>
+      </c>
+      <c r="W29" t="s">
+        <v>26</v>
+      </c>
+      <c r="X29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AS29" s="18">
+        <f t="shared" si="1"/>
+        <v>6.8571428571428568</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" si="2"/>
+        <v>0.62678317052800869</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" t="s">
+        <v>26</v>
+      </c>
+      <c r="S30" t="s">
+        <v>26</v>
+      </c>
+      <c r="T30" t="s">
+        <v>26</v>
+      </c>
+      <c r="U30" t="s">
+        <v>26</v>
+      </c>
+      <c r="V30">
+        <v>6</v>
+      </c>
+      <c r="W30">
+        <v>6</v>
+      </c>
+      <c r="X30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y30">
+        <v>6</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB30">
+        <v>7</v>
+      </c>
+      <c r="AC30">
+        <v>6</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE30">
+        <v>6</v>
+      </c>
+      <c r="AF30">
         <v>5</v>
       </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17">
+      <c r="AM30">
+        <v>4.5</v>
+      </c>
+      <c r="AR30">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AS30" s="18">
+        <f t="shared" si="1"/>
+        <v>5.8125</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" si="2"/>
+        <v>0.75297030865385772</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="J31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="L31">
+        <v>7.5</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" t="s">
+        <v>26</v>
+      </c>
+      <c r="O31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R31">
+        <v>7</v>
+      </c>
+      <c r="S31" t="s">
+        <v>26</v>
+      </c>
+      <c r="T31" t="s">
+        <v>26</v>
+      </c>
+      <c r="U31">
+        <v>7</v>
+      </c>
+      <c r="V31" t="s">
+        <v>26</v>
+      </c>
+      <c r="W31" t="s">
+        <v>26</v>
+      </c>
+      <c r="X31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD31">
+        <v>6</v>
+      </c>
+      <c r="AR31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AS31" s="18">
+        <f t="shared" si="1"/>
+        <v>6.916666666666667</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" si="2"/>
+        <v>0.49159604012508756</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" t="s">
+        <v>26</v>
+      </c>
+      <c r="S32" t="s">
+        <v>26</v>
+      </c>
+      <c r="T32" t="s">
+        <v>26</v>
+      </c>
+      <c r="U32" t="s">
+        <v>26</v>
+      </c>
+      <c r="V32" t="s">
+        <v>26</v>
+      </c>
+      <c r="W32" t="s">
+        <v>26</v>
+      </c>
+      <c r="X32">
+        <v>6</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z32">
+        <v>5.5</v>
+      </c>
+      <c r="AA32">
+        <v>4</v>
+      </c>
+      <c r="AB32">
+        <v>3</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG32">
+        <v>6</v>
+      </c>
+      <c r="AH32">
+        <v>5</v>
+      </c>
+      <c r="AJ32">
+        <v>4.5</v>
+      </c>
+      <c r="AK32">
+        <v>5</v>
+      </c>
+      <c r="AO32">
+        <v>4</v>
+      </c>
+      <c r="AR32">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AS32" s="18">
+        <f t="shared" si="1"/>
+        <v>4.7777777777777777</v>
+      </c>
+      <c r="AT32">
+        <f t="shared" si="2"/>
+        <v>1.0034662148993572</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <f t="shared" si="3"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33">
+        <v>7.5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33">
         <v>8.5</v>
       </c>
-      <c r="D17">
-        <v>8.5</v>
-      </c>
-      <c r="E17">
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33">
         <v>7.5</v>
       </c>
-      <c r="F17">
-        <v>7</v>
-      </c>
-      <c r="G17">
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <v>7</v>
+      </c>
+      <c r="O33" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" t="s">
+        <v>26</v>
+      </c>
+      <c r="S33" t="s">
+        <v>26</v>
+      </c>
+      <c r="T33" t="s">
+        <v>26</v>
+      </c>
+      <c r="U33" t="s">
+        <v>26</v>
+      </c>
+      <c r="V33" t="s">
+        <v>26</v>
+      </c>
+      <c r="W33" t="s">
+        <v>26</v>
+      </c>
+      <c r="X33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AS33" s="18">
+        <f t="shared" si="1"/>
+        <v>7.625</v>
+      </c>
+      <c r="AT33">
+        <f t="shared" si="2"/>
+        <v>0.62915286960589578</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34">
+        <v>7</v>
+      </c>
+      <c r="S34">
+        <v>5.5</v>
+      </c>
+      <c r="T34">
+        <v>5.5</v>
+      </c>
+      <c r="U34" t="s">
+        <v>26</v>
+      </c>
+      <c r="V34" t="s">
+        <v>26</v>
+      </c>
+      <c r="W34">
+        <v>6</v>
+      </c>
+      <c r="X34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR34">
+        <f t="shared" ref="AR34:AR39" si="4">COUNT(B34:AQ34)</f>
+        <v>4</v>
+      </c>
+      <c r="AS34" s="18">
+        <f t="shared" ref="AS34:AS39" si="5">AVERAGE(B34:AQ34)</f>
+        <v>6</v>
+      </c>
+      <c r="AT34">
+        <f t="shared" ref="AT34:AT39" si="6">IF(AR34&gt;1,_xlfn.STDEV.S(B34:AQ34),"")</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AW34" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35">
+        <v>6</v>
+      </c>
+      <c r="N35" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>26</v>
+      </c>
+      <c r="R35" t="s">
+        <v>26</v>
+      </c>
+      <c r="S35" t="s">
+        <v>26</v>
+      </c>
+      <c r="T35" t="s">
+        <v>26</v>
+      </c>
+      <c r="U35" t="s">
+        <v>26</v>
+      </c>
+      <c r="V35">
+        <v>7</v>
+      </c>
+      <c r="W35">
         <v>7.5</v>
       </c>
-      <c r="H17">
-        <v>7</v>
-      </c>
-      <c r="I17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17">
-        <v>8.5</v>
-      </c>
-      <c r="K17">
-        <v>7.5</v>
-      </c>
-      <c r="L17">
-        <v>8.5</v>
-      </c>
-      <c r="M17">
-        <v>7</v>
-      </c>
-      <c r="N17">
-        <v>7.5</v>
-      </c>
-      <c r="O17">
-        <v>7.5</v>
-      </c>
-      <c r="P17">
-        <v>7</v>
-      </c>
-      <c r="Q17">
-        <v>7</v>
-      </c>
-      <c r="R17" t="s">
-        <v>26</v>
-      </c>
-      <c r="S17" t="s">
-        <v>26</v>
-      </c>
-      <c r="T17" t="s">
-        <v>26</v>
-      </c>
-      <c r="U17">
-        <v>7</v>
-      </c>
-      <c r="V17">
-        <v>6</v>
-      </c>
-      <c r="W17">
-        <v>7.5</v>
-      </c>
-      <c r="X17">
-        <v>7</v>
-      </c>
-      <c r="Y17">
-        <v>7</v>
-      </c>
-      <c r="Z17">
-        <v>7</v>
-      </c>
-      <c r="AA17">
-        <v>7</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF17">
+      <c r="X35" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO35">
+        <v>5.5</v>
+      </c>
+      <c r="AR35">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AS35" s="18">
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
-      <c r="AG17">
-        <v>10</v>
-      </c>
-      <c r="AI17">
-        <v>6.5</v>
-      </c>
-      <c r="AJ17">
+      <c r="AT35">
+        <f t="shared" si="6"/>
+        <v>0.9128709291752769</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="R36">
+        <v>6</v>
+      </c>
+      <c r="S36" t="s">
+        <v>26</v>
+      </c>
+      <c r="T36" t="s">
+        <v>26</v>
+      </c>
+      <c r="U36" t="s">
+        <v>26</v>
+      </c>
+      <c r="V36" t="s">
+        <v>26</v>
+      </c>
+      <c r="W36" t="s">
+        <v>26</v>
+      </c>
+      <c r="X36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR36">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AS36" s="18">
+        <f t="shared" si="5"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="AT36">
+        <f t="shared" si="6"/>
+        <v>1.1547005383792526</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" t="s">
+        <v>26</v>
+      </c>
+      <c r="O37" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37" t="s">
+        <v>26</v>
+      </c>
+      <c r="S37">
+        <v>4.5</v>
+      </c>
+      <c r="T37" t="s">
+        <v>26</v>
+      </c>
+      <c r="U37">
+        <v>4.5</v>
+      </c>
+      <c r="V37" t="s">
+        <v>26</v>
+      </c>
+      <c r="W37">
         <v>5.5</v>
       </c>
-      <c r="AK17">
-        <v>6.5</v>
-      </c>
-      <c r="AL17">
-        <v>6</v>
-      </c>
-      <c r="AQ17">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="AR17" s="18">
-        <f t="shared" si="1"/>
-        <v>7.3571428571428568</v>
-      </c>
-      <c r="AS17">
-        <f t="shared" si="2"/>
-        <v>1.0528369334638696</v>
-      </c>
-      <c r="AT17">
-        <v>1</v>
-      </c>
-      <c r="AV17">
-        <f t="shared" si="3"/>
-        <v>6.166666666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18">
-        <v>5.5</v>
-      </c>
-      <c r="G18">
+      <c r="X37" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK37">
+        <v>3.5</v>
+      </c>
+      <c r="AR37">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AS37" s="18">
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18">
-        <v>6</v>
-      </c>
-      <c r="R18" t="s">
-        <v>26</v>
-      </c>
-      <c r="S18">
-        <v>6</v>
-      </c>
-      <c r="T18">
-        <v>6</v>
-      </c>
-      <c r="U18" t="s">
-        <v>26</v>
-      </c>
-      <c r="V18" t="s">
-        <v>26</v>
-      </c>
-      <c r="W18" t="s">
-        <v>26</v>
-      </c>
-      <c r="X18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG18">
-        <v>6.5</v>
-      </c>
-      <c r="AI18">
-        <v>4</v>
-      </c>
-      <c r="AJ18">
-        <v>3.5</v>
-      </c>
-      <c r="AK18">
-        <v>3</v>
-      </c>
-      <c r="AL18">
-        <v>5</v>
-      </c>
-      <c r="AN18">
-        <v>5</v>
-      </c>
-      <c r="AQ18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AR18" s="18">
-        <f t="shared" si="1"/>
-        <v>5.083333333333333</v>
-      </c>
-      <c r="AS18">
-        <f t="shared" si="2"/>
-        <v>1.1247895426040895</v>
-      </c>
-      <c r="AT18">
-        <v>1</v>
-      </c>
-      <c r="AV18">
+      <c r="AT37">
+        <f t="shared" si="6"/>
+        <v>0.81649658092772603</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>7</v>
-      </c>
-      <c r="F19">
-        <v>6</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19">
-        <v>6</v>
-      </c>
-      <c r="N19">
-        <v>6</v>
-      </c>
-      <c r="O19">
-        <v>6</v>
-      </c>
-      <c r="P19">
-        <v>6</v>
-      </c>
-      <c r="Q19">
-        <v>7</v>
-      </c>
-      <c r="R19" t="s">
-        <v>26</v>
-      </c>
-      <c r="S19" t="s">
-        <v>26</v>
-      </c>
-      <c r="T19">
-        <v>6</v>
-      </c>
-      <c r="U19">
-        <v>6</v>
-      </c>
-      <c r="V19">
-        <v>7</v>
-      </c>
-      <c r="W19">
-        <v>6</v>
-      </c>
-      <c r="X19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y19">
-        <v>8.5</v>
-      </c>
-      <c r="Z19">
-        <v>6</v>
-      </c>
-      <c r="AA19">
-        <v>6</v>
-      </c>
-      <c r="AB19">
-        <v>5.5</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE19">
-        <v>6</v>
-      </c>
-      <c r="AF19">
-        <v>6.5</v>
-      </c>
-      <c r="AG19">
-        <v>6.5</v>
-      </c>
-      <c r="AL19">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38" t="s">
+        <v>26</v>
+      </c>
+      <c r="P38" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>26</v>
+      </c>
+      <c r="R38">
         <v>4.5</v>
       </c>
-      <c r="AM19">
-        <v>5.5</v>
-      </c>
-      <c r="AQ19">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="AR19" s="18">
-        <f t="shared" si="1"/>
-        <v>6.4090909090909092</v>
-      </c>
-      <c r="AS19">
-        <f t="shared" si="2"/>
-        <v>1.1087999050492527</v>
-      </c>
-      <c r="AT19">
-        <v>0.5</v>
-      </c>
-      <c r="AV19" t="e">
+      <c r="S38" t="s">
+        <v>26</v>
+      </c>
+      <c r="T38">
+        <v>4</v>
+      </c>
+      <c r="U38">
+        <v>4</v>
+      </c>
+      <c r="V38" t="s">
+        <v>26</v>
+      </c>
+      <c r="W38" t="s">
+        <v>26</v>
+      </c>
+      <c r="X38" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR38">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AS38" s="18">
+        <f t="shared" si="5"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="AT38">
+        <f t="shared" si="6"/>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AW38" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
-      <c r="I20">
-        <v>5.5</v>
-      </c>
-      <c r="J20">
-        <v>5.5</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-      <c r="L20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20">
-        <v>4</v>
-      </c>
-      <c r="N20">
-        <v>4.5</v>
-      </c>
-      <c r="O20">
-        <v>7.5</v>
-      </c>
-      <c r="P20">
-        <v>7</v>
-      </c>
-      <c r="Q20">
-        <v>4.5</v>
-      </c>
-      <c r="R20" t="s">
-        <v>26</v>
-      </c>
-      <c r="S20" t="s">
-        <v>26</v>
-      </c>
-      <c r="T20" t="s">
-        <v>26</v>
-      </c>
-      <c r="U20">
-        <v>5.5</v>
-      </c>
-      <c r="V20" t="s">
-        <v>26</v>
-      </c>
-      <c r="W20" t="s">
-        <v>26</v>
-      </c>
-      <c r="X20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH20">
-        <v>5</v>
-      </c>
-      <c r="AI20">
-        <v>5.5</v>
-      </c>
-      <c r="AJ20">
-        <v>3.5</v>
-      </c>
-      <c r="AQ20">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AR20" s="18">
-        <f t="shared" si="1"/>
-        <v>5.2307692307692308</v>
-      </c>
-      <c r="AS20">
-        <f t="shared" si="2"/>
-        <v>1.1657505560686472</v>
-      </c>
-      <c r="AT20">
-        <v>0.5</v>
-      </c>
-      <c r="AV20">
-        <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>5.5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="H21">
-        <v>4.5</v>
-      </c>
-      <c r="I21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21">
-        <v>6</v>
-      </c>
-      <c r="Q21">
-        <v>5.5</v>
-      </c>
-      <c r="R21">
-        <v>7</v>
-      </c>
-      <c r="S21">
-        <v>6</v>
-      </c>
-      <c r="T21">
-        <v>6</v>
-      </c>
-      <c r="U21">
-        <v>7</v>
-      </c>
-      <c r="V21">
-        <v>5.5</v>
-      </c>
-      <c r="W21">
-        <v>6</v>
-      </c>
-      <c r="X21">
-        <v>5.5</v>
-      </c>
-      <c r="Y21">
-        <v>7</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA21">
-        <v>7</v>
-      </c>
-      <c r="AB21">
-        <v>6</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD21">
-        <v>6</v>
-      </c>
-      <c r="AQ21">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AR21" s="18">
-        <f t="shared" si="1"/>
-        <v>6.0882352941176467</v>
-      </c>
-      <c r="AS21">
-        <f t="shared" si="2"/>
-        <v>0.71228711990072591</v>
-      </c>
-      <c r="AT21">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" t="s">
+        <v>26</v>
+      </c>
+      <c r="O39" t="s">
+        <v>26</v>
+      </c>
+      <c r="P39" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>26</v>
+      </c>
+      <c r="R39" t="s">
+        <v>26</v>
+      </c>
+      <c r="S39" t="s">
+        <v>26</v>
+      </c>
+      <c r="T39" t="s">
+        <v>26</v>
+      </c>
+      <c r="U39" t="s">
+        <v>26</v>
+      </c>
+      <c r="V39" t="s">
+        <v>26</v>
+      </c>
+      <c r="W39" t="s">
+        <v>26</v>
+      </c>
+      <c r="X39" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE39">
+        <v>1.5</v>
+      </c>
+      <c r="AR39">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AS39" s="18">
+        <f t="shared" si="5"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="AT39">
+        <f t="shared" si="6"/>
+        <v>1.0408329997330663</v>
+      </c>
+      <c r="AU39">
         <v>0</v>
       </c>
-      <c r="AV21" t="e">
+      <c r="AW39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22">
-        <v>6</v>
-      </c>
-      <c r="P22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q22">
-        <v>4.5</v>
-      </c>
-      <c r="R22" t="s">
-        <v>26</v>
-      </c>
-      <c r="S22" t="s">
-        <v>26</v>
-      </c>
-      <c r="T22">
-        <v>7</v>
-      </c>
-      <c r="U22">
-        <v>7</v>
-      </c>
-      <c r="V22">
-        <v>6</v>
-      </c>
-      <c r="W22">
-        <v>6</v>
-      </c>
-      <c r="X22">
-        <v>6</v>
-      </c>
-      <c r="Y22">
-        <v>7.5</v>
-      </c>
-      <c r="Z22">
-        <v>6</v>
-      </c>
-      <c r="AA22">
-        <v>6</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC22">
-        <v>6</v>
-      </c>
-      <c r="AD22">
-        <v>7</v>
-      </c>
-      <c r="AF22">
-        <v>7</v>
-      </c>
-      <c r="AG22">
-        <v>7</v>
-      </c>
-      <c r="AQ22">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AR22" s="18">
-        <f t="shared" si="1"/>
-        <v>6.3571428571428568</v>
-      </c>
-      <c r="AS22">
-        <f t="shared" si="2"/>
-        <v>0.77032888651964082</v>
-      </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23">
-        <v>7.5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
-      <c r="G23">
-        <v>7</v>
-      </c>
-      <c r="H23">
-        <v>4.5</v>
-      </c>
-      <c r="I23">
-        <v>5.5</v>
-      </c>
-      <c r="J23" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23">
-        <v>6</v>
-      </c>
-      <c r="L23">
-        <v>6</v>
-      </c>
-      <c r="M23">
-        <v>6</v>
-      </c>
-      <c r="N23" t="s">
-        <v>26</v>
-      </c>
-      <c r="O23">
-        <v>6</v>
-      </c>
-      <c r="P23">
-        <v>5.5</v>
-      </c>
-      <c r="Q23">
-        <v>5.5</v>
-      </c>
-      <c r="R23">
-        <v>6</v>
-      </c>
-      <c r="S23">
-        <v>4.5</v>
-      </c>
-      <c r="T23">
-        <v>7</v>
-      </c>
-      <c r="U23" t="s">
-        <v>26</v>
-      </c>
-      <c r="V23">
-        <v>6</v>
-      </c>
-      <c r="W23" t="s">
-        <v>26</v>
-      </c>
-      <c r="X23">
-        <v>7</v>
-      </c>
-      <c r="Y23">
-        <v>6</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA23">
-        <v>6</v>
-      </c>
-      <c r="AB23">
-        <v>5.5</v>
-      </c>
-      <c r="AC23">
-        <v>6</v>
-      </c>
-      <c r="AD23">
-        <v>5.5</v>
-      </c>
-      <c r="AI23">
-        <v>5</v>
-      </c>
-      <c r="AL23">
-        <v>5.5</v>
-      </c>
-      <c r="AM23">
-        <v>5</v>
-      </c>
-      <c r="AN23">
-        <v>5</v>
-      </c>
-      <c r="AQ23">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="AR23" s="18">
-        <f t="shared" si="1"/>
-        <v>5.865384615384615</v>
-      </c>
-      <c r="AS23">
-        <f t="shared" si="2"/>
-        <v>0.768865297795295</v>
-      </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>7.5</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>7.5</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
-      <c r="G24">
-        <v>5.5</v>
-      </c>
-      <c r="H24">
-        <v>4.5</v>
-      </c>
-      <c r="I24">
-        <v>5.5</v>
-      </c>
-      <c r="J24">
-        <v>5.5</v>
-      </c>
-      <c r="K24" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" t="s">
-        <v>26</v>
-      </c>
-      <c r="O24">
-        <v>7</v>
-      </c>
-      <c r="P24">
-        <v>6</v>
-      </c>
-      <c r="Q24">
-        <v>6</v>
-      </c>
-      <c r="R24">
-        <v>7</v>
-      </c>
-      <c r="S24" t="s">
-        <v>26</v>
-      </c>
-      <c r="T24" t="s">
-        <v>26</v>
-      </c>
-      <c r="U24" t="s">
-        <v>26</v>
-      </c>
-      <c r="V24" t="s">
-        <v>26</v>
-      </c>
-      <c r="W24" t="s">
-        <v>26</v>
-      </c>
-      <c r="X24" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y24">
-        <v>6</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE24">
-        <v>6.5</v>
-      </c>
-      <c r="AI24">
-        <v>5</v>
-      </c>
-      <c r="AL24">
-        <v>5.5</v>
-      </c>
-      <c r="AQ24">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AR24" s="18">
-        <f t="shared" si="1"/>
-        <v>5.9411764705882355</v>
-      </c>
-      <c r="AS24">
-        <f t="shared" si="2"/>
-        <v>0.96634545034980535</v>
-      </c>
-      <c r="AT24">
-        <v>0</v>
-      </c>
-      <c r="AV24">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>1.5</v>
-      </c>
-      <c r="D25">
-        <v>4.5</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>7.5</v>
-      </c>
-      <c r="G25">
-        <v>5.5</v>
-      </c>
-      <c r="H25">
-        <v>6</v>
-      </c>
-      <c r="I25">
-        <v>4.5</v>
-      </c>
-      <c r="J25">
-        <v>3</v>
-      </c>
-      <c r="K25">
-        <v>5.5</v>
-      </c>
-      <c r="L25">
-        <v>2.5</v>
-      </c>
-      <c r="M25">
-        <v>1.5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>26</v>
-      </c>
-      <c r="O25" t="s">
-        <v>26</v>
-      </c>
-      <c r="P25" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>26</v>
-      </c>
-      <c r="R25" t="s">
-        <v>26</v>
-      </c>
-      <c r="S25" t="s">
-        <v>26</v>
-      </c>
-      <c r="T25" t="s">
-        <v>26</v>
-      </c>
-      <c r="U25" t="s">
-        <v>26</v>
-      </c>
-      <c r="V25" t="s">
-        <v>26</v>
-      </c>
-      <c r="W25" t="s">
-        <v>26</v>
-      </c>
-      <c r="X25" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD25">
-        <v>6</v>
-      </c>
-      <c r="AQ25">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AR25" s="18">
-        <f t="shared" si="1"/>
-        <v>4.4615384615384617</v>
-      </c>
-      <c r="AS25">
-        <f t="shared" si="2"/>
-        <v>1.875961292039569</v>
-      </c>
-      <c r="AT25">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26">
-        <v>8.5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26">
-        <v>7.5</v>
-      </c>
-      <c r="E26">
-        <v>7.5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26">
-        <v>6</v>
-      </c>
-      <c r="I26">
-        <v>7.5</v>
-      </c>
-      <c r="J26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26">
-        <v>6</v>
-      </c>
-      <c r="L26">
-        <v>7.5</v>
-      </c>
-      <c r="M26">
-        <v>7</v>
-      </c>
-      <c r="N26">
-        <v>6</v>
-      </c>
-      <c r="O26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>26</v>
-      </c>
-      <c r="R26">
-        <v>9</v>
-      </c>
-      <c r="S26" t="s">
-        <v>26</v>
-      </c>
-      <c r="T26" t="s">
-        <v>26</v>
-      </c>
-      <c r="U26" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" t="s">
-        <v>26</v>
-      </c>
-      <c r="W26" t="s">
-        <v>26</v>
-      </c>
-      <c r="X26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG26">
-        <v>6.5</v>
-      </c>
-      <c r="AN26">
-        <v>6</v>
-      </c>
-      <c r="AQ26">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AR26" s="18">
-        <f t="shared" si="1"/>
-        <v>7.083333333333333</v>
-      </c>
-      <c r="AS26">
-        <f t="shared" si="2"/>
-        <v>1.0187633620614673</v>
-      </c>
-      <c r="AT26">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27">
-        <v>7.5</v>
-      </c>
-      <c r="H27">
-        <v>7.5</v>
-      </c>
-      <c r="I27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27">
-        <v>8.5</v>
-      </c>
-      <c r="K27">
-        <v>8.5</v>
-      </c>
-      <c r="L27">
-        <v>7.5</v>
-      </c>
-      <c r="M27">
-        <v>7.5</v>
-      </c>
-      <c r="N27">
-        <v>7.5</v>
-      </c>
-      <c r="O27">
-        <v>9</v>
-      </c>
-      <c r="P27">
-        <v>8.5</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>26</v>
-      </c>
-      <c r="R27" t="s">
-        <v>26</v>
-      </c>
-      <c r="S27" t="s">
-        <v>26</v>
-      </c>
-      <c r="T27" t="s">
-        <v>26</v>
-      </c>
-      <c r="U27" t="s">
-        <v>26</v>
-      </c>
-      <c r="V27" t="s">
-        <v>26</v>
-      </c>
-      <c r="W27" t="s">
-        <v>26</v>
-      </c>
-      <c r="X27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ27">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AR27" s="18">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AS27">
-        <f t="shared" si="2"/>
-        <v>0.61237243569579447</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AV27" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28">
-        <v>5.5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" t="s">
-        <v>26</v>
-      </c>
-      <c r="M28" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" t="s">
-        <v>26</v>
-      </c>
-      <c r="O28" t="s">
-        <v>26</v>
-      </c>
-      <c r="P28" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>26</v>
-      </c>
-      <c r="R28">
-        <v>4.5</v>
-      </c>
-      <c r="S28" t="s">
-        <v>26</v>
-      </c>
-      <c r="T28" t="s">
-        <v>26</v>
-      </c>
-      <c r="U28" t="s">
-        <v>26</v>
-      </c>
-      <c r="V28" t="s">
-        <v>26</v>
-      </c>
-      <c r="W28" t="s">
-        <v>26</v>
-      </c>
-      <c r="X28" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y28">
-        <v>5.5</v>
-      </c>
-      <c r="Z28">
-        <v>5.5</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB28">
-        <v>5.5</v>
-      </c>
-      <c r="AC28">
-        <v>5.5</v>
-      </c>
-      <c r="AD28">
-        <v>4</v>
-      </c>
-      <c r="AH28">
-        <v>4</v>
-      </c>
-      <c r="AQ28">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AR28" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AS28">
-        <f t="shared" si="2"/>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="AT28">
-        <v>0</v>
-      </c>
-      <c r="AV28" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
-      <c r="E29">
-        <v>7</v>
-      </c>
-      <c r="F29">
-        <v>5.5</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29">
-        <v>7</v>
-      </c>
-      <c r="L29">
-        <v>7</v>
-      </c>
-      <c r="M29" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29">
-        <v>7.5</v>
-      </c>
-      <c r="O29" t="s">
-        <v>26</v>
-      </c>
-      <c r="P29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>26</v>
-      </c>
-      <c r="R29" t="s">
-        <v>26</v>
-      </c>
-      <c r="S29">
-        <v>7</v>
-      </c>
-      <c r="T29" t="s">
-        <v>26</v>
-      </c>
-      <c r="U29" t="s">
-        <v>26</v>
-      </c>
-      <c r="V29" t="s">
-        <v>26</v>
-      </c>
-      <c r="W29" t="s">
-        <v>26</v>
-      </c>
-      <c r="X29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AR29" s="18">
-        <f t="shared" si="1"/>
-        <v>6.8571428571428568</v>
-      </c>
-      <c r="AS29">
-        <f t="shared" si="2"/>
-        <v>0.62678317052800869</v>
-      </c>
-      <c r="AT29">
-        <v>0</v>
-      </c>
-      <c r="AV29" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" t="s">
-        <v>26</v>
-      </c>
-      <c r="L30" t="s">
-        <v>26</v>
-      </c>
-      <c r="M30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" t="s">
-        <v>26</v>
-      </c>
-      <c r="O30" t="s">
-        <v>26</v>
-      </c>
-      <c r="P30" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>26</v>
-      </c>
-      <c r="R30" t="s">
-        <v>26</v>
-      </c>
-      <c r="S30" t="s">
-        <v>26</v>
-      </c>
-      <c r="T30" t="s">
-        <v>26</v>
-      </c>
-      <c r="U30" t="s">
-        <v>26</v>
-      </c>
-      <c r="V30">
-        <v>6</v>
-      </c>
-      <c r="W30">
-        <v>6</v>
-      </c>
-      <c r="X30" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y30">
-        <v>6</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB30">
-        <v>7</v>
-      </c>
-      <c r="AC30">
-        <v>6</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE30">
-        <v>6</v>
-      </c>
-      <c r="AF30">
-        <v>5</v>
-      </c>
-      <c r="AM30">
-        <v>4.5</v>
-      </c>
-      <c r="AQ30">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AR30" s="18">
-        <f t="shared" si="1"/>
-        <v>5.8125</v>
-      </c>
-      <c r="AS30">
-        <f t="shared" si="2"/>
-        <v>0.75297030865385772</v>
-      </c>
-      <c r="AT30">
-        <v>0</v>
-      </c>
-      <c r="AV30" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31">
-        <v>7</v>
-      </c>
-      <c r="J31" t="s">
-        <v>26</v>
-      </c>
-      <c r="K31">
-        <v>7</v>
-      </c>
-      <c r="L31">
-        <v>7.5</v>
-      </c>
-      <c r="M31" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31" t="s">
-        <v>26</v>
-      </c>
-      <c r="O31" t="s">
-        <v>26</v>
-      </c>
-      <c r="P31" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>26</v>
-      </c>
-      <c r="R31">
-        <v>7</v>
-      </c>
-      <c r="S31" t="s">
-        <v>26</v>
-      </c>
-      <c r="T31" t="s">
-        <v>26</v>
-      </c>
-      <c r="U31">
-        <v>7</v>
-      </c>
-      <c r="V31" t="s">
-        <v>26</v>
-      </c>
-      <c r="W31" t="s">
-        <v>26</v>
-      </c>
-      <c r="X31" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD31">
-        <v>6</v>
-      </c>
-      <c r="AQ31">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AR31" s="18">
-        <f t="shared" si="1"/>
-        <v>6.916666666666667</v>
-      </c>
-      <c r="AS31">
-        <f t="shared" si="2"/>
-        <v>0.49159604012508756</v>
-      </c>
-      <c r="AT31">
-        <v>0</v>
-      </c>
-      <c r="AV31" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K32" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32" t="s">
-        <v>26</v>
-      </c>
-      <c r="M32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N32" t="s">
-        <v>26</v>
-      </c>
-      <c r="O32" t="s">
-        <v>26</v>
-      </c>
-      <c r="P32" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>26</v>
-      </c>
-      <c r="R32" t="s">
-        <v>26</v>
-      </c>
-      <c r="S32" t="s">
-        <v>26</v>
-      </c>
-      <c r="T32" t="s">
-        <v>26</v>
-      </c>
-      <c r="U32" t="s">
-        <v>26</v>
-      </c>
-      <c r="V32" t="s">
-        <v>26</v>
-      </c>
-      <c r="W32" t="s">
-        <v>26</v>
-      </c>
-      <c r="X32">
-        <v>6</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z32">
-        <v>5.5</v>
-      </c>
-      <c r="AA32">
-        <v>4</v>
-      </c>
-      <c r="AB32">
-        <v>3</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG32">
-        <v>6</v>
-      </c>
-      <c r="AH32">
-        <v>5</v>
-      </c>
-      <c r="AJ32">
-        <v>4.5</v>
-      </c>
-      <c r="AK32">
-        <v>5</v>
-      </c>
-      <c r="AQ32">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AR32" s="18">
-        <f t="shared" si="1"/>
-        <v>4.875</v>
-      </c>
-      <c r="AS32">
-        <f t="shared" si="2"/>
-        <v>1.0264362759428509</v>
-      </c>
-      <c r="AT32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <f t="shared" si="3"/>
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33">
-        <v>7.5</v>
-      </c>
-      <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33">
-        <v>8.5</v>
-      </c>
-      <c r="K33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L33">
-        <v>7.5</v>
-      </c>
-      <c r="M33" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33">
-        <v>7</v>
-      </c>
-      <c r="O33" t="s">
-        <v>26</v>
-      </c>
-      <c r="P33" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>26</v>
-      </c>
-      <c r="R33" t="s">
-        <v>26</v>
-      </c>
-      <c r="S33" t="s">
-        <v>26</v>
-      </c>
-      <c r="T33" t="s">
-        <v>26</v>
-      </c>
-      <c r="U33" t="s">
-        <v>26</v>
-      </c>
-      <c r="V33" t="s">
-        <v>26</v>
-      </c>
-      <c r="W33" t="s">
-        <v>26</v>
-      </c>
-      <c r="X33" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ33">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AR33" s="18">
-        <f t="shared" si="1"/>
-        <v>7.625</v>
-      </c>
-      <c r="AS33">
-        <f t="shared" si="2"/>
-        <v>0.62915286960589578</v>
-      </c>
-      <c r="AT33">
-        <v>0</v>
-      </c>
-      <c r="AV33" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" t="s">
-        <v>26</v>
-      </c>
-      <c r="J34" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" t="s">
-        <v>26</v>
-      </c>
-      <c r="M34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" t="s">
-        <v>26</v>
-      </c>
-      <c r="O34" t="s">
-        <v>26</v>
-      </c>
-      <c r="P34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>26</v>
-      </c>
-      <c r="R34">
-        <v>7</v>
-      </c>
-      <c r="S34">
-        <v>5.5</v>
-      </c>
-      <c r="T34">
-        <v>5.5</v>
-      </c>
-      <c r="U34" t="s">
-        <v>26</v>
-      </c>
-      <c r="V34" t="s">
-        <v>26</v>
-      </c>
-      <c r="W34">
-        <v>6</v>
-      </c>
-      <c r="X34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ34">
-        <f t="shared" ref="AQ34:AQ39" si="4">COUNT(B34:AP34)</f>
-        <v>4</v>
-      </c>
-      <c r="AR34" s="18">
-        <f t="shared" ref="AR34:AR39" si="5">AVERAGE(B34:AP34)</f>
-        <v>6</v>
-      </c>
-      <c r="AS34">
-        <f t="shared" ref="AS34:AS39" si="6">IF(AQ34&gt;1,_xlfn.STDEV.S(B34:AP34),"")</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="AT34">
-        <v>0</v>
-      </c>
-      <c r="AV34" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" t="s">
-        <v>26</v>
-      </c>
-      <c r="K35" t="s">
-        <v>26</v>
-      </c>
-      <c r="L35" t="s">
-        <v>26</v>
-      </c>
-      <c r="M35">
-        <v>6</v>
-      </c>
-      <c r="N35" t="s">
-        <v>26</v>
-      </c>
-      <c r="O35" t="s">
-        <v>26</v>
-      </c>
-      <c r="P35" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>26</v>
-      </c>
-      <c r="R35" t="s">
-        <v>26</v>
-      </c>
-      <c r="S35" t="s">
-        <v>26</v>
-      </c>
-      <c r="T35" t="s">
-        <v>26</v>
-      </c>
-      <c r="U35" t="s">
-        <v>26</v>
-      </c>
-      <c r="V35">
-        <v>7</v>
-      </c>
-      <c r="W35">
-        <v>7.5</v>
-      </c>
-      <c r="X35" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ35">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AR35" s="18">
-        <f t="shared" si="5"/>
-        <v>6.833333333333333</v>
-      </c>
-      <c r="AS35">
-        <f t="shared" si="6"/>
-        <v>0.76376261582597338</v>
-      </c>
-      <c r="AT35">
-        <v>0</v>
-      </c>
-      <c r="AV35" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" t="s">
-        <v>26</v>
-      </c>
-      <c r="K36" t="s">
-        <v>26</v>
-      </c>
-      <c r="L36" t="s">
-        <v>26</v>
-      </c>
-      <c r="M36" t="s">
-        <v>26</v>
-      </c>
-      <c r="N36" t="s">
-        <v>26</v>
-      </c>
-      <c r="O36" t="s">
-        <v>26</v>
-      </c>
-      <c r="P36" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q36">
-        <v>6</v>
-      </c>
-      <c r="R36">
-        <v>6</v>
-      </c>
-      <c r="S36" t="s">
-        <v>26</v>
-      </c>
-      <c r="T36" t="s">
-        <v>26</v>
-      </c>
-      <c r="U36" t="s">
-        <v>26</v>
-      </c>
-      <c r="V36" t="s">
-        <v>26</v>
-      </c>
-      <c r="W36" t="s">
-        <v>26</v>
-      </c>
-      <c r="X36" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ36">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AR36" s="18">
-        <f t="shared" si="5"/>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="AS36">
-        <f t="shared" si="6"/>
-        <v>1.1547005383792526</v>
-      </c>
-      <c r="AT36">
-        <v>0</v>
-      </c>
-      <c r="AV36" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M37" t="s">
-        <v>26</v>
-      </c>
-      <c r="N37" t="s">
-        <v>26</v>
-      </c>
-      <c r="O37" t="s">
-        <v>26</v>
-      </c>
-      <c r="P37" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>26</v>
-      </c>
-      <c r="R37" t="s">
-        <v>26</v>
-      </c>
-      <c r="S37">
-        <v>4.5</v>
-      </c>
-      <c r="T37" t="s">
-        <v>26</v>
-      </c>
-      <c r="U37">
-        <v>4.5</v>
-      </c>
-      <c r="V37" t="s">
-        <v>26</v>
-      </c>
-      <c r="W37">
-        <v>5.5</v>
-      </c>
-      <c r="X37" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK37">
-        <v>3.5</v>
-      </c>
-      <c r="AQ37">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AR37" s="18">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
-      <c r="AS37">
-        <f t="shared" si="6"/>
-        <v>0.81649658092772603</v>
-      </c>
-      <c r="AT37">
-        <v>0</v>
-      </c>
-      <c r="AV37">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" t="s">
-        <v>26</v>
-      </c>
-      <c r="K38" t="s">
-        <v>26</v>
-      </c>
-      <c r="L38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M38" t="s">
-        <v>26</v>
-      </c>
-      <c r="N38" t="s">
-        <v>26</v>
-      </c>
-      <c r="O38" t="s">
-        <v>26</v>
-      </c>
-      <c r="P38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>26</v>
-      </c>
-      <c r="R38">
-        <v>4.5</v>
-      </c>
-      <c r="S38" t="s">
-        <v>26</v>
-      </c>
-      <c r="T38">
-        <v>4</v>
-      </c>
-      <c r="U38">
-        <v>4</v>
-      </c>
-      <c r="V38" t="s">
-        <v>26</v>
-      </c>
-      <c r="W38" t="s">
-        <v>26</v>
-      </c>
-      <c r="X38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ38">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AR38" s="18">
-        <f t="shared" si="5"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="AS38">
-        <f t="shared" si="6"/>
-        <v>0.28867513459481287</v>
-      </c>
-      <c r="AT38">
-        <v>0</v>
-      </c>
-      <c r="AV38" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" t="s">
-        <v>26</v>
-      </c>
-      <c r="K39" t="s">
-        <v>26</v>
-      </c>
-      <c r="L39" t="s">
-        <v>26</v>
-      </c>
-      <c r="M39" t="s">
-        <v>26</v>
-      </c>
-      <c r="N39" t="s">
-        <v>26</v>
-      </c>
-      <c r="O39" t="s">
-        <v>26</v>
-      </c>
-      <c r="P39" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>26</v>
-      </c>
-      <c r="R39" t="s">
-        <v>26</v>
-      </c>
-      <c r="S39" t="s">
-        <v>26</v>
-      </c>
-      <c r="T39" t="s">
-        <v>26</v>
-      </c>
-      <c r="U39" t="s">
-        <v>26</v>
-      </c>
-      <c r="V39" t="s">
-        <v>26</v>
-      </c>
-      <c r="W39" t="s">
-        <v>26</v>
-      </c>
-      <c r="X39" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE39">
-        <v>1.5</v>
-      </c>
-      <c r="AQ39">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AR39" s="18">
-        <f t="shared" si="5"/>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="AS39">
-        <f t="shared" si="6"/>
-        <v>1.0408329997330663</v>
-      </c>
-      <c r="AT39">
-        <v>0</v>
-      </c>
-      <c r="AV39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -7090,27 +7138,27 @@
       <c r="AF40">
         <v>9</v>
       </c>
-      <c r="AQ40">
-        <f t="shared" ref="AQ40:AQ57" si="7">COUNT(B40:AP40)</f>
+      <c r="AR40">
+        <f t="shared" ref="AR40:AR57" si="7">COUNT(B40:AQ40)</f>
         <v>3</v>
       </c>
-      <c r="AR40" s="18">
-        <f t="shared" ref="AR40:AR57" si="8">AVERAGE(B40:AP40)</f>
+      <c r="AS40" s="18">
+        <f t="shared" ref="AS40:AS57" si="8">AVERAGE(B40:AQ40)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="AS40">
-        <f t="shared" ref="AS40:AS57" si="9">IF(AQ40&gt;1,_xlfn.STDEV.S(B40:AP40),"")</f>
+      <c r="AT40">
+        <f t="shared" ref="AT40:AT57" si="9">IF(AR40&gt;1,_xlfn.STDEV.S(B40:AQ40),"")</f>
         <v>1.1547005383792495</v>
       </c>
-      <c r="AT40">
+      <c r="AU40">
         <v>0</v>
       </c>
-      <c r="AV40" t="e">
-        <f t="shared" ref="AV40:AV57" si="10">AVERAGE(AI40:AK40)</f>
+      <c r="AW40" t="e">
+        <f t="shared" ref="AW40:AW57" si="10">AVERAGE(AI40:AK40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -7204,27 +7252,27 @@
       <c r="AG41">
         <v>2.5</v>
       </c>
-      <c r="AQ41">
+      <c r="AR41">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="AR41" s="18">
+      <c r="AS41" s="18">
         <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
-      <c r="AS41">
+      <c r="AT41">
         <f t="shared" si="9"/>
         <v>1.7320508075688772</v>
       </c>
-      <c r="AT41">
+      <c r="AU41">
         <v>0</v>
       </c>
-      <c r="AV41" t="e">
+      <c r="AW41" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -7315,27 +7363,27 @@
       <c r="AD42">
         <v>7.5</v>
       </c>
-      <c r="AQ42">
+      <c r="AR42">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AR42" s="18">
+      <c r="AS42" s="18">
         <f t="shared" si="8"/>
         <v>7.25</v>
       </c>
-      <c r="AS42">
+      <c r="AT42">
         <f t="shared" si="9"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AT42">
+      <c r="AU42">
         <v>0</v>
       </c>
-      <c r="AV42" t="e">
+      <c r="AW42" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>344</v>
       </c>
@@ -7429,27 +7477,27 @@
       <c r="AN43">
         <v>2.5</v>
       </c>
-      <c r="AQ43">
+      <c r="AR43">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="AR43" s="18">
+      <c r="AS43" s="18">
         <f t="shared" si="8"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="AS43">
+      <c r="AT43">
         <f t="shared" si="9"/>
         <v>1.1547005383792517</v>
       </c>
-      <c r="AT43">
+      <c r="AU43">
         <v>0</v>
       </c>
-      <c r="AV43" t="e">
+      <c r="AW43" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -7540,27 +7588,27 @@
       <c r="AD44" t="s">
         <v>26</v>
       </c>
-      <c r="AQ44">
+      <c r="AR44">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AR44" s="18">
+      <c r="AS44" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AS44">
+      <c r="AT44">
         <f t="shared" si="9"/>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AT44">
+      <c r="AU44">
         <v>0</v>
       </c>
-      <c r="AV44" t="e">
+      <c r="AW44" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -7654,27 +7702,27 @@
       <c r="AG45">
         <v>5</v>
       </c>
-      <c r="AQ45">
+      <c r="AR45">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AR45" s="18">
+      <c r="AS45" s="18">
         <f t="shared" si="8"/>
         <v>5.25</v>
       </c>
-      <c r="AS45">
+      <c r="AT45">
         <f t="shared" si="9"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AT45">
+      <c r="AU45">
         <v>0</v>
       </c>
-      <c r="AV45" t="e">
+      <c r="AW45" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -7765,27 +7813,27 @@
       <c r="AD46">
         <v>9</v>
       </c>
-      <c r="AQ46">
+      <c r="AR46">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AR46" s="18">
+      <c r="AS46" s="18">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="AS46" t="str">
+      <c r="AT46" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AT46">
+      <c r="AU46">
         <v>0</v>
       </c>
-      <c r="AV46" t="e">
+      <c r="AW46" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -7876,27 +7924,27 @@
       <c r="AD47" t="s">
         <v>26</v>
       </c>
-      <c r="AQ47">
+      <c r="AR47">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AR47" s="18">
+      <c r="AS47" s="18">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="AS47" t="str">
+      <c r="AT47" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AT47">
+      <c r="AU47">
         <v>0</v>
       </c>
-      <c r="AV47" t="e">
+      <c r="AW47" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -7984,27 +8032,27 @@
       <c r="AD48" t="s">
         <v>26</v>
       </c>
-      <c r="AQ48">
+      <c r="AR48">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AR48" s="18">
+      <c r="AS48" s="18">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="AS48" t="str">
+      <c r="AT48" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AT48">
+      <c r="AU48">
         <v>0</v>
       </c>
-      <c r="AV48" t="e">
+      <c r="AW48" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -8095,27 +8143,27 @@
       <c r="AD49" t="s">
         <v>26</v>
       </c>
-      <c r="AQ49">
+      <c r="AR49">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AR49" s="18">
+      <c r="AS49" s="18">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="AS49" t="str">
+      <c r="AT49" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AT49">
+      <c r="AU49">
         <v>0</v>
       </c>
-      <c r="AV49" t="e">
+      <c r="AW49" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -8206,27 +8254,27 @@
       <c r="AD50" t="s">
         <v>26</v>
       </c>
-      <c r="AQ50">
+      <c r="AR50">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AR50" s="18">
+      <c r="AS50" s="18">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="AS50" t="str">
+      <c r="AT50" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AT50">
+      <c r="AU50">
         <v>0</v>
       </c>
-      <c r="AV50" t="e">
+      <c r="AW50" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -8317,27 +8365,27 @@
       <c r="AD51" t="s">
         <v>26</v>
       </c>
-      <c r="AQ51">
+      <c r="AR51">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AR51" s="18">
+      <c r="AS51" s="18">
         <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
-      <c r="AS51" t="str">
+      <c r="AT51" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AT51">
+      <c r="AU51">
         <v>0</v>
       </c>
-      <c r="AV51" t="e">
+      <c r="AW51" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -8428,27 +8476,27 @@
       <c r="AD52" t="s">
         <v>26</v>
       </c>
-      <c r="AQ52">
+      <c r="AR52">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AR52" s="18">
+      <c r="AS52" s="18">
         <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
-      <c r="AS52" t="str">
+      <c r="AT52" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AT52">
+      <c r="AU52">
         <v>0</v>
       </c>
-      <c r="AV52" t="e">
+      <c r="AW52" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -8539,27 +8587,27 @@
       <c r="AD53" t="s">
         <v>26</v>
       </c>
-      <c r="AQ53">
+      <c r="AR53">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AR53" s="18">
+      <c r="AS53" s="18">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="AS53" t="str">
+      <c r="AT53" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AT53">
+      <c r="AU53">
         <v>0</v>
       </c>
-      <c r="AV53" t="e">
+      <c r="AW53" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>341</v>
       </c>
@@ -8569,161 +8617,167 @@
       <c r="AN54">
         <v>5.5</v>
       </c>
-      <c r="AQ54">
+      <c r="AO54">
+        <v>4.5</v>
+      </c>
+      <c r="AR54">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AR54" s="18">
+        <v>3</v>
+      </c>
+      <c r="AS54" s="18">
         <f t="shared" si="8"/>
-        <v>5.25</v>
-      </c>
-      <c r="AS54">
+        <v>5</v>
+      </c>
+      <c r="AT54">
         <f t="shared" si="9"/>
-        <v>0.35355339059327379</v>
-      </c>
-      <c r="AT54">
+        <v>0.5</v>
+      </c>
+      <c r="AU54">
         <v>0</v>
       </c>
-      <c r="AV54">
+      <c r="AW54">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>340</v>
       </c>
       <c r="AJ55">
         <v>7</v>
       </c>
-      <c r="AQ55">
+      <c r="AR55">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AR55" s="18">
+      <c r="AS55" s="18">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="AS55" t="str">
+      <c r="AT55" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AT55">
+      <c r="AU55">
         <v>0</v>
       </c>
-      <c r="AV55">
+      <c r="AW55">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>345</v>
       </c>
       <c r="AJ56">
         <v>4.5</v>
       </c>
-      <c r="AQ56">
+      <c r="AR56">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AR56" s="18">
+      <c r="AS56" s="18">
         <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
-      <c r="AS56" t="str">
+      <c r="AT56" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AT56">
+      <c r="AU56">
         <v>0</v>
       </c>
-      <c r="AV56">
+      <c r="AW56">
         <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>343</v>
       </c>
       <c r="AM57">
         <v>6</v>
       </c>
-      <c r="AQ57">
+      <c r="AR57">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AR57" s="18">
+      <c r="AS57" s="18">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="AS57" t="str">
+      <c r="AT57" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AT57">
+      <c r="AU57">
         <v>0</v>
       </c>
-      <c r="AV57" t="e">
+      <c r="AW57" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>346</v>
       </c>
       <c r="AN58">
         <v>3</v>
       </c>
-      <c r="AQ58">
-        <f t="shared" ref="AQ58:AQ59" si="11">COUNT(B58:AP58)</f>
-        <v>1</v>
-      </c>
-      <c r="AR58" s="18">
-        <f t="shared" ref="AR58:AR59" si="12">AVERAGE(B58:AP58)</f>
+      <c r="AR58">
+        <f t="shared" ref="AR58:AR59" si="11">COUNT(B58:AQ58)</f>
+        <v>1</v>
+      </c>
+      <c r="AS58" s="18">
+        <f t="shared" ref="AS58:AS59" si="12">AVERAGE(B58:AQ58)</f>
         <v>3</v>
       </c>
-      <c r="AS58" t="str">
-        <f t="shared" ref="AS58:AS59" si="13">IF(AQ58&gt;1,_xlfn.STDEV.S(B58:AP58),"")</f>
+      <c r="AT58" t="str">
+        <f t="shared" ref="AT58:AT59" si="13">IF(AR58&gt;1,_xlfn.STDEV.S(B58:AQ58),"")</f>
         <v/>
       </c>
-      <c r="AT58">
+      <c r="AU58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>347</v>
       </c>
       <c r="AN59">
         <v>5.5</v>
       </c>
-      <c r="AQ59">
+      <c r="AO59">
+        <v>5</v>
+      </c>
+      <c r="AR59">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AR59" s="18">
+        <v>2</v>
+      </c>
+      <c r="AS59" s="18">
         <f t="shared" si="12"/>
-        <v>5.5</v>
-      </c>
-      <c r="AS59" t="str">
+        <v>5.25</v>
+      </c>
+      <c r="AT59">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AT59">
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="AU59">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AT54" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
-    <sortState ref="A2:AT56">
-      <sortCondition descending="1" ref="AT1:AT54"/>
+  <autoFilter ref="A1:AU54" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
+    <sortState ref="A2:AU56">
+      <sortCondition descending="1" ref="AU1:AU54"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="AA2:AO38">
-    <cfRule type="colorScale" priority="51">
+  <conditionalFormatting sqref="AA2:AP38">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8734,8 +8788,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AQ59">
-    <cfRule type="colorScale" priority="47">
+  <conditionalFormatting sqref="AR2:AR59">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT2:AT59">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AP47">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR2:AR59">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8747,30 +8837,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS2:AS59">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AO47">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AQ59">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -8782,8 +8848,80 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR2:AR59">
-    <cfRule type="colorScale" priority="39">
+  <conditionalFormatting sqref="AS2:AS59">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AP42">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AO44">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:Q39">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:Z38 W2 W7 W11:W12 W15:W21 W31 B2:V38">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:Z47 X2:Z43 W2 W7 W11:W12 W15:W21 W31 W40 B2:V43 Z49">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:AO49 AB51:AO51 AD53:AO53">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8795,78 +8933,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR2:AR59">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AO42">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AN44">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Q39">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Z38 W2 W7 W11:W12 W15:W21 W31 B2:V38">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:Z47 X2:Z43 W2 W7 W11:W12 W15:W21 W31 W40 B2:V43 Z49">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AN49 AB51:AN51 AD53:AN53">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -8878,7 +8944,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AQ59">
+  <conditionalFormatting sqref="AS2:AS59">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8890,7 +8956,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR2:AR59">
+  <conditionalFormatting sqref="B2:AO53">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -8902,7 +8968,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AN53">
+  <conditionalFormatting sqref="AW2:AW57">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8914,7 +8980,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV2:AV57">
+  <conditionalFormatting sqref="B2:AO59">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -11385,10 +11451,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P116"/>
+  <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J115" sqref="J115"/>
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17182,6 +17248,156 @@
       </c>
       <c r="P116" s="8" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A117" s="14">
+        <v>45735</v>
+      </c>
+      <c r="B117" s="3">
+        <v>4</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="I117" s="9">
+        <v>5</v>
+      </c>
+      <c r="J117" s="10">
+        <v>1</v>
+      </c>
+      <c r="K117" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L117" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="M117" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N117" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O117" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P117" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A118" s="14">
+        <v>45735</v>
+      </c>
+      <c r="B118" s="3">
+        <v>2</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I118" s="11">
+        <v>2</v>
+      </c>
+      <c r="J118" s="2">
+        <v>2</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P118" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A119" s="14">
+        <v>45735</v>
+      </c>
+      <c r="B119" s="5">
+        <v>5</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I119" s="5">
+        <v>7</v>
+      </c>
+      <c r="J119" s="8">
+        <v>6</v>
+      </c>
+      <c r="K119" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M119" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N119" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O119" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P119" s="8" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -18593,11 +18809,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DDCCA6-42DC-4211-A42F-70F3625FA6AA}">
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K30" sqref="K30"/>
+      <selection pane="topRight" activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18609,10 +18825,10 @@
     <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18676,8 +18892,11 @@
       <c r="U1" s="1">
         <v>45728</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V1" s="1">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18703,20 +18922,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>347</v>
       </c>
       <c r="U4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -18724,7 +18946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -18732,17 +18954,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -18767,8 +18989,11 @@
       <c r="R9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -18788,7 +19013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -18798,8 +19023,11 @@
       <c r="D11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -18816,7 +19044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -18841,8 +19069,11 @@
       <c r="S13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -18856,7 +19087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -18896,8 +19127,11 @@
       <c r="U15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>343</v>
       </c>
@@ -19198,12 +19432,12 @@
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -19243,8 +19477,11 @@
       <c r="T34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -19261,7 +19498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -19275,7 +19512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -19318,8 +19555,11 @@
       <c r="T37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -19327,7 +19567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>341</v>
       </c>
@@ -19338,17 +19578,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -19386,12 +19626,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -19402,7 +19642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -19413,17 +19653,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -19434,7 +19674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -19451,7 +19691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -19509,8 +19749,11 @@
       <c r="U50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -19518,7 +19761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>85</v>
       </c>
@@ -19532,7 +19775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -19575,8 +19818,11 @@
       <c r="S53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -19584,7 +19830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -19610,7 +19856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -19624,7 +19870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -19632,7 +19878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -19687,8 +19933,11 @@
       <c r="U58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>47</v>
       </c>

--- a/data/condominio.xlsx
+++ b/data/condominio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="14_{98364A46-010F-4A4A-AA37-5A188387D7F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8893B1A5-81D5-4DDA-B630-431B567BF47D}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="14_{98364A46-010F-4A4A-AA37-5A188387D7F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3482E4F0-DDBA-4A23-9A05-B11606134AD7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notas" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3779" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3815" uniqueCount="369">
   <si>
     <t>Jogador</t>
   </si>
@@ -2397,9 +2397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK69"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB33" sqref="BB33"/>
+      <selection pane="topRight" activeCell="BC16" sqref="BC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2587,7 +2587,9 @@
       <c r="BB1" s="1">
         <v>45826</v>
       </c>
-      <c r="BC1" s="1"/>
+      <c r="BC1" s="1">
+        <v>45833</v>
+      </c>
       <c r="BD1" s="1"/>
       <c r="BF1" t="s">
         <v>57</v>
@@ -2759,17 +2761,20 @@
       <c r="BB2">
         <v>5.5</v>
       </c>
+      <c r="BC2">
+        <v>4</v>
+      </c>
       <c r="BF2">
-        <f t="shared" ref="BF2:BF33" si="0">COUNT(B2:BE2)</f>
-        <v>50</v>
+        <f>COUNT(B2:BE2)</f>
+        <v>51</v>
       </c>
       <c r="BG2" s="18">
-        <f t="shared" ref="BG2:BG33" si="1">AVERAGE(B2:BE2)</f>
-        <v>5.92</v>
+        <f>AVERAGE(B2:BE2)</f>
+        <v>5.882352941176471</v>
       </c>
       <c r="BH2">
-        <f t="shared" ref="BH2:BH33" si="2">IF(BF2&gt;1,_xlfn.STDEV.S(B2:BE2),"")</f>
-        <v>1.0989791181095379</v>
+        <f>IF(BF2&gt;1,_xlfn.STDEV.S(B2:BE2),"")</f>
+        <v>1.1206615693157214</v>
       </c>
       <c r="BI2">
         <v>1</v>
@@ -2939,23 +2944,26 @@
       <c r="BB3">
         <v>4.5</v>
       </c>
+      <c r="BC3">
+        <v>4</v>
+      </c>
       <c r="BF3">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>COUNT(B3:BE3)</f>
+        <v>51</v>
       </c>
       <c r="BG3" s="18">
-        <f t="shared" si="1"/>
-        <v>5.53</v>
+        <f>AVERAGE(B3:BE3)</f>
+        <v>5.5</v>
       </c>
       <c r="BH3">
-        <f t="shared" si="2"/>
-        <v>0.90582018308361356</v>
+        <f>IF(BF3&gt;1,_xlfn.STDEV.S(B3:BE3),"")</f>
+        <v>0.92195444572928875</v>
       </c>
       <c r="BI3">
         <v>1</v>
       </c>
       <c r="BK3">
-        <f t="shared" ref="BK3:BK39" si="3">AVERAGE(AI3:AK3)</f>
+        <f t="shared" ref="BK3:BK39" si="0">AVERAGE(AI3:AK3)</f>
         <v>5</v>
       </c>
     </row>
@@ -3110,608 +3118,602 @@
       <c r="BB4">
         <v>4.5</v>
       </c>
+      <c r="BC4">
+        <v>6</v>
+      </c>
       <c r="BF4">
+        <f>COUNT(B4:BE4)</f>
+        <v>47</v>
+      </c>
+      <c r="BG4" s="18">
+        <f>AVERAGE(B4:BE4)</f>
+        <v>5.8829787234042552</v>
+      </c>
+      <c r="BH4">
+        <f>IF(BF4&gt;1,_xlfn.STDEV.S(B4:BE4),"")</f>
+        <v>0.89814280575945371</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BK4">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="BG4" s="18">
-        <f t="shared" si="1"/>
-        <v>5.8804347826086953</v>
-      </c>
-      <c r="BH4">
-        <f t="shared" si="2"/>
-        <v>0.90789611868255005</v>
-      </c>
-      <c r="BI4">
-        <v>1</v>
-      </c>
-      <c r="BK4">
-        <f t="shared" si="3"/>
         <v>5.333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4.5</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
+      <c r="D5">
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>5.5</v>
       </c>
       <c r="J5">
-        <v>4.5</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>5.5</v>
       </c>
       <c r="L5">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="M5">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5">
         <v>5.5</v>
       </c>
-      <c r="O5">
-        <v>6</v>
-      </c>
       <c r="P5">
-        <v>4.5</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" t="s">
-        <v>26</v>
+        <v>5.5</v>
+      </c>
+      <c r="Q5">
+        <v>7</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U5">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="V5">
         <v>5.5</v>
       </c>
       <c r="W5">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X5">
         <v>6</v>
       </c>
-      <c r="Y5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z5">
+      <c r="Y5">
         <v>5.5</v>
       </c>
-      <c r="AA5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>26</v>
+      <c r="Z5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA5">
+        <v>7</v>
+      </c>
+      <c r="AB5">
+        <v>6</v>
       </c>
       <c r="AC5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD5">
+        <v>6</v>
+      </c>
+      <c r="AE5">
+        <v>6.5</v>
+      </c>
+      <c r="AF5">
+        <v>6</v>
+      </c>
+      <c r="AG5">
+        <v>6</v>
+      </c>
+      <c r="AH5">
+        <v>5</v>
+      </c>
+      <c r="AI5">
+        <v>6</v>
+      </c>
+      <c r="AL5">
+        <v>3</v>
+      </c>
+      <c r="AM5">
+        <v>4</v>
+      </c>
+      <c r="AN5">
+        <v>5.5</v>
+      </c>
+      <c r="AO5">
+        <v>5</v>
+      </c>
+      <c r="AP5">
         <v>4.5</v>
       </c>
-      <c r="AE5">
-        <v>4</v>
-      </c>
-      <c r="AF5">
-        <v>2.5</v>
-      </c>
-      <c r="AG5">
-        <v>3</v>
-      </c>
-      <c r="AH5">
-        <v>5</v>
-      </c>
-      <c r="AK5">
-        <v>5</v>
-      </c>
-      <c r="AL5">
-        <v>2.5</v>
-      </c>
-      <c r="AM5">
-        <v>4</v>
-      </c>
-      <c r="AO5">
-        <v>5.5</v>
-      </c>
-      <c r="AP5">
-        <v>5.5</v>
-      </c>
-      <c r="AQ5">
-        <v>4</v>
-      </c>
-      <c r="AR5">
-        <v>3.5</v>
-      </c>
-      <c r="AT5">
-        <v>5</v>
-      </c>
-      <c r="AU5">
-        <v>4</v>
+      <c r="AV5">
+        <v>4</v>
+      </c>
+      <c r="AW5">
+        <v>4.5</v>
       </c>
       <c r="AX5">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY5">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AZ5">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BA5">
         <v>5</v>
       </c>
+      <c r="BB5">
+        <v>5</v>
+      </c>
+      <c r="BC5">
+        <v>6</v>
+      </c>
       <c r="BF5">
+        <f>COUNT(B5:BE5)</f>
+        <v>44</v>
+      </c>
+      <c r="BG5" s="18">
+        <f>AVERAGE(B5:BE5)</f>
+        <v>5.5909090909090908</v>
+      </c>
+      <c r="BH5">
+        <f>IF(BF5&gt;1,_xlfn.STDEV.S(B5:BE5),"")</f>
+        <v>0.91672272235549923</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="BG5" s="18">
-        <f t="shared" si="1"/>
-        <v>4.5428571428571427</v>
-      </c>
-      <c r="BH5">
-        <f t="shared" si="2"/>
-        <v>1.0735553122235306</v>
-      </c>
-      <c r="BI5">
-        <v>1</v>
-      </c>
-      <c r="BK5">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>5.5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>8.5</v>
       </c>
       <c r="D6">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="E6">
         <v>7.5</v>
       </c>
       <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
         <v>7.5</v>
       </c>
-      <c r="G6">
-        <v>5.5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6">
-        <v>4.5</v>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
       </c>
       <c r="J6">
+        <v>8.5</v>
+      </c>
+      <c r="K6">
+        <v>7.5</v>
+      </c>
+      <c r="L6">
+        <v>8.5</v>
+      </c>
+      <c r="M6">
         <v>7</v>
       </c>
-      <c r="K6">
-        <v>6</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" t="s">
-        <v>26</v>
-      </c>
       <c r="N6">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="O6">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="P6">
-        <v>6</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>7</v>
       </c>
       <c r="R6" t="s">
         <v>26</v>
       </c>
-      <c r="S6">
-        <v>4.5</v>
-      </c>
-      <c r="T6">
+      <c r="S6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6">
         <v>7</v>
       </c>
-      <c r="U6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V6" t="s">
-        <v>26</v>
-      </c>
-      <c r="W6" t="s">
-        <v>26</v>
+      <c r="V6">
+        <v>6</v>
+      </c>
+      <c r="W6">
+        <v>7.5</v>
       </c>
       <c r="X6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y6">
-        <v>6</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="Z6">
+        <v>7</v>
       </c>
       <c r="AA6">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="AB6" t="s">
         <v>26</v>
       </c>
-      <c r="AC6">
-        <v>7</v>
+      <c r="AC6" t="s">
+        <v>26</v>
       </c>
       <c r="AD6" t="s">
         <v>26</v>
       </c>
-      <c r="AE6">
-        <v>3</v>
-      </c>
       <c r="AF6">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG6">
-        <v>4.5</v>
-      </c>
-      <c r="AH6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI6">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AJ6">
         <v>5.5</v>
       </c>
       <c r="AK6">
+        <v>6.5</v>
+      </c>
+      <c r="AL6">
+        <v>6</v>
+      </c>
+      <c r="AO6">
+        <v>6</v>
+      </c>
+      <c r="AP6">
+        <v>5</v>
+      </c>
+      <c r="AQ6">
+        <v>5.5</v>
+      </c>
+      <c r="AR6">
+        <v>6.5</v>
+      </c>
+      <c r="AS6">
+        <v>6</v>
+      </c>
+      <c r="AT6">
+        <v>5.5</v>
+      </c>
+      <c r="AU6">
+        <v>6.5</v>
+      </c>
+      <c r="AV6">
+        <v>6</v>
+      </c>
+      <c r="AW6">
+        <v>6</v>
+      </c>
+      <c r="AX6">
+        <v>6</v>
+      </c>
+      <c r="AY6">
+        <v>5.5</v>
+      </c>
+      <c r="AZ6">
         <v>7</v>
       </c>
-      <c r="AL6">
-        <v>5</v>
-      </c>
-      <c r="AM6">
+      <c r="BA6">
+        <v>8.5</v>
+      </c>
+      <c r="BB6">
+        <v>5.5</v>
+      </c>
+      <c r="BC6">
         <v>4.5</v>
       </c>
-      <c r="AN6">
-        <v>4.5</v>
-      </c>
-      <c r="AO6">
-        <v>5</v>
-      </c>
-      <c r="AP6">
-        <v>5</v>
-      </c>
-      <c r="AR6">
-        <v>5.5</v>
-      </c>
-      <c r="AS6">
-        <v>5.5</v>
-      </c>
-      <c r="AT6">
-        <v>5</v>
-      </c>
-      <c r="AU6">
-        <v>6</v>
-      </c>
-      <c r="AV6">
-        <v>5</v>
-      </c>
-      <c r="AX6">
-        <v>5</v>
-      </c>
-      <c r="AY6">
-        <v>4.5</v>
-      </c>
       <c r="BF6">
+        <f>COUNT(B6:BE6)</f>
+        <v>43</v>
+      </c>
+      <c r="BG6" s="18">
+        <f>AVERAGE(B6:BE6)</f>
+        <v>6.8837209302325579</v>
+      </c>
+      <c r="BH6">
+        <f>IF(BF6&gt;1,_xlfn.STDEV.S(B6:BE6),"")</f>
+        <v>1.1944176171152627</v>
+      </c>
+      <c r="BI6">
+        <v>1</v>
+      </c>
+      <c r="BK6">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="BG6" s="18">
-        <f t="shared" si="1"/>
-        <v>5.6111111111111107</v>
-      </c>
-      <c r="BH6">
-        <f t="shared" si="2"/>
-        <v>1.0358647947564759</v>
-      </c>
-      <c r="BI6">
-        <v>1</v>
-      </c>
-      <c r="BK6">
-        <f t="shared" si="3"/>
         <v>6.166666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
         <v>7.5</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>7</v>
       </c>
-      <c r="D7">
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
         <v>7</v>
       </c>
-      <c r="E7">
-        <v>7.5</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
+      <c r="H7">
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>7.5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>7.5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O7">
         <v>7</v>
       </c>
       <c r="P7">
-        <v>6</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+      <c r="R7">
+        <v>7.5</v>
       </c>
       <c r="S7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T7">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U7">
         <v>7</v>
       </c>
-      <c r="V7" t="s">
-        <v>26</v>
+      <c r="V7">
+        <v>7</v>
       </c>
       <c r="W7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X7">
         <v>6</v>
       </c>
-      <c r="Y7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>26</v>
+      <c r="Y7">
+        <v>6</v>
+      </c>
+      <c r="Z7">
+        <v>6</v>
       </c>
       <c r="AA7">
-        <v>6</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="AB7">
+        <v>7</v>
+      </c>
+      <c r="AC7">
+        <v>7</v>
       </c>
       <c r="AD7" t="s">
         <v>26</v>
       </c>
       <c r="AE7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF7">
+        <v>6</v>
+      </c>
+      <c r="AG7">
+        <v>6</v>
+      </c>
+      <c r="AH7">
+        <v>5</v>
+      </c>
+      <c r="AI7">
         <v>6.5</v>
-      </c>
-      <c r="AG7">
-        <v>7</v>
-      </c>
-      <c r="AH7">
-        <v>5.5</v>
       </c>
       <c r="AJ7">
         <v>5.5</v>
       </c>
       <c r="AK7">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AL7">
-        <v>4.5</v>
-      </c>
-      <c r="AM7">
         <v>5.5</v>
       </c>
       <c r="AN7">
         <v>6.5</v>
       </c>
       <c r="AO7">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP7">
-        <v>5</v>
-      </c>
-      <c r="AQ7">
-        <v>5.5</v>
-      </c>
-      <c r="AR7">
-        <v>5.5</v>
-      </c>
-      <c r="AS7">
-        <v>5</v>
-      </c>
-      <c r="AT7">
-        <v>5.5</v>
-      </c>
-      <c r="AU7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV7">
         <v>5</v>
       </c>
-      <c r="AX7">
-        <v>10</v>
-      </c>
       <c r="AY7">
-        <v>5.5</v>
-      </c>
-      <c r="AZ7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA7">
         <v>5</v>
       </c>
       <c r="BB7">
-        <v>4.5</v>
+        <v>6</v>
+      </c>
+      <c r="BC7">
+        <v>5</v>
       </c>
       <c r="BF7">
+        <f>COUNT(B7:BE7)</f>
+        <v>43</v>
+      </c>
+      <c r="BG7" s="18">
+        <f>AVERAGE(B7:BE7)</f>
+        <v>6.4767441860465116</v>
+      </c>
+      <c r="BH7">
+        <f>IF(BF7&gt;1,_xlfn.STDEV.S(B7:BE7),"")</f>
+        <v>0.82341831332281723</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="BG7" s="18">
-        <f t="shared" si="1"/>
-        <v>6.0897435897435894</v>
-      </c>
-      <c r="BH7">
-        <f t="shared" si="2"/>
-        <v>1.0813721477813738</v>
-      </c>
-      <c r="BI7">
-        <v>1</v>
-      </c>
-      <c r="BK7">
-        <f t="shared" si="3"/>
-        <v>5.25</v>
+        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
         <v>7.5</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
       </c>
       <c r="I8" t="s">
         <v>26</v>
       </c>
-      <c r="J8" t="s">
-        <v>26</v>
+      <c r="J8">
+        <v>6</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
       </c>
-      <c r="L8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>26</v>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>7.5</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
       </c>
       <c r="R8" t="s">
         <v>26</v>
       </c>
-      <c r="S8" t="s">
-        <v>26</v>
-      </c>
-      <c r="T8" t="s">
-        <v>26</v>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>7.5</v>
       </c>
       <c r="U8" t="s">
         <v>26</v>
       </c>
       <c r="V8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W8">
         <v>7</v>
       </c>
       <c r="X8">
-        <v>6</v>
-      </c>
-      <c r="Y8">
         <v>7</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>26</v>
       </c>
       <c r="Z8">
         <v>7.5</v>
@@ -3723,22 +3725,22 @@
         <v>7</v>
       </c>
       <c r="AC8">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AD8">
         <v>7</v>
       </c>
       <c r="AE8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF8">
         <v>6.5</v>
       </c>
       <c r="AH8">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI8">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AJ8">
         <v>5.5</v>
@@ -3746,26 +3748,14 @@
       <c r="AK8">
         <v>5.5</v>
       </c>
-      <c r="AL8">
-        <v>6</v>
-      </c>
       <c r="AM8">
-        <v>5</v>
-      </c>
-      <c r="AN8">
-        <v>5</v>
-      </c>
-      <c r="AO8">
-        <v>5</v>
-      </c>
-      <c r="AP8">
+        <v>7</v>
+      </c>
+      <c r="AQ8">
+        <v>5</v>
+      </c>
+      <c r="AR8">
         <v>5.5</v>
-      </c>
-      <c r="AQ8">
-        <v>5.5</v>
-      </c>
-      <c r="AR8">
-        <v>6</v>
       </c>
       <c r="AS8">
         <v>5</v>
@@ -3773,77 +3763,83 @@
       <c r="AT8">
         <v>5.5</v>
       </c>
+      <c r="AU8">
+        <v>5.5</v>
+      </c>
       <c r="AV8">
+        <v>5.5</v>
+      </c>
+      <c r="AX8">
+        <v>6</v>
+      </c>
+      <c r="AY8">
+        <v>6.5</v>
+      </c>
+      <c r="AZ8">
+        <v>5.5</v>
+      </c>
+      <c r="BA8">
+        <v>5.5</v>
+      </c>
+      <c r="BB8">
         <v>4.5</v>
       </c>
-      <c r="AX8">
-        <v>6</v>
-      </c>
-      <c r="AY8">
+      <c r="BC8">
+        <v>4</v>
+      </c>
+      <c r="BF8">
+        <f>COUNT(B8:BE8)</f>
+        <v>42</v>
+      </c>
+      <c r="BG8" s="18">
+        <f>AVERAGE(B8:BE8)</f>
+        <v>6.3214285714285712</v>
+      </c>
+      <c r="BH8">
+        <f>IF(BF8&gt;1,_xlfn.STDEV.S(B8:BE8),"")</f>
+        <v>0.92275719246014665</v>
+      </c>
+      <c r="BI8">
+        <v>1</v>
+      </c>
+      <c r="BK8">
+        <f t="shared" si="0"/>
         <v>5.5</v>
-      </c>
-      <c r="AZ8">
-        <v>6.5</v>
-      </c>
-      <c r="BA8">
-        <v>5</v>
-      </c>
-      <c r="BB8">
-        <v>5</v>
-      </c>
-      <c r="BF8">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="BG8" s="18">
-        <f t="shared" si="1"/>
-        <v>6.064516129032258</v>
-      </c>
-      <c r="BH8">
-        <f t="shared" si="2"/>
-        <v>0.88262804060629785</v>
-      </c>
-      <c r="BI8">
-        <v>1</v>
-      </c>
-      <c r="BK8">
-        <f t="shared" si="3"/>
-        <v>5.833333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>7.5</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>7.5</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="I9" t="s">
-        <v>26</v>
+      <c r="I9">
+        <v>7.5</v>
       </c>
       <c r="J9" t="s">
         <v>26</v>
       </c>
-      <c r="K9" t="s">
-        <v>26</v>
+      <c r="K9">
+        <v>7.5</v>
       </c>
       <c r="L9" t="s">
         <v>26</v>
@@ -3851,263 +3847,305 @@
       <c r="M9" t="s">
         <v>26</v>
       </c>
-      <c r="N9" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9">
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>7</v>
+      </c>
+      <c r="U9">
+        <v>7</v>
+      </c>
+      <c r="V9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>6</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE9">
+        <v>6</v>
+      </c>
+      <c r="AF9">
+        <v>6.5</v>
+      </c>
+      <c r="AG9">
+        <v>7</v>
+      </c>
+      <c r="AH9">
         <v>5.5</v>
       </c>
-      <c r="R9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S9">
+      <c r="AJ9">
+        <v>5.5</v>
+      </c>
+      <c r="AK9">
+        <v>5</v>
+      </c>
+      <c r="AL9">
+        <v>4.5</v>
+      </c>
+      <c r="AM9">
+        <v>5.5</v>
+      </c>
+      <c r="AN9">
+        <v>6.5</v>
+      </c>
+      <c r="AO9">
+        <v>6</v>
+      </c>
+      <c r="AP9">
+        <v>5</v>
+      </c>
+      <c r="AQ9">
+        <v>5.5</v>
+      </c>
+      <c r="AR9">
+        <v>5.5</v>
+      </c>
+      <c r="AS9">
+        <v>5</v>
+      </c>
+      <c r="AT9">
+        <v>5.5</v>
+      </c>
+      <c r="AU9">
+        <v>5</v>
+      </c>
+      <c r="AV9">
+        <v>5</v>
+      </c>
+      <c r="AX9">
+        <v>10</v>
+      </c>
+      <c r="AY9">
+        <v>5.5</v>
+      </c>
+      <c r="AZ9">
+        <v>5</v>
+      </c>
+      <c r="BA9">
+        <v>5</v>
+      </c>
+      <c r="BB9">
+        <v>4.5</v>
+      </c>
+      <c r="BC9">
         <v>7</v>
       </c>
-      <c r="T9" t="s">
-        <v>26</v>
-      </c>
-      <c r="U9" t="s">
-        <v>26</v>
-      </c>
-      <c r="V9">
-        <v>7</v>
-      </c>
-      <c r="W9" t="s">
-        <v>26</v>
-      </c>
-      <c r="X9">
-        <v>6</v>
-      </c>
-      <c r="Y9">
-        <v>7</v>
-      </c>
-      <c r="Z9">
-        <v>7</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB9">
-        <v>7</v>
-      </c>
-      <c r="AC9">
-        <v>4.5</v>
-      </c>
-      <c r="AD9">
-        <v>7</v>
-      </c>
-      <c r="AE9">
-        <v>6</v>
-      </c>
-      <c r="AF9">
-        <v>5</v>
-      </c>
-      <c r="AG9">
-        <v>6.5</v>
-      </c>
-      <c r="AH9">
-        <v>6.5</v>
-      </c>
-      <c r="AI9">
-        <v>6.5</v>
-      </c>
-      <c r="AJ9">
-        <v>5</v>
-      </c>
-      <c r="AK9">
-        <v>5</v>
-      </c>
-      <c r="AL9">
-        <v>6</v>
-      </c>
-      <c r="AM9">
-        <v>5</v>
-      </c>
-      <c r="AO9">
-        <v>5</v>
-      </c>
-      <c r="AP9">
-        <v>5.5</v>
-      </c>
-      <c r="AQ9">
-        <v>4.5</v>
-      </c>
-      <c r="AR9">
-        <v>5</v>
-      </c>
-      <c r="AS9">
-        <v>5</v>
-      </c>
-      <c r="AT9">
-        <v>5</v>
-      </c>
-      <c r="AU9">
-        <v>6</v>
-      </c>
-      <c r="AV9">
-        <v>4.5</v>
-      </c>
-      <c r="AW9">
-        <v>5</v>
-      </c>
       <c r="BF9">
+        <f>COUNT(B9:BE9)</f>
+        <v>40</v>
+      </c>
+      <c r="BG9" s="18">
+        <f>AVERAGE(B9:BE9)</f>
+        <v>6.1124999999999998</v>
+      </c>
+      <c r="BH9">
+        <f>IF(BF9&gt;1,_xlfn.STDEV.S(B9:BE9),"")</f>
+        <v>1.0770775988043555</v>
+      </c>
+      <c r="BI9">
+        <v>1</v>
+      </c>
+      <c r="BK9">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="BG9" s="18">
-        <f t="shared" si="1"/>
-        <v>5.7407407407407405</v>
-      </c>
-      <c r="BH9">
-        <f t="shared" si="2"/>
-        <v>0.90267093384844077</v>
-      </c>
-      <c r="BI9">
-        <v>1</v>
-      </c>
-      <c r="BK9">
-        <f t="shared" si="3"/>
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
-        <v>26</v>
+      <c r="F10">
+        <v>6</v>
       </c>
       <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>4.5</v>
+      </c>
+      <c r="I10">
         <v>5.5</v>
       </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>5.5</v>
+      </c>
+      <c r="Q10">
+        <v>5.5</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
         <v>4.5</v>
       </c>
-      <c r="J10">
+      <c r="T10">
         <v>7</v>
       </c>
-      <c r="K10">
+      <c r="U10" t="s">
+        <v>26</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10">
         <v>7</v>
       </c>
-      <c r="L10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10">
+      <c r="Y10">
+        <v>6</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA10">
+        <v>6</v>
+      </c>
+      <c r="AB10">
         <v>5.5</v>
       </c>
-      <c r="P10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R10" t="s">
-        <v>26</v>
-      </c>
-      <c r="S10" t="s">
-        <v>26</v>
-      </c>
-      <c r="T10" t="s">
-        <v>26</v>
-      </c>
-      <c r="U10">
-        <v>6</v>
-      </c>
-      <c r="V10" t="s">
-        <v>26</v>
-      </c>
-      <c r="W10" t="s">
-        <v>26</v>
-      </c>
-      <c r="X10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA10">
-        <v>7</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>26</v>
-      </c>
       <c r="AC10">
-        <v>7</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="AD10">
+        <v>5.5</v>
       </c>
       <c r="AI10">
         <v>5</v>
       </c>
-      <c r="AJ10">
+      <c r="AL10">
+        <v>5.5</v>
+      </c>
+      <c r="AM10">
         <v>5</v>
       </c>
       <c r="AN10">
         <v>5</v>
       </c>
+      <c r="AO10">
+        <v>5</v>
+      </c>
       <c r="AP10">
+        <v>5</v>
+      </c>
+      <c r="AQ10">
+        <v>5</v>
+      </c>
+      <c r="AR10">
+        <v>4.5</v>
+      </c>
+      <c r="AS10">
         <v>5.5</v>
       </c>
-      <c r="AQ10">
-        <v>4</v>
+      <c r="AT10">
+        <v>5.5</v>
       </c>
       <c r="AV10">
+        <v>5</v>
+      </c>
+      <c r="AY10">
         <v>4.5</v>
       </c>
+      <c r="AZ10">
+        <v>5</v>
+      </c>
+      <c r="BB10">
+        <v>5</v>
+      </c>
+      <c r="BC10">
+        <v>6</v>
+      </c>
       <c r="BF10">
+        <f>COUNT(B10:BE10)</f>
+        <v>37</v>
+      </c>
+      <c r="BG10" s="18">
+        <f>AVERAGE(B10:BE10)</f>
+        <v>5.6351351351351351</v>
+      </c>
+      <c r="BH10">
+        <f>IF(BF10&gt;1,_xlfn.STDEV.S(B10:BE10),"")</f>
+        <v>0.76963779945006849</v>
+      </c>
+      <c r="BI10">
+        <v>1</v>
+      </c>
+      <c r="BK10">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="BG10" s="18">
-        <f t="shared" si="1"/>
-        <v>5.4411764705882355</v>
-      </c>
-      <c r="BH10">
-        <f t="shared" si="2"/>
-        <v>1.0880365478290537</v>
-      </c>
-      <c r="BI10">
-        <v>1</v>
-      </c>
-      <c r="BK10">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -4118,14 +4156,14 @@
       <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
+      <c r="E11">
+        <v>4.5</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -4133,26 +4171,26 @@
       <c r="I11" t="s">
         <v>26</v>
       </c>
-      <c r="J11" t="s">
-        <v>26</v>
+      <c r="J11">
+        <v>4.5</v>
       </c>
       <c r="K11" t="s">
         <v>26</v>
       </c>
-      <c r="L11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" t="s">
-        <v>26</v>
+      <c r="L11">
+        <v>2.5</v>
+      </c>
+      <c r="M11">
+        <v>4.5</v>
+      </c>
+      <c r="N11">
+        <v>5.5</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>4.5</v>
       </c>
       <c r="Q11" t="s">
         <v>26</v>
@@ -4160,320 +4198,320 @@
       <c r="R11" t="s">
         <v>26</v>
       </c>
-      <c r="S11" t="s">
-        <v>26</v>
-      </c>
-      <c r="T11" t="s">
-        <v>26</v>
-      </c>
-      <c r="U11" t="s">
-        <v>26</v>
-      </c>
-      <c r="V11" t="s">
-        <v>26</v>
-      </c>
-      <c r="W11" t="s">
-        <v>26</v>
-      </c>
-      <c r="X11" t="s">
-        <v>26</v>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="U11">
+        <v>2.5</v>
+      </c>
+      <c r="V11">
+        <v>5.5</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <v>6</v>
       </c>
       <c r="Y11" t="s">
         <v>26</v>
       </c>
-      <c r="Z11" t="s">
-        <v>26</v>
+      <c r="Z11">
+        <v>5.5</v>
       </c>
       <c r="AA11" t="s">
         <v>26</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC11">
+        <v>4</v>
+      </c>
+      <c r="AD11">
         <v>4.5</v>
       </c>
-      <c r="AC11">
-        <v>6</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>26</v>
-      </c>
       <c r="AE11">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AF11">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="AG11">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="AH11">
         <v>5</v>
       </c>
-      <c r="AI11">
-        <v>5.5</v>
+      <c r="AK11">
+        <v>5</v>
       </c>
       <c r="AL11">
-        <v>5</v>
+        <v>2.5</v>
+      </c>
+      <c r="AM11">
+        <v>4</v>
       </c>
       <c r="AO11">
         <v>5.5</v>
       </c>
       <c r="AP11">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AQ11">
+        <v>4</v>
+      </c>
+      <c r="AR11">
+        <v>3.5</v>
+      </c>
+      <c r="AT11">
+        <v>5</v>
+      </c>
+      <c r="AU11">
+        <v>4</v>
+      </c>
+      <c r="AX11">
         <v>5.5</v>
       </c>
-      <c r="AT11">
+      <c r="AY11">
         <v>4.5</v>
       </c>
-      <c r="AU11">
-        <v>5</v>
-      </c>
-      <c r="AV11">
-        <v>5</v>
-      </c>
-      <c r="AW11">
+      <c r="AZ11">
         <v>4.5</v>
       </c>
-      <c r="AX11">
-        <v>5</v>
-      </c>
-      <c r="AZ11">
-        <v>5</v>
-      </c>
       <c r="BA11">
-        <v>5.5</v>
-      </c>
-      <c r="BB11">
-        <v>5.5</v>
+        <v>5</v>
+      </c>
+      <c r="BC11">
+        <v>4</v>
       </c>
       <c r="BF11">
+        <f>COUNT(B11:BE11)</f>
+        <v>36</v>
+      </c>
+      <c r="BG11" s="18">
+        <f>AVERAGE(B11:BE11)</f>
+        <v>4.5277777777777777</v>
+      </c>
+      <c r="BH11">
+        <f>IF(BF11&gt;1,_xlfn.STDEV.S(B11:BE11),"")</f>
+        <v>1.0619688214715988</v>
+      </c>
+      <c r="BI11">
+        <v>1</v>
+      </c>
+      <c r="BK11">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="BG11" s="18">
-        <f t="shared" si="1"/>
-        <v>5.3684210526315788</v>
-      </c>
-      <c r="BH11">
-        <f t="shared" si="2"/>
-        <v>0.62008299765161179</v>
-      </c>
-      <c r="BI11">
-        <v>1</v>
-      </c>
-      <c r="BK11">
-        <f t="shared" si="3"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>8.5</v>
+        <v>5.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="E12">
         <v>7.5</v>
       </c>
       <c r="F12">
+        <v>7.5</v>
+      </c>
+      <c r="G12">
+        <v>5.5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12">
+        <v>4.5</v>
+      </c>
+      <c r="J12">
         <v>7</v>
       </c>
-      <c r="G12">
-        <v>7.5</v>
-      </c>
-      <c r="H12">
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>5.5</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12">
+        <v>4.5</v>
+      </c>
+      <c r="T12">
         <v>7</v>
       </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12">
-        <v>8.5</v>
-      </c>
-      <c r="K12">
-        <v>7.5</v>
-      </c>
-      <c r="L12">
-        <v>8.5</v>
-      </c>
-      <c r="M12">
+      <c r="U12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12">
+        <v>6</v>
+      </c>
+      <c r="Y12">
+        <v>6</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA12">
+        <v>4.5</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC12">
         <v>7</v>
       </c>
-      <c r="N12">
-        <v>7.5</v>
-      </c>
-      <c r="O12">
-        <v>7.5</v>
-      </c>
-      <c r="P12">
-        <v>7</v>
-      </c>
-      <c r="Q12">
-        <v>7</v>
-      </c>
-      <c r="R12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S12" t="s">
-        <v>26</v>
-      </c>
-      <c r="T12" t="s">
-        <v>26</v>
-      </c>
-      <c r="U12">
-        <v>7</v>
-      </c>
-      <c r="V12">
-        <v>6</v>
-      </c>
-      <c r="W12">
-        <v>7.5</v>
-      </c>
-      <c r="X12">
-        <v>7</v>
-      </c>
-      <c r="Y12">
-        <v>7</v>
-      </c>
-      <c r="Z12">
-        <v>7</v>
-      </c>
-      <c r="AA12">
-        <v>7</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>26</v>
-      </c>
       <c r="AD12" t="s">
         <v>26</v>
       </c>
+      <c r="AE12">
+        <v>3</v>
+      </c>
       <c r="AF12">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG12">
-        <v>10</v>
+        <v>4.5</v>
+      </c>
+      <c r="AH12">
+        <v>6</v>
       </c>
       <c r="AI12">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ12">
         <v>5.5</v>
       </c>
       <c r="AK12">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AL12">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="AM12">
+        <v>4.5</v>
+      </c>
+      <c r="AN12">
+        <v>4.5</v>
       </c>
       <c r="AO12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP12">
         <v>5</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>5.5</v>
       </c>
-      <c r="AR12">
-        <v>6.5</v>
-      </c>
       <c r="AS12">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AT12">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AU12">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AV12">
-        <v>6</v>
-      </c>
-      <c r="AW12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY12">
-        <v>5.5</v>
-      </c>
-      <c r="AZ12">
-        <v>7</v>
-      </c>
-      <c r="BA12">
-        <v>8.5</v>
-      </c>
-      <c r="BB12">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="BF12">
+        <f>COUNT(B12:BE12)</f>
+        <v>36</v>
+      </c>
+      <c r="BG12" s="18">
+        <f>AVERAGE(B12:BE12)</f>
+        <v>5.6111111111111107</v>
+      </c>
+      <c r="BH12">
+        <f>IF(BF12&gt;1,_xlfn.STDEV.S(B12:BE12),"")</f>
+        <v>1.0358647947564759</v>
+      </c>
+      <c r="BI12">
+        <v>1</v>
+      </c>
+      <c r="BK12">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="BG12" s="18">
-        <f t="shared" si="1"/>
-        <v>6.9404761904761907</v>
-      </c>
-      <c r="BH12">
-        <f t="shared" si="2"/>
-        <v>1.1487128584318165</v>
-      </c>
-      <c r="BI12">
-        <v>1</v>
-      </c>
-      <c r="BK12">
-        <f t="shared" si="3"/>
         <v>6.166666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="D13">
-        <v>7</v>
+      <c r="D13" t="s">
+        <v>26</v>
       </c>
       <c r="E13">
         <v>7</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
       </c>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
       </c>
       <c r="J13" t="s">
         <v>26</v>
       </c>
-      <c r="K13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" t="s">
-        <v>26</v>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
       </c>
       <c r="M13">
         <v>6</v>
@@ -4485,19 +4523,19 @@
         <v>6</v>
       </c>
       <c r="P13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q13">
+        <v>5.5</v>
+      </c>
+      <c r="R13">
+        <v>7.5</v>
+      </c>
+      <c r="S13">
         <v>7</v>
       </c>
-      <c r="R13" t="s">
-        <v>26</v>
-      </c>
-      <c r="S13" t="s">
-        <v>26</v>
-      </c>
       <c r="T13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U13">
         <v>6</v>
@@ -4506,13 +4544,13 @@
         <v>7</v>
       </c>
       <c r="W13">
-        <v>6</v>
-      </c>
-      <c r="X13" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y13">
-        <v>8.5</v>
+        <v>7</v>
+      </c>
+      <c r="X13">
+        <v>7</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>26</v>
       </c>
       <c r="Z13">
         <v>6</v>
@@ -4520,46 +4558,46 @@
       <c r="AA13">
         <v>6</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC13">
+        <v>6</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF13">
+        <v>7</v>
+      </c>
+      <c r="AG13">
         <v>5.5</v>
       </c>
-      <c r="AC13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE13">
-        <v>6</v>
-      </c>
-      <c r="AF13">
-        <v>6.5</v>
-      </c>
-      <c r="AG13">
+      <c r="AH13">
+        <v>5.5</v>
+      </c>
+      <c r="AI13">
+        <v>5.5</v>
+      </c>
+      <c r="AJ13">
+        <v>5.5</v>
+      </c>
+      <c r="AK13">
         <v>6.5</v>
       </c>
       <c r="AL13">
         <v>4.5</v>
       </c>
-      <c r="AM13">
-        <v>5.5</v>
-      </c>
-      <c r="AQ13">
-        <v>5</v>
-      </c>
-      <c r="AT13">
-        <v>5.5</v>
-      </c>
-      <c r="AU13">
-        <v>5.5</v>
-      </c>
       <c r="AV13">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AW13">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX13">
+        <v>5</v>
+      </c>
+      <c r="AY13">
         <v>5.5</v>
       </c>
       <c r="AZ13">
@@ -4569,28 +4607,28 @@
         <v>5</v>
       </c>
       <c r="BF13">
+        <f>COUNT(B13:BE13)</f>
+        <v>35</v>
+      </c>
+      <c r="BG13" s="18">
+        <f>AVERAGE(B13:BE13)</f>
+        <v>6.2714285714285714</v>
+      </c>
+      <c r="BH13">
+        <f>IF(BF13&gt;1,_xlfn.STDEV.S(B13:BE13),"")</f>
+        <v>1.1333374526206239</v>
+      </c>
+      <c r="BI13">
+        <v>1</v>
+      </c>
+      <c r="BK13">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="BG13" s="18">
-        <f t="shared" si="1"/>
-        <v>6.1</v>
-      </c>
-      <c r="BH13">
-        <f t="shared" si="2"/>
-        <v>1.0859605632008871</v>
-      </c>
-      <c r="BI13">
-        <v>1</v>
-      </c>
-      <c r="BK13" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>5.833333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -4599,223 +4637,211 @@
         <v>26</v>
       </c>
       <c r="D14">
-        <v>7.5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
+        <v>4.5</v>
+      </c>
+      <c r="E14">
+        <v>4.5</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="G14">
+        <v>5.5</v>
+      </c>
+      <c r="H14">
         <v>7</v>
       </c>
-      <c r="H14">
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>5.5</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14">
+        <v>5.5</v>
+      </c>
+      <c r="P14">
+        <v>6</v>
+      </c>
+      <c r="Q14">
         <v>4.5</v>
       </c>
-      <c r="I14">
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
         <v>5.5</v>
       </c>
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14">
-        <v>6</v>
-      </c>
-      <c r="L14">
-        <v>6</v>
-      </c>
-      <c r="M14">
-        <v>6</v>
-      </c>
-      <c r="N14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14">
-        <v>6</v>
-      </c>
-      <c r="P14">
+      <c r="U14">
         <v>5.5</v>
       </c>
-      <c r="Q14">
+      <c r="V14">
         <v>5.5</v>
       </c>
-      <c r="R14">
-        <v>6</v>
-      </c>
-      <c r="S14">
+      <c r="W14">
+        <v>5.5</v>
+      </c>
+      <c r="X14">
+        <v>6</v>
+      </c>
+      <c r="Y14">
+        <v>5.5</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA14">
+        <v>7</v>
+      </c>
+      <c r="AB14">
+        <v>6</v>
+      </c>
+      <c r="AC14">
+        <v>6</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE14">
+        <v>7</v>
+      </c>
+      <c r="AH14">
+        <v>6.5</v>
+      </c>
+      <c r="AI14">
         <v>4.5</v>
       </c>
-      <c r="T14">
-        <v>7</v>
-      </c>
-      <c r="U14" t="s">
-        <v>26</v>
-      </c>
-      <c r="V14">
-        <v>6</v>
-      </c>
-      <c r="W14" t="s">
-        <v>26</v>
-      </c>
-      <c r="X14">
-        <v>7</v>
-      </c>
-      <c r="Y14">
-        <v>6</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA14">
-        <v>6</v>
-      </c>
-      <c r="AB14">
+      <c r="AK14">
+        <v>5</v>
+      </c>
+      <c r="AL14">
+        <v>5</v>
+      </c>
+      <c r="AM14">
         <v>5.5</v>
       </c>
-      <c r="AC14">
-        <v>6</v>
-      </c>
-      <c r="AD14">
-        <v>5.5</v>
-      </c>
-      <c r="AI14">
-        <v>5</v>
-      </c>
-      <c r="AL14">
-        <v>5.5</v>
-      </c>
-      <c r="AM14">
-        <v>5</v>
-      </c>
       <c r="AN14">
-        <v>5</v>
-      </c>
-      <c r="AO14">
-        <v>5</v>
-      </c>
-      <c r="AP14">
-        <v>5</v>
-      </c>
-      <c r="AQ14">
-        <v>5</v>
-      </c>
-      <c r="AR14">
+        <v>4</v>
+      </c>
+      <c r="AT14">
         <v>4.5</v>
       </c>
-      <c r="AS14">
-        <v>5.5</v>
-      </c>
-      <c r="AT14">
-        <v>5.5</v>
-      </c>
-      <c r="AV14">
-        <v>5</v>
-      </c>
-      <c r="AY14">
+      <c r="AZ14">
         <v>4.5</v>
       </c>
-      <c r="AZ14">
-        <v>5</v>
-      </c>
-      <c r="BB14">
-        <v>5</v>
+      <c r="BC14">
+        <v>4</v>
       </c>
       <c r="BF14">
+        <f>COUNT(B14:BE14)</f>
+        <v>34</v>
+      </c>
+      <c r="BG14" s="18">
+        <f>AVERAGE(B14:BE14)</f>
+        <v>5.5735294117647056</v>
+      </c>
+      <c r="BH14">
+        <f>IF(BF14&gt;1,_xlfn.STDEV.S(B14:BE14),"")</f>
+        <v>0.87153950293107318</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="BG14" s="18">
-        <f t="shared" si="1"/>
-        <v>5.625</v>
-      </c>
-      <c r="BH14">
-        <f t="shared" si="2"/>
-        <v>0.77804700555759665</v>
-      </c>
-      <c r="BI14">
-        <v>1</v>
-      </c>
-      <c r="BK14">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B15">
+        <v>7.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15" t="s">
+        <v>26</v>
+      </c>
+      <c r="V15">
         <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15">
-        <v>7.5</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="I15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15">
-        <v>7</v>
-      </c>
-      <c r="M15">
-        <v>7</v>
-      </c>
-      <c r="N15">
-        <v>7.5</v>
-      </c>
-      <c r="O15">
-        <v>6</v>
-      </c>
-      <c r="P15">
-        <v>6</v>
-      </c>
-      <c r="Q15">
-        <v>7</v>
-      </c>
-      <c r="R15" t="s">
-        <v>26</v>
-      </c>
-      <c r="S15">
-        <v>6</v>
-      </c>
-      <c r="T15">
-        <v>7.5</v>
-      </c>
-      <c r="U15" t="s">
-        <v>26</v>
-      </c>
-      <c r="V15">
-        <v>6</v>
       </c>
       <c r="W15">
         <v>7</v>
       </c>
       <c r="X15">
+        <v>6</v>
+      </c>
+      <c r="Y15">
         <v>7</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>26</v>
       </c>
       <c r="Z15">
         <v>7.5</v>
@@ -4827,22 +4853,22 @@
         <v>7</v>
       </c>
       <c r="AC15">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AD15">
         <v>7</v>
       </c>
       <c r="AE15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF15">
         <v>6.5</v>
       </c>
       <c r="AH15">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI15">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AJ15">
         <v>5.5</v>
@@ -4850,14 +4876,26 @@
       <c r="AK15">
         <v>5.5</v>
       </c>
+      <c r="AL15">
+        <v>6</v>
+      </c>
       <c r="AM15">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="AN15">
+        <v>5</v>
+      </c>
+      <c r="AO15">
+        <v>5</v>
+      </c>
+      <c r="AP15">
+        <v>5.5</v>
       </c>
       <c r="AQ15">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AR15">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AS15">
         <v>5</v>
@@ -4865,65 +4903,65 @@
       <c r="AT15">
         <v>5.5</v>
       </c>
-      <c r="AU15">
+      <c r="AV15">
+        <v>4.5</v>
+      </c>
+      <c r="AX15">
+        <v>6</v>
+      </c>
+      <c r="AY15">
         <v>5.5</v>
       </c>
-      <c r="AV15">
-        <v>5.5</v>
-      </c>
-      <c r="AX15">
-        <v>6</v>
-      </c>
-      <c r="AY15">
+      <c r="AZ15">
         <v>6.5</v>
       </c>
-      <c r="AZ15">
-        <v>5.5</v>
-      </c>
       <c r="BA15">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BB15">
-        <v>4.5</v>
+        <v>5</v>
+      </c>
+      <c r="BC15">
+        <v>9.5</v>
       </c>
       <c r="BF15">
+        <f>COUNT(B15:BE15)</f>
+        <v>32</v>
+      </c>
+      <c r="BG15" s="18">
+        <f>AVERAGE(B15:BE15)</f>
+        <v>6.171875</v>
+      </c>
+      <c r="BH15">
+        <f>IF(BF15&gt;1,_xlfn.STDEV.S(B15:BE15),"")</f>
+        <v>1.0595904184347411</v>
+      </c>
+      <c r="BI15">
+        <v>1</v>
+      </c>
+      <c r="BK15">
         <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="BG15" s="18">
-        <f t="shared" si="1"/>
-        <v>6.3780487804878048</v>
-      </c>
-      <c r="BH15">
-        <f t="shared" si="2"/>
-        <v>0.85717915138025735</v>
-      </c>
-      <c r="BI15">
-        <v>1</v>
-      </c>
-      <c r="BK15">
-        <f t="shared" si="3"/>
-        <v>5.5</v>
+        <v>5.833333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
       </c>
       <c r="G16" t="s">
         <v>26</v>
@@ -4943,101 +4981,113 @@
       <c r="L16" t="s">
         <v>26</v>
       </c>
-      <c r="M16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" t="s">
-        <v>26</v>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
       </c>
       <c r="O16">
         <v>6</v>
       </c>
-      <c r="P16" t="s">
-        <v>26</v>
+      <c r="P16">
+        <v>6</v>
       </c>
       <c r="Q16">
+        <v>7</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" t="s">
+        <v>26</v>
+      </c>
+      <c r="T16">
+        <v>6</v>
+      </c>
+      <c r="U16">
+        <v>6</v>
+      </c>
+      <c r="V16">
+        <v>7</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y16">
+        <v>8.5</v>
+      </c>
+      <c r="Z16">
+        <v>6</v>
+      </c>
+      <c r="AA16">
+        <v>6</v>
+      </c>
+      <c r="AB16">
+        <v>5.5</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE16">
+        <v>6</v>
+      </c>
+      <c r="AF16">
+        <v>6.5</v>
+      </c>
+      <c r="AG16">
+        <v>6.5</v>
+      </c>
+      <c r="AL16">
         <v>4.5</v>
       </c>
-      <c r="R16" t="s">
-        <v>26</v>
-      </c>
-      <c r="S16" t="s">
-        <v>26</v>
-      </c>
-      <c r="T16">
-        <v>7</v>
-      </c>
-      <c r="U16">
-        <v>7</v>
-      </c>
-      <c r="V16">
-        <v>6</v>
-      </c>
-      <c r="W16">
-        <v>6</v>
-      </c>
-      <c r="X16">
-        <v>6</v>
-      </c>
-      <c r="Y16">
-        <v>7.5</v>
-      </c>
-      <c r="Z16">
-        <v>6</v>
-      </c>
-      <c r="AA16">
-        <v>6</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC16">
-        <v>6</v>
-      </c>
-      <c r="AD16">
-        <v>7</v>
-      </c>
-      <c r="AF16">
-        <v>7</v>
-      </c>
-      <c r="AG16">
-        <v>7</v>
+      <c r="AM16">
+        <v>5.5</v>
       </c>
       <c r="AQ16">
-        <v>7</v>
-      </c>
-      <c r="AR16">
-        <v>6.5</v>
-      </c>
-      <c r="AS16">
         <v>5</v>
       </c>
       <c r="AT16">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AU16">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AV16">
         <v>5</v>
       </c>
       <c r="AW16">
         <v>5</v>
+      </c>
+      <c r="AX16">
+        <v>5.5</v>
       </c>
       <c r="AZ16">
         <v>5.5</v>
       </c>
+      <c r="BA16">
+        <v>5</v>
+      </c>
+      <c r="BC16">
+        <v>7</v>
+      </c>
       <c r="BF16">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f>COUNT(B16:BE16)</f>
+        <v>31</v>
       </c>
       <c r="BG16" s="18">
-        <f t="shared" si="1"/>
-        <v>6.0454545454545459</v>
+        <f>AVERAGE(B16:BE16)</f>
+        <v>6.129032258064516</v>
       </c>
       <c r="BH16">
-        <f t="shared" si="2"/>
-        <v>0.87163080472196586</v>
+        <f>IF(BF16&gt;1,_xlfn.STDEV.S(B16:BE16),"")</f>
+        <v>1.0798745446847355</v>
       </c>
       <c r="BI16">
         <v>1</v>
@@ -5049,7 +5099,7 @@
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -5096,14 +5146,14 @@
       <c r="P17" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" t="s">
-        <v>26</v>
+      <c r="Q17">
+        <v>5.5</v>
       </c>
       <c r="R17" t="s">
         <v>26</v>
       </c>
-      <c r="S17" t="s">
-        <v>26</v>
+      <c r="S17">
+        <v>7</v>
       </c>
       <c r="T17" t="s">
         <v>26</v>
@@ -5112,19 +5162,19 @@
         <v>26</v>
       </c>
       <c r="V17">
-        <v>6</v>
-      </c>
-      <c r="W17">
-        <v>6</v>
-      </c>
-      <c r="X17" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="W17" t="s">
+        <v>26</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
       </c>
       <c r="Y17">
-        <v>6</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="Z17">
+        <v>7</v>
       </c>
       <c r="AA17" t="s">
         <v>26</v>
@@ -5133,10 +5183,10 @@
         <v>7</v>
       </c>
       <c r="AC17">
-        <v>6</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>26</v>
+        <v>4.5</v>
+      </c>
+      <c r="AD17">
+        <v>7</v>
       </c>
       <c r="AE17">
         <v>6</v>
@@ -5144,11 +5194,32 @@
       <c r="AF17">
         <v>5</v>
       </c>
+      <c r="AG17">
+        <v>6.5</v>
+      </c>
+      <c r="AH17">
+        <v>6.5</v>
+      </c>
+      <c r="AI17">
+        <v>6.5</v>
+      </c>
+      <c r="AJ17">
+        <v>5</v>
+      </c>
+      <c r="AK17">
+        <v>5</v>
+      </c>
+      <c r="AL17">
+        <v>6</v>
+      </c>
       <c r="AM17">
-        <v>4.5</v>
+        <v>5</v>
+      </c>
+      <c r="AO17">
+        <v>5</v>
       </c>
       <c r="AP17">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AQ17">
         <v>4.5</v>
@@ -5157,223 +5228,190 @@
         <v>5</v>
       </c>
       <c r="AS17">
+        <v>5</v>
+      </c>
+      <c r="AT17">
+        <v>5</v>
+      </c>
+      <c r="AU17">
+        <v>6</v>
+      </c>
+      <c r="AV17">
         <v>4.5</v>
       </c>
-      <c r="AT17">
-        <v>4.5</v>
-      </c>
-      <c r="AU17">
-        <v>4</v>
-      </c>
-      <c r="AV17">
-        <v>5</v>
-      </c>
       <c r="AW17">
-        <v>4.5</v>
-      </c>
-      <c r="AX17">
-        <v>5</v>
-      </c>
-      <c r="AY17">
-        <v>5</v>
-      </c>
-      <c r="AZ17">
-        <v>5</v>
-      </c>
-      <c r="BA17">
-        <v>4.5</v>
-      </c>
-      <c r="BB17">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="BF17">
+        <f>COUNT(B17:BE17)</f>
+        <v>27</v>
+      </c>
+      <c r="BG17" s="18">
+        <f>AVERAGE(B17:BE17)</f>
+        <v>5.7407407407407405</v>
+      </c>
+      <c r="BH17">
+        <f>IF(BF17&gt;1,_xlfn.STDEV.S(B17:BE17),"")</f>
+        <v>0.90267093384844077</v>
+      </c>
+      <c r="BI17">
+        <v>1</v>
+      </c>
+      <c r="BK17">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="BG17" s="18">
-        <f t="shared" si="1"/>
-        <v>5.1190476190476186</v>
-      </c>
-      <c r="BH17">
-        <f t="shared" si="2"/>
-        <v>0.75671596231284044</v>
-      </c>
-      <c r="BI17">
-        <v>1</v>
-      </c>
-      <c r="BK17" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+      <c r="P18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18">
         <v>4.5</v>
       </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>5.5</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18">
-        <v>7</v>
-      </c>
-      <c r="I18">
-        <v>5.5</v>
-      </c>
-      <c r="J18">
-        <v>6</v>
-      </c>
-      <c r="K18">
-        <v>5.5</v>
-      </c>
-      <c r="L18">
-        <v>7</v>
-      </c>
-      <c r="M18">
-        <v>6</v>
-      </c>
-      <c r="N18">
-        <v>7</v>
-      </c>
-      <c r="O18">
-        <v>5.5</v>
-      </c>
-      <c r="P18">
-        <v>5.5</v>
-      </c>
-      <c r="Q18">
-        <v>7</v>
-      </c>
-      <c r="R18">
-        <v>6</v>
-      </c>
-      <c r="S18">
-        <v>6</v>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" t="s">
+        <v>26</v>
       </c>
       <c r="T18">
         <v>7</v>
       </c>
       <c r="U18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V18">
+        <v>6</v>
+      </c>
+      <c r="W18">
+        <v>6</v>
+      </c>
+      <c r="X18">
+        <v>6</v>
+      </c>
+      <c r="Y18">
+        <v>7.5</v>
+      </c>
+      <c r="Z18">
+        <v>6</v>
+      </c>
+      <c r="AA18">
+        <v>6</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC18">
+        <v>6</v>
+      </c>
+      <c r="AD18">
+        <v>7</v>
+      </c>
+      <c r="AF18">
+        <v>7</v>
+      </c>
+      <c r="AG18">
+        <v>7</v>
+      </c>
+      <c r="AQ18">
+        <v>7</v>
+      </c>
+      <c r="AR18">
+        <v>6.5</v>
+      </c>
+      <c r="AS18">
+        <v>5</v>
+      </c>
+      <c r="AT18">
+        <v>5</v>
+      </c>
+      <c r="AU18">
+        <v>5</v>
+      </c>
+      <c r="AV18">
+        <v>5</v>
+      </c>
+      <c r="AW18">
+        <v>5</v>
+      </c>
+      <c r="AZ18">
         <v>5.5</v>
       </c>
-      <c r="W18">
-        <v>5.5</v>
-      </c>
-      <c r="X18">
-        <v>6</v>
-      </c>
-      <c r="Y18">
-        <v>5.5</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA18">
-        <v>7</v>
-      </c>
-      <c r="AB18">
-        <v>6</v>
-      </c>
-      <c r="AC18">
-        <v>6</v>
-      </c>
-      <c r="AD18">
-        <v>6</v>
-      </c>
-      <c r="AE18">
-        <v>6.5</v>
-      </c>
-      <c r="AF18">
-        <v>6</v>
-      </c>
-      <c r="AG18">
-        <v>6</v>
-      </c>
-      <c r="AH18">
-        <v>5</v>
-      </c>
-      <c r="AI18">
-        <v>6</v>
-      </c>
-      <c r="AL18">
-        <v>3</v>
-      </c>
-      <c r="AM18">
-        <v>4</v>
-      </c>
-      <c r="AN18">
-        <v>5.5</v>
-      </c>
-      <c r="AO18">
-        <v>5</v>
-      </c>
-      <c r="AP18">
+      <c r="BC18">
         <v>4.5</v>
       </c>
-      <c r="AV18">
-        <v>4</v>
-      </c>
-      <c r="AW18">
-        <v>4.5</v>
-      </c>
-      <c r="AX18">
-        <v>4.5</v>
-      </c>
-      <c r="AY18">
-        <v>5</v>
-      </c>
-      <c r="AZ18">
-        <v>4</v>
-      </c>
-      <c r="BA18">
-        <v>5</v>
-      </c>
-      <c r="BB18">
-        <v>5</v>
-      </c>
       <c r="BF18">
+        <f>COUNT(B18:BE18)</f>
+        <v>23</v>
+      </c>
+      <c r="BG18" s="18">
+        <f>AVERAGE(B18:BE18)</f>
+        <v>5.9782608695652177</v>
+      </c>
+      <c r="BH18">
+        <f>IF(BF18&gt;1,_xlfn.STDEV.S(B18:BE18),"")</f>
+        <v>0.91052258807742392</v>
+      </c>
+      <c r="BI18">
+        <v>1</v>
+      </c>
+      <c r="BK18" t="e">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="BG18" s="18">
-        <f t="shared" si="1"/>
-        <v>5.5813953488372094</v>
-      </c>
-      <c r="BH18">
-        <f t="shared" si="2"/>
-        <v>0.92537143480809991</v>
-      </c>
-      <c r="BI18">
-        <v>1</v>
-      </c>
-      <c r="BK18">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>8.5</v>
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -5381,107 +5419,113 @@
       <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" t="s">
+        <v>26</v>
+      </c>
+      <c r="V19">
+        <v>6</v>
+      </c>
+      <c r="W19">
+        <v>6</v>
+      </c>
+      <c r="X19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y19">
+        <v>6</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB19">
         <v>7</v>
       </c>
-      <c r="F19">
-        <v>7</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-      <c r="I19">
-        <v>7</v>
-      </c>
-      <c r="J19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19">
-        <v>6</v>
-      </c>
-      <c r="L19">
-        <v>7</v>
-      </c>
-      <c r="M19">
-        <v>6</v>
-      </c>
-      <c r="N19">
-        <v>6</v>
-      </c>
-      <c r="O19">
-        <v>6</v>
-      </c>
-      <c r="P19">
-        <v>7</v>
-      </c>
-      <c r="Q19">
-        <v>5.5</v>
-      </c>
-      <c r="R19">
-        <v>7.5</v>
-      </c>
-      <c r="S19">
-        <v>7</v>
-      </c>
-      <c r="T19">
-        <v>7</v>
-      </c>
-      <c r="U19">
-        <v>6</v>
-      </c>
-      <c r="V19">
-        <v>7</v>
-      </c>
-      <c r="W19">
-        <v>7</v>
-      </c>
-      <c r="X19">
-        <v>7</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z19">
-        <v>6</v>
-      </c>
-      <c r="AA19">
-        <v>6</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>26</v>
-      </c>
       <c r="AC19">
         <v>6</v>
       </c>
       <c r="AD19" t="s">
         <v>26</v>
       </c>
+      <c r="AE19">
+        <v>6</v>
+      </c>
       <c r="AF19">
-        <v>7</v>
-      </c>
-      <c r="AG19">
-        <v>5.5</v>
-      </c>
-      <c r="AH19">
-        <v>5.5</v>
-      </c>
-      <c r="AI19">
-        <v>5.5</v>
-      </c>
-      <c r="AJ19">
-        <v>5.5</v>
-      </c>
-      <c r="AK19">
-        <v>6.5</v>
-      </c>
-      <c r="AL19">
+        <v>5</v>
+      </c>
+      <c r="AM19">
         <v>4.5</v>
       </c>
+      <c r="AP19">
+        <v>5</v>
+      </c>
+      <c r="AQ19">
+        <v>4.5</v>
+      </c>
+      <c r="AR19">
+        <v>5</v>
+      </c>
+      <c r="AS19">
+        <v>4.5</v>
+      </c>
+      <c r="AT19">
+        <v>4.5</v>
+      </c>
+      <c r="AU19">
+        <v>4</v>
+      </c>
       <c r="AV19">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AW19">
         <v>4.5</v>
@@ -5490,463 +5534,628 @@
         <v>5</v>
       </c>
       <c r="AY19">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AZ19">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BA19">
-        <v>5</v>
+        <v>4.5</v>
+      </c>
+      <c r="BB19">
+        <v>4.5</v>
       </c>
       <c r="BF19">
+        <f>COUNT(B19:BE19)</f>
+        <v>21</v>
+      </c>
+      <c r="BG19" s="18">
+        <f>AVERAGE(B19:BE19)</f>
+        <v>5.1190476190476186</v>
+      </c>
+      <c r="BH19">
+        <f>IF(BF19&gt;1,_xlfn.STDEV.S(B19:BE19),"")</f>
+        <v>0.75671596231284044</v>
+      </c>
+      <c r="BI19">
+        <v>1</v>
+      </c>
+      <c r="BK19" t="e">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="BG19" s="18">
-        <f t="shared" si="1"/>
-        <v>6.2714285714285714</v>
-      </c>
-      <c r="BH19">
-        <f t="shared" si="2"/>
-        <v>1.1333374526206239</v>
-      </c>
-      <c r="BI19">
-        <v>1</v>
-      </c>
-      <c r="BK19">
-        <f t="shared" si="3"/>
-        <v>5.833333333333333</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>340</v>
-      </c>
-      <c r="AJ20">
-        <v>5</v>
-      </c>
-      <c r="AN20">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20" t="s">
+        <v>26</v>
+      </c>
+      <c r="U20" t="s">
+        <v>26</v>
+      </c>
+      <c r="V20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB20">
+        <v>4.5</v>
+      </c>
+      <c r="AC20">
+        <v>6</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE20">
+        <v>6.5</v>
+      </c>
+      <c r="AF20">
+        <v>6</v>
+      </c>
+      <c r="AG20">
+        <v>6.5</v>
+      </c>
+      <c r="AH20">
+        <v>5</v>
+      </c>
+      <c r="AI20">
         <v>5.5</v>
       </c>
+      <c r="AL20">
+        <v>5</v>
+      </c>
       <c r="AO20">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AP20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ20">
         <v>5.5</v>
       </c>
-      <c r="AR20">
-        <v>5</v>
-      </c>
-      <c r="AS20">
-        <v>5</v>
+      <c r="AT20">
+        <v>4.5</v>
+      </c>
+      <c r="AU20">
+        <v>5</v>
+      </c>
+      <c r="AV20">
+        <v>5</v>
+      </c>
+      <c r="AW20">
+        <v>4.5</v>
+      </c>
+      <c r="AX20">
+        <v>5</v>
+      </c>
+      <c r="AZ20">
+        <v>5</v>
+      </c>
+      <c r="BA20">
+        <v>5.5</v>
+      </c>
+      <c r="BB20">
+        <v>5.5</v>
+      </c>
+      <c r="BC20">
+        <v>4</v>
       </c>
       <c r="BF20">
+        <f>COUNT(B20:BE20)</f>
+        <v>20</v>
+      </c>
+      <c r="BG20" s="18">
+        <f>AVERAGE(B20:BE20)</f>
+        <v>5.3</v>
+      </c>
+      <c r="BH20">
+        <f>IF(BF20&gt;1,_xlfn.STDEV.S(B20:BE20),"")</f>
+        <v>0.67667919787895625</v>
+      </c>
+      <c r="BI20">
+        <v>1</v>
+      </c>
+      <c r="BK20">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="BG20" s="18">
-        <f t="shared" si="1"/>
-        <v>5.0714285714285712</v>
-      </c>
-      <c r="BH20">
-        <f t="shared" si="2"/>
-        <v>0.34503277967117707</v>
-      </c>
-      <c r="BI20">
-        <v>0</v>
-      </c>
-      <c r="BK20">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>346</v>
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21">
+        <v>5.5</v>
+      </c>
+      <c r="G21">
+        <v>4.5</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21" t="s">
+        <v>26</v>
+      </c>
+      <c r="V21" t="s">
+        <v>26</v>
+      </c>
+      <c r="W21" t="s">
+        <v>26</v>
+      </c>
+      <c r="X21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG21">
+        <v>6.5</v>
+      </c>
+      <c r="AI21">
+        <v>4</v>
+      </c>
+      <c r="AJ21">
+        <v>3.5</v>
+      </c>
+      <c r="AK21">
+        <v>3</v>
+      </c>
+      <c r="AL21">
+        <v>5</v>
       </c>
       <c r="AN21">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO21">
         <v>5</v>
       </c>
-      <c r="AQ21">
-        <v>6</v>
-      </c>
-      <c r="AS21">
-        <v>5</v>
-      </c>
-      <c r="AT21">
-        <v>5</v>
-      </c>
-      <c r="AU21">
-        <v>6</v>
-      </c>
       <c r="AW21">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX21">
         <v>4.5</v>
       </c>
       <c r="AY21">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AZ21">
+        <v>4.5</v>
+      </c>
+      <c r="BB21">
         <v>5.5</v>
       </c>
-      <c r="BA21">
-        <v>5</v>
+      <c r="BC21">
+        <v>2.5</v>
       </c>
       <c r="BF21">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>COUNT(B21:BE21)</f>
+        <v>19</v>
       </c>
       <c r="BG21" s="18">
-        <f t="shared" si="1"/>
-        <v>5.3181818181818183</v>
+        <f>AVERAGE(B21:BE21)</f>
+        <v>4.8421052631578947</v>
       </c>
       <c r="BH21">
-        <f t="shared" si="2"/>
-        <v>0.51345531805247047</v>
+        <f>IF(BF21&gt;1,_xlfn.STDEV.S(B21:BE21),"")</f>
+        <v>1.0808000069257777</v>
       </c>
       <c r="BI21">
         <v>0</v>
       </c>
-      <c r="BK21" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="BK21">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
       </c>
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22">
-        <v>7.5</v>
-      </c>
-      <c r="E22">
         <v>7</v>
       </c>
-      <c r="F22">
-        <v>6</v>
+      <c r="C22">
+        <v>5.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
       </c>
       <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>4.5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22">
+        <v>6</v>
+      </c>
+      <c r="Q22">
+        <v>5.5</v>
+      </c>
+      <c r="R22">
         <v>7</v>
       </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
-      <c r="I22">
-        <v>7</v>
-      </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
-      <c r="K22">
-        <v>7</v>
-      </c>
-      <c r="L22">
-        <v>6</v>
-      </c>
-      <c r="M22">
-        <v>6</v>
-      </c>
-      <c r="N22">
-        <v>7</v>
-      </c>
-      <c r="O22">
-        <v>7</v>
-      </c>
-      <c r="P22">
-        <v>7</v>
-      </c>
-      <c r="Q22">
-        <v>7</v>
-      </c>
-      <c r="R22">
-        <v>7.5</v>
-      </c>
       <c r="S22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T22">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="U22">
         <v>7</v>
       </c>
       <c r="V22">
+        <v>5.5</v>
+      </c>
+      <c r="W22">
+        <v>6</v>
+      </c>
+      <c r="X22">
+        <v>5.5</v>
+      </c>
+      <c r="Y22">
         <v>7</v>
       </c>
-      <c r="W22">
-        <v>7</v>
-      </c>
-      <c r="X22">
-        <v>6</v>
-      </c>
-      <c r="Y22">
-        <v>6</v>
-      </c>
-      <c r="Z22">
-        <v>6</v>
+      <c r="Z22" t="s">
+        <v>26</v>
       </c>
       <c r="AA22">
         <v>7</v>
       </c>
       <c r="AB22">
-        <v>7</v>
-      </c>
-      <c r="AC22">
-        <v>7</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE22">
-        <v>7</v>
-      </c>
-      <c r="AF22">
-        <v>6</v>
-      </c>
-      <c r="AG22">
-        <v>6</v>
-      </c>
-      <c r="AH22">
-        <v>5</v>
-      </c>
-      <c r="AI22">
-        <v>6.5</v>
-      </c>
-      <c r="AJ22">
-        <v>5.5</v>
-      </c>
-      <c r="AK22">
-        <v>6.5</v>
-      </c>
-      <c r="AL22">
-        <v>5.5</v>
-      </c>
-      <c r="AN22">
-        <v>6.5</v>
-      </c>
-      <c r="AO22">
-        <v>5.5</v>
-      </c>
-      <c r="AP22">
-        <v>6</v>
-      </c>
-      <c r="AV22">
-        <v>5</v>
-      </c>
-      <c r="AY22">
-        <v>6</v>
-      </c>
-      <c r="BA22">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD22">
+        <v>6</v>
       </c>
       <c r="BB22">
-        <v>6</v>
+        <v>3.5</v>
+      </c>
+      <c r="BC22">
+        <v>4</v>
       </c>
       <c r="BF22">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f>COUNT(B22:BE22)</f>
+        <v>19</v>
       </c>
       <c r="BG22" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5119047619047619</v>
+        <f>AVERAGE(B22:BE22)</f>
+        <v>5.8421052631578947</v>
       </c>
       <c r="BH22">
-        <f t="shared" si="2"/>
-        <v>0.8000616991306343</v>
+        <f>IF(BF22&gt;1,_xlfn.STDEV.S(B22:BE22),"")</f>
+        <v>1.0007307271709465</v>
       </c>
       <c r="BI22">
         <v>0</v>
       </c>
-      <c r="BK22">
-        <f t="shared" si="3"/>
-        <v>6.166666666666667</v>
+      <c r="BK22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
+        <v>7.5</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="E23">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <v>5.5</v>
       </c>
       <c r="H23">
+        <v>4.5</v>
+      </c>
+      <c r="I23">
+        <v>5.5</v>
+      </c>
+      <c r="J23">
+        <v>5.5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23">
         <v>7</v>
       </c>
-      <c r="I23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23">
-        <v>6</v>
-      </c>
-      <c r="K23">
-        <v>6</v>
-      </c>
-      <c r="L23">
+      <c r="P23">
+        <v>6</v>
+      </c>
+      <c r="Q23">
+        <v>6</v>
+      </c>
+      <c r="R23">
+        <v>7</v>
+      </c>
+      <c r="S23" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" t="s">
+        <v>26</v>
+      </c>
+      <c r="U23" t="s">
+        <v>26</v>
+      </c>
+      <c r="V23" t="s">
+        <v>26</v>
+      </c>
+      <c r="W23" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y23">
+        <v>6</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE23">
+        <v>6.5</v>
+      </c>
+      <c r="AI23">
+        <v>5</v>
+      </c>
+      <c r="AL23">
         <v>5.5</v>
       </c>
-      <c r="M23">
-        <v>6</v>
-      </c>
-      <c r="N23" t="s">
-        <v>26</v>
-      </c>
-      <c r="O23">
-        <v>5.5</v>
-      </c>
-      <c r="P23">
-        <v>6</v>
-      </c>
-      <c r="Q23">
-        <v>4.5</v>
-      </c>
-      <c r="R23">
-        <v>6</v>
-      </c>
-      <c r="S23">
-        <v>7</v>
-      </c>
-      <c r="T23">
-        <v>5.5</v>
-      </c>
-      <c r="U23">
-        <v>5.5</v>
-      </c>
-      <c r="V23">
-        <v>5.5</v>
-      </c>
-      <c r="W23">
-        <v>5.5</v>
-      </c>
-      <c r="X23">
-        <v>6</v>
-      </c>
-      <c r="Y23">
-        <v>5.5</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA23">
-        <v>7</v>
-      </c>
-      <c r="AB23">
-        <v>6</v>
-      </c>
-      <c r="AC23">
-        <v>6</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE23">
-        <v>7</v>
-      </c>
-      <c r="AH23">
-        <v>6.5</v>
-      </c>
-      <c r="AI23">
-        <v>4.5</v>
-      </c>
-      <c r="AK23">
-        <v>5</v>
-      </c>
-      <c r="AL23">
-        <v>5</v>
-      </c>
-      <c r="AM23">
-        <v>5.5</v>
-      </c>
-      <c r="AN23">
-        <v>4</v>
-      </c>
-      <c r="AT23">
-        <v>4.5</v>
-      </c>
-      <c r="AZ23">
-        <v>4.5</v>
+      <c r="AU23">
+        <v>5</v>
+      </c>
+      <c r="BA23">
+        <v>5</v>
       </c>
       <c r="BF23">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f>COUNT(B23:BE23)</f>
+        <v>19</v>
       </c>
       <c r="BG23" s="18">
-        <f t="shared" si="1"/>
-        <v>5.6212121212121211</v>
+        <f>AVERAGE(B23:BE23)</f>
+        <v>5.8421052631578947</v>
       </c>
       <c r="BH23">
-        <f t="shared" si="2"/>
-        <v>0.83880777586314992</v>
+        <f>IF(BF23&gt;1,_xlfn.STDEV.S(B23:BE23),"")</f>
+        <v>0.95819030206465661</v>
       </c>
       <c r="BI23">
         <v>0</v>
       </c>
       <c r="BK23">
-        <f t="shared" si="3"/>
-        <v>4.75</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="s">
-        <v>26</v>
+      <c r="D24">
+        <v>4</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24">
         <v>5.5</v>
       </c>
-      <c r="G24">
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
         <v>4.5</v>
       </c>
-      <c r="H24">
-        <v>6</v>
-      </c>
-      <c r="I24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" t="s">
-        <v>26</v>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>7</v>
       </c>
       <c r="L24" t="s">
         <v>26</v>
@@ -5957,26 +6166,26 @@
       <c r="N24" t="s">
         <v>26</v>
       </c>
-      <c r="O24" t="s">
-        <v>26</v>
+      <c r="O24">
+        <v>5.5</v>
       </c>
       <c r="P24" t="s">
         <v>26</v>
       </c>
-      <c r="Q24">
-        <v>6</v>
+      <c r="Q24" t="s">
+        <v>26</v>
       </c>
       <c r="R24" t="s">
         <v>26</v>
       </c>
-      <c r="S24">
-        <v>6</v>
-      </c>
-      <c r="T24">
-        <v>6</v>
-      </c>
-      <c r="U24" t="s">
-        <v>26</v>
+      <c r="S24" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" t="s">
+        <v>26</v>
+      </c>
+      <c r="U24">
+        <v>6</v>
       </c>
       <c r="V24" t="s">
         <v>26</v>
@@ -5993,72 +6202,54 @@
       <c r="Z24" t="s">
         <v>26</v>
       </c>
-      <c r="AA24" t="s">
-        <v>26</v>
+      <c r="AA24">
+        <v>7</v>
       </c>
       <c r="AB24" t="s">
         <v>26</v>
       </c>
-      <c r="AC24" t="s">
-        <v>26</v>
+      <c r="AC24">
+        <v>7</v>
       </c>
       <c r="AD24" t="s">
         <v>26</v>
       </c>
-      <c r="AG24">
-        <v>6.5</v>
-      </c>
       <c r="AI24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ24">
-        <v>3.5</v>
-      </c>
-      <c r="AK24">
-        <v>3</v>
-      </c>
-      <c r="AL24">
         <v>5</v>
       </c>
       <c r="AN24">
         <v>5</v>
       </c>
-      <c r="AO24">
-        <v>5</v>
-      </c>
-      <c r="AW24">
+      <c r="AP24">
+        <v>5.5</v>
+      </c>
+      <c r="AQ24">
+        <v>4</v>
+      </c>
+      <c r="AV24">
         <v>4.5</v>
       </c>
-      <c r="AX24">
-        <v>4.5</v>
-      </c>
-      <c r="AY24">
-        <v>4.5</v>
-      </c>
-      <c r="AZ24">
-        <v>4.5</v>
-      </c>
-      <c r="BB24">
-        <v>5.5</v>
-      </c>
       <c r="BF24">
+        <f>COUNT(B24:BE24)</f>
+        <v>17</v>
+      </c>
+      <c r="BG24" s="18">
+        <f>AVERAGE(B24:BE24)</f>
+        <v>5.4411764705882355</v>
+      </c>
+      <c r="BH24">
+        <f>IF(BF24&gt;1,_xlfn.STDEV.S(B24:BE24),"")</f>
+        <v>1.0880365478290537</v>
+      </c>
+      <c r="BI24">
+        <v>1</v>
+      </c>
+      <c r="BK24">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="BG24" s="18">
-        <f t="shared" si="1"/>
-        <v>4.9722222222222223</v>
-      </c>
-      <c r="BH24">
-        <f t="shared" si="2"/>
-        <v>0.94670049649578081</v>
-      </c>
-      <c r="BI24">
-        <v>0</v>
-      </c>
-      <c r="BK24">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.3">
@@ -6162,64 +6353,64 @@
         <v>3.5</v>
       </c>
       <c r="BF25">
-        <f t="shared" si="0"/>
+        <f>COUNT(B25:BE25)</f>
         <v>13</v>
       </c>
       <c r="BG25" s="18">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(B25:BE25)</f>
         <v>5.2307692307692308</v>
       </c>
       <c r="BH25">
-        <f t="shared" si="2"/>
+        <f>IF(BF25&gt;1,_xlfn.STDEV.S(B25:BE25),"")</f>
         <v>1.1657505560686472</v>
       </c>
       <c r="BI25">
         <v>0</v>
       </c>
       <c r="BK25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
+        <v>1.5</v>
+      </c>
+      <c r="D26">
+        <v>4.5</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>7.5</v>
+      </c>
+      <c r="G26">
         <v>5.5</v>
       </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
       <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
         <v>4.5</v>
       </c>
-      <c r="I26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M26" t="s">
-        <v>26</v>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>5.5</v>
+      </c>
+      <c r="L26">
+        <v>2.5</v>
+      </c>
+      <c r="M26">
+        <v>1.5</v>
       </c>
       <c r="N26" t="s">
         <v>26</v>
@@ -6227,44 +6418,44 @@
       <c r="O26" t="s">
         <v>26</v>
       </c>
-      <c r="P26">
-        <v>6</v>
-      </c>
-      <c r="Q26">
-        <v>5.5</v>
-      </c>
-      <c r="R26">
-        <v>7</v>
-      </c>
-      <c r="S26">
-        <v>6</v>
-      </c>
-      <c r="T26">
-        <v>6</v>
-      </c>
-      <c r="U26">
-        <v>7</v>
-      </c>
-      <c r="V26">
-        <v>5.5</v>
-      </c>
-      <c r="W26">
-        <v>6</v>
-      </c>
-      <c r="X26">
-        <v>5.5</v>
-      </c>
-      <c r="Y26">
-        <v>7</v>
+      <c r="P26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" t="s">
+        <v>26</v>
+      </c>
+      <c r="T26" t="s">
+        <v>26</v>
+      </c>
+      <c r="U26" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>26</v>
       </c>
       <c r="Z26" t="s">
         <v>26</v>
       </c>
-      <c r="AA26">
-        <v>7</v>
-      </c>
-      <c r="AB26">
-        <v>6</v>
+      <c r="AA26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>26</v>
       </c>
       <c r="AC26" t="s">
         <v>26</v>
@@ -6272,83 +6463,80 @@
       <c r="AD26">
         <v>6</v>
       </c>
-      <c r="BB26">
-        <v>3.5</v>
-      </c>
       <c r="BF26">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>COUNT(B26:BE26)</f>
+        <v>13</v>
       </c>
       <c r="BG26" s="18">
-        <f t="shared" si="1"/>
-        <v>5.9444444444444446</v>
+        <f>AVERAGE(B26:BE26)</f>
+        <v>4.4615384615384617</v>
       </c>
       <c r="BH26">
-        <f t="shared" si="2"/>
-        <v>0.92177719792495405</v>
+        <f>IF(BF26&gt;1,_xlfn.STDEV.S(B26:BE26),"")</f>
+        <v>1.875961292039569</v>
       </c>
       <c r="BI26">
         <v>0</v>
       </c>
       <c r="BK26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B27">
-        <v>7.5</v>
-      </c>
-      <c r="C27">
-        <v>6</v>
+        <v>8.5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
       </c>
       <c r="D27">
         <v>7.5</v>
       </c>
       <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="F27">
-        <v>6</v>
-      </c>
-      <c r="G27">
-        <v>5.5</v>
+        <v>7.5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
       </c>
       <c r="H27">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="I27">
-        <v>5.5</v>
-      </c>
-      <c r="J27">
-        <v>5.5</v>
-      </c>
-      <c r="K27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" t="s">
-        <v>26</v>
-      </c>
-      <c r="O27">
+        <v>7.5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>7.5</v>
+      </c>
+      <c r="M27">
         <v>7</v>
       </c>
-      <c r="P27">
-        <v>6</v>
-      </c>
-      <c r="Q27">
-        <v>6</v>
+      <c r="N27">
+        <v>6</v>
+      </c>
+      <c r="O27" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>26</v>
       </c>
       <c r="R27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S27" t="s">
         <v>26</v>
@@ -6368,8 +6556,8 @@
       <c r="X27" t="s">
         <v>26</v>
       </c>
-      <c r="Y27">
-        <v>6</v>
+      <c r="Y27" t="s">
+        <v>26</v>
       </c>
       <c r="Z27" t="s">
         <v>26</v>
@@ -6386,275 +6574,236 @@
       <c r="AD27" t="s">
         <v>26</v>
       </c>
-      <c r="AE27">
+      <c r="AG27">
         <v>6.5</v>
       </c>
-      <c r="AI27">
-        <v>5</v>
-      </c>
-      <c r="AL27">
-        <v>5.5</v>
-      </c>
-      <c r="AU27">
-        <v>5</v>
-      </c>
-      <c r="BA27">
+      <c r="AN27">
+        <v>6</v>
+      </c>
+      <c r="BB27">
         <v>5</v>
       </c>
       <c r="BF27">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>COUNT(B27:BE27)</f>
+        <v>13</v>
       </c>
       <c r="BG27" s="18">
-        <f t="shared" si="1"/>
-        <v>5.8421052631578947</v>
+        <f>AVERAGE(B27:BE27)</f>
+        <v>6.9230769230769234</v>
       </c>
       <c r="BH27">
-        <f t="shared" si="2"/>
-        <v>0.95819030206465661</v>
+        <f>IF(BF27&gt;1,_xlfn.STDEV.S(B27:BE27),"")</f>
+        <v>1.1336914969498575</v>
       </c>
       <c r="BI27">
         <v>0</v>
       </c>
-      <c r="BK27">
-        <f t="shared" si="3"/>
-        <v>5</v>
+      <c r="BK27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>1.5</v>
-      </c>
-      <c r="D28">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" t="s">
+        <v>26</v>
+      </c>
+      <c r="S28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T28" t="s">
+        <v>26</v>
+      </c>
+      <c r="U28" t="s">
+        <v>26</v>
+      </c>
+      <c r="V28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W28" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28">
+        <v>6</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z28">
+        <v>5.5</v>
+      </c>
+      <c r="AA28">
+        <v>4</v>
+      </c>
+      <c r="AB28">
+        <v>3</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG28">
+        <v>6</v>
+      </c>
+      <c r="AH28">
+        <v>5</v>
+      </c>
+      <c r="AJ28">
         <v>4.5</v>
       </c>
-      <c r="E28">
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <v>7.5</v>
-      </c>
-      <c r="G28">
+      <c r="AK28">
+        <v>5</v>
+      </c>
+      <c r="AO28">
+        <v>4</v>
+      </c>
+      <c r="AP28">
         <v>5.5</v>
       </c>
-      <c r="H28">
-        <v>6</v>
-      </c>
-      <c r="I28">
+      <c r="AR28">
+        <v>3.5</v>
+      </c>
+      <c r="AW28">
+        <v>3.5</v>
+      </c>
+      <c r="BA28">
+        <v>3</v>
+      </c>
+      <c r="BF28">
+        <f>COUNT(B28:BE28)</f>
+        <v>13</v>
+      </c>
+      <c r="BG28" s="18">
+        <f>AVERAGE(B28:BE28)</f>
         <v>4.5</v>
       </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="K28">
-        <v>5.5</v>
-      </c>
-      <c r="L28">
-        <v>2.5</v>
-      </c>
-      <c r="M28">
-        <v>1.5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>26</v>
-      </c>
-      <c r="O28" t="s">
-        <v>26</v>
-      </c>
-      <c r="P28" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>26</v>
-      </c>
-      <c r="R28" t="s">
-        <v>26</v>
-      </c>
-      <c r="S28" t="s">
-        <v>26</v>
-      </c>
-      <c r="T28" t="s">
-        <v>26</v>
-      </c>
-      <c r="U28" t="s">
-        <v>26</v>
-      </c>
-      <c r="V28" t="s">
-        <v>26</v>
-      </c>
-      <c r="W28" t="s">
-        <v>26</v>
-      </c>
-      <c r="X28" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD28">
-        <v>6</v>
-      </c>
-      <c r="BF28">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="BG28" s="18">
-        <f t="shared" si="1"/>
-        <v>4.4615384615384617</v>
-      </c>
       <c r="BH28">
-        <f t="shared" si="2"/>
-        <v>1.875961292039569</v>
+        <f>IF(BF28&gt;1,_xlfn.STDEV.S(B28:BE28),"")</f>
+        <v>1.0801234497346435</v>
       </c>
       <c r="BI28">
         <v>0</v>
       </c>
-      <c r="BK28" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="BK28">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
       </c>
     </row>
     <row r="29" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>346</v>
+      </c>
+      <c r="AN29">
+        <v>5.5</v>
+      </c>
+      <c r="AO29">
+        <v>5</v>
+      </c>
+      <c r="AQ29">
+        <v>6</v>
+      </c>
+      <c r="AS29">
+        <v>5</v>
+      </c>
+      <c r="AT29">
+        <v>5</v>
+      </c>
+      <c r="AU29">
+        <v>6</v>
+      </c>
+      <c r="AW29">
+        <v>5</v>
+      </c>
+      <c r="AX29">
+        <v>4.5</v>
+      </c>
+      <c r="AY29">
+        <v>6</v>
+      </c>
+      <c r="AZ29">
+        <v>5.5</v>
+      </c>
+      <c r="BA29">
+        <v>5</v>
+      </c>
+      <c r="BC29">
+        <v>4.5</v>
+      </c>
+      <c r="BF29">
+        <f>COUNT(B29:BE29)</f>
         <v>12</v>
       </c>
-      <c r="B29">
-        <v>8.5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29">
-        <v>7.5</v>
-      </c>
-      <c r="E29">
-        <v>7.5</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="I29">
-        <v>7.5</v>
-      </c>
-      <c r="J29" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29">
-        <v>6</v>
-      </c>
-      <c r="L29">
-        <v>7.5</v>
-      </c>
-      <c r="M29">
-        <v>7</v>
-      </c>
-      <c r="N29">
-        <v>6</v>
-      </c>
-      <c r="O29" t="s">
-        <v>26</v>
-      </c>
-      <c r="P29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>26</v>
-      </c>
-      <c r="R29">
-        <v>9</v>
-      </c>
-      <c r="S29" t="s">
-        <v>26</v>
-      </c>
-      <c r="T29" t="s">
-        <v>26</v>
-      </c>
-      <c r="U29" t="s">
-        <v>26</v>
-      </c>
-      <c r="V29" t="s">
-        <v>26</v>
-      </c>
-      <c r="W29" t="s">
-        <v>26</v>
-      </c>
-      <c r="X29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG29">
-        <v>6.5</v>
-      </c>
-      <c r="AN29">
-        <v>6</v>
-      </c>
-      <c r="BB29">
-        <v>5</v>
-      </c>
-      <c r="BF29">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
       <c r="BG29" s="18">
-        <f t="shared" si="1"/>
-        <v>6.9230769230769234</v>
+        <f>AVERAGE(B29:BE29)</f>
+        <v>5.25</v>
       </c>
       <c r="BH29">
-        <f t="shared" si="2"/>
-        <v>1.1336914969498575</v>
+        <f>IF(BF29&gt;1,_xlfn.STDEV.S(B29:BE29),"")</f>
+        <v>0.54355730650460898</v>
       </c>
       <c r="BI29">
         <v>0</v>
       </c>
       <c r="BK29" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -6662,44 +6811,44 @@
       <c r="C30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30">
-        <v>7.5</v>
-      </c>
-      <c r="H30">
-        <v>7.5</v>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>5.5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
       </c>
       <c r="I30" t="s">
         <v>26</v>
       </c>
-      <c r="J30">
-        <v>8.5</v>
+      <c r="J30" t="s">
+        <v>26</v>
       </c>
       <c r="K30">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="L30">
-        <v>7.5</v>
-      </c>
-      <c r="M30">
-        <v>7.5</v>
+        <v>7</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
       </c>
       <c r="N30">
         <v>7.5</v>
       </c>
-      <c r="O30">
-        <v>9</v>
-      </c>
-      <c r="P30">
-        <v>8.5</v>
+      <c r="O30" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" t="s">
+        <v>26</v>
       </c>
       <c r="Q30" t="s">
         <v>26</v>
@@ -6707,8 +6856,8 @@
       <c r="R30" t="s">
         <v>26</v>
       </c>
-      <c r="S30" t="s">
-        <v>26</v>
+      <c r="S30">
+        <v>7</v>
       </c>
       <c r="T30" t="s">
         <v>26</v>
@@ -6743,35 +6892,47 @@
       <c r="AD30" t="s">
         <v>26</v>
       </c>
+      <c r="AR30">
+        <v>5.5</v>
+      </c>
+      <c r="AU30">
+        <v>5.5</v>
+      </c>
+      <c r="AW30">
+        <v>4.5</v>
+      </c>
+      <c r="BB30">
+        <v>5.5</v>
+      </c>
       <c r="BF30">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>COUNT(B30:BE30)</f>
+        <v>11</v>
       </c>
       <c r="BG30" s="18">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f>AVERAGE(B30:BE30)</f>
+        <v>6.2727272727272725</v>
       </c>
       <c r="BH30">
-        <f t="shared" si="2"/>
-        <v>0.61237243569579447</v>
+        <f>IF(BF30&gt;1,_xlfn.STDEV.S(B30:BE30),"")</f>
+        <v>0.98396230526469797</v>
       </c>
       <c r="BI30">
         <v>0</v>
       </c>
       <c r="BK30" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="C31">
-        <v>5.5</v>
+      <c r="C31" t="s">
+        <v>26</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -6788,17 +6949,17 @@
       <c r="H31" t="s">
         <v>26</v>
       </c>
-      <c r="I31" t="s">
-        <v>26</v>
+      <c r="I31">
+        <v>7</v>
       </c>
       <c r="J31" t="s">
         <v>26</v>
       </c>
-      <c r="K31" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31" t="s">
-        <v>26</v>
+      <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="L31">
+        <v>7.5</v>
       </c>
       <c r="M31" t="s">
         <v>26</v>
@@ -6816,70 +6977,82 @@
         <v>26</v>
       </c>
       <c r="R31">
+        <v>7</v>
+      </c>
+      <c r="S31" t="s">
+        <v>26</v>
+      </c>
+      <c r="T31" t="s">
+        <v>26</v>
+      </c>
+      <c r="U31">
+        <v>7</v>
+      </c>
+      <c r="V31" t="s">
+        <v>26</v>
+      </c>
+      <c r="W31" t="s">
+        <v>26</v>
+      </c>
+      <c r="X31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD31">
+        <v>6</v>
+      </c>
+      <c r="AS31">
+        <v>5</v>
+      </c>
+      <c r="AT31">
+        <v>5</v>
+      </c>
+      <c r="AX31">
+        <v>6</v>
+      </c>
+      <c r="AY31">
         <v>4.5</v>
       </c>
-      <c r="S31" t="s">
-        <v>26</v>
-      </c>
-      <c r="T31" t="s">
-        <v>26</v>
-      </c>
-      <c r="U31" t="s">
-        <v>26</v>
-      </c>
-      <c r="V31" t="s">
-        <v>26</v>
-      </c>
-      <c r="W31" t="s">
-        <v>26</v>
-      </c>
-      <c r="X31" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y31">
-        <v>5.5</v>
-      </c>
-      <c r="Z31">
-        <v>5.5</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB31">
-        <v>5.5</v>
-      </c>
-      <c r="AC31">
-        <v>5.5</v>
-      </c>
-      <c r="AD31">
-        <v>4</v>
-      </c>
-      <c r="AH31">
-        <v>4</v>
+      <c r="BB31">
+        <v>5</v>
       </c>
       <c r="BF31">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>COUNT(B31:BE31)</f>
+        <v>11</v>
       </c>
       <c r="BG31" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>AVERAGE(B31:BE31)</f>
+        <v>6.0909090909090908</v>
       </c>
       <c r="BH31">
-        <f t="shared" si="2"/>
-        <v>0.70710678118654757</v>
+        <f>IF(BF31&gt;1,_xlfn.STDEV.S(B31:BE31),"")</f>
+        <v>1.0681334611878299</v>
       </c>
       <c r="BI31">
         <v>0</v>
       </c>
       <c r="BK31" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -6887,44 +7060,44 @@
       <c r="C32" t="s">
         <v>26</v>
       </c>
-      <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="E32">
-        <v>7</v>
-      </c>
-      <c r="F32">
-        <v>5.5</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" t="s">
-        <v>26</v>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32">
+        <v>7.5</v>
+      </c>
+      <c r="H32">
+        <v>7.5</v>
       </c>
       <c r="I32" t="s">
         <v>26</v>
       </c>
-      <c r="J32" t="s">
-        <v>26</v>
+      <c r="J32">
+        <v>8.5</v>
       </c>
       <c r="K32">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="L32">
-        <v>7</v>
-      </c>
-      <c r="M32" t="s">
-        <v>26</v>
+        <v>7.5</v>
+      </c>
+      <c r="M32">
+        <v>7.5</v>
       </c>
       <c r="N32">
         <v>7.5</v>
       </c>
-      <c r="O32" t="s">
-        <v>26</v>
-      </c>
-      <c r="P32" t="s">
-        <v>26</v>
+      <c r="O32">
+        <v>9</v>
+      </c>
+      <c r="P32">
+        <v>8.5</v>
       </c>
       <c r="Q32" t="s">
         <v>26</v>
@@ -6932,8 +7105,8 @@
       <c r="R32" t="s">
         <v>26</v>
       </c>
-      <c r="S32">
-        <v>7</v>
+      <c r="S32" t="s">
+        <v>26</v>
       </c>
       <c r="T32" t="s">
         <v>26</v>
@@ -6968,47 +7141,35 @@
       <c r="AD32" t="s">
         <v>26</v>
       </c>
-      <c r="AR32">
-        <v>5.5</v>
-      </c>
-      <c r="AU32">
-        <v>5.5</v>
-      </c>
-      <c r="AW32">
-        <v>4.5</v>
-      </c>
-      <c r="BB32">
-        <v>5.5</v>
-      </c>
       <c r="BF32">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>COUNT(B32:BE32)</f>
+        <v>9</v>
       </c>
       <c r="BG32" s="18">
-        <f t="shared" si="1"/>
-        <v>6.2727272727272725</v>
+        <f>AVERAGE(B32:BE32)</f>
+        <v>8</v>
       </c>
       <c r="BH32">
-        <f t="shared" si="2"/>
-        <v>0.98396230526469797</v>
+        <f>IF(BF32&gt;1,_xlfn.STDEV.S(B32:BE32),"")</f>
+        <v>0.61237243569579447</v>
       </c>
       <c r="BI32">
         <v>0</v>
       </c>
       <c r="BK32" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
-      <c r="C33" t="s">
-        <v>26</v>
+      <c r="C33">
+        <v>5.5</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
@@ -7025,17 +7186,17 @@
       <c r="H33" t="s">
         <v>26</v>
       </c>
-      <c r="I33">
-        <v>7</v>
+      <c r="I33" t="s">
+        <v>26</v>
       </c>
       <c r="J33" t="s">
         <v>26</v>
       </c>
-      <c r="K33">
-        <v>7</v>
-      </c>
-      <c r="L33">
-        <v>7.5</v>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
       </c>
       <c r="M33" t="s">
         <v>26</v>
@@ -7053,7 +7214,7 @@
         <v>26</v>
       </c>
       <c r="R33">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="S33" t="s">
         <v>26</v>
@@ -7061,8 +7222,8 @@
       <c r="T33" t="s">
         <v>26</v>
       </c>
-      <c r="U33">
-        <v>7</v>
+      <c r="U33" t="s">
+        <v>26</v>
       </c>
       <c r="V33" t="s">
         <v>26</v>
@@ -7073,200 +7234,95 @@
       <c r="X33" t="s">
         <v>26</v>
       </c>
-      <c r="Y33" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>26</v>
+      <c r="Y33">
+        <v>5.5</v>
+      </c>
+      <c r="Z33">
+        <v>5.5</v>
       </c>
       <c r="AA33" t="s">
         <v>26</v>
       </c>
-      <c r="AB33" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>26</v>
+      <c r="AB33">
+        <v>5.5</v>
+      </c>
+      <c r="AC33">
+        <v>5.5</v>
       </c>
       <c r="AD33">
-        <v>6</v>
-      </c>
-      <c r="AS33">
-        <v>5</v>
-      </c>
-      <c r="AT33">
-        <v>5</v>
-      </c>
-      <c r="AX33">
-        <v>6</v>
-      </c>
-      <c r="AY33">
-        <v>4.5</v>
-      </c>
-      <c r="BB33">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AH33">
+        <v>4</v>
       </c>
       <c r="BF33">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>COUNT(B33:BE33)</f>
+        <v>8</v>
       </c>
       <c r="BG33" s="18">
-        <f t="shared" si="1"/>
-        <v>6.0909090909090908</v>
+        <f>AVERAGE(B33:BE33)</f>
+        <v>5</v>
       </c>
       <c r="BH33">
-        <f t="shared" si="2"/>
-        <v>1.0681334611878299</v>
+        <f>IF(BF33&gt;1,_xlfn.STDEV.S(B33:BE33),"")</f>
+        <v>0.70710678118654757</v>
       </c>
       <c r="BI33">
         <v>0</v>
       </c>
       <c r="BK33" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" t="s">
-        <v>26</v>
-      </c>
-      <c r="J34" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" t="s">
-        <v>26</v>
-      </c>
-      <c r="M34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" t="s">
-        <v>26</v>
-      </c>
-      <c r="O34" t="s">
-        <v>26</v>
-      </c>
-      <c r="P34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>26</v>
-      </c>
-      <c r="R34" t="s">
-        <v>26</v>
-      </c>
-      <c r="S34" t="s">
-        <v>26</v>
-      </c>
-      <c r="T34" t="s">
-        <v>26</v>
-      </c>
-      <c r="U34" t="s">
-        <v>26</v>
-      </c>
-      <c r="V34" t="s">
-        <v>26</v>
-      </c>
-      <c r="W34" t="s">
-        <v>26</v>
-      </c>
-      <c r="X34">
-        <v>6</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z34">
+        <v>340</v>
+      </c>
+      <c r="AJ34">
+        <v>5</v>
+      </c>
+      <c r="AN34">
         <v>5.5</v>
       </c>
-      <c r="AA34">
-        <v>4</v>
-      </c>
-      <c r="AB34">
-        <v>3</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG34">
-        <v>6</v>
-      </c>
-      <c r="AH34">
-        <v>5</v>
-      </c>
-      <c r="AJ34">
+      <c r="AO34">
         <v>4.5</v>
       </c>
-      <c r="AK34">
-        <v>5</v>
-      </c>
-      <c r="AO34">
-        <v>4</v>
-      </c>
       <c r="AP34">
+        <v>5</v>
+      </c>
+      <c r="AQ34">
         <v>5.5</v>
       </c>
       <c r="AR34">
-        <v>3.5</v>
-      </c>
-      <c r="AW34">
-        <v>3.5</v>
-      </c>
-      <c r="BA34">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AS34">
+        <v>5</v>
       </c>
       <c r="BF34">
-        <f t="shared" ref="BF34:BF65" si="4">COUNT(B34:BE34)</f>
-        <v>13</v>
+        <f>COUNT(B34:BE34)</f>
+        <v>7</v>
       </c>
       <c r="BG34" s="18">
-        <f t="shared" ref="BG34:BG66" si="5">AVERAGE(B34:BE34)</f>
-        <v>4.5</v>
+        <f>AVERAGE(B34:BE34)</f>
+        <v>5.0714285714285712</v>
       </c>
       <c r="BH34">
-        <f t="shared" ref="BH34:BH66" si="6">IF(BF34&gt;1,_xlfn.STDEV.S(B34:BE34),"")</f>
-        <v>1.0801234497346435</v>
+        <f>IF(BF34&gt;1,_xlfn.STDEV.S(B34:BE34),"")</f>
+        <v>0.34503277967117707</v>
       </c>
       <c r="BI34">
         <v>0</v>
       </c>
       <c r="BK34">
-        <f t="shared" si="3"/>
-        <v>4.75</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -7277,8 +7333,8 @@
       <c r="D35" t="s">
         <v>26</v>
       </c>
-      <c r="E35">
-        <v>7.5</v>
+      <c r="E35" t="s">
+        <v>26</v>
       </c>
       <c r="F35" t="s">
         <v>26</v>
@@ -7292,20 +7348,20 @@
       <c r="I35" t="s">
         <v>26</v>
       </c>
-      <c r="J35">
-        <v>8.5</v>
+      <c r="J35" t="s">
+        <v>26</v>
       </c>
       <c r="K35" t="s">
         <v>26</v>
       </c>
-      <c r="L35">
-        <v>7.5</v>
+      <c r="L35" t="s">
+        <v>26</v>
       </c>
       <c r="M35" t="s">
         <v>26</v>
       </c>
-      <c r="N35">
-        <v>7</v>
+      <c r="N35" t="s">
+        <v>26</v>
       </c>
       <c r="O35" t="s">
         <v>26</v>
@@ -7319,20 +7375,20 @@
       <c r="R35" t="s">
         <v>26</v>
       </c>
-      <c r="S35" t="s">
-        <v>26</v>
+      <c r="S35">
+        <v>4.5</v>
       </c>
       <c r="T35" t="s">
         <v>26</v>
       </c>
-      <c r="U35" t="s">
-        <v>26</v>
+      <c r="U35">
+        <v>4.5</v>
       </c>
       <c r="V35" t="s">
         <v>26</v>
       </c>
-      <c r="W35" t="s">
-        <v>26</v>
+      <c r="W35">
+        <v>5.5</v>
       </c>
       <c r="X35" t="s">
         <v>26</v>
@@ -7355,29 +7411,35 @@
       <c r="AD35" t="s">
         <v>26</v>
       </c>
+      <c r="AK35">
+        <v>3.5</v>
+      </c>
+      <c r="AY35">
+        <v>4.5</v>
+      </c>
       <c r="BF35">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>COUNT(B35:BE35)</f>
+        <v>5</v>
       </c>
       <c r="BG35" s="18">
-        <f t="shared" si="5"/>
-        <v>7.625</v>
+        <f>AVERAGE(B35:BE35)</f>
+        <v>4.5</v>
       </c>
       <c r="BH35">
-        <f t="shared" si="6"/>
-        <v>0.62915286960589578</v>
+        <f>IF(BF35&gt;1,_xlfn.STDEV.S(B35:BE35),"")</f>
+        <v>0.70710678118654757</v>
       </c>
       <c r="BI35">
         <v>0</v>
       </c>
-      <c r="BK35" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="BK35">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
       </c>
     </row>
     <row r="36" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -7388,8 +7450,8 @@
       <c r="D36" t="s">
         <v>26</v>
       </c>
-      <c r="E36" t="s">
-        <v>26</v>
+      <c r="E36">
+        <v>7.5</v>
       </c>
       <c r="F36" t="s">
         <v>26</v>
@@ -7403,20 +7465,20 @@
       <c r="I36" t="s">
         <v>26</v>
       </c>
-      <c r="J36" t="s">
-        <v>26</v>
+      <c r="J36">
+        <v>8.5</v>
       </c>
       <c r="K36" t="s">
         <v>26</v>
       </c>
-      <c r="L36" t="s">
-        <v>26</v>
+      <c r="L36">
+        <v>7.5</v>
       </c>
       <c r="M36" t="s">
         <v>26</v>
       </c>
-      <c r="N36" t="s">
-        <v>26</v>
+      <c r="N36">
+        <v>7</v>
       </c>
       <c r="O36" t="s">
         <v>26</v>
@@ -7427,14 +7489,14 @@
       <c r="Q36" t="s">
         <v>26</v>
       </c>
-      <c r="R36">
-        <v>7</v>
-      </c>
-      <c r="S36">
-        <v>5.5</v>
-      </c>
-      <c r="T36">
-        <v>5.5</v>
+      <c r="R36" t="s">
+        <v>26</v>
+      </c>
+      <c r="S36" t="s">
+        <v>26</v>
+      </c>
+      <c r="T36" t="s">
+        <v>26</v>
       </c>
       <c r="U36" t="s">
         <v>26</v>
@@ -7442,8 +7504,8 @@
       <c r="V36" t="s">
         <v>26</v>
       </c>
-      <c r="W36">
-        <v>6</v>
+      <c r="W36" t="s">
+        <v>26</v>
       </c>
       <c r="X36" t="s">
         <v>26</v>
@@ -7467,28 +7529,28 @@
         <v>26</v>
       </c>
       <c r="BF36">
-        <f t="shared" si="4"/>
+        <f>COUNT(B36:BE36)</f>
         <v>4</v>
       </c>
       <c r="BG36" s="18">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f>AVERAGE(B36:BE36)</f>
+        <v>7.625</v>
       </c>
       <c r="BH36">
-        <f t="shared" si="6"/>
-        <v>0.70710678118654757</v>
+        <f>IF(BF36&gt;1,_xlfn.STDEV.S(B36:BE36),"")</f>
+        <v>0.62915286960589578</v>
       </c>
       <c r="BI36">
         <v>0</v>
       </c>
       <c r="BK36" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -7523,8 +7585,8 @@
       <c r="L37" t="s">
         <v>26</v>
       </c>
-      <c r="M37">
-        <v>6</v>
+      <c r="M37" t="s">
+        <v>26</v>
       </c>
       <c r="N37" t="s">
         <v>26</v>
@@ -7538,23 +7600,23 @@
       <c r="Q37" t="s">
         <v>26</v>
       </c>
-      <c r="R37" t="s">
-        <v>26</v>
-      </c>
-      <c r="S37" t="s">
-        <v>26</v>
-      </c>
-      <c r="T37" t="s">
-        <v>26</v>
+      <c r="R37">
+        <v>7</v>
+      </c>
+      <c r="S37">
+        <v>5.5</v>
+      </c>
+      <c r="T37">
+        <v>5.5</v>
       </c>
       <c r="U37" t="s">
         <v>26</v>
       </c>
-      <c r="V37">
-        <v>7</v>
+      <c r="V37" t="s">
+        <v>26</v>
       </c>
       <c r="W37">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X37" t="s">
         <v>26</v>
@@ -7577,38 +7639,35 @@
       <c r="AD37" t="s">
         <v>26</v>
       </c>
-      <c r="AO37">
-        <v>5.5</v>
-      </c>
       <c r="BF37">
-        <f t="shared" si="4"/>
+        <f>COUNT(B37:BE37)</f>
         <v>4</v>
       </c>
       <c r="BG37" s="18">
-        <f t="shared" si="5"/>
-        <v>6.5</v>
+        <f>AVERAGE(B37:BE37)</f>
+        <v>6</v>
       </c>
       <c r="BH37">
-        <f t="shared" si="6"/>
-        <v>0.9128709291752769</v>
+        <f>IF(BF37&gt;1,_xlfn.STDEV.S(B37:BE37),"")</f>
+        <v>0.70710678118654757</v>
       </c>
       <c r="BI37">
         <v>0</v>
       </c>
       <c r="BK37" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
       </c>
-      <c r="C38">
-        <v>4</v>
+      <c r="C38" t="s">
+        <v>26</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
@@ -7637,8 +7696,8 @@
       <c r="L38" t="s">
         <v>26</v>
       </c>
-      <c r="M38" t="s">
-        <v>26</v>
+      <c r="M38">
+        <v>6</v>
       </c>
       <c r="N38" t="s">
         <v>26</v>
@@ -7649,11 +7708,11 @@
       <c r="P38" t="s">
         <v>26</v>
       </c>
-      <c r="Q38">
-        <v>6</v>
-      </c>
-      <c r="R38">
-        <v>6</v>
+      <c r="Q38" t="s">
+        <v>26</v>
+      </c>
+      <c r="R38" t="s">
+        <v>26</v>
       </c>
       <c r="S38" t="s">
         <v>26</v>
@@ -7664,11 +7723,11 @@
       <c r="U38" t="s">
         <v>26</v>
       </c>
-      <c r="V38" t="s">
-        <v>26</v>
-      </c>
-      <c r="W38" t="s">
-        <v>26</v>
+      <c r="V38">
+        <v>7</v>
+      </c>
+      <c r="W38">
+        <v>7.5</v>
       </c>
       <c r="X38" t="s">
         <v>26</v>
@@ -7691,29 +7750,32 @@
       <c r="AD38" t="s">
         <v>26</v>
       </c>
+      <c r="AO38">
+        <v>5.5</v>
+      </c>
       <c r="BF38">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f>COUNT(B38:BE38)</f>
+        <v>4</v>
       </c>
       <c r="BG38" s="18">
-        <f t="shared" si="5"/>
-        <v>5.333333333333333</v>
+        <f>AVERAGE(B38:BE38)</f>
+        <v>6.5</v>
       </c>
       <c r="BH38">
-        <f t="shared" si="6"/>
-        <v>1.1547005383792526</v>
+        <f>IF(BF38&gt;1,_xlfn.STDEV.S(B38:BE38),"")</f>
+        <v>0.9128709291752769</v>
       </c>
       <c r="BI38">
         <v>0</v>
       </c>
       <c r="BK38" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -7721,8 +7783,8 @@
       <c r="C39" t="s">
         <v>26</v>
       </c>
-      <c r="D39" t="s">
-        <v>26</v>
+      <c r="D39">
+        <v>3</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
@@ -7730,8 +7792,8 @@
       <c r="F39" t="s">
         <v>26</v>
       </c>
-      <c r="G39" t="s">
-        <v>26</v>
+      <c r="G39">
+        <v>1</v>
       </c>
       <c r="H39" t="s">
         <v>26</v>
@@ -7766,20 +7828,20 @@
       <c r="R39" t="s">
         <v>26</v>
       </c>
-      <c r="S39">
-        <v>4.5</v>
+      <c r="S39" t="s">
+        <v>26</v>
       </c>
       <c r="T39" t="s">
         <v>26</v>
       </c>
-      <c r="U39">
-        <v>4.5</v>
+      <c r="U39" t="s">
+        <v>26</v>
       </c>
       <c r="V39" t="s">
         <v>26</v>
       </c>
-      <c r="W39">
-        <v>5.5</v>
+      <c r="W39" t="s">
+        <v>26</v>
       </c>
       <c r="X39" t="s">
         <v>26</v>
@@ -7802,263 +7864,182 @@
       <c r="AD39" t="s">
         <v>26</v>
       </c>
-      <c r="AK39">
-        <v>3.5</v>
-      </c>
-      <c r="AY39">
-        <v>4.5</v>
+      <c r="AE39">
+        <v>1.5</v>
+      </c>
+      <c r="AU39">
+        <v>4</v>
       </c>
       <c r="BF39">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>COUNT(B39:BE39)</f>
+        <v>4</v>
       </c>
       <c r="BG39" s="18">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
+        <f>AVERAGE(B39:BE39)</f>
+        <v>2.375</v>
       </c>
       <c r="BH39">
-        <f t="shared" si="6"/>
-        <v>0.70710678118654757</v>
+        <f>IF(BF39&gt;1,_xlfn.STDEV.S(B39:BE39),"")</f>
+        <v>1.3768926368215255</v>
       </c>
       <c r="BI39">
         <v>0</v>
       </c>
-      <c r="BK39">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
+      <c r="BK39" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" t="s">
-        <v>26</v>
-      </c>
-      <c r="K40" t="s">
-        <v>26</v>
-      </c>
-      <c r="L40" t="s">
-        <v>26</v>
-      </c>
-      <c r="M40" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" t="s">
-        <v>26</v>
-      </c>
-      <c r="O40" t="s">
-        <v>26</v>
-      </c>
-      <c r="P40" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>26</v>
-      </c>
-      <c r="R40">
+        <v>344</v>
+      </c>
+      <c r="AJ40">
         <v>4.5</v>
       </c>
-      <c r="S40" t="s">
-        <v>26</v>
-      </c>
-      <c r="T40">
-        <v>4</v>
-      </c>
-      <c r="U40">
-        <v>4</v>
-      </c>
-      <c r="V40" t="s">
-        <v>26</v>
-      </c>
-      <c r="W40" t="s">
-        <v>26</v>
-      </c>
-      <c r="X40" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>26</v>
+      <c r="AQ40">
+        <v>3.5</v>
+      </c>
+      <c r="AR40">
+        <v>3.5</v>
+      </c>
+      <c r="AY40">
+        <v>5.5</v>
       </c>
       <c r="BF40">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f>COUNT(B40:BE40)</f>
+        <v>4</v>
       </c>
       <c r="BG40" s="18">
-        <f t="shared" si="5"/>
-        <v>4.166666666666667</v>
+        <f>AVERAGE(B40:BE40)</f>
+        <v>4.25</v>
       </c>
       <c r="BH40">
-        <f t="shared" si="6"/>
-        <v>0.28867513459481287</v>
+        <f>IF(BF40&gt;1,_xlfn.STDEV.S(B40:BE40),"")</f>
+        <v>0.9574271077563381</v>
       </c>
       <c r="BI40">
         <v>0</v>
       </c>
-      <c r="BK40" t="e">
-        <f t="shared" ref="BK40:BK57" si="7">AVERAGE(AI40:AK40)</f>
-        <v>#DIV/0!</v>
+      <c r="BK40">
+        <f t="shared" ref="BK40:BK57" si="1">AVERAGE(AI40:AK40)</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="41" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
       </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41">
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41" t="s">
+        <v>26</v>
+      </c>
+      <c r="P41" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q41">
+        <v>6</v>
+      </c>
+      <c r="R41">
+        <v>6</v>
+      </c>
+      <c r="S41" t="s">
+        <v>26</v>
+      </c>
+      <c r="T41" t="s">
+        <v>26</v>
+      </c>
+      <c r="U41" t="s">
+        <v>26</v>
+      </c>
+      <c r="V41" t="s">
+        <v>26</v>
+      </c>
+      <c r="W41" t="s">
+        <v>26</v>
+      </c>
+      <c r="X41" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF41">
+        <f>COUNT(B41:BE41)</f>
         <v>3</v>
       </c>
-      <c r="E41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" t="s">
-        <v>26</v>
-      </c>
-      <c r="K41" t="s">
-        <v>26</v>
-      </c>
-      <c r="L41" t="s">
-        <v>26</v>
-      </c>
-      <c r="M41" t="s">
-        <v>26</v>
-      </c>
-      <c r="N41" t="s">
-        <v>26</v>
-      </c>
-      <c r="O41" t="s">
-        <v>26</v>
-      </c>
-      <c r="P41" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>26</v>
-      </c>
-      <c r="R41" t="s">
-        <v>26</v>
-      </c>
-      <c r="S41" t="s">
-        <v>26</v>
-      </c>
-      <c r="T41" t="s">
-        <v>26</v>
-      </c>
-      <c r="U41" t="s">
-        <v>26</v>
-      </c>
-      <c r="V41" t="s">
-        <v>26</v>
-      </c>
-      <c r="W41" t="s">
-        <v>26</v>
-      </c>
-      <c r="X41" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE41">
-        <v>1.5</v>
-      </c>
-      <c r="AU41">
-        <v>4</v>
-      </c>
-      <c r="BF41">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
       <c r="BG41" s="18">
-        <f t="shared" si="5"/>
-        <v>2.375</v>
+        <f>AVERAGE(B41:BE41)</f>
+        <v>5.333333333333333</v>
       </c>
       <c r="BH41">
-        <f t="shared" si="6"/>
-        <v>1.3768926368215255</v>
+        <f>IF(BF41&gt;1,_xlfn.STDEV.S(B41:BE41),"")</f>
+        <v>1.1547005383792526</v>
       </c>
       <c r="BI41">
         <v>0</v>
       </c>
       <c r="BK41" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -8108,17 +8089,17 @@
       <c r="Q42" t="s">
         <v>26</v>
       </c>
-      <c r="R42" t="s">
-        <v>26</v>
+      <c r="R42">
+        <v>4.5</v>
       </c>
       <c r="S42" t="s">
         <v>26</v>
       </c>
-      <c r="T42" t="s">
-        <v>26</v>
-      </c>
-      <c r="U42" t="s">
-        <v>26</v>
+      <c r="T42">
+        <v>4</v>
+      </c>
+      <c r="U42">
+        <v>4</v>
       </c>
       <c r="V42" t="s">
         <v>26</v>
@@ -8144,38 +8125,32 @@
       <c r="AC42" t="s">
         <v>26</v>
       </c>
-      <c r="AD42">
-        <v>7</v>
-      </c>
-      <c r="AE42">
-        <v>7</v>
-      </c>
-      <c r="AF42">
-        <v>9</v>
+      <c r="AD42" t="s">
+        <v>26</v>
       </c>
       <c r="BF42">
-        <f t="shared" si="4"/>
+        <f>COUNT(B42:BE42)</f>
         <v>3</v>
       </c>
       <c r="BG42" s="18">
-        <f t="shared" si="5"/>
-        <v>7.666666666666667</v>
+        <f>AVERAGE(B42:BE42)</f>
+        <v>4.166666666666667</v>
       </c>
       <c r="BH42">
-        <f t="shared" si="6"/>
-        <v>1.1547005383792495</v>
+        <f>IF(BF42&gt;1,_xlfn.STDEV.S(B42:BE42),"")</f>
+        <v>0.28867513459481287</v>
       </c>
       <c r="BI42">
         <v>0</v>
       </c>
       <c r="BK42" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -8198,8 +8173,8 @@
       <c r="H43" t="s">
         <v>26</v>
       </c>
-      <c r="I43">
-        <v>5.5</v>
+      <c r="I43" t="s">
+        <v>26</v>
       </c>
       <c r="J43" t="s">
         <v>26</v>
@@ -8249,8 +8224,8 @@
       <c r="Y43" t="s">
         <v>26</v>
       </c>
-      <c r="Z43">
-        <v>5.5</v>
+      <c r="Z43" t="s">
+        <v>26</v>
       </c>
       <c r="AA43" t="s">
         <v>26</v>
@@ -8261,35 +8236,38 @@
       <c r="AC43" t="s">
         <v>26</v>
       </c>
-      <c r="AD43" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG43">
-        <v>2.5</v>
+      <c r="AD43">
+        <v>7</v>
+      </c>
+      <c r="AE43">
+        <v>7</v>
+      </c>
+      <c r="AF43">
+        <v>9</v>
       </c>
       <c r="BF43">
-        <f t="shared" si="4"/>
+        <f>COUNT(B43:BE43)</f>
         <v>3</v>
       </c>
       <c r="BG43" s="18">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
+        <f>AVERAGE(B43:BE43)</f>
+        <v>7.666666666666667</v>
       </c>
       <c r="BH43">
-        <f t="shared" si="6"/>
-        <v>1.7320508075688772</v>
+        <f>IF(BF43&gt;1,_xlfn.STDEV.S(B43:BE43),"")</f>
+        <v>1.1547005383792495</v>
       </c>
       <c r="BI43">
         <v>0</v>
       </c>
       <c r="BK43" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -8312,8 +8290,8 @@
       <c r="H44" t="s">
         <v>26</v>
       </c>
-      <c r="I44" t="s">
-        <v>26</v>
+      <c r="I44">
+        <v>5.5</v>
       </c>
       <c r="J44" t="s">
         <v>26</v>
@@ -8364,7 +8342,7 @@
         <v>26</v>
       </c>
       <c r="Z44">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AA44" t="s">
         <v>26</v>
@@ -8375,35 +8353,35 @@
       <c r="AC44" t="s">
         <v>26</v>
       </c>
-      <c r="AD44">
-        <v>7.5</v>
-      </c>
-      <c r="AS44">
-        <v>5</v>
+      <c r="AD44" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG44">
+        <v>2.5</v>
       </c>
       <c r="BF44">
-        <f t="shared" si="4"/>
+        <f>COUNT(B44:BE44)</f>
         <v>3</v>
       </c>
       <c r="BG44" s="18">
-        <f t="shared" si="5"/>
-        <v>6.5</v>
+        <f>AVERAGE(B44:BE44)</f>
+        <v>4.5</v>
       </c>
       <c r="BH44">
-        <f t="shared" si="6"/>
-        <v>1.3228756555322954</v>
+        <f>IF(BF44&gt;1,_xlfn.STDEV.S(B44:BE44),"")</f>
+        <v>1.7320508075688772</v>
       </c>
       <c r="BI44">
         <v>0</v>
       </c>
       <c r="BK44" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>343</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -8429,8 +8407,8 @@
       <c r="I45" t="s">
         <v>26</v>
       </c>
-      <c r="J45">
-        <v>2.5</v>
+      <c r="J45" t="s">
+        <v>26</v>
       </c>
       <c r="K45" t="s">
         <v>26</v>
@@ -8438,8 +8416,8 @@
       <c r="L45" t="s">
         <v>26</v>
       </c>
-      <c r="M45">
-        <v>4.5</v>
+      <c r="M45" t="s">
+        <v>26</v>
       </c>
       <c r="N45" t="s">
         <v>26</v>
@@ -8477,8 +8455,8 @@
       <c r="Y45" t="s">
         <v>26</v>
       </c>
-      <c r="Z45" t="s">
-        <v>26</v>
+      <c r="Z45">
+        <v>7</v>
       </c>
       <c r="AA45" t="s">
         <v>26</v>
@@ -8489,41 +8467,41 @@
       <c r="AC45" t="s">
         <v>26</v>
       </c>
-      <c r="AD45" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN45">
-        <v>2.5</v>
+      <c r="AD45">
+        <v>7.5</v>
+      </c>
+      <c r="AS45">
+        <v>5</v>
       </c>
       <c r="BF45">
-        <f t="shared" si="4"/>
+        <f>COUNT(B45:BE45)</f>
         <v>3</v>
       </c>
       <c r="BG45" s="18">
-        <f t="shared" si="5"/>
-        <v>3.1666666666666665</v>
+        <f>AVERAGE(B45:BE45)</f>
+        <v>6.5</v>
       </c>
       <c r="BH45">
-        <f t="shared" si="6"/>
-        <v>1.1547005383792517</v>
+        <f>IF(BF45&gt;1,_xlfn.STDEV.S(B45:BE45),"")</f>
+        <v>1.3228756555322954</v>
       </c>
       <c r="BI45">
         <v>0</v>
       </c>
       <c r="BK45" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
       </c>
-      <c r="C46">
-        <v>1.5</v>
+      <c r="C46" t="s">
+        <v>26</v>
       </c>
       <c r="D46" t="s">
         <v>26</v>
@@ -8543,8 +8521,8 @@
       <c r="I46" t="s">
         <v>26</v>
       </c>
-      <c r="J46" t="s">
-        <v>26</v>
+      <c r="J46">
+        <v>2.5</v>
       </c>
       <c r="K46" t="s">
         <v>26</v>
@@ -8552,8 +8530,8 @@
       <c r="L46" t="s">
         <v>26</v>
       </c>
-      <c r="M46" t="s">
-        <v>26</v>
+      <c r="M46">
+        <v>4.5</v>
       </c>
       <c r="N46" t="s">
         <v>26</v>
@@ -8567,74 +8545,77 @@
       <c r="Q46" t="s">
         <v>26</v>
       </c>
-      <c r="R46">
+      <c r="R46" t="s">
+        <v>26</v>
+      </c>
+      <c r="S46" t="s">
+        <v>26</v>
+      </c>
+      <c r="T46" t="s">
+        <v>26</v>
+      </c>
+      <c r="U46" t="s">
+        <v>26</v>
+      </c>
+      <c r="V46" t="s">
+        <v>26</v>
+      </c>
+      <c r="W46" t="s">
+        <v>26</v>
+      </c>
+      <c r="X46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN46">
         <v>2.5</v>
       </c>
-      <c r="S46" t="s">
-        <v>26</v>
-      </c>
-      <c r="T46" t="s">
-        <v>26</v>
-      </c>
-      <c r="U46" t="s">
-        <v>26</v>
-      </c>
-      <c r="V46" t="s">
-        <v>26</v>
-      </c>
-      <c r="W46" t="s">
-        <v>26</v>
-      </c>
-      <c r="X46" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>26</v>
-      </c>
       <c r="BF46">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>COUNT(B46:BE46)</f>
+        <v>3</v>
       </c>
       <c r="BG46" s="18">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>AVERAGE(B46:BE46)</f>
+        <v>3.1666666666666665</v>
       </c>
       <c r="BH46">
-        <f t="shared" si="6"/>
-        <v>0.70710678118654757</v>
+        <f>IF(BF46&gt;1,_xlfn.STDEV.S(B46:BE46),"")</f>
+        <v>1.1547005383792517</v>
       </c>
       <c r="BI46">
         <v>0</v>
       </c>
       <c r="BK46" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
       </c>
-      <c r="C47" t="s">
-        <v>26</v>
+      <c r="C47">
+        <v>1.5</v>
       </c>
       <c r="D47" t="s">
         <v>26</v>
@@ -8660,8 +8641,8 @@
       <c r="K47" t="s">
         <v>26</v>
       </c>
-      <c r="L47">
-        <v>5.5</v>
+      <c r="L47" t="s">
+        <v>26</v>
       </c>
       <c r="M47" t="s">
         <v>26</v>
@@ -8678,8 +8659,8 @@
       <c r="Q47" t="s">
         <v>26</v>
       </c>
-      <c r="R47" t="s">
-        <v>26</v>
+      <c r="R47">
+        <v>2.5</v>
       </c>
       <c r="S47" t="s">
         <v>26</v>
@@ -8717,32 +8698,29 @@
       <c r="AD47" t="s">
         <v>26</v>
       </c>
-      <c r="AG47">
-        <v>5</v>
-      </c>
       <c r="BF47">
-        <f t="shared" si="4"/>
+        <f>COUNT(B47:BE47)</f>
         <v>2</v>
       </c>
       <c r="BG47" s="18">
-        <f t="shared" si="5"/>
-        <v>5.25</v>
+        <f>AVERAGE(B47:BE47)</f>
+        <v>2</v>
       </c>
       <c r="BH47">
-        <f t="shared" si="6"/>
-        <v>0.35355339059327379</v>
+        <f>IF(BF47&gt;1,_xlfn.STDEV.S(B47:BE47),"")</f>
+        <v>0.70710678118654757</v>
       </c>
       <c r="BI47">
         <v>0</v>
       </c>
       <c r="BK47" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -8774,8 +8752,8 @@
       <c r="K48" t="s">
         <v>26</v>
       </c>
-      <c r="L48" t="s">
-        <v>26</v>
+      <c r="L48">
+        <v>5.5</v>
       </c>
       <c r="M48" t="s">
         <v>26</v>
@@ -8828,251 +8806,95 @@
       <c r="AC48" t="s">
         <v>26</v>
       </c>
-      <c r="AD48">
-        <v>9</v>
+      <c r="AD48" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG48">
+        <v>5</v>
       </c>
       <c r="BF48">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>COUNT(B48:BE48)</f>
+        <v>2</v>
       </c>
       <c r="BG48" s="18">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="BH48" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f>AVERAGE(B48:BE48)</f>
+        <v>5.25</v>
+      </c>
+      <c r="BH48">
+        <f>IF(BF48&gt;1,_xlfn.STDEV.S(B48:BE48),"")</f>
+        <v>0.35355339059327379</v>
       </c>
       <c r="BI48">
         <v>0</v>
       </c>
       <c r="BK48" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" t="s">
-        <v>26</v>
-      </c>
-      <c r="J49" t="s">
-        <v>26</v>
-      </c>
-      <c r="K49" t="s">
-        <v>26</v>
-      </c>
-      <c r="L49" t="s">
-        <v>26</v>
-      </c>
-      <c r="M49" t="s">
-        <v>26</v>
-      </c>
-      <c r="N49" t="s">
-        <v>26</v>
-      </c>
-      <c r="O49" t="s">
-        <v>26</v>
-      </c>
-      <c r="P49" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>26</v>
-      </c>
-      <c r="R49" t="s">
-        <v>26</v>
-      </c>
-      <c r="S49" t="s">
-        <v>26</v>
-      </c>
-      <c r="T49" t="s">
-        <v>26</v>
-      </c>
-      <c r="U49" t="s">
-        <v>26</v>
-      </c>
-      <c r="V49" t="s">
-        <v>26</v>
-      </c>
-      <c r="W49" t="s">
-        <v>26</v>
-      </c>
-      <c r="X49" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z49">
+        <v>339</v>
+      </c>
+      <c r="AJ49">
         <v>7</v>
       </c>
-      <c r="AA49" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>26</v>
+      <c r="AW49">
+        <v>4.5</v>
       </c>
       <c r="BF49">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>COUNT(B49:BE49)</f>
+        <v>2</v>
       </c>
       <c r="BG49" s="18">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="BH49" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f>AVERAGE(B49:BE49)</f>
+        <v>5.75</v>
+      </c>
+      <c r="BH49">
+        <f>IF(BF49&gt;1,_xlfn.STDEV.S(B49:BE49),"")</f>
+        <v>1.7677669529663689</v>
       </c>
       <c r="BI49">
         <v>0</v>
       </c>
-      <c r="BK49" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="BK49">
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>355</v>
-      </c>
-      <c r="B50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" t="s">
-        <v>26</v>
-      </c>
-      <c r="K50" t="s">
-        <v>26</v>
-      </c>
-      <c r="L50" t="s">
-        <v>26</v>
-      </c>
-      <c r="M50" t="s">
-        <v>26</v>
-      </c>
-      <c r="O50" t="s">
-        <v>26</v>
-      </c>
-      <c r="P50" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>26</v>
-      </c>
-      <c r="R50" t="s">
-        <v>26</v>
-      </c>
-      <c r="S50" t="s">
-        <v>26</v>
-      </c>
-      <c r="T50" t="s">
-        <v>26</v>
-      </c>
-      <c r="U50" t="s">
-        <v>26</v>
-      </c>
-      <c r="V50" t="s">
-        <v>26</v>
-      </c>
-      <c r="W50" t="s">
-        <v>26</v>
-      </c>
-      <c r="X50" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z50">
-        <v>7</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>26</v>
+        <v>342</v>
+      </c>
+      <c r="AM50">
+        <v>6</v>
+      </c>
+      <c r="BA50">
+        <v>4</v>
       </c>
       <c r="BF50">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>COUNT(B50:BE50)</f>
+        <v>2</v>
       </c>
       <c r="BG50" s="18">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="BH50" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f>AVERAGE(B50:BE50)</f>
+        <v>5</v>
+      </c>
+      <c r="BH50">
+        <f>IF(BF50&gt;1,_xlfn.STDEV.S(B50:BE50),"")</f>
+        <v>1.4142135623730951</v>
       </c>
       <c r="BI50">
         <v>0</v>
       </c>
       <c r="BK50" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="51" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -9143,8 +8965,8 @@
       <c r="X51" t="s">
         <v>26</v>
       </c>
-      <c r="Y51">
-        <v>7</v>
+      <c r="Y51" t="s">
+        <v>26</v>
       </c>
       <c r="Z51" t="s">
         <v>26</v>
@@ -9158,32 +8980,32 @@
       <c r="AC51" t="s">
         <v>26</v>
       </c>
-      <c r="AD51" t="s">
-        <v>26</v>
+      <c r="AD51">
+        <v>9</v>
       </c>
       <c r="BF51">
-        <f t="shared" si="4"/>
+        <f>COUNT(B51:BE51)</f>
         <v>1</v>
       </c>
       <c r="BG51" s="18">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f>AVERAGE(B51:BE51)</f>
+        <v>9</v>
       </c>
       <c r="BH51" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(BF51&gt;1,_xlfn.STDEV.S(B51:BE51),"")</f>
         <v/>
       </c>
       <c r="BI51">
         <v>0</v>
       </c>
       <c r="BK51" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -9209,8 +9031,8 @@
       <c r="I52" t="s">
         <v>26</v>
       </c>
-      <c r="J52">
-        <v>6</v>
+      <c r="J52" t="s">
+        <v>26</v>
       </c>
       <c r="K52" t="s">
         <v>26</v>
@@ -9257,8 +9079,8 @@
       <c r="Y52" t="s">
         <v>26</v>
       </c>
-      <c r="Z52" t="s">
-        <v>26</v>
+      <c r="Z52">
+        <v>7</v>
       </c>
       <c r="AA52" t="s">
         <v>26</v>
@@ -9273,28 +9095,28 @@
         <v>26</v>
       </c>
       <c r="BF52">
-        <f t="shared" si="4"/>
+        <f>COUNT(B52:BE52)</f>
         <v>1</v>
       </c>
       <c r="BG52" s="18">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f>AVERAGE(B52:BE52)</f>
+        <v>7</v>
       </c>
       <c r="BH52" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(BF52&gt;1,_xlfn.STDEV.S(B52:BE52),"")</f>
         <v/>
       </c>
       <c r="BI52">
         <v>0</v>
       </c>
       <c r="BK52" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="53" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>355</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -9317,8 +9139,8 @@
       <c r="H53" t="s">
         <v>26</v>
       </c>
-      <c r="I53">
-        <v>4.5</v>
+      <c r="I53" t="s">
+        <v>26</v>
       </c>
       <c r="J53" t="s">
         <v>26</v>
@@ -9332,9 +9154,6 @@
       <c r="M53" t="s">
         <v>26</v>
       </c>
-      <c r="N53" t="s">
-        <v>26</v>
-      </c>
       <c r="O53" t="s">
         <v>26</v>
       </c>
@@ -9368,8 +9187,8 @@
       <c r="Y53" t="s">
         <v>26</v>
       </c>
-      <c r="Z53" t="s">
-        <v>26</v>
+      <c r="Z53">
+        <v>7</v>
       </c>
       <c r="AA53" t="s">
         <v>26</v>
@@ -9384,28 +9203,28 @@
         <v>26</v>
       </c>
       <c r="BF53">
-        <f t="shared" si="4"/>
+        <f>COUNT(B53:BE53)</f>
         <v>1</v>
       </c>
       <c r="BG53" s="18">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
+        <f>AVERAGE(B53:BE53)</f>
+        <v>7</v>
       </c>
       <c r="BH53" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(BF53&gt;1,_xlfn.STDEV.S(B53:BE53),"")</f>
         <v/>
       </c>
       <c r="BI53">
         <v>0</v>
       </c>
       <c r="BK53" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -9476,11 +9295,11 @@
       <c r="X54" t="s">
         <v>26</v>
       </c>
-      <c r="Y54" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z54">
-        <v>4.5</v>
+      <c r="Y54">
+        <v>7</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>26</v>
       </c>
       <c r="AA54" t="s">
         <v>26</v>
@@ -9495,28 +9314,28 @@
         <v>26</v>
       </c>
       <c r="BF54">
-        <f t="shared" si="4"/>
+        <f>COUNT(B54:BE54)</f>
         <v>1</v>
       </c>
       <c r="BG54" s="18">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
+        <f>AVERAGE(B54:BE54)</f>
+        <v>7</v>
       </c>
       <c r="BH54" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(BF54&gt;1,_xlfn.STDEV.S(B54:BE54),"")</f>
         <v/>
       </c>
       <c r="BI54">
         <v>0</v>
       </c>
       <c r="BK54" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -9542,8 +9361,8 @@
       <c r="I55" t="s">
         <v>26</v>
       </c>
-      <c r="J55" t="s">
-        <v>26</v>
+      <c r="J55">
+        <v>6</v>
       </c>
       <c r="K55" t="s">
         <v>26</v>
@@ -9596,8 +9415,8 @@
       <c r="AA55" t="s">
         <v>26</v>
       </c>
-      <c r="AB55">
-        <v>4</v>
+      <c r="AB55" t="s">
+        <v>26</v>
       </c>
       <c r="AC55" t="s">
         <v>26</v>
@@ -9606,112 +9425,349 @@
         <v>26</v>
       </c>
       <c r="BF55">
-        <f t="shared" si="4"/>
+        <f>COUNT(B55:BE55)</f>
         <v>1</v>
       </c>
       <c r="BG55" s="18">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f>AVERAGE(B55:BE55)</f>
+        <v>6</v>
       </c>
       <c r="BH55" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(BF55&gt;1,_xlfn.STDEV.S(B55:BE55),"")</f>
         <v/>
       </c>
       <c r="BI55">
         <v>0</v>
       </c>
       <c r="BK55" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="56" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>339</v>
-      </c>
-      <c r="AJ56">
-        <v>7</v>
-      </c>
-      <c r="AW56">
+        <v>47</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56">
         <v>4.5</v>
       </c>
+      <c r="J56" t="s">
+        <v>26</v>
+      </c>
+      <c r="K56" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" t="s">
+        <v>26</v>
+      </c>
+      <c r="O56" t="s">
+        <v>26</v>
+      </c>
+      <c r="P56" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>26</v>
+      </c>
+      <c r="R56" t="s">
+        <v>26</v>
+      </c>
+      <c r="S56" t="s">
+        <v>26</v>
+      </c>
+      <c r="T56" t="s">
+        <v>26</v>
+      </c>
+      <c r="U56" t="s">
+        <v>26</v>
+      </c>
+      <c r="V56" t="s">
+        <v>26</v>
+      </c>
+      <c r="W56" t="s">
+        <v>26</v>
+      </c>
+      <c r="X56" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>26</v>
+      </c>
       <c r="BF56">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>COUNT(B56:BE56)</f>
+        <v>1</v>
       </c>
       <c r="BG56" s="18">
-        <f t="shared" si="5"/>
-        <v>5.75</v>
-      </c>
-      <c r="BH56">
-        <f t="shared" si="6"/>
-        <v>1.7677669529663689</v>
+        <f>AVERAGE(B56:BE56)</f>
+        <v>4.5</v>
+      </c>
+      <c r="BH56" t="str">
+        <f>IF(BF56&gt;1,_xlfn.STDEV.S(B56:BE56),"")</f>
+        <v/>
       </c>
       <c r="BI56">
         <v>0</v>
       </c>
-      <c r="BK56">
-        <f t="shared" si="7"/>
-        <v>7</v>
+      <c r="BK56" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="57" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>344</v>
-      </c>
-      <c r="AJ57">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" t="s">
+        <v>26</v>
+      </c>
+      <c r="K57" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" t="s">
+        <v>26</v>
+      </c>
+      <c r="M57" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" t="s">
+        <v>26</v>
+      </c>
+      <c r="O57" t="s">
+        <v>26</v>
+      </c>
+      <c r="P57" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>26</v>
+      </c>
+      <c r="R57" t="s">
+        <v>26</v>
+      </c>
+      <c r="S57" t="s">
+        <v>26</v>
+      </c>
+      <c r="T57" t="s">
+        <v>26</v>
+      </c>
+      <c r="U57" t="s">
+        <v>26</v>
+      </c>
+      <c r="V57" t="s">
+        <v>26</v>
+      </c>
+      <c r="W57" t="s">
+        <v>26</v>
+      </c>
+      <c r="X57" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z57">
         <v>4.5</v>
       </c>
-      <c r="AQ57">
-        <v>3.5</v>
-      </c>
-      <c r="AR57">
-        <v>3.5</v>
-      </c>
-      <c r="AY57">
-        <v>5.5</v>
+      <c r="AA57" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>26</v>
       </c>
       <c r="BF57">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>COUNT(B57:BE57)</f>
+        <v>1</v>
       </c>
       <c r="BG57" s="18">
-        <f t="shared" si="5"/>
-        <v>4.25</v>
-      </c>
-      <c r="BH57">
-        <f t="shared" si="6"/>
-        <v>0.9574271077563381</v>
+        <f>AVERAGE(B57:BE57)</f>
+        <v>4.5</v>
+      </c>
+      <c r="BH57" t="str">
+        <f>IF(BF57&gt;1,_xlfn.STDEV.S(B57:BE57),"")</f>
+        <v/>
       </c>
       <c r="BI57">
         <v>0</v>
       </c>
-      <c r="BK57">
-        <f t="shared" si="7"/>
-        <v>4.5</v>
+      <c r="BK57" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="58" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>342</v>
-      </c>
-      <c r="AM58">
-        <v>6</v>
-      </c>
-      <c r="BA58">
-        <v>4</v>
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" t="s">
+        <v>26</v>
+      </c>
+      <c r="M58" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" t="s">
+        <v>26</v>
+      </c>
+      <c r="O58" t="s">
+        <v>26</v>
+      </c>
+      <c r="P58" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>26</v>
+      </c>
+      <c r="R58" t="s">
+        <v>26</v>
+      </c>
+      <c r="S58" t="s">
+        <v>26</v>
+      </c>
+      <c r="T58" t="s">
+        <v>26</v>
+      </c>
+      <c r="U58" t="s">
+        <v>26</v>
+      </c>
+      <c r="V58" t="s">
+        <v>26</v>
+      </c>
+      <c r="W58" t="s">
+        <v>26</v>
+      </c>
+      <c r="X58" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB58">
+        <v>4</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>26</v>
       </c>
       <c r="BF58">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>COUNT(B58:BE58)</f>
+        <v>1</v>
       </c>
       <c r="BG58" s="18">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="BH58">
-        <f t="shared" si="6"/>
-        <v>1.4142135623730951</v>
+        <f>AVERAGE(B58:BE58)</f>
+        <v>4</v>
+      </c>
+      <c r="BH58" t="str">
+        <f>IF(BF58&gt;1,_xlfn.STDEV.S(B58:BE58),"")</f>
+        <v/>
       </c>
       <c r="BI58">
         <v>0</v>
@@ -9725,15 +9781,15 @@
         <v>3</v>
       </c>
       <c r="BF59">
-        <f t="shared" si="4"/>
+        <f>COUNT(B59:BE59)</f>
         <v>1</v>
       </c>
       <c r="BG59" s="18">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(B59:BE59)</f>
         <v>3</v>
       </c>
       <c r="BH59" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(BF59&gt;1,_xlfn.STDEV.S(B59:BE59),"")</f>
         <v/>
       </c>
       <c r="BI59">
@@ -9748,15 +9804,15 @@
         <v>5.5</v>
       </c>
       <c r="BF60">
-        <f t="shared" si="4"/>
+        <f>COUNT(B60:BE60)</f>
         <v>1</v>
       </c>
       <c r="BG60" s="18">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(B60:BE60)</f>
         <v>5.5</v>
       </c>
       <c r="BH60" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(BF60&gt;1,_xlfn.STDEV.S(B60:BE60),"")</f>
         <v/>
       </c>
       <c r="BI60">
@@ -9771,15 +9827,15 @@
         <v>4</v>
       </c>
       <c r="BF61">
-        <f t="shared" si="4"/>
+        <f>COUNT(B61:BE61)</f>
         <v>1</v>
       </c>
       <c r="BG61" s="18">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(B61:BE61)</f>
         <v>4</v>
       </c>
       <c r="BH61" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(BF61&gt;1,_xlfn.STDEV.S(B61:BE61),"")</f>
         <v/>
       </c>
       <c r="BI61">
@@ -9794,15 +9850,15 @@
         <v>5.5</v>
       </c>
       <c r="BF62">
-        <f t="shared" si="4"/>
+        <f>COUNT(B62:BE62)</f>
         <v>1</v>
       </c>
       <c r="BG62" s="18">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(B62:BE62)</f>
         <v>5.5</v>
       </c>
       <c r="BH62" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(BF62&gt;1,_xlfn.STDEV.S(B62:BE62),"")</f>
         <v/>
       </c>
       <c r="BI62">
@@ -9817,15 +9873,15 @@
         <v>4.5</v>
       </c>
       <c r="BF63">
-        <f t="shared" si="4"/>
+        <f>COUNT(B63:BE63)</f>
         <v>1</v>
       </c>
       <c r="BG63" s="18">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(B63:BE63)</f>
         <v>4.5</v>
       </c>
       <c r="BH63" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(BF63&gt;1,_xlfn.STDEV.S(B63:BE63),"")</f>
         <v/>
       </c>
       <c r="BI63">
@@ -9840,15 +9896,15 @@
         <v>5</v>
       </c>
       <c r="BF64">
-        <f t="shared" si="4"/>
+        <f>COUNT(B64:BE64)</f>
         <v>1</v>
       </c>
       <c r="BG64" s="18">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(B64:BE64)</f>
         <v>5</v>
       </c>
       <c r="BH64" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(BF64&gt;1,_xlfn.STDEV.S(B64:BE64),"")</f>
         <v/>
       </c>
       <c r="BI64">
@@ -9863,15 +9919,15 @@
         <v>4.5</v>
       </c>
       <c r="BF65">
-        <f t="shared" si="4"/>
+        <f>COUNT(B65:BE65)</f>
         <v>1</v>
       </c>
       <c r="BG65" s="18">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(B65:BE65)</f>
         <v>4.5</v>
       </c>
       <c r="BH65" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(BF65&gt;1,_xlfn.STDEV.S(B65:BE65),"")</f>
         <v/>
       </c>
       <c r="BI65">
@@ -9886,15 +9942,15 @@
         <v>5</v>
       </c>
       <c r="BF66">
-        <f t="shared" ref="BF66" si="8">COUNT(B66:BE66)</f>
+        <f>COUNT(B66:BE66)</f>
         <v>1</v>
       </c>
       <c r="BG66" s="18">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(B66:BE66)</f>
         <v>5</v>
       </c>
       <c r="BH66" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(BF66&gt;1,_xlfn.STDEV.S(B66:BE66),"")</f>
         <v/>
       </c>
       <c r="BI66">
@@ -9909,15 +9965,15 @@
         <v>5.5</v>
       </c>
       <c r="BF67">
-        <f t="shared" ref="BF67" si="9">COUNT(B67:BE67)</f>
+        <f>COUNT(B67:BE67)</f>
         <v>1</v>
       </c>
       <c r="BG67" s="18">
-        <f t="shared" ref="BG67" si="10">AVERAGE(B67:BE67)</f>
+        <f>AVERAGE(B67:BE67)</f>
         <v>5.5</v>
       </c>
       <c r="BH67" t="str">
-        <f t="shared" ref="BH67" si="11">IF(BF67&gt;1,_xlfn.STDEV.S(B67:BE67),"")</f>
+        <f>IF(BF67&gt;1,_xlfn.STDEV.S(B67:BE67),"")</f>
         <v/>
       </c>
       <c r="BI67">
@@ -9932,15 +9988,15 @@
         <v>2.5</v>
       </c>
       <c r="BF68">
-        <f t="shared" ref="BF68" si="12">COUNT(B68:BE68)</f>
+        <f>COUNT(B68:BE68)</f>
         <v>1</v>
       </c>
       <c r="BG68" s="18">
-        <f t="shared" ref="BG68" si="13">AVERAGE(B68:BE68)</f>
+        <f>AVERAGE(B68:BE68)</f>
         <v>2.5</v>
       </c>
       <c r="BH68" t="str">
-        <f t="shared" ref="BH68" si="14">IF(BF68&gt;1,_xlfn.STDEV.S(B68:BE68),"")</f>
+        <f>IF(BF68&gt;1,_xlfn.STDEV.S(B68:BE68),"")</f>
         <v/>
       </c>
       <c r="BI68">
@@ -9955,15 +10011,15 @@
         <v>3</v>
       </c>
       <c r="BF69">
-        <f t="shared" ref="BF69" si="15">COUNT(B69:BE69)</f>
+        <f>COUNT(B69:BE69)</f>
         <v>1</v>
       </c>
       <c r="BG69" s="18">
-        <f t="shared" ref="BG69" si="16">AVERAGE(B69:BE69)</f>
+        <f>AVERAGE(B69:BE69)</f>
         <v>3</v>
       </c>
       <c r="BH69" t="str">
-        <f t="shared" ref="BH69" si="17">IF(BF69&gt;1,_xlfn.STDEV.S(B69:BE69),"")</f>
+        <f>IF(BF69&gt;1,_xlfn.STDEV.S(B69:BE69),"")</f>
         <v/>
       </c>
       <c r="BI69">
@@ -9971,7 +10027,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BI66" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}"/>
+  <autoFilter ref="A1:BI66" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
+    <sortState ref="A2:BI69">
+      <sortCondition descending="1" ref="BF1:BF66"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="AA2:BD38 BC20:BC67">
     <cfRule type="colorScale" priority="59">
       <colorScale>
@@ -10280,7 +10340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99312F67-43DE-48B9-BCC3-7D7A05DB9885}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -13145,10 +13205,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X158"/>
+  <dimension ref="A1:X161"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="J157" sqref="J157"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21047,6 +21107,156 @@
         <v>44</v>
       </c>
     </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A159" s="14">
+        <v>45833</v>
+      </c>
+      <c r="B159" s="3">
+        <v>5</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I159" s="9">
+        <v>7</v>
+      </c>
+      <c r="J159" s="10">
+        <v>2</v>
+      </c>
+      <c r="K159" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L159" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M159" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N159" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O159" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P159" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A160" s="14">
+        <v>45833</v>
+      </c>
+      <c r="B160" s="3">
+        <v>2</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G160" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H160" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I160" s="11">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2">
+        <v>1</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L160" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M160" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="N160" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O160" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P160" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A161" s="14">
+        <v>45833</v>
+      </c>
+      <c r="B161" s="5">
+        <v>5</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I161" s="5">
+        <v>2</v>
+      </c>
+      <c r="J161" s="8">
+        <v>10</v>
+      </c>
+      <c r="K161" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L161" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M161" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N161" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O161" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P161" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21054,11 +21264,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DDCCA6-42DC-4211-A42F-70F3625FA6AA}">
-  <dimension ref="A1:AI69"/>
+  <dimension ref="A1:AJ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B65" sqref="B65"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ69" sqref="AJ69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21073,10 +21283,10 @@
     <col min="21" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21182,8 +21392,11 @@
       <c r="AI1" s="1">
         <v>45826</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ1" s="1">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -21209,12 +21422,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -21246,12 +21459,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -21259,7 +21472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>366</v>
       </c>
@@ -21267,7 +21480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -21275,7 +21488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>355</v>
       </c>
@@ -21283,27 +21496,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -21341,7 +21554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -21370,7 +21583,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -21384,7 +21597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -21428,7 +21641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -21481,7 +21694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -21495,7 +21708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -21571,8 +21784,11 @@
       <c r="AH20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>342</v>
       </c>
@@ -21583,17 +21799,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -21607,7 +21823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -21647,8 +21863,11 @@
       <c r="AI25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>363</v>
       </c>
@@ -21656,7 +21875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -21720,8 +21939,11 @@
       <c r="AH27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>353</v>
       </c>
@@ -21729,7 +21951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -21797,7 +22019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -21873,8 +22095,11 @@
       <c r="AG30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -21882,7 +22107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -21890,7 +22115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -21948,13 +22173,16 @@
       <c r="AH33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -21971,7 +22199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -21979,7 +22207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>345</v>
       </c>
@@ -21987,12 +22215,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>347</v>
       </c>
@@ -22006,7 +22234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -22077,7 +22305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -22094,7 +22322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -22111,12 +22339,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -22181,7 +22409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -22189,7 +22417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>340</v>
       </c>
@@ -22212,17 +22440,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -22274,13 +22502,16 @@
       <c r="AG49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -22291,7 +22522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -22305,12 +22536,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -22327,7 +22558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -22344,7 +22575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -22361,12 +22592,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -22442,8 +22673,11 @@
       <c r="AI58">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -22451,7 +22685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>85</v>
       </c>
@@ -22465,7 +22699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -22550,8 +22784,11 @@
       <c r="AI61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -22559,7 +22796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -22597,7 +22834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>354</v>
       </c>
@@ -22605,12 +22842,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -22624,7 +22861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -22632,7 +22869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -22723,8 +22960,11 @@
       <c r="AI68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>47</v>
       </c>

--- a/data/condominio.xlsx
+++ b/data/condominio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="14_{98364A46-010F-4A4A-AA37-5A188387D7F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{914573A0-E674-43EB-A530-B472175839E0}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="14_{98364A46-010F-4A4A-AA37-5A188387D7F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{73843B0F-C22D-4A2E-97A1-D3CB3E0DA88B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,14 +26,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">artilharia!$A$1:$AB$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'artilharia total'!$A$1:$AI$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'extrato 2024'!$A$1:$C$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$BN$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$BN$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3999" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="376">
   <si>
     <t>Jogador</t>
   </si>
@@ -1149,6 +1149,18 @@
   </si>
   <si>
     <t>yuri</t>
+  </si>
+  <si>
+    <t>convidados</t>
+  </si>
+  <si>
+    <t>valor conv</t>
+  </si>
+  <si>
+    <t>valor mens</t>
+  </si>
+  <si>
+    <t>mensalidade</t>
   </si>
 </sst>
 </file>
@@ -2378,8 +2390,8 @@
   <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH1" sqref="BH1:BH1048576"/>
+      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BK4" sqref="BK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2585,7 +2597,9 @@
       <c r="BH1" s="1">
         <v>45868</v>
       </c>
-      <c r="BI1" s="1"/>
+      <c r="BI1" s="1">
+        <v>45875</v>
+      </c>
       <c r="BK1" t="s">
         <v>57</v>
       </c>
@@ -2771,17 +2785,20 @@
       <c r="BH2">
         <v>5.5</v>
       </c>
+      <c r="BI2">
+        <v>5.5</v>
+      </c>
       <c r="BK2">
         <f t="shared" ref="BK2:BK33" si="0">COUNT(B2:BJ2)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BL2" s="18">
         <f t="shared" ref="BL2:BL33" si="1">AVERAGE(B2:BJ2)</f>
-        <v>5.8181818181818183</v>
+        <v>5.8125</v>
       </c>
       <c r="BM2">
         <f t="shared" ref="BM2:BM33" si="2">IF(BK2&gt;1,_xlfn.STDEV.S(B2:BJ2),"")</f>
-        <v>1.1070633340460818</v>
+        <v>1.097776678730076</v>
       </c>
       <c r="BN2">
         <v>1</v>
@@ -2960,17 +2977,20 @@
       <c r="BE3">
         <v>7</v>
       </c>
+      <c r="BI3">
+        <v>5.5</v>
+      </c>
       <c r="BK3">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BL3" s="18">
         <f t="shared" si="1"/>
-        <v>5.5283018867924527</v>
+        <v>5.5277777777777777</v>
       </c>
       <c r="BM3">
         <f t="shared" si="2"/>
-        <v>0.92723272294304337</v>
+        <v>0.91845166400823475</v>
       </c>
       <c r="BN3">
         <v>1</v>
@@ -3149,17 +3169,20 @@
       <c r="BH4">
         <v>5</v>
       </c>
+      <c r="BI4">
+        <v>5</v>
+      </c>
       <c r="BK4">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BL4" s="18">
         <f t="shared" si="1"/>
-        <v>5.7884615384615383</v>
+        <v>5.7735849056603774</v>
       </c>
       <c r="BM4">
         <f t="shared" si="2"/>
-        <v>0.92007114945548174</v>
+        <v>0.91759529863413714</v>
       </c>
       <c r="BN4">
         <v>1</v>
@@ -3171,40 +3194,40 @@
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="B5">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="E5">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
-        <v>26</v>
+      <c r="G5">
+        <v>7</v>
       </c>
       <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
         <v>7</v>
       </c>
-      <c r="I5">
-        <v>5.5</v>
-      </c>
       <c r="J5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K5">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <v>6</v>
@@ -3213,128 +3236,137 @@
         <v>7</v>
       </c>
       <c r="O5">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P5">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q5">
         <v>7</v>
       </c>
       <c r="R5">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="S5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T5">
+        <v>7.5</v>
+      </c>
+      <c r="U5">
         <v>7</v>
       </c>
-      <c r="U5">
-        <v>6</v>
-      </c>
       <c r="V5">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="W5">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X5">
         <v>6</v>
       </c>
       <c r="Y5">
-        <v>5.5</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="Z5">
+        <v>6</v>
       </c>
       <c r="AA5">
         <v>7</v>
       </c>
       <c r="AB5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC5">
-        <v>6</v>
-      </c>
-      <c r="AD5">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>26</v>
       </c>
       <c r="AE5">
+        <v>7</v>
+      </c>
+      <c r="AF5">
+        <v>6</v>
+      </c>
+      <c r="AG5">
+        <v>6</v>
+      </c>
+      <c r="AH5">
+        <v>5</v>
+      </c>
+      <c r="AI5">
         <v>6.5</v>
       </c>
-      <c r="AF5">
-        <v>6</v>
-      </c>
-      <c r="AG5">
-        <v>6</v>
-      </c>
-      <c r="AH5">
-        <v>5</v>
-      </c>
-      <c r="AI5">
-        <v>6</v>
+      <c r="AJ5">
+        <v>5.5</v>
+      </c>
+      <c r="AK5">
+        <v>6.5</v>
       </c>
       <c r="AL5">
-        <v>3</v>
-      </c>
-      <c r="AM5">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AN5">
+        <v>6.5</v>
+      </c>
+      <c r="AO5">
         <v>5.5</v>
       </c>
-      <c r="AO5">
-        <v>5</v>
-      </c>
       <c r="AP5">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AV5">
-        <v>4</v>
-      </c>
-      <c r="AW5">
-        <v>4.5</v>
-      </c>
-      <c r="AX5">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AY5">
-        <v>5</v>
-      </c>
-      <c r="AZ5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA5">
         <v>5</v>
       </c>
       <c r="BB5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC5">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="BD5">
+        <v>6.5</v>
+      </c>
+      <c r="BE5">
+        <v>6</v>
+      </c>
+      <c r="BF5">
+        <v>5</v>
+      </c>
+      <c r="BG5">
+        <v>5.5</v>
       </c>
       <c r="BH5">
         <v>5.5</v>
       </c>
+      <c r="BI5">
+        <v>5</v>
+      </c>
       <c r="BK5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="BL5" s="18">
         <f t="shared" si="1"/>
-        <v>5.5888888888888886</v>
+        <v>6.3673469387755102</v>
       </c>
       <c r="BM5">
         <f t="shared" si="2"/>
-        <v>0.9063468687343964</v>
+        <v>0.84641099037397227</v>
       </c>
       <c r="BN5">
         <v>1</v>
       </c>
       <c r="BP5">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.3">
@@ -3881,17 +3913,20 @@
       <c r="BH8">
         <v>7.5</v>
       </c>
+      <c r="BI8">
+        <v>6.5</v>
+      </c>
       <c r="BK8">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BL8" s="18">
         <f t="shared" si="1"/>
-        <v>6.0666666666666664</v>
+        <v>6.0760869565217392</v>
       </c>
       <c r="BM8">
         <f t="shared" si="2"/>
-        <v>1.0954451150103317</v>
+        <v>1.0850877655458104</v>
       </c>
       <c r="BN8">
         <v>1</v>
@@ -3903,334 +3938,340 @@
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B9">
+        <v>4.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>5.5</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
         <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>7.5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>4.5</v>
       </c>
       <c r="I9">
         <v>5.5</v>
       </c>
-      <c r="J9" t="s">
-        <v>26</v>
+      <c r="J9">
+        <v>6</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M9">
         <v>6</v>
       </c>
-      <c r="N9" t="s">
-        <v>26</v>
+      <c r="N9">
+        <v>7</v>
       </c>
       <c r="O9">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="P9">
         <v>5.5</v>
       </c>
       <c r="Q9">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="R9">
         <v>6</v>
       </c>
       <c r="S9">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="T9">
         <v>7</v>
       </c>
-      <c r="U9" t="s">
-        <v>26</v>
+      <c r="U9">
+        <v>6</v>
       </c>
       <c r="V9">
-        <v>6</v>
-      </c>
-      <c r="W9" t="s">
-        <v>26</v>
+        <v>5.5</v>
+      </c>
+      <c r="W9">
+        <v>5.5</v>
       </c>
       <c r="X9">
+        <v>6</v>
+      </c>
+      <c r="Y9">
+        <v>5.5</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA9">
         <v>7</v>
       </c>
-      <c r="Y9">
-        <v>6</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA9">
-        <v>6</v>
-      </c>
       <c r="AB9">
+        <v>6</v>
+      </c>
+      <c r="AC9">
+        <v>6</v>
+      </c>
+      <c r="AD9">
+        <v>6</v>
+      </c>
+      <c r="AE9">
+        <v>6.5</v>
+      </c>
+      <c r="AF9">
+        <v>6</v>
+      </c>
+      <c r="AG9">
+        <v>6</v>
+      </c>
+      <c r="AH9">
+        <v>5</v>
+      </c>
+      <c r="AI9">
+        <v>6</v>
+      </c>
+      <c r="AL9">
+        <v>3</v>
+      </c>
+      <c r="AM9">
+        <v>4</v>
+      </c>
+      <c r="AN9">
         <v>5.5</v>
       </c>
-      <c r="AC9">
-        <v>6</v>
-      </c>
-      <c r="AD9">
+      <c r="AO9">
+        <v>5</v>
+      </c>
+      <c r="AP9">
+        <v>4.5</v>
+      </c>
+      <c r="AV9">
+        <v>4</v>
+      </c>
+      <c r="AW9">
+        <v>4.5</v>
+      </c>
+      <c r="AX9">
+        <v>4.5</v>
+      </c>
+      <c r="AY9">
+        <v>5</v>
+      </c>
+      <c r="AZ9">
+        <v>4</v>
+      </c>
+      <c r="BA9">
+        <v>5</v>
+      </c>
+      <c r="BB9">
+        <v>5</v>
+      </c>
+      <c r="BC9">
+        <v>6</v>
+      </c>
+      <c r="BH9">
         <v>5.5</v>
       </c>
-      <c r="AI9">
-        <v>5</v>
-      </c>
-      <c r="AL9">
+      <c r="BI9">
         <v>5.5</v>
-      </c>
-      <c r="AM9">
-        <v>5</v>
-      </c>
-      <c r="AN9">
-        <v>5</v>
-      </c>
-      <c r="AO9">
-        <v>5</v>
-      </c>
-      <c r="AP9">
-        <v>5</v>
-      </c>
-      <c r="AQ9">
-        <v>5</v>
-      </c>
-      <c r="AR9">
-        <v>4.5</v>
-      </c>
-      <c r="AS9">
-        <v>5.5</v>
-      </c>
-      <c r="AT9">
-        <v>5.5</v>
-      </c>
-      <c r="AV9">
-        <v>5</v>
-      </c>
-      <c r="AY9">
-        <v>4.5</v>
-      </c>
-      <c r="AZ9">
-        <v>5</v>
-      </c>
-      <c r="BB9">
-        <v>5</v>
-      </c>
-      <c r="BC9">
-        <v>6</v>
-      </c>
-      <c r="BD9">
-        <v>6</v>
-      </c>
-      <c r="BE9">
-        <v>6</v>
-      </c>
-      <c r="BF9">
-        <v>5</v>
-      </c>
-      <c r="BG9">
-        <v>5.5</v>
-      </c>
-      <c r="BH9">
-        <v>5</v>
       </c>
       <c r="BK9">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="BL9" s="18">
         <f t="shared" si="1"/>
-        <v>5.6190476190476186</v>
+        <v>5.5869565217391308</v>
       </c>
       <c r="BM9">
         <f t="shared" si="2"/>
-        <v>0.73922771013620536</v>
+        <v>0.89631559314344067</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP9">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
+      <c r="D10">
+        <v>7.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
         <v>4.5</v>
       </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10">
+      <c r="I10">
+        <v>5.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>5.5</v>
+      </c>
+      <c r="Q10">
+        <v>5.5</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
         <v>4.5</v>
       </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10">
-        <v>2.5</v>
-      </c>
-      <c r="M10">
+      <c r="T10">
+        <v>7</v>
+      </c>
+      <c r="U10" t="s">
+        <v>26</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10">
+        <v>7</v>
+      </c>
+      <c r="Y10">
+        <v>6</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA10">
+        <v>6</v>
+      </c>
+      <c r="AB10">
+        <v>5.5</v>
+      </c>
+      <c r="AC10">
+        <v>6</v>
+      </c>
+      <c r="AD10">
+        <v>5.5</v>
+      </c>
+      <c r="AI10">
+        <v>5</v>
+      </c>
+      <c r="AL10">
+        <v>5.5</v>
+      </c>
+      <c r="AM10">
+        <v>5</v>
+      </c>
+      <c r="AN10">
+        <v>5</v>
+      </c>
+      <c r="AO10">
+        <v>5</v>
+      </c>
+      <c r="AP10">
+        <v>5</v>
+      </c>
+      <c r="AQ10">
+        <v>5</v>
+      </c>
+      <c r="AR10">
         <v>4.5</v>
       </c>
-      <c r="N10">
+      <c r="AS10">
         <v>5.5</v>
       </c>
-      <c r="O10">
-        <v>6</v>
-      </c>
-      <c r="P10">
-        <v>4.5</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R10" t="s">
-        <v>26</v>
-      </c>
-      <c r="S10">
-        <v>4</v>
-      </c>
-      <c r="T10">
-        <v>6</v>
-      </c>
-      <c r="U10">
-        <v>2.5</v>
-      </c>
-      <c r="V10">
+      <c r="AT10">
         <v>5.5</v>
       </c>
-      <c r="W10">
-        <v>6</v>
-      </c>
-      <c r="X10">
-        <v>6</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z10">
-        <v>5.5</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC10">
-        <v>4</v>
-      </c>
-      <c r="AD10">
-        <v>4.5</v>
-      </c>
-      <c r="AE10">
-        <v>4</v>
-      </c>
-      <c r="AF10">
-        <v>2.5</v>
-      </c>
-      <c r="AG10">
-        <v>3</v>
-      </c>
-      <c r="AH10">
-        <v>5</v>
-      </c>
-      <c r="AK10">
-        <v>5</v>
-      </c>
-      <c r="AL10">
-        <v>2.5</v>
-      </c>
-      <c r="AM10">
-        <v>4</v>
-      </c>
-      <c r="AO10">
-        <v>5.5</v>
-      </c>
-      <c r="AP10">
-        <v>5.5</v>
-      </c>
-      <c r="AQ10">
-        <v>4</v>
-      </c>
-      <c r="AR10">
-        <v>3.5</v>
-      </c>
-      <c r="AT10">
-        <v>5</v>
-      </c>
-      <c r="AU10">
-        <v>4</v>
-      </c>
-      <c r="AX10">
-        <v>5.5</v>
+      <c r="AV10">
+        <v>5</v>
       </c>
       <c r="AY10">
         <v>4.5</v>
       </c>
       <c r="AZ10">
-        <v>4.5</v>
-      </c>
-      <c r="BA10">
+        <v>5</v>
+      </c>
+      <c r="BB10">
         <v>5</v>
       </c>
       <c r="BC10">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="BD10">
+        <v>6</v>
       </c>
       <c r="BE10">
-        <v>4.5</v>
+        <v>6</v>
+      </c>
+      <c r="BF10">
+        <v>5</v>
+      </c>
+      <c r="BG10">
+        <v>5.5</v>
+      </c>
+      <c r="BH10">
+        <v>5</v>
+      </c>
+      <c r="BI10">
+        <v>5</v>
       </c>
       <c r="BK10">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="BL10" s="18">
         <f t="shared" si="1"/>
-        <v>4.5270270270270272</v>
+        <v>5.6046511627906979</v>
       </c>
       <c r="BM10">
         <f t="shared" si="2"/>
-        <v>1.0471253370401621</v>
+        <v>0.73645013679590654</v>
       </c>
       <c r="BN10">
         <v>1</v>
@@ -4242,37 +4283,37 @@
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11">
+        <v>5.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
         <v>7.5</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
+      <c r="E11">
+        <v>7.5</v>
+      </c>
+      <c r="F11">
+        <v>7.5</v>
+      </c>
+      <c r="G11">
+        <v>5.5</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
       </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
+      <c r="I11">
+        <v>4.5</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
       </c>
       <c r="L11" t="s">
         <v>26</v>
@@ -4280,14 +4321,14 @@
       <c r="M11" t="s">
         <v>26</v>
       </c>
-      <c r="N11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" t="s">
-        <v>26</v>
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <v>5.5</v>
+      </c>
+      <c r="P11">
+        <v>6</v>
       </c>
       <c r="Q11" t="s">
         <v>26</v>
@@ -4295,179 +4336,170 @@
       <c r="R11" t="s">
         <v>26</v>
       </c>
-      <c r="S11" t="s">
-        <v>26</v>
-      </c>
-      <c r="T11" t="s">
-        <v>26</v>
+      <c r="S11">
+        <v>4.5</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
       </c>
       <c r="U11" t="s">
         <v>26</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11">
+        <v>6</v>
+      </c>
+      <c r="Y11">
+        <v>6</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA11">
+        <v>4.5</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC11">
         <v>7</v>
       </c>
-      <c r="W11">
-        <v>7</v>
-      </c>
-      <c r="X11">
-        <v>6</v>
-      </c>
-      <c r="Y11">
-        <v>7</v>
-      </c>
-      <c r="Z11">
-        <v>7.5</v>
-      </c>
-      <c r="AA11">
-        <v>7</v>
-      </c>
-      <c r="AB11">
-        <v>7</v>
-      </c>
-      <c r="AC11">
-        <v>7.5</v>
-      </c>
-      <c r="AD11">
-        <v>7</v>
+      <c r="AD11" t="s">
+        <v>26</v>
       </c>
       <c r="AE11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF11">
-        <v>6.5</v>
+        <v>6</v>
+      </c>
+      <c r="AG11">
+        <v>4.5</v>
       </c>
       <c r="AH11">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI11">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ11">
         <v>5.5</v>
       </c>
       <c r="AK11">
+        <v>7</v>
+      </c>
+      <c r="AL11">
+        <v>5</v>
+      </c>
+      <c r="AM11">
+        <v>4.5</v>
+      </c>
+      <c r="AN11">
+        <v>4.5</v>
+      </c>
+      <c r="AO11">
+        <v>5</v>
+      </c>
+      <c r="AP11">
+        <v>5</v>
+      </c>
+      <c r="AR11">
         <v>5.5</v>
       </c>
-      <c r="AL11">
-        <v>6</v>
-      </c>
-      <c r="AM11">
-        <v>5</v>
-      </c>
-      <c r="AN11">
-        <v>5</v>
-      </c>
-      <c r="AO11">
-        <v>5</v>
-      </c>
-      <c r="AP11">
+      <c r="AS11">
         <v>5.5</v>
       </c>
-      <c r="AQ11">
-        <v>5.5</v>
-      </c>
-      <c r="AR11">
-        <v>6</v>
-      </c>
-      <c r="AS11">
-        <v>5</v>
-      </c>
       <c r="AT11">
-        <v>5.5</v>
+        <v>5</v>
+      </c>
+      <c r="AU11">
+        <v>6</v>
       </c>
       <c r="AV11">
+        <v>5</v>
+      </c>
+      <c r="AX11">
+        <v>5</v>
+      </c>
+      <c r="AY11">
         <v>4.5</v>
       </c>
-      <c r="AX11">
-        <v>6</v>
-      </c>
-      <c r="AY11">
-        <v>5.5</v>
-      </c>
-      <c r="AZ11">
-        <v>6.5</v>
-      </c>
-      <c r="BA11">
-        <v>5</v>
-      </c>
-      <c r="BB11">
-        <v>5</v>
-      </c>
-      <c r="BC11">
-        <v>9.5</v>
-      </c>
       <c r="BD11">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="BE11">
-        <v>6.5</v>
-      </c>
-      <c r="BF11">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="BG11">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="BH11">
         <v>5.5</v>
       </c>
+      <c r="BI11">
+        <v>5</v>
+      </c>
       <c r="BK11">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="BL11" s="18">
         <f t="shared" si="1"/>
-        <v>6.0945945945945947</v>
+        <v>5.5121951219512191</v>
       </c>
       <c r="BM11">
         <f t="shared" si="2"/>
-        <v>1.0330499466106144</v>
+        <v>1.0576377267172392</v>
       </c>
       <c r="BN11">
         <v>1</v>
       </c>
       <c r="BP11">
         <f t="shared" si="3"/>
-        <v>5.833333333333333</v>
+        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>368</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="D12">
-        <v>7</v>
+      <c r="D12" t="s">
+        <v>26</v>
       </c>
       <c r="E12">
         <v>7</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
       </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" t="s">
-        <v>26</v>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
       </c>
       <c r="J12" t="s">
         <v>26</v>
       </c>
-      <c r="K12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" t="s">
-        <v>26</v>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
       </c>
       <c r="M12">
         <v>6</v>
@@ -4479,19 +4511,19 @@
         <v>6</v>
       </c>
       <c r="P12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q12">
+        <v>5.5</v>
+      </c>
+      <c r="R12">
+        <v>7.5</v>
+      </c>
+      <c r="S12">
         <v>7</v>
       </c>
-      <c r="R12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S12" t="s">
-        <v>26</v>
-      </c>
       <c r="T12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U12">
         <v>6</v>
@@ -4500,13 +4532,13 @@
         <v>7</v>
       </c>
       <c r="W12">
-        <v>6</v>
-      </c>
-      <c r="X12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y12">
-        <v>8.5</v>
+        <v>7</v>
+      </c>
+      <c r="X12">
+        <v>7</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>26</v>
       </c>
       <c r="Z12">
         <v>6</v>
@@ -4514,46 +4546,46 @@
       <c r="AA12">
         <v>6</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC12">
+        <v>6</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF12">
+        <v>7</v>
+      </c>
+      <c r="AG12">
         <v>5.5</v>
       </c>
-      <c r="AC12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE12">
-        <v>6</v>
-      </c>
-      <c r="AF12">
-        <v>6.5</v>
-      </c>
-      <c r="AG12">
+      <c r="AH12">
+        <v>5.5</v>
+      </c>
+      <c r="AI12">
+        <v>5.5</v>
+      </c>
+      <c r="AJ12">
+        <v>5.5</v>
+      </c>
+      <c r="AK12">
         <v>6.5</v>
       </c>
       <c r="AL12">
         <v>4.5</v>
       </c>
-      <c r="AM12">
-        <v>5.5</v>
-      </c>
-      <c r="AQ12">
-        <v>5</v>
-      </c>
-      <c r="AT12">
-        <v>5.5</v>
-      </c>
-      <c r="AU12">
-        <v>5.5</v>
-      </c>
       <c r="AV12">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AW12">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX12">
+        <v>5</v>
+      </c>
+      <c r="AY12">
         <v>5.5</v>
       </c>
       <c r="AZ12">
@@ -4562,44 +4594,44 @@
       <c r="BA12">
         <v>5</v>
       </c>
-      <c r="BC12">
-        <v>7</v>
+      <c r="BD12">
+        <v>4.5</v>
       </c>
       <c r="BE12">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="BF12">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="BG12">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="BH12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK12">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BL12" s="18">
         <f t="shared" si="1"/>
-        <v>6.0857142857142854</v>
+        <v>6.1749999999999998</v>
       </c>
       <c r="BM12">
         <f t="shared" si="2"/>
-        <v>1.0946777277953066</v>
+        <v>1.1183206273877935</v>
       </c>
       <c r="BN12">
         <v>1</v>
       </c>
-      <c r="BP12" t="e">
+      <c r="BP12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>5.833333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -4610,14 +4642,14 @@
       <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
+      <c r="E13">
+        <v>4.5</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -4625,44 +4657,44 @@
       <c r="I13" t="s">
         <v>26</v>
       </c>
-      <c r="J13" t="s">
-        <v>26</v>
+      <c r="J13">
+        <v>4.5</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
       </c>
-      <c r="L13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" t="s">
-        <v>26</v>
+      <c r="L13">
+        <v>2.5</v>
+      </c>
+      <c r="M13">
+        <v>4.5</v>
+      </c>
+      <c r="N13">
+        <v>5.5</v>
       </c>
       <c r="O13">
         <v>6</v>
       </c>
-      <c r="P13" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13">
+      <c r="P13">
         <v>4.5</v>
       </c>
+      <c r="Q13" t="s">
+        <v>26</v>
+      </c>
       <c r="R13" t="s">
         <v>26</v>
       </c>
-      <c r="S13" t="s">
-        <v>26</v>
+      <c r="S13">
+        <v>4</v>
       </c>
       <c r="T13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U13">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="V13">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="W13">
         <v>6</v>
@@ -4670,92 +4702,107 @@
       <c r="X13">
         <v>6</v>
       </c>
-      <c r="Y13">
-        <v>7.5</v>
+      <c r="Y13" t="s">
+        <v>26</v>
       </c>
       <c r="Z13">
-        <v>6</v>
-      </c>
-      <c r="AA13">
-        <v>6</v>
+        <v>5.5</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>26</v>
       </c>
       <c r="AB13" t="s">
         <v>26</v>
       </c>
       <c r="AC13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD13">
-        <v>7</v>
+        <v>4.5</v>
+      </c>
+      <c r="AE13">
+        <v>4</v>
       </c>
       <c r="AF13">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="AG13">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="AH13">
+        <v>5</v>
+      </c>
+      <c r="AK13">
+        <v>5</v>
+      </c>
+      <c r="AL13">
+        <v>2.5</v>
+      </c>
+      <c r="AM13">
+        <v>4</v>
+      </c>
+      <c r="AO13">
+        <v>5.5</v>
+      </c>
+      <c r="AP13">
+        <v>5.5</v>
       </c>
       <c r="AQ13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AR13">
-        <v>6.5</v>
-      </c>
-      <c r="AS13">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AT13">
         <v>5</v>
       </c>
       <c r="AU13">
-        <v>5</v>
-      </c>
-      <c r="AV13">
-        <v>5</v>
-      </c>
-      <c r="AW13">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AX13">
+        <v>5.5</v>
+      </c>
+      <c r="AY13">
+        <v>4.5</v>
       </c>
       <c r="AZ13">
-        <v>5.5</v>
+        <v>4.5</v>
+      </c>
+      <c r="BA13">
+        <v>5</v>
       </c>
       <c r="BC13">
+        <v>4</v>
+      </c>
+      <c r="BE13">
         <v>4.5</v>
-      </c>
-      <c r="BE13">
-        <v>5.5</v>
-      </c>
-      <c r="BF13">
-        <v>5.5</v>
-      </c>
-      <c r="BH13">
-        <v>5.5</v>
       </c>
       <c r="BK13">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="BL13" s="18">
         <f t="shared" si="1"/>
-        <v>5.9230769230769234</v>
+        <v>4.5270270270270272</v>
       </c>
       <c r="BM13">
         <f t="shared" si="2"/>
-        <v>0.86824314212445841</v>
+        <v>1.0471253370401621</v>
       </c>
       <c r="BN13">
         <v>1</v>
       </c>
-      <c r="BP13" t="e">
+      <c r="BP13">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>7.5</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -4815,289 +4862,298 @@
         <v>26</v>
       </c>
       <c r="V14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W14">
-        <v>6</v>
-      </c>
-      <c r="X14" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="X14">
+        <v>6</v>
       </c>
       <c r="Y14">
-        <v>6</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="Z14">
+        <v>7.5</v>
+      </c>
+      <c r="AA14">
+        <v>7</v>
       </c>
       <c r="AB14">
         <v>7</v>
       </c>
       <c r="AC14">
-        <v>6</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>26</v>
+        <v>7.5</v>
+      </c>
+      <c r="AD14">
+        <v>7</v>
       </c>
       <c r="AE14">
         <v>6</v>
       </c>
       <c r="AF14">
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="AH14">
+        <v>6.5</v>
+      </c>
+      <c r="AI14">
+        <v>6.5</v>
+      </c>
+      <c r="AJ14">
+        <v>5.5</v>
+      </c>
+      <c r="AK14">
+        <v>5.5</v>
+      </c>
+      <c r="AL14">
+        <v>6</v>
       </c>
       <c r="AM14">
+        <v>5</v>
+      </c>
+      <c r="AN14">
+        <v>5</v>
+      </c>
+      <c r="AO14">
+        <v>5</v>
+      </c>
+      <c r="AP14">
+        <v>5.5</v>
+      </c>
+      <c r="AQ14">
+        <v>5.5</v>
+      </c>
+      <c r="AR14">
+        <v>6</v>
+      </c>
+      <c r="AS14">
+        <v>5</v>
+      </c>
+      <c r="AT14">
+        <v>5.5</v>
+      </c>
+      <c r="AV14">
         <v>4.5</v>
       </c>
-      <c r="AP14">
-        <v>5</v>
-      </c>
-      <c r="AQ14">
+      <c r="AX14">
+        <v>6</v>
+      </c>
+      <c r="AY14">
+        <v>5.5</v>
+      </c>
+      <c r="AZ14">
+        <v>6.5</v>
+      </c>
+      <c r="BA14">
+        <v>5</v>
+      </c>
+      <c r="BB14">
+        <v>5</v>
+      </c>
+      <c r="BC14">
+        <v>9.5</v>
+      </c>
+      <c r="BD14">
+        <v>5.5</v>
+      </c>
+      <c r="BE14">
+        <v>6.5</v>
+      </c>
+      <c r="BF14">
         <v>4.5</v>
       </c>
-      <c r="AR14">
-        <v>5</v>
-      </c>
-      <c r="AS14">
-        <v>4.5</v>
-      </c>
-      <c r="AT14">
-        <v>4.5</v>
-      </c>
-      <c r="AU14">
-        <v>4</v>
-      </c>
-      <c r="AV14">
-        <v>5</v>
-      </c>
-      <c r="AW14">
-        <v>4.5</v>
-      </c>
-      <c r="AX14">
-        <v>5</v>
-      </c>
-      <c r="AY14">
-        <v>5</v>
-      </c>
-      <c r="AZ14">
-        <v>5</v>
-      </c>
-      <c r="BA14">
-        <v>4.5</v>
-      </c>
-      <c r="BB14">
-        <v>4.5</v>
+      <c r="BG14">
+        <v>6</v>
+      </c>
+      <c r="BH14">
+        <v>5.5</v>
+      </c>
+      <c r="BI14">
+        <v>7</v>
       </c>
       <c r="BK14">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="BL14" s="18">
         <f t="shared" si="1"/>
-        <v>5.1190476190476186</v>
+        <v>6.1184210526315788</v>
       </c>
       <c r="BM14">
         <f t="shared" si="2"/>
-        <v>0.75671596231284044</v>
+        <v>1.0295250185736784</v>
       </c>
       <c r="BN14">
         <v>1</v>
       </c>
-      <c r="BP14" t="e">
+      <c r="BP14">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>5.833333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
+      <c r="D15">
+        <v>4.5</v>
+      </c>
+      <c r="E15">
+        <v>4.5</v>
+      </c>
+      <c r="F15">
+        <v>5.5</v>
+      </c>
+      <c r="G15">
+        <v>5.5</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
       </c>
-      <c r="J15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" t="s">
-        <v>26</v>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>5.5</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
       </c>
       <c r="N15" t="s">
         <v>26</v>
       </c>
-      <c r="O15" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>26</v>
-      </c>
-      <c r="R15" t="s">
-        <v>26</v>
-      </c>
-      <c r="S15" t="s">
-        <v>26</v>
-      </c>
-      <c r="T15" t="s">
-        <v>26</v>
-      </c>
-      <c r="U15" t="s">
-        <v>26</v>
-      </c>
-      <c r="V15" t="s">
-        <v>26</v>
-      </c>
-      <c r="W15" t="s">
-        <v>26</v>
-      </c>
-      <c r="X15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>26</v>
+      <c r="O15">
+        <v>5.5</v>
+      </c>
+      <c r="P15">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>4.5</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>7</v>
+      </c>
+      <c r="T15">
+        <v>5.5</v>
+      </c>
+      <c r="U15">
+        <v>5.5</v>
+      </c>
+      <c r="V15">
+        <v>5.5</v>
+      </c>
+      <c r="W15">
+        <v>5.5</v>
+      </c>
+      <c r="X15">
+        <v>6</v>
+      </c>
+      <c r="Y15">
+        <v>5.5</v>
       </c>
       <c r="Z15" t="s">
         <v>26</v>
       </c>
-      <c r="AA15" t="s">
-        <v>26</v>
+      <c r="AA15">
+        <v>7</v>
       </c>
       <c r="AB15">
+        <v>6</v>
+      </c>
+      <c r="AC15">
+        <v>6</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE15">
+        <v>7</v>
+      </c>
+      <c r="AH15">
+        <v>6.5</v>
+      </c>
+      <c r="AI15">
         <v>4.5</v>
       </c>
-      <c r="AC15">
-        <v>6</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE15">
-        <v>6.5</v>
-      </c>
-      <c r="AF15">
-        <v>6</v>
-      </c>
-      <c r="AG15">
-        <v>6.5</v>
-      </c>
-      <c r="AH15">
-        <v>5</v>
-      </c>
-      <c r="AI15">
+      <c r="AK15">
+        <v>5</v>
+      </c>
+      <c r="AL15">
+        <v>5</v>
+      </c>
+      <c r="AM15">
         <v>5.5</v>
       </c>
-      <c r="AL15">
-        <v>5</v>
-      </c>
-      <c r="AO15">
-        <v>5.5</v>
-      </c>
-      <c r="AP15">
-        <v>6</v>
-      </c>
-      <c r="AQ15">
-        <v>5.5</v>
+      <c r="AN15">
+        <v>4</v>
       </c>
       <c r="AT15">
         <v>4.5</v>
       </c>
-      <c r="AU15">
-        <v>5</v>
-      </c>
-      <c r="AV15">
-        <v>5</v>
-      </c>
-      <c r="AW15">
+      <c r="AZ15">
         <v>4.5</v>
       </c>
-      <c r="AX15">
-        <v>5</v>
-      </c>
-      <c r="AZ15">
-        <v>5</v>
-      </c>
-      <c r="BA15">
+      <c r="BC15">
+        <v>4</v>
+      </c>
+      <c r="BG15">
+        <v>4.5</v>
+      </c>
+      <c r="BH15">
         <v>5.5</v>
       </c>
-      <c r="BB15">
-        <v>5.5</v>
-      </c>
-      <c r="BC15">
-        <v>4</v>
-      </c>
-      <c r="BD15">
-        <v>4.5</v>
-      </c>
-      <c r="BE15">
-        <v>4.5</v>
-      </c>
-      <c r="BF15">
-        <v>4.5</v>
-      </c>
-      <c r="BG15">
+      <c r="BI15">
         <v>5</v>
       </c>
       <c r="BK15">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="BL15" s="18">
         <f t="shared" si="1"/>
-        <v>5.1875</v>
+        <v>5.5270270270270272</v>
       </c>
       <c r="BM15">
         <f t="shared" si="2"/>
-        <v>0.67264080471966092</v>
+        <v>0.85753155065009634</v>
       </c>
       <c r="BN15">
         <v>1</v>
       </c>
       <c r="BP15">
         <f t="shared" si="3"/>
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -5105,164 +5161,158 @@
       <c r="F16">
         <v>6</v>
       </c>
-      <c r="G16">
-        <v>7</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16">
-        <v>7</v>
-      </c>
-      <c r="J16">
-        <v>7</v>
-      </c>
-      <c r="K16">
-        <v>7</v>
-      </c>
-      <c r="L16">
-        <v>6</v>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
       </c>
       <c r="M16">
         <v>6</v>
       </c>
       <c r="N16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q16">
         <v>7</v>
       </c>
-      <c r="R16">
-        <v>7.5</v>
-      </c>
-      <c r="S16">
-        <v>7</v>
+      <c r="R16" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" t="s">
+        <v>26</v>
       </c>
       <c r="T16">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="U16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V16">
         <v>7</v>
       </c>
       <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y16">
+        <v>8.5</v>
+      </c>
+      <c r="Z16">
+        <v>6</v>
+      </c>
+      <c r="AA16">
+        <v>6</v>
+      </c>
+      <c r="AB16">
+        <v>5.5</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE16">
+        <v>6</v>
+      </c>
+      <c r="AF16">
+        <v>6.5</v>
+      </c>
+      <c r="AG16">
+        <v>6.5</v>
+      </c>
+      <c r="AL16">
+        <v>4.5</v>
+      </c>
+      <c r="AM16">
+        <v>5.5</v>
+      </c>
+      <c r="AQ16">
+        <v>5</v>
+      </c>
+      <c r="AT16">
+        <v>5.5</v>
+      </c>
+      <c r="AU16">
+        <v>5.5</v>
+      </c>
+      <c r="AV16">
+        <v>5</v>
+      </c>
+      <c r="AW16">
+        <v>5</v>
+      </c>
+      <c r="AX16">
+        <v>5.5</v>
+      </c>
+      <c r="AZ16">
+        <v>5.5</v>
+      </c>
+      <c r="BA16">
+        <v>5</v>
+      </c>
+      <c r="BC16">
         <v>7</v>
       </c>
-      <c r="X16">
-        <v>6</v>
-      </c>
-      <c r="Y16">
-        <v>6</v>
-      </c>
-      <c r="Z16">
-        <v>6</v>
-      </c>
-      <c r="AA16">
-        <v>7</v>
-      </c>
-      <c r="AB16">
-        <v>7</v>
-      </c>
-      <c r="AC16">
-        <v>7</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE16">
-        <v>7</v>
-      </c>
-      <c r="AF16">
-        <v>6</v>
-      </c>
-      <c r="AG16">
-        <v>6</v>
-      </c>
-      <c r="AH16">
-        <v>5</v>
-      </c>
-      <c r="AI16">
-        <v>6.5</v>
-      </c>
-      <c r="AJ16">
-        <v>5.5</v>
-      </c>
-      <c r="AK16">
-        <v>6.5</v>
-      </c>
-      <c r="AL16">
-        <v>5.5</v>
-      </c>
-      <c r="AN16">
-        <v>6.5</v>
-      </c>
-      <c r="AO16">
-        <v>5.5</v>
-      </c>
-      <c r="AP16">
-        <v>6</v>
-      </c>
-      <c r="AV16">
-        <v>5</v>
-      </c>
-      <c r="AY16">
-        <v>6</v>
-      </c>
-      <c r="BA16">
-        <v>5</v>
-      </c>
-      <c r="BB16">
-        <v>6</v>
-      </c>
-      <c r="BC16">
-        <v>5</v>
-      </c>
-      <c r="BD16">
-        <v>6.5</v>
-      </c>
       <c r="BE16">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="BF16">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="BG16">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BH16">
-        <v>5.5</v>
+        <v>6</v>
+      </c>
+      <c r="BI16">
+        <v>5</v>
       </c>
       <c r="BK16">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="BL16" s="18">
         <f t="shared" si="1"/>
-        <v>6.395833333333333</v>
+        <v>6.0555555555555554</v>
       </c>
       <c r="BM16">
         <f t="shared" si="2"/>
-        <v>0.8312918255888132</v>
+        <v>1.0939951539314046</v>
       </c>
       <c r="BN16">
         <v>1</v>
       </c>
-      <c r="BP16">
+      <c r="BP16" t="e">
         <f>AVERAGE(AI16:AK16)</f>
-        <v>6.166666666666667</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -5276,269 +5326,299 @@
       <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17">
         <v>5.5</v>
       </c>
-      <c r="G17">
+      <c r="R17" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17">
+        <v>7</v>
+      </c>
+      <c r="T17" t="s">
+        <v>26</v>
+      </c>
+      <c r="U17" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17">
+        <v>7</v>
+      </c>
+      <c r="W17" t="s">
+        <v>26</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>7</v>
+      </c>
+      <c r="Z17">
+        <v>7</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB17">
+        <v>7</v>
+      </c>
+      <c r="AC17">
         <v>4.5</v>
       </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" t="s">
-        <v>26</v>
-      </c>
-      <c r="O17" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q17">
-        <v>6</v>
-      </c>
-      <c r="R17" t="s">
-        <v>26</v>
-      </c>
-      <c r="S17">
-        <v>6</v>
-      </c>
-      <c r="T17">
-        <v>6</v>
-      </c>
-      <c r="U17" t="s">
-        <v>26</v>
-      </c>
-      <c r="V17" t="s">
-        <v>26</v>
-      </c>
-      <c r="W17" t="s">
-        <v>26</v>
-      </c>
-      <c r="X17" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>26</v>
+      <c r="AD17">
+        <v>7</v>
+      </c>
+      <c r="AE17">
+        <v>6</v>
+      </c>
+      <c r="AF17">
+        <v>5</v>
       </c>
       <c r="AG17">
         <v>6.5</v>
       </c>
+      <c r="AH17">
+        <v>6.5</v>
+      </c>
       <c r="AI17">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="AJ17">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AK17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL17">
-        <v>5</v>
-      </c>
-      <c r="AN17">
+        <v>6</v>
+      </c>
+      <c r="AM17">
         <v>5</v>
       </c>
       <c r="AO17">
         <v>5</v>
       </c>
+      <c r="AP17">
+        <v>5.5</v>
+      </c>
+      <c r="AQ17">
+        <v>4.5</v>
+      </c>
+      <c r="AR17">
+        <v>5</v>
+      </c>
+      <c r="AS17">
+        <v>5</v>
+      </c>
+      <c r="AT17">
+        <v>5</v>
+      </c>
+      <c r="AU17">
+        <v>6</v>
+      </c>
+      <c r="AV17">
+        <v>4.5</v>
+      </c>
       <c r="AW17">
-        <v>4.5</v>
-      </c>
-      <c r="AX17">
-        <v>4.5</v>
-      </c>
-      <c r="AY17">
-        <v>4.5</v>
-      </c>
-      <c r="AZ17">
-        <v>4.5</v>
-      </c>
-      <c r="BB17">
-        <v>5.5</v>
-      </c>
-      <c r="BC17">
-        <v>2.5</v>
-      </c>
-      <c r="BE17">
-        <v>4</v>
-      </c>
-      <c r="BF17">
-        <v>5</v>
-      </c>
-      <c r="BG17">
-        <v>3.5</v>
-      </c>
-      <c r="BH17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BK17">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BL17" s="18">
         <f t="shared" si="1"/>
-        <v>4.7173913043478262</v>
+        <v>5.7407407407407405</v>
       </c>
       <c r="BM17">
         <f t="shared" si="2"/>
-        <v>1.0425720702853738</v>
+        <v>0.90267093384844077</v>
       </c>
       <c r="BN17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP17">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+      <c r="P18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18">
+        <v>4.5</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18">
         <v>7</v>
-      </c>
-      <c r="C18">
-        <v>5.5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18">
-        <v>6</v>
-      </c>
-      <c r="H18">
-        <v>4.5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18">
-        <v>6</v>
-      </c>
-      <c r="Q18">
-        <v>5.5</v>
-      </c>
-      <c r="R18">
-        <v>7</v>
-      </c>
-      <c r="S18">
-        <v>6</v>
-      </c>
-      <c r="T18">
-        <v>6</v>
       </c>
       <c r="U18">
         <v>7</v>
       </c>
       <c r="V18">
+        <v>6</v>
+      </c>
+      <c r="W18">
+        <v>6</v>
+      </c>
+      <c r="X18">
+        <v>6</v>
+      </c>
+      <c r="Y18">
+        <v>7.5</v>
+      </c>
+      <c r="Z18">
+        <v>6</v>
+      </c>
+      <c r="AA18">
+        <v>6</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC18">
+        <v>6</v>
+      </c>
+      <c r="AD18">
+        <v>7</v>
+      </c>
+      <c r="AF18">
+        <v>7</v>
+      </c>
+      <c r="AG18">
+        <v>7</v>
+      </c>
+      <c r="AQ18">
+        <v>7</v>
+      </c>
+      <c r="AR18">
+        <v>6.5</v>
+      </c>
+      <c r="AS18">
+        <v>5</v>
+      </c>
+      <c r="AT18">
+        <v>5</v>
+      </c>
+      <c r="AU18">
+        <v>5</v>
+      </c>
+      <c r="AV18">
+        <v>5</v>
+      </c>
+      <c r="AW18">
+        <v>5</v>
+      </c>
+      <c r="AZ18">
         <v>5.5</v>
       </c>
-      <c r="W18">
-        <v>6</v>
-      </c>
-      <c r="X18">
+      <c r="BC18">
+        <v>4.5</v>
+      </c>
+      <c r="BE18">
         <v>5.5</v>
       </c>
-      <c r="Y18">
-        <v>7</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA18">
-        <v>7</v>
-      </c>
-      <c r="AB18">
-        <v>6</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD18">
-        <v>6</v>
-      </c>
-      <c r="BB18">
-        <v>3.5</v>
-      </c>
-      <c r="BC18">
-        <v>4</v>
-      </c>
-      <c r="BD18">
-        <v>5</v>
-      </c>
-      <c r="BE18">
-        <v>7</v>
+      <c r="BF18">
+        <v>5.5</v>
       </c>
       <c r="BH18">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="BK18">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BL18" s="18">
         <f t="shared" si="1"/>
-        <v>5.8181818181818183</v>
+        <v>5.9230769230769234</v>
       </c>
       <c r="BM18">
         <f t="shared" si="2"/>
-        <v>0.99457402398086392</v>
+        <v>0.86824314212445841</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -5550,421 +5630,478 @@
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>346</v>
-      </c>
-      <c r="AN19">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" t="s">
+        <v>26</v>
+      </c>
+      <c r="V19" t="s">
+        <v>26</v>
+      </c>
+      <c r="W19" t="s">
+        <v>26</v>
+      </c>
+      <c r="X19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB19">
+        <v>4.5</v>
+      </c>
+      <c r="AC19">
+        <v>6</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE19">
+        <v>6.5</v>
+      </c>
+      <c r="AF19">
+        <v>6</v>
+      </c>
+      <c r="AG19">
+        <v>6.5</v>
+      </c>
+      <c r="AH19">
+        <v>5</v>
+      </c>
+      <c r="AI19">
         <v>5.5</v>
       </c>
+      <c r="AL19">
+        <v>5</v>
+      </c>
       <c r="AO19">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="AP19">
+        <v>6</v>
       </c>
       <c r="AQ19">
-        <v>6</v>
-      </c>
-      <c r="AS19">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AT19">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AU19">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="AV19">
+        <v>5</v>
       </c>
       <c r="AW19">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX19">
-        <v>4.5</v>
-      </c>
-      <c r="AY19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ19">
+        <v>5</v>
+      </c>
+      <c r="BA19">
         <v>5.5</v>
       </c>
-      <c r="BA19">
-        <v>5</v>
+      <c r="BB19">
+        <v>5.5</v>
       </c>
       <c r="BC19">
+        <v>4</v>
+      </c>
+      <c r="BD19">
         <v>4.5</v>
       </c>
       <c r="BE19">
         <v>4.5</v>
       </c>
       <c r="BF19">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="BG19">
         <v>5</v>
+      </c>
+      <c r="BI19">
+        <v>4.5</v>
       </c>
       <c r="BK19">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="BL19" s="18">
         <f t="shared" si="1"/>
-        <v>5.2</v>
+        <v>5.16</v>
       </c>
       <c r="BM19">
         <f t="shared" si="2"/>
-        <v>0.5277986629117476</v>
+        <v>0.67268120235368589</v>
       </c>
       <c r="BN19">
         <v>1</v>
       </c>
-      <c r="BP19" t="e">
+      <c r="BP19">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20">
+        <v>5.5</v>
+      </c>
+      <c r="G20">
+        <v>4.5</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>6</v>
+      </c>
+      <c r="U20" t="s">
+        <v>26</v>
+      </c>
+      <c r="V20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG20">
+        <v>6.5</v>
+      </c>
+      <c r="AI20">
+        <v>4</v>
+      </c>
+      <c r="AJ20">
+        <v>3.5</v>
+      </c>
+      <c r="AK20">
+        <v>3</v>
+      </c>
+      <c r="AL20">
+        <v>5</v>
+      </c>
+      <c r="AN20">
+        <v>5</v>
+      </c>
+      <c r="AO20">
+        <v>5</v>
+      </c>
+      <c r="AW20">
+        <v>4.5</v>
+      </c>
+      <c r="AX20">
+        <v>4.5</v>
+      </c>
+      <c r="AY20">
+        <v>4.5</v>
+      </c>
+      <c r="AZ20">
+        <v>4.5</v>
+      </c>
+      <c r="BB20">
+        <v>5.5</v>
+      </c>
+      <c r="BC20">
+        <v>2.5</v>
+      </c>
+      <c r="BE20">
+        <v>4</v>
+      </c>
+      <c r="BF20">
+        <v>5</v>
+      </c>
+      <c r="BG20">
+        <v>3.5</v>
+      </c>
+      <c r="BH20">
+        <v>4</v>
+      </c>
+      <c r="BI20">
+        <v>5</v>
+      </c>
+      <c r="BK20">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="BL20" s="18">
+        <f t="shared" si="1"/>
+        <v>4.729166666666667</v>
+      </c>
+      <c r="BM20">
+        <f t="shared" si="2"/>
+        <v>1.0212861314630892</v>
+      </c>
+      <c r="BN20">
+        <v>1</v>
+      </c>
+      <c r="BP20">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>5.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>4.5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21">
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <v>5.5</v>
+      </c>
+      <c r="R21">
+        <v>7</v>
+      </c>
+      <c r="S21">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <v>7</v>
+      </c>
+      <c r="V21">
+        <v>5.5</v>
+      </c>
+      <c r="W21">
+        <v>6</v>
+      </c>
+      <c r="X21">
+        <v>5.5</v>
+      </c>
+      <c r="Y21">
+        <v>7</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA21">
+        <v>7</v>
+      </c>
+      <c r="AB21">
+        <v>6</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD21">
+        <v>6</v>
+      </c>
+      <c r="BB21">
+        <v>3.5</v>
+      </c>
+      <c r="BC21">
+        <v>4</v>
+      </c>
+      <c r="BD21">
+        <v>5</v>
+      </c>
+      <c r="BE21">
+        <v>7</v>
+      </c>
+      <c r="BH21">
+        <v>5</v>
+      </c>
+      <c r="BK21">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="BL21" s="18">
+        <f t="shared" si="1"/>
+        <v>5.8181818181818183</v>
+      </c>
+      <c r="BM21">
+        <f t="shared" si="2"/>
+        <v>0.99457402398086392</v>
+      </c>
+      <c r="BN21">
+        <v>1</v>
+      </c>
+      <c r="BP21" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>5.5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20">
-        <v>7.5</v>
-      </c>
-      <c r="E20">
-        <v>7.5</v>
-      </c>
-      <c r="F20">
-        <v>7.5</v>
-      </c>
-      <c r="G20">
-        <v>5.5</v>
-      </c>
-      <c r="H20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20">
-        <v>4.5</v>
-      </c>
-      <c r="J20">
-        <v>7</v>
-      </c>
-      <c r="K20">
-        <v>6</v>
-      </c>
-      <c r="L20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20">
-        <v>6</v>
-      </c>
-      <c r="O20">
-        <v>5.5</v>
-      </c>
-      <c r="P20">
-        <v>6</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>26</v>
-      </c>
-      <c r="R20" t="s">
-        <v>26</v>
-      </c>
-      <c r="S20">
-        <v>4.5</v>
-      </c>
-      <c r="T20">
-        <v>7</v>
-      </c>
-      <c r="U20" t="s">
-        <v>26</v>
-      </c>
-      <c r="V20" t="s">
-        <v>26</v>
-      </c>
-      <c r="W20" t="s">
-        <v>26</v>
-      </c>
-      <c r="X20">
-        <v>6</v>
-      </c>
-      <c r="Y20">
-        <v>6</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA20">
-        <v>4.5</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC20">
-        <v>7</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE20">
-        <v>3</v>
-      </c>
-      <c r="AF20">
-        <v>6</v>
-      </c>
-      <c r="AG20">
-        <v>4.5</v>
-      </c>
-      <c r="AH20">
-        <v>6</v>
-      </c>
-      <c r="AI20">
-        <v>6</v>
-      </c>
-      <c r="AJ20">
-        <v>5.5</v>
-      </c>
-      <c r="AK20">
-        <v>7</v>
-      </c>
-      <c r="AL20">
-        <v>5</v>
-      </c>
-      <c r="AM20">
-        <v>4.5</v>
-      </c>
-      <c r="AN20">
-        <v>4.5</v>
-      </c>
-      <c r="AO20">
-        <v>5</v>
-      </c>
-      <c r="AP20">
-        <v>5</v>
-      </c>
-      <c r="AR20">
-        <v>5.5</v>
-      </c>
-      <c r="AS20">
-        <v>5.5</v>
-      </c>
-      <c r="AT20">
-        <v>5</v>
-      </c>
-      <c r="AU20">
-        <v>6</v>
-      </c>
-      <c r="AV20">
-        <v>5</v>
-      </c>
-      <c r="AX20">
-        <v>5</v>
-      </c>
-      <c r="AY20">
-        <v>4.5</v>
-      </c>
-      <c r="BD20">
-        <v>4</v>
-      </c>
-      <c r="BE20">
-        <v>6</v>
-      </c>
-      <c r="BG20">
-        <v>3.5</v>
-      </c>
-      <c r="BH20">
-        <v>5.5</v>
-      </c>
-      <c r="BK20">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="BL20" s="18">
-        <f t="shared" si="1"/>
-        <v>5.5250000000000004</v>
-      </c>
-      <c r="BM20">
-        <f t="shared" si="2"/>
-        <v>1.0678879226700773</v>
-      </c>
-      <c r="BN20">
-        <v>0</v>
-      </c>
-      <c r="BP20">
-        <f t="shared" si="3"/>
-        <v>6.166666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>368</v>
-      </c>
-      <c r="B21">
-        <v>8.5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>7</v>
-      </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>7</v>
-      </c>
-      <c r="J21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21">
-        <v>6</v>
-      </c>
-      <c r="L21">
-        <v>7</v>
-      </c>
-      <c r="M21">
-        <v>6</v>
-      </c>
-      <c r="N21">
-        <v>6</v>
-      </c>
-      <c r="O21">
-        <v>6</v>
-      </c>
-      <c r="P21">
-        <v>7</v>
-      </c>
-      <c r="Q21">
-        <v>5.5</v>
-      </c>
-      <c r="R21">
-        <v>7.5</v>
-      </c>
-      <c r="S21">
-        <v>7</v>
-      </c>
-      <c r="T21">
-        <v>7</v>
-      </c>
-      <c r="U21">
-        <v>6</v>
-      </c>
-      <c r="V21">
-        <v>7</v>
-      </c>
-      <c r="W21">
-        <v>7</v>
-      </c>
-      <c r="X21">
-        <v>7</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z21">
-        <v>6</v>
-      </c>
-      <c r="AA21">
-        <v>6</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC21">
-        <v>6</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF21">
-        <v>7</v>
-      </c>
-      <c r="AG21">
-        <v>5.5</v>
-      </c>
-      <c r="AH21">
-        <v>5.5</v>
-      </c>
-      <c r="AI21">
-        <v>5.5</v>
-      </c>
-      <c r="AJ21">
-        <v>5.5</v>
-      </c>
-      <c r="AK21">
-        <v>6.5</v>
-      </c>
-      <c r="AL21">
-        <v>4.5</v>
-      </c>
-      <c r="AV21">
-        <v>4.5</v>
-      </c>
-      <c r="AW21">
-        <v>4.5</v>
-      </c>
-      <c r="AX21">
-        <v>5</v>
-      </c>
-      <c r="AY21">
-        <v>5.5</v>
-      </c>
-      <c r="AZ21">
-        <v>5.5</v>
-      </c>
-      <c r="BA21">
-        <v>5</v>
-      </c>
-      <c r="BD21">
-        <v>4.5</v>
-      </c>
-      <c r="BE21">
-        <v>6</v>
-      </c>
-      <c r="BF21">
-        <v>6.5</v>
-      </c>
-      <c r="BG21">
-        <v>5.5</v>
-      </c>
-      <c r="BH21">
-        <v>5</v>
-      </c>
-      <c r="BK21">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="BL21" s="18">
-        <f t="shared" si="1"/>
-        <v>6.1749999999999998</v>
-      </c>
-      <c r="BM21">
-        <f t="shared" si="2"/>
-        <v>1.1183206273877935</v>
-      </c>
-      <c r="BN21">
-        <v>0</v>
-      </c>
-      <c r="BP21">
-        <f t="shared" si="3"/>
-        <v>5.833333333333333</v>
-      </c>
-    </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -6011,14 +6148,14 @@
       <c r="P22" t="s">
         <v>26</v>
       </c>
-      <c r="Q22">
-        <v>5.5</v>
+      <c r="Q22" t="s">
+        <v>26</v>
       </c>
       <c r="R22" t="s">
         <v>26</v>
       </c>
-      <c r="S22">
-        <v>7</v>
+      <c r="S22" t="s">
+        <v>26</v>
       </c>
       <c r="T22" t="s">
         <v>26</v>
@@ -6027,19 +6164,19 @@
         <v>26</v>
       </c>
       <c r="V22">
-        <v>7</v>
-      </c>
-      <c r="W22" t="s">
-        <v>26</v>
-      </c>
-      <c r="X22">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="W22">
+        <v>6</v>
+      </c>
+      <c r="X22" t="s">
+        <v>26</v>
       </c>
       <c r="Y22">
-        <v>7</v>
-      </c>
-      <c r="Z22">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>26</v>
       </c>
       <c r="AA22" t="s">
         <v>26</v>
@@ -6048,43 +6185,22 @@
         <v>7</v>
       </c>
       <c r="AC22">
+        <v>6</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE22">
+        <v>6</v>
+      </c>
+      <c r="AF22">
+        <v>5</v>
+      </c>
+      <c r="AM22">
         <v>4.5</v>
       </c>
-      <c r="AD22">
-        <v>7</v>
-      </c>
-      <c r="AE22">
-        <v>6</v>
-      </c>
-      <c r="AF22">
-        <v>5</v>
-      </c>
-      <c r="AG22">
-        <v>6.5</v>
-      </c>
-      <c r="AH22">
-        <v>6.5</v>
-      </c>
-      <c r="AI22">
-        <v>6.5</v>
-      </c>
-      <c r="AJ22">
-        <v>5</v>
-      </c>
-      <c r="AK22">
-        <v>5</v>
-      </c>
-      <c r="AL22">
-        <v>6</v>
-      </c>
-      <c r="AM22">
-        <v>5</v>
-      </c>
-      <c r="AO22">
-        <v>5</v>
-      </c>
       <c r="AP22">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AQ22">
         <v>4.5</v>
@@ -6093,160 +6209,172 @@
         <v>5</v>
       </c>
       <c r="AS22">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AT22">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AU22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV22">
+        <v>5</v>
+      </c>
+      <c r="AW22">
         <v>4.5</v>
       </c>
-      <c r="AW22">
-        <v>5</v>
+      <c r="AX22">
+        <v>5</v>
+      </c>
+      <c r="AY22">
+        <v>5</v>
+      </c>
+      <c r="AZ22">
+        <v>5</v>
+      </c>
+      <c r="BA22">
+        <v>4.5</v>
+      </c>
+      <c r="BB22">
+        <v>4.5</v>
       </c>
       <c r="BK22">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="BL22" s="18">
         <f t="shared" si="1"/>
-        <v>5.7407407407407405</v>
+        <v>5.1190476190476186</v>
       </c>
       <c r="BM22">
         <f t="shared" si="2"/>
-        <v>0.90267093384844077</v>
+        <v>0.75671596231284044</v>
       </c>
       <c r="BN22">
         <v>0</v>
       </c>
-      <c r="BP22">
+      <c r="BP22" t="e">
         <f t="shared" si="3"/>
-        <v>5.5</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
+        <v>7.5</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
+        <v>7.5</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
       </c>
       <c r="G23">
         <v>5.5</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I23">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="J23">
+        <v>5.5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23">
         <v>7</v>
       </c>
-      <c r="K23">
+      <c r="P23">
+        <v>6</v>
+      </c>
+      <c r="Q23">
+        <v>6</v>
+      </c>
+      <c r="R23">
         <v>7</v>
       </c>
-      <c r="L23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" t="s">
-        <v>26</v>
-      </c>
-      <c r="O23">
+      <c r="S23" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" t="s">
+        <v>26</v>
+      </c>
+      <c r="U23" t="s">
+        <v>26</v>
+      </c>
+      <c r="V23" t="s">
+        <v>26</v>
+      </c>
+      <c r="W23" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y23">
+        <v>6</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE23">
+        <v>6.5</v>
+      </c>
+      <c r="AI23">
+        <v>5</v>
+      </c>
+      <c r="AL23">
         <v>5.5</v>
       </c>
-      <c r="P23" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>26</v>
-      </c>
-      <c r="R23" t="s">
-        <v>26</v>
-      </c>
-      <c r="S23" t="s">
-        <v>26</v>
-      </c>
-      <c r="T23" t="s">
-        <v>26</v>
-      </c>
-      <c r="U23">
-        <v>6</v>
-      </c>
-      <c r="V23" t="s">
-        <v>26</v>
-      </c>
-      <c r="W23" t="s">
-        <v>26</v>
-      </c>
-      <c r="X23" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA23">
-        <v>7</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC23">
-        <v>7</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI23">
-        <v>5</v>
-      </c>
-      <c r="AJ23">
-        <v>5</v>
-      </c>
-      <c r="AN23">
-        <v>5</v>
-      </c>
-      <c r="AP23">
-        <v>5.5</v>
-      </c>
-      <c r="AQ23">
-        <v>4</v>
-      </c>
-      <c r="AV23">
-        <v>4.5</v>
+      <c r="AU23">
+        <v>5</v>
+      </c>
+      <c r="BA23">
+        <v>5</v>
       </c>
       <c r="BK23">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BL23" s="18">
         <f t="shared" si="1"/>
-        <v>5.4411764705882355</v>
+        <v>5.8421052631578947</v>
       </c>
       <c r="BM23">
         <f t="shared" si="2"/>
-        <v>1.0880365478290537</v>
+        <v>0.95819030206465661</v>
       </c>
       <c r="BN23">
         <v>0</v>
@@ -6258,43 +6386,43 @@
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24">
-        <v>4.5</v>
-      </c>
-      <c r="E24">
-        <v>4.5</v>
-      </c>
-      <c r="F24">
-        <v>5.5</v>
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
       </c>
       <c r="G24">
         <v>5.5</v>
       </c>
       <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>4.5</v>
+      </c>
+      <c r="J24">
         <v>7</v>
       </c>
-      <c r="I24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24">
-        <v>6</v>
-      </c>
       <c r="K24">
-        <v>6</v>
-      </c>
-      <c r="L24">
-        <v>5.5</v>
-      </c>
-      <c r="M24">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
       </c>
       <c r="N24" t="s">
         <v>26</v>
@@ -6302,35 +6430,35 @@
       <c r="O24">
         <v>5.5</v>
       </c>
-      <c r="P24">
-        <v>6</v>
-      </c>
-      <c r="Q24">
-        <v>4.5</v>
-      </c>
-      <c r="R24">
-        <v>6</v>
-      </c>
-      <c r="S24">
-        <v>7</v>
-      </c>
-      <c r="T24">
-        <v>5.5</v>
+      <c r="P24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" t="s">
+        <v>26</v>
       </c>
       <c r="U24">
-        <v>5.5</v>
-      </c>
-      <c r="V24">
-        <v>5.5</v>
-      </c>
-      <c r="W24">
-        <v>5.5</v>
-      </c>
-      <c r="X24">
-        <v>6</v>
-      </c>
-      <c r="Y24">
-        <v>5.5</v>
+        <v>6</v>
+      </c>
+      <c r="V24" t="s">
+        <v>26</v>
+      </c>
+      <c r="W24" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>26</v>
       </c>
       <c r="Z24" t="s">
         <v>26</v>
@@ -6338,95 +6466,77 @@
       <c r="AA24">
         <v>7</v>
       </c>
-      <c r="AB24">
-        <v>6</v>
+      <c r="AB24" t="s">
+        <v>26</v>
       </c>
       <c r="AC24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD24" t="s">
         <v>26</v>
       </c>
-      <c r="AE24">
-        <v>7</v>
-      </c>
-      <c r="AH24">
-        <v>6.5</v>
-      </c>
       <c r="AI24">
+        <v>5</v>
+      </c>
+      <c r="AJ24">
+        <v>5</v>
+      </c>
+      <c r="AN24">
+        <v>5</v>
+      </c>
+      <c r="AP24">
+        <v>5.5</v>
+      </c>
+      <c r="AQ24">
+        <v>4</v>
+      </c>
+      <c r="AV24">
         <v>4.5</v>
-      </c>
-      <c r="AK24">
-        <v>5</v>
-      </c>
-      <c r="AL24">
-        <v>5</v>
-      </c>
-      <c r="AM24">
-        <v>5.5</v>
-      </c>
-      <c r="AN24">
-        <v>4</v>
-      </c>
-      <c r="AT24">
-        <v>4.5</v>
-      </c>
-      <c r="AZ24">
-        <v>4.5</v>
-      </c>
-      <c r="BC24">
-        <v>4</v>
-      </c>
-      <c r="BG24">
-        <v>4.5</v>
-      </c>
-      <c r="BH24">
-        <v>5.5</v>
       </c>
       <c r="BK24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="BL24" s="18">
         <f t="shared" si="1"/>
-        <v>5.541666666666667</v>
+        <v>5.4411764705882355</v>
       </c>
       <c r="BM24">
         <f t="shared" si="2"/>
-        <v>0.8649938067490921</v>
+        <v>1.0880365478290537</v>
       </c>
       <c r="BN24">
         <v>0</v>
       </c>
       <c r="BP24">
         <f t="shared" si="3"/>
-        <v>4.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>7.5</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>7.5</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
-      <c r="G25">
-        <v>5.5</v>
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
       </c>
       <c r="H25">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="I25">
         <v>5.5</v>
@@ -6434,29 +6544,29 @@
       <c r="J25">
         <v>5.5</v>
       </c>
-      <c r="K25" t="s">
-        <v>26</v>
+      <c r="K25">
+        <v>4</v>
       </c>
       <c r="L25" t="s">
         <v>26</v>
       </c>
-      <c r="M25" t="s">
-        <v>26</v>
-      </c>
-      <c r="N25" t="s">
-        <v>26</v>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>4.5</v>
       </c>
       <c r="O25">
+        <v>7.5</v>
+      </c>
+      <c r="P25">
         <v>7</v>
       </c>
-      <c r="P25">
-        <v>6</v>
-      </c>
       <c r="Q25">
-        <v>6</v>
-      </c>
-      <c r="R25">
-        <v>7</v>
+        <v>4.5</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
       </c>
       <c r="S25" t="s">
         <v>26</v>
@@ -6464,8 +6574,8 @@
       <c r="T25" t="s">
         <v>26</v>
       </c>
-      <c r="U25" t="s">
-        <v>26</v>
+      <c r="U25">
+        <v>5.5</v>
       </c>
       <c r="V25" t="s">
         <v>26</v>
@@ -6476,8 +6586,8 @@
       <c r="X25" t="s">
         <v>26</v>
       </c>
-      <c r="Y25">
-        <v>6</v>
+      <c r="Y25" t="s">
+        <v>26</v>
       </c>
       <c r="Z25" t="s">
         <v>26</v>
@@ -6494,168 +6604,114 @@
       <c r="AD25" t="s">
         <v>26</v>
       </c>
-      <c r="AE25">
-        <v>6.5</v>
+      <c r="AH25">
+        <v>5</v>
       </c>
       <c r="AI25">
-        <v>5</v>
-      </c>
-      <c r="AL25">
         <v>5.5</v>
       </c>
-      <c r="AU25">
-        <v>5</v>
-      </c>
-      <c r="BA25">
+      <c r="AJ25">
+        <v>3.5</v>
+      </c>
+      <c r="BF25">
+        <v>3.5</v>
+      </c>
+      <c r="BG25">
+        <v>4.5</v>
+      </c>
+      <c r="BH25">
+        <v>4</v>
+      </c>
+      <c r="BI25">
         <v>5</v>
       </c>
       <c r="BK25">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BL25" s="18">
         <f t="shared" si="1"/>
-        <v>5.8421052631578947</v>
+        <v>5</v>
       </c>
       <c r="BM25">
         <f t="shared" si="2"/>
-        <v>0.95819030206465661</v>
+        <v>1.1319231422671772</v>
       </c>
       <c r="BN25">
         <v>0</v>
       </c>
       <c r="BP25">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26">
-        <v>6</v>
-      </c>
-      <c r="I26">
+        <v>346</v>
+      </c>
+      <c r="AN26">
         <v>5.5</v>
       </c>
-      <c r="J26">
+      <c r="AO26">
+        <v>5</v>
+      </c>
+      <c r="AQ26">
+        <v>6</v>
+      </c>
+      <c r="AS26">
+        <v>5</v>
+      </c>
+      <c r="AT26">
+        <v>5</v>
+      </c>
+      <c r="AU26">
+        <v>6</v>
+      </c>
+      <c r="AW26">
+        <v>5</v>
+      </c>
+      <c r="AX26">
+        <v>4.5</v>
+      </c>
+      <c r="AY26">
+        <v>6</v>
+      </c>
+      <c r="AZ26">
         <v>5.5</v>
       </c>
-      <c r="K26">
-        <v>4</v>
-      </c>
-      <c r="L26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M26">
-        <v>4</v>
-      </c>
-      <c r="N26">
+      <c r="BA26">
+        <v>5</v>
+      </c>
+      <c r="BC26">
         <v>4.5</v>
       </c>
-      <c r="O26">
-        <v>7.5</v>
-      </c>
-      <c r="P26">
-        <v>7</v>
-      </c>
-      <c r="Q26">
+      <c r="BE26">
         <v>4.5</v>
       </c>
-      <c r="R26" t="s">
-        <v>26</v>
-      </c>
-      <c r="S26" t="s">
-        <v>26</v>
-      </c>
-      <c r="T26" t="s">
-        <v>26</v>
-      </c>
-      <c r="U26">
+      <c r="BF26">
         <v>5.5</v>
       </c>
-      <c r="V26" t="s">
-        <v>26</v>
-      </c>
-      <c r="W26" t="s">
-        <v>26</v>
-      </c>
-      <c r="X26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH26">
-        <v>5</v>
-      </c>
-      <c r="AI26">
-        <v>5.5</v>
-      </c>
-      <c r="AJ26">
-        <v>3.5</v>
-      </c>
-      <c r="BF26">
-        <v>3.5</v>
-      </c>
       <c r="BG26">
-        <v>4.5</v>
-      </c>
-      <c r="BH26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BK26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BL26" s="18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="BM26">
         <f t="shared" si="2"/>
-        <v>1.1690451944500122</v>
+        <v>0.5277986629117476</v>
       </c>
       <c r="BN26">
         <v>0</v>
       </c>
-      <c r="BP26">
+      <c r="BP26" t="e">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.3">
@@ -7029,7 +7085,7 @@
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -7037,23 +7093,23 @@
       <c r="C30" t="s">
         <v>26</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30">
         <v>7</v>
-      </c>
-      <c r="E30">
-        <v>7</v>
-      </c>
-      <c r="F30">
-        <v>5.5</v>
-      </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" t="s">
-        <v>26</v>
       </c>
       <c r="J30" t="s">
         <v>26</v>
@@ -7062,35 +7118,35 @@
         <v>7</v>
       </c>
       <c r="L30">
+        <v>7.5</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30">
         <v>7</v>
       </c>
-      <c r="M30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30">
-        <v>7.5</v>
-      </c>
-      <c r="O30" t="s">
-        <v>26</v>
-      </c>
-      <c r="P30" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>26</v>
-      </c>
-      <c r="R30" t="s">
-        <v>26</v>
-      </c>
-      <c r="S30">
+      <c r="S30" t="s">
+        <v>26</v>
+      </c>
+      <c r="T30" t="s">
+        <v>26</v>
+      </c>
+      <c r="U30">
         <v>7</v>
       </c>
-      <c r="T30" t="s">
-        <v>26</v>
-      </c>
-      <c r="U30" t="s">
-        <v>26</v>
-      </c>
       <c r="V30" t="s">
         <v>26</v>
       </c>
@@ -7115,32 +7171,41 @@
       <c r="AC30" t="s">
         <v>26</v>
       </c>
-      <c r="AD30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AR30">
+      <c r="AD30">
+        <v>6</v>
+      </c>
+      <c r="AS30">
+        <v>5</v>
+      </c>
+      <c r="AT30">
+        <v>5</v>
+      </c>
+      <c r="AX30">
+        <v>6</v>
+      </c>
+      <c r="AY30">
+        <v>4.5</v>
+      </c>
+      <c r="BB30">
+        <v>5</v>
+      </c>
+      <c r="BD30">
         <v>5.5</v>
       </c>
-      <c r="AU30">
-        <v>5.5</v>
-      </c>
-      <c r="AW30">
+      <c r="BI30">
         <v>4.5</v>
-      </c>
-      <c r="BB30">
-        <v>5.5</v>
       </c>
       <c r="BK30">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BL30" s="18">
         <f t="shared" si="1"/>
-        <v>6.2727272727272725</v>
+        <v>5.9230769230769234</v>
       </c>
       <c r="BM30">
         <f t="shared" si="2"/>
-        <v>0.98396230526469797</v>
+        <v>1.0771519903228184</v>
       </c>
       <c r="BN30">
         <v>0</v>
@@ -7152,7 +7217,7 @@
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -7160,14 +7225,14 @@
       <c r="C31" t="s">
         <v>26</v>
       </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" t="s">
-        <v>26</v>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>5.5</v>
       </c>
       <c r="G31" t="s">
         <v>26</v>
@@ -7175,8 +7240,8 @@
       <c r="H31" t="s">
         <v>26</v>
       </c>
-      <c r="I31">
-        <v>7</v>
+      <c r="I31" t="s">
+        <v>26</v>
       </c>
       <c r="J31" t="s">
         <v>26</v>
@@ -7185,14 +7250,14 @@
         <v>7</v>
       </c>
       <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31">
         <v>7.5</v>
       </c>
-      <c r="M31" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31" t="s">
-        <v>26</v>
-      </c>
       <c r="O31" t="s">
         <v>26</v>
       </c>
@@ -7202,17 +7267,17 @@
       <c r="Q31" t="s">
         <v>26</v>
       </c>
-      <c r="R31">
+      <c r="R31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S31">
         <v>7</v>
       </c>
-      <c r="S31" t="s">
-        <v>26</v>
-      </c>
       <c r="T31" t="s">
         <v>26</v>
       </c>
-      <c r="U31">
-        <v>7</v>
+      <c r="U31" t="s">
+        <v>26</v>
       </c>
       <c r="V31" t="s">
         <v>26</v>
@@ -7238,38 +7303,32 @@
       <c r="AC31" t="s">
         <v>26</v>
       </c>
-      <c r="AD31">
-        <v>6</v>
-      </c>
-      <c r="AS31">
-        <v>5</v>
-      </c>
-      <c r="AT31">
-        <v>5</v>
-      </c>
-      <c r="AX31">
-        <v>6</v>
-      </c>
-      <c r="AY31">
+      <c r="AD31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR31">
+        <v>5.5</v>
+      </c>
+      <c r="AU31">
+        <v>5.5</v>
+      </c>
+      <c r="AW31">
         <v>4.5</v>
       </c>
       <c r="BB31">
-        <v>5</v>
-      </c>
-      <c r="BD31">
         <v>5.5</v>
       </c>
       <c r="BK31">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BL31" s="18">
         <f t="shared" si="1"/>
-        <v>6.041666666666667</v>
+        <v>6.2727272727272725</v>
       </c>
       <c r="BM31">
         <f t="shared" si="2"/>
-        <v>1.0326121628122924</v>
+        <v>0.98396230526469797</v>
       </c>
       <c r="BN31">
         <v>0</v>
@@ -7281,13 +7340,13 @@
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
       </c>
-      <c r="C32" t="s">
-        <v>26</v>
+      <c r="C32">
+        <v>5.5</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -7298,41 +7357,41 @@
       <c r="F32" t="s">
         <v>26</v>
       </c>
-      <c r="G32">
-        <v>7.5</v>
-      </c>
-      <c r="H32">
-        <v>7.5</v>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>26</v>
       </c>
       <c r="I32" t="s">
         <v>26</v>
       </c>
-      <c r="J32">
-        <v>8.5</v>
-      </c>
-      <c r="K32">
-        <v>8.5</v>
-      </c>
-      <c r="L32">
-        <v>7.5</v>
-      </c>
-      <c r="M32">
-        <v>7.5</v>
-      </c>
-      <c r="N32">
-        <v>7.5</v>
-      </c>
-      <c r="O32">
-        <v>9</v>
-      </c>
-      <c r="P32">
-        <v>8.5</v>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" t="s">
+        <v>26</v>
       </c>
       <c r="Q32" t="s">
         <v>26</v>
       </c>
-      <c r="R32" t="s">
-        <v>26</v>
+      <c r="R32">
+        <v>4.5</v>
       </c>
       <c r="S32" t="s">
         <v>26</v>
@@ -7352,35 +7411,44 @@
       <c r="X32" t="s">
         <v>26</v>
       </c>
-      <c r="Y32" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>26</v>
+      <c r="Y32">
+        <v>5.5</v>
+      </c>
+      <c r="Z32">
+        <v>5.5</v>
       </c>
       <c r="AA32" t="s">
         <v>26</v>
       </c>
-      <c r="AB32" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>26</v>
+      <c r="AB32">
+        <v>5.5</v>
+      </c>
+      <c r="AC32">
+        <v>5.5</v>
+      </c>
+      <c r="AD32">
+        <v>4</v>
+      </c>
+      <c r="AH32">
+        <v>4</v>
+      </c>
+      <c r="BE32">
+        <v>5</v>
+      </c>
+      <c r="BF32">
+        <v>4.5</v>
       </c>
       <c r="BK32">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BL32" s="18">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4.95</v>
       </c>
       <c r="BM32">
         <f t="shared" si="2"/>
-        <v>0.61237243569579447</v>
+        <v>0.64334196885395889</v>
       </c>
       <c r="BN32">
         <v>0</v>
@@ -7392,13 +7460,13 @@
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
-      <c r="C33">
-        <v>5.5</v>
+      <c r="C33" t="s">
+        <v>26</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
@@ -7409,41 +7477,41 @@
       <c r="F33" t="s">
         <v>26</v>
       </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" t="s">
-        <v>26</v>
+      <c r="G33">
+        <v>7.5</v>
+      </c>
+      <c r="H33">
+        <v>7.5</v>
       </c>
       <c r="I33" t="s">
         <v>26</v>
       </c>
-      <c r="J33" t="s">
-        <v>26</v>
-      </c>
-      <c r="K33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L33" t="s">
-        <v>26</v>
-      </c>
-      <c r="M33" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" t="s">
-        <v>26</v>
-      </c>
-      <c r="O33" t="s">
-        <v>26</v>
-      </c>
-      <c r="P33" t="s">
-        <v>26</v>
+      <c r="J33">
+        <v>8.5</v>
+      </c>
+      <c r="K33">
+        <v>8.5</v>
+      </c>
+      <c r="L33">
+        <v>7.5</v>
+      </c>
+      <c r="M33">
+        <v>7.5</v>
+      </c>
+      <c r="N33">
+        <v>7.5</v>
+      </c>
+      <c r="O33">
+        <v>9</v>
+      </c>
+      <c r="P33">
+        <v>8.5</v>
       </c>
       <c r="Q33" t="s">
         <v>26</v>
       </c>
-      <c r="R33">
-        <v>4.5</v>
+      <c r="R33" t="s">
+        <v>26</v>
       </c>
       <c r="S33" t="s">
         <v>26</v>
@@ -7463,44 +7531,35 @@
       <c r="X33" t="s">
         <v>26</v>
       </c>
-      <c r="Y33">
-        <v>5.5</v>
-      </c>
-      <c r="Z33">
-        <v>5.5</v>
+      <c r="Y33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>26</v>
       </c>
       <c r="AA33" t="s">
         <v>26</v>
       </c>
-      <c r="AB33">
-        <v>5.5</v>
-      </c>
-      <c r="AC33">
-        <v>5.5</v>
-      </c>
-      <c r="AD33">
-        <v>4</v>
-      </c>
-      <c r="AH33">
-        <v>4</v>
-      </c>
-      <c r="BE33">
-        <v>5</v>
-      </c>
-      <c r="BF33">
-        <v>4.5</v>
+      <c r="AB33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>26</v>
       </c>
       <c r="BK33">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BL33" s="18">
         <f t="shared" si="1"/>
-        <v>4.95</v>
+        <v>8</v>
       </c>
       <c r="BM33">
         <f t="shared" si="2"/>
-        <v>0.64334196885395889</v>
+        <v>0.61237243569579447</v>
       </c>
       <c r="BN33">
         <v>0</v>
@@ -7540,11 +7599,11 @@
         <v>7</v>
       </c>
       <c r="BL34" s="18">
-        <f t="shared" ref="BL34:BL69" si="5">AVERAGE(B34:BJ34)</f>
+        <f t="shared" ref="BL34:BL65" si="5">AVERAGE(B34:BJ34)</f>
         <v>5.0714285714285712</v>
       </c>
       <c r="BM34">
-        <f t="shared" ref="BM34:BM69" si="6">IF(BK34&gt;1,_xlfn.STDEV.S(B34:BJ34),"")</f>
+        <f t="shared" ref="BM34:BM65" si="6">IF(BK34&gt;1,_xlfn.STDEV.S(B34:BJ34),"")</f>
         <v>0.34503277967117707</v>
       </c>
       <c r="BN34">
@@ -7652,9 +7711,12 @@
       <c r="AY35">
         <v>4.5</v>
       </c>
+      <c r="BI35">
+        <v>4.5</v>
+      </c>
       <c r="BK35">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL35" s="18">
         <f t="shared" si="5"/>
@@ -7662,7 +7724,7 @@
       </c>
       <c r="BM35">
         <f t="shared" si="6"/>
-        <v>0.70710678118654757</v>
+        <v>0.63245553203367588</v>
       </c>
       <c r="BN35">
         <v>0</v>
@@ -7674,7 +7736,7 @@
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>343</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -7685,8 +7747,8 @@
       <c r="D36" t="s">
         <v>26</v>
       </c>
-      <c r="E36">
-        <v>7.5</v>
+      <c r="E36" t="s">
+        <v>26</v>
       </c>
       <c r="F36" t="s">
         <v>26</v>
@@ -7701,19 +7763,19 @@
         <v>26</v>
       </c>
       <c r="J36">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="K36" t="s">
         <v>26</v>
       </c>
-      <c r="L36">
-        <v>7.5</v>
-      </c>
-      <c r="M36" t="s">
-        <v>26</v>
-      </c>
-      <c r="N36">
-        <v>7</v>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36">
+        <v>4.5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>26</v>
       </c>
       <c r="O36" t="s">
         <v>26</v>
@@ -7762,18 +7824,30 @@
       </c>
       <c r="AD36" t="s">
         <v>26</v>
+      </c>
+      <c r="AN36">
+        <v>2.5</v>
+      </c>
+      <c r="BG36">
+        <v>5</v>
+      </c>
+      <c r="BH36">
+        <v>4.5</v>
+      </c>
+      <c r="BI36">
+        <v>4.5</v>
       </c>
       <c r="BK36">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BL36" s="18">
         <f t="shared" si="5"/>
-        <v>7.625</v>
+        <v>3.9166666666666665</v>
       </c>
       <c r="BM36">
         <f t="shared" si="6"/>
-        <v>0.62915286960589578</v>
+        <v>1.1143009766964516</v>
       </c>
       <c r="BN36">
         <v>0</v>
@@ -7785,7 +7859,7 @@
     </row>
     <row r="37" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -7796,8 +7870,8 @@
       <c r="D37" t="s">
         <v>26</v>
       </c>
-      <c r="E37" t="s">
-        <v>26</v>
+      <c r="E37">
+        <v>7.5</v>
       </c>
       <c r="F37" t="s">
         <v>26</v>
@@ -7811,20 +7885,20 @@
       <c r="I37" t="s">
         <v>26</v>
       </c>
-      <c r="J37" t="s">
-        <v>26</v>
+      <c r="J37">
+        <v>8.5</v>
       </c>
       <c r="K37" t="s">
         <v>26</v>
       </c>
-      <c r="L37" t="s">
-        <v>26</v>
+      <c r="L37">
+        <v>7.5</v>
       </c>
       <c r="M37" t="s">
         <v>26</v>
       </c>
-      <c r="N37" t="s">
-        <v>26</v>
+      <c r="N37">
+        <v>7</v>
       </c>
       <c r="O37" t="s">
         <v>26</v>
@@ -7835,14 +7909,14 @@
       <c r="Q37" t="s">
         <v>26</v>
       </c>
-      <c r="R37">
-        <v>7</v>
-      </c>
-      <c r="S37">
-        <v>5.5</v>
-      </c>
-      <c r="T37">
-        <v>5.5</v>
+      <c r="R37" t="s">
+        <v>26</v>
+      </c>
+      <c r="S37" t="s">
+        <v>26</v>
+      </c>
+      <c r="T37" t="s">
+        <v>26</v>
       </c>
       <c r="U37" t="s">
         <v>26</v>
@@ -7850,8 +7924,8 @@
       <c r="V37" t="s">
         <v>26</v>
       </c>
-      <c r="W37">
-        <v>6</v>
+      <c r="W37" t="s">
+        <v>26</v>
       </c>
       <c r="X37" t="s">
         <v>26</v>
@@ -7880,11 +7954,11 @@
       </c>
       <c r="BL37" s="18">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7.625</v>
       </c>
       <c r="BM37">
         <f t="shared" si="6"/>
-        <v>0.70710678118654757</v>
+        <v>0.62915286960589578</v>
       </c>
       <c r="BN37">
         <v>0</v>
@@ -7896,7 +7970,7 @@
     </row>
     <row r="38" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -7931,8 +8005,8 @@
       <c r="L38" t="s">
         <v>26</v>
       </c>
-      <c r="M38">
-        <v>6</v>
+      <c r="M38" t="s">
+        <v>26</v>
       </c>
       <c r="N38" t="s">
         <v>26</v>
@@ -7946,23 +8020,23 @@
       <c r="Q38" t="s">
         <v>26</v>
       </c>
-      <c r="R38" t="s">
-        <v>26</v>
-      </c>
-      <c r="S38" t="s">
-        <v>26</v>
-      </c>
-      <c r="T38" t="s">
-        <v>26</v>
+      <c r="R38">
+        <v>7</v>
+      </c>
+      <c r="S38">
+        <v>5.5</v>
+      </c>
+      <c r="T38">
+        <v>5.5</v>
       </c>
       <c r="U38" t="s">
         <v>26</v>
       </c>
-      <c r="V38">
-        <v>7</v>
+      <c r="V38" t="s">
+        <v>26</v>
       </c>
       <c r="W38">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X38" t="s">
         <v>26</v>
@@ -7984,9 +8058,6 @@
       </c>
       <c r="AD38" t="s">
         <v>26</v>
-      </c>
-      <c r="AO38">
-        <v>5.5</v>
       </c>
       <c r="BK38">
         <f t="shared" si="4"/>
@@ -7994,11 +8065,11 @@
       </c>
       <c r="BL38" s="18">
         <f t="shared" si="5"/>
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="BM38">
         <f t="shared" si="6"/>
-        <v>0.9128709291752769</v>
+        <v>0.70710678118654757</v>
       </c>
       <c r="BN38">
         <v>0</v>
@@ -8010,7 +8081,7 @@
     </row>
     <row r="39" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -8018,8 +8089,8 @@
       <c r="C39" t="s">
         <v>26</v>
       </c>
-      <c r="D39">
-        <v>3</v>
+      <c r="D39" t="s">
+        <v>26</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
@@ -8027,8 +8098,8 @@
       <c r="F39" t="s">
         <v>26</v>
       </c>
-      <c r="G39">
-        <v>1</v>
+      <c r="G39" t="s">
+        <v>26</v>
       </c>
       <c r="H39" t="s">
         <v>26</v>
@@ -8045,8 +8116,8 @@
       <c r="L39" t="s">
         <v>26</v>
       </c>
-      <c r="M39" t="s">
-        <v>26</v>
+      <c r="M39">
+        <v>6</v>
       </c>
       <c r="N39" t="s">
         <v>26</v>
@@ -8072,11 +8143,11 @@
       <c r="U39" t="s">
         <v>26</v>
       </c>
-      <c r="V39" t="s">
-        <v>26</v>
-      </c>
-      <c r="W39" t="s">
-        <v>26</v>
+      <c r="V39">
+        <v>7</v>
+      </c>
+      <c r="W39">
+        <v>7.5</v>
       </c>
       <c r="X39" t="s">
         <v>26</v>
@@ -8099,11 +8170,8 @@
       <c r="AD39" t="s">
         <v>26</v>
       </c>
-      <c r="AE39">
-        <v>1.5</v>
-      </c>
-      <c r="AU39">
-        <v>4</v>
+      <c r="AO39">
+        <v>5.5</v>
       </c>
       <c r="BK39">
         <f t="shared" si="4"/>
@@ -8111,11 +8179,11 @@
       </c>
       <c r="BL39" s="18">
         <f t="shared" si="5"/>
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="BM39">
         <f t="shared" si="6"/>
-        <v>1.3768926368215255</v>
+        <v>0.9128709291752769</v>
       </c>
       <c r="BN39">
         <v>0</v>
@@ -8127,19 +8195,100 @@
     </row>
     <row r="40" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>344</v>
-      </c>
-      <c r="AJ40">
-        <v>4.5</v>
-      </c>
-      <c r="AQ40">
-        <v>3.5</v>
-      </c>
-      <c r="AR40">
-        <v>3.5</v>
-      </c>
-      <c r="AY40">
-        <v>5.5</v>
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" t="s">
+        <v>26</v>
+      </c>
+      <c r="O40" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>26</v>
+      </c>
+      <c r="R40" t="s">
+        <v>26</v>
+      </c>
+      <c r="S40" t="s">
+        <v>26</v>
+      </c>
+      <c r="T40" t="s">
+        <v>26</v>
+      </c>
+      <c r="U40" t="s">
+        <v>26</v>
+      </c>
+      <c r="V40" t="s">
+        <v>26</v>
+      </c>
+      <c r="W40" t="s">
+        <v>26</v>
+      </c>
+      <c r="X40" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE40">
+        <v>1.5</v>
+      </c>
+      <c r="AU40">
+        <v>4</v>
       </c>
       <c r="BK40">
         <f t="shared" si="4"/>
@@ -8147,140 +8296,65 @@
       </c>
       <c r="BL40" s="18">
         <f t="shared" si="5"/>
-        <v>4.25</v>
+        <v>2.375</v>
       </c>
       <c r="BM40">
         <f t="shared" si="6"/>
-        <v>0.9574271077563381</v>
+        <v>1.3768926368215255</v>
       </c>
       <c r="BN40">
         <v>0</v>
       </c>
-      <c r="BP40">
+      <c r="BP40" t="e">
         <f t="shared" ref="BP40:BP70" si="7">AVERAGE(AI40:AK40)</f>
-        <v>4.5</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" t="s">
-        <v>26</v>
-      </c>
-      <c r="K41" t="s">
-        <v>26</v>
-      </c>
-      <c r="L41" t="s">
-        <v>26</v>
-      </c>
-      <c r="M41" t="s">
-        <v>26</v>
-      </c>
-      <c r="N41" t="s">
-        <v>26</v>
-      </c>
-      <c r="O41" t="s">
-        <v>26</v>
-      </c>
-      <c r="P41" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q41">
-        <v>6</v>
-      </c>
-      <c r="R41">
-        <v>6</v>
-      </c>
-      <c r="S41" t="s">
-        <v>26</v>
-      </c>
-      <c r="T41" t="s">
-        <v>26</v>
-      </c>
-      <c r="U41" t="s">
-        <v>26</v>
-      </c>
-      <c r="V41" t="s">
-        <v>26</v>
-      </c>
-      <c r="W41" t="s">
-        <v>26</v>
-      </c>
-      <c r="X41" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>26</v>
+        <v>344</v>
+      </c>
+      <c r="AJ41">
+        <v>4.5</v>
+      </c>
+      <c r="AQ41">
+        <v>3.5</v>
+      </c>
+      <c r="AR41">
+        <v>3.5</v>
+      </c>
+      <c r="AY41">
+        <v>5.5</v>
       </c>
       <c r="BK41">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL41" s="18">
         <f t="shared" si="5"/>
-        <v>5.333333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="BM41">
         <f t="shared" si="6"/>
-        <v>1.1547005383792526</v>
+        <v>0.9574271077563381</v>
       </c>
       <c r="BN41">
         <v>0</v>
       </c>
-      <c r="BP41" t="e">
+      <c r="BP41">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="42" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
       </c>
-      <c r="C42" t="s">
-        <v>26</v>
+      <c r="C42">
+        <v>4</v>
       </c>
       <c r="D42" t="s">
         <v>26</v>
@@ -8321,20 +8395,20 @@
       <c r="P42" t="s">
         <v>26</v>
       </c>
-      <c r="Q42" t="s">
-        <v>26</v>
+      <c r="Q42">
+        <v>6</v>
       </c>
       <c r="R42">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="S42" t="s">
         <v>26</v>
       </c>
-      <c r="T42">
-        <v>4</v>
-      </c>
-      <c r="U42">
-        <v>4</v>
+      <c r="T42" t="s">
+        <v>26</v>
+      </c>
+      <c r="U42" t="s">
+        <v>26</v>
       </c>
       <c r="V42" t="s">
         <v>26</v>
@@ -8369,11 +8443,11 @@
       </c>
       <c r="BL42" s="18">
         <f t="shared" si="5"/>
-        <v>4.166666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="BM42">
         <f t="shared" si="6"/>
-        <v>0.28867513459481287</v>
+        <v>1.1547005383792526</v>
       </c>
       <c r="BN42">
         <v>0</v>
@@ -8385,7 +8459,7 @@
     </row>
     <row r="43" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -8435,17 +8509,17 @@
       <c r="Q43" t="s">
         <v>26</v>
       </c>
-      <c r="R43" t="s">
-        <v>26</v>
+      <c r="R43">
+        <v>4.5</v>
       </c>
       <c r="S43" t="s">
         <v>26</v>
       </c>
-      <c r="T43" t="s">
-        <v>26</v>
-      </c>
-      <c r="U43" t="s">
-        <v>26</v>
+      <c r="T43">
+        <v>4</v>
+      </c>
+      <c r="U43">
+        <v>4</v>
       </c>
       <c r="V43" t="s">
         <v>26</v>
@@ -8471,14 +8545,8 @@
       <c r="AC43" t="s">
         <v>26</v>
       </c>
-      <c r="AD43">
-        <v>7</v>
-      </c>
-      <c r="AE43">
-        <v>7</v>
-      </c>
-      <c r="AF43">
-        <v>9</v>
+      <c r="AD43" t="s">
+        <v>26</v>
       </c>
       <c r="BK43">
         <f t="shared" si="4"/>
@@ -8486,11 +8554,11 @@
       </c>
       <c r="BL43" s="18">
         <f t="shared" si="5"/>
-        <v>7.666666666666667</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="BM43">
         <f t="shared" si="6"/>
-        <v>1.1547005383792495</v>
+        <v>0.28867513459481287</v>
       </c>
       <c r="BN43">
         <v>0</v>
@@ -8502,7 +8570,7 @@
     </row>
     <row r="44" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -8525,8 +8593,8 @@
       <c r="H44" t="s">
         <v>26</v>
       </c>
-      <c r="I44">
-        <v>5.5</v>
+      <c r="I44" t="s">
+        <v>26</v>
       </c>
       <c r="J44" t="s">
         <v>26</v>
@@ -8576,8 +8644,8 @@
       <c r="Y44" t="s">
         <v>26</v>
       </c>
-      <c r="Z44">
-        <v>5.5</v>
+      <c r="Z44" t="s">
+        <v>26</v>
       </c>
       <c r="AA44" t="s">
         <v>26</v>
@@ -8588,11 +8656,14 @@
       <c r="AC44" t="s">
         <v>26</v>
       </c>
-      <c r="AD44" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG44">
-        <v>2.5</v>
+      <c r="AD44">
+        <v>7</v>
+      </c>
+      <c r="AE44">
+        <v>7</v>
+      </c>
+      <c r="AF44">
+        <v>9</v>
       </c>
       <c r="BK44">
         <f t="shared" si="4"/>
@@ -8600,11 +8671,11 @@
       </c>
       <c r="BL44" s="18">
         <f t="shared" si="5"/>
-        <v>4.5</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="BM44">
         <f t="shared" si="6"/>
-        <v>1.7320508075688772</v>
+        <v>1.1547005383792495</v>
       </c>
       <c r="BN44">
         <v>0</v>
@@ -8616,7 +8687,7 @@
     </row>
     <row r="45" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -8639,8 +8710,8 @@
       <c r="H45" t="s">
         <v>26</v>
       </c>
-      <c r="I45" t="s">
-        <v>26</v>
+      <c r="I45">
+        <v>5.5</v>
       </c>
       <c r="J45" t="s">
         <v>26</v>
@@ -8691,7 +8762,7 @@
         <v>26</v>
       </c>
       <c r="Z45">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AA45" t="s">
         <v>26</v>
@@ -8702,11 +8773,11 @@
       <c r="AC45" t="s">
         <v>26</v>
       </c>
-      <c r="AD45">
-        <v>7.5</v>
-      </c>
-      <c r="AS45">
-        <v>5</v>
+      <c r="AD45" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG45">
+        <v>2.5</v>
       </c>
       <c r="BK45">
         <f t="shared" si="4"/>
@@ -8714,11 +8785,11 @@
       </c>
       <c r="BL45" s="18">
         <f t="shared" si="5"/>
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="BM45">
         <f t="shared" si="6"/>
-        <v>1.3228756555322954</v>
+        <v>1.7320508075688772</v>
       </c>
       <c r="BN45">
         <v>0</v>
@@ -8730,7 +8801,7 @@
     </row>
     <row r="46" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>343</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -8756,8 +8827,8 @@
       <c r="I46" t="s">
         <v>26</v>
       </c>
-      <c r="J46">
-        <v>2.5</v>
+      <c r="J46" t="s">
+        <v>26</v>
       </c>
       <c r="K46" t="s">
         <v>26</v>
@@ -8765,8 +8836,8 @@
       <c r="L46" t="s">
         <v>26</v>
       </c>
-      <c r="M46">
-        <v>4.5</v>
+      <c r="M46" t="s">
+        <v>26</v>
       </c>
       <c r="N46" t="s">
         <v>26</v>
@@ -8804,8 +8875,8 @@
       <c r="Y46" t="s">
         <v>26</v>
       </c>
-      <c r="Z46" t="s">
-        <v>26</v>
+      <c r="Z46">
+        <v>7</v>
       </c>
       <c r="AA46" t="s">
         <v>26</v>
@@ -8816,29 +8887,23 @@
       <c r="AC46" t="s">
         <v>26</v>
       </c>
-      <c r="AD46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN46">
-        <v>2.5</v>
-      </c>
-      <c r="BG46">
-        <v>5</v>
-      </c>
-      <c r="BH46">
-        <v>4.5</v>
+      <c r="AD46">
+        <v>7.5</v>
+      </c>
+      <c r="AS46">
+        <v>5</v>
       </c>
       <c r="BK46">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BL46" s="18">
         <f t="shared" si="5"/>
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="BM46">
         <f t="shared" si="6"/>
-        <v>1.2041594578792292</v>
+        <v>1.3228756555322954</v>
       </c>
       <c r="BN46">
         <v>0</v>
@@ -9135,106 +9200,25 @@
     </row>
     <row r="51" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s">
-        <v>26</v>
-      </c>
-      <c r="H51" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" t="s">
-        <v>26</v>
-      </c>
-      <c r="J51" t="s">
-        <v>26</v>
-      </c>
-      <c r="K51" t="s">
-        <v>26</v>
-      </c>
-      <c r="L51" t="s">
-        <v>26</v>
-      </c>
-      <c r="M51" t="s">
-        <v>26</v>
-      </c>
-      <c r="N51" t="s">
-        <v>26</v>
-      </c>
-      <c r="O51" t="s">
-        <v>26</v>
-      </c>
-      <c r="P51" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>26</v>
-      </c>
-      <c r="R51" t="s">
-        <v>26</v>
-      </c>
-      <c r="S51" t="s">
-        <v>26</v>
-      </c>
-      <c r="T51" t="s">
-        <v>26</v>
-      </c>
-      <c r="U51" t="s">
-        <v>26</v>
-      </c>
-      <c r="V51" t="s">
-        <v>26</v>
-      </c>
-      <c r="W51" t="s">
-        <v>26</v>
-      </c>
-      <c r="X51" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD51">
-        <v>9</v>
+        <v>362</v>
+      </c>
+      <c r="AW51">
+        <v>5</v>
+      </c>
+      <c r="BF51">
+        <v>5</v>
       </c>
       <c r="BK51">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL51" s="18">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="BM51" t="str">
+        <v>5</v>
+      </c>
+      <c r="BM51">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN51">
         <v>0</v>
@@ -9246,106 +9230,25 @@
     </row>
     <row r="52" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" t="s">
-        <v>26</v>
-      </c>
-      <c r="I52" t="s">
-        <v>26</v>
-      </c>
-      <c r="J52" t="s">
-        <v>26</v>
-      </c>
-      <c r="K52" t="s">
-        <v>26</v>
-      </c>
-      <c r="L52" t="s">
-        <v>26</v>
-      </c>
-      <c r="M52" t="s">
-        <v>26</v>
-      </c>
-      <c r="N52" t="s">
-        <v>26</v>
-      </c>
-      <c r="O52" t="s">
-        <v>26</v>
-      </c>
-      <c r="P52" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>26</v>
-      </c>
-      <c r="R52" t="s">
-        <v>26</v>
-      </c>
-      <c r="S52" t="s">
-        <v>26</v>
-      </c>
-      <c r="T52" t="s">
-        <v>26</v>
-      </c>
-      <c r="U52" t="s">
-        <v>26</v>
-      </c>
-      <c r="V52" t="s">
-        <v>26</v>
-      </c>
-      <c r="W52" t="s">
-        <v>26</v>
-      </c>
-      <c r="X52" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z52">
-        <v>7</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>26</v>
+        <v>370</v>
+      </c>
+      <c r="BG52">
+        <v>5.5</v>
+      </c>
+      <c r="BH52">
+        <v>4.5</v>
       </c>
       <c r="BK52">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL52" s="18">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="BM52" t="str">
+        <v>5</v>
+      </c>
+      <c r="BM52">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0.70710678118654757</v>
       </c>
       <c r="BN52">
         <v>0</v>
@@ -9357,7 +9260,7 @@
     </row>
     <row r="53" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>354</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -9395,6 +9298,9 @@
       <c r="M53" t="s">
         <v>26</v>
       </c>
+      <c r="N53" t="s">
+        <v>26</v>
+      </c>
       <c r="O53" t="s">
         <v>26</v>
       </c>
@@ -9428,8 +9334,8 @@
       <c r="Y53" t="s">
         <v>26</v>
       </c>
-      <c r="Z53">
-        <v>7</v>
+      <c r="Z53" t="s">
+        <v>26</v>
       </c>
       <c r="AA53" t="s">
         <v>26</v>
@@ -9440,8 +9346,8 @@
       <c r="AC53" t="s">
         <v>26</v>
       </c>
-      <c r="AD53" t="s">
-        <v>26</v>
+      <c r="AD53">
+        <v>9</v>
       </c>
       <c r="BK53">
         <f t="shared" si="4"/>
@@ -9449,7 +9355,7 @@
       </c>
       <c r="BL53" s="18">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BM53" t="str">
         <f t="shared" si="6"/>
@@ -9465,7 +9371,7 @@
     </row>
     <row r="54" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -9536,11 +9442,11 @@
       <c r="X54" t="s">
         <v>26</v>
       </c>
-      <c r="Y54">
+      <c r="Y54" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z54">
         <v>7</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>26</v>
       </c>
       <c r="AA54" t="s">
         <v>26</v>
@@ -9576,7 +9482,7 @@
     </row>
     <row r="55" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>354</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -9602,8 +9508,8 @@
       <c r="I55" t="s">
         <v>26</v>
       </c>
-      <c r="J55">
-        <v>6</v>
+      <c r="J55" t="s">
+        <v>26</v>
       </c>
       <c r="K55" t="s">
         <v>26</v>
@@ -9614,9 +9520,6 @@
       <c r="M55" t="s">
         <v>26</v>
       </c>
-      <c r="N55" t="s">
-        <v>26</v>
-      </c>
       <c r="O55" t="s">
         <v>26</v>
       </c>
@@ -9650,8 +9553,8 @@
       <c r="Y55" t="s">
         <v>26</v>
       </c>
-      <c r="Z55" t="s">
-        <v>26</v>
+      <c r="Z55">
+        <v>7</v>
       </c>
       <c r="AA55" t="s">
         <v>26</v>
@@ -9671,7 +9574,7 @@
       </c>
       <c r="BL55" s="18">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BM55" t="str">
         <f t="shared" si="6"/>
@@ -9687,7 +9590,7 @@
     </row>
     <row r="56" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -9710,8 +9613,8 @@
       <c r="H56" t="s">
         <v>26</v>
       </c>
-      <c r="I56">
-        <v>4.5</v>
+      <c r="I56" t="s">
+        <v>26</v>
       </c>
       <c r="J56" t="s">
         <v>26</v>
@@ -9758,8 +9661,8 @@
       <c r="X56" t="s">
         <v>26</v>
       </c>
-      <c r="Y56" t="s">
-        <v>26</v>
+      <c r="Y56">
+        <v>7</v>
       </c>
       <c r="Z56" t="s">
         <v>26</v>
@@ -9782,7 +9685,7 @@
       </c>
       <c r="BL56" s="18">
         <f t="shared" si="5"/>
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="BM56" t="str">
         <f t="shared" si="6"/>
@@ -9798,7 +9701,7 @@
     </row>
     <row r="57" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -9824,8 +9727,8 @@
       <c r="I57" t="s">
         <v>26</v>
       </c>
-      <c r="J57" t="s">
-        <v>26</v>
+      <c r="J57">
+        <v>6</v>
       </c>
       <c r="K57" t="s">
         <v>26</v>
@@ -9872,8 +9775,8 @@
       <c r="Y57" t="s">
         <v>26</v>
       </c>
-      <c r="Z57">
-        <v>4.5</v>
+      <c r="Z57" t="s">
+        <v>26</v>
       </c>
       <c r="AA57" t="s">
         <v>26</v>
@@ -9893,7 +9796,7 @@
       </c>
       <c r="BL57" s="18">
         <f t="shared" si="5"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="BM57" t="str">
         <f t="shared" si="6"/>
@@ -9909,7 +9812,7 @@
     </row>
     <row r="58" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -9932,8 +9835,8 @@
       <c r="H58" t="s">
         <v>26</v>
       </c>
-      <c r="I58" t="s">
-        <v>26</v>
+      <c r="I58">
+        <v>4.5</v>
       </c>
       <c r="J58" t="s">
         <v>26</v>
@@ -9989,8 +9892,8 @@
       <c r="AA58" t="s">
         <v>26</v>
       </c>
-      <c r="AB58">
-        <v>4</v>
+      <c r="AB58" t="s">
+        <v>26</v>
       </c>
       <c r="AC58" t="s">
         <v>26</v>
@@ -10004,7 +9907,7 @@
       </c>
       <c r="BL58" s="18">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="BM58" t="str">
         <f t="shared" si="6"/>
@@ -10020,10 +9923,94 @@
     </row>
     <row r="59" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>345</v>
-      </c>
-      <c r="AN59">
-        <v>3</v>
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" t="s">
+        <v>26</v>
+      </c>
+      <c r="J59" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" t="s">
+        <v>26</v>
+      </c>
+      <c r="O59" t="s">
+        <v>26</v>
+      </c>
+      <c r="P59" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>26</v>
+      </c>
+      <c r="R59" t="s">
+        <v>26</v>
+      </c>
+      <c r="S59" t="s">
+        <v>26</v>
+      </c>
+      <c r="T59" t="s">
+        <v>26</v>
+      </c>
+      <c r="U59" t="s">
+        <v>26</v>
+      </c>
+      <c r="V59" t="s">
+        <v>26</v>
+      </c>
+      <c r="W59" t="s">
+        <v>26</v>
+      </c>
+      <c r="X59" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z59">
+        <v>4.5</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>26</v>
       </c>
       <c r="BK59">
         <f t="shared" si="4"/>
@@ -10031,7 +10018,7 @@
       </c>
       <c r="BL59" s="18">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="BM59" t="str">
         <f t="shared" si="6"/>
@@ -10047,10 +10034,94 @@
     </row>
     <row r="60" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>348</v>
-      </c>
-      <c r="AP60">
-        <v>5.5</v>
+        <v>83</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" t="s">
+        <v>26</v>
+      </c>
+      <c r="K60" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60" t="s">
+        <v>26</v>
+      </c>
+      <c r="O60" t="s">
+        <v>26</v>
+      </c>
+      <c r="P60" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>26</v>
+      </c>
+      <c r="R60" t="s">
+        <v>26</v>
+      </c>
+      <c r="S60" t="s">
+        <v>26</v>
+      </c>
+      <c r="T60" t="s">
+        <v>26</v>
+      </c>
+      <c r="U60" t="s">
+        <v>26</v>
+      </c>
+      <c r="V60" t="s">
+        <v>26</v>
+      </c>
+      <c r="W60" t="s">
+        <v>26</v>
+      </c>
+      <c r="X60" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB60">
+        <v>4</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>26</v>
       </c>
       <c r="BK60">
         <f t="shared" si="4"/>
@@ -10058,7 +10129,7 @@
       </c>
       <c r="BL60" s="18">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="BM60" t="str">
         <f t="shared" si="6"/>
@@ -10074,10 +10145,10 @@
     </row>
     <row r="61" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>351</v>
-      </c>
-      <c r="AR61">
-        <v>4</v>
+        <v>345</v>
+      </c>
+      <c r="AN61">
+        <v>3</v>
       </c>
       <c r="BK61">
         <f t="shared" si="4"/>
@@ -10085,7 +10156,7 @@
       </c>
       <c r="BL61" s="18">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BM61" t="str">
         <f t="shared" si="6"/>
@@ -10101,9 +10172,9 @@
     </row>
     <row r="62" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>352</v>
-      </c>
-      <c r="AS62">
+        <v>348</v>
+      </c>
+      <c r="AP62">
         <v>5.5</v>
       </c>
       <c r="BK62">
@@ -10128,10 +10199,10 @@
     </row>
     <row r="63" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>353</v>
-      </c>
-      <c r="AS63">
-        <v>4.5</v>
+        <v>351</v>
+      </c>
+      <c r="AR63">
+        <v>4</v>
       </c>
       <c r="BK63">
         <f t="shared" si="4"/>
@@ -10139,7 +10210,7 @@
       </c>
       <c r="BL63" s="18">
         <f t="shared" si="5"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BM63" t="str">
         <f t="shared" si="6"/>
@@ -10155,10 +10226,10 @@
     </row>
     <row r="64" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>355</v>
-      </c>
-      <c r="AU64">
-        <v>5</v>
+        <v>352</v>
+      </c>
+      <c r="AS64">
+        <v>5.5</v>
       </c>
       <c r="BK64">
         <f t="shared" si="4"/>
@@ -10166,7 +10237,7 @@
       </c>
       <c r="BL64" s="18">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="BM64" t="str">
         <f t="shared" si="6"/>
@@ -10182,9 +10253,9 @@
     </row>
     <row r="65" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>363</v>
-      </c>
-      <c r="AW65">
+        <v>353</v>
+      </c>
+      <c r="AS65">
         <v>4.5</v>
       </c>
       <c r="BK65">
@@ -10209,25 +10280,22 @@
     </row>
     <row r="66" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>362</v>
-      </c>
-      <c r="AW66">
-        <v>5</v>
-      </c>
-      <c r="BF66">
+        <v>355</v>
+      </c>
+      <c r="AU66">
         <v>5</v>
       </c>
       <c r="BK66">
-        <f t="shared" ref="BK66:BK70" si="8">COUNT(B66:BJ66)</f>
-        <v>2</v>
+        <f t="shared" ref="BK66:BK71" si="8">COUNT(B66:BJ66)</f>
+        <v>1</v>
       </c>
       <c r="BL66" s="18">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="BM66">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="BL66:BL71" si="9">AVERAGE(B66:BJ66)</f>
+        <v>5</v>
+      </c>
+      <c r="BM66" t="str">
+        <f t="shared" ref="BM66:BM71" si="10">IF(BK66&gt;1,_xlfn.STDEV.S(B66:BJ66),"")</f>
+        <v/>
       </c>
       <c r="BN66">
         <v>0</v>
@@ -10239,21 +10307,21 @@
     </row>
     <row r="67" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>365</v>
-      </c>
-      <c r="BA67">
-        <v>5.5</v>
+        <v>363</v>
+      </c>
+      <c r="AW67">
+        <v>4.5</v>
       </c>
       <c r="BK67">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="BL67" s="18">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
+        <f t="shared" si="9"/>
+        <v>4.5</v>
       </c>
       <c r="BM67" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BN67">
@@ -10266,21 +10334,21 @@
     </row>
     <row r="68" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>366</v>
-      </c>
-      <c r="AZ68">
-        <v>2.5</v>
+        <v>365</v>
+      </c>
+      <c r="BA68">
+        <v>5.5</v>
       </c>
       <c r="BK68">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="BL68" s="18">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
+        <f t="shared" si="9"/>
+        <v>5.5</v>
       </c>
       <c r="BM68" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BN68">
@@ -10293,21 +10361,21 @@
     </row>
     <row r="69" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>367</v>
-      </c>
-      <c r="BB69">
-        <v>3</v>
+        <v>366</v>
+      </c>
+      <c r="AZ69">
+        <v>2.5</v>
       </c>
       <c r="BK69">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="BL69" s="18">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>2.5</v>
       </c>
       <c r="BM69" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BN69">
@@ -10320,21 +10388,21 @@
     </row>
     <row r="70" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>369</v>
-      </c>
-      <c r="BF70">
-        <v>7.5</v>
+        <v>367</v>
+      </c>
+      <c r="BB70">
+        <v>3</v>
       </c>
       <c r="BK70">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="BL70" s="18">
-        <f t="shared" ref="BL70:BL71" si="9">AVERAGE(B70:BJ70)</f>
-        <v>7.5</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="BM70" t="str">
-        <f t="shared" ref="BM70:BM71" si="10">IF(BK70&gt;1,_xlfn.STDEV.S(B70:BJ70),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BN70">
@@ -10347,38 +10415,35 @@
     </row>
     <row r="71" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>370</v>
-      </c>
-      <c r="BG71">
-        <v>5.5</v>
-      </c>
-      <c r="BH71">
-        <v>4.5</v>
+        <v>369</v>
+      </c>
+      <c r="BF71">
+        <v>7.5</v>
       </c>
       <c r="BK71">
-        <f t="shared" ref="BK71" si="11">COUNT(B71:BJ71)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="BL71" s="18">
         <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="BM71">
+        <v>7.5</v>
+      </c>
+      <c r="BM71" t="str">
         <f t="shared" si="10"/>
-        <v>0.70710678118654757</v>
+        <v/>
       </c>
       <c r="BN71">
         <v>0</v>
       </c>
       <c r="BP71" t="e">
-        <f t="shared" ref="BP71" si="12">AVERAGE(AI71:AK71)</f>
+        <f t="shared" ref="BP71" si="11">AVERAGE(AI71:AK71)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BN69" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
-    <sortState ref="A2:BN69">
-      <sortCondition descending="1" ref="BN1:BN66"/>
+  <autoFilter ref="A1:BN71" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
+    <sortState ref="A2:BN71">
+      <sortCondition descending="1" ref="BK1:BK71"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="BK2:BK68 BK70:BK71">
@@ -10645,8 +10710,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC20:BI67 AA2:BI38">
-    <cfRule type="colorScale" priority="60">
+  <conditionalFormatting sqref="BC39:BI67 AA2:BI38">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10657,8 +10722,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC20:BI67 AA2:BI47">
-    <cfRule type="colorScale" priority="63">
+  <conditionalFormatting sqref="BC48:BI67 AA2:BI47">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10669,8 +10734,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC20:BI67 AA2:BI42">
-    <cfRule type="colorScale" priority="66">
+  <conditionalFormatting sqref="BC43:BI67 AA2:BI42">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11749,12 +11814,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A044468-5FF9-485E-BCBE-2F73FE35F0BA}">
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:S76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A31" sqref="A31"/>
-      <selection pane="topRight" activeCell="P11" sqref="P11"/>
+      <selection pane="topRight" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11766,10 +11831,11 @@
     <col min="10" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.88671875" style="22" customWidth="1"/>
     <col min="13" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="22" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>69</v>
       </c>
@@ -11809,11 +11875,14 @@
       <c r="N1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="R1" t="s">
+      <c r="O1" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11858,11 +11927,14 @@
       <c r="N2" s="19">
         <v>88.84</v>
       </c>
-      <c r="R2" s="1">
-        <v>45695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O2" s="19">
+        <v>84.34</v>
+      </c>
+      <c r="S2" s="1">
+        <v>45755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11904,8 +11976,11 @@
       <c r="N3" s="19">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O3" s="21">
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11936,11 +12011,12 @@
       <c r="L4" s="19">
         <v>25</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="19">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O4" s="19"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11983,8 +12059,17 @@
       <c r="N5" s="19">
         <v>88.84</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O5" s="19">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>372</v>
+      </c>
+      <c r="S5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12027,12 +12112,18 @@
       <c r="N6" s="19">
         <v>88.84</v>
       </c>
-      <c r="P6">
-        <f>13*27</f>
-        <v>351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O6" s="19">
+        <v>84.34</v>
+      </c>
+      <c r="R6" t="s">
+        <v>373</v>
+      </c>
+      <c r="S6">
+        <f>27*S5</f>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -12075,12 +12166,18 @@
       <c r="N7" s="19">
         <v>88.84</v>
       </c>
-      <c r="P7">
-        <f>1950-P6</f>
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O7" s="19">
+        <v>84.34</v>
+      </c>
+      <c r="R7" t="s">
+        <v>374</v>
+      </c>
+      <c r="S7">
+        <f>1950-S6</f>
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12101,12 +12198,15 @@
         <v>25</v>
       </c>
       <c r="I8" s="19"/>
-      <c r="P8">
-        <f>P7/18</f>
-        <v>88.833333333333329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R8" t="s">
+        <v>375</v>
+      </c>
+      <c r="S8">
+        <f>S7/18</f>
+        <v>84.333333333333329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -12149,7 +12249,7 @@
         <v>76.39</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -12193,8 +12293,11 @@
       <c r="N10" s="19">
         <v>88.84</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O10" s="19">
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -12239,8 +12342,11 @@
       <c r="N11" s="19">
         <v>88.84</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O11" s="19">
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -12285,8 +12391,11 @@
       <c r="N12" s="19">
         <v>88.84</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O12" s="19">
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -12328,8 +12437,11 @@
       <c r="M13" s="19">
         <v>76.39</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O13" s="19">
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -12371,11 +12483,14 @@
       <c r="M14" s="19">
         <v>76.39</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="19">
         <v>88.84</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O14" s="19">
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -12418,8 +12533,11 @@
       <c r="N15" s="19">
         <v>88.84</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O15" s="19">
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -12457,8 +12575,11 @@
       <c r="N16" s="19">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="19">
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -12501,8 +12622,11 @@
       <c r="N17" s="19">
         <v>88.84</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="19">
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -12534,8 +12658,11 @@
       <c r="N18" s="19">
         <v>88.84</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="19">
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -12575,8 +12702,11 @@
       <c r="N19" s="19">
         <v>88.84</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19" s="19">
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -12611,8 +12741,11 @@
       <c r="N20" s="19">
         <v>88.84</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" s="19">
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -12634,8 +12767,11 @@
       <c r="I21" s="19">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -12652,7 +12788,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -12669,7 +12805,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -12713,8 +12849,11 @@
       <c r="N24" s="19">
         <v>88.84</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="19">
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -12736,7 +12875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -12765,8 +12904,9 @@
       <c r="N26" s="19">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26" s="19"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -12785,7 +12925,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -12807,15 +12947,17 @@
       <c r="I28" s="19">
         <v>25</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="19">
         <v>25</v>
       </c>
       <c r="L28" s="19"/>
-      <c r="N28" s="21">
+      <c r="M28" s="22"/>
+      <c r="N28" s="19">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="19"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -12833,7 +12975,7 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -12857,8 +12999,12 @@
       <c r="J30" s="19">
         <v>43.06</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="19">
+        <f>27*3</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -12872,7 +13018,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -12899,11 +13045,14 @@
       <c r="M32" s="19">
         <v>50</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32" s="19">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32" s="21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -12921,9 +13070,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>343</v>
       </c>
       <c r="C34" s="19">
         <v>25</v>
@@ -12940,8 +13089,11 @@
         <v>25</v>
       </c>
       <c r="L34" s="19"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -12957,7 +13109,7 @@
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -12977,7 +13129,7 @@
       </c>
       <c r="L36" s="19"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -13007,8 +13159,11 @@
       <c r="N37" s="19">
         <v>88.84</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O37" s="19">
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -13024,7 +13179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -13059,7 +13214,7 @@
         <v>76.39</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -13075,7 +13230,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -13091,7 +13246,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -13122,8 +13277,9 @@
       <c r="N42" s="19">
         <v>88.84</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O42" s="19"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -13143,7 +13299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -13177,8 +13333,9 @@
       <c r="N44" s="19">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O44" s="19"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -13192,7 +13349,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
         <v>354</v>
       </c>
@@ -13209,7 +13366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -13226,7 +13383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -13240,7 +13397,7 @@
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -13250,7 +13407,7 @@
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -13260,7 +13417,7 @@
       </c>
       <c r="I50" s="19"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -13270,7 +13427,7 @@
       </c>
       <c r="I51" s="19"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>85</v>
       </c>
@@ -13282,7 +13439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -13292,7 +13449,7 @@
       </c>
       <c r="I53" s="19"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -13319,8 +13476,11 @@
       <c r="N54" s="19">
         <v>88.84</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O54" s="19">
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>340</v>
       </c>
@@ -13337,7 +13497,7 @@
         <v>79.17</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>339</v>
       </c>
@@ -13351,7 +13511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>344</v>
       </c>
@@ -13368,7 +13528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>342</v>
       </c>
@@ -13379,11 +13539,12 @@
         <v>25</v>
       </c>
       <c r="L58" s="19"/>
-      <c r="N58" s="21">
+      <c r="N58" s="19">
         <v>27</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O58" s="19"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>345</v>
       </c>
@@ -13395,7 +13556,7 @@
       </c>
       <c r="L59" s="19"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>346</v>
       </c>
@@ -13414,8 +13575,12 @@
       <c r="N60" s="19">
         <v>88.84</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O60" s="19">
+        <f>27*3</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>348</v>
       </c>
@@ -13427,7 +13592,7 @@
       </c>
       <c r="L61" s="19"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>355</v>
       </c>
@@ -13439,7 +13604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>357</v>
       </c>
@@ -13447,7 +13612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>353</v>
       </c>
@@ -13455,7 +13620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>351</v>
       </c>
@@ -13463,7 +13628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>364</v>
       </c>
@@ -13472,7 +13637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>362</v>
       </c>
@@ -13480,8 +13645,11 @@
       <c r="M67" s="19">
         <v>25</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O67" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>365</v>
       </c>
@@ -13490,18 +13658,20 @@
       <c r="N68" s="19">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O68" s="19"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>366</v>
       </c>
       <c r="L69" s="19"/>
       <c r="M69" s="19"/>
-      <c r="N69" s="21">
+      <c r="N69" s="19">
         <v>27</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O69" s="19"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>367</v>
       </c>
@@ -13510,173 +13680,202 @@
       <c r="N70" s="19">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O70" s="19"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>369</v>
+      </c>
+      <c r="O71" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>370</v>
+      </c>
+      <c r="O72" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="20">
+      <c r="B74" s="20">
         <f>SUM(B3:B28)</f>
         <v>1716.6666666666665</v>
       </c>
-      <c r="C72" s="20">
+      <c r="C74" s="20">
         <f>SUM(C3:C35)</f>
         <v>1729.2800000000002</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D74" s="20">
         <f>SUM(D3:D38)</f>
         <v>1754.2800000000002</v>
       </c>
-      <c r="E72" s="20">
+      <c r="E74" s="20">
         <f>SUM(E3:E41)</f>
         <v>1697.26</v>
       </c>
-      <c r="F72" s="20">
+      <c r="F74" s="20">
         <f>SUM(F3:F44)</f>
         <v>1772.26</v>
       </c>
-      <c r="G72" s="20">
+      <c r="G74" s="20">
         <f>SUM(G3:G49)</f>
         <v>1722.2599999999998</v>
       </c>
-      <c r="H72" s="20">
+      <c r="H74" s="20">
         <f>SUM(H3:H54)</f>
         <v>1715.41</v>
       </c>
-      <c r="I72" s="20">
+      <c r="I74" s="20">
         <f>SUM(I3:I54)</f>
         <v>1722.2599999999998</v>
       </c>
-      <c r="J72" s="20">
+      <c r="J74" s="20">
         <f>SUM(J3:J57)</f>
         <v>1714.0399999999995</v>
       </c>
-      <c r="K72" s="20">
+      <c r="K74" s="20">
         <f>SUM(K3:K60)</f>
         <v>1716.6733333333332</v>
       </c>
-      <c r="L72" s="20">
+      <c r="L74" s="20">
         <f>SUM(L3:L60)</f>
         <v>1620.8900000000003</v>
       </c>
-      <c r="M72" s="20">
+      <c r="M74" s="20">
         <f>SUM(M3:M70)</f>
         <v>1723.6300000000003</v>
       </c>
-      <c r="N72" s="20">
+      <c r="N74" s="20">
         <f>SUM(N3:N70)</f>
         <v>1861.2799999999997</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="O74" s="20">
+        <f>SUM(O3:O72)</f>
+        <v>1865.7799999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="20">
+      <c r="B75" s="20">
         <f>25*12+83.34*17</f>
         <v>1716.78</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C75" s="20">
         <f>22*25+70.84*17</f>
         <v>1754.28</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D75" s="20">
         <f>20*25+70.84*17</f>
         <v>1704.28</v>
       </c>
-      <c r="E73" s="20">
+      <c r="E75" s="20">
         <f>15*25+77.78*17</f>
         <v>1697.26</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F75" s="20">
         <f>18*25+77.78*17</f>
         <v>1772.26</v>
       </c>
-      <c r="G73" s="23">
+      <c r="G75" s="23">
         <f>17*77.78+25*16</f>
         <v>1722.26</v>
       </c>
-      <c r="H73" s="23">
+      <c r="H75" s="23">
         <f>11*25+84.73*17</f>
         <v>1715.41</v>
       </c>
-      <c r="I73" s="23">
+      <c r="I75" s="23">
         <f>17*25+77.78*17</f>
         <v>1747.26</v>
       </c>
-      <c r="J73" s="23">
+      <c r="J75" s="23">
         <f>10*25+86.12*17</f>
         <v>1714.04</v>
       </c>
-      <c r="K73" s="23">
-        <f>12*25+83.33*17</f>
-        <v>1716.61</v>
-      </c>
-      <c r="L73" s="23">
+      <c r="K75" s="23">
+        <f>13*25+83.33*17</f>
+        <v>1741.61</v>
+      </c>
+      <c r="L75" s="23">
         <f>15*25+79.17*17</f>
         <v>1720.89</v>
       </c>
-      <c r="M73" s="23">
+      <c r="M75" s="23">
         <f>17*25+76.39*17</f>
         <v>1723.63</v>
       </c>
-      <c r="N73" s="23">
-        <f>8*27+88.84*16</f>
-        <v>1637.44</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B74" s="24">
-        <f t="shared" ref="B74:G74" si="1">B73/B72</f>
+      <c r="N75" s="23">
+        <f>13*27+88.84*17</f>
+        <v>1861.28</v>
+      </c>
+      <c r="O75" s="23">
+        <f>9*27+84.34*16</f>
+        <v>1592.44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B76" s="24">
+        <f t="shared" ref="B76:G76" si="1">B75/B74</f>
         <v>1.0000660194174757</v>
       </c>
-      <c r="C74" s="24">
+      <c r="C76" s="24">
         <f t="shared" si="1"/>
         <v>1.0144568837897852</v>
       </c>
-      <c r="D74" s="24">
+      <c r="D76" s="24">
         <f t="shared" si="1"/>
         <v>0.97149827849602099</v>
       </c>
-      <c r="E74" s="24">
+      <c r="E76" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F74" s="24">
+      <c r="F76" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G74" s="24">
+      <c r="G76" s="24">
         <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="H74" s="24">
-        <f t="shared" ref="H74:I74" si="2">H73/H72</f>
-        <v>1</v>
-      </c>
-      <c r="I74" s="24">
+      <c r="H76" s="24">
+        <f t="shared" ref="H76:I76" si="2">H75/H74</f>
+        <v>1</v>
+      </c>
+      <c r="I76" s="24">
         <f t="shared" si="2"/>
         <v>1.0145158106209284</v>
       </c>
-      <c r="J74" s="24">
-        <f t="shared" ref="J74:K74" si="3">J73/J72</f>
+      <c r="J76" s="24">
+        <f t="shared" ref="J76:K76" si="3">J75/J74</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="K74" s="24">
+      <c r="K76" s="24">
         <f t="shared" si="3"/>
-        <v>0.99996310693939061</v>
-      </c>
-      <c r="L74" s="24">
-        <f t="shared" ref="L74:M74" si="4">L73/L72</f>
+        <v>1.0145261571799722</v>
+      </c>
+      <c r="L76" s="24">
+        <f t="shared" ref="L76:M76" si="4">L75/L74</f>
         <v>1.0616945011691106</v>
       </c>
-      <c r="M74" s="24">
+      <c r="M76" s="24">
         <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="N74" s="24">
-        <f t="shared" ref="N74" si="5">N73/N72</f>
-        <v>0.8797386744605864</v>
+      <c r="N76" s="24">
+        <f t="shared" ref="N76:O76" si="5">N75/N74</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="O76" s="24">
+        <f t="shared" si="5"/>
+        <v>0.85349826882054702</v>
       </c>
     </row>
   </sheetData>
@@ -13686,10 +13885,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X176"/>
+  <dimension ref="A1:X179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="I181" sqref="I181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22480,6 +22679,144 @@
         <v>368</v>
       </c>
     </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A177" s="14">
+        <v>45875</v>
+      </c>
+      <c r="B177" s="3">
+        <v>6</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H177" s="8"/>
+      <c r="I177" s="9">
+        <v>6</v>
+      </c>
+      <c r="J177" s="10">
+        <v>9</v>
+      </c>
+      <c r="K177" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L177" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M177" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N177" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O177" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P177" s="10"/>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A178" s="14">
+        <v>45875</v>
+      </c>
+      <c r="B178" s="3">
+        <v>5</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G178" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H178" s="10"/>
+      <c r="I178" s="11">
+        <v>4</v>
+      </c>
+      <c r="J178" s="2">
+        <v>3</v>
+      </c>
+      <c r="K178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L178" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M178" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N178" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="O178" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P178" s="3"/>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A179" s="14">
+        <v>45875</v>
+      </c>
+      <c r="B179" s="5">
+        <v>3</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H179" s="3"/>
+      <c r="I179" s="5">
+        <v>1</v>
+      </c>
+      <c r="J179" s="8">
+        <v>2</v>
+      </c>
+      <c r="K179" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L179" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M179" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N179" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O179" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P179" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22487,11 +22824,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DDCCA6-42DC-4211-A42F-70F3625FA6AA}">
-  <dimension ref="A1:AO71"/>
+  <dimension ref="A1:AP71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO14" sqref="AO14"/>
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP70" sqref="AP2:AP70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22510,7 +22847,7 @@
     <col min="39" max="41" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22634,8 +22971,11 @@
       <c r="AO1" s="1">
         <v>45868</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP1" s="1">
+        <v>45875</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -22663,13 +23003,16 @@
       <c r="AN2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -22704,12 +23047,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -22717,7 +23060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>365</v>
       </c>
@@ -22725,7 +23068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -22733,7 +23076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>354</v>
       </c>
@@ -22741,27 +23084,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -22799,7 +23142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -22831,7 +23174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -22845,7 +23188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -22889,7 +23232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -22951,7 +23294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -22974,7 +23317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -23065,8 +23408,11 @@
       <c r="AO20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>342</v>
       </c>
@@ -23080,17 +23426,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -23104,7 +23450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -23150,8 +23496,11 @@
       <c r="AO25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>362</v>
       </c>
@@ -23162,7 +23511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -23235,8 +23584,11 @@
       <c r="AO27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>352</v>
       </c>
@@ -23244,7 +23596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -23318,7 +23670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -23409,8 +23761,11 @@
       <c r="AO30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -23418,7 +23773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -23426,7 +23781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -23493,13 +23848,16 @@
       <c r="AN33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AP33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -23516,7 +23874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -23524,7 +23882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>369</v>
       </c>
@@ -23532,7 +23890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>345</v>
       </c>
@@ -23540,7 +23898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>343</v>
       </c>
@@ -23548,7 +23906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>347</v>
       </c>
@@ -23562,7 +23920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -23635,8 +23993,11 @@
       <c r="AL41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AP41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -23658,8 +24019,11 @@
       <c r="AN42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AP42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -23676,12 +24040,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -23746,7 +24110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>370</v>
       </c>
@@ -23754,7 +24118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -23762,7 +24126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>340</v>
       </c>
@@ -23785,17 +24149,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -23857,12 +24221,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -23873,7 +24237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -23887,12 +24251,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -23909,7 +24273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -23925,8 +24289,11 @@
       <c r="AI57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -23943,12 +24310,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -24036,8 +24403,11 @@
       <c r="AN60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -24045,7 +24415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -24059,7 +24429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -24154,7 +24524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -24162,7 +24532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>368</v>
       </c>
@@ -24212,7 +24582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>353</v>
       </c>
@@ -24220,12 +24590,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -24239,7 +24609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -24247,7 +24617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -24356,8 +24726,11 @@
       <c r="AO70">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>47</v>
       </c>
@@ -26453,7 +26826,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/condominio.xlsx
+++ b/data/condominio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="14_{98364A46-010F-4A4A-AA37-5A188387D7F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{73843B0F-C22D-4A2E-97A1-D3CB3E0DA88B}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="14_{98364A46-010F-4A4A-AA37-5A188387D7F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{94BA7945-51DC-4FA1-BD81-139BEAA3BF5C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notas" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">artilharia!$A$1:$AB$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'artilharia total'!$A$1:$AI$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'extrato 2024'!$A$1:$C$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$BN$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$BO$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4067" uniqueCount="376">
   <si>
     <t>Jogador</t>
   </si>
@@ -1076,9 +1076,6 @@
     <t>André</t>
   </si>
   <si>
-    <t>Matheus  Machado</t>
-  </si>
-  <si>
     <t>Brito</t>
   </si>
   <si>
@@ -1161,6 +1158,9 @@
   </si>
   <si>
     <t>mensalidade</t>
+  </si>
+  <si>
+    <t>18/8/2025</t>
   </si>
 </sst>
 </file>
@@ -1930,7 +1930,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2030,6 +2030,12 @@
     <xf numFmtId="0" fontId="17" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2387,11 +2393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BQ71"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BK4" sqref="BK4"/>
+      <selection pane="topRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2413,10 +2419,10 @@
     <col min="27" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="10.5546875" customWidth="1"/>
     <col min="49" max="49" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="61" width="9.5546875" customWidth="1"/>
+    <col min="50" max="62" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2600,20 +2606,23 @@
       <c r="BI1" s="1">
         <v>45875</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BJ1" s="1">
+        <v>45882</v>
+      </c>
+      <c r="BL1" t="s">
         <v>57</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>58</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>59</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2788,27 +2797,30 @@
       <c r="BI2">
         <v>5.5</v>
       </c>
-      <c r="BK2">
-        <f t="shared" ref="BK2:BK33" si="0">COUNT(B2:BJ2)</f>
-        <v>56</v>
-      </c>
-      <c r="BL2" s="18">
-        <f t="shared" ref="BL2:BL33" si="1">AVERAGE(B2:BJ2)</f>
-        <v>5.8125</v>
-      </c>
-      <c r="BM2">
-        <f t="shared" ref="BM2:BM33" si="2">IF(BK2&gt;1,_xlfn.STDEV.S(B2:BJ2),"")</f>
-        <v>1.097776678730076</v>
+      <c r="BJ2">
+        <v>5</v>
+      </c>
+      <c r="BL2">
+        <f>COUNT(B2:BK2)</f>
+        <v>57</v>
+      </c>
+      <c r="BM2" s="18">
+        <f>AVERAGE(B2:BK2)</f>
+        <v>5.7982456140350873</v>
       </c>
       <c r="BN2">
-        <v>1</v>
-      </c>
-      <c r="BP2">
+        <f>IF(BL2&gt;1,_xlfn.STDEV.S(B2:BK2),"")</f>
+        <v>1.0932407962551036</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
         <f>AVERAGE(AI2:AK2)</f>
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2980,27 +2992,30 @@
       <c r="BI3">
         <v>5.5</v>
       </c>
-      <c r="BK3">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="BL3" s="18">
-        <f t="shared" si="1"/>
-        <v>5.5277777777777777</v>
-      </c>
-      <c r="BM3">
-        <f t="shared" si="2"/>
-        <v>0.91845166400823475</v>
+      <c r="BJ3">
+        <v>5.5</v>
+      </c>
+      <c r="BL3">
+        <f>COUNT(B3:BK3)</f>
+        <v>55</v>
+      </c>
+      <c r="BM3" s="18">
+        <f>AVERAGE(B3:BK3)</f>
+        <v>5.5272727272727273</v>
       </c>
       <c r="BN3">
-        <v>1</v>
-      </c>
-      <c r="BP3">
-        <f t="shared" ref="BP3:BP39" si="3">AVERAGE(AI3:AK3)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
+        <f>IF(BL3&gt;1,_xlfn.STDEV.S(B3:BK3),"")</f>
+        <v>0.90991545098768856</v>
+      </c>
+      <c r="BO3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <f>AVERAGE(AI3:AK3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3172,27 +3187,30 @@
       <c r="BI4">
         <v>5</v>
       </c>
-      <c r="BK4">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="BL4" s="18">
-        <f t="shared" si="1"/>
-        <v>5.7735849056603774</v>
-      </c>
-      <c r="BM4">
-        <f t="shared" si="2"/>
-        <v>0.91759529863413714</v>
+      <c r="BJ4">
+        <v>5.5</v>
+      </c>
+      <c r="BL4">
+        <f>COUNT(B4:BK4)</f>
+        <v>54</v>
+      </c>
+      <c r="BM4" s="18">
+        <f>AVERAGE(B4:BK4)</f>
+        <v>5.7685185185185182</v>
       </c>
       <c r="BN4">
-        <v>1</v>
-      </c>
-      <c r="BP4">
-        <f t="shared" si="3"/>
+        <f>IF(BL4&gt;1,_xlfn.STDEV.S(B4:BK4),"")</f>
+        <v>0.90965970707153054</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <f>AVERAGE(AI4:AK4)</f>
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -3349,27 +3367,27 @@
       <c r="BI5">
         <v>5</v>
       </c>
-      <c r="BK5">
-        <f t="shared" si="0"/>
+      <c r="BL5">
+        <f>COUNT(B5:BK5)</f>
         <v>49</v>
       </c>
-      <c r="BL5" s="18">
-        <f t="shared" si="1"/>
+      <c r="BM5" s="18">
+        <f>AVERAGE(B5:BK5)</f>
         <v>6.3673469387755102</v>
       </c>
-      <c r="BM5">
-        <f t="shared" si="2"/>
+      <c r="BN5">
+        <f>IF(BL5&gt;1,_xlfn.STDEV.S(B5:BK5),"")</f>
         <v>0.84641099037397227</v>
       </c>
-      <c r="BN5">
-        <v>1</v>
-      </c>
-      <c r="BP5">
-        <f t="shared" si="3"/>
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <f>AVERAGE(AI5:AK5)</f>
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3535,27 +3553,27 @@
       <c r="BG6">
         <v>5</v>
       </c>
-      <c r="BK6">
-        <f t="shared" si="0"/>
+      <c r="BL6">
+        <f>COUNT(B6:BK6)</f>
         <v>47</v>
       </c>
-      <c r="BL6" s="18">
-        <f t="shared" si="1"/>
+      <c r="BM6" s="18">
+        <f>AVERAGE(B6:BK6)</f>
         <v>6.7765957446808507</v>
       </c>
-      <c r="BM6">
-        <f t="shared" si="2"/>
+      <c r="BN6">
+        <f>IF(BL6&gt;1,_xlfn.STDEV.S(B6:BK6),"")</f>
         <v>1.206001796443511</v>
       </c>
-      <c r="BN6">
-        <v>1</v>
-      </c>
-      <c r="BP6">
-        <f t="shared" si="3"/>
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
+        <f>AVERAGE(AI6:AK6)</f>
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3718,27 +3736,27 @@
       <c r="BH7">
         <v>5</v>
       </c>
-      <c r="BK7">
-        <f t="shared" si="0"/>
+      <c r="BL7">
+        <f>COUNT(B7:BK7)</f>
         <v>47</v>
       </c>
-      <c r="BL7" s="18">
-        <f t="shared" si="1"/>
+      <c r="BM7" s="18">
+        <f>AVERAGE(B7:BK7)</f>
         <v>6.1808510638297873</v>
       </c>
-      <c r="BM7">
-        <f t="shared" si="2"/>
+      <c r="BN7">
+        <f>IF(BL7&gt;1,_xlfn.STDEV.S(B7:BK7),"")</f>
         <v>0.96923059980412896</v>
       </c>
-      <c r="BN7">
-        <v>1</v>
-      </c>
-      <c r="BP7">
-        <f t="shared" si="3"/>
+      <c r="BO7">
+        <v>1</v>
+      </c>
+      <c r="BQ7">
+        <f>AVERAGE(AI7:AK7)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3916,27 +3934,30 @@
       <c r="BI8">
         <v>6.5</v>
       </c>
-      <c r="BK8">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="BL8" s="18">
-        <f t="shared" si="1"/>
-        <v>6.0760869565217392</v>
-      </c>
-      <c r="BM8">
-        <f t="shared" si="2"/>
-        <v>1.0850877655458104</v>
+      <c r="BJ8">
+        <v>6</v>
+      </c>
+      <c r="BL8">
+        <f>COUNT(B8:BK8)</f>
+        <v>47</v>
+      </c>
+      <c r="BM8" s="18">
+        <f>AVERAGE(B8:BK8)</f>
+        <v>6.0744680851063828</v>
       </c>
       <c r="BN8">
-        <v>1</v>
-      </c>
-      <c r="BP8">
-        <f t="shared" si="3"/>
+        <f>IF(BL8&gt;1,_xlfn.STDEV.S(B8:BK8),"")</f>
+        <v>1.0732859105096018</v>
+      </c>
+      <c r="BO8">
+        <v>1</v>
+      </c>
+      <c r="BQ8">
+        <f>AVERAGE(AI8:AK8)</f>
         <v>5.25</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4087,27 +4108,30 @@
       <c r="BI9">
         <v>5.5</v>
       </c>
-      <c r="BK9">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="BL9" s="18">
-        <f t="shared" si="1"/>
-        <v>5.5869565217391308</v>
-      </c>
-      <c r="BM9">
-        <f t="shared" si="2"/>
-        <v>0.89631559314344067</v>
+      <c r="BJ9">
+        <v>5.5</v>
+      </c>
+      <c r="BL9">
+        <f>COUNT(B9:BK9)</f>
+        <v>47</v>
+      </c>
+      <c r="BM9" s="18">
+        <f>AVERAGE(B9:BK9)</f>
+        <v>5.5851063829787231</v>
       </c>
       <c r="BN9">
+        <f>IF(BL9&gt;1,_xlfn.STDEV.S(B9:BK9),"")</f>
+        <v>0.88661023332010847</v>
+      </c>
+      <c r="BO9">
         <v>0</v>
       </c>
-      <c r="BP9">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="BQ9">
+        <f>AVERAGE(AI9:AK9)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -4261,27 +4285,27 @@
       <c r="BI10">
         <v>5</v>
       </c>
-      <c r="BK10">
-        <f t="shared" si="0"/>
+      <c r="BL10">
+        <f>COUNT(B10:BK10)</f>
         <v>43</v>
       </c>
-      <c r="BL10" s="18">
-        <f t="shared" si="1"/>
+      <c r="BM10" s="18">
+        <f>AVERAGE(B10:BK10)</f>
         <v>5.6046511627906979</v>
       </c>
-      <c r="BM10">
-        <f t="shared" si="2"/>
+      <c r="BN10">
+        <f>IF(BL10&gt;1,_xlfn.STDEV.S(B10:BK10),"")</f>
         <v>0.73645013679590654</v>
       </c>
-      <c r="BN10">
-        <v>1</v>
-      </c>
-      <c r="BP10">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="BO10">
+        <v>1</v>
+      </c>
+      <c r="BQ10">
+        <f>AVERAGE(AI10:AK10)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4444,29 +4468,32 @@
       <c r="BI11">
         <v>5</v>
       </c>
-      <c r="BK11">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="BL11" s="18">
-        <f t="shared" si="1"/>
-        <v>5.5121951219512191</v>
-      </c>
-      <c r="BM11">
-        <f t="shared" si="2"/>
-        <v>1.0576377267172392</v>
+      <c r="BJ11">
+        <v>5</v>
+      </c>
+      <c r="BL11">
+        <f>COUNT(B11:BK11)</f>
+        <v>42</v>
+      </c>
+      <c r="BM11" s="18">
+        <f>AVERAGE(B11:BK11)</f>
+        <v>5.5</v>
       </c>
       <c r="BN11">
-        <v>1</v>
-      </c>
-      <c r="BP11">
-        <f t="shared" si="3"/>
+        <f>IF(BL11&gt;1,_xlfn.STDEV.S(B11:BK11),"")</f>
+        <v>1.0476454436543674</v>
+      </c>
+      <c r="BO11">
+        <v>1</v>
+      </c>
+      <c r="BQ11">
+        <f>AVERAGE(AI11:AK11)</f>
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B12">
         <v>8.5</v>
@@ -4609,27 +4636,27 @@
       <c r="BH12">
         <v>5</v>
       </c>
-      <c r="BK12">
-        <f t="shared" si="0"/>
+      <c r="BL12">
+        <f>COUNT(B12:BK12)</f>
         <v>40</v>
       </c>
-      <c r="BL12" s="18">
-        <f t="shared" si="1"/>
+      <c r="BM12" s="18">
+        <f>AVERAGE(B12:BK12)</f>
         <v>6.1749999999999998</v>
       </c>
-      <c r="BM12">
-        <f t="shared" si="2"/>
+      <c r="BN12">
+        <f>IF(BL12&gt;1,_xlfn.STDEV.S(B12:BK12),"")</f>
         <v>1.1183206273877935</v>
       </c>
-      <c r="BN12">
-        <v>1</v>
-      </c>
-      <c r="BP12">
-        <f t="shared" si="3"/>
+      <c r="BO12">
+        <v>1</v>
+      </c>
+      <c r="BQ12">
+        <f>AVERAGE(AI12:AK12)</f>
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4777,27 +4804,27 @@
       <c r="BE13">
         <v>4.5</v>
       </c>
-      <c r="BK13">
-        <f t="shared" si="0"/>
+      <c r="BL13">
+        <f>COUNT(B13:BK13)</f>
         <v>37</v>
       </c>
-      <c r="BL13" s="18">
-        <f t="shared" si="1"/>
+      <c r="BM13" s="18">
+        <f>AVERAGE(B13:BK13)</f>
         <v>4.5270270270270272</v>
       </c>
-      <c r="BM13">
-        <f t="shared" si="2"/>
+      <c r="BN13">
+        <f>IF(BL13&gt;1,_xlfn.STDEV.S(B13:BK13),"")</f>
         <v>1.0471253370401621</v>
       </c>
-      <c r="BN13">
-        <v>1</v>
-      </c>
-      <c r="BP13">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="BO13">
+        <v>1</v>
+      </c>
+      <c r="BQ13">
+        <f>AVERAGE(AI13:AK13)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -4972,27 +4999,30 @@
       <c r="BI14">
         <v>7</v>
       </c>
-      <c r="BK14">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="BL14" s="18">
-        <f t="shared" si="1"/>
-        <v>6.1184210526315788</v>
-      </c>
-      <c r="BM14">
-        <f t="shared" si="2"/>
-        <v>1.0295250185736784</v>
+      <c r="BJ14">
+        <v>5.5</v>
+      </c>
+      <c r="BL14">
+        <f>COUNT(B14:BK14)</f>
+        <v>39</v>
+      </c>
+      <c r="BM14" s="18">
+        <f>AVERAGE(B14:BK14)</f>
+        <v>6.1025641025641022</v>
       </c>
       <c r="BN14">
-        <v>1</v>
-      </c>
-      <c r="BP14">
-        <f t="shared" si="3"/>
+        <f>IF(BL14&gt;1,_xlfn.STDEV.S(B14:BK14),"")</f>
+        <v>1.0207033641684704</v>
+      </c>
+      <c r="BO14">
+        <v>1</v>
+      </c>
+      <c r="BQ14">
+        <f>AVERAGE(AI14:AK14)</f>
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -5122,27 +5152,30 @@
       <c r="BI15">
         <v>5</v>
       </c>
-      <c r="BK15">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="BL15" s="18">
-        <f t="shared" si="1"/>
-        <v>5.5270270270270272</v>
-      </c>
-      <c r="BM15">
-        <f t="shared" si="2"/>
-        <v>0.85753155065009634</v>
+      <c r="BJ15">
+        <v>4.5</v>
+      </c>
+      <c r="BL15">
+        <f>COUNT(B15:BK15)</f>
+        <v>38</v>
+      </c>
+      <c r="BM15" s="18">
+        <f>AVERAGE(B15:BK15)</f>
+        <v>5.5</v>
       </c>
       <c r="BN15">
-        <v>1</v>
-      </c>
-      <c r="BP15">
-        <f t="shared" si="3"/>
+        <f>IF(BL15&gt;1,_xlfn.STDEV.S(B15:BK15),"")</f>
+        <v>0.86211556258035571</v>
+      </c>
+      <c r="BO15">
+        <v>1</v>
+      </c>
+      <c r="BQ15">
+        <f>AVERAGE(AI15:AK15)</f>
         <v>4.75</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -5290,27 +5323,27 @@
       <c r="BI16">
         <v>5</v>
       </c>
-      <c r="BK16">
-        <f t="shared" si="0"/>
+      <c r="BL16">
+        <f>COUNT(B16:BK16)</f>
         <v>36</v>
       </c>
-      <c r="BL16" s="18">
-        <f t="shared" si="1"/>
+      <c r="BM16" s="18">
+        <f>AVERAGE(B16:BK16)</f>
         <v>6.0555555555555554</v>
       </c>
-      <c r="BM16">
-        <f t="shared" si="2"/>
+      <c r="BN16">
+        <f>IF(BL16&gt;1,_xlfn.STDEV.S(B16:BK16),"")</f>
         <v>1.0939951539314046</v>
       </c>
-      <c r="BN16">
-        <v>1</v>
-      </c>
-      <c r="BP16" t="e">
+      <c r="BO16">
+        <v>1</v>
+      </c>
+      <c r="BQ16" t="e">
         <f>AVERAGE(AI16:AK16)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -5455,27 +5488,27 @@
       <c r="AW17">
         <v>5</v>
       </c>
-      <c r="BK17">
-        <f t="shared" si="0"/>
+      <c r="BL17">
+        <f>COUNT(B17:BK17)</f>
         <v>27</v>
       </c>
-      <c r="BL17" s="18">
-        <f t="shared" si="1"/>
+      <c r="BM17" s="18">
+        <f>AVERAGE(B17:BK17)</f>
         <v>5.7407407407407405</v>
       </c>
-      <c r="BM17">
-        <f t="shared" si="2"/>
+      <c r="BN17">
+        <f>IF(BL17&gt;1,_xlfn.STDEV.S(B17:BK17),"")</f>
         <v>0.90267093384844077</v>
       </c>
-      <c r="BN17">
+      <c r="BO17">
         <v>0</v>
       </c>
-      <c r="BP17">
-        <f t="shared" si="3"/>
+      <c r="BQ17">
+        <f>AVERAGE(AI17:AK17)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -5608,27 +5641,30 @@
       <c r="BH18">
         <v>5.5</v>
       </c>
-      <c r="BK18">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="BL18" s="18">
-        <f t="shared" si="1"/>
-        <v>5.9230769230769234</v>
-      </c>
-      <c r="BM18">
-        <f t="shared" si="2"/>
-        <v>0.86824314212445841</v>
+      <c r="BJ18">
+        <v>5</v>
+      </c>
+      <c r="BL18">
+        <f>COUNT(B18:BK18)</f>
+        <v>27</v>
+      </c>
+      <c r="BM18" s="18">
+        <f>AVERAGE(B18:BK18)</f>
+        <v>5.8888888888888893</v>
       </c>
       <c r="BN18">
-        <v>1</v>
-      </c>
-      <c r="BP18" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(BL18&gt;1,_xlfn.STDEV.S(B18:BK18),"")</f>
+        <v>0.86971849262290324</v>
+      </c>
+      <c r="BO18">
+        <v>1</v>
+      </c>
+      <c r="BQ18" t="e">
+        <f>AVERAGE(AI18:AK18)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -5788,27 +5824,27 @@
       <c r="BI19">
         <v>4.5</v>
       </c>
-      <c r="BK19">
-        <f t="shared" si="0"/>
+      <c r="BL19">
+        <f>COUNT(B19:BK19)</f>
         <v>25</v>
       </c>
-      <c r="BL19" s="18">
-        <f t="shared" si="1"/>
+      <c r="BM19" s="18">
+        <f>AVERAGE(B19:BK19)</f>
         <v>5.16</v>
       </c>
-      <c r="BM19">
-        <f t="shared" si="2"/>
+      <c r="BN19">
+        <f>IF(BL19&gt;1,_xlfn.STDEV.S(B19:BK19),"")</f>
         <v>0.67268120235368589</v>
       </c>
-      <c r="BN19">
-        <v>1</v>
-      </c>
-      <c r="BP19">
-        <f t="shared" si="3"/>
+      <c r="BO19">
+        <v>1</v>
+      </c>
+      <c r="BQ19">
+        <f>AVERAGE(AI19:AK19)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -5953,27 +5989,30 @@
       <c r="BI20">
         <v>5</v>
       </c>
-      <c r="BK20">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="BL20" s="18">
-        <f t="shared" si="1"/>
-        <v>4.729166666666667</v>
-      </c>
-      <c r="BM20">
-        <f t="shared" si="2"/>
-        <v>1.0212861314630892</v>
+      <c r="BJ20">
+        <v>4.5</v>
+      </c>
+      <c r="BL20">
+        <f>COUNT(B20:BK20)</f>
+        <v>25</v>
+      </c>
+      <c r="BM20" s="18">
+        <f>AVERAGE(B20:BK20)</f>
+        <v>4.72</v>
       </c>
       <c r="BN20">
-        <v>1</v>
-      </c>
-      <c r="BP20">
-        <f t="shared" si="3"/>
+        <f>IF(BL20&gt;1,_xlfn.STDEV.S(B20:BK20),"")</f>
+        <v>1.0008329864001611</v>
+      </c>
+      <c r="BO20">
+        <v>1</v>
+      </c>
+      <c r="BQ20">
+        <f>AVERAGE(AI20:AK20)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -6079,27 +6118,30 @@
       <c r="BH21">
         <v>5</v>
       </c>
-      <c r="BK21">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="BL21" s="18">
-        <f t="shared" si="1"/>
-        <v>5.8181818181818183</v>
-      </c>
-      <c r="BM21">
-        <f t="shared" si="2"/>
-        <v>0.99457402398086392</v>
+      <c r="BJ21">
+        <v>4.5</v>
+      </c>
+      <c r="BL21">
+        <f>COUNT(B21:BK21)</f>
+        <v>23</v>
+      </c>
+      <c r="BM21" s="18">
+        <f>AVERAGE(B21:BK21)</f>
+        <v>5.7608695652173916</v>
       </c>
       <c r="BN21">
-        <v>1</v>
-      </c>
-      <c r="BP21" t="e">
-        <f t="shared" si="3"/>
+        <f>IF(BL21&gt;1,_xlfn.STDEV.S(B21:BK21),"")</f>
+        <v>1.0098330782113454</v>
+      </c>
+      <c r="BO21">
+        <v>1</v>
+      </c>
+      <c r="BQ21" t="e">
+        <f>AVERAGE(AI21:AK21)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -6238,27 +6280,27 @@
       <c r="BB22">
         <v>4.5</v>
       </c>
-      <c r="BK22">
-        <f t="shared" si="0"/>
+      <c r="BL22">
+        <f>COUNT(B22:BK22)</f>
         <v>21</v>
       </c>
-      <c r="BL22" s="18">
-        <f t="shared" si="1"/>
+      <c r="BM22" s="18">
+        <f>AVERAGE(B22:BK22)</f>
         <v>5.1190476190476186</v>
       </c>
-      <c r="BM22">
-        <f t="shared" si="2"/>
+      <c r="BN22">
+        <f>IF(BL22&gt;1,_xlfn.STDEV.S(B22:BK22),"")</f>
         <v>0.75671596231284044</v>
       </c>
-      <c r="BN22">
+      <c r="BO22">
         <v>0</v>
       </c>
-      <c r="BP22" t="e">
-        <f t="shared" si="3"/>
+      <c r="BQ22" t="e">
+        <f>AVERAGE(AI22:AK22)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -6364,27 +6406,27 @@
       <c r="BA23">
         <v>5</v>
       </c>
-      <c r="BK23">
-        <f t="shared" si="0"/>
+      <c r="BL23">
+        <f>COUNT(B23:BK23)</f>
         <v>19</v>
       </c>
-      <c r="BL23" s="18">
-        <f t="shared" si="1"/>
+      <c r="BM23" s="18">
+        <f>AVERAGE(B23:BK23)</f>
         <v>5.8421052631578947</v>
       </c>
-      <c r="BM23">
-        <f t="shared" si="2"/>
+      <c r="BN23">
+        <f>IF(BL23&gt;1,_xlfn.STDEV.S(B23:BK23),"")</f>
         <v>0.95819030206465661</v>
       </c>
-      <c r="BN23">
+      <c r="BO23">
         <v>0</v>
       </c>
-      <c r="BP23">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="BQ23">
+        <f>AVERAGE(AI23:AK23)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -6493,27 +6535,27 @@
       <c r="AV24">
         <v>4.5</v>
       </c>
-      <c r="BK24">
-        <f t="shared" si="0"/>
+      <c r="BL24">
+        <f>COUNT(B24:BK24)</f>
         <v>17</v>
       </c>
-      <c r="BL24" s="18">
-        <f t="shared" si="1"/>
+      <c r="BM24" s="18">
+        <f>AVERAGE(B24:BK24)</f>
         <v>5.4411764705882355</v>
       </c>
-      <c r="BM24">
-        <f t="shared" si="2"/>
+      <c r="BN24">
+        <f>IF(BL24&gt;1,_xlfn.STDEV.S(B24:BK24),"")</f>
         <v>1.0880365478290537</v>
       </c>
-      <c r="BN24">
+      <c r="BO24">
         <v>0</v>
       </c>
-      <c r="BP24">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="BQ24">
+        <f>AVERAGE(AI24:AK24)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -6625,27 +6667,30 @@
       <c r="BI25">
         <v>5</v>
       </c>
-      <c r="BK25">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="BL25" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="BM25">
-        <f t="shared" si="2"/>
-        <v>1.1319231422671772</v>
+      <c r="BJ25">
+        <v>3.5</v>
+      </c>
+      <c r="BL25">
+        <f>COUNT(B25:BK25)</f>
+        <v>18</v>
+      </c>
+      <c r="BM25" s="18">
+        <f>AVERAGE(B25:BK25)</f>
+        <v>4.916666666666667</v>
       </c>
       <c r="BN25">
+        <f>IF(BL25&gt;1,_xlfn.STDEV.S(B25:BK25),"")</f>
+        <v>1.1536387445561875</v>
+      </c>
+      <c r="BO25">
         <v>0</v>
       </c>
-      <c r="BP25">
-        <f t="shared" si="3"/>
+      <c r="BQ25">
+        <f>AVERAGE(AI25:AK25)</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>346</v>
       </c>
@@ -6694,27 +6739,27 @@
       <c r="BG26">
         <v>5</v>
       </c>
-      <c r="BK26">
-        <f t="shared" si="0"/>
+      <c r="BL26">
+        <f>COUNT(B26:BK26)</f>
         <v>15</v>
       </c>
-      <c r="BL26" s="18">
-        <f t="shared" si="1"/>
+      <c r="BM26" s="18">
+        <f>AVERAGE(B26:BK26)</f>
         <v>5.2</v>
       </c>
-      <c r="BM26">
-        <f t="shared" si="2"/>
+      <c r="BN26">
+        <f>IF(BL26&gt;1,_xlfn.STDEV.S(B26:BK26),"")</f>
         <v>0.5277986629117476</v>
       </c>
-      <c r="BN26">
+      <c r="BO26">
         <v>0</v>
       </c>
-      <c r="BP26" t="e">
-        <f t="shared" si="3"/>
+      <c r="BQ26" t="e">
+        <f>AVERAGE(AI26:AK26)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -6805,27 +6850,27 @@
       <c r="AD27">
         <v>6</v>
       </c>
-      <c r="BK27">
-        <f t="shared" si="0"/>
+      <c r="BL27">
+        <f>COUNT(B27:BK27)</f>
         <v>13</v>
       </c>
-      <c r="BL27" s="18">
-        <f t="shared" si="1"/>
+      <c r="BM27" s="18">
+        <f>AVERAGE(B27:BK27)</f>
         <v>4.4615384615384617</v>
       </c>
-      <c r="BM27">
-        <f t="shared" si="2"/>
+      <c r="BN27">
+        <f>IF(BL27&gt;1,_xlfn.STDEV.S(B27:BK27),"")</f>
         <v>1.875961292039569</v>
       </c>
-      <c r="BN27">
+      <c r="BO27">
         <v>0</v>
       </c>
-      <c r="BP27" t="e">
-        <f t="shared" si="3"/>
+      <c r="BQ27" t="e">
+        <f>AVERAGE(AI27:AK27)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -6925,27 +6970,27 @@
       <c r="BB28">
         <v>5</v>
       </c>
-      <c r="BK28">
-        <f t="shared" si="0"/>
+      <c r="BL28">
+        <f>COUNT(B28:BK28)</f>
         <v>13</v>
       </c>
-      <c r="BL28" s="18">
-        <f t="shared" si="1"/>
+      <c r="BM28" s="18">
+        <f>AVERAGE(B28:BK28)</f>
         <v>6.9230769230769234</v>
       </c>
-      <c r="BM28">
-        <f t="shared" si="2"/>
+      <c r="BN28">
+        <f>IF(BL28&gt;1,_xlfn.STDEV.S(B28:BK28),"")</f>
         <v>1.1336914969498575</v>
       </c>
-      <c r="BN28">
+      <c r="BO28">
         <v>0</v>
       </c>
-      <c r="BP28" t="e">
-        <f t="shared" si="3"/>
+      <c r="BQ28" t="e">
+        <f>AVERAGE(AI28:AK28)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -7063,27 +7108,30 @@
       <c r="BA29">
         <v>3</v>
       </c>
-      <c r="BK29">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="BL29" s="18">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="BM29">
-        <f t="shared" si="2"/>
-        <v>1.0801234497346435</v>
+      <c r="BJ29">
+        <v>5.5</v>
+      </c>
+      <c r="BL29">
+        <f>COUNT(B29:BK29)</f>
+        <v>14</v>
+      </c>
+      <c r="BM29" s="18">
+        <f>AVERAGE(B29:BK29)</f>
+        <v>4.5714285714285712</v>
       </c>
       <c r="BN29">
+        <f>IF(BL29&gt;1,_xlfn.STDEV.S(B29:BK29),"")</f>
+        <v>1.0716117059605357</v>
+      </c>
+      <c r="BO29">
         <v>0</v>
       </c>
-      <c r="BP29">
-        <f t="shared" si="3"/>
+      <c r="BQ29">
+        <f>AVERAGE(AI29:AK29)</f>
         <v>4.75</v>
       </c>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -7195,27 +7243,30 @@
       <c r="BI30">
         <v>4.5</v>
       </c>
-      <c r="BK30">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="BL30" s="18">
-        <f t="shared" si="1"/>
-        <v>5.9230769230769234</v>
-      </c>
-      <c r="BM30">
-        <f t="shared" si="2"/>
-        <v>1.0771519903228184</v>
+      <c r="BJ30">
+        <v>5.5</v>
+      </c>
+      <c r="BL30">
+        <f>COUNT(B30:BK30)</f>
+        <v>14</v>
+      </c>
+      <c r="BM30" s="18">
+        <f>AVERAGE(B30:BK30)</f>
+        <v>5.8928571428571432</v>
       </c>
       <c r="BN30">
+        <f>IF(BL30&gt;1,_xlfn.STDEV.S(B30:BK30),"")</f>
+        <v>1.0410529327518412</v>
+      </c>
+      <c r="BO30">
         <v>0</v>
       </c>
-      <c r="BP30" t="e">
-        <f t="shared" si="3"/>
+      <c r="BQ30" t="e">
+        <f>AVERAGE(AI30:AK30)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -7318,27 +7369,27 @@
       <c r="BB31">
         <v>5.5</v>
       </c>
-      <c r="BK31">
-        <f t="shared" si="0"/>
+      <c r="BL31">
+        <f>COUNT(B31:BK31)</f>
         <v>11</v>
       </c>
-      <c r="BL31" s="18">
-        <f t="shared" si="1"/>
+      <c r="BM31" s="18">
+        <f>AVERAGE(B31:BK31)</f>
         <v>6.2727272727272725</v>
       </c>
-      <c r="BM31">
-        <f t="shared" si="2"/>
+      <c r="BN31">
+        <f>IF(BL31&gt;1,_xlfn.STDEV.S(B31:BK31),"")</f>
         <v>0.98396230526469797</v>
       </c>
-      <c r="BN31">
+      <c r="BO31">
         <v>0</v>
       </c>
-      <c r="BP31" t="e">
-        <f t="shared" si="3"/>
+      <c r="BQ31" t="e">
+        <f>AVERAGE(AI31:AK31)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -7438,27 +7489,27 @@
       <c r="BF32">
         <v>4.5</v>
       </c>
-      <c r="BK32">
-        <f t="shared" si="0"/>
+      <c r="BL32">
+        <f>COUNT(B32:BK32)</f>
         <v>10</v>
       </c>
-      <c r="BL32" s="18">
-        <f t="shared" si="1"/>
+      <c r="BM32" s="18">
+        <f>AVERAGE(B32:BK32)</f>
         <v>4.95</v>
       </c>
-      <c r="BM32">
-        <f t="shared" si="2"/>
+      <c r="BN32">
+        <f>IF(BL32&gt;1,_xlfn.STDEV.S(B32:BK32),"")</f>
         <v>0.64334196885395889</v>
       </c>
-      <c r="BN32">
+      <c r="BO32">
         <v>0</v>
       </c>
-      <c r="BP32" t="e">
-        <f t="shared" si="3"/>
+      <c r="BQ32" t="e">
+        <f>AVERAGE(AI32:AK32)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -7549,27 +7600,27 @@
       <c r="AD33" t="s">
         <v>26</v>
       </c>
-      <c r="BK33">
-        <f t="shared" si="0"/>
+      <c r="BL33">
+        <f>COUNT(B33:BK33)</f>
         <v>9</v>
       </c>
-      <c r="BL33" s="18">
-        <f t="shared" si="1"/>
+      <c r="BM33" s="18">
+        <f>AVERAGE(B33:BK33)</f>
         <v>8</v>
       </c>
-      <c r="BM33">
-        <f t="shared" si="2"/>
+      <c r="BN33">
+        <f>IF(BL33&gt;1,_xlfn.STDEV.S(B33:BK33),"")</f>
         <v>0.61237243569579447</v>
       </c>
-      <c r="BN33">
+      <c r="BO33">
         <v>0</v>
       </c>
-      <c r="BP33" t="e">
-        <f t="shared" si="3"/>
+      <c r="BQ33" t="e">
+        <f>AVERAGE(AI33:AK33)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>340</v>
       </c>
@@ -7594,27 +7645,27 @@
       <c r="AS34">
         <v>5</v>
       </c>
-      <c r="BK34">
-        <f t="shared" ref="BK34:BK65" si="4">COUNT(B34:BJ34)</f>
+      <c r="BL34">
+        <f>COUNT(B34:BK34)</f>
         <v>7</v>
       </c>
-      <c r="BL34" s="18">
-        <f t="shared" ref="BL34:BL65" si="5">AVERAGE(B34:BJ34)</f>
+      <c r="BM34" s="18">
+        <f>AVERAGE(B34:BK34)</f>
         <v>5.0714285714285712</v>
       </c>
-      <c r="BM34">
-        <f t="shared" ref="BM34:BM65" si="6">IF(BK34&gt;1,_xlfn.STDEV.S(B34:BJ34),"")</f>
+      <c r="BN34">
+        <f>IF(BL34&gt;1,_xlfn.STDEV.S(B34:BK34),"")</f>
         <v>0.34503277967117707</v>
       </c>
-      <c r="BN34">
+      <c r="BO34">
         <v>0</v>
       </c>
-      <c r="BP34">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="BQ34">
+        <f>AVERAGE(AI34:AK34)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -7714,27 +7765,30 @@
       <c r="BI35">
         <v>4.5</v>
       </c>
-      <c r="BK35">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="BL35" s="18">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
-      <c r="BM35">
-        <f t="shared" si="6"/>
-        <v>0.63245553203367588</v>
+      <c r="BJ35">
+        <v>5.5</v>
+      </c>
+      <c r="BL35">
+        <f>COUNT(B35:BK35)</f>
+        <v>7</v>
+      </c>
+      <c r="BM35" s="18">
+        <f>AVERAGE(B35:BK35)</f>
+        <v>4.6428571428571432</v>
       </c>
       <c r="BN35">
+        <f>IF(BL35&gt;1,_xlfn.STDEV.S(B35:BK35),"")</f>
+        <v>0.6900655593423547</v>
+      </c>
+      <c r="BO35">
         <v>0</v>
       </c>
-      <c r="BP35">
-        <f t="shared" si="3"/>
+      <c r="BQ35">
+        <f>AVERAGE(AI35:AK35)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>343</v>
       </c>
@@ -7837,27 +7891,27 @@
       <c r="BI36">
         <v>4.5</v>
       </c>
-      <c r="BK36">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="BL36" s="18">
-        <f t="shared" si="5"/>
+      <c r="BL36">
+        <f>COUNT(B36:BK36)</f>
+        <v>6</v>
+      </c>
+      <c r="BM36" s="18">
+        <f>AVERAGE(B36:BK36)</f>
         <v>3.9166666666666665</v>
       </c>
-      <c r="BM36">
-        <f t="shared" si="6"/>
+      <c r="BN36">
+        <f>IF(BL36&gt;1,_xlfn.STDEV.S(B36:BK36),"")</f>
         <v>1.1143009766964516</v>
       </c>
-      <c r="BN36">
+      <c r="BO36">
         <v>0</v>
       </c>
-      <c r="BP36" t="e">
-        <f t="shared" si="3"/>
+      <c r="BQ36" t="e">
+        <f>AVERAGE(AI36:AK36)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -7948,27 +8002,27 @@
       <c r="AD37" t="s">
         <v>26</v>
       </c>
-      <c r="BK37">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="BL37" s="18">
-        <f t="shared" si="5"/>
+      <c r="BL37">
+        <f>COUNT(B37:BK37)</f>
+        <v>4</v>
+      </c>
+      <c r="BM37" s="18">
+        <f>AVERAGE(B37:BK37)</f>
         <v>7.625</v>
       </c>
-      <c r="BM37">
-        <f t="shared" si="6"/>
+      <c r="BN37">
+        <f>IF(BL37&gt;1,_xlfn.STDEV.S(B37:BK37),"")</f>
         <v>0.62915286960589578</v>
       </c>
-      <c r="BN37">
+      <c r="BO37">
         <v>0</v>
       </c>
-      <c r="BP37" t="e">
-        <f t="shared" si="3"/>
+      <c r="BQ37" t="e">
+        <f>AVERAGE(AI37:AK37)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -8059,27 +8113,27 @@
       <c r="AD38" t="s">
         <v>26</v>
       </c>
-      <c r="BK38">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="BL38" s="18">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="BM38">
-        <f t="shared" si="6"/>
+      <c r="BL38">
+        <f>COUNT(B38:BK38)</f>
+        <v>4</v>
+      </c>
+      <c r="BM38" s="18">
+        <f>AVERAGE(B38:BK38)</f>
+        <v>6</v>
+      </c>
+      <c r="BN38">
+        <f>IF(BL38&gt;1,_xlfn.STDEV.S(B38:BK38),"")</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="BN38">
+      <c r="BO38">
         <v>0</v>
       </c>
-      <c r="BP38" t="e">
-        <f t="shared" si="3"/>
+      <c r="BQ38" t="e">
+        <f>AVERAGE(AI38:AK38)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -8173,27 +8227,27 @@
       <c r="AO39">
         <v>5.5</v>
       </c>
-      <c r="BK39">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="BL39" s="18">
-        <f t="shared" si="5"/>
+      <c r="BL39">
+        <f>COUNT(B39:BK39)</f>
+        <v>4</v>
+      </c>
+      <c r="BM39" s="18">
+        <f>AVERAGE(B39:BK39)</f>
         <v>6.5</v>
       </c>
-      <c r="BM39">
-        <f t="shared" si="6"/>
+      <c r="BN39">
+        <f>IF(BL39&gt;1,_xlfn.STDEV.S(B39:BK39),"")</f>
         <v>0.9128709291752769</v>
       </c>
-      <c r="BN39">
+      <c r="BO39">
         <v>0</v>
       </c>
-      <c r="BP39" t="e">
-        <f t="shared" si="3"/>
+      <c r="BQ39" t="e">
+        <f>AVERAGE(AI39:AK39)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -8290,27 +8344,27 @@
       <c r="AU40">
         <v>4</v>
       </c>
-      <c r="BK40">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="BL40" s="18">
-        <f t="shared" si="5"/>
+      <c r="BL40">
+        <f>COUNT(B40:BK40)</f>
+        <v>4</v>
+      </c>
+      <c r="BM40" s="18">
+        <f>AVERAGE(B40:BK40)</f>
         <v>2.375</v>
       </c>
-      <c r="BM40">
-        <f t="shared" si="6"/>
+      <c r="BN40">
+        <f>IF(BL40&gt;1,_xlfn.STDEV.S(B40:BK40),"")</f>
         <v>1.3768926368215255</v>
       </c>
-      <c r="BN40">
+      <c r="BO40">
         <v>0</v>
       </c>
-      <c r="BP40" t="e">
-        <f t="shared" ref="BP40:BP70" si="7">AVERAGE(AI40:AK40)</f>
+      <c r="BQ40" t="e">
+        <f>AVERAGE(AI40:AK40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>344</v>
       </c>
@@ -8326,27 +8380,27 @@
       <c r="AY41">
         <v>5.5</v>
       </c>
-      <c r="BK41">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="BL41" s="18">
-        <f t="shared" si="5"/>
+      <c r="BL41">
+        <f>COUNT(B41:BK41)</f>
+        <v>4</v>
+      </c>
+      <c r="BM41" s="18">
+        <f>AVERAGE(B41:BK41)</f>
         <v>4.25</v>
       </c>
-      <c r="BM41">
-        <f t="shared" si="6"/>
+      <c r="BN41">
+        <f>IF(BL41&gt;1,_xlfn.STDEV.S(B41:BK41),"")</f>
         <v>0.9574271077563381</v>
       </c>
-      <c r="BN41">
+      <c r="BO41">
         <v>0</v>
       </c>
-      <c r="BP41">
-        <f t="shared" si="7"/>
+      <c r="BQ41">
+        <f>AVERAGE(AI41:AK41)</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -8437,27 +8491,27 @@
       <c r="AD42" t="s">
         <v>26</v>
       </c>
-      <c r="BK42">
-        <f t="shared" si="4"/>
+      <c r="BL42">
+        <f>COUNT(B42:BK42)</f>
         <v>3</v>
       </c>
-      <c r="BL42" s="18">
-        <f t="shared" si="5"/>
+      <c r="BM42" s="18">
+        <f>AVERAGE(B42:BK42)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="BM42">
-        <f t="shared" si="6"/>
+      <c r="BN42">
+        <f>IF(BL42&gt;1,_xlfn.STDEV.S(B42:BK42),"")</f>
         <v>1.1547005383792526</v>
       </c>
-      <c r="BN42">
+      <c r="BO42">
         <v>0</v>
       </c>
-      <c r="BP42" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ42" t="e">
+        <f>AVERAGE(AI42:AK42)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -8548,27 +8602,27 @@
       <c r="AD43" t="s">
         <v>26</v>
       </c>
-      <c r="BK43">
-        <f t="shared" si="4"/>
+      <c r="BL43">
+        <f>COUNT(B43:BK43)</f>
         <v>3</v>
       </c>
-      <c r="BL43" s="18">
-        <f t="shared" si="5"/>
+      <c r="BM43" s="18">
+        <f>AVERAGE(B43:BK43)</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="BM43">
-        <f t="shared" si="6"/>
+      <c r="BN43">
+        <f>IF(BL43&gt;1,_xlfn.STDEV.S(B43:BK43),"")</f>
         <v>0.28867513459481287</v>
       </c>
-      <c r="BN43">
+      <c r="BO43">
         <v>0</v>
       </c>
-      <c r="BP43" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ43" t="e">
+        <f>AVERAGE(AI43:AK43)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -8665,27 +8719,27 @@
       <c r="AF44">
         <v>9</v>
       </c>
-      <c r="BK44">
-        <f t="shared" si="4"/>
+      <c r="BL44">
+        <f>COUNT(B44:BK44)</f>
         <v>3</v>
       </c>
-      <c r="BL44" s="18">
-        <f t="shared" si="5"/>
+      <c r="BM44" s="18">
+        <f>AVERAGE(B44:BK44)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="BM44">
-        <f t="shared" si="6"/>
+      <c r="BN44">
+        <f>IF(BL44&gt;1,_xlfn.STDEV.S(B44:BK44),"")</f>
         <v>1.1547005383792495</v>
       </c>
-      <c r="BN44">
+      <c r="BO44">
         <v>0</v>
       </c>
-      <c r="BP44" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ44" t="e">
+        <f>AVERAGE(AI44:AK44)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -8779,27 +8833,27 @@
       <c r="AG45">
         <v>2.5</v>
       </c>
-      <c r="BK45">
-        <f t="shared" si="4"/>
+      <c r="BL45">
+        <f>COUNT(B45:BK45)</f>
         <v>3</v>
       </c>
-      <c r="BL45" s="18">
-        <f t="shared" si="5"/>
+      <c r="BM45" s="18">
+        <f>AVERAGE(B45:BK45)</f>
         <v>4.5</v>
       </c>
-      <c r="BM45">
-        <f t="shared" si="6"/>
+      <c r="BN45">
+        <f>IF(BL45&gt;1,_xlfn.STDEV.S(B45:BK45),"")</f>
         <v>1.7320508075688772</v>
       </c>
-      <c r="BN45">
+      <c r="BO45">
         <v>0</v>
       </c>
-      <c r="BP45" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ45" t="e">
+        <f>AVERAGE(AI45:AK45)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -8893,27 +8947,27 @@
       <c r="AS46">
         <v>5</v>
       </c>
-      <c r="BK46">
-        <f t="shared" si="4"/>
+      <c r="BL46">
+        <f>COUNT(B46:BK46)</f>
         <v>3</v>
       </c>
-      <c r="BL46" s="18">
-        <f t="shared" si="5"/>
+      <c r="BM46" s="18">
+        <f>AVERAGE(B46:BK46)</f>
         <v>6.5</v>
       </c>
-      <c r="BM46">
-        <f t="shared" si="6"/>
+      <c r="BN46">
+        <f>IF(BL46&gt;1,_xlfn.STDEV.S(B46:BK46),"")</f>
         <v>1.3228756555322954</v>
       </c>
-      <c r="BN46">
+      <c r="BO46">
         <v>0</v>
       </c>
-      <c r="BP46" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ46" t="e">
+        <f>AVERAGE(AI46:AK46)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -9004,27 +9058,30 @@
       <c r="AD47" t="s">
         <v>26</v>
       </c>
-      <c r="BK47">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="BL47" s="18">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="BM47">
-        <f t="shared" si="6"/>
-        <v>0.70710678118654757</v>
+      <c r="BJ47">
+        <v>5</v>
+      </c>
+      <c r="BL47">
+        <f>COUNT(B47:BK47)</f>
+        <v>3</v>
+      </c>
+      <c r="BM47" s="18">
+        <f>AVERAGE(B47:BK47)</f>
+        <v>3</v>
       </c>
       <c r="BN47">
+        <f>IF(BL47&gt;1,_xlfn.STDEV.S(B47:BK47),"")</f>
+        <v>1.8027756377319946</v>
+      </c>
+      <c r="BO47">
         <v>0</v>
       </c>
-      <c r="BP47" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ47" t="e">
+        <f>AVERAGE(AI47:AK47)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -9118,27 +9175,27 @@
       <c r="AG48">
         <v>5</v>
       </c>
-      <c r="BK48">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="BL48" s="18">
-        <f t="shared" si="5"/>
+      <c r="BL48">
+        <f>COUNT(B48:BK48)</f>
+        <v>2</v>
+      </c>
+      <c r="BM48" s="18">
+        <f>AVERAGE(B48:BK48)</f>
         <v>5.25</v>
       </c>
-      <c r="BM48">
-        <f t="shared" si="6"/>
+      <c r="BN48">
+        <f>IF(BL48&gt;1,_xlfn.STDEV.S(B48:BK48),"")</f>
         <v>0.35355339059327379</v>
       </c>
-      <c r="BN48">
+      <c r="BO48">
         <v>0</v>
       </c>
-      <c r="BP48" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ48" t="e">
+        <f>AVERAGE(AI48:AK48)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>339</v>
       </c>
@@ -9148,27 +9205,27 @@
       <c r="AW49">
         <v>4.5</v>
       </c>
-      <c r="BK49">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="BL49" s="18">
-        <f t="shared" si="5"/>
+      <c r="BL49">
+        <f>COUNT(B49:BK49)</f>
+        <v>2</v>
+      </c>
+      <c r="BM49" s="18">
+        <f>AVERAGE(B49:BK49)</f>
         <v>5.75</v>
       </c>
-      <c r="BM49">
-        <f t="shared" si="6"/>
+      <c r="BN49">
+        <f>IF(BL49&gt;1,_xlfn.STDEV.S(B49:BK49),"")</f>
         <v>1.7677669529663689</v>
       </c>
-      <c r="BN49">
+      <c r="BO49">
         <v>0</v>
       </c>
-      <c r="BP49">
-        <f t="shared" si="7"/>
+      <c r="BQ49">
+        <f>AVERAGE(AI49:AK49)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>342</v>
       </c>
@@ -9178,29 +9235,29 @@
       <c r="BA50">
         <v>4</v>
       </c>
-      <c r="BK50">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="BL50" s="18">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="BM50">
-        <f t="shared" si="6"/>
+      <c r="BL50">
+        <f>COUNT(B50:BK50)</f>
+        <v>2</v>
+      </c>
+      <c r="BM50" s="18">
+        <f>AVERAGE(B50:BK50)</f>
+        <v>5</v>
+      </c>
+      <c r="BN50">
+        <f>IF(BL50&gt;1,_xlfn.STDEV.S(B50:BK50),"")</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="BN50">
+      <c r="BO50">
         <v>0</v>
       </c>
-      <c r="BP50" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ50" t="e">
+        <f>AVERAGE(AI50:AK50)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AW51">
         <v>5</v>
@@ -9208,29 +9265,29 @@
       <c r="BF51">
         <v>5</v>
       </c>
-      <c r="BK51">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="BL51" s="18">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="BM51">
-        <f t="shared" si="6"/>
+      <c r="BL51">
+        <f>COUNT(B51:BK51)</f>
+        <v>2</v>
+      </c>
+      <c r="BM51" s="18">
+        <f>AVERAGE(B51:BK51)</f>
+        <v>5</v>
+      </c>
+      <c r="BN51">
+        <f>IF(BL51&gt;1,_xlfn.STDEV.S(B51:BK51),"")</f>
         <v>0</v>
       </c>
-      <c r="BN51">
+      <c r="BO51">
         <v>0</v>
       </c>
-      <c r="BP51" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ51" t="e">
+        <f>AVERAGE(AI51:AK51)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="BG52">
         <v>5.5</v>
@@ -9238,27 +9295,27 @@
       <c r="BH52">
         <v>4.5</v>
       </c>
-      <c r="BK52">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="BL52" s="18">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="BM52">
-        <f t="shared" si="6"/>
+      <c r="BL52">
+        <f>COUNT(B52:BK52)</f>
+        <v>2</v>
+      </c>
+      <c r="BM52" s="18">
+        <f>AVERAGE(B52:BK52)</f>
+        <v>5</v>
+      </c>
+      <c r="BN52">
+        <f>IF(BL52&gt;1,_xlfn.STDEV.S(B52:BK52),"")</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="BN52">
+      <c r="BO52">
         <v>0</v>
       </c>
-      <c r="BP52" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ52" t="e">
+        <f>AVERAGE(AI52:AK52)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -9349,27 +9406,27 @@
       <c r="AD53">
         <v>9</v>
       </c>
-      <c r="BK53">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BL53" s="18">
-        <f t="shared" si="5"/>
+      <c r="BL53">
+        <f>COUNT(B53:BK53)</f>
+        <v>1</v>
+      </c>
+      <c r="BM53" s="18">
+        <f>AVERAGE(B53:BK53)</f>
         <v>9</v>
       </c>
-      <c r="BM53" t="str">
-        <f t="shared" si="6"/>
+      <c r="BN53" t="str">
+        <f>IF(BL53&gt;1,_xlfn.STDEV.S(B53:BK53),"")</f>
         <v/>
       </c>
-      <c r="BN53">
+      <c r="BO53">
         <v>0</v>
       </c>
-      <c r="BP53" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ53" t="e">
+        <f>AVERAGE(AI53:AK53)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -9460,29 +9517,29 @@
       <c r="AD54" t="s">
         <v>26</v>
       </c>
-      <c r="BK54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BL54" s="18">
-        <f t="shared" si="5"/>
+      <c r="BL54">
+        <f>COUNT(B54:BK54)</f>
+        <v>1</v>
+      </c>
+      <c r="BM54" s="18">
+        <f>AVERAGE(B54:BK54)</f>
         <v>7</v>
       </c>
-      <c r="BM54" t="str">
-        <f t="shared" si="6"/>
+      <c r="BN54" t="str">
+        <f>IF(BL54&gt;1,_xlfn.STDEV.S(B54:BK54),"")</f>
         <v/>
       </c>
-      <c r="BN54">
+      <c r="BO54">
         <v>0</v>
       </c>
-      <c r="BP54" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ54" t="e">
+        <f>AVERAGE(AI54:AK54)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -9568,27 +9625,27 @@
       <c r="AD55" t="s">
         <v>26</v>
       </c>
-      <c r="BK55">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BL55" s="18">
-        <f t="shared" si="5"/>
+      <c r="BL55">
+        <f>COUNT(B55:BK55)</f>
+        <v>1</v>
+      </c>
+      <c r="BM55" s="18">
+        <f>AVERAGE(B55:BK55)</f>
         <v>7</v>
       </c>
-      <c r="BM55" t="str">
-        <f t="shared" si="6"/>
+      <c r="BN55" t="str">
+        <f>IF(BL55&gt;1,_xlfn.STDEV.S(B55:BK55),"")</f>
         <v/>
       </c>
-      <c r="BN55">
+      <c r="BO55">
         <v>0</v>
       </c>
-      <c r="BP55" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ55" t="e">
+        <f>AVERAGE(AI55:AK55)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -9679,27 +9736,27 @@
       <c r="AD56" t="s">
         <v>26</v>
       </c>
-      <c r="BK56">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BL56" s="18">
-        <f t="shared" si="5"/>
+      <c r="BL56">
+        <f>COUNT(B56:BK56)</f>
+        <v>1</v>
+      </c>
+      <c r="BM56" s="18">
+        <f>AVERAGE(B56:BK56)</f>
         <v>7</v>
       </c>
-      <c r="BM56" t="str">
-        <f t="shared" si="6"/>
+      <c r="BN56" t="str">
+        <f>IF(BL56&gt;1,_xlfn.STDEV.S(B56:BK56),"")</f>
         <v/>
       </c>
-      <c r="BN56">
+      <c r="BO56">
         <v>0</v>
       </c>
-      <c r="BP56" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ56" t="e">
+        <f>AVERAGE(AI56:AK56)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -9790,27 +9847,27 @@
       <c r="AD57" t="s">
         <v>26</v>
       </c>
-      <c r="BK57">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BL57" s="18">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="BM57" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL57">
+        <f>COUNT(B57:BK57)</f>
+        <v>1</v>
+      </c>
+      <c r="BM57" s="18">
+        <f>AVERAGE(B57:BK57)</f>
+        <v>6</v>
+      </c>
+      <c r="BN57" t="str">
+        <f>IF(BL57&gt;1,_xlfn.STDEV.S(B57:BK57),"")</f>
         <v/>
       </c>
-      <c r="BN57">
+      <c r="BO57">
         <v>0</v>
       </c>
-      <c r="BP57" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ57" t="e">
+        <f>AVERAGE(AI57:AK57)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -9901,27 +9958,27 @@
       <c r="AD58" t="s">
         <v>26</v>
       </c>
-      <c r="BK58">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BL58" s="18">
-        <f t="shared" si="5"/>
+      <c r="BL58">
+        <f>COUNT(B58:BK58)</f>
+        <v>1</v>
+      </c>
+      <c r="BM58" s="18">
+        <f>AVERAGE(B58:BK58)</f>
         <v>4.5</v>
       </c>
-      <c r="BM58" t="str">
-        <f t="shared" si="6"/>
+      <c r="BN58" t="str">
+        <f>IF(BL58&gt;1,_xlfn.STDEV.S(B58:BK58),"")</f>
         <v/>
       </c>
-      <c r="BN58">
+      <c r="BO58">
         <v>0</v>
       </c>
-      <c r="BP58" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ58" t="e">
+        <f>AVERAGE(AI58:AK58)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -10012,27 +10069,27 @@
       <c r="AD59" t="s">
         <v>26</v>
       </c>
-      <c r="BK59">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BL59" s="18">
-        <f t="shared" si="5"/>
+      <c r="BL59">
+        <f>COUNT(B59:BK59)</f>
+        <v>1</v>
+      </c>
+      <c r="BM59" s="18">
+        <f>AVERAGE(B59:BK59)</f>
         <v>4.5</v>
       </c>
-      <c r="BM59" t="str">
-        <f t="shared" si="6"/>
+      <c r="BN59" t="str">
+        <f>IF(BL59&gt;1,_xlfn.STDEV.S(B59:BK59),"")</f>
         <v/>
       </c>
-      <c r="BN59">
+      <c r="BO59">
         <v>0</v>
       </c>
-      <c r="BP59" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ59" t="e">
+        <f>AVERAGE(AI59:AK59)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -10123,330 +10180,333 @@
       <c r="AD60" t="s">
         <v>26</v>
       </c>
-      <c r="BK60">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BL60" s="18">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="BM60" t="str">
-        <f t="shared" si="6"/>
+      <c r="BL60">
+        <f>COUNT(B60:BK60)</f>
+        <v>1</v>
+      </c>
+      <c r="BM60" s="18">
+        <f>AVERAGE(B60:BK60)</f>
+        <v>4</v>
+      </c>
+      <c r="BN60" t="str">
+        <f>IF(BL60&gt;1,_xlfn.STDEV.S(B60:BK60),"")</f>
         <v/>
       </c>
-      <c r="BN60">
+      <c r="BO60">
         <v>0</v>
       </c>
-      <c r="BP60" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ60" t="e">
+        <f>AVERAGE(AI60:AK60)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>345</v>
       </c>
       <c r="AN61">
         <v>3</v>
       </c>
-      <c r="BK61">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BL61" s="18">
-        <f t="shared" si="5"/>
+      <c r="BL61">
+        <f>COUNT(B61:BK61)</f>
+        <v>1</v>
+      </c>
+      <c r="BM61" s="18">
+        <f>AVERAGE(B61:BK61)</f>
         <v>3</v>
       </c>
-      <c r="BM61" t="str">
-        <f t="shared" si="6"/>
+      <c r="BN61" t="str">
+        <f>IF(BL61&gt;1,_xlfn.STDEV.S(B61:BK61),"")</f>
         <v/>
       </c>
-      <c r="BN61">
+      <c r="BO61">
         <v>0</v>
       </c>
-      <c r="BP61" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ61" t="e">
+        <f>AVERAGE(AI61:AK61)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AP62">
         <v>5.5</v>
       </c>
-      <c r="BK62">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BL62" s="18">
-        <f t="shared" si="5"/>
+      <c r="BL62">
+        <f>COUNT(B62:BK62)</f>
+        <v>1</v>
+      </c>
+      <c r="BM62" s="18">
+        <f>AVERAGE(B62:BK62)</f>
         <v>5.5</v>
       </c>
-      <c r="BM62" t="str">
-        <f t="shared" si="6"/>
+      <c r="BN62" t="str">
+        <f>IF(BL62&gt;1,_xlfn.STDEV.S(B62:BK62),"")</f>
         <v/>
       </c>
-      <c r="BN62">
+      <c r="BO62">
         <v>0</v>
       </c>
-      <c r="BP62" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ62" t="e">
+        <f>AVERAGE(AI62:AK62)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>350</v>
+      </c>
+      <c r="AR63">
+        <v>4</v>
+      </c>
+      <c r="BL63">
+        <f>COUNT(B63:BK63)</f>
+        <v>1</v>
+      </c>
+      <c r="BM63" s="18">
+        <f>AVERAGE(B63:BK63)</f>
+        <v>4</v>
+      </c>
+      <c r="BN63" t="str">
+        <f>IF(BL63&gt;1,_xlfn.STDEV.S(B63:BK63),"")</f>
+        <v/>
+      </c>
+      <c r="BO63">
+        <v>0</v>
+      </c>
+      <c r="BQ63" t="e">
+        <f>AVERAGE(AI63:AK63)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>351</v>
-      </c>
-      <c r="AR63">
-        <v>4</v>
-      </c>
-      <c r="BK63">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BL63" s="18">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="BM63" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="BN63">
-        <v>0</v>
-      </c>
-      <c r="BP63" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>352</v>
       </c>
       <c r="AS64">
         <v>5.5</v>
       </c>
-      <c r="BK64">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BL64" s="18">
-        <f t="shared" si="5"/>
+      <c r="BL64">
+        <f>COUNT(B64:BK64)</f>
+        <v>1</v>
+      </c>
+      <c r="BM64" s="18">
+        <f>AVERAGE(B64:BK64)</f>
         <v>5.5</v>
       </c>
-      <c r="BM64" t="str">
-        <f t="shared" si="6"/>
+      <c r="BN64" t="str">
+        <f>IF(BL64&gt;1,_xlfn.STDEV.S(B64:BK64),"")</f>
         <v/>
       </c>
-      <c r="BN64">
+      <c r="BO64">
         <v>0</v>
       </c>
-      <c r="BP64" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ64" t="e">
+        <f>AVERAGE(AI64:AK64)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AS65">
         <v>4.5</v>
       </c>
-      <c r="BK65">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BL65" s="18">
-        <f t="shared" si="5"/>
+      <c r="BL65">
+        <f>COUNT(B65:BK65)</f>
+        <v>1</v>
+      </c>
+      <c r="BM65" s="18">
+        <f>AVERAGE(B65:BK65)</f>
         <v>4.5</v>
       </c>
-      <c r="BM65" t="str">
-        <f t="shared" si="6"/>
+      <c r="BN65" t="str">
+        <f>IF(BL65&gt;1,_xlfn.STDEV.S(B65:BK65),"")</f>
         <v/>
       </c>
-      <c r="BN65">
+      <c r="BO65">
         <v>0</v>
       </c>
-      <c r="BP65" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ65" t="e">
+        <f>AVERAGE(AI65:AK65)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AU66">
         <v>5</v>
       </c>
-      <c r="BK66">
-        <f t="shared" ref="BK66:BK71" si="8">COUNT(B66:BJ66)</f>
-        <v>1</v>
-      </c>
-      <c r="BL66" s="18">
-        <f t="shared" ref="BL66:BL71" si="9">AVERAGE(B66:BJ66)</f>
-        <v>5</v>
-      </c>
-      <c r="BM66" t="str">
-        <f t="shared" ref="BM66:BM71" si="10">IF(BK66&gt;1,_xlfn.STDEV.S(B66:BJ66),"")</f>
+      <c r="BL66">
+        <f>COUNT(B66:BK66)</f>
+        <v>1</v>
+      </c>
+      <c r="BM66" s="18">
+        <f>AVERAGE(B66:BK66)</f>
+        <v>5</v>
+      </c>
+      <c r="BN66" t="str">
+        <f>IF(BL66&gt;1,_xlfn.STDEV.S(B66:BK66),"")</f>
         <v/>
       </c>
-      <c r="BN66">
+      <c r="BO66">
         <v>0</v>
       </c>
-      <c r="BP66" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ66" t="e">
+        <f>AVERAGE(AI66:AK66)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AW67">
         <v>4.5</v>
       </c>
-      <c r="BK67">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="BL67" s="18">
-        <f t="shared" si="9"/>
+      <c r="BL67">
+        <f>COUNT(B67:BK67)</f>
+        <v>1</v>
+      </c>
+      <c r="BM67" s="18">
+        <f>AVERAGE(B67:BK67)</f>
         <v>4.5</v>
       </c>
-      <c r="BM67" t="str">
-        <f t="shared" si="10"/>
+      <c r="BN67" t="str">
+        <f>IF(BL67&gt;1,_xlfn.STDEV.S(B67:BK67),"")</f>
         <v/>
       </c>
-      <c r="BN67">
+      <c r="BO67">
         <v>0</v>
       </c>
-      <c r="BP67" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ67" t="e">
+        <f>AVERAGE(AI67:AK67)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BA68">
         <v>5.5</v>
       </c>
-      <c r="BK68">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="BL68" s="18">
-        <f t="shared" si="9"/>
+      <c r="BJ68">
         <v>5.5</v>
       </c>
-      <c r="BM68" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="BL68">
+        <f>COUNT(B68:BK68)</f>
+        <v>2</v>
+      </c>
+      <c r="BM68" s="18">
+        <f>AVERAGE(B68:BK68)</f>
+        <v>5.5</v>
       </c>
       <c r="BN68">
+        <f>IF(BL68&gt;1,_xlfn.STDEV.S(B68:BK68),"")</f>
         <v>0</v>
       </c>
-      <c r="BP68" t="e">
-        <f t="shared" si="7"/>
+      <c r="BO68">
+        <v>0</v>
+      </c>
+      <c r="BQ68" t="e">
+        <f>AVERAGE(AI68:AK68)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AZ69">
         <v>2.5</v>
       </c>
-      <c r="BK69">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="BL69" s="18">
-        <f t="shared" si="9"/>
+      <c r="BL69">
+        <f>COUNT(B69:BK69)</f>
+        <v>1</v>
+      </c>
+      <c r="BM69" s="18">
+        <f>AVERAGE(B69:BK69)</f>
         <v>2.5</v>
       </c>
-      <c r="BM69" t="str">
-        <f t="shared" si="10"/>
+      <c r="BN69" t="str">
+        <f>IF(BL69&gt;1,_xlfn.STDEV.S(B69:BK69),"")</f>
         <v/>
       </c>
-      <c r="BN69">
+      <c r="BO69">
         <v>0</v>
       </c>
-      <c r="BP69" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ69" t="e">
+        <f>AVERAGE(AI69:AK69)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="BB70">
         <v>3</v>
       </c>
-      <c r="BK70">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="BL70" s="18">
-        <f t="shared" si="9"/>
+      <c r="BL70">
+        <f>COUNT(B70:BK70)</f>
+        <v>1</v>
+      </c>
+      <c r="BM70" s="18">
+        <f>AVERAGE(B70:BK70)</f>
         <v>3</v>
       </c>
-      <c r="BM70" t="str">
-        <f t="shared" si="10"/>
+      <c r="BN70" t="str">
+        <f>IF(BL70&gt;1,_xlfn.STDEV.S(B70:BK70),"")</f>
         <v/>
       </c>
-      <c r="BN70">
+      <c r="BO70">
         <v>0</v>
       </c>
-      <c r="BP70" t="e">
-        <f t="shared" si="7"/>
+      <c r="BQ70" t="e">
+        <f>AVERAGE(AI70:AK70)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BF71">
         <v>7.5</v>
       </c>
-      <c r="BK71">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="BL71" s="18">
-        <f t="shared" si="9"/>
+      <c r="BL71">
+        <f>COUNT(B71:BK71)</f>
+        <v>1</v>
+      </c>
+      <c r="BM71" s="18">
+        <f>AVERAGE(B71:BK71)</f>
         <v>7.5</v>
       </c>
-      <c r="BM71" t="str">
-        <f t="shared" si="10"/>
+      <c r="BN71" t="str">
+        <f>IF(BL71&gt;1,_xlfn.STDEV.S(B71:BK71),"")</f>
         <v/>
       </c>
-      <c r="BN71">
+      <c r="BO71">
         <v>0</v>
       </c>
-      <c r="BP71" t="e">
-        <f t="shared" ref="BP71" si="11">AVERAGE(AI71:AK71)</f>
+      <c r="BQ71" t="e">
+        <f t="shared" ref="BQ71" si="0">AVERAGE(AI71:AK71)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BN71" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
-    <sortState ref="A2:BN71">
-      <sortCondition descending="1" ref="BK1:BK71"/>
+  <autoFilter ref="A1:BO71" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
+    <sortState ref="A2:BO71">
+      <sortCondition descending="1" ref="BL1:BL71"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="BK2:BK68 BK70:BK71">
+  <conditionalFormatting sqref="BL2:BL68 BL70:BL71">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -10458,7 +10518,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM2:BM68 BM70:BM71">
+  <conditionalFormatting sqref="BN2:BN68 BN70:BN71">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -10470,7 +10530,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK2:BK68 BK71">
+  <conditionalFormatting sqref="BL2:BL68 BL71">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -10482,7 +10542,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL2:BL68 BL70:BL71">
+  <conditionalFormatting sqref="BM2:BM68 BM70:BM71">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -10494,7 +10554,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL2:BL68 BL71">
+  <conditionalFormatting sqref="BM2:BM68 BM71">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -10566,7 +10626,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK2:BK68">
+  <conditionalFormatting sqref="BL2:BL68">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -10578,7 +10638,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL2:BL68">
+  <conditionalFormatting sqref="BM2:BM68">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -10602,7 +10662,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP2:BP71">
+  <conditionalFormatting sqref="BQ2:BQ71">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -10626,7 +10686,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK69">
+  <conditionalFormatting sqref="BL69">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -10638,7 +10698,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM69">
+  <conditionalFormatting sqref="BN69">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -10650,7 +10710,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK69">
+  <conditionalFormatting sqref="BL69">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10662,7 +10722,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL69">
+  <conditionalFormatting sqref="BM69">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10674,7 +10734,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL69">
+  <conditionalFormatting sqref="BM69">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10686,7 +10746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK69">
+  <conditionalFormatting sqref="BL69">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10698,7 +10758,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL69">
+  <conditionalFormatting sqref="BM69">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -10710,8 +10770,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC39:BI67 AA2:BI38">
-    <cfRule type="colorScale" priority="72">
+  <conditionalFormatting sqref="BC39:BJ67 AA2:BJ38">
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10722,8 +10782,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC48:BI67 AA2:BI47">
-    <cfRule type="colorScale" priority="75">
+  <conditionalFormatting sqref="BC48:BJ67 AA2:BJ47">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10734,8 +10794,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC43:BI67 AA2:BI42">
-    <cfRule type="colorScale" priority="78">
+  <conditionalFormatting sqref="BC43:BJ67 AA2:BJ42">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11817,9 +11877,9 @@
   <dimension ref="A1:S76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A31" sqref="A31"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
+      <selection pane="topRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11864,13 +11924,13 @@
         <v>341</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N1" s="22" t="s">
         <v>69</v>
@@ -11879,7 +11939,7 @@
         <v>70</v>
       </c>
       <c r="S1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -11930,8 +11990,8 @@
       <c r="O2" s="19">
         <v>84.34</v>
       </c>
-      <c r="S2" s="1">
-        <v>45755</v>
+      <c r="S2" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -11976,7 +12036,7 @@
       <c r="N3" s="19">
         <v>54</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="19">
         <v>84.34</v>
       </c>
     </row>
@@ -12063,7 +12123,7 @@
         <v>27</v>
       </c>
       <c r="R5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S5">
         <v>16</v>
@@ -12116,7 +12176,7 @@
         <v>84.34</v>
       </c>
       <c r="R6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="S6">
         <f>27*S5</f>
@@ -12170,7 +12230,7 @@
         <v>84.34</v>
       </c>
       <c r="R7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S7">
         <f>1950-S6</f>
@@ -12199,7 +12259,7 @@
       </c>
       <c r="I8" s="19"/>
       <c r="R8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S8">
         <f>S7/18</f>
@@ -13351,7 +13411,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -13582,7 +13642,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -13594,7 +13654,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -13606,7 +13666,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L63" s="19">
         <v>25</v>
@@ -13614,7 +13674,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L64" s="19">
         <v>25</v>
@@ -13622,7 +13682,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L65" s="19">
         <v>25</v>
@@ -13630,7 +13690,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L66" s="19"/>
       <c r="M66" s="19">
@@ -13639,7 +13699,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L67" s="19"/>
       <c r="M67" s="19">
@@ -13651,7 +13711,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L68" s="19"/>
       <c r="M68" s="19"/>
@@ -13662,7 +13722,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L69" s="19"/>
       <c r="M69" s="19"/>
@@ -13673,7 +13733,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L70" s="19"/>
       <c r="M70" s="19"/>
@@ -13684,7 +13744,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O71" s="19">
         <v>27</v>
@@ -13692,9 +13752,9 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>370</v>
-      </c>
-      <c r="O72" s="21">
+        <v>369</v>
+      </c>
+      <c r="O72" s="19">
         <v>54</v>
       </c>
     </row>
@@ -13816,8 +13876,8 @@
         <v>1861.28</v>
       </c>
       <c r="O75" s="23">
-        <f>9*27+84.34*16</f>
-        <v>1592.44</v>
+        <f>11*27+84.34*17</f>
+        <v>1730.78</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -13875,7 +13935,7 @@
       </c>
       <c r="O76" s="24">
         <f t="shared" si="5"/>
-        <v>0.85349826882054702</v>
+        <v>0.92764420242472323</v>
       </c>
     </row>
   </sheetData>
@@ -13885,10 +13945,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X179"/>
+  <dimension ref="A1:X182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="I181" sqref="I181"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180:O182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13984,7 +14044,7 @@
         <v>82</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>14</v>
@@ -14010,7 +14070,7 @@
         <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
@@ -14343,7 +14403,7 @@
         <v>25</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -14369,7 +14429,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I10" s="10">
         <v>2</v>
@@ -14466,7 +14526,7 @@
         <v>44</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>14</v>
@@ -14590,7 +14650,7 @@
         <v>44</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P14" s="13" t="s">
         <v>14</v>
@@ -14763,7 +14823,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>20</v>
@@ -14887,7 +14947,7 @@
         <v>5</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O20" s="8" t="s">
         <v>20</v>
@@ -14928,7 +14988,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>6</v>
@@ -14954,7 +15014,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>6</v>
@@ -15240,7 +15300,7 @@
         <v>6</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P27" s="10" t="s">
         <v>12</v>
@@ -15266,7 +15326,7 @@
         <v>6</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>12</v>
@@ -15366,7 +15426,7 @@
         <v>14</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>2</v>
@@ -15490,7 +15550,7 @@
         <v>14</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P32" s="8" t="s">
         <v>2</v>
@@ -15543,7 +15603,7 @@
         <v>25</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -15569,7 +15629,7 @@
         <v>25</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I34" s="11">
         <v>5</v>
@@ -15693,7 +15753,7 @@
         <v>10</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -15719,7 +15779,7 @@
         <v>10</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I37" s="11">
         <v>6</v>
@@ -15834,7 +15894,7 @@
         <v>5</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N39" s="10" t="s">
         <v>8</v>
@@ -15860,7 +15920,7 @@
         <v>5</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>8</v>
@@ -15981,7 +16041,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>15</v>
@@ -16007,7 +16067,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>15</v>
@@ -16137,7 +16197,7 @@
         <v>15</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O45" s="10" t="s">
         <v>20</v>
@@ -16163,7 +16223,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>20</v>
@@ -16254,7 +16314,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>12</v>
@@ -16368,7 +16428,7 @@
         <v>11</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L50" s="8" t="s">
         <v>12</v>
@@ -16392,7 +16452,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>82</v>
@@ -16516,7 +16576,7 @@
         <v>8</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L53" s="8" t="s">
         <v>82</v>
@@ -16569,7 +16629,7 @@
         <v>9</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M54" s="10" t="s">
         <v>44</v>
@@ -16595,7 +16655,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>44</v>
@@ -16728,7 +16788,7 @@
         <v>10</v>
       </c>
       <c r="O57" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P57" s="10" t="s">
         <v>6</v>
@@ -16754,7 +16814,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H58" s="10" t="s">
         <v>6</v>
@@ -16878,7 +16938,7 @@
         <v>14</v>
       </c>
       <c r="O60" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P60" s="10" t="s">
         <v>66</v>
@@ -16904,7 +16964,7 @@
         <v>14</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H61" s="10" t="s">
         <v>66</v>
@@ -17019,7 +17079,7 @@
         <v>82</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M63" s="10" t="s">
         <v>15</v>
@@ -17045,7 +17105,7 @@
         <v>82</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>15</v>
@@ -17145,7 +17205,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>9</v>
@@ -17269,7 +17329,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>9</v>
@@ -17445,7 +17505,7 @@
         <v>55</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>25</v>
@@ -17472,7 +17532,7 @@
         <v>82</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N72" s="10" t="s">
         <v>49</v>
@@ -17498,7 +17558,7 @@
         <v>82</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>49</v>
@@ -17569,7 +17629,7 @@
         <v>55</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M74" s="8" t="s">
         <v>25</v>
@@ -17625,7 +17685,7 @@
         <v>20</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O75" s="10" t="s">
         <v>16</v>
@@ -17651,7 +17711,7 @@
         <v>20</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>16</v>
@@ -17919,7 +17979,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M81" s="10" t="s">
         <v>10</v>
@@ -17945,7 +18005,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>10</v>
@@ -18354,7 +18414,7 @@
         <v>19</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H90" s="8" t="s">
         <v>55</v>
@@ -18478,7 +18538,7 @@
         <v>19</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P92" s="8" t="s">
         <v>55</v>
@@ -18575,7 +18635,7 @@
         <v>49</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>82</v>
@@ -18601,7 +18661,7 @@
         <v>49</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>82</v>
@@ -18642,7 +18702,7 @@
         <v>6</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>46</v>
@@ -18766,7 +18826,7 @@
         <v>3</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L98" s="8" t="s">
         <v>46</v>
@@ -18872,7 +18932,7 @@
         <v>2</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>8</v>
@@ -18898,7 +18958,7 @@
         <v>2</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>8</v>
@@ -19031,7 +19091,7 @@
         <v>8</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
@@ -19057,7 +19117,7 @@
         <v>8</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I104" s="5">
         <v>2</v>
@@ -19125,7 +19185,7 @@
         <v>25</v>
       </c>
       <c r="N105" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O105" s="10" t="s">
         <v>5</v>
@@ -19151,7 +19211,7 @@
         <v>25</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>5</v>
@@ -19319,7 +19379,7 @@
         <v>1</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>25</v>
@@ -19345,7 +19405,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>25</v>
@@ -19922,7 +19982,7 @@
         <v>6</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N121" s="2" t="s">
         <v>8</v>
@@ -19948,7 +20008,7 @@
         <v>6</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>8</v>
@@ -20154,7 +20214,7 @@
         <v>20</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H126" s="8" t="s">
         <v>340</v>
@@ -20278,7 +20338,7 @@
         <v>20</v>
       </c>
       <c r="O128" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P128" s="8" t="s">
         <v>340</v>
@@ -20295,10 +20355,10 @@
         <v>14</v>
       </c>
       <c r="D129" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E129" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>353</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>16</v>
@@ -20325,7 +20385,7 @@
         <v>1</v>
       </c>
       <c r="N129" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O129" s="10" t="s">
         <v>11</v>
@@ -20351,7 +20411,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G130" s="10" t="s">
         <v>11</v>
@@ -20419,10 +20479,10 @@
         <v>14</v>
       </c>
       <c r="L131" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="M131" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="M131" s="8" t="s">
-        <v>353</v>
       </c>
       <c r="N131" s="8" t="s">
         <v>16</v>
@@ -20636,7 +20696,7 @@
         <v>66</v>
       </c>
       <c r="P135" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.3">
@@ -20662,7 +20722,7 @@
         <v>66</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I136" s="11">
         <v>4</v>
@@ -20783,7 +20843,7 @@
         <v>16</v>
       </c>
       <c r="O138" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P138" s="10" t="s">
         <v>4</v>
@@ -20809,7 +20869,7 @@
         <v>16</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H139" s="10" t="s">
         <v>4</v>
@@ -20924,7 +20984,7 @@
         <v>56</v>
       </c>
       <c r="L141" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M141" s="10" t="s">
         <v>4</v>
@@ -20950,7 +21010,7 @@
         <v>56</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E142" s="10" t="s">
         <v>4</v>
@@ -20974,10 +21034,10 @@
         <v>20</v>
       </c>
       <c r="L142" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="M142" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="N142" s="2" t="s">
         <v>84</v>
@@ -21000,10 +21060,10 @@
         <v>20</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>84</v>
@@ -21126,7 +21186,7 @@
         <v>20</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N145" s="2" t="s">
         <v>346</v>
@@ -21150,7 +21210,7 @@
         <v>20</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>346</v>
@@ -21205,7 +21265,7 @@
         <v>4</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I147" s="9">
         <v>3</v>
@@ -21329,7 +21389,7 @@
         <v>4</v>
       </c>
       <c r="P149" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
@@ -21367,13 +21427,13 @@
         <v>14</v>
       </c>
       <c r="L150" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M150" s="10" t="s">
         <v>5</v>
       </c>
       <c r="N150" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O150" s="10" t="s">
         <v>2</v>
@@ -21393,13 +21453,13 @@
         <v>14</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E151" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G151" s="10" t="s">
         <v>2</v>
@@ -21493,13 +21553,13 @@
         <v>1</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G153" s="8" t="s">
         <v>3</v>
@@ -21617,13 +21677,13 @@
         <v>1</v>
       </c>
       <c r="L155" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M155" s="8" t="s">
         <v>10</v>
       </c>
       <c r="N155" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O155" s="8" t="s">
         <v>3</v>
@@ -21673,7 +21733,7 @@
         <v>6</v>
       </c>
       <c r="N156" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O156" s="10" t="s">
         <v>20</v>
@@ -21704,7 +21764,7 @@
         <v>6</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G157" s="10" t="s">
         <v>20</v>
@@ -21981,7 +22041,7 @@
         <v>63</v>
       </c>
       <c r="O162" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P162" s="10"/>
     </row>
@@ -22005,7 +22065,7 @@
         <v>63</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H163" s="10"/>
       <c r="I163" s="11">
@@ -22117,7 +22177,7 @@
         <v>44</v>
       </c>
       <c r="M165" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N165" s="10" t="s">
         <v>17</v>
@@ -22143,7 +22203,7 @@
         <v>44</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F166" s="10" t="s">
         <v>17</v>
@@ -22240,7 +22300,7 @@
         <v>9</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>19</v>
@@ -22267,13 +22327,13 @@
         <v>5</v>
       </c>
       <c r="M168" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N168" s="10" t="s">
         <v>44</v>
       </c>
       <c r="O168" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P168" s="10" t="s">
         <v>16</v>
@@ -22293,13 +22353,13 @@
         <v>5</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F169" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H169" s="10" t="s">
         <v>16</v>
@@ -22364,7 +22424,7 @@
         <v>9</v>
       </c>
       <c r="L170" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M170" s="8" t="s">
         <v>19</v>
@@ -22420,7 +22480,7 @@
         <v>19</v>
       </c>
       <c r="N171" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O171" s="10" t="s">
         <v>46</v>
@@ -22446,7 +22506,7 @@
         <v>19</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G172" s="10" t="s">
         <v>46</v>
@@ -22470,7 +22530,7 @@
         <v>11</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O172" s="2" t="s">
         <v>44</v>
@@ -22496,7 +22556,7 @@
         <v>11</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>44</v>
@@ -22552,7 +22612,7 @@
         <v>55</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I174" s="9">
         <v>2</v>
@@ -22573,7 +22633,7 @@
         <v>6</v>
       </c>
       <c r="O174" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P174" s="10" t="s">
         <v>20</v>
@@ -22599,7 +22659,7 @@
         <v>6</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H175" s="10" t="s">
         <v>20</v>
@@ -22617,7 +22677,7 @@
         <v>19</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N175" s="2" t="s">
         <v>4</v>
@@ -22643,7 +22703,7 @@
         <v>19</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>4</v>
@@ -22676,7 +22736,7 @@
         <v>55</v>
       </c>
       <c r="P176" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.3">
@@ -22816,6 +22876,144 @@
         <v>63</v>
       </c>
       <c r="P179" s="8"/>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A180" s="14">
+        <v>45882</v>
+      </c>
+      <c r="B180" s="3">
+        <v>6</v>
+      </c>
+      <c r="C180" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E180" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F180" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="G180" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H180" s="57"/>
+      <c r="I180" s="58">
+        <v>6</v>
+      </c>
+      <c r="J180" s="10">
+        <v>6</v>
+      </c>
+      <c r="K180" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L180" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M180" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N180" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O180" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P180" s="10"/>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A181" s="14">
+        <v>45882</v>
+      </c>
+      <c r="B181" s="3">
+        <v>3</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G181" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H181" s="10"/>
+      <c r="I181" s="11">
+        <v>4</v>
+      </c>
+      <c r="J181" s="2">
+        <v>4</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N181" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O181" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P181" s="3"/>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A182" s="14">
+        <v>45882</v>
+      </c>
+      <c r="B182" s="5">
+        <v>4</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H182" s="3"/>
+      <c r="I182" s="5">
+        <v>2</v>
+      </c>
+      <c r="J182" s="57">
+        <v>6</v>
+      </c>
+      <c r="K182" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="L182" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="M182" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="N182" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="O182" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="P182" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22824,11 +23022,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DDCCA6-42DC-4211-A42F-70F3625FA6AA}">
-  <dimension ref="A1:AP71"/>
+  <dimension ref="A1:AQ71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP70" sqref="AP2:AP70"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A71" sqref="A71:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22845,9 +23043,10 @@
     <col min="30" max="32" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="34" max="36" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="39" max="41" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22974,8 +23173,11 @@
       <c r="AP1" s="1">
         <v>45875</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ1" s="1">
+        <v>45882</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -23007,12 +23209,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -23047,12 +23249,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -23060,15 +23262,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AH7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -23076,35 +23281,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -23142,7 +23347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -23174,7 +23379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -23188,7 +23393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -23232,7 +23437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -23294,7 +23499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -23317,7 +23522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -23411,8 +23616,11 @@
       <c r="AP20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>342</v>
       </c>
@@ -23426,17 +23634,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -23450,7 +23658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -23499,10 +23707,13 @@
       <c r="AP25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AD26">
         <v>2</v>
@@ -23511,7 +23722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -23587,16 +23798,19 @@
       <c r="AP27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -23670,7 +23884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -23765,7 +23979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -23773,7 +23987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -23781,7 +23995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -23852,12 +24066,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -23873,8 +24090,11 @@
       <c r="W35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -23882,15 +24102,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM37">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>345</v>
       </c>
@@ -23898,7 +24118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>343</v>
       </c>
@@ -23906,9 +24126,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="X40">
         <v>1</v>
@@ -23920,7 +24140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -23996,8 +24216,11 @@
       <c r="AP41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -24023,7 +24246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -24040,12 +24263,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -24110,15 +24333,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AN46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -24126,7 +24349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>340</v>
       </c>
@@ -24149,17 +24372,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -24220,13 +24443,16 @@
       <c r="AO51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -24237,7 +24463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -24250,13 +24476,16 @@
       <c r="AF54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -24273,7 +24502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -24292,8 +24521,11 @@
       <c r="AP57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -24310,12 +24542,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -24407,7 +24639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -24415,7 +24647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -24429,7 +24661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -24524,7 +24756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -24532,9 +24764,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -24582,20 +24814,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Z66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -24609,7 +24841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -24617,7 +24849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -24729,8 +24961,11 @@
       <c r="AP70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AQ70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>47</v>
       </c>
@@ -26833,7 +27068,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s">
         <v>69</v>
@@ -26863,13 +27098,13 @@
         <v>341</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -27580,10 +27815,10 @@
         <v>45</v>
       </c>
       <c r="E19" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="F19" s="53" t="s">
         <v>360</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>361</v>
       </c>
       <c r="G19" s="54" t="s">
         <v>16</v>

--- a/data/condominio.xlsx
+++ b/data/condominio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="14_{98364A46-010F-4A4A-AA37-5A188387D7F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{94BA7945-51DC-4FA1-BD81-139BEAA3BF5C}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="14_{98364A46-010F-4A4A-AA37-5A188387D7F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{2614DD16-4126-45ED-A534-B715A6AF3912}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,14 +26,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">artilharia!$A$1:$AB$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'artilharia total'!$A$1:$AI$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'extrato 2024'!$A$1:$C$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$BO$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$BP$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4067" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4103" uniqueCount="376">
   <si>
     <t>Jogador</t>
   </si>
@@ -2393,11 +2393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ71"/>
+  <dimension ref="A1:BR71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A42" sqref="A42"/>
+      <selection pane="topRight" activeCell="BK9" sqref="BK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2419,10 +2419,10 @@
     <col min="27" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="48" width="10.5546875" customWidth="1"/>
     <col min="49" max="49" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="62" width="9.5546875" customWidth="1"/>
+    <col min="50" max="63" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2609,20 +2609,23 @@
       <c r="BJ1" s="1">
         <v>45882</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BK1" s="1">
+        <v>45889</v>
+      </c>
+      <c r="BM1" t="s">
         <v>57</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>58</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>59</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2800,27 +2803,30 @@
       <c r="BJ2">
         <v>5</v>
       </c>
-      <c r="BL2">
-        <f>COUNT(B2:BK2)</f>
-        <v>57</v>
-      </c>
-      <c r="BM2" s="18">
-        <f>AVERAGE(B2:BK2)</f>
-        <v>5.7982456140350873</v>
-      </c>
-      <c r="BN2">
-        <f>IF(BL2&gt;1,_xlfn.STDEV.S(B2:BK2),"")</f>
-        <v>1.0932407962551036</v>
+      <c r="BK2">
+        <v>5.5</v>
+      </c>
+      <c r="BM2">
+        <f t="shared" ref="BM2:BM33" si="0">COUNT(B2:BL2)</f>
+        <v>58</v>
+      </c>
+      <c r="BN2" s="18">
+        <f t="shared" ref="BN2:BN33" si="1">AVERAGE(B2:BL2)</f>
+        <v>5.7931034482758621</v>
       </c>
       <c r="BO2">
-        <v>1</v>
-      </c>
-      <c r="BQ2">
-        <f>AVERAGE(AI2:AK2)</f>
+        <f t="shared" ref="BO2:BO33" si="2">IF(BM2&gt;1,_xlfn.STDEV.S(B2:BL2),"")</f>
+        <v>1.0843159488036704</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <f t="shared" ref="BR2:BR33" si="3">AVERAGE(AI2:AK2)</f>
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2995,27 +3001,30 @@
       <c r="BJ3">
         <v>5.5</v>
       </c>
-      <c r="BL3">
-        <f>COUNT(B3:BK3)</f>
-        <v>55</v>
-      </c>
-      <c r="BM3" s="18">
-        <f>AVERAGE(B3:BK3)</f>
-        <v>5.5272727272727273</v>
-      </c>
-      <c r="BN3">
-        <f>IF(BL3&gt;1,_xlfn.STDEV.S(B3:BK3),"")</f>
-        <v>0.90991545098768856</v>
+      <c r="BK3">
+        <v>5.5</v>
+      </c>
+      <c r="BM3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="BN3" s="18">
+        <f t="shared" si="1"/>
+        <v>5.5267857142857144</v>
       </c>
       <c r="BO3">
-        <v>1</v>
-      </c>
-      <c r="BQ3">
-        <f>AVERAGE(AI3:AK3)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0.90161291259378185</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BR3">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3190,27 +3199,27 @@
       <c r="BJ4">
         <v>5.5</v>
       </c>
-      <c r="BL4">
-        <f>COUNT(B4:BK4)</f>
+      <c r="BM4">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="BM4" s="18">
-        <f>AVERAGE(B4:BK4)</f>
+      <c r="BN4" s="18">
+        <f t="shared" si="1"/>
         <v>5.7685185185185182</v>
       </c>
-      <c r="BN4">
-        <f>IF(BL4&gt;1,_xlfn.STDEV.S(B4:BK4),"")</f>
+      <c r="BO4">
+        <f t="shared" si="2"/>
         <v>0.90965970707153054</v>
       </c>
-      <c r="BO4">
-        <v>1</v>
-      </c>
-      <c r="BQ4">
-        <f>AVERAGE(AI4:AK4)</f>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <f t="shared" si="3"/>
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -3367,27 +3376,27 @@
       <c r="BI5">
         <v>5</v>
       </c>
-      <c r="BL5">
-        <f>COUNT(B5:BK5)</f>
+      <c r="BM5">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="BM5" s="18">
-        <f>AVERAGE(B5:BK5)</f>
+      <c r="BN5" s="18">
+        <f t="shared" si="1"/>
         <v>6.3673469387755102</v>
       </c>
-      <c r="BN5">
-        <f>IF(BL5&gt;1,_xlfn.STDEV.S(B5:BK5),"")</f>
+      <c r="BO5">
+        <f t="shared" si="2"/>
         <v>0.84641099037397227</v>
       </c>
-      <c r="BO5">
-        <v>1</v>
-      </c>
-      <c r="BQ5">
-        <f>AVERAGE(AI5:AK5)</f>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <f t="shared" si="3"/>
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3553,27 +3562,30 @@
       <c r="BG6">
         <v>5</v>
       </c>
-      <c r="BL6">
-        <f>COUNT(B6:BK6)</f>
-        <v>47</v>
-      </c>
-      <c r="BM6" s="18">
-        <f>AVERAGE(B6:BK6)</f>
-        <v>6.7765957446808507</v>
-      </c>
-      <c r="BN6">
-        <f>IF(BL6&gt;1,_xlfn.STDEV.S(B6:BK6),"")</f>
-        <v>1.206001796443511</v>
+      <c r="BK6">
+        <v>5.5</v>
+      </c>
+      <c r="BM6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="BN6" s="18">
+        <f t="shared" si="1"/>
+        <v>6.75</v>
       </c>
       <c r="BO6">
-        <v>1</v>
-      </c>
-      <c r="BQ6">
-        <f>AVERAGE(AI6:AK6)</f>
+        <f t="shared" si="2"/>
+        <v>1.2072476168999624</v>
+      </c>
+      <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BR6">
+        <f t="shared" si="3"/>
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3736,27 +3748,30 @@
       <c r="BH7">
         <v>5</v>
       </c>
-      <c r="BL7">
-        <f>COUNT(B7:BK7)</f>
-        <v>47</v>
-      </c>
-      <c r="BM7" s="18">
-        <f>AVERAGE(B7:BK7)</f>
-        <v>6.1808510638297873</v>
-      </c>
-      <c r="BN7">
-        <f>IF(BL7&gt;1,_xlfn.STDEV.S(B7:BK7),"")</f>
-        <v>0.96923059980412896</v>
+      <c r="BK7">
+        <v>5</v>
+      </c>
+      <c r="BM7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="BN7" s="18">
+        <f t="shared" si="1"/>
+        <v>6.15625</v>
       </c>
       <c r="BO7">
-        <v>1</v>
-      </c>
-      <c r="BQ7">
-        <f>AVERAGE(AI7:AK7)</f>
+        <f t="shared" si="2"/>
+        <v>0.97389462709312191</v>
+      </c>
+      <c r="BP7">
+        <v>1</v>
+      </c>
+      <c r="BR7">
+        <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3937,27 +3952,30 @@
       <c r="BJ8">
         <v>6</v>
       </c>
-      <c r="BL8">
-        <f>COUNT(B8:BK8)</f>
-        <v>47</v>
-      </c>
-      <c r="BM8" s="18">
-        <f>AVERAGE(B8:BK8)</f>
-        <v>6.0744680851063828</v>
-      </c>
-      <c r="BN8">
-        <f>IF(BL8&gt;1,_xlfn.STDEV.S(B8:BK8),"")</f>
-        <v>1.0732859105096018</v>
+      <c r="BK8">
+        <v>5.5</v>
+      </c>
+      <c r="BM8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="BN8" s="18">
+        <f t="shared" si="1"/>
+        <v>6.0625</v>
       </c>
       <c r="BO8">
-        <v>1</v>
-      </c>
-      <c r="BQ8">
-        <f>AVERAGE(AI8:AK8)</f>
+        <f t="shared" si="2"/>
+        <v>1.0650392061507867</v>
+      </c>
+      <c r="BP8">
+        <v>1</v>
+      </c>
+      <c r="BR8">
+        <f t="shared" si="3"/>
         <v>5.25</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4111,27 +4129,30 @@
       <c r="BJ9">
         <v>5.5</v>
       </c>
-      <c r="BL9">
-        <f>COUNT(B9:BK9)</f>
-        <v>47</v>
-      </c>
-      <c r="BM9" s="18">
-        <f>AVERAGE(B9:BK9)</f>
-        <v>5.5851063829787231</v>
-      </c>
-      <c r="BN9">
-        <f>IF(BL9&gt;1,_xlfn.STDEV.S(B9:BK9),"")</f>
-        <v>0.88661023332010847</v>
+      <c r="BK9">
+        <v>5</v>
+      </c>
+      <c r="BM9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="BN9" s="18">
+        <f t="shared" si="1"/>
+        <v>5.572916666666667</v>
       </c>
       <c r="BO9">
+        <f t="shared" si="2"/>
+        <v>0.88118382252400429</v>
+      </c>
+      <c r="BP9">
         <v>0</v>
       </c>
-      <c r="BQ9">
-        <f>AVERAGE(AI9:AK9)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BR9">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -4285,27 +4306,30 @@
       <c r="BI10">
         <v>5</v>
       </c>
-      <c r="BL10">
-        <f>COUNT(B10:BK10)</f>
-        <v>43</v>
-      </c>
-      <c r="BM10" s="18">
-        <f>AVERAGE(B10:BK10)</f>
-        <v>5.6046511627906979</v>
-      </c>
-      <c r="BN10">
-        <f>IF(BL10&gt;1,_xlfn.STDEV.S(B10:BK10),"")</f>
-        <v>0.73645013679590654</v>
+      <c r="BK10">
+        <v>5.5</v>
+      </c>
+      <c r="BM10">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="BN10" s="18">
+        <f t="shared" si="1"/>
+        <v>5.6022727272727275</v>
       </c>
       <c r="BO10">
-        <v>1</v>
-      </c>
-      <c r="BQ10">
-        <f>AVERAGE(AI10:AK10)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0.72800735888295687</v>
+      </c>
+      <c r="BP10">
+        <v>1</v>
+      </c>
+      <c r="BR10">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4471,27 +4495,30 @@
       <c r="BJ11">
         <v>5</v>
       </c>
-      <c r="BL11">
-        <f>COUNT(B11:BK11)</f>
-        <v>42</v>
-      </c>
-      <c r="BM11" s="18">
-        <f>AVERAGE(B11:BK11)</f>
-        <v>5.5</v>
-      </c>
-      <c r="BN11">
-        <f>IF(BL11&gt;1,_xlfn.STDEV.S(B11:BK11),"")</f>
-        <v>1.0476454436543674</v>
+      <c r="BK11">
+        <v>5</v>
+      </c>
+      <c r="BM11">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="BN11" s="18">
+        <f t="shared" si="1"/>
+        <v>5.4883720930232558</v>
       </c>
       <c r="BO11">
-        <v>1</v>
-      </c>
-      <c r="BQ11">
-        <f>AVERAGE(AI11:AK11)</f>
+        <f t="shared" si="2"/>
+        <v>1.03790294580801</v>
+      </c>
+      <c r="BP11">
+        <v>1</v>
+      </c>
+      <c r="BR11">
+        <f t="shared" si="3"/>
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>367</v>
       </c>
@@ -4636,27 +4663,30 @@
       <c r="BH12">
         <v>5</v>
       </c>
-      <c r="BL12">
-        <f>COUNT(B12:BK12)</f>
-        <v>40</v>
-      </c>
-      <c r="BM12" s="18">
-        <f>AVERAGE(B12:BK12)</f>
-        <v>6.1749999999999998</v>
-      </c>
-      <c r="BN12">
-        <f>IF(BL12&gt;1,_xlfn.STDEV.S(B12:BK12),"")</f>
-        <v>1.1183206273877935</v>
+      <c r="BK12">
+        <v>4.5</v>
+      </c>
+      <c r="BM12">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="BN12" s="18">
+        <f t="shared" si="1"/>
+        <v>6.1341463414634143</v>
       </c>
       <c r="BO12">
-        <v>1</v>
-      </c>
-      <c r="BQ12">
-        <f>AVERAGE(AI12:AK12)</f>
+        <f t="shared" si="2"/>
+        <v>1.1348149091586612</v>
+      </c>
+      <c r="BP12">
+        <v>1</v>
+      </c>
+      <c r="BR12">
+        <f t="shared" si="3"/>
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4804,27 +4834,30 @@
       <c r="BE13">
         <v>4.5</v>
       </c>
-      <c r="BL13">
-        <f>COUNT(B13:BK13)</f>
-        <v>37</v>
-      </c>
-      <c r="BM13" s="18">
-        <f>AVERAGE(B13:BK13)</f>
-        <v>4.5270270270270272</v>
-      </c>
-      <c r="BN13">
-        <f>IF(BL13&gt;1,_xlfn.STDEV.S(B13:BK13),"")</f>
-        <v>1.0471253370401621</v>
+      <c r="BK13">
+        <v>4.5</v>
+      </c>
+      <c r="BM13">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="BN13" s="18">
+        <f t="shared" si="1"/>
+        <v>4.5263157894736841</v>
       </c>
       <c r="BO13">
-        <v>1</v>
-      </c>
-      <c r="BQ13">
-        <f>AVERAGE(AI13:AK13)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.0328873752806866</v>
+      </c>
+      <c r="BP13">
+        <v>1</v>
+      </c>
+      <c r="BR13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -5002,27 +5035,30 @@
       <c r="BJ14">
         <v>5.5</v>
       </c>
-      <c r="BL14">
-        <f>COUNT(B14:BK14)</f>
-        <v>39</v>
-      </c>
-      <c r="BM14" s="18">
-        <f>AVERAGE(B14:BK14)</f>
-        <v>6.1025641025641022</v>
-      </c>
-      <c r="BN14">
-        <f>IF(BL14&gt;1,_xlfn.STDEV.S(B14:BK14),"")</f>
-        <v>1.0207033641684704</v>
+      <c r="BK14">
+        <v>6.5</v>
+      </c>
+      <c r="BM14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="BN14" s="18">
+        <f t="shared" si="1"/>
+        <v>6.1124999999999998</v>
       </c>
       <c r="BO14">
-        <v>1</v>
-      </c>
-      <c r="BQ14">
-        <f>AVERAGE(AI14:AK14)</f>
+        <f t="shared" si="2"/>
+        <v>1.0094902242322681</v>
+      </c>
+      <c r="BP14">
+        <v>1</v>
+      </c>
+      <c r="BR14">
+        <f t="shared" si="3"/>
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -5155,27 +5191,30 @@
       <c r="BJ15">
         <v>4.5</v>
       </c>
-      <c r="BL15">
-        <f>COUNT(B15:BK15)</f>
-        <v>38</v>
-      </c>
-      <c r="BM15" s="18">
-        <f>AVERAGE(B15:BK15)</f>
-        <v>5.5</v>
-      </c>
-      <c r="BN15">
-        <f>IF(BL15&gt;1,_xlfn.STDEV.S(B15:BK15),"")</f>
-        <v>0.86211556258035571</v>
+      <c r="BK15">
+        <v>4.5</v>
+      </c>
+      <c r="BM15">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="BN15" s="18">
+        <f t="shared" si="1"/>
+        <v>5.4743589743589745</v>
       </c>
       <c r="BO15">
-        <v>1</v>
-      </c>
-      <c r="BQ15">
-        <f>AVERAGE(AI15:AK15)</f>
+        <f t="shared" si="2"/>
+        <v>0.86563574104084873</v>
+      </c>
+      <c r="BP15">
+        <v>1</v>
+      </c>
+      <c r="BR15">
+        <f t="shared" si="3"/>
         <v>4.75</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -5323,27 +5362,30 @@
       <c r="BI16">
         <v>5</v>
       </c>
-      <c r="BL16">
-        <f>COUNT(B16:BK16)</f>
-        <v>36</v>
-      </c>
-      <c r="BM16" s="18">
-        <f>AVERAGE(B16:BK16)</f>
-        <v>6.0555555555555554</v>
-      </c>
-      <c r="BN16">
-        <f>IF(BL16&gt;1,_xlfn.STDEV.S(B16:BK16),"")</f>
-        <v>1.0939951539314046</v>
+      <c r="BK16">
+        <v>5.5</v>
+      </c>
+      <c r="BM16">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="BN16" s="18">
+        <f t="shared" si="1"/>
+        <v>6.0405405405405403</v>
       </c>
       <c r="BO16">
-        <v>1</v>
-      </c>
-      <c r="BQ16" t="e">
-        <f>AVERAGE(AI16:AK16)</f>
+        <f t="shared" si="2"/>
+        <v>1.0825534268210144</v>
+      </c>
+      <c r="BP16">
+        <v>1</v>
+      </c>
+      <c r="BR16" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -5488,27 +5530,27 @@
       <c r="AW17">
         <v>5</v>
       </c>
-      <c r="BL17">
-        <f>COUNT(B17:BK17)</f>
+      <c r="BM17">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="BM17" s="18">
-        <f>AVERAGE(B17:BK17)</f>
+      <c r="BN17" s="18">
+        <f t="shared" si="1"/>
         <v>5.7407407407407405</v>
       </c>
-      <c r="BN17">
-        <f>IF(BL17&gt;1,_xlfn.STDEV.S(B17:BK17),"")</f>
+      <c r="BO17">
+        <f t="shared" si="2"/>
         <v>0.90267093384844077</v>
       </c>
-      <c r="BO17">
+      <c r="BP17">
         <v>0</v>
       </c>
-      <c r="BQ17">
-        <f>AVERAGE(AI17:AK17)</f>
+      <c r="BR17">
+        <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -5644,27 +5686,27 @@
       <c r="BJ18">
         <v>5</v>
       </c>
-      <c r="BL18">
-        <f>COUNT(B18:BK18)</f>
+      <c r="BM18">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="BM18" s="18">
-        <f>AVERAGE(B18:BK18)</f>
+      <c r="BN18" s="18">
+        <f t="shared" si="1"/>
         <v>5.8888888888888893</v>
       </c>
-      <c r="BN18">
-        <f>IF(BL18&gt;1,_xlfn.STDEV.S(B18:BK18),"")</f>
+      <c r="BO18">
+        <f t="shared" si="2"/>
         <v>0.86971849262290324</v>
       </c>
-      <c r="BO18">
-        <v>1</v>
-      </c>
-      <c r="BQ18" t="e">
-        <f>AVERAGE(AI18:AK18)</f>
+      <c r="BP18">
+        <v>1</v>
+      </c>
+      <c r="BR18" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -5824,27 +5866,27 @@
       <c r="BI19">
         <v>4.5</v>
       </c>
-      <c r="BL19">
-        <f>COUNT(B19:BK19)</f>
+      <c r="BM19">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="BM19" s="18">
-        <f>AVERAGE(B19:BK19)</f>
+      <c r="BN19" s="18">
+        <f t="shared" si="1"/>
         <v>5.16</v>
       </c>
-      <c r="BN19">
-        <f>IF(BL19&gt;1,_xlfn.STDEV.S(B19:BK19),"")</f>
+      <c r="BO19">
+        <f t="shared" si="2"/>
         <v>0.67268120235368589</v>
       </c>
-      <c r="BO19">
-        <v>1</v>
-      </c>
-      <c r="BQ19">
-        <f>AVERAGE(AI19:AK19)</f>
+      <c r="BP19">
+        <v>1</v>
+      </c>
+      <c r="BR19">
+        <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -5992,27 +6034,30 @@
       <c r="BJ20">
         <v>4.5</v>
       </c>
-      <c r="BL20">
-        <f>COUNT(B20:BK20)</f>
-        <v>25</v>
-      </c>
-      <c r="BM20" s="18">
-        <f>AVERAGE(B20:BK20)</f>
-        <v>4.72</v>
-      </c>
-      <c r="BN20">
-        <f>IF(BL20&gt;1,_xlfn.STDEV.S(B20:BK20),"")</f>
-        <v>1.0008329864001611</v>
+      <c r="BK20">
+        <v>5</v>
+      </c>
+      <c r="BM20">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="BN20" s="18">
+        <f t="shared" si="1"/>
+        <v>4.7307692307692308</v>
       </c>
       <c r="BO20">
-        <v>1</v>
-      </c>
-      <c r="BQ20">
-        <f>AVERAGE(AI20:AK20)</f>
+        <f t="shared" si="2"/>
+        <v>0.98214835163298297</v>
+      </c>
+      <c r="BP20">
+        <v>1</v>
+      </c>
+      <c r="BR20">
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -6121,27 +6166,30 @@
       <c r="BJ21">
         <v>4.5</v>
       </c>
-      <c r="BL21">
-        <f>COUNT(B21:BK21)</f>
-        <v>23</v>
-      </c>
-      <c r="BM21" s="18">
-        <f>AVERAGE(B21:BK21)</f>
-        <v>5.7608695652173916</v>
-      </c>
-      <c r="BN21">
-        <f>IF(BL21&gt;1,_xlfn.STDEV.S(B21:BK21),"")</f>
-        <v>1.0098330782113454</v>
+      <c r="BK21">
+        <v>5.5</v>
+      </c>
+      <c r="BM21">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="BN21" s="18">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
       </c>
       <c r="BO21">
-        <v>1</v>
-      </c>
-      <c r="BQ21" t="e">
-        <f>AVERAGE(AI21:AK21)</f>
+        <f t="shared" si="2"/>
+        <v>0.98907071009368053</v>
+      </c>
+      <c r="BP21">
+        <v>1</v>
+      </c>
+      <c r="BR21" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -6280,27 +6328,27 @@
       <c r="BB22">
         <v>4.5</v>
       </c>
-      <c r="BL22">
-        <f>COUNT(B22:BK22)</f>
+      <c r="BM22">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="BM22" s="18">
-        <f>AVERAGE(B22:BK22)</f>
+      <c r="BN22" s="18">
+        <f t="shared" si="1"/>
         <v>5.1190476190476186</v>
       </c>
-      <c r="BN22">
-        <f>IF(BL22&gt;1,_xlfn.STDEV.S(B22:BK22),"")</f>
+      <c r="BO22">
+        <f t="shared" si="2"/>
         <v>0.75671596231284044</v>
       </c>
-      <c r="BO22">
+      <c r="BP22">
         <v>0</v>
       </c>
-      <c r="BQ22" t="e">
-        <f>AVERAGE(AI22:AK22)</f>
+      <c r="BR22" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -6406,27 +6454,27 @@
       <c r="BA23">
         <v>5</v>
       </c>
-      <c r="BL23">
-        <f>COUNT(B23:BK23)</f>
+      <c r="BM23">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="BM23" s="18">
-        <f>AVERAGE(B23:BK23)</f>
+      <c r="BN23" s="18">
+        <f t="shared" si="1"/>
         <v>5.8421052631578947</v>
       </c>
-      <c r="BN23">
-        <f>IF(BL23&gt;1,_xlfn.STDEV.S(B23:BK23),"")</f>
+      <c r="BO23">
+        <f t="shared" si="2"/>
         <v>0.95819030206465661</v>
       </c>
-      <c r="BO23">
+      <c r="BP23">
         <v>0</v>
       </c>
-      <c r="BQ23">
-        <f>AVERAGE(AI23:AK23)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BR23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -6535,27 +6583,27 @@
       <c r="AV24">
         <v>4.5</v>
       </c>
-      <c r="BL24">
-        <f>COUNT(B24:BK24)</f>
+      <c r="BM24">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="BM24" s="18">
-        <f>AVERAGE(B24:BK24)</f>
+      <c r="BN24" s="18">
+        <f t="shared" si="1"/>
         <v>5.4411764705882355</v>
       </c>
-      <c r="BN24">
-        <f>IF(BL24&gt;1,_xlfn.STDEV.S(B24:BK24),"")</f>
+      <c r="BO24">
+        <f t="shared" si="2"/>
         <v>1.0880365478290537</v>
       </c>
-      <c r="BO24">
+      <c r="BP24">
         <v>0</v>
       </c>
-      <c r="BQ24">
-        <f>AVERAGE(AI24:AK24)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BR24">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -6670,27 +6718,30 @@
       <c r="BJ25">
         <v>3.5</v>
       </c>
-      <c r="BL25">
-        <f>COUNT(B25:BK25)</f>
-        <v>18</v>
-      </c>
-      <c r="BM25" s="18">
-        <f>AVERAGE(B25:BK25)</f>
-        <v>4.916666666666667</v>
-      </c>
-      <c r="BN25">
-        <f>IF(BL25&gt;1,_xlfn.STDEV.S(B25:BK25),"")</f>
-        <v>1.1536387445561875</v>
+      <c r="BK25">
+        <v>4</v>
+      </c>
+      <c r="BM25">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="BN25" s="18">
+        <f t="shared" si="1"/>
+        <v>4.8684210526315788</v>
       </c>
       <c r="BO25">
+        <f t="shared" si="2"/>
+        <v>1.1406882092155048</v>
+      </c>
+      <c r="BP25">
         <v>0</v>
       </c>
-      <c r="BQ25">
-        <f>AVERAGE(AI25:AK25)</f>
+      <c r="BR25">
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>346</v>
       </c>
@@ -6739,27 +6790,27 @@
       <c r="BG26">
         <v>5</v>
       </c>
-      <c r="BL26">
-        <f>COUNT(B26:BK26)</f>
+      <c r="BM26">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="BM26" s="18">
-        <f>AVERAGE(B26:BK26)</f>
+      <c r="BN26" s="18">
+        <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
-      <c r="BN26">
-        <f>IF(BL26&gt;1,_xlfn.STDEV.S(B26:BK26),"")</f>
+      <c r="BO26">
+        <f t="shared" si="2"/>
         <v>0.5277986629117476</v>
       </c>
-      <c r="BO26">
+      <c r="BP26">
         <v>0</v>
       </c>
-      <c r="BQ26" t="e">
-        <f>AVERAGE(AI26:AK26)</f>
+      <c r="BR26" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -6850,27 +6901,27 @@
       <c r="AD27">
         <v>6</v>
       </c>
-      <c r="BL27">
-        <f>COUNT(B27:BK27)</f>
+      <c r="BM27">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="BM27" s="18">
-        <f>AVERAGE(B27:BK27)</f>
+      <c r="BN27" s="18">
+        <f t="shared" si="1"/>
         <v>4.4615384615384617</v>
       </c>
-      <c r="BN27">
-        <f>IF(BL27&gt;1,_xlfn.STDEV.S(B27:BK27),"")</f>
+      <c r="BO27">
+        <f t="shared" si="2"/>
         <v>1.875961292039569</v>
       </c>
-      <c r="BO27">
+      <c r="BP27">
         <v>0</v>
       </c>
-      <c r="BQ27" t="e">
-        <f>AVERAGE(AI27:AK27)</f>
+      <c r="BR27" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -6970,27 +7021,27 @@
       <c r="BB28">
         <v>5</v>
       </c>
-      <c r="BL28">
-        <f>COUNT(B28:BK28)</f>
+      <c r="BM28">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="BM28" s="18">
-        <f>AVERAGE(B28:BK28)</f>
+      <c r="BN28" s="18">
+        <f t="shared" si="1"/>
         <v>6.9230769230769234</v>
       </c>
-      <c r="BN28">
-        <f>IF(BL28&gt;1,_xlfn.STDEV.S(B28:BK28),"")</f>
+      <c r="BO28">
+        <f t="shared" si="2"/>
         <v>1.1336914969498575</v>
       </c>
-      <c r="BO28">
+      <c r="BP28">
         <v>0</v>
       </c>
-      <c r="BQ28" t="e">
-        <f>AVERAGE(AI28:AK28)</f>
+      <c r="BR28" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -7111,27 +7162,30 @@
       <c r="BJ29">
         <v>5.5</v>
       </c>
-      <c r="BL29">
-        <f>COUNT(B29:BK29)</f>
-        <v>14</v>
-      </c>
-      <c r="BM29" s="18">
-        <f>AVERAGE(B29:BK29)</f>
-        <v>4.5714285714285712</v>
-      </c>
-      <c r="BN29">
-        <f>IF(BL29&gt;1,_xlfn.STDEV.S(B29:BK29),"")</f>
-        <v>1.0716117059605357</v>
+      <c r="BK29">
+        <v>4</v>
+      </c>
+      <c r="BM29">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="BN29" s="18">
+        <f t="shared" si="1"/>
+        <v>4.5333333333333332</v>
       </c>
       <c r="BO29">
+        <f t="shared" si="2"/>
+        <v>1.0431180365113237</v>
+      </c>
+      <c r="BP29">
         <v>0</v>
       </c>
-      <c r="BQ29">
-        <f>AVERAGE(AI29:AK29)</f>
+      <c r="BR29">
+        <f t="shared" si="3"/>
         <v>4.75</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -7246,27 +7300,27 @@
       <c r="BJ30">
         <v>5.5</v>
       </c>
-      <c r="BL30">
-        <f>COUNT(B30:BK30)</f>
+      <c r="BM30">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="BM30" s="18">
-        <f>AVERAGE(B30:BK30)</f>
+      <c r="BN30" s="18">
+        <f t="shared" si="1"/>
         <v>5.8928571428571432</v>
       </c>
-      <c r="BN30">
-        <f>IF(BL30&gt;1,_xlfn.STDEV.S(B30:BK30),"")</f>
+      <c r="BO30">
+        <f t="shared" si="2"/>
         <v>1.0410529327518412</v>
       </c>
-      <c r="BO30">
+      <c r="BP30">
         <v>0</v>
       </c>
-      <c r="BQ30" t="e">
-        <f>AVERAGE(AI30:AK30)</f>
+      <c r="BR30" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -7369,27 +7423,30 @@
       <c r="BB31">
         <v>5.5</v>
       </c>
-      <c r="BL31">
-        <f>COUNT(B31:BK31)</f>
-        <v>11</v>
-      </c>
-      <c r="BM31" s="18">
-        <f>AVERAGE(B31:BK31)</f>
-        <v>6.2727272727272725</v>
-      </c>
-      <c r="BN31">
-        <f>IF(BL31&gt;1,_xlfn.STDEV.S(B31:BK31),"")</f>
-        <v>0.98396230526469797</v>
+      <c r="BK31">
+        <v>6</v>
+      </c>
+      <c r="BM31">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="BN31" s="18">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
       </c>
       <c r="BO31">
+        <f t="shared" si="2"/>
+        <v>0.9414688716912718</v>
+      </c>
+      <c r="BP31">
         <v>0</v>
       </c>
-      <c r="BQ31" t="e">
-        <f>AVERAGE(AI31:AK31)</f>
+      <c r="BR31" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -7489,27 +7546,27 @@
       <c r="BF32">
         <v>4.5</v>
       </c>
-      <c r="BL32">
-        <f>COUNT(B32:BK32)</f>
+      <c r="BM32">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="BM32" s="18">
-        <f>AVERAGE(B32:BK32)</f>
+      <c r="BN32" s="18">
+        <f t="shared" si="1"/>
         <v>4.95</v>
       </c>
-      <c r="BN32">
-        <f>IF(BL32&gt;1,_xlfn.STDEV.S(B32:BK32),"")</f>
+      <c r="BO32">
+        <f t="shared" si="2"/>
         <v>0.64334196885395889</v>
       </c>
-      <c r="BO32">
+      <c r="BP32">
         <v>0</v>
       </c>
-      <c r="BQ32" t="e">
-        <f>AVERAGE(AI32:AK32)</f>
+      <c r="BR32" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -7600,27 +7657,27 @@
       <c r="AD33" t="s">
         <v>26</v>
       </c>
-      <c r="BL33">
-        <f>COUNT(B33:BK33)</f>
+      <c r="BM33">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="BM33" s="18">
-        <f>AVERAGE(B33:BK33)</f>
+      <c r="BN33" s="18">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="BN33">
-        <f>IF(BL33&gt;1,_xlfn.STDEV.S(B33:BK33),"")</f>
+      <c r="BO33">
+        <f t="shared" si="2"/>
         <v>0.61237243569579447</v>
       </c>
-      <c r="BO33">
+      <c r="BP33">
         <v>0</v>
       </c>
-      <c r="BQ33" t="e">
-        <f>AVERAGE(AI33:AK33)</f>
+      <c r="BR33" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>340</v>
       </c>
@@ -7645,27 +7702,27 @@
       <c r="AS34">
         <v>5</v>
       </c>
-      <c r="BL34">
-        <f>COUNT(B34:BK34)</f>
+      <c r="BM34">
+        <f t="shared" ref="BM34:BM65" si="4">COUNT(B34:BL34)</f>
         <v>7</v>
       </c>
-      <c r="BM34" s="18">
-        <f>AVERAGE(B34:BK34)</f>
+      <c r="BN34" s="18">
+        <f t="shared" ref="BN34:BN65" si="5">AVERAGE(B34:BL34)</f>
         <v>5.0714285714285712</v>
       </c>
-      <c r="BN34">
-        <f>IF(BL34&gt;1,_xlfn.STDEV.S(B34:BK34),"")</f>
+      <c r="BO34">
+        <f t="shared" ref="BO34:BO65" si="6">IF(BM34&gt;1,_xlfn.STDEV.S(B34:BL34),"")</f>
         <v>0.34503277967117707</v>
       </c>
-      <c r="BO34">
+      <c r="BP34">
         <v>0</v>
       </c>
-      <c r="BQ34">
-        <f>AVERAGE(AI34:AK34)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BR34">
+        <f t="shared" ref="BR34:BR70" si="7">AVERAGE(AI34:AK34)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -7768,27 +7825,27 @@
       <c r="BJ35">
         <v>5.5</v>
       </c>
-      <c r="BL35">
-        <f>COUNT(B35:BK35)</f>
+      <c r="BM35">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="BM35" s="18">
-        <f>AVERAGE(B35:BK35)</f>
+      <c r="BN35" s="18">
+        <f t="shared" si="5"/>
         <v>4.6428571428571432</v>
       </c>
-      <c r="BN35">
-        <f>IF(BL35&gt;1,_xlfn.STDEV.S(B35:BK35),"")</f>
+      <c r="BO35">
+        <f t="shared" si="6"/>
         <v>0.6900655593423547</v>
       </c>
-      <c r="BO35">
+      <c r="BP35">
         <v>0</v>
       </c>
-      <c r="BQ35">
-        <f>AVERAGE(AI35:AK35)</f>
+      <c r="BR35">
+        <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>343</v>
       </c>
@@ -7891,27 +7948,27 @@
       <c r="BI36">
         <v>4.5</v>
       </c>
-      <c r="BL36">
-        <f>COUNT(B36:BK36)</f>
-        <v>6</v>
-      </c>
-      <c r="BM36" s="18">
-        <f>AVERAGE(B36:BK36)</f>
+      <c r="BM36">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="BN36" s="18">
+        <f t="shared" si="5"/>
         <v>3.9166666666666665</v>
       </c>
-      <c r="BN36">
-        <f>IF(BL36&gt;1,_xlfn.STDEV.S(B36:BK36),"")</f>
+      <c r="BO36">
+        <f t="shared" si="6"/>
         <v>1.1143009766964516</v>
       </c>
-      <c r="BO36">
+      <c r="BP36">
         <v>0</v>
       </c>
-      <c r="BQ36" t="e">
-        <f>AVERAGE(AI36:AK36)</f>
+      <c r="BR36" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -8002,27 +8059,27 @@
       <c r="AD37" t="s">
         <v>26</v>
       </c>
-      <c r="BL37">
-        <f>COUNT(B37:BK37)</f>
-        <v>4</v>
-      </c>
-      <c r="BM37" s="18">
-        <f>AVERAGE(B37:BK37)</f>
+      <c r="BM37">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="BN37" s="18">
+        <f t="shared" si="5"/>
         <v>7.625</v>
       </c>
-      <c r="BN37">
-        <f>IF(BL37&gt;1,_xlfn.STDEV.S(B37:BK37),"")</f>
+      <c r="BO37">
+        <f t="shared" si="6"/>
         <v>0.62915286960589578</v>
       </c>
-      <c r="BO37">
+      <c r="BP37">
         <v>0</v>
       </c>
-      <c r="BQ37" t="e">
-        <f>AVERAGE(AI37:AK37)</f>
+      <c r="BR37" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -8113,27 +8170,27 @@
       <c r="AD38" t="s">
         <v>26</v>
       </c>
-      <c r="BL38">
-        <f>COUNT(B38:BK38)</f>
-        <v>4</v>
-      </c>
-      <c r="BM38" s="18">
-        <f>AVERAGE(B38:BK38)</f>
-        <v>6</v>
-      </c>
-      <c r="BN38">
-        <f>IF(BL38&gt;1,_xlfn.STDEV.S(B38:BK38),"")</f>
+      <c r="BM38">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="BN38" s="18">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="BO38">
+        <f t="shared" si="6"/>
         <v>0.70710678118654757</v>
       </c>
-      <c r="BO38">
+      <c r="BP38">
         <v>0</v>
       </c>
-      <c r="BQ38" t="e">
-        <f>AVERAGE(AI38:AK38)</f>
+      <c r="BR38" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -8227,27 +8284,27 @@
       <c r="AO39">
         <v>5.5</v>
       </c>
-      <c r="BL39">
-        <f>COUNT(B39:BK39)</f>
-        <v>4</v>
-      </c>
-      <c r="BM39" s="18">
-        <f>AVERAGE(B39:BK39)</f>
+      <c r="BM39">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="BN39" s="18">
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
-      <c r="BN39">
-        <f>IF(BL39&gt;1,_xlfn.STDEV.S(B39:BK39),"")</f>
+      <c r="BO39">
+        <f t="shared" si="6"/>
         <v>0.9128709291752769</v>
       </c>
-      <c r="BO39">
+      <c r="BP39">
         <v>0</v>
       </c>
-      <c r="BQ39" t="e">
-        <f>AVERAGE(AI39:AK39)</f>
+      <c r="BR39" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -8344,27 +8401,27 @@
       <c r="AU40">
         <v>4</v>
       </c>
-      <c r="BL40">
-        <f>COUNT(B40:BK40)</f>
-        <v>4</v>
-      </c>
-      <c r="BM40" s="18">
-        <f>AVERAGE(B40:BK40)</f>
+      <c r="BM40">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="BN40" s="18">
+        <f t="shared" si="5"/>
         <v>2.375</v>
       </c>
-      <c r="BN40">
-        <f>IF(BL40&gt;1,_xlfn.STDEV.S(B40:BK40),"")</f>
+      <c r="BO40">
+        <f t="shared" si="6"/>
         <v>1.3768926368215255</v>
       </c>
-      <c r="BO40">
+      <c r="BP40">
         <v>0</v>
       </c>
-      <c r="BQ40" t="e">
-        <f>AVERAGE(AI40:AK40)</f>
+      <c r="BR40" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>344</v>
       </c>
@@ -8380,27 +8437,27 @@
       <c r="AY41">
         <v>5.5</v>
       </c>
-      <c r="BL41">
-        <f>COUNT(B41:BK41)</f>
-        <v>4</v>
-      </c>
-      <c r="BM41" s="18">
-        <f>AVERAGE(B41:BK41)</f>
+      <c r="BM41">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="BN41" s="18">
+        <f t="shared" si="5"/>
         <v>4.25</v>
       </c>
-      <c r="BN41">
-        <f>IF(BL41&gt;1,_xlfn.STDEV.S(B41:BK41),"")</f>
+      <c r="BO41">
+        <f t="shared" si="6"/>
         <v>0.9574271077563381</v>
       </c>
-      <c r="BO41">
+      <c r="BP41">
         <v>0</v>
       </c>
-      <c r="BQ41">
-        <f>AVERAGE(AI41:AK41)</f>
+      <c r="BR41">
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -8491,27 +8548,27 @@
       <c r="AD42" t="s">
         <v>26</v>
       </c>
-      <c r="BL42">
-        <f>COUNT(B42:BK42)</f>
+      <c r="BM42">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="BM42" s="18">
-        <f>AVERAGE(B42:BK42)</f>
+      <c r="BN42" s="18">
+        <f t="shared" si="5"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="BN42">
-        <f>IF(BL42&gt;1,_xlfn.STDEV.S(B42:BK42),"")</f>
+      <c r="BO42">
+        <f t="shared" si="6"/>
         <v>1.1547005383792526</v>
       </c>
-      <c r="BO42">
+      <c r="BP42">
         <v>0</v>
       </c>
-      <c r="BQ42" t="e">
-        <f>AVERAGE(AI42:AK42)</f>
+      <c r="BR42" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -8602,27 +8659,27 @@
       <c r="AD43" t="s">
         <v>26</v>
       </c>
-      <c r="BL43">
-        <f>COUNT(B43:BK43)</f>
+      <c r="BM43">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="BM43" s="18">
-        <f>AVERAGE(B43:BK43)</f>
+      <c r="BN43" s="18">
+        <f t="shared" si="5"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="BN43">
-        <f>IF(BL43&gt;1,_xlfn.STDEV.S(B43:BK43),"")</f>
+      <c r="BO43">
+        <f t="shared" si="6"/>
         <v>0.28867513459481287</v>
       </c>
-      <c r="BO43">
+      <c r="BP43">
         <v>0</v>
       </c>
-      <c r="BQ43" t="e">
-        <f>AVERAGE(AI43:AK43)</f>
+      <c r="BR43" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -8719,27 +8776,27 @@
       <c r="AF44">
         <v>9</v>
       </c>
-      <c r="BL44">
-        <f>COUNT(B44:BK44)</f>
+      <c r="BM44">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="BM44" s="18">
-        <f>AVERAGE(B44:BK44)</f>
+      <c r="BN44" s="18">
+        <f t="shared" si="5"/>
         <v>7.666666666666667</v>
       </c>
-      <c r="BN44">
-        <f>IF(BL44&gt;1,_xlfn.STDEV.S(B44:BK44),"")</f>
+      <c r="BO44">
+        <f t="shared" si="6"/>
         <v>1.1547005383792495</v>
       </c>
-      <c r="BO44">
+      <c r="BP44">
         <v>0</v>
       </c>
-      <c r="BQ44" t="e">
-        <f>AVERAGE(AI44:AK44)</f>
+      <c r="BR44" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -8833,27 +8890,27 @@
       <c r="AG45">
         <v>2.5</v>
       </c>
-      <c r="BL45">
-        <f>COUNT(B45:BK45)</f>
+      <c r="BM45">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="BM45" s="18">
-        <f>AVERAGE(B45:BK45)</f>
+      <c r="BN45" s="18">
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="BN45">
-        <f>IF(BL45&gt;1,_xlfn.STDEV.S(B45:BK45),"")</f>
+      <c r="BO45">
+        <f t="shared" si="6"/>
         <v>1.7320508075688772</v>
       </c>
-      <c r="BO45">
+      <c r="BP45">
         <v>0</v>
       </c>
-      <c r="BQ45" t="e">
-        <f>AVERAGE(AI45:AK45)</f>
+      <c r="BR45" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -8947,27 +9004,27 @@
       <c r="AS46">
         <v>5</v>
       </c>
-      <c r="BL46">
-        <f>COUNT(B46:BK46)</f>
+      <c r="BM46">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="BM46" s="18">
-        <f>AVERAGE(B46:BK46)</f>
+      <c r="BN46" s="18">
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
-      <c r="BN46">
-        <f>IF(BL46&gt;1,_xlfn.STDEV.S(B46:BK46),"")</f>
+      <c r="BO46">
+        <f t="shared" si="6"/>
         <v>1.3228756555322954</v>
       </c>
-      <c r="BO46">
+      <c r="BP46">
         <v>0</v>
       </c>
-      <c r="BQ46" t="e">
-        <f>AVERAGE(AI46:AK46)</f>
+      <c r="BR46" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -9061,27 +9118,27 @@
       <c r="BJ47">
         <v>5</v>
       </c>
-      <c r="BL47">
-        <f>COUNT(B47:BK47)</f>
+      <c r="BM47">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="BM47" s="18">
-        <f>AVERAGE(B47:BK47)</f>
+      <c r="BN47" s="18">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="BN47">
-        <f>IF(BL47&gt;1,_xlfn.STDEV.S(B47:BK47),"")</f>
+      <c r="BO47">
+        <f t="shared" si="6"/>
         <v>1.8027756377319946</v>
       </c>
-      <c r="BO47">
+      <c r="BP47">
         <v>0</v>
       </c>
-      <c r="BQ47" t="e">
-        <f>AVERAGE(AI47:AK47)</f>
+      <c r="BR47" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -9175,27 +9232,27 @@
       <c r="AG48">
         <v>5</v>
       </c>
-      <c r="BL48">
-        <f>COUNT(B48:BK48)</f>
-        <v>2</v>
-      </c>
-      <c r="BM48" s="18">
-        <f>AVERAGE(B48:BK48)</f>
+      <c r="BM48">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="BN48" s="18">
+        <f t="shared" si="5"/>
         <v>5.25</v>
       </c>
-      <c r="BN48">
-        <f>IF(BL48&gt;1,_xlfn.STDEV.S(B48:BK48),"")</f>
+      <c r="BO48">
+        <f t="shared" si="6"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="BO48">
+      <c r="BP48">
         <v>0</v>
       </c>
-      <c r="BQ48" t="e">
-        <f>AVERAGE(AI48:AK48)</f>
+      <c r="BR48" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>339</v>
       </c>
@@ -9205,27 +9262,27 @@
       <c r="AW49">
         <v>4.5</v>
       </c>
-      <c r="BL49">
-        <f>COUNT(B49:BK49)</f>
-        <v>2</v>
-      </c>
-      <c r="BM49" s="18">
-        <f>AVERAGE(B49:BK49)</f>
+      <c r="BM49">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="BN49" s="18">
+        <f t="shared" si="5"/>
         <v>5.75</v>
       </c>
-      <c r="BN49">
-        <f>IF(BL49&gt;1,_xlfn.STDEV.S(B49:BK49),"")</f>
+      <c r="BO49">
+        <f t="shared" si="6"/>
         <v>1.7677669529663689</v>
       </c>
-      <c r="BO49">
+      <c r="BP49">
         <v>0</v>
       </c>
-      <c r="BQ49">
-        <f>AVERAGE(AI49:AK49)</f>
+      <c r="BR49">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>342</v>
       </c>
@@ -9235,27 +9292,27 @@
       <c r="BA50">
         <v>4</v>
       </c>
-      <c r="BL50">
-        <f>COUNT(B50:BK50)</f>
-        <v>2</v>
-      </c>
-      <c r="BM50" s="18">
-        <f>AVERAGE(B50:BK50)</f>
-        <v>5</v>
-      </c>
-      <c r="BN50">
-        <f>IF(BL50&gt;1,_xlfn.STDEV.S(B50:BK50),"")</f>
+      <c r="BM50">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="BN50" s="18">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="BO50">
+        <f t="shared" si="6"/>
         <v>1.4142135623730951</v>
       </c>
-      <c r="BO50">
+      <c r="BP50">
         <v>0</v>
       </c>
-      <c r="BQ50" t="e">
-        <f>AVERAGE(AI50:AK50)</f>
+      <c r="BR50" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>361</v>
       </c>
@@ -9265,27 +9322,27 @@
       <c r="BF51">
         <v>5</v>
       </c>
-      <c r="BL51">
-        <f>COUNT(B51:BK51)</f>
-        <v>2</v>
-      </c>
-      <c r="BM51" s="18">
-        <f>AVERAGE(B51:BK51)</f>
-        <v>5</v>
-      </c>
-      <c r="BN51">
-        <f>IF(BL51&gt;1,_xlfn.STDEV.S(B51:BK51),"")</f>
+      <c r="BM51">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="BN51" s="18">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="BO51">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO51">
+      <c r="BP51">
         <v>0</v>
       </c>
-      <c r="BQ51" t="e">
-        <f>AVERAGE(AI51:AK51)</f>
+      <c r="BR51" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>369</v>
       </c>
@@ -9295,27 +9352,27 @@
       <c r="BH52">
         <v>4.5</v>
       </c>
-      <c r="BL52">
-        <f>COUNT(B52:BK52)</f>
-        <v>2</v>
-      </c>
-      <c r="BM52" s="18">
-        <f>AVERAGE(B52:BK52)</f>
-        <v>5</v>
-      </c>
-      <c r="BN52">
-        <f>IF(BL52&gt;1,_xlfn.STDEV.S(B52:BK52),"")</f>
+      <c r="BM52">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="BN52" s="18">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="BO52">
+        <f t="shared" si="6"/>
         <v>0.70710678118654757</v>
       </c>
-      <c r="BO52">
+      <c r="BP52">
         <v>0</v>
       </c>
-      <c r="BQ52" t="e">
-        <f>AVERAGE(AI52:AK52)</f>
+      <c r="BR52" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -9406,27 +9463,27 @@
       <c r="AD53">
         <v>9</v>
       </c>
-      <c r="BL53">
-        <f>COUNT(B53:BK53)</f>
-        <v>1</v>
-      </c>
-      <c r="BM53" s="18">
-        <f>AVERAGE(B53:BK53)</f>
+      <c r="BM53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BN53" s="18">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="BN53" t="str">
-        <f>IF(BL53&gt;1,_xlfn.STDEV.S(B53:BK53),"")</f>
+      <c r="BO53" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BO53">
+      <c r="BP53">
         <v>0</v>
       </c>
-      <c r="BQ53" t="e">
-        <f>AVERAGE(AI53:AK53)</f>
+      <c r="BR53" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -9517,27 +9574,27 @@
       <c r="AD54" t="s">
         <v>26</v>
       </c>
-      <c r="BL54">
-        <f>COUNT(B54:BK54)</f>
-        <v>1</v>
-      </c>
-      <c r="BM54" s="18">
-        <f>AVERAGE(B54:BK54)</f>
+      <c r="BM54">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BN54" s="18">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="BN54" t="str">
-        <f>IF(BL54&gt;1,_xlfn.STDEV.S(B54:BK54),"")</f>
+      <c r="BO54" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BO54">
+      <c r="BP54">
         <v>0</v>
       </c>
-      <c r="BQ54" t="e">
-        <f>AVERAGE(AI54:AK54)</f>
+      <c r="BR54" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>353</v>
       </c>
@@ -9625,27 +9682,27 @@
       <c r="AD55" t="s">
         <v>26</v>
       </c>
-      <c r="BL55">
-        <f>COUNT(B55:BK55)</f>
-        <v>1</v>
-      </c>
-      <c r="BM55" s="18">
-        <f>AVERAGE(B55:BK55)</f>
+      <c r="BM55">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BN55" s="18">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="BN55" t="str">
-        <f>IF(BL55&gt;1,_xlfn.STDEV.S(B55:BK55),"")</f>
+      <c r="BO55" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BO55">
+      <c r="BP55">
         <v>0</v>
       </c>
-      <c r="BQ55" t="e">
-        <f>AVERAGE(AI55:AK55)</f>
+      <c r="BR55" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -9736,27 +9793,27 @@
       <c r="AD56" t="s">
         <v>26</v>
       </c>
-      <c r="BL56">
-        <f>COUNT(B56:BK56)</f>
-        <v>1</v>
-      </c>
-      <c r="BM56" s="18">
-        <f>AVERAGE(B56:BK56)</f>
+      <c r="BM56">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BN56" s="18">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="BN56" t="str">
-        <f>IF(BL56&gt;1,_xlfn.STDEV.S(B56:BK56),"")</f>
+      <c r="BO56" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BO56">
+      <c r="BP56">
         <v>0</v>
       </c>
-      <c r="BQ56" t="e">
-        <f>AVERAGE(AI56:AK56)</f>
+      <c r="BR56" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -9847,27 +9904,27 @@
       <c r="AD57" t="s">
         <v>26</v>
       </c>
-      <c r="BL57">
-        <f>COUNT(B57:BK57)</f>
-        <v>1</v>
-      </c>
-      <c r="BM57" s="18">
-        <f>AVERAGE(B57:BK57)</f>
-        <v>6</v>
-      </c>
-      <c r="BN57" t="str">
-        <f>IF(BL57&gt;1,_xlfn.STDEV.S(B57:BK57),"")</f>
+      <c r="BM57">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BN57" s="18">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="BO57" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BO57">
+      <c r="BP57">
         <v>0</v>
       </c>
-      <c r="BQ57" t="e">
-        <f>AVERAGE(AI57:AK57)</f>
+      <c r="BR57" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -9958,27 +10015,27 @@
       <c r="AD58" t="s">
         <v>26</v>
       </c>
-      <c r="BL58">
-        <f>COUNT(B58:BK58)</f>
-        <v>1</v>
-      </c>
-      <c r="BM58" s="18">
-        <f>AVERAGE(B58:BK58)</f>
+      <c r="BM58">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BN58" s="18">
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="BN58" t="str">
-        <f>IF(BL58&gt;1,_xlfn.STDEV.S(B58:BK58),"")</f>
+      <c r="BO58" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BO58">
+      <c r="BP58">
         <v>0</v>
       </c>
-      <c r="BQ58" t="e">
-        <f>AVERAGE(AI58:AK58)</f>
+      <c r="BR58" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -10069,27 +10126,27 @@
       <c r="AD59" t="s">
         <v>26</v>
       </c>
-      <c r="BL59">
-        <f>COUNT(B59:BK59)</f>
-        <v>1</v>
-      </c>
-      <c r="BM59" s="18">
-        <f>AVERAGE(B59:BK59)</f>
+      <c r="BM59">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BN59" s="18">
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="BN59" t="str">
-        <f>IF(BL59&gt;1,_xlfn.STDEV.S(B59:BK59),"")</f>
+      <c r="BO59" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BO59">
+      <c r="BP59">
         <v>0</v>
       </c>
-      <c r="BQ59" t="e">
-        <f>AVERAGE(AI59:AK59)</f>
+      <c r="BR59" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -10180,216 +10237,216 @@
       <c r="AD60" t="s">
         <v>26</v>
       </c>
-      <c r="BL60">
-        <f>COUNT(B60:BK60)</f>
-        <v>1</v>
-      </c>
-      <c r="BM60" s="18">
-        <f>AVERAGE(B60:BK60)</f>
-        <v>4</v>
-      </c>
-      <c r="BN60" t="str">
-        <f>IF(BL60&gt;1,_xlfn.STDEV.S(B60:BK60),"")</f>
+      <c r="BM60">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BN60" s="18">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="BO60" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BO60">
+      <c r="BP60">
         <v>0</v>
       </c>
-      <c r="BQ60" t="e">
-        <f>AVERAGE(AI60:AK60)</f>
+      <c r="BR60" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>345</v>
       </c>
       <c r="AN61">
         <v>3</v>
       </c>
-      <c r="BL61">
-        <f>COUNT(B61:BK61)</f>
-        <v>1</v>
-      </c>
-      <c r="BM61" s="18">
-        <f>AVERAGE(B61:BK61)</f>
+      <c r="BM61">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BN61" s="18">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="BN61" t="str">
-        <f>IF(BL61&gt;1,_xlfn.STDEV.S(B61:BK61),"")</f>
+      <c r="BO61" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BO61">
+      <c r="BP61">
         <v>0</v>
       </c>
-      <c r="BQ61" t="e">
-        <f>AVERAGE(AI61:AK61)</f>
+      <c r="BR61" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>347</v>
       </c>
       <c r="AP62">
         <v>5.5</v>
       </c>
-      <c r="BL62">
-        <f>COUNT(B62:BK62)</f>
-        <v>1</v>
-      </c>
-      <c r="BM62" s="18">
-        <f>AVERAGE(B62:BK62)</f>
+      <c r="BM62">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BN62" s="18">
+        <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
-      <c r="BN62" t="str">
-        <f>IF(BL62&gt;1,_xlfn.STDEV.S(B62:BK62),"")</f>
+      <c r="BO62" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BO62">
+      <c r="BP62">
         <v>0</v>
       </c>
-      <c r="BQ62" t="e">
-        <f>AVERAGE(AI62:AK62)</f>
+      <c r="BR62" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>350</v>
       </c>
       <c r="AR63">
         <v>4</v>
       </c>
-      <c r="BL63">
-        <f>COUNT(B63:BK63)</f>
-        <v>1</v>
-      </c>
-      <c r="BM63" s="18">
-        <f>AVERAGE(B63:BK63)</f>
-        <v>4</v>
-      </c>
-      <c r="BN63" t="str">
-        <f>IF(BL63&gt;1,_xlfn.STDEV.S(B63:BK63),"")</f>
+      <c r="BM63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BN63" s="18">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="BO63" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BO63">
+      <c r="BP63">
         <v>0</v>
       </c>
-      <c r="BQ63" t="e">
-        <f>AVERAGE(AI63:AK63)</f>
+      <c r="BR63" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>351</v>
       </c>
       <c r="AS64">
         <v>5.5</v>
       </c>
-      <c r="BL64">
-        <f>COUNT(B64:BK64)</f>
-        <v>1</v>
-      </c>
-      <c r="BM64" s="18">
-        <f>AVERAGE(B64:BK64)</f>
+      <c r="BM64">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BN64" s="18">
+        <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
-      <c r="BN64" t="str">
-        <f>IF(BL64&gt;1,_xlfn.STDEV.S(B64:BK64),"")</f>
+      <c r="BO64" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BO64">
+      <c r="BP64">
         <v>0</v>
       </c>
-      <c r="BQ64" t="e">
-        <f>AVERAGE(AI64:AK64)</f>
+      <c r="BR64" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>352</v>
       </c>
       <c r="AS65">
         <v>4.5</v>
       </c>
-      <c r="BL65">
-        <f>COUNT(B65:BK65)</f>
-        <v>1</v>
-      </c>
-      <c r="BM65" s="18">
-        <f>AVERAGE(B65:BK65)</f>
+      <c r="BM65">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BN65" s="18">
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="BN65" t="str">
-        <f>IF(BL65&gt;1,_xlfn.STDEV.S(B65:BK65),"")</f>
+      <c r="BO65" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BO65">
+      <c r="BP65">
         <v>0</v>
       </c>
-      <c r="BQ65" t="e">
-        <f>AVERAGE(AI65:AK65)</f>
+      <c r="BR65" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>354</v>
       </c>
       <c r="AU66">
         <v>5</v>
       </c>
-      <c r="BL66">
-        <f>COUNT(B66:BK66)</f>
-        <v>1</v>
-      </c>
-      <c r="BM66" s="18">
-        <f>AVERAGE(B66:BK66)</f>
-        <v>5</v>
-      </c>
-      <c r="BN66" t="str">
-        <f>IF(BL66&gt;1,_xlfn.STDEV.S(B66:BK66),"")</f>
+      <c r="BM66">
+        <f t="shared" ref="BM66:BM97" si="8">COUNT(B66:BL66)</f>
+        <v>1</v>
+      </c>
+      <c r="BN66" s="18">
+        <f t="shared" ref="BN66:BN71" si="9">AVERAGE(B66:BL66)</f>
+        <v>5</v>
+      </c>
+      <c r="BO66" t="str">
+        <f t="shared" ref="BO66:BO71" si="10">IF(BM66&gt;1,_xlfn.STDEV.S(B66:BL66),"")</f>
         <v/>
       </c>
-      <c r="BO66">
+      <c r="BP66">
         <v>0</v>
       </c>
-      <c r="BQ66" t="e">
-        <f>AVERAGE(AI66:AK66)</f>
+      <c r="BR66" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>362</v>
       </c>
       <c r="AW67">
         <v>4.5</v>
       </c>
-      <c r="BL67">
-        <f>COUNT(B67:BK67)</f>
-        <v>1</v>
-      </c>
-      <c r="BM67" s="18">
-        <f>AVERAGE(B67:BK67)</f>
+      <c r="BM67">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BN67" s="18">
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
-      <c r="BN67" t="str">
-        <f>IF(BL67&gt;1,_xlfn.STDEV.S(B67:BK67),"")</f>
+      <c r="BO67" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BO67">
+      <c r="BP67">
         <v>0</v>
       </c>
-      <c r="BQ67" t="e">
-        <f>AVERAGE(AI67:AK67)</f>
+      <c r="BR67" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>364</v>
       </c>
@@ -10399,114 +10456,114 @@
       <c r="BJ68">
         <v>5.5</v>
       </c>
-      <c r="BL68">
-        <f>COUNT(B68:BK68)</f>
-        <v>2</v>
-      </c>
-      <c r="BM68" s="18">
-        <f>AVERAGE(B68:BK68)</f>
+      <c r="BM68">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="BN68" s="18">
+        <f t="shared" si="9"/>
         <v>5.5</v>
       </c>
-      <c r="BN68">
-        <f>IF(BL68&gt;1,_xlfn.STDEV.S(B68:BK68),"")</f>
+      <c r="BO68">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BO68">
+      <c r="BP68">
         <v>0</v>
       </c>
-      <c r="BQ68" t="e">
-        <f>AVERAGE(AI68:AK68)</f>
+      <c r="BR68" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>365</v>
       </c>
       <c r="AZ69">
         <v>2.5</v>
       </c>
-      <c r="BL69">
-        <f>COUNT(B69:BK69)</f>
-        <v>1</v>
-      </c>
-      <c r="BM69" s="18">
-        <f>AVERAGE(B69:BK69)</f>
+      <c r="BM69">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BN69" s="18">
+        <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
-      <c r="BN69" t="str">
-        <f>IF(BL69&gt;1,_xlfn.STDEV.S(B69:BK69),"")</f>
+      <c r="BO69" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BO69">
+      <c r="BP69">
         <v>0</v>
       </c>
-      <c r="BQ69" t="e">
-        <f>AVERAGE(AI69:AK69)</f>
+      <c r="BR69" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>366</v>
       </c>
       <c r="BB70">
         <v>3</v>
       </c>
-      <c r="BL70">
-        <f>COUNT(B70:BK70)</f>
-        <v>1</v>
-      </c>
-      <c r="BM70" s="18">
-        <f>AVERAGE(B70:BK70)</f>
+      <c r="BM70">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BN70" s="18">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="BN70" t="str">
-        <f>IF(BL70&gt;1,_xlfn.STDEV.S(B70:BK70),"")</f>
+      <c r="BO70" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BO70">
+      <c r="BP70">
         <v>0</v>
       </c>
-      <c r="BQ70" t="e">
-        <f>AVERAGE(AI70:AK70)</f>
+      <c r="BR70" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>368</v>
       </c>
       <c r="BF71">
         <v>7.5</v>
       </c>
-      <c r="BL71">
-        <f>COUNT(B71:BK71)</f>
-        <v>1</v>
-      </c>
-      <c r="BM71" s="18">
-        <f>AVERAGE(B71:BK71)</f>
+      <c r="BM71">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BN71" s="18">
+        <f t="shared" si="9"/>
         <v>7.5</v>
       </c>
-      <c r="BN71" t="str">
-        <f>IF(BL71&gt;1,_xlfn.STDEV.S(B71:BK71),"")</f>
+      <c r="BO71" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BO71">
+      <c r="BP71">
         <v>0</v>
       </c>
-      <c r="BQ71" t="e">
-        <f t="shared" ref="BQ71" si="0">AVERAGE(AI71:AK71)</f>
+      <c r="BR71" t="e">
+        <f t="shared" ref="BR71" si="11">AVERAGE(AI71:AK71)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BO71" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
-    <sortState ref="A2:BO71">
-      <sortCondition descending="1" ref="BL1:BL71"/>
+  <autoFilter ref="A1:BP71" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}">
+    <sortState ref="A2:BP71">
+      <sortCondition descending="1" ref="BM1:BM71"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="BL2:BL68 BL70:BL71">
+  <conditionalFormatting sqref="BM2:BM68 BM70:BM71">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -10518,7 +10575,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN2:BN68 BN70:BN71">
+  <conditionalFormatting sqref="BO2:BO68 BO70:BO71">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -10530,7 +10587,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL2:BL68 BL71">
+  <conditionalFormatting sqref="BM2:BM68 BM71">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -10542,7 +10599,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM2:BM68 BM70:BM71">
+  <conditionalFormatting sqref="BN2:BN68 BN70:BN71">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -10554,7 +10611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM2:BM68 BM71">
+  <conditionalFormatting sqref="BN2:BN68 BN71">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -10626,7 +10683,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL2:BL68">
+  <conditionalFormatting sqref="BM2:BM68">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -10638,7 +10695,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM2:BM68">
+  <conditionalFormatting sqref="BN2:BN68">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -10662,7 +10719,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ2:BQ71">
+  <conditionalFormatting sqref="BR2:BR71">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -10686,7 +10743,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL69">
+  <conditionalFormatting sqref="BM69">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -10698,7 +10755,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN69">
+  <conditionalFormatting sqref="BO69">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -10710,7 +10767,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL69">
+  <conditionalFormatting sqref="BM69">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10722,7 +10779,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM69">
+  <conditionalFormatting sqref="BN69">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10734,7 +10791,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM69">
+  <conditionalFormatting sqref="BN69">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10746,7 +10803,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL69">
+  <conditionalFormatting sqref="BM69">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10758,7 +10815,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM69">
+  <conditionalFormatting sqref="BN69">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -10770,7 +10827,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC39:BJ67 AA2:BJ38">
+  <conditionalFormatting sqref="BC39:BK67 AA2:BK38">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -10782,7 +10839,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC48:BJ67 AA2:BJ47">
+  <conditionalFormatting sqref="BC48:BK67 AA2:BK47">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -10794,7 +10851,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC43:BJ67 AA2:BJ42">
+  <conditionalFormatting sqref="BC43:BK67 AA2:BK42">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -13945,10 +14002,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X182"/>
+  <dimension ref="A1:X185"/>
   <sheetViews>
     <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180:O182"/>
+      <selection activeCell="I184" sqref="I184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22677,7 +22734,7 @@
         <v>19</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>370</v>
+        <v>16</v>
       </c>
       <c r="N175" s="2" t="s">
         <v>4</v>
@@ -23014,6 +23071,156 @@
         <v>10</v>
       </c>
       <c r="P182" s="58"/>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A183" s="14">
+        <v>45889</v>
+      </c>
+      <c r="B183" s="3">
+        <v>6</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H183" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I183" s="9">
+        <v>7</v>
+      </c>
+      <c r="J183" s="10">
+        <v>6</v>
+      </c>
+      <c r="K183" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L183" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M183" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N183" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O183" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P183" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A184" s="14">
+        <v>45889</v>
+      </c>
+      <c r="B184" s="3">
+        <v>4</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F184" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G184" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H184" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I184" s="11">
+        <v>4</v>
+      </c>
+      <c r="J184" s="2">
+        <v>5</v>
+      </c>
+      <c r="K184" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L184" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M184" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N184" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O184" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="P184" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A185" s="14">
+        <v>45889</v>
+      </c>
+      <c r="B185" s="5">
+        <v>6</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I185" s="5">
+        <v>5</v>
+      </c>
+      <c r="J185" s="8">
+        <v>8</v>
+      </c>
+      <c r="K185" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L185" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M185" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N185" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O185" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P185" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23022,11 +23229,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DDCCA6-42DC-4211-A42F-70F3625FA6AA}">
-  <dimension ref="A1:AQ71"/>
+  <dimension ref="A1:AR71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A71" sqref="A71:XFD71"/>
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR72" sqref="AR72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23043,10 +23250,10 @@
     <col min="30" max="32" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="34" max="36" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="39" max="41" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23176,8 +23383,11 @@
       <c r="AQ1" s="1">
         <v>45882</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR1" s="1">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -23208,13 +23418,16 @@
       <c r="AP2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AR2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -23249,12 +23462,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -23262,7 +23475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>364</v>
       </c>
@@ -23273,7 +23486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -23281,7 +23494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>353</v>
       </c>
@@ -23289,27 +23502,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -23347,7 +23560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -23378,8 +23591,11 @@
       <c r="AK15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -23393,7 +23609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -23437,7 +23653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -23499,7 +23715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -23521,8 +23737,11 @@
       <c r="AO19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -23619,8 +23838,11 @@
       <c r="AQ20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>342</v>
       </c>
@@ -23634,17 +23856,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -23658,7 +23880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -23710,8 +23932,11 @@
       <c r="AQ25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>361</v>
       </c>
@@ -23722,7 +23947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -23802,7 +24027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>351</v>
       </c>
@@ -23810,7 +24035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -23883,8 +24108,11 @@
       <c r="AN29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -23979,7 +24207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -23987,7 +24215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -23995,7 +24223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -24065,8 +24293,11 @@
       <c r="AP33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -24074,7 +24305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -24094,7 +24325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -24102,7 +24333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>368</v>
       </c>
@@ -24110,7 +24341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>345</v>
       </c>
@@ -24118,7 +24349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>343</v>
       </c>
@@ -24126,7 +24357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>344</v>
       </c>
@@ -24140,7 +24371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -24219,8 +24450,11 @@
       <c r="AQ41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -24246,7 +24480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -24263,12 +24497,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -24333,7 +24567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>369</v>
       </c>
@@ -24341,7 +24575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -24349,7 +24583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>340</v>
       </c>
@@ -24372,17 +24606,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -24447,12 +24681,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -24463,7 +24697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -24480,12 +24714,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -24501,8 +24735,11 @@
       <c r="AI56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -24524,8 +24761,11 @@
       <c r="AQ57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -24542,12 +24782,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -24639,7 +24879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -24647,7 +24887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -24661,7 +24901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -24755,8 +24995,11 @@
       <c r="AL63">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AR63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -24764,7 +25007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>367</v>
       </c>
@@ -24813,8 +25056,11 @@
       <c r="AO65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AR65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>352</v>
       </c>
@@ -24822,12 +25068,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -24841,7 +25087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -24849,7 +25095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -24964,8 +25210,11 @@
       <c r="AQ70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:43" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AR70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:44" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>47</v>
       </c>

--- a/data/condominio.xlsx
+++ b/data/condominio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{3301BA68-12D0-40C9-B688-C3CDAD7A5CAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3161A0F0-2BEA-484C-88B1-B05C475C97A1}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{3301BA68-12D0-40C9-B688-C3CDAD7A5CAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C5F97469-B7F2-402A-A87F-2E1B27BB050C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,17 +23,17 @@
     <sheet name="artilharia total" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">artilharia!$A$1:$AB$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">artilharia!$A$1:$AB$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'artilharia total'!$A$1:$AI$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'extrato 2024'!$A$1:$C$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$BR$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$BS$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4175" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="375">
   <si>
     <t>Jogador</t>
   </si>
@@ -1155,6 +1155,9 @@
   </si>
   <si>
     <t>mensalidade</t>
+  </si>
+  <si>
+    <t>Ricardo flamengo</t>
   </si>
 </sst>
 </file>
@@ -2032,50 +2035,50 @@
     </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Moeda" xfId="42" builtinId="4"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="42" builtinId="4"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Porcentagem" xfId="43" builtinId="5"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="43" builtinId="5"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2091,7 +2094,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2387,11 +2390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT71"/>
+  <dimension ref="A1:BU72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM27" sqref="BM27"/>
+      <selection pane="topRight" activeCell="BJ32" sqref="BJ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2415,10 +2418,11 @@
     <col min="49" max="49" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="50" max="63" width="9.54296875" customWidth="1"/>
     <col min="64" max="65" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.54296875" customWidth="1"/>
+    <col min="66" max="66" width="10.453125" customWidth="1"/>
+    <col min="67" max="67" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2614,21 +2618,24 @@
       <c r="BM1" s="1">
         <v>45903</v>
       </c>
-      <c r="BN1" s="1"/>
-      <c r="BO1" t="s">
+      <c r="BN1" s="1">
+        <v>45910</v>
+      </c>
+      <c r="BO1" s="1"/>
+      <c r="BP1" t="s">
         <v>57</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>58</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>59</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2815,27 +2822,27 @@
       <c r="BM2">
         <v>5</v>
       </c>
-      <c r="BO2">
-        <f>COUNT(B2:BM2)</f>
+      <c r="BP2">
+        <f t="shared" ref="BP2:BP11" si="0">COUNT(B2:BM2)</f>
         <v>60</v>
       </c>
-      <c r="BP2" s="18">
-        <f>AVERAGE(B2:BM2)</f>
+      <c r="BQ2" s="18">
+        <f t="shared" ref="BQ2:BQ11" si="1">AVERAGE(B2:BM2)</f>
         <v>5.791666666666667</v>
       </c>
-      <c r="BQ2">
-        <f t="shared" ref="BQ2:BQ33" si="0">IF(BO2&gt;1,_xlfn.STDEV.S(B2:BL2),"")</f>
+      <c r="BR2">
+        <f t="shared" ref="BR2:BR33" si="2">IF(BP2&gt;1,_xlfn.STDEV.S(B2:BL2),"")</f>
         <v>1.0788601470219685</v>
       </c>
-      <c r="BR2">
-        <v>1</v>
-      </c>
-      <c r="BT2">
-        <f t="shared" ref="BT2:BT33" si="1">AVERAGE(AI2:AK2)</f>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <f t="shared" ref="BU2:BU33" si="3">AVERAGE(AI2:AK2)</f>
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3007,27 +3014,27 @@
       <c r="BM3">
         <v>5</v>
       </c>
-      <c r="BO3">
-        <f>COUNT(B3:BM3)</f>
+      <c r="BP3">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="BP3" s="18">
-        <f>AVERAGE(B3:BM3)</f>
+      <c r="BQ3" s="18">
+        <f t="shared" si="1"/>
         <v>6.12</v>
       </c>
-      <c r="BQ3">
-        <f t="shared" si="0"/>
+      <c r="BR3">
+        <f t="shared" si="2"/>
         <v>0.96824583655185426</v>
       </c>
-      <c r="BR3">
-        <v>1</v>
-      </c>
-      <c r="BT3">
-        <f t="shared" si="1"/>
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BU3">
+        <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3214,27 +3221,30 @@
       <c r="BM4">
         <v>5.5</v>
       </c>
-      <c r="BO4">
-        <f>COUNT(B4:BM4)</f>
-        <v>42</v>
-      </c>
-      <c r="BP4" s="18">
-        <f>AVERAGE(B4:BM4)</f>
-        <v>6.083333333333333</v>
-      </c>
-      <c r="BQ4">
-        <f t="shared" si="0"/>
+      <c r="BN4">
+        <v>5</v>
+      </c>
+      <c r="BP4">
+        <f>COUNT(B4:BN4)</f>
+        <v>43</v>
+      </c>
+      <c r="BQ4" s="18">
+        <f>AVERAGE(B4:BN4)</f>
+        <v>6.058139534883721</v>
+      </c>
+      <c r="BR4">
+        <f t="shared" si="2"/>
         <v>1.0013710113834042</v>
       </c>
-      <c r="BR4">
-        <v>1</v>
-      </c>
-      <c r="BT4">
-        <f t="shared" si="1"/>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
+        <f t="shared" si="3"/>
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3391,27 +3401,27 @@
       <c r="BM5">
         <v>5</v>
       </c>
-      <c r="BO5">
-        <f>COUNT(B5:BM5)</f>
+      <c r="BP5">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="BP5" s="18">
-        <f>AVERAGE(B5:BM5)</f>
-        <v>6</v>
-      </c>
-      <c r="BQ5">
-        <f t="shared" si="0"/>
+      <c r="BQ5" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="BR5">
+        <f t="shared" si="2"/>
         <v>1.0714184108439166</v>
       </c>
-      <c r="BR5">
-        <v>1</v>
-      </c>
-      <c r="BT5" t="e">
-        <f t="shared" si="1"/>
+      <c r="BS5">
+        <v>1</v>
+      </c>
+      <c r="BU5" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3595,27 +3605,30 @@
       <c r="BM6">
         <v>4</v>
       </c>
-      <c r="BO6">
-        <f>COUNT(B6:BM6)</f>
-        <v>58</v>
-      </c>
-      <c r="BP6" s="18">
-        <f>AVERAGE(B6:BM6)</f>
-        <v>5.4913793103448274</v>
-      </c>
-      <c r="BQ6">
-        <f t="shared" si="0"/>
+      <c r="BN6">
+        <v>5</v>
+      </c>
+      <c r="BP6">
+        <f>COUNT(B6:BN6)</f>
+        <v>59</v>
+      </c>
+      <c r="BQ6" s="18">
+        <f>AVERAGE(B6:BN6)</f>
+        <v>5.4830508474576272</v>
+      </c>
+      <c r="BR6">
+        <f t="shared" si="2"/>
         <v>0.89624669894142928</v>
       </c>
-      <c r="BR6">
-        <v>1</v>
-      </c>
-      <c r="BT6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BS6">
+        <v>1</v>
+      </c>
+      <c r="BU6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -3778,27 +3791,30 @@
       <c r="BM7">
         <v>5.5</v>
       </c>
-      <c r="BO7">
-        <f>COUNT(B7:BM7)</f>
-        <v>51</v>
-      </c>
-      <c r="BP7" s="18">
-        <f>AVERAGE(B7:BM7)</f>
-        <v>6.3235294117647056</v>
-      </c>
-      <c r="BQ7">
-        <f t="shared" si="0"/>
+      <c r="BN7">
+        <v>6.5</v>
+      </c>
+      <c r="BP7">
+        <f>COUNT(B7:BN7)</f>
+        <v>52</v>
+      </c>
+      <c r="BQ7" s="18">
+        <f>AVERAGE(B7:BN7)</f>
+        <v>6.3269230769230766</v>
+      </c>
+      <c r="BR7">
+        <f t="shared" si="2"/>
         <v>0.85975791561891901</v>
       </c>
-      <c r="BR7">
-        <v>1</v>
-      </c>
-      <c r="BT7">
-        <f t="shared" si="1"/>
+      <c r="BS7">
+        <v>1</v>
+      </c>
+      <c r="BU7">
+        <f t="shared" si="3"/>
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3988,27 +4004,30 @@
       <c r="BM8">
         <v>6</v>
       </c>
-      <c r="BO8">
-        <f>COUNT(B8:BM8)</f>
-        <v>50</v>
-      </c>
-      <c r="BP8" s="18">
-        <f>AVERAGE(B8:BM8)</f>
-        <v>6.04</v>
-      </c>
-      <c r="BQ8">
-        <f t="shared" si="0"/>
+      <c r="BN8">
+        <v>6</v>
+      </c>
+      <c r="BP8">
+        <f>COUNT(B8:BN8)</f>
+        <v>51</v>
+      </c>
+      <c r="BQ8" s="18">
+        <f>AVERAGE(B8:BN8)</f>
+        <v>6.0392156862745097</v>
+      </c>
+      <c r="BR8">
+        <f t="shared" si="2"/>
         <v>1.0647609996588709</v>
       </c>
-      <c r="BR8">
-        <v>1</v>
-      </c>
-      <c r="BT8">
-        <f t="shared" si="1"/>
+      <c r="BS8">
+        <v>1</v>
+      </c>
+      <c r="BU8">
+        <f t="shared" si="3"/>
         <v>5.25</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -4171,27 +4190,30 @@
       <c r="BM9">
         <v>5</v>
       </c>
-      <c r="BO9">
-        <f>COUNT(B9:BM9)</f>
-        <v>46</v>
-      </c>
-      <c r="BP9" s="18">
-        <f>AVERAGE(B9:BM9)</f>
-        <v>5.5760869565217392</v>
-      </c>
-      <c r="BQ9">
-        <f t="shared" si="0"/>
+      <c r="BN9">
+        <v>5.5</v>
+      </c>
+      <c r="BP9">
+        <f>COUNT(B9:BN9)</f>
+        <v>47</v>
+      </c>
+      <c r="BQ9" s="18">
+        <f>AVERAGE(B9:BN9)</f>
+        <v>5.5744680851063828</v>
+      </c>
+      <c r="BR9">
+        <f t="shared" si="2"/>
         <v>0.72526553827553375</v>
       </c>
-      <c r="BR9">
-        <v>1</v>
-      </c>
-      <c r="BT9">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BS9">
+        <v>1</v>
+      </c>
+      <c r="BU9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>367</v>
       </c>
@@ -4345,27 +4367,30 @@
       <c r="BM10">
         <v>5.5</v>
       </c>
-      <c r="BO10">
-        <f>COUNT(B10:BM10)</f>
-        <v>43</v>
-      </c>
-      <c r="BP10" s="18">
-        <f>AVERAGE(B10:BM10)</f>
-        <v>6.0930232558139537</v>
-      </c>
-      <c r="BQ10">
-        <f t="shared" si="0"/>
+      <c r="BN10">
+        <v>5.5</v>
+      </c>
+      <c r="BP10">
+        <f>COUNT(B10:BN10)</f>
+        <v>44</v>
+      </c>
+      <c r="BQ10" s="18">
+        <f>AVERAGE(B10:BN10)</f>
+        <v>6.0795454545454541</v>
+      </c>
+      <c r="BR10">
+        <f t="shared" si="2"/>
         <v>1.1344694380737386</v>
       </c>
-      <c r="BR10">
-        <v>1</v>
-      </c>
-      <c r="BT10">
-        <f t="shared" si="1"/>
+      <c r="BS10">
+        <v>1</v>
+      </c>
+      <c r="BU10">
+        <f t="shared" si="3"/>
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4483,27 +4508,30 @@
       <c r="BM11">
         <v>5</v>
       </c>
-      <c r="BO11">
-        <f>COUNT(B11:BM11)</f>
-        <v>26</v>
-      </c>
-      <c r="BP11" s="18">
-        <f>AVERAGE(B11:BM11)</f>
-        <v>5.6923076923076925</v>
-      </c>
-      <c r="BQ11">
-        <f t="shared" si="0"/>
+      <c r="BN11">
+        <v>5.5</v>
+      </c>
+      <c r="BP11">
+        <f>COUNT(B11:BN11)</f>
+        <v>27</v>
+      </c>
+      <c r="BQ11" s="18">
+        <f>AVERAGE(B11:BN11)</f>
+        <v>5.6851851851851851</v>
+      </c>
+      <c r="BR11">
+        <f t="shared" si="2"/>
         <v>0.97979589711327053</v>
       </c>
-      <c r="BR11">
-        <v>1</v>
-      </c>
-      <c r="BT11" t="e">
-        <f t="shared" si="1"/>
+      <c r="BS11">
+        <v>1</v>
+      </c>
+      <c r="BU11" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -4624,27 +4652,27 @@
       <c r="BL12">
         <v>5</v>
       </c>
-      <c r="BO12">
-        <f t="shared" ref="BO2:BO33" si="2">COUNT(B12:BL12)</f>
+      <c r="BP12">
+        <f t="shared" ref="BP12:BP33" si="4">COUNT(B12:BL12)</f>
         <v>20</v>
       </c>
-      <c r="BP12" s="18">
-        <f t="shared" ref="BP2:BP33" si="3">AVERAGE(B12:BL12)</f>
+      <c r="BQ12" s="18">
+        <f t="shared" ref="BQ12:BQ33" si="5">AVERAGE(B12:BL12)</f>
         <v>4.875</v>
       </c>
-      <c r="BQ12">
-        <f t="shared" si="0"/>
+      <c r="BR12">
+        <f t="shared" si="2"/>
         <v>1.1106541457982981</v>
       </c>
-      <c r="BR12">
-        <v>1</v>
-      </c>
-      <c r="BT12">
-        <f t="shared" si="1"/>
+      <c r="BS12">
+        <v>1</v>
+      </c>
+      <c r="BU12">
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4807,27 +4835,30 @@
       <c r="BM13">
         <v>5</v>
       </c>
-      <c r="BO13">
-        <f>COUNT(B13:BM13)</f>
-        <v>50</v>
-      </c>
-      <c r="BP13" s="18">
-        <f>AVERAGE(B13:BM13)</f>
-        <v>5.54</v>
-      </c>
-      <c r="BQ13">
-        <f t="shared" si="0"/>
+      <c r="BN13">
+        <v>6</v>
+      </c>
+      <c r="BP13">
+        <f>COUNT(B13:BN13)</f>
+        <v>51</v>
+      </c>
+      <c r="BQ13" s="18">
+        <f>AVERAGE(B13:BN13)</f>
+        <v>5.5490196078431371</v>
+      </c>
+      <c r="BR13">
+        <f t="shared" si="2"/>
         <v>0.88532537544575252</v>
       </c>
-      <c r="BR13">
-        <v>1</v>
-      </c>
-      <c r="BT13">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BS13">
+        <v>1</v>
+      </c>
+      <c r="BU13">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -4969,27 +5000,30 @@
       <c r="BM14">
         <v>5</v>
       </c>
-      <c r="BO14">
-        <f>COUNT(B14:BM14)</f>
-        <v>41</v>
-      </c>
-      <c r="BP14" s="18">
-        <f>AVERAGE(B14:BM14)</f>
-        <v>5.4390243902439028</v>
-      </c>
-      <c r="BQ14">
-        <f t="shared" si="0"/>
+      <c r="BN14">
+        <v>5.5</v>
+      </c>
+      <c r="BP14">
+        <f>COUNT(B14:BN14)</f>
+        <v>42</v>
+      </c>
+      <c r="BQ14" s="18">
+        <f>AVERAGE(B14:BN14)</f>
+        <v>5.4404761904761907</v>
+      </c>
+      <c r="BR14">
+        <f t="shared" si="2"/>
         <v>0.86824314212446052</v>
       </c>
-      <c r="BR14">
-        <v>1</v>
-      </c>
-      <c r="BT14">
-        <f t="shared" si="1"/>
+      <c r="BS14">
+        <v>1</v>
+      </c>
+      <c r="BU14">
+        <f t="shared" si="3"/>
         <v>4.75</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -5143,27 +5177,27 @@
       <c r="BL15">
         <v>4.5</v>
       </c>
-      <c r="BO15">
+      <c r="BP15">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="BQ15" s="18">
+        <f t="shared" si="5"/>
+        <v>4.7222222222222223</v>
+      </c>
+      <c r="BR15">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="BP15" s="18">
+        <v>0.96409915438567728</v>
+      </c>
+      <c r="BS15">
+        <v>1</v>
+      </c>
+      <c r="BU15">
         <f t="shared" si="3"/>
-        <v>4.7222222222222223</v>
-      </c>
-      <c r="BQ15">
-        <f t="shared" si="0"/>
-        <v>0.96409915438567728</v>
-      </c>
-      <c r="BR15">
-        <v>1</v>
-      </c>
-      <c r="BT15">
-        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -5320,27 +5354,27 @@
       <c r="BM16">
         <v>5</v>
       </c>
-      <c r="BO16">
+      <c r="BP16">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="BQ16" s="18">
+        <f t="shared" si="5"/>
+        <v>4.5128205128205128</v>
+      </c>
+      <c r="BR16">
         <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="BP16" s="18">
+        <v>1.0226846731132633</v>
+      </c>
+      <c r="BS16">
+        <v>1</v>
+      </c>
+      <c r="BU16">
         <f t="shared" si="3"/>
-        <v>4.5128205128205128</v>
-      </c>
-      <c r="BQ16">
-        <f t="shared" si="0"/>
-        <v>1.0226846731132633</v>
-      </c>
-      <c r="BR16">
-        <v>1</v>
-      </c>
-      <c r="BT16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -5518,27 +5552,30 @@
       <c r="BM17">
         <v>4</v>
       </c>
-      <c r="BO17">
-        <f>COUNT(B17:BM17)</f>
-        <v>55</v>
-      </c>
-      <c r="BP17" s="18">
-        <f>AVERAGE(B17:BM17)</f>
-        <v>5.7363636363636363</v>
-      </c>
-      <c r="BQ17">
-        <f t="shared" si="0"/>
+      <c r="BN17">
+        <v>5.5</v>
+      </c>
+      <c r="BP17">
+        <f>COUNT(B17:BN17)</f>
+        <v>56</v>
+      </c>
+      <c r="BQ17" s="18">
+        <f>AVERAGE(B17:BN17)</f>
+        <v>5.7321428571428568</v>
+      </c>
+      <c r="BR17">
+        <f t="shared" si="2"/>
         <v>0.90965970707153054</v>
       </c>
-      <c r="BR17">
-        <v>1</v>
-      </c>
-      <c r="BT17">
-        <f t="shared" si="1"/>
+      <c r="BS17">
+        <v>1</v>
+      </c>
+      <c r="BU17">
+        <f t="shared" si="3"/>
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -5710,27 +5747,30 @@
       <c r="BM18">
         <v>4.5</v>
       </c>
-      <c r="BO18">
+      <c r="BN18">
+        <v>7</v>
+      </c>
+      <c r="BP18">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="BQ18" s="18">
+        <f t="shared" si="5"/>
+        <v>5.4883720930232558</v>
+      </c>
+      <c r="BR18">
         <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="BP18" s="18">
+        <v>1.03790294580801</v>
+      </c>
+      <c r="BS18">
+        <v>1</v>
+      </c>
+      <c r="BU18">
         <f t="shared" si="3"/>
-        <v>5.4883720930232558</v>
-      </c>
-      <c r="BQ18">
-        <f t="shared" si="0"/>
-        <v>1.03790294580801</v>
-      </c>
-      <c r="BR18">
-        <v>1</v>
-      </c>
-      <c r="BT18">
-        <f t="shared" si="1"/>
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -5869,27 +5909,30 @@
       <c r="BM19">
         <v>5</v>
       </c>
-      <c r="BO19">
+      <c r="BN19">
+        <v>4.5</v>
+      </c>
+      <c r="BP19">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="BQ19" s="18">
+        <f t="shared" si="5"/>
+        <v>5.8888888888888893</v>
+      </c>
+      <c r="BR19">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="BP19" s="18">
+        <v>0.86971849262290324</v>
+      </c>
+      <c r="BS19">
+        <v>1</v>
+      </c>
+      <c r="BU19" t="e">
         <f t="shared" si="3"/>
-        <v>5.8888888888888893</v>
-      </c>
-      <c r="BQ19">
-        <f t="shared" si="0"/>
-        <v>0.86971849262290324</v>
-      </c>
-      <c r="BR19">
-        <v>1</v>
-      </c>
-      <c r="BT19" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -5995,27 +6038,30 @@
       <c r="BL20">
         <v>4.5</v>
       </c>
-      <c r="BO20">
+      <c r="BN20">
+        <v>4.5</v>
+      </c>
+      <c r="BP20">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="BQ20" s="18">
+        <f t="shared" si="5"/>
+        <v>4.625</v>
+      </c>
+      <c r="BR20">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="BP20" s="18">
+        <v>0.64086994446165568</v>
+      </c>
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
         <f t="shared" si="3"/>
-        <v>4.625</v>
-      </c>
-      <c r="BQ20">
-        <f t="shared" si="0"/>
-        <v>0.64086994446165568</v>
-      </c>
-      <c r="BR20">
-        <v>0</v>
-      </c>
-      <c r="BT20">
-        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -6187,27 +6233,27 @@
       <c r="BL21">
         <v>6</v>
       </c>
-      <c r="BO21">
+      <c r="BP21">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="BQ21" s="18">
+        <f t="shared" si="5"/>
+        <v>6.7346938775510203</v>
+      </c>
+      <c r="BR21">
         <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="BP21" s="18">
+        <v>1.1994010693550636</v>
+      </c>
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
         <f t="shared" si="3"/>
-        <v>6.7346938775510203</v>
-      </c>
-      <c r="BQ21">
-        <f t="shared" si="0"/>
-        <v>1.1994010693550636</v>
-      </c>
-      <c r="BR21">
-        <v>0</v>
-      </c>
-      <c r="BT21">
-        <f t="shared" si="1"/>
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -6373,27 +6419,30 @@
       <c r="BM22">
         <v>5</v>
       </c>
-      <c r="BO22">
+      <c r="BN22">
+        <v>5.5</v>
+      </c>
+      <c r="BP22">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="BQ22" s="18">
+        <f t="shared" si="5"/>
+        <v>5.1538461538461542</v>
+      </c>
+      <c r="BR22">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="BP22" s="18">
+        <v>0.6598368096617635</v>
+      </c>
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BU22">
         <f t="shared" si="3"/>
-        <v>5.1538461538461542</v>
-      </c>
-      <c r="BQ22">
-        <f t="shared" si="0"/>
-        <v>0.6598368096617635</v>
-      </c>
-      <c r="BR22">
-        <v>0</v>
-      </c>
-      <c r="BT22">
-        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -6517,27 +6566,27 @@
       <c r="BK23">
         <v>4</v>
       </c>
-      <c r="BO23">
+      <c r="BP23">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="BQ23" s="18">
+        <f t="shared" si="5"/>
+        <v>4.5333333333333332</v>
+      </c>
+      <c r="BR23">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="BP23" s="18">
+        <v>1.0431180365113237</v>
+      </c>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BU23">
         <f t="shared" si="3"/>
-        <v>4.5333333333333332</v>
-      </c>
-      <c r="BQ23">
-        <f t="shared" si="0"/>
-        <v>1.0431180365113237</v>
-      </c>
-      <c r="BR23">
-        <v>0</v>
-      </c>
-      <c r="BT23">
-        <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -6652,27 +6701,30 @@
       <c r="BJ24">
         <v>5.5</v>
       </c>
-      <c r="BO24">
+      <c r="BN24">
+        <v>5</v>
+      </c>
+      <c r="BP24">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="BQ24" s="18">
+        <f t="shared" si="5"/>
+        <v>5.8928571428571432</v>
+      </c>
+      <c r="BR24">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="BP24" s="18">
+        <v>1.0410529327518412</v>
+      </c>
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="e">
         <f t="shared" si="3"/>
-        <v>5.8928571428571432</v>
-      </c>
-      <c r="BQ24">
-        <f t="shared" si="0"/>
-        <v>1.0410529327518412</v>
-      </c>
-      <c r="BR24">
-        <v>0</v>
-      </c>
-      <c r="BT24" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6778,27 +6830,27 @@
       <c r="BK25">
         <v>6</v>
       </c>
-      <c r="BO25">
+      <c r="BP25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="BQ25" s="18">
+        <f t="shared" si="5"/>
+        <v>6.25</v>
+      </c>
+      <c r="BR25">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="BP25" s="18">
+        <v>0.9414688716912718</v>
+      </c>
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="e">
         <f t="shared" si="3"/>
-        <v>6.25</v>
-      </c>
-      <c r="BQ25">
-        <f t="shared" si="0"/>
-        <v>0.9414688716912718</v>
-      </c>
-      <c r="BR25">
-        <v>0</v>
-      </c>
-      <c r="BT25" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>343</v>
       </c>
@@ -6904,27 +6956,30 @@
       <c r="BM26">
         <v>5</v>
       </c>
-      <c r="BO26">
+      <c r="BN26">
+        <v>5</v>
+      </c>
+      <c r="BP26">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="BQ26" s="18">
+        <f t="shared" si="5"/>
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="BR26">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="BP26" s="18">
+        <v>1.1143009766964516</v>
+      </c>
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="e">
         <f t="shared" si="3"/>
-        <v>3.9166666666666665</v>
-      </c>
-      <c r="BQ26">
-        <f t="shared" si="0"/>
-        <v>1.1143009766964516</v>
-      </c>
-      <c r="BR26">
-        <v>0</v>
-      </c>
-      <c r="BT26" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -7018,27 +7073,27 @@
       <c r="BJ27">
         <v>5</v>
       </c>
-      <c r="BO27">
+      <c r="BP27">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="BQ27" s="18">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="BR27">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="BP27" s="18">
+        <v>1.8027756377319946</v>
+      </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="e">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="BQ27">
-        <f t="shared" si="0"/>
-        <v>1.8027756377319946</v>
-      </c>
-      <c r="BR27">
-        <v>0</v>
-      </c>
-      <c r="BT27" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>364</v>
       </c>
@@ -7048,192 +7103,192 @@
       <c r="BJ28">
         <v>5.5</v>
       </c>
-      <c r="BO28">
+      <c r="BP28">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="BQ28" s="18">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="BR28">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="BP28" s="18">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:73" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q29">
+        <v>5.5</v>
+      </c>
+      <c r="R29" t="s">
+        <v>26</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29" t="s">
+        <v>26</v>
+      </c>
+      <c r="U29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V29">
+        <v>7</v>
+      </c>
+      <c r="W29" t="s">
+        <v>26</v>
+      </c>
+      <c r="X29">
+        <v>6</v>
+      </c>
+      <c r="Y29">
+        <v>7</v>
+      </c>
+      <c r="Z29">
+        <v>7</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB29">
+        <v>7</v>
+      </c>
+      <c r="AC29">
+        <v>4.5</v>
+      </c>
+      <c r="AD29">
+        <v>7</v>
+      </c>
+      <c r="AE29">
+        <v>6</v>
+      </c>
+      <c r="AF29">
+        <v>5</v>
+      </c>
+      <c r="AG29">
+        <v>6.5</v>
+      </c>
+      <c r="AH29">
+        <v>6.5</v>
+      </c>
+      <c r="AI29">
+        <v>6.5</v>
+      </c>
+      <c r="AJ29">
+        <v>5</v>
+      </c>
+      <c r="AK29">
+        <v>5</v>
+      </c>
+      <c r="AL29">
+        <v>6</v>
+      </c>
+      <c r="AM29">
+        <v>5</v>
+      </c>
+      <c r="AO29">
+        <v>5</v>
+      </c>
+      <c r="AP29">
+        <v>5.5</v>
+      </c>
+      <c r="AQ29">
+        <v>4.5</v>
+      </c>
+      <c r="AR29">
+        <v>5</v>
+      </c>
+      <c r="AS29">
+        <v>5</v>
+      </c>
+      <c r="AT29">
+        <v>5</v>
+      </c>
+      <c r="AU29">
+        <v>6</v>
+      </c>
+      <c r="AV29">
+        <v>4.5</v>
+      </c>
+      <c r="AW29">
+        <v>5</v>
+      </c>
+      <c r="BP29">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="BQ29" s="18">
+        <f t="shared" si="5"/>
+        <v>5.7407407407407405</v>
+      </c>
+      <c r="BR29">
+        <f t="shared" si="2"/>
+        <v>0.90267093384844077</v>
+      </c>
+      <c r="BS29">
+        <v>0</v>
+      </c>
+      <c r="BU29">
         <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
-      <c r="BQ28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BR28">
-        <v>0</v>
-      </c>
-      <c r="BT28" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" t="s">
-        <v>26</v>
-      </c>
-      <c r="O29" t="s">
-        <v>26</v>
-      </c>
-      <c r="P29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q29">
-        <v>5.5</v>
-      </c>
-      <c r="R29" t="s">
-        <v>26</v>
-      </c>
-      <c r="S29">
-        <v>7</v>
-      </c>
-      <c r="T29" t="s">
-        <v>26</v>
-      </c>
-      <c r="U29" t="s">
-        <v>26</v>
-      </c>
-      <c r="V29">
-        <v>7</v>
-      </c>
-      <c r="W29" t="s">
-        <v>26</v>
-      </c>
-      <c r="X29">
-        <v>6</v>
-      </c>
-      <c r="Y29">
-        <v>7</v>
-      </c>
-      <c r="Z29">
-        <v>7</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB29">
-        <v>7</v>
-      </c>
-      <c r="AC29">
-        <v>4.5</v>
-      </c>
-      <c r="AD29">
-        <v>7</v>
-      </c>
-      <c r="AE29">
-        <v>6</v>
-      </c>
-      <c r="AF29">
-        <v>5</v>
-      </c>
-      <c r="AG29">
-        <v>6.5</v>
-      </c>
-      <c r="AH29">
-        <v>6.5</v>
-      </c>
-      <c r="AI29">
-        <v>6.5</v>
-      </c>
-      <c r="AJ29">
-        <v>5</v>
-      </c>
-      <c r="AK29">
-        <v>5</v>
-      </c>
-      <c r="AL29">
-        <v>6</v>
-      </c>
-      <c r="AM29">
-        <v>5</v>
-      </c>
-      <c r="AO29">
-        <v>5</v>
-      </c>
-      <c r="AP29">
-        <v>5.5</v>
-      </c>
-      <c r="AQ29">
-        <v>4.5</v>
-      </c>
-      <c r="AR29">
-        <v>5</v>
-      </c>
-      <c r="AS29">
-        <v>5</v>
-      </c>
-      <c r="AT29">
-        <v>5</v>
-      </c>
-      <c r="AU29">
-        <v>6</v>
-      </c>
-      <c r="AV29">
-        <v>4.5</v>
-      </c>
-      <c r="AW29">
-        <v>5</v>
-      </c>
-      <c r="BO29">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="BP29" s="18">
-        <f t="shared" si="3"/>
-        <v>5.7407407407407405</v>
-      </c>
-      <c r="BQ29">
-        <f t="shared" si="0"/>
-        <v>0.90267093384844077</v>
-      </c>
-      <c r="BR29">
-        <v>0</v>
-      </c>
-      <c r="BT29">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -7372,27 +7427,27 @@
       <c r="BB30">
         <v>4.5</v>
       </c>
-      <c r="BO30">
+      <c r="BP30">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="BQ30" s="18">
+        <f t="shared" si="5"/>
+        <v>5.1190476190476186</v>
+      </c>
+      <c r="BR30">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="BP30" s="18">
+        <v>0.75671596231284044</v>
+      </c>
+      <c r="BS30">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="e">
         <f t="shared" si="3"/>
-        <v>5.1190476190476186</v>
-      </c>
-      <c r="BQ30">
-        <f t="shared" si="0"/>
-        <v>0.75671596231284044</v>
-      </c>
-      <c r="BR30">
-        <v>0</v>
-      </c>
-      <c r="BT30" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -7498,27 +7553,27 @@
       <c r="BA31">
         <v>5</v>
       </c>
-      <c r="BO31">
+      <c r="BP31">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="BQ31" s="18">
+        <f t="shared" si="5"/>
+        <v>5.8421052631578947</v>
+      </c>
+      <c r="BR31">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="BP31" s="18">
+        <v>0.95819030206465661</v>
+      </c>
+      <c r="BS31">
+        <v>0</v>
+      </c>
+      <c r="BU31">
         <f t="shared" si="3"/>
-        <v>5.8421052631578947</v>
-      </c>
-      <c r="BQ31">
-        <f t="shared" si="0"/>
-        <v>0.95819030206465661</v>
-      </c>
-      <c r="BR31">
-        <v>0</v>
-      </c>
-      <c r="BT31">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -7627,27 +7682,27 @@
       <c r="AV32">
         <v>4.5</v>
       </c>
-      <c r="BO32">
+      <c r="BP32">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="BQ32" s="18">
+        <f t="shared" si="5"/>
+        <v>5.4411764705882355</v>
+      </c>
+      <c r="BR32">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="BP32" s="18">
+        <v>1.0880365478290537</v>
+      </c>
+      <c r="BS32">
+        <v>0</v>
+      </c>
+      <c r="BU32">
         <f t="shared" si="3"/>
-        <v>5.4411764705882355</v>
-      </c>
-      <c r="BQ32">
-        <f t="shared" si="0"/>
-        <v>1.0880365478290537</v>
-      </c>
-      <c r="BR32">
-        <v>0</v>
-      </c>
-      <c r="BT32">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>346</v>
       </c>
@@ -7696,27 +7751,27 @@
       <c r="BG33">
         <v>5</v>
       </c>
-      <c r="BO33">
+      <c r="BP33">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="BQ33" s="18">
+        <f t="shared" si="5"/>
+        <v>5.2</v>
+      </c>
+      <c r="BR33">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="BP33" s="18">
+        <v>0.5277986629117476</v>
+      </c>
+      <c r="BS33">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="e">
         <f t="shared" si="3"/>
-        <v>5.2</v>
-      </c>
-      <c r="BQ33">
-        <f t="shared" si="0"/>
-        <v>0.5277986629117476</v>
-      </c>
-      <c r="BR33">
-        <v>0</v>
-      </c>
-      <c r="BT33" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -7807,27 +7862,27 @@
       <c r="AD34">
         <v>6</v>
       </c>
-      <c r="BO34">
-        <f t="shared" ref="BO34:BO65" si="4">COUNT(B34:BL34)</f>
+      <c r="BP34">
+        <f t="shared" ref="BP34:BP65" si="6">COUNT(B34:BL34)</f>
         <v>13</v>
       </c>
-      <c r="BP34" s="18">
-        <f t="shared" ref="BP34:BP65" si="5">AVERAGE(B34:BL34)</f>
+      <c r="BQ34" s="18">
+        <f t="shared" ref="BQ34:BQ65" si="7">AVERAGE(B34:BL34)</f>
         <v>4.4615384615384617</v>
       </c>
-      <c r="BQ34">
-        <f t="shared" ref="BQ34:BQ65" si="6">IF(BO34&gt;1,_xlfn.STDEV.S(B34:BL34),"")</f>
+      <c r="BR34">
+        <f t="shared" ref="BR34:BR65" si="8">IF(BP34&gt;1,_xlfn.STDEV.S(B34:BL34),"")</f>
         <v>1.875961292039569</v>
       </c>
-      <c r="BR34">
+      <c r="BS34">
         <v>0</v>
       </c>
-      <c r="BT34" t="e">
-        <f t="shared" ref="BT34:BT70" si="7">AVERAGE(AI34:AK34)</f>
+      <c r="BU34" t="e">
+        <f t="shared" ref="BU34:BU70" si="9">AVERAGE(AI34:AK34)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -7927,27 +7982,27 @@
       <c r="BB35">
         <v>5</v>
       </c>
-      <c r="BO35">
-        <f t="shared" si="4"/>
+      <c r="BP35">
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="BP35" s="18">
-        <f t="shared" si="5"/>
+      <c r="BQ35" s="18">
+        <f t="shared" si="7"/>
         <v>6.9230769230769234</v>
       </c>
-      <c r="BQ35">
-        <f t="shared" si="6"/>
+      <c r="BR35">
+        <f t="shared" si="8"/>
         <v>1.1336914969498575</v>
       </c>
-      <c r="BR35">
+      <c r="BS35">
         <v>0</v>
       </c>
-      <c r="BT35" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU35" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -8047,27 +8102,27 @@
       <c r="BF36">
         <v>4.5</v>
       </c>
-      <c r="BO36">
-        <f t="shared" si="4"/>
+      <c r="BP36">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="BP36" s="18">
-        <f t="shared" si="5"/>
+      <c r="BQ36" s="18">
+        <f t="shared" si="7"/>
         <v>4.95</v>
       </c>
-      <c r="BQ36">
-        <f t="shared" si="6"/>
+      <c r="BR36">
+        <f t="shared" si="8"/>
         <v>0.64334196885395889</v>
       </c>
-      <c r="BR36">
+      <c r="BS36">
         <v>0</v>
       </c>
-      <c r="BT36" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU36" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -8158,27 +8213,27 @@
       <c r="AD37" t="s">
         <v>26</v>
       </c>
-      <c r="BO37">
-        <f t="shared" si="4"/>
+      <c r="BP37">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="BP37" s="18">
-        <f t="shared" si="5"/>
+      <c r="BQ37" s="18">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="BQ37">
-        <f t="shared" si="6"/>
+      <c r="BR37">
+        <f t="shared" si="8"/>
         <v>0.61237243569579447</v>
       </c>
-      <c r="BR37">
+      <c r="BS37">
         <v>0</v>
       </c>
-      <c r="BT37" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU37" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>340</v>
       </c>
@@ -8203,27 +8258,27 @@
       <c r="AS38">
         <v>5</v>
       </c>
-      <c r="BO38">
-        <f t="shared" si="4"/>
+      <c r="BP38">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="BP38" s="18">
-        <f t="shared" si="5"/>
+      <c r="BQ38" s="18">
+        <f t="shared" si="7"/>
         <v>5.0714285714285712</v>
       </c>
-      <c r="BQ38">
-        <f t="shared" si="6"/>
+      <c r="BR38">
+        <f t="shared" si="8"/>
         <v>0.34503277967117707</v>
       </c>
-      <c r="BR38">
+      <c r="BS38">
         <v>0</v>
       </c>
-      <c r="BT38">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BU38">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -8314,27 +8369,27 @@
       <c r="AD39" t="s">
         <v>26</v>
       </c>
-      <c r="BO39">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="BP39" s="18">
-        <f t="shared" si="5"/>
+      <c r="BP39">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="BQ39" s="18">
+        <f t="shared" si="7"/>
         <v>7.625</v>
       </c>
-      <c r="BQ39">
-        <f t="shared" si="6"/>
+      <c r="BR39">
+        <f t="shared" si="8"/>
         <v>0.62915286960589578</v>
       </c>
-      <c r="BR39">
+      <c r="BS39">
         <v>0</v>
       </c>
-      <c r="BT39" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU39" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -8425,27 +8480,27 @@
       <c r="AD40" t="s">
         <v>26</v>
       </c>
-      <c r="BO40">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="BP40" s="18">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="BQ40">
+      <c r="BP40">
         <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="BQ40" s="18">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="BR40">
+        <f t="shared" si="8"/>
         <v>0.70710678118654757</v>
       </c>
-      <c r="BR40">
+      <c r="BS40">
         <v>0</v>
       </c>
-      <c r="BT40" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU40" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -8539,27 +8594,27 @@
       <c r="AO41">
         <v>5.5</v>
       </c>
-      <c r="BO41">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="BP41" s="18">
-        <f t="shared" si="5"/>
+      <c r="BP41">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="BQ41" s="18">
+        <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
-      <c r="BQ41">
-        <f t="shared" si="6"/>
+      <c r="BR41">
+        <f t="shared" si="8"/>
         <v>0.9128709291752769</v>
       </c>
-      <c r="BR41">
+      <c r="BS41">
         <v>0</v>
       </c>
-      <c r="BT41" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU41" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -8656,27 +8711,27 @@
       <c r="AU42">
         <v>4</v>
       </c>
-      <c r="BO42">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="BP42" s="18">
-        <f t="shared" si="5"/>
+      <c r="BP42">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="BQ42" s="18">
+        <f t="shared" si="7"/>
         <v>2.375</v>
       </c>
-      <c r="BQ42">
-        <f t="shared" si="6"/>
+      <c r="BR42">
+        <f t="shared" si="8"/>
         <v>1.3768926368215255</v>
       </c>
-      <c r="BR42">
+      <c r="BS42">
         <v>0</v>
       </c>
-      <c r="BT42" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU42" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>344</v>
       </c>
@@ -8692,480 +8747,480 @@
       <c r="AY43">
         <v>5.5</v>
       </c>
-      <c r="BO43">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="BP43" s="18">
-        <f t="shared" si="5"/>
+      <c r="BP43">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="BQ43" s="18">
+        <f t="shared" si="7"/>
         <v>4.25</v>
       </c>
-      <c r="BQ43">
+      <c r="BR43">
+        <f t="shared" si="8"/>
+        <v>0.9574271077563381</v>
+      </c>
+      <c r="BS43">
+        <v>0</v>
+      </c>
+      <c r="BU43">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:73" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" t="s">
+        <v>26</v>
+      </c>
+      <c r="O44" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q44">
+        <v>6</v>
+      </c>
+      <c r="R44">
+        <v>6</v>
+      </c>
+      <c r="S44" t="s">
+        <v>26</v>
+      </c>
+      <c r="T44" t="s">
+        <v>26</v>
+      </c>
+      <c r="U44" t="s">
+        <v>26</v>
+      </c>
+      <c r="V44" t="s">
+        <v>26</v>
+      </c>
+      <c r="W44" t="s">
+        <v>26</v>
+      </c>
+      <c r="X44" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP44">
         <f t="shared" si="6"/>
-        <v>0.9574271077563381</v>
-      </c>
-      <c r="BR43">
+        <v>3</v>
+      </c>
+      <c r="BQ44" s="18">
+        <f t="shared" si="7"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="BR44">
+        <f t="shared" si="8"/>
+        <v>1.1547005383792526</v>
+      </c>
+      <c r="BS44">
         <v>0</v>
       </c>
-      <c r="BT43">
+      <c r="BU44" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:73" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O45" t="s">
+        <v>26</v>
+      </c>
+      <c r="P45" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>26</v>
+      </c>
+      <c r="R45">
+        <v>4.5</v>
+      </c>
+      <c r="S45" t="s">
+        <v>26</v>
+      </c>
+      <c r="T45">
+        <v>4</v>
+      </c>
+      <c r="U45">
+        <v>4</v>
+      </c>
+      <c r="V45" t="s">
+        <v>26</v>
+      </c>
+      <c r="W45" t="s">
+        <v>26</v>
+      </c>
+      <c r="X45" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP45">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="BQ45" s="18">
+        <f t="shared" si="7"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="BR45">
+        <f t="shared" si="8"/>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="BS45">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:73" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" t="s">
+        <v>26</v>
+      </c>
+      <c r="O46" t="s">
+        <v>26</v>
+      </c>
+      <c r="P46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>26</v>
+      </c>
+      <c r="R46" t="s">
+        <v>26</v>
+      </c>
+      <c r="S46" t="s">
+        <v>26</v>
+      </c>
+      <c r="T46" t="s">
+        <v>26</v>
+      </c>
+      <c r="U46" t="s">
+        <v>26</v>
+      </c>
+      <c r="V46" t="s">
+        <v>26</v>
+      </c>
+      <c r="W46" t="s">
+        <v>26</v>
+      </c>
+      <c r="X46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD46">
+        <v>7</v>
+      </c>
+      <c r="AE46">
+        <v>7</v>
+      </c>
+      <c r="AF46">
+        <v>9</v>
+      </c>
+      <c r="BP46">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="BQ46" s="18">
+        <f t="shared" si="7"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="BR46">
+        <f t="shared" si="8"/>
+        <v>1.1547005383792495</v>
+      </c>
+      <c r="BS46">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:73" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47">
+        <v>5.5</v>
+      </c>
+      <c r="J47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" t="s">
+        <v>26</v>
+      </c>
+      <c r="O47" t="s">
+        <v>26</v>
+      </c>
+      <c r="P47" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>26</v>
+      </c>
+      <c r="R47" t="s">
+        <v>26</v>
+      </c>
+      <c r="S47" t="s">
+        <v>26</v>
+      </c>
+      <c r="T47" t="s">
+        <v>26</v>
+      </c>
+      <c r="U47" t="s">
+        <v>26</v>
+      </c>
+      <c r="V47" t="s">
+        <v>26</v>
+      </c>
+      <c r="W47" t="s">
+        <v>26</v>
+      </c>
+      <c r="X47" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z47">
+        <v>5.5</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG47">
+        <v>2.5</v>
+      </c>
+      <c r="BP47">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="BQ47" s="18">
         <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" t="s">
-        <v>26</v>
-      </c>
-      <c r="K44" t="s">
-        <v>26</v>
-      </c>
-      <c r="L44" t="s">
-        <v>26</v>
-      </c>
-      <c r="M44" t="s">
-        <v>26</v>
-      </c>
-      <c r="N44" t="s">
-        <v>26</v>
-      </c>
-      <c r="O44" t="s">
-        <v>26</v>
-      </c>
-      <c r="P44" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q44">
-        <v>6</v>
-      </c>
-      <c r="R44">
-        <v>6</v>
-      </c>
-      <c r="S44" t="s">
-        <v>26</v>
-      </c>
-      <c r="T44" t="s">
-        <v>26</v>
-      </c>
-      <c r="U44" t="s">
-        <v>26</v>
-      </c>
-      <c r="V44" t="s">
-        <v>26</v>
-      </c>
-      <c r="W44" t="s">
-        <v>26</v>
-      </c>
-      <c r="X44" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>26</v>
-      </c>
-      <c r="BO44">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="BP44" s="18">
-        <f t="shared" si="5"/>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="BQ44">
-        <f t="shared" si="6"/>
-        <v>1.1547005383792526</v>
-      </c>
-      <c r="BR44">
+      <c r="BR47">
+        <f t="shared" si="8"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="BS47">
         <v>0</v>
       </c>
-      <c r="BT44" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU47" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" t="s">
-        <v>26</v>
-      </c>
-      <c r="K45" t="s">
-        <v>26</v>
-      </c>
-      <c r="L45" t="s">
-        <v>26</v>
-      </c>
-      <c r="M45" t="s">
-        <v>26</v>
-      </c>
-      <c r="N45" t="s">
-        <v>26</v>
-      </c>
-      <c r="O45" t="s">
-        <v>26</v>
-      </c>
-      <c r="P45" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>26</v>
-      </c>
-      <c r="R45">
-        <v>4.5</v>
-      </c>
-      <c r="S45" t="s">
-        <v>26</v>
-      </c>
-      <c r="T45">
-        <v>4</v>
-      </c>
-      <c r="U45">
-        <v>4</v>
-      </c>
-      <c r="V45" t="s">
-        <v>26</v>
-      </c>
-      <c r="W45" t="s">
-        <v>26</v>
-      </c>
-      <c r="X45" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>26</v>
-      </c>
-      <c r="BO45">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="BP45" s="18">
-        <f t="shared" si="5"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="BQ45">
-        <f t="shared" si="6"/>
-        <v>0.28867513459481287</v>
-      </c>
-      <c r="BR45">
-        <v>0</v>
-      </c>
-      <c r="BT45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" t="s">
-        <v>26</v>
-      </c>
-      <c r="K46" t="s">
-        <v>26</v>
-      </c>
-      <c r="L46" t="s">
-        <v>26</v>
-      </c>
-      <c r="M46" t="s">
-        <v>26</v>
-      </c>
-      <c r="N46" t="s">
-        <v>26</v>
-      </c>
-      <c r="O46" t="s">
-        <v>26</v>
-      </c>
-      <c r="P46" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>26</v>
-      </c>
-      <c r="R46" t="s">
-        <v>26</v>
-      </c>
-      <c r="S46" t="s">
-        <v>26</v>
-      </c>
-      <c r="T46" t="s">
-        <v>26</v>
-      </c>
-      <c r="U46" t="s">
-        <v>26</v>
-      </c>
-      <c r="V46" t="s">
-        <v>26</v>
-      </c>
-      <c r="W46" t="s">
-        <v>26</v>
-      </c>
-      <c r="X46" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD46">
-        <v>7</v>
-      </c>
-      <c r="AE46">
-        <v>7</v>
-      </c>
-      <c r="AF46">
-        <v>9</v>
-      </c>
-      <c r="BO46">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="BP46" s="18">
-        <f t="shared" si="5"/>
-        <v>7.666666666666667</v>
-      </c>
-      <c r="BQ46">
-        <f t="shared" si="6"/>
-        <v>1.1547005383792495</v>
-      </c>
-      <c r="BR46">
-        <v>0</v>
-      </c>
-      <c r="BT46" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47">
-        <v>5.5</v>
-      </c>
-      <c r="J47" t="s">
-        <v>26</v>
-      </c>
-      <c r="K47" t="s">
-        <v>26</v>
-      </c>
-      <c r="L47" t="s">
-        <v>26</v>
-      </c>
-      <c r="M47" t="s">
-        <v>26</v>
-      </c>
-      <c r="N47" t="s">
-        <v>26</v>
-      </c>
-      <c r="O47" t="s">
-        <v>26</v>
-      </c>
-      <c r="P47" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>26</v>
-      </c>
-      <c r="R47" t="s">
-        <v>26</v>
-      </c>
-      <c r="S47" t="s">
-        <v>26</v>
-      </c>
-      <c r="T47" t="s">
-        <v>26</v>
-      </c>
-      <c r="U47" t="s">
-        <v>26</v>
-      </c>
-      <c r="V47" t="s">
-        <v>26</v>
-      </c>
-      <c r="W47" t="s">
-        <v>26</v>
-      </c>
-      <c r="X47" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z47">
-        <v>5.5</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG47">
-        <v>2.5</v>
-      </c>
-      <c r="BO47">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="BP47" s="18">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
-      <c r="BQ47">
-        <f t="shared" si="6"/>
-        <v>1.7320508075688772</v>
-      </c>
-      <c r="BR47">
-        <v>0</v>
-      </c>
-      <c r="BT47" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -9259,27 +9314,27 @@
       <c r="AS48">
         <v>5</v>
       </c>
-      <c r="BO48">
-        <f t="shared" si="4"/>
+      <c r="BP48">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="BP48" s="18">
-        <f t="shared" si="5"/>
+      <c r="BQ48" s="18">
+        <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
-      <c r="BQ48">
-        <f t="shared" si="6"/>
+      <c r="BR48">
+        <f t="shared" si="8"/>
         <v>1.3228756555322954</v>
       </c>
-      <c r="BR48">
+      <c r="BS48">
         <v>0</v>
       </c>
-      <c r="BT48" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU48" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -9373,27 +9428,27 @@
       <c r="AG49">
         <v>5</v>
       </c>
-      <c r="BO49">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="BP49" s="18">
-        <f t="shared" si="5"/>
+      <c r="BP49">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="BQ49" s="18">
+        <f t="shared" si="7"/>
         <v>5.25</v>
       </c>
-      <c r="BQ49">
-        <f t="shared" si="6"/>
+      <c r="BR49">
+        <f t="shared" si="8"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="BR49">
+      <c r="BS49">
         <v>0</v>
       </c>
-      <c r="BT49" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU49" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>339</v>
       </c>
@@ -9403,339 +9458,342 @@
       <c r="AW50">
         <v>4.5</v>
       </c>
-      <c r="BO50">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="BP50" s="18">
-        <f t="shared" si="5"/>
+      <c r="BP50">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="BQ50" s="18">
+        <f t="shared" si="7"/>
         <v>5.75</v>
       </c>
-      <c r="BQ50">
+      <c r="BR50">
+        <f t="shared" si="8"/>
+        <v>1.7677669529663689</v>
+      </c>
+      <c r="BS50">
+        <v>0</v>
+      </c>
+      <c r="BU50">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:73" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>342</v>
+      </c>
+      <c r="AM51">
+        <v>6</v>
+      </c>
+      <c r="BA51">
+        <v>4</v>
+      </c>
+      <c r="BP51">
         <f t="shared" si="6"/>
-        <v>1.7677669529663689</v>
-      </c>
-      <c r="BR50">
+        <v>2</v>
+      </c>
+      <c r="BQ51" s="18">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="BR51">
+        <f t="shared" si="8"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="BS51">
         <v>0</v>
       </c>
-      <c r="BT50">
+      <c r="BU51" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:73" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>361</v>
+      </c>
+      <c r="AW52">
+        <v>5</v>
+      </c>
+      <c r="BF52">
+        <v>5</v>
+      </c>
+      <c r="BN52">
+        <v>6</v>
+      </c>
+      <c r="BP52">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="BQ52" s="18">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="BR52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BS52">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:73" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>369</v>
+      </c>
+      <c r="BG53">
+        <v>5.5</v>
+      </c>
+      <c r="BH53">
+        <v>4.5</v>
+      </c>
+      <c r="BP53">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="BQ53" s="18">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="BR53">
+        <f t="shared" si="8"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="BS53">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:73" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" t="s">
+        <v>26</v>
+      </c>
+      <c r="K54" t="s">
+        <v>26</v>
+      </c>
+      <c r="L54" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" t="s">
+        <v>26</v>
+      </c>
+      <c r="O54" t="s">
+        <v>26</v>
+      </c>
+      <c r="P54" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>26</v>
+      </c>
+      <c r="R54" t="s">
+        <v>26</v>
+      </c>
+      <c r="S54" t="s">
+        <v>26</v>
+      </c>
+      <c r="T54" t="s">
+        <v>26</v>
+      </c>
+      <c r="U54" t="s">
+        <v>26</v>
+      </c>
+      <c r="V54" t="s">
+        <v>26</v>
+      </c>
+      <c r="W54" t="s">
+        <v>26</v>
+      </c>
+      <c r="X54" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD54">
+        <v>9</v>
+      </c>
+      <c r="BP54">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BQ54" s="18">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="BR54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BS54">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:73" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" t="s">
+        <v>26</v>
+      </c>
+      <c r="K55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" t="s">
+        <v>26</v>
+      </c>
+      <c r="O55" t="s">
+        <v>26</v>
+      </c>
+      <c r="P55" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>26</v>
+      </c>
+      <c r="R55" t="s">
+        <v>26</v>
+      </c>
+      <c r="S55" t="s">
+        <v>26</v>
+      </c>
+      <c r="T55" t="s">
+        <v>26</v>
+      </c>
+      <c r="U55" t="s">
+        <v>26</v>
+      </c>
+      <c r="V55" t="s">
+        <v>26</v>
+      </c>
+      <c r="W55" t="s">
+        <v>26</v>
+      </c>
+      <c r="X55" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z55">
+        <v>7</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP55">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BQ55" s="18">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>342</v>
-      </c>
-      <c r="AM51">
-        <v>6</v>
-      </c>
-      <c r="BA51">
-        <v>4</v>
-      </c>
-      <c r="BO51">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="BP51" s="18">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="BQ51">
-        <f t="shared" si="6"/>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="BR51">
+      <c r="BR55" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BS55">
         <v>0</v>
       </c>
-      <c r="BT51" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU55" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>361</v>
-      </c>
-      <c r="AW52">
-        <v>5</v>
-      </c>
-      <c r="BF52">
-        <v>5</v>
-      </c>
-      <c r="BO52">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="BP52" s="18">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="BQ52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BR52">
-        <v>0</v>
-      </c>
-      <c r="BT52" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>369</v>
-      </c>
-      <c r="BG53">
-        <v>5.5</v>
-      </c>
-      <c r="BH53">
-        <v>4.5</v>
-      </c>
-      <c r="BO53">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="BP53" s="18">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="BQ53">
-        <f t="shared" si="6"/>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="BR53">
-        <v>0</v>
-      </c>
-      <c r="BT53" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" t="s">
-        <v>26</v>
-      </c>
-      <c r="J54" t="s">
-        <v>26</v>
-      </c>
-      <c r="K54" t="s">
-        <v>26</v>
-      </c>
-      <c r="L54" t="s">
-        <v>26</v>
-      </c>
-      <c r="M54" t="s">
-        <v>26</v>
-      </c>
-      <c r="N54" t="s">
-        <v>26</v>
-      </c>
-      <c r="O54" t="s">
-        <v>26</v>
-      </c>
-      <c r="P54" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>26</v>
-      </c>
-      <c r="R54" t="s">
-        <v>26</v>
-      </c>
-      <c r="S54" t="s">
-        <v>26</v>
-      </c>
-      <c r="T54" t="s">
-        <v>26</v>
-      </c>
-      <c r="U54" t="s">
-        <v>26</v>
-      </c>
-      <c r="V54" t="s">
-        <v>26</v>
-      </c>
-      <c r="W54" t="s">
-        <v>26</v>
-      </c>
-      <c r="X54" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD54">
-        <v>9</v>
-      </c>
-      <c r="BO54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BP54" s="18">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="BQ54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="BR54">
-        <v>0</v>
-      </c>
-      <c r="BT54" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" t="s">
-        <v>26</v>
-      </c>
-      <c r="J55" t="s">
-        <v>26</v>
-      </c>
-      <c r="K55" t="s">
-        <v>26</v>
-      </c>
-      <c r="L55" t="s">
-        <v>26</v>
-      </c>
-      <c r="M55" t="s">
-        <v>26</v>
-      </c>
-      <c r="N55" t="s">
-        <v>26</v>
-      </c>
-      <c r="O55" t="s">
-        <v>26</v>
-      </c>
-      <c r="P55" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>26</v>
-      </c>
-      <c r="R55" t="s">
-        <v>26</v>
-      </c>
-      <c r="S55" t="s">
-        <v>26</v>
-      </c>
-      <c r="T55" t="s">
-        <v>26</v>
-      </c>
-      <c r="U55" t="s">
-        <v>26</v>
-      </c>
-      <c r="V55" t="s">
-        <v>26</v>
-      </c>
-      <c r="W55" t="s">
-        <v>26</v>
-      </c>
-      <c r="X55" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z55">
-        <v>7</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>26</v>
-      </c>
-      <c r="BO55">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BP55" s="18">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="BQ55" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="BR55">
-        <v>0</v>
-      </c>
-      <c r="BT55" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>353</v>
       </c>
@@ -9823,27 +9881,27 @@
       <c r="AD56" t="s">
         <v>26</v>
       </c>
-      <c r="BO56">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BP56" s="18">
-        <f t="shared" si="5"/>
+      <c r="BP56">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BQ56" s="18">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="BQ56" t="str">
-        <f t="shared" si="6"/>
+      <c r="BR56" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BR56">
+      <c r="BS56">
         <v>0</v>
       </c>
-      <c r="BT56" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU56" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -9934,27 +9992,27 @@
       <c r="AD57" t="s">
         <v>26</v>
       </c>
-      <c r="BO57">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BP57" s="18">
-        <f t="shared" si="5"/>
+      <c r="BP57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BQ57" s="18">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="BQ57" t="str">
-        <f t="shared" si="6"/>
+      <c r="BR57" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BR57">
+      <c r="BS57">
         <v>0</v>
       </c>
-      <c r="BT57" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU57" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -10045,27 +10103,27 @@
       <c r="AD58" t="s">
         <v>26</v>
       </c>
-      <c r="BO58">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BP58" s="18">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="BQ58" t="str">
+      <c r="BP58">
         <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BQ58" s="18">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="BR58" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BR58">
+      <c r="BS58">
         <v>0</v>
       </c>
-      <c r="BT58" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU58" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -10156,27 +10214,27 @@
       <c r="AD59" t="s">
         <v>26</v>
       </c>
-      <c r="BO59">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BP59" s="18">
-        <f t="shared" si="5"/>
+      <c r="BP59">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BQ59" s="18">
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
-      <c r="BQ59" t="str">
-        <f t="shared" si="6"/>
+      <c r="BR59" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BR59">
+      <c r="BS59">
         <v>0</v>
       </c>
-      <c r="BT59" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU59" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -10267,27 +10325,27 @@
       <c r="AD60" t="s">
         <v>26</v>
       </c>
-      <c r="BO60">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BP60" s="18">
-        <f t="shared" si="5"/>
+      <c r="BP60">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BQ60" s="18">
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
-      <c r="BQ60" t="str">
-        <f t="shared" si="6"/>
+      <c r="BR60" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BR60">
+      <c r="BS60">
         <v>0</v>
       </c>
-      <c r="BT60" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU60" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -10378,300 +10436,351 @@
       <c r="AD61" t="s">
         <v>26</v>
       </c>
-      <c r="BO61">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BP61" s="18">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="BQ61" t="str">
+      <c r="BP61">
         <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BQ61" s="18">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="BR61" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BR61">
+      <c r="BS61">
         <v>0</v>
       </c>
-      <c r="BT61" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU61" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>345</v>
       </c>
       <c r="AN62">
         <v>3</v>
       </c>
-      <c r="BO62">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BP62" s="18">
-        <f t="shared" si="5"/>
+      <c r="BP62">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BQ62" s="18">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="BQ62" t="str">
-        <f t="shared" si="6"/>
+      <c r="BR62" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BR62">
+      <c r="BS62">
         <v>0</v>
       </c>
-      <c r="BT62" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU62" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>347</v>
       </c>
       <c r="AP63">
         <v>5.5</v>
       </c>
-      <c r="BO63">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BP63" s="18">
-        <f t="shared" si="5"/>
+      <c r="BP63">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BQ63" s="18">
+        <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="BQ63" t="str">
-        <f t="shared" si="6"/>
+      <c r="BR63" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BR63">
+      <c r="BS63">
         <v>0</v>
       </c>
-      <c r="BT63" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU63" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>350</v>
       </c>
       <c r="AR64">
         <v>4</v>
       </c>
-      <c r="BO64">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BP64" s="18">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="BQ64" t="str">
+      <c r="BP64">
         <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BQ64" s="18">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="BR64" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BR64">
+      <c r="BS64">
         <v>0</v>
       </c>
-      <c r="BT64" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU64" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>351</v>
       </c>
       <c r="AS65">
         <v>5.5</v>
       </c>
-      <c r="BO65">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BP65" s="18">
-        <f t="shared" si="5"/>
+      <c r="BP65">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BQ65" s="18">
+        <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
-      <c r="BQ65" t="str">
-        <f t="shared" si="6"/>
+      <c r="BR65" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BR65">
+      <c r="BS65">
         <v>0</v>
       </c>
-      <c r="BT65" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU65" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>352</v>
       </c>
       <c r="AS66">
         <v>4.5</v>
       </c>
-      <c r="BO66">
-        <f t="shared" ref="BO66:BO71" si="8">COUNT(B66:BL66)</f>
-        <v>1</v>
-      </c>
-      <c r="BP66" s="18">
-        <f t="shared" ref="BP66:BP71" si="9">AVERAGE(B66:BL66)</f>
+      <c r="BP66">
+        <f t="shared" ref="BP66:BP71" si="10">COUNT(B66:BL66)</f>
+        <v>1</v>
+      </c>
+      <c r="BQ66" s="18">
+        <f t="shared" ref="BQ66:BQ71" si="11">AVERAGE(B66:BL66)</f>
         <v>4.5</v>
       </c>
-      <c r="BQ66" t="str">
-        <f t="shared" ref="BQ66:BQ71" si="10">IF(BO66&gt;1,_xlfn.STDEV.S(B66:BL66),"")</f>
+      <c r="BR66" t="str">
+        <f t="shared" ref="BR66:BR71" si="12">IF(BP66&gt;1,_xlfn.STDEV.S(B66:BL66),"")</f>
         <v/>
       </c>
-      <c r="BR66">
+      <c r="BS66">
         <v>0</v>
       </c>
-      <c r="BT66" t="e">
-        <f t="shared" si="7"/>
+      <c r="BU66" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>354</v>
       </c>
       <c r="AU67">
         <v>5</v>
       </c>
-      <c r="BO67">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="BP67" s="18">
+      <c r="BP67">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BQ67" s="18">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="BR67" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BS67">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="e">
         <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="BQ67" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BR67">
-        <v>0</v>
-      </c>
-      <c r="BT67" t="e">
-        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>362</v>
       </c>
       <c r="AW68">
         <v>4.5</v>
       </c>
-      <c r="BO68">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="BP68" s="18">
+      <c r="BP68">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BQ68" s="18">
+        <f t="shared" si="11"/>
+        <v>4.5</v>
+      </c>
+      <c r="BR68" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BS68">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="e">
         <f t="shared" si="9"/>
-        <v>4.5</v>
-      </c>
-      <c r="BQ68" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BR68">
-        <v>0</v>
-      </c>
-      <c r="BT68" t="e">
-        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>365</v>
       </c>
       <c r="AZ69">
         <v>2.5</v>
       </c>
-      <c r="BO69">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="BP69" s="18">
+      <c r="BP69">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BQ69" s="18">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="BR69" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BS69">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="e">
         <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="BQ69" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BR69">
-        <v>0</v>
-      </c>
-      <c r="BT69" t="e">
-        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>366</v>
       </c>
       <c r="BB70">
         <v>3</v>
       </c>
-      <c r="BO70">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="BP70" s="18">
+      <c r="BP70">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BQ70" s="18">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BR70" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BS70">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="e">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="BQ70" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BR70">
-        <v>0</v>
-      </c>
-      <c r="BT70" t="e">
-        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>368</v>
       </c>
       <c r="BF71">
         <v>7.5</v>
       </c>
-      <c r="BO71">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="BP71" s="18">
-        <f t="shared" si="9"/>
+      <c r="BP71">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BQ71" s="18">
+        <f t="shared" si="11"/>
         <v>7.5</v>
       </c>
-      <c r="BQ71" t="str">
-        <f t="shared" si="10"/>
+      <c r="BR71" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BR71">
+      <c r="BS71">
         <v>0</v>
       </c>
-      <c r="BT71" t="e">
-        <f t="shared" ref="BT71" si="11">AVERAGE(AI71:AK71)</f>
+      <c r="BU71" t="e">
+        <f t="shared" ref="BU71" si="13">AVERAGE(AI71:AK71)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="72" spans="1:73" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>374</v>
+      </c>
+      <c r="BN72">
+        <v>5.5</v>
+      </c>
+      <c r="BP72">
+        <f t="shared" ref="BP72" si="14">COUNT(B72:BL72)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ72" s="18" t="e">
+        <f t="shared" ref="BQ72" si="15">AVERAGE(B72:BL72)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BR72" t="str">
+        <f t="shared" ref="BR72" si="16">IF(BP72&gt;1,_xlfn.STDEV.S(B72:BL72),"")</f>
+        <v/>
+      </c>
+      <c r="BS72">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="e">
+        <f t="shared" ref="BU72" si="17">AVERAGE(AI72:AK72)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:BR71" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}"/>
-  <conditionalFormatting sqref="BO2:BO68 BO70:BO71">
-    <cfRule type="colorScale" priority="55">
+  <autoFilter ref="A1:BS71" xr:uid="{7217F6E2-94B9-43BA-8347-6F8651201F03}"/>
+  <conditionalFormatting sqref="BP2:BP68 BP70:BP71">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR2:BR68 BR70:BR71">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP2:BP68 BP71">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10688,38 +10797,14 @@
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO2:BO68 BO71">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP2:BP68 BP70:BP71">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP2:BP68 BP71">
-    <cfRule type="colorScale" priority="45">
+  <conditionalFormatting sqref="BQ2:BQ68 BQ71">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10731,7 +10816,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AV44">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10743,6 +10828,102 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Q39">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:Z38 W2 W7 W11:W12 W15:W21 W31 B2:V38">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:Z47 X2:Z43 W2 W7 W11:W12 W15:W21 W31 W40 B2:V43 Z49">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB51:AV51 AD53:AV53 B2:AV49">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP2:BP68">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ2:BQ68">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:AV53">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU2:BU71">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:AV59">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -10754,31 +10935,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Z38 W2 W7 W11:W12 W15:W21 W31 B2:V38">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:Z47 X2:Z43 W2 W7 W11:W12 W15:W21 W31 W40 B2:V43 Z49">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB51:AV51 AD53:AV53 B2:AV49">
+  <conditionalFormatting sqref="BP69">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -10790,19 +10947,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO2:BO68">
+  <conditionalFormatting sqref="BR69">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP2:BP68">
+  <conditionalFormatting sqref="BP69">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -10814,7 +10971,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AV53">
+  <conditionalFormatting sqref="BQ69">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10826,7 +10983,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT2:BT71">
+  <conditionalFormatting sqref="BQ69">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -10838,7 +10995,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AV59">
+  <conditionalFormatting sqref="BP69">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -10850,7 +11007,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO69">
+  <conditionalFormatting sqref="BQ69">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -10862,8 +11019,56 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ69">
+  <conditionalFormatting sqref="BC39:BO67 AA2:BO38">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC48:BO67 AA2:BO47">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC43:BO67 AA2:BO42">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP72">
     <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR72">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10874,19 +11079,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO69">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP69">
+  <conditionalFormatting sqref="BP72">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10898,7 +11091,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP69">
+  <conditionalFormatting sqref="BQ72">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10910,7 +11103,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO69">
+  <conditionalFormatting sqref="BQ72">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10922,44 +11115,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP69">
+  <conditionalFormatting sqref="BU72">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC39:BN67 AA2:BN38">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC48:BN67 AA2:BN47">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC43:BN67 AA2:BN42">
-    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14223,10 +14380,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X191"/>
+  <dimension ref="A1:X194"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="I191" sqref="I191"/>
+    <sheetView topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="I192" sqref="I192:J194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23743,6 +23900,156 @@
         <v>4</v>
       </c>
     </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A192" s="14">
+        <v>45910</v>
+      </c>
+      <c r="B192" s="3">
+        <v>5</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H192" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I192" s="9">
+        <v>4</v>
+      </c>
+      <c r="J192" s="10">
+        <v>5</v>
+      </c>
+      <c r="K192" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L192" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M192" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N192" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O192" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P192" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A193" s="14">
+        <v>45910</v>
+      </c>
+      <c r="B193" s="3">
+        <v>4</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F193" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G193" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H193" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I193" s="11">
+        <v>4</v>
+      </c>
+      <c r="J193" s="2">
+        <v>3</v>
+      </c>
+      <c r="K193" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L193" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M193" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="N193" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O193" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P193" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A194" s="14">
+        <v>45910</v>
+      </c>
+      <c r="B194" s="5">
+        <v>4</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="I194" s="5">
+        <v>6</v>
+      </c>
+      <c r="J194" s="8">
+        <v>2</v>
+      </c>
+      <c r="K194" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L194" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="M194" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="N194" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O194" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P194" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23750,11 +24057,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DDCCA6-42DC-4211-A42F-70F3625FA6AA}">
-  <dimension ref="A1:AT71"/>
+  <dimension ref="A1:AU72"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT72" sqref="AT72"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU71" sqref="AU2:AU71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23772,10 +24079,10 @@
     <col min="34" max="36" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="39" max="41" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="43" max="44" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23914,8 +24221,11 @@
       <c r="AT1" s="1">
         <v>45903</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AU1" s="1">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -23953,12 +24263,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -23993,12 +24303,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -24006,7 +24316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>364</v>
       </c>
@@ -24017,7 +24327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -24025,7 +24335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>353</v>
       </c>
@@ -24033,27 +24343,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -24097,7 +24407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -24132,7 +24442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -24146,7 +24456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -24190,7 +24500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -24251,8 +24561,11 @@
       <c r="AN18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AU18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -24284,7 +24597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -24390,8 +24703,11 @@
       <c r="AT20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AU20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>342</v>
       </c>
@@ -24405,17 +24721,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -24429,7 +24745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -24487,8 +24803,11 @@
       <c r="AT25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AU25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>361</v>
       </c>
@@ -24498,8 +24817,11 @@
       <c r="AM26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AU26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -24582,7 +24904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>351</v>
       </c>
@@ -24590,7 +24912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -24673,7 +24995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -24767,8 +25089,11 @@
       <c r="AP30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AU30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -24776,7 +25101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -24784,7 +25109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -24864,7 +25189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -24872,7 +25197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -24892,7 +25217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -24900,7 +25225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>368</v>
       </c>
@@ -24908,7 +25233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>345</v>
       </c>
@@ -24916,7 +25241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>343</v>
       </c>
@@ -24924,7 +25249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>344</v>
       </c>
@@ -24938,7 +25263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -25023,8 +25348,11 @@
       <c r="AS41">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AU41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -25053,7 +25381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -25070,12 +25398,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -25140,7 +25468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>369</v>
       </c>
@@ -25148,7 +25476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -25156,7 +25484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>340</v>
       </c>
@@ -25179,17 +25507,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -25256,13 +25584,16 @@
       <c r="AT51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AU51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -25273,7 +25604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -25290,12 +25621,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -25315,508 +25646,522 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>374</v>
+      </c>
+      <c r="AU57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>44</v>
       </c>
-      <c r="N57">
+      <c r="N58">
         <v>3</v>
       </c>
-      <c r="S57">
-        <v>2</v>
-      </c>
-      <c r="AG57">
-        <v>2</v>
-      </c>
-      <c r="AI57">
-        <v>1</v>
-      </c>
-      <c r="AP57">
-        <v>2</v>
-      </c>
-      <c r="AQ57">
-        <v>1</v>
-      </c>
-      <c r="AR57">
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="AG58">
+        <v>2</v>
+      </c>
+      <c r="AI58">
+        <v>1</v>
+      </c>
+      <c r="AP58">
+        <v>2</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>8</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>2</v>
-      </c>
-      <c r="Q58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:46" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="Q59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>82</v>
       </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>2</v>
-      </c>
-      <c r="H60">
-        <v>2</v>
-      </c>
-      <c r="I60">
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
         <v>3</v>
       </c>
-      <c r="J60">
-        <v>4</v>
-      </c>
-      <c r="L60">
-        <v>4</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60">
-        <v>2</v>
-      </c>
-      <c r="O60">
-        <v>1</v>
-      </c>
-      <c r="P60">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>1</v>
-      </c>
-      <c r="R60">
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
         <v>3</v>
       </c>
-      <c r="S60">
+      <c r="S61">
         <v>3</v>
       </c>
-      <c r="U60">
+      <c r="U61">
         <v>3</v>
       </c>
-      <c r="V60">
-        <v>1</v>
-      </c>
-      <c r="W60">
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
         <v>3</v>
       </c>
-      <c r="AC60">
-        <v>1</v>
-      </c>
-      <c r="AF60">
-        <v>1</v>
-      </c>
-      <c r="AH60">
-        <v>2</v>
-      </c>
-      <c r="AI60">
+      <c r="AC61">
+        <v>1</v>
+      </c>
+      <c r="AF61">
+        <v>1</v>
+      </c>
+      <c r="AH61">
+        <v>2</v>
+      </c>
+      <c r="AI61">
         <v>3</v>
       </c>
-      <c r="AJ60">
-        <v>1</v>
-      </c>
-      <c r="AK60">
-        <v>4</v>
-      </c>
-      <c r="AL60">
+      <c r="AJ61">
+        <v>1</v>
+      </c>
+      <c r="AK61">
+        <v>4</v>
+      </c>
+      <c r="AL61">
         <v>3</v>
       </c>
-      <c r="AN60">
-        <v>1</v>
-      </c>
-      <c r="AP60">
-        <v>2</v>
-      </c>
-      <c r="AT60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AP61">
+        <v>2</v>
+      </c>
+      <c r="AT61">
+        <v>2</v>
+      </c>
+      <c r="AU61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>49</v>
       </c>
-      <c r="G61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="G62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>85</v>
       </c>
-      <c r="K62">
-        <v>4</v>
-      </c>
-      <c r="L62">
-        <v>2</v>
-      </c>
-      <c r="M62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63">
+      <c r="K63">
+        <v>4</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
         <v>3</v>
       </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-      <c r="G63">
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
         <v>3</v